--- a/output/Total_time_range_data/宁夏回族自治区/吴忠市_学习考察.xlsx
+++ b/output/Total_time_range_data/宁夏回族自治区/吴忠市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4190 +436,4585 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>291</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>关于公开征求吴忠市工业领域企业柔性引进人才工作办法征求意见稿吴忠市工业领域企业经营管理人才培养办法征求意见稿意见建议的公告</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-01-19</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/hdjl/myzj/202101/t20210119_2573905.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['关于公开征求《吴忠市工业领域企业柔性引进人才工作办法（征求意见稿）》《吴忠市工业领域企业经营管理人才培养办法（征求意见稿）》意见建议的公告_吴忠市人民政府', '关于公开征求《吴忠市工业领域企业柔性引进人才工作办法（征求意见稿）》《吴忠市工业领域企业经营管理人才培养办法（征求意见稿）》意见建议的公告', '《吴忠市工业领域企业柔性引进人才工作办法（征求意见稿）》《吴忠市工业领域企业经营管理人才培养办法（征求意见稿）》', '为贯彻落实《吴忠市柔性引进人才实施办法》，鼓励和支持企业实施人才强企战略，借用外力提升企业经营管理和科技创新能力，结合工作实际制定本办法。', '坚持“不求所有、但求所用”和“市场调节、政府引导、契约管理、绩效激励”的原则，聚焦推动高质量发展，引进企业急需紧缺人才或团队。', '鼓励企业通过项目引进、合作引进、兼职引进或其他方式柔性引进人才或团队，推动建立“周末工程师”、“候鸟式专家”等人才柔性引进机制。', '企业以项目为依托，与拥有科研成果、自主知识产权的人才或团队签订服务协议，聘请技术专家或团队来吴开展技术投资、技术入股和技术指导，将技术成果转化落地或转让。', '企业与高等院校、科研院所等高层次人才聚集的单位签订协议，围绕共建平台、智力引进、技术交流、人才培养等方面开展合作，或委托进行技术创新、课题研究、产品研发等工作。', '企业通过协议特聘挂职兼职的方式，聘请高层次人才挂职管理职务、专业技术职务，担任首席专家、特聘顾问等。', '（一）对企业柔性引进人才或团队来吴开展产学研合作，解决关键技术难题、推进研究成果转化成效显著的，经评估认定，给予企业实际支付劳动报酬的30%、20%补助，个人或团队每年累计补助不超过10万元、20万元。', '（一）对企业柔性引进人才或团队来吴开展产学研合作，解决关键技术难题、推进研究成果转化成效显著的，经评估认定，给予企业实际支付劳动报酬的', '对在企业兼任的首席专家、执行副总、技术副总、营销副总，在全面完成协议约定目标任务且工作绩效提升明显的，经评估认定，给予5—10万元经费补助。引进的“周末工程师”、“候鸟式专家”、特聘顾问等人才，完成协议约定目标任务，并为企业取得良好经济效益的，经评估认定，给予', '对在企业兼任的首席专家、执行副总、技术副总、营销副总，在全面完成协议约定目标任务且工作绩效提升明显的，经评估认定，给予', '（三）企业组建院士工作站、博士工作站、专家服务基地、海外专家工作室等，引进高层次人才来吴开展创新研究，取得', '重大技术突破或较好经济效益的，经评估认定，分别一次性给予15万元、10万元、5万元经费资助；其在站院士、博士、专家每人分别给予10万元、5万元、3万元工作经费。对柔性引进人才牵头成功创建国家级、自治区级重点实验室、工程（技术）研究中心的，一次性给予20万元、15万元工作经费支持。', '万元工作经费。对柔性引进人才牵头成功创建国家级、自治区级重点实验室、工程（技术）研究中心的，一次性给予', '（四）支持柔性引进的人才或团队带项目、带资金来吴创办企业，投入生产且年营业收入达到4000万元以上、纳税150万元以上的，经评估认定，一次性补助20万元。', '（四）支持柔性引进的人才或团队带项目、带资金来吴创办企业，投入生产且年营业收入达到', '（五）柔性引进的各类人才来吴开展服务活动，原则上由企业实报实销往返交通费、食宿费。在吴工作期间可申请免费入住市人才公寓。', '按照企业年初柔性引才计划，市工业和信息化局每季度对企业人才引进情况进行跟踪回访，受理企业柔性引才补助申请，初审通过后提交市人才工作领导小组办公室审核评估。企业申报柔性引才补助资金需提交以下资料：', '（五）柔性引进人才工作绩效总结，内容主要包括聘期内，人才与聘用单位合作开发新产品，进行重大课题研究和培养创新人才情况，取得的成果等。', '（七）柔性引进人才聘期内来吴工作的相关证明：车船票、机票、住宿费等复印件，填写《吴忠市企业柔性引才服务情况一览表》（附件3）。', '（七）柔性引进人才聘期内来吴工作的相关证明：车船票、机票、住宿费等复印件，填写《吴忠市企业柔性引才服务情况一览表》（附件', '（八）装订成册的佐证材料2份，主要包括：柔性引进人才的身份证复印件；人才所获相关证书复印件；人才在聘用单位的工作照片（附图片文字说明）；其他可佐证人才工作的情况资料。', '份，主要包括：柔性引进人才的身份证复印件；人才所获相关证书复印件；人才在聘用单位的工作照片（附图片文字说明）；其他可佐证人才工作的情况资料。', '（指柔性引进人才或团队）“柔性引才”补助，达到《吴忠市柔性引进人才实施办法》明确的补助标准，且较好地履行了协议规定的工作职责,所有上报的资料真实有效。如有弄虚作假、虚报冒领，将如数退回补助资金，并自愿承担相应的法律责任。', '以习近平新时代中国特色社会主义思想为统领，深入学习贯彻党的十九届五中全会和习近平总书记来宁视察重要讲话精', '成立吴忠市工业企业经营管理人才培养工作领导小组，组长由市工业和信息化局局长马玉祥担任，副组长由市工业和信', '围绕绿色食品、装备制造、现代纺织、电子信息、新材料、清洁能源等重点特色产业，针对企业发展战略、商业模式创新、企业经', '营管理、金融资本运作、企业技术创新、市场营销创新等举办系列培训。在充分征求企业意见', '不同需求，调整充实培训内容，切实提高其素质和能力，帮助企业家实现由“爱拼敢赢”向“善拼会赢”转变。', '以企业副总经理以上经营管理人员为重点，兼顾企业中层管理人员，分期分批分类实施培训。每年组织50名科技型、“专', '以企业副总经理以上经营管理人员为重点，兼顾企业中层管理人员，分期分批分类实施培训。每年组织', '针对企业经营管理人员工学矛盾突出、个体文化水平不平衡的特点，开展形式多样的培训活动。', '重点邀请国内知名教授学者、实操型专家和成功企业家到我市实地授课和经验分享，提升企业家对宏观经济形势及新业态的把握，', '采取“参观考察与研讨交流相结合”的方式，组织我市企业家到京津冀、长三角、珠三角等先进地', '各工业园区管委会，各县（市、区）工业经济主管部门要根据本办法精神，建立上下贯通、相互衔接的企业经营管理人才培养工作机制。要充分发挥职能作用，加强交流合作，形成工作合力，注重经验交流，不断创新工作方法，推动企业经营管理人才培养工作顺利实施。', '按照不同企业规模、不同行业、不同需求，有针对性地组织开展各类培训班、研讨会以及惠企政策宣讲活动，着力帮助企业', '围绕一带一路、企业技术改造、减税降费和国家、自治区支持企业发展相关政策措施适时进行培训', '充分发挥新闻媒体的舆论引导作用，通过电视广播、新媒体、报纸等多种媒介，宣传推广一批企业经营管理人才学习成果，引导全市企业家开拓眼界、增强创新意识；挖掘报道一批业绩突出、成长较快、创新能力较强的企业和企业家典型，通过优秀企业家风采展示、事迹汇编等方式，树立标杆、鼓舞斗志，在全社会营造“尊重企业家、助力企业家成长”的良好社会环境。', '充分发挥新闻媒体的舆论引导作用，通过电视广播、新媒体、报纸等多种媒介，宣传推广一批企业经营管理人才学习成果，引导全市企业家开拓眼界、增强创新意识；挖掘报道一批业绩突出、成长较快、创新能力较强的企业和企业家典型，通过优秀企业家风采展示、事迹汇编等方式，树立标杆、鼓舞斗志，在全社会营造']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>吴忠市工业和信息化局年法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-11-24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202011/t20201124_2347075.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['以实现依法治市、建设法治政府为目标，全面落实法治政府建设总体部署，强化法治思维，规范执法行为，努力营造法治化营商环境。现将有关工作情况报告如下：', '结合法律进企业、进社区、节能宣传周、安全生产宣传教育“五进”、“安全生产宣传月”等重要时间节点和活动载体，', '组织开展“全市中小企业星光培训工程系列培训班”，邀请九江英果特管理咨询有限公司梁伟权开展了《民法典》《保障农民工工资支付条例》法治讲座，宁夏金世纪包装印刷有限公司等82家企业109人参加培训；组织全市38家重点产废企业人员', '习近平总书记关于安全生产重要论述和《中华人民共和国安全生产法》；到社区开展《食盐专营办法》普法宣传讲座,印制《食盐专营办法》宣传资料2000份，参与群众300余人。', '习近平总书记关于安全生产重要论述和《中华人民共和国安全生产法》；到社区开展《食盐专营办法》普法宣传讲座', '印发政务公开实施方案和“政府开放日”活动实施方案，制定完善公开目录和公开指南，通过“吴忠市人民政府”网站“政务公开”栏目、“吴忠工信”微信公众号、微博及吴忠日报、局内公开栏等途径，主动公开各类工作信息', '工集中学习《宪法》《民法典》等法律法规，通过“吴忠法治”微信公众号，组织全局干部职工进行宪法知识考试，集中观看', '年全国安全生产月主题宣教片《征程—奋力推进应急管理体系和能力现代化全力防控重大安全风险》，', '进一步提升了干部职工尊法学法守法用法自觉性以及推进应急管理体系和能力现代化的认识。', '接受全市“七五”普法工作考核、法治政府建设半年工作督查，强化问题整改，有效落实法治政府建设各项工作。', '制定出台了《吴忠市支持食品工业高质量发展政策措施》和《吴忠市应对新冠肺炎疫情支持企业加快复工复产和稳岗就业若干措施》，', '配套制定了相应实施细则和政策办理服务指南并在吴忠日报向社会公布，明确了政策措施的实施周期，同时', '集中清理政府部门拖欠民营企业中小企业账款，制定印发了《吴忠市2020年清理拖欠民营企业中小企业账款工作方案》和《吴忠市本级国有闲置资产处置工作方案》，强化措施，细化责任分工，确保高质量完成全年清欠目标任务。截至目前，全市民营企业中小企业账款总体清偿比例100%。', '。落实企业困难问题清单销号台账制度，围绕融资需求、防疫物资储备等6个方面，摸排并汇总建立了6个问题清单销号台账涉及问题618条，已解决或初步解决企业困难问题450余条，在协调各相关单位及时给予办理解决的同时，指导企业主动应对市场形势努力克服各类市场性困难问题。', '《关于进一步规范和改进涉企检查的意见》（吴党办发〔2017〕32号），除自治区相关厅（局）及市委、市政府安排的考察调研外，严控', '认真学习贯彻习近平新时代中国特色社会主义思想，全面落实党中央、国务院全面依法治国、建设法治政府决策部署和自治区、市委、市政府部署安排，充分发挥党组在推进全局法治建设中的领导作用，研究制定年度工作计划，将法治建设同全局各项工作同安排、同部署。', '根据《自治区工业和信息化厅关于印发&lt;自治区工业和信息化系统权力清单指导目录&gt;的通知》和《', '对市工信局行政处罚要素进行调整，增加行政职权6项，取消行政职权3项，调整后共保留行政职权12项，其中行政许可2项、行政处罚7项、行政检查1项、行政确认1项、行政奖励1项，调整申请已报市委编办审核通过。', '积极开展规范性文件定期清理工作。2020年代市委、市政府起草印发规范性文件《吴忠市应对新冠肺炎疫情支持企业加快复工复产和稳岗就业若干措施》《吴忠市促进食品工业高质量发展政策措施》《吴忠市5G通信网络基础设施建设任务分工方案》。', '将法律法规学习纳入党组理论学习中心组学习和干部集中学习，开展党组会前警示教育一刻钟，不断提高领导干部法治思维和依法行政能力；依托局微信公众号、工业企业微信服务群等新媒体平台，积极向工业企业管理人员及广大群众宣传国家法律法规等相关内容，及时转载各类违法案例，警示教育社会各界严格遵守国家法律法规，依法经营。', '制定印发了《吴忠市工业和信息化局党组“三重一大”决策制度》，进一步规范了领导班子决策行为，严格决策程序，防止决策失误，提高领导决策的科学化、民主化、公开化，强化对机关重大决策、重要干部任免、重大项目安排及大额资金使用方面的监督和管理；严格执行局党组议事规则，全部重大决策均实行集体讨论，主要负责同志末位表态，会议记录完整并且均制发纪要。', '坚持行政执法信息公开，提高行政执法工作透明度，保障公民、法人和其他组织对行政执法工作的知情权和监督权，', '积极落实市盐业主管机构工作职责，制定了《全市盐业市场专项治理实施方案》等，牵头市场监管、公安、卫健委等领导小组成员单位，对各县（市、区）盐业主管机构工作落实情况进行联合督导，先后开展盐业市场专项治理2次、整改“回头看”1次、国庆节假日盐业市场暗访摸排1次，并印发了《全市盐业市场专项治理督查情况通报》，对重点问题跟踪督办。截至目前，共排查各类盐品销售点40余处，查出问题盐9例，已全部得到整改，全市盐业市场平稳运行，盐品质量安全得到有效保证。', '积极落实市盐业主管机构工作职责，制定了《全市盐业市场专项治理实施方案》等，牵头市场监管、公安、卫健委等领导小组成员单位，对各县（市、区）盐业主管机构工作落实情况进行联合督导，先后开展盐业市场专项治理', '完善行政执法手续，开展节能专项监察。制定印发了《吴忠市2020年节能监察工作计划》，明确了年度节能监察及检查工作任务并组织开展2020年重大工业节能监察工作，', '。监察过程中，我局监察人员严格按照法律程序开展监察，每次抽取的执法检查人员均不少于2人，对被监察单位出具“通知书”、“现场告知书”、“送达回证”、“现场检查笔录”等法律文书，并明确告知相关事项。监察过程中未发现各被监察企业不合理用能情况，未实施行政处罚。', '。监察过程中，我局监察人员严格按照法律程序开展监察，每次抽取的执法检查人员均不少于', '将日常监管与重要时段和重大节假日等督导检查结合起来，开展了全国“两会”期间民爆行业安全生产专项检查、安全隐患专项整治、电气火灾防控工作、百日安全专项整治、“两体系”创建等8项重点工作。今年以来，', '次，对全市民爆物品生产、销售企业进行全面排查和预判分析，做到有检查、有整改、有复查的闭环管理', '4项盐业监管行政处罚权，盐业体制改革以来该项工作自上而下没有实施过系统学习和培训，相关科室执法人员业务水平有待提高。', '进一步健全依法行政工作的领导、协调和监督机制，坚持依法管理的理念，坚持依法办事、按章理事、管人问事，把依法行政作为履行自身职能，推动工业经济和信息化加快发展的一项基础性、根本性、全局性任务贯彻好、落实好。', '加强全局干部职工的法治建设，坚持以学习培训为主，采取多种形式深入开展政治和法律知识的学习，切实提高机关工作人员的政治思想素质和依法行政工作能力。', '严格执行重大行政决策程序与规范性文件制定的相关规定，遵照执行合法性审查、征求各部门及群众意见、集体讨论等重大行政决策的必经程序；加强普法宣传工作，利用网站、公众号、结对活动等途径，宣传与企业密切相关的法律知识，适时组织开展普法培训，提高企业、企业管理人员等的法治意识，营造良好的法治氛围。', '应享尽享；在常态化疫情防控下，精准帮扶重点民营企业，督促各金融机构不折不扣落实自治区促进小微企业健康发展和支持企业复工复产各项措施，提振企业发展信心，推动全市工业经济平稳健康高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>291</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>吴忠市粮食和物资储备局组织全市粮油龙头企业赴泉州市厦门市开展特色优质粮油产品及储备粮产销合作推介活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2020-12-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/bmxx/202012/t20201209_2415462.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['吴忠市粮食和物资储备局组织全市粮油龙头企业赴泉州市厦门市开展特色优质粮油产品及储备粮产销合作推介活动_吴忠市人民政府', '吴忠市粮食和物资储备局组织全市粮油龙头企业赴泉州市厦门市开展特色优质粮油产品及储备粮产销合作推介活动', '为深入贯彻落实党中央关于东西部扶贫协作的重要部署以及闽宁扶贫协作联席会议精神，推动吴忠市党政代表团赴泉州市考察达成的合作意向落实落地。11月25日—29日吴忠市粮食和物资储备局组织我市法福来、塞外香、中桦雪、君星坊等8家粮油龙头企业赴泉州市、厦门市开展特色优质粮油产品及储备粮产销合作推介活动。', '推介组一行先后实地考察了泉州市市区中心粮库、晋江市闽宁合作交流中心、南安市中国粮食城以及泉州市、厦门市宁夏优质特色产品展示展销中心等。通过实地考察，现场蒸煮品尝吴忠优质大米、面粉及特色亚麻籽油产品，大力推介吴忠优质特色粮油产品，获得泉州市粮油业同仁的高度认可。', '活动期间，吴忠市粮食和物资储备局与泉州市发展和改革委员会签订了《粮食产销合作框架协议》，宁夏法福来食品股份有限公司与福建泉州市金穗米业有限公司、宁夏塞外香食品有限公司分别与泉州景田谷稻农业发展有限公司、厦门市宁夏优质特色产品展示展销中心签订了《粮食产销合作意向协议》，达成优质大米意向采购600吨，为吴忠市优质特色粮油进入泉州市、厦门市乃至整个福建省消费市场奠定了良好基础。', '下一步，吴忠市粮食和物资储备局将组织全市粮油企业认真学习借鉴泉州市厦门市粮油产业发展先进经验，解放思想、创新理念，充分发挥吴忠市优质特色产品优势，打响宁夏大米和吴忠亚麻籽油等特色品牌，不断拓展泉州市特色优质粮油消费市场，促进吴忠市与泉州市特色优质粮油产品产销合作更加紧密，真正实现对口帮扶、优势互补、互惠互利、合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>291</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市政务服务中心严把三关提升发展党员含金量</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/bmxx/202311/t20231102_4336932.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['市政务服务中心始终坚持把做好党员发展工作作为党建重点任务，严格标准、严密程序、严明责任，扎实做好高质量发展党员工作，为政务服务、公共资源交易、', '以“三会一课”和主题党日为集中教育载体，学悟原文原理、强化对党忠诚教育；以青年理论学习小组为延伸拓展载体，深读研学，提升学习厚度；以学习强国、干部网络学习为线上自学载体，丰富形式，提升学习广度，通过多渠道、多举措、多方位提升理论素养。', '坚持把政治标准放在首位，严格落实政治审查制度，按照执纪执法部门联审机制，通过全领域监督、全过程考核，全面掌握发展党员的政治素养，坚决把不符合党员条件的挡在门外，确保每名新党员政治合格、素质过硬。', '个步骤”，全面落实发展党员全程纪实、台账管理、定期自查、责任到岗“四项制度”，建立发展党员时间节点清单，详细记录党员发展每一环节具体时间及下一步骤预计时间，确保发展党员程序规范、有序衔接。', '按照“一人一档”“一环一册”原则，分人分环节整理发展党员档案，并建立目录清单，使党员基本信息、发展环节一目了然，便于查阅，同时掌握党员发展进度。按照发展环节及时将会议记录、考察意见等归集入档。定期对档案“回头看”，查漏补缺。档案保管由专人负责，确保档案资料真实、准确、完整、全面。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>291</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>吴忠市人民政府办公室关于印发西部制造业高质量发展吴忠论坛实施方案和工作方案的通知</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/szdwj/201910/t20191014_1800834.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['吴忠市人民政府办公室关于印发西部制造业高质量发展（吴忠）论坛实施方案和工作方案的通知_吴忠市人民政府', '吴忠市人民政府办公室关于印发西部制造业高质量发展（吴忠）论坛实施方案和工作方案的通知', '经自治区党委、政府同意，市人民政府、自治区工业和信息化厅、自治区通信管理局、中国工程科技发展战略宁夏研究院定于10月17-18日举办“西部制造业高质量发展（吴忠）论坛”。现将西部制造业高质量发展（吴忠）论坛实施方案和工作方案印发给你们，请按照活动要求和责任分工抓好落实。', '加快建设制造强国，加快发展先进制造业，推动互联网、大数据、人工智能和实体经济深度融合，是党的十九大作出的一项重大战略部署。为认真学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神、深入落实自治区第十二次党代会确定的创新驱动发展战略，进一步找准短板、谋划举措，推动吴忠乃至宁夏制造业特别是装备制造业和高端乳制品、现代纺织等特色优势产业加速质量变革、效率变革、动力变革，为我国西部欠发达地区制造业高质量发展探索新路径、提供新借鉴，定于2019年10月17日—18日举办“西部制造业高质量发展（吴忠）论坛”。', '吴忠市人民政府、自治区工业和信息化厅、自治区通信管理局、中国工程科技发展战略宁夏研究院', '“圆桌对话”围绕分享经济、供给侧改革、制造业高质量发展、工业互联网等热点话题就西部发展存在的现实问题展开交流', '企业考察，考察供给侧及应用侧共计3家代表企业，建议为吴忠仪表、伊利乳业、吴忠大数据运营公司（参观+座谈）', '轻工展览—吴忠市优秀制造企业代表以及工业互联网产业联盟成员代表组展，包含工业互联网标识解析体系应用展示；重工展览—酒店大厅LED屏幕播放视频', '10月17日上午举行。主要包括工信部和自治区、吴忠市领导致辞，签订四方合作备忘录（中国信通院、吴忠市人民政府、宁东管委会、自治区通管局）及发布宁夏工业互联网二级节点、专家主题演讲、跨界对话等内容。', '10月17日全天举行。组织吴忠市乃至宁夏银川都市圈优秀制造企业代表以及工业互联网产业联盟的成员企业代表组展，通过图文展板、现场演示、实时互动、交互体验等方式，集中展示吴忠市乃至宁夏银川都市圈制造企业发展水平和我国工业互联网发展阶段性成果。', '10月17日下午举行。围绕工业互联网、高质量发展评价等方向开展两个主题论坛，通过标杆企业经验分享，助力西部欠发达地区制造企业高质量发展。', '10月17日上午与主论坛同时举行。通过企业考察的方式从供给侧和应用侧全面了解吴忠市乃至宁夏银川都市圈、制造业龙头企业的高质量发展情况。', '10月18日上午举行。围绕绿色发展、工业互联网、高质量发展评价、产业集群等主题面向政府工作人员及企业代表开展培训，进行趋势分析、概念科普、政策推进、实践应用、推进路径及评价方法等方面介绍，提升从业人员认知水平，更好地支撑西部欠发达地区制造业高质量发展。', '郭秉晨 自治区科技厅党组书记、厅长，中国工程科技发展战略研究院宁夏研究院副理事长、执行副院长', '负责邀请国家部委领导、区外专家、企业代表参会嘉宾并对接会务工作；负责会场整体设计、布置及会务保障；负责签约、会见、考察等活动的组织工作；负责领导讲话、合作备忘录、活动方案、活动手册的印制发放工作；负责会议有关证件的印制发放工作；完成论坛组委会交办的其他工作。', '负责制定会议宣传报道及媒体管控方案；负责邀请中央及区属媒体记者按宣传方案要求进行采访报道。会前、会中对媒体舆情进行收集、研判，会同市工信局做好会议期间突发舆情的应急处置。对自治区媒体有关报道提出管理要求，对参会记者提出纪律要求；负责会议期间稿件的报审。', '协助做好企业观摩环节涉及重点项目推介工作，对接企业负责人与参访嘉宾，实时调整观摩进展。', '负责邀请区内企业及参会嘉宾并对接会务工作；负责对接协调签约、会见、考察等活动的布置和落实工作；负责协调领导讲话、合作备忘录、活动方案、活动手册的起草工作；负责会议有关证件的信息征集审核工作、会同市委宣传部做好会议期间突发舆情的应急处置；完成论坛组委会交办的其他工作。', '负责制定安全保卫工作方案；做好住地、考察、现场参会代表的安全保卫工作；处置应急突发事件。', '全面负责论坛医疗卫生保障工作。制定医疗卫生保障工作方案，组织召开保障工作协调会议，协调安排部署医疗卫生保障力量；对医疗卫生保障工作进行督导检查；组织协调突发公共卫生事件处置和伤病人员的救治。', '：负责组织市大数据运营公司签署四方合作协议备忘录，发布宁夏工业互联网二级节点活动的策划和实施工作，安排市创投公司组织宁夏优势特色产品参展。', '负责做好市容市貌环境整治的组织、协调、检查和督导等工作，确保全市市容整洁，环境优美。', '配合安排嘉宾食宿，确定房间信息，安排就餐等；负责嘉宾接待车辆及人员安排，包括接送机（站）等；负责嘉宾论坛期间的对接工作。', '负责整个责任区的消防工作，提前做好安全排查工作及紧急预案。有效预防、及时控制和消除展会突发公共安全事件的危害，指导和规范论坛安全消防等方面的工作。', '为会议地点提供安全的输配电装置，保障会议的顺利开展；会前检查责任区电线电缆；为会议提供备用电源。', '责：完成各类请示报告，报批拨付经费；配合承办单位邀请参会嘉宾及布展企业，并沟通策划行程安排、演讲内容、布展内容等。', '责：配合承办单位负责签约、会见、考察等活动的组织、协调和会场、考察线路的布置和落实等工作；负责会场整体设计及布置。负责领导讲话、合作备忘录、活动方案、活动手册等起草、印制、发放等工作；负责会议有关证件的信息审核、印制、发放等工作；负责展区布置、现场控制，展示内容及产品的审核把关；召集志愿者协助会务。', '责：配合承办单位统计重要嘉宾购票信息，为嘉宾购买往返吴忠机票/车票；统计嘉宾抵达及离开吴忠的时间点、航班、火车车次等；安排嘉宾食宿，确定房间信息，安排就餐等；负责嘉宾接待车辆及人员安排，包括接送机（站）等；负责嘉宾论坛期间的对接工作。', '责：配合承办单位进行观摩路线设计、观摩内容策划、企业接待人员安排、观摩嘉宾信息统计、车辆安排等；观摩过程中，对接企业负责人与参访嘉宾，实时调整观摩进展。', '责：配合承办单位准备相关素材，联络媒体公司开展论坛前宣传工作，包括新闻稿制作、撰写与推广；论坛中进行拍照、采访、速记等；论坛结束后新闻稿、嘉宾演讲文稿（需与嘉宾确认）、采访视频等发布。', '责：对接保安公司提前进行现场安保布置和安全检查，及活动当天安保工作；制定医疗卫生保障工作方案，协调安排部署医疗卫生保障力量；对宾馆、活动场所的公共场所、食品和饮用水卫生及特种设备安全运行进行监督检查；提前做好安全排查工作及紧急预案，有效预防、及时控制和消除展会突发公共安全事件的危害，指导和规范论坛安全消防等方面的工作；为会议地点提供安全的输配电装置，保障会议的顺利开展；为会议地点提供安全用气，实施天然气安全防护和充分供给措施。', '责：在论坛开始前针对重点区域进行环境整治，包括垃圾清扫，小广告清理，更新重要地点广告、标语等。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>291</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市住房公积金管理中心开展青年理论学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-04-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/sy/wzxx/bmxx/202105/t20210506_2816592.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['月30日，市住房公积金管理中心组织青年党员干部举行青年理论学习小组集体学习。作为党史学习教育重要载体，中心党组高度重视对青年党员干部思想理论的武装，围绕“学党史、感党恩、跟党走”，庆祝“五四青年节”，重点学习领会习近平新时代中国特色社会主义思想，结合党史学习教育，赓续红色基因，感悟思想伟力。', '中心党组班子成员带领青年党员干部学习了新华社题为《让青春在不懈奋斗中绽放绚丽之花——习近平总书记在清华大学考察时的重要讲话激励广大青年肩负历史使命坚定前进信心》的文章，以及习近平总书记《论中国共产党历史》中《讲好中国共产党的故事》《在纪念马克思诞辰200周年大会上的讲话》和《了解历史才能看得远，永葆初心才能走得远》等重要论述。', '大家一致认为，要积极响应习近平总书记对广大青年提出的“在真刀真枪的实干中成就一番事业”的殷切期望和伟大号召，实学实干，学以致用，从党史学习教育中汲取奋进力量，爱岗敬业、脚踏实地，把缴存职工的烦心事、操心事、揪心事放在心上，为住房公积金事业高质量发展添砖加瓦。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>291</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>吴忠市大事记年月</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-01-04</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/202101/t20210104_2550847.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['1日 我市在盛元广场举行2020年国庆节升国旗仪式，庆祝中华人民共和国成立71周年，共同祝愿伟大祖国繁荣昌盛。市委书记沈左权，市长喜清江，市政协主席孙瑛，市委副书记朱云等四套班子领导，以及社会各界干部群众参加升国旗仪式。', '△ 吴忠市爱国活动周系列活动之一，以一场贺兰山下的紫色之旅为主题的2020贺兰山东麓山地旅游自行车挑战赛在青铜峡市举行。来自全区362名选手参赛。', '9日 石嘴山市委书记、人大常委会主任王文宇，市长张利，市政协主席马平安率领考察团来吴，考察观摩产业发展、重点项目建设等工作。市委书记、人大常委会主任沈左权，市长喜清江，市政协主席孙瑛陪同考察。', '10日 市委全面深化改革委员会召开第九次会议，会议传达学习中央全面深化改革委员会第十次、十五次会议精神和自治区党委全面深化改革文件，听取县（市、区）2020年改革工作和利通区关于经济发达镇行政管理体制改革试点工作情况汇报，安排部署下一步改革工作。市委书记、市委全面深化改革委员会主任沈左权主持会议，市委副书记、市委全面深化改革委员会副主任朱云，市委全面深化改革委员会全体委员参加会议。', '△ 市扶贫开发领导小组召开2020年第3次会议，会议传达学习了自治区扶贫开发领导小组2020年第4次会议精神，听取全市脱贫攻坚情况汇报，对下一步工作进行安排部署。市委书记、市扶贫开发领导小组组长沈左权主持会议并讲话。市委副书记朱云参加会议。', '14日 市委书记沈左权，市长喜清江率吴忠市党政代表团前往泉州市学习考察，并与泉州市党政领导座谈交流。', '16日 自治区政协副主席李彦凯、洪洋、马力带领调研组，对我市生态移民、现代农业生产等工作进行调研。市政协主席孙瑛陪同调研。', '19日 由吴忠市委宣传部、吴忠市新闻传媒中心联合各县（市、区）党委宣传部、融媒体中心共同开展的“牢记嘱托、践行四力——市域沿黄行全媒体集中采风”活动正式启动。在为期3天的采风活动中，40余名记者将到利通区、青铜峡市、红寺堡区、盐池县进行采访报道，用手中的笔和镜头，充分展示吴忠人因黄河而生、因黄河而兴、因黄河而美的幸福生活；展示吴忠依托黄河山川沧桑巨变，展示吴忠高质量发展历程和显著成效，激励引领广大干部投身黄河流域生态保护和高质量发展先行区建设。', '△ 吴忠市制度执行力和治理能力培训班在市委党校开班。市委副书记、政法委书记朱云做开班动员并为学员讲授开班第一课。', '△ 吴忠市红十字会召开第三届理事会第三次会议。会议传达学习了习近平总书记视察宁夏重要讲话精神、中国红十字会第十一次全国会员代表大会精神、自治区党委十二届十一次全体会议精神、自治区红十字会第六次全区会员代表大会精神和吴忠市委五届十一次全体会议精神。副市长徐勇主持会议。', '22日 市长喜清江主持召开市政府第61次常务会议，传达学习自治区党委书记陈润儿，自治区主席咸辉调研督导红寺堡区贯彻落实习近平总书记视察宁夏重要讲话精神推进脱贫攻坚工作要求，听取前三季度经济运行、安全生产、脱贫攻坚情况汇报，研究部署下一步工作。会议审定了《吴忠市重污染天气应急预案（2020年）》，会议还研究了其他事项。', '23日 我市召开前三季度经济形势分析会，深入分析前三季度经济发展情况，准确把握前三季度经济发展脉络和规律，查找问题短板，研究部署冲刺第四季度经济工作。市委书记沈左权出席会议并讲话，市长喜清江主持会议。会议通报了全市“六稳”“六保”工作进展情况，前三季度全市经济运行情况、存在的问题及下一步措施，各县（市、区）、工农业园区及市直有关部门汇报了经济运行情况。', '26日 全市领导干部政治能力提升专题培训班召开，市委书记沈左权作《提升政治能力，坚决做到“两个维护”》专题辅助报告。他强调，要深入学习贯彻习近平总书记关于加强党的政治建设的重要论述和视察宁夏重要讲话精神，始终保持政治定力、驾驭政治局面、防范政治风险，自觉把讲政治贯穿于党性锻炼全过程，使自身的政治能力与担任的领导职责相匹配，带领干部群众在建设黄河流域生态保护和高质量发展先行区的生动实践中干在实处、走在前列。', '△ 市五届人大常委会召开第55次主任会议。会议由市人大常委会副主任马伟主持。会议确定了市五届人大常委会第二十八次会议建议议题；讨论了有关议题方案，关于视察全市工业高质量发展情况的方案、关于调查市本级2019年度国有自然资源资产管理情况的方案、关于视察市五届人大五次会议代表建议办理情况的方案、关于视察全市老旧小区改造工作情况的方案、关于对市科学技术局、公安局、生态环境局、扶贫开发办公室、医疗保障局工作评议的方案。', '近日 根据国家城市信用状况监测排名2020年第7期报告，在全国386个县级市公布的监测结果中，青铜峡市排名第46位，有效提升340名，首次进入全国前50名。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>291</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>吴忠市政务服务中心赴银川市民大厅石嘴山市政务服务中心参观学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/bmxx/202307/t20230725_4193360.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['为持续深化“放管服”改革，优化营商环境，全面提升政务服务水平，近期，吴忠市政务服务中心主要领导、相关科室负责人及', '日，全体人员认真参观了银川企业服务中心、不动产登记服务大厅、工程项目服务大厅等各功能分区，通过听取讲解、观看汇报', '及与窗口工作人员沟通交流等形式，详细了解了银川市民大厅运行体制机制、“一窗受理”改革以及便民服务措施等方面的情况，并就政务服务标准化建设推进和日常管理工作中的具体问题开展了交流探讨。', '日，一行人前往石嘴山市政务服务中心开展参观学习和座谈交流，现场了解了政务大厅硬件设施、窗口设置、人员配备、业务办理等情况，并就政务大厅建设运行管理、深化“一件事一次办”改革、“跨省通办”“区内通办”运行模式、提升监督', '参观学习后，大家表示要借鉴学习银川市民大厅、石嘴山市政务服务中心在推进政务服务标准化建设工作中的先进做法，对标对表，以推进政务服务标准化建设为抓手，准确把握政务服务标准化工作重点和任务，促进窗口不断提高服务能力和服务水平，把考察学习的先进经验体现到推动工作落实上，持续提升政务服务标准化、规范化、便利化水平。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>291</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>彭阳县来我市考察学习设施农业先进技术</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2017-01-09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/nyxx/nyxx/201710/t20171016_522780.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['1月6日，彭阳县委书记赵晓东率领县农业局、林业局、部分乡镇主要负责人及蔬菜种植大户一行16人到我市国家农业科技园区考察学习设施农业先进管理模式。 考察组在市农牧局及科技园区管委会相关领导的陪同下，先后实地参观考察了宝华公司玻璃日光温室基地、园区日光温室基地新技术新品种展示区和物联网展示区，并详细了解了园区项目建设和进驻企业发展情况。 考察组听取了园区规划、配套服务建设以及招商引资相关工作情况，对宝华公司玻璃日光温室基地建设以及下一步规划、日光温室辣椒轻简化栽培技术、小蕃茄椰糠栽培技术、温室补光灯应用的进行了详细的了解。 通过考察学习，考察组一致认为园区规划大智慧、农业项目大投入、基础设施大配套的做法和经验，对彭阳县发展现代高效农业特别是现代农业示范园区建设具有很好的借鉴作用，他们开阔了眼界，启迪了思路，看到了差距，感到了压力，他们表示回去后将把我市的成功经验进行深入学习与消化。赵晓东书记要求考察组成员在学习之后，要充分利用学到的，抓好现代高效农业建设的招商引资，以及加快推进在建项目，全力推进彭阳县现代农业园区建设，促进彭阳经济社会取得新发展、实现新突破。 （王海宁）', '1月6日，彭阳县委书记赵晓东率领县农业局、林业局、部分乡镇主要负责人及蔬菜种植大户一行16人到我市国家农业科技园区考察学习设施农业先进管理模式。', '陪同下，先后实地参观考察了宝华公司玻璃日光温室基地、园区日光温室基地新技术新品种展示区', '、农业项目大投入、基础设施大配套的做法和经验，对彭阳县发展现代高效农业特别是现代农业示范园区建设具有很好的借鉴作用，他们开阔了眼界，启迪了思路，看到了差距，感到了压力，他们表示回去后将把我市的成功经验进行深入学习与消化。赵晓东书记要求考察组成员在学习之后，要充分利用学到的，抓好现代高效农业建设的招商引资，以及加快推进在建项目，全力推进彭阳县现代农业园区建设，促进彭阳经济社会取得新发展、实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>291</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>山西省太原市到我市考察学习动物防疫社会化服务工作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-08-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/nyxx/nyxx/201908/t20190819_1668557.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['8月14日，山西省太原市农业农村局主管局长一行9人到我市考察学习动物防疫社会化服务工作，吴忠市农业农村局分管领导陪同观摩考察。', '考察人员先后到青铜峡市、利通区，通过听取汇报、座谈交流、实地考察，对我市动物防疫服务方式改革工作进行了详细的了解。同时，对利通区逐步解决防疫人员的难题措施及青铜峡市互联网+动物防疫实时管理信息系统等创新工作产生了很大兴趣，并就我市动物防疫服务方式改革工作取得的成效给予了高度评价，一致认为我市动物防疫社会化服务模式值得学习推广。', '考察人员先后到青铜峡市、利通区，通过听取汇报、座谈交流、实地考察，对我市动物防疫服务方式改革工作进行了详细的了解。同时，对利通区逐步解决防疫人员的难题措施及青铜峡市互联网', '我市动物防疫社会化服务方式的改革，提高了动物疫病的预防和控制能力，为全市畜牧业生产安全、公共卫生安全及生态安全奠定了坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>291</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>石嘴山市农业农村局来我市考察学习农村户厕改造模式</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020-05-21</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/nyxx/nyxx/202005/t20200521_2096190.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['5月19日，石嘴山市农业农村局组织县（区）农业农村局、乡镇和施工企业相关人员20余人来我市考察学习农村卫生厕所改造技术模式。考察组先后到青铜峡市叶盛镇地三村、光明村实地观摩了农村集中下水道收集户厕建设模式，红寺堡区红寺堡镇和新村观摩了钢筋混凝土三格式化粪池厕所建设模式，同心县石狮管委会满春村观摩了农村节水防冻型地下储水式电动高压冲水厕所建设模式，并就农村户厕建造技术、建设资金投入及后期运行管护机制等进行了交流。考察组一致认为我市各县（市、区）能够因地制宜，结合村庄布局、农户生活习惯等合理选择改厕技术模式非常值得石嘴山市借鉴学习。', '2020年我市将认真落实自治区《2020年全区农村人居环境整治工作要点》和自治区召开的一二三类县农村“厕所革命”推进会议精神，对标对表三年行动方案目标任务，采取“六项”措施，全力推进农村卫生厕所建设，确保年底前全面完成建设任务，按期高质量收官交账。一是加强组织领导，全面推进任务落实。二是整合项目资金，加大财政投入力度。三是加强调度分析，推进工程加快建设。四是强化督导检查，严格工程质量管理。五是突出建管并重，加快建立长效机制。六是严格考核验收，确保工作全面收官。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>291</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>太阳山开发区应急管理综合行政执法大队年招录工作人员体检公告</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202302/t20230201_3938921.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['太阳山开发区应急管理综合行政执法大队2022年招录工作人员体检公告_吴忠市人民政府', '根据《太阳山开发区应急管理综合行政执法大队2022年公开招聘工作人员公告》和《太阳山开发区应急管理综合行政执法大队2022年自主公开招聘事业单位工作人员实施方案》，现将体检和考察有关事项公告如下：', '1.体检人员须携带笔试准考证、身份证和近期二寸红底免冠照片1张，须佩戴N95口罩参加体检；', '5.体检当日有关子宫、附件（妇科）及膀胱、前列腺项目B超检查，需在膀胱充盈（憋尿）的情况下进行；', '考察工作由吴忠市应急管理局自主招聘工作小组组织实施，根据拟聘用岗位的要求，采取多种形式，全面了解掌握考察对象在政治思想、道德品质、能力素质、遵纪守法、廉洁自律、岗位匹配、失信执行等方面的情况以及学习工作和报考期间的表现，同时要核实考察对象提供的报考信息和相关材料是否真实、准确，是否具有报考回避的情形等方面的情况。', '（五）曾因犯罪受过刑事处罚的人员和曾被开除公职的人员、受到党纪政纪处分期限未满或者正在接受纪律审查的人员、处于刑事处罚期间或者正在接受司法调查尚未做出结论的人员;', '（六）按照国家、自治区有关规定，尚在最低服务年限内的机关、事业单位正式在编工作人员；', '考察采取个别谈话、实地走访、材料审核、同本人面谈等方法进行。对报考人员的考察须由两人以上人员组成考察组，原则上考察组应由2名以上具有中共党员身份的在编在职人员组成。考察组要认真查阅报考人员档案，广泛听取有关方面的意见，采取实事求是的态度，准确把握被考察对象的情况，全面、客观、公正的予以评价，并据实写出考察材料。到报考人员所在工作的单位了解情况，必要时可到当地社区（村）和派出所了解情况。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>291</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>加强对口协作交流共探文化执法工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-08-11</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/bmxx/202108/t20210811_2970545.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['根据《河南省文化厅与宁夏回族自治区文化厅文化市场综合执法对口交流协作行动实施方案》精神，为进一步加强吴忠·三门峡两地执法交流合作，促进双方行政执法能力、市场监管水平共同提升，提升两地文化市场综合执法专业化、规范化、信息化建设，三门峡市文化市场综合执法支队一行6人，在三门峡市文化广电和旅游局党组书记、局长毋慧芳的带领下，于7月22日至25日专程至吴忠市开展了对口交流协作和学习考察活动。', '根据《河南省文化厅与宁夏回族自治区文化厅文化市场综合执法对口交流协作行动实施方案》精神，为进一步加强吴忠', '7月22日下午，三门峡市文化市场综合执法支队一行首先到吴忠市文化市场综合执法支队进行了座谈，市文化旅游体育广电局党组书记、局长马丽红同志主持会议，总结交流了双方近三年来的对口协作情况、文化市场综合执法机构改革有关情况，并对双方近期的案件办理情况进行了简单交流。', '三门峡市文化市场综合执法支队追寻着习近平总书记的足迹到吴忠市安澜亭、金花园社区进行了实地参观，对黄河大峡谷、董府以及市文化馆进行了考察调研。最后，在吴忠市文化市场综合执法支队支队长苏志龙同志的带领下，实地考察了吴忠市的两家文化经营场所，并对管好管活市场提供了宝贵的建议。', '三门峡市文化市场综合执法支队追寻着习近平总书记的足迹到吴忠市安澜亭、金花园社区进行了实地参观，对', '对口交流活动结束后，参加活动的人员一致表示，对口交流活动开展非常有意义，通过考察学习、交流讨论，更清楚地认识到本地区文化市场综合执法领域存在的不足和问题，进一步加深了两地文化市场综合执法工作的交流协作，双方也会以此为契机，不断创新交流协作模式，共同搭建交流平台，共同促进文化市场综合执法良好的发展前景。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>291</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>吴忠市参加上海宁夏经贸合作暨企业家恳谈会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/bmxx/202309/t20230904_4249239.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['日，自治区党政代表团赴上海考察学习期间，召开了上海·宁夏经贸合作暨企业家恳谈会。会上，自治区党委、政府主要领导分别向广大沪商发出“选择宁夏就是选择历史机遇，投资宁夏就是投资未来发展”的邀约，并介绍了宁夏经济社会和重点产业发展情况。此次恳谈会共签约项目', '亿元，主要涉及清洁能源、新型材料、健康养老、轻工纺织、数字信息、现代化工等产业；贸易类项目', '在吴投资食品添加剂暨生物科技健康产业基地项目的上海北连生物在恳谈会上作了交流发言，充分肯定了吴忠优越的投资和营商环境，感谢各级商务招商部门提供的优质服务，表示将积极推动务实合作。该公司是一家专业从事亲水胶体研发、生产和销售的生物科技企业，主要产品是卡拉胶、魔芋胶、琼脂及其复配产品，为食品、日化、 医药行业提供食品添加剂。北连生物在吴项目总投资15.7亿元，占地面积430亩，分两期建设，一期项目已建成投产，设计产能3.57万吨/年，主要生产结冷胶、威兰胶、卡拉胶等产品，累计完成固定资产投资5.2亿元。目前产品已销售往俄罗斯、美国等欧美国家，完成产值约1400万元（外汇收入130万美元）。', '在吴投资食品添加剂暨生物科技健康产业基地项目的上海北连生物在恳谈会上作了交流发言，充分肯定了吴忠优越的投资和营商环境，感谢各级商务招商部门提供的优质服务，表示将积极推动务实合作。该公司是一家专业从事亲水胶体研发、生产和销售的生物科技企业，主要产品是卡拉胶、魔芋胶、琼脂及其复配产品，为食品、日化、', '次专题会议对意向考察点推荐、项目签约和企业邀请等重点工作进行安排部署、调度推进，春节后立即带队赴粤苏沪浙等地“点对点”开展精准招商，“实打实”推进优质项目，推动上海采日储能智能制造系统、杭州趣链科技吴忠虚拟电厂等', '个重点项目加快落地、快速推进、尽早开工。全市各地各部门迅速响应、多路出击，马不停蹄前往长三角等多个省市，围绕新材料、清洁能源、现代纺织、特色农业等行业领域，重点拜访', '多家，为此次恳谈会的顺利举办和项目的签约奠定了坚实的基础。吴忠市政府主要领导参加了自治区党政代表团在上海的考察学习活动，其间在上海参加“黄河明珠·美丽吴忠”高速列车冠名首发仪式，考察上海中楷等', '年锂离子电池负极材料一体化生产装置建设等恳谈会签约项目尽快开工，随后赴内蒙古回访伊利集团，推动相关合作项目加快落地。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>291</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>吴忠市交通运输局关于做好年工程技术系列交通运输专业职称评审工作的通知</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-06-15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202106/t20210615_2884578.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['吴忠市交通运输局关于做好2021年工程技术系列交通运输专业职称评审工作的通知_吴忠市人民政府', '和自治区交通运输厅《自治区交通运输厅关于做好2021年工程技术系列交通运输专业职称评审工作的通知》', '对全面实行岗位管理、专业技术人才学术技术水平与岗位职责密切相关的事业单位，一般要在岗位结构比例内开展职称评聘。一是高级岗位空缺较多的单位，合理控制申报推荐数量，有计划地组织申报推荐。二是取得高级职称人数已超出岗位设置数，超出比例低于岗位设置数20%（含）的单位，采取“退二进一”方式择优推荐申报，逐步控制到岗位结构比例内(“退二进一”指已聘任的高级岗位人员因退休、调出等原因每减员2人，可推荐1人参评高级职称）。三是取得高级职称人数已超出岗位设置数20%的单位，采取“退三进一”方式择优推荐申报，逐步控制到岗位结构比例内。四是对突出贡献人才、引进高层次人才以及符合人社部有关政策要求的专业技术人才，可不受单位岗位职数限制推荐申报。', '对全面实行岗位管理、专业技术人才学术技术水平与岗位职责密切相关的事业单位，一般要在岗位结构比例内开展职称评聘。一是高级岗位空缺较多的单位，合理控制申报推荐数量，有计划地组织申报推荐。二是取得高级职称人数已超出岗位设置数，超出比例低于岗位设置数', '属事业单位申报推荐数量进行审核，市、县（区）人社部门负责对市、县（区）所属及部门所属事业单位申报推荐数量情况进行审核，对不符合推荐数量要求的一律不得通过审核，对弄虚作假通过审核的，取消申报资格并追究审核单位的责任。', '根据《自治区人力资源和社会保障厅关于做好2021年全区专业技术人员继续教育工作的通知》（宁人社函〔2021〕56号）要求，本年度申报', '副高职称的，审验近5年（2016—2020）继续教育学时，总学时累计不少于432学时，其中公需课不少于144学习。申报中级职称的，审验近4年（2017—2020）继续教育学时，总学时累计不少于360学时，其中公需课不少于120学时。在审验年限期内取得高一级学历或第二学历的，可视为接受继续教育，其中，在审验期内入学并毕业的，视同完成审验期继续教育任务，只需提交学历证明；跨审验期内入学并毕业的，具体学时由院校提供学时证明，并需完成审验期内的公需课目学习。参加国内外考察和专业技术交流活动的，依据考察或培训的有关文件，按实际考察培训时间（路程时间除外），每天以6学时折合计算专业课程培训学时。', '计算机应用能力考试和职称外语不做统一要求，对以往参加职称外语考试和计算机应用能力考试并合格的人员，成绩可作为继续教育公需课学时，其中职称外语可代替公需课40个学时，全国计算机应用能力考试每个模块可代替公需课10个学时。', '计算机应用能力考试和职称外语不做统一要求，对以往参加职称外语考试和计算机应用能力考试并合格的人员，成绩可作为继续教育公需课学时，其中职称外语可代替公需课', '继续加大论文网络核查、数据检索和查重力度，在知网等网站检索不到的论文、盲评为C等次的，不得提交相应系列职称评审会。申报人员须上传论文全文word电子版，且与期刊原件内容完全一致。评委会通过知网对论文进行相似度检测，对申报人个人提交的论文相似度检测报告不予认可。申报高级职称论文查重相似度达到40%以上的、论文或著作经评审专家审核质量不能代表申报层级水平的，均不得通过职称评审。', '按照自治区人力资源和社会保障厅《关于建立部分专业技术职业资格和职称对应关系的通知》（宁人社发〔2019〕55号），统筹做好职称制度和职业资格制度的衔接工作，专业技术人才取得职业资格（须是交通运输方面）即可认定其具备相应系列和层级的职称，并可作为申报高一级职称的条件，不需要换证和重新评审。按照自治区人力资源和社会保障厅《关于贯通工程技术领域高技能人才与工程技术人才职业发展的实施意见》（宁人社发〔2019〕98号），交通运输方面的高技能人才，取得高级工职业资格或职业技能等级后从事技术技能工作满2年，可申报评审相应专业助理级职称；取得技师职业资格或职业技能等级后从事技术技能工作满3年，可申报评审相应专业中级职称；取得高级技师职业资格或职业技能等级后从事技术技能工作满4年，可申报评审相应专业副高级职称。高技能人才参加职称评审应在现工作岗位上近3年年度考核合格。不将学历、论文、外语等作为高技能人才参加职称评审的限制性条件。建立高技能人才职称评审绿色通道，按照《宁夏回族自治区突出贡献人才和引进高层次人才职称评审办法》（宁人社发〔2018〕80号），获得中华技能大奖、全国技术能手、担任国家级技能大师工作室带头人、享受自治区以上政府特殊津贴的高技能人才可直接申报高级职称。', '按照自治区人力资源和社会保障厅《关于建立部分专业技术职业资格和职称对应关系的通知》（宁人社发〔', '按照《自治区人力资源和社会保障厅关于做好2021年职称评审工作的通知》（宁人社函﹝2021﹞153号）要求，同步开展基层职称“定向评价、定向使用”评审工作，其中', '工程专业技术职务评审委员会组织，申报人员在职称申报系统中选择定向职称评审活动进行申报，须提供各县（市、区）人社局核准的岗位数佐证材料，取得定向职称仅在本县（市、区）范围内有效，因工作岗位变化离开本县（市、区）或调入非基层单位，所取得定向职称失效。', '申报人任职年限、提供的业绩成果、论文、学历证书、继续教育合格证书、获奖证书、发明专利证书等取得时间均截止至2020年12月31日。', '申报人任职年限、提供的业绩成果、论文、学历证书、继续教育合格证书、获奖证书、发明专利证书等取得时间均截止至', '工程技术系列交通运输专业职称评审工作按照用人单位注册→同级人社部门审核通过→个人注册→维护单位所属信息→维护个人信息→选择申报评审活动→填写申报信息→上报所属单位→单位内部公示→单位推荐上报→按系统流程报送申报资料的程序进行。', '2．申报人员个人账号注册。登陆“宁夏人事人才管理信息系统”，完成个人账号注册，登陆完善所属单位信息，填写个人基本信息、学历学位信息、工作经历信息、继续教育、工作业绩、研究成果、外文成绩、计算机成绩、业绩成果、著作、学术团体、论文情况、获奖情况、知识产权等共14项内容（有则填，没有则不填）。申报人员对本人填报内容及提供材料的真实性、准确性负责。', '日，申报人员根据评审系列和申报层级选择相应的评审活动。申报人员在网上提交的过程中，须遵循“干什么、评什么”的原则，正确选择申报专业，职称证、毕业证、学位证、学历认证报告以及继续教育学时等需上传电子版，如提交论文、工作报告、调研报告等，须上传全文word电子版（内容必须与发表内容完全一致）。申报人须真实、准确、完整填报个人信息并提供相关业绩、学术成果等材料，所填信息将生成《专业技术职务任职资格登记表》《专业技术职务任职资格评审一览表》和“电子职称证书”，因个人信息填写错误、资料漏报等情况造成的后果由个人承担。事业单位申报人员须提交单位聘任文件（复印件）、任职期内或近5年《年度考核登记表》（复印件），编制外人员应提供单位劳动（聘用）合同复印件。', '日，申报人员根据评审系列和申报层级选择相应的评审活动。申报人员在网上提交的过程中，须遵循', '用人单位要组织好申报推荐工作,采取个人述职、考核测评、民意调查等方式，全面考察申报人员的政治品质、职业操守和从业行为，严格审查申报材料的真实性和准确性。单位同意推荐的申报人应按规定公示申报人基本信息、主要业绩和所对标的评审条件、投诉受理部门及电话,公示时间不少于5个工作日。对不予推荐的申报人，应及时退回申报材料并说明原因。对公示无异议的人员出具推荐报告说明推荐意见并由单位负责人签字盖章。事业单位应制定符合本单位实际的申报推荐办法，择优推荐申报。超职数推荐、突出贡献人才、引进高层次人才、破格参评申报人须逐人说明推荐理由，明确申报人德能勤绩廉考核情况和推荐理由。', '坚持“谁审核、谁负责”的原则，审核单位要按照评审条件对申报人员进行严格审核，认真审查申报材料的合法性、真实性、完整性和时效性，对不符合申报条件和程序的及时按原渠道退回并告知申报人。凡有以下情形之一的，不予受理：①非本系列（专业）评委会评审范围的；②申报材料不符合评审条件规定的；③未经用人单位或主管部门审核、公示、推荐的；④中央驻宁企事业单位、外省（区、市）驻宁单位上级主管部门未向人力资源和社会保障厅出具委托函的；⑤事业单位不符合岗位结构比例要求申报的；⑥不按规定时间申报的；⑦上年度参评未通过且本年度无新业绩的；⑧申报材料存在弄虚作假的。对发现申报材料弄虚作假的将报人社部门，并按有关规定处理。', '申报人员要按照网上报名信息流程，将纸质材料逐级提交用人单位、主管部门和各市（县）人力资源和社会保障局、交通运输工程系列职称评审委员会进行审核。具体申报材料清单及相关要求详见附件1及注意事项。纸质材料报送时间为：2021年', '申报人员要按照网上报名信息流程，将纸质材料逐级提交用人单位、主管部门和各市（县）人力资源和社会保障局、交通运输工程系列职称评审委员会进行审核。具体申报材料清单及相关要求详见附件', '报送纸质资料后，交通运输工程系列职称评审委员会将对申报人员的申报资格条件进行初审，初审结束后，将通知初审合格人员（或通知单位统一缴费）携带', '评审费300元。初审不符合基本申报条件的人员不用缴费，初审合格并缴费后，进入盲评、面试评审阶段。', '高级职称的专业技术人员，需要按照新的职称评审条件，提交专著1部或论文1篇或技术报告1篇，将拟提交进行盲评的专著、论文、技术报告等相关资料隐去单位和姓名，复印5份，提交评审会组织盲评（盲评材料提交后不可更换）。盲评采用A、B、C三级评分办法（其中A为质量较高、B为质量一般、C为质量较低），参与盲评专家对资料必须明确给予A、B、C三个等次的评价结果，并针对资料提出2—3个与专业有关的问题（作为面试答辩时提问的重要参考）。', '面试评审阶段侧重了解申报人员的实际工作业绩。采取个人述职、业绩展示、面试答辩等方式组织召开评审会。申报中级', '在评审中，如发现有弄虚作假、不执行有关规定、不按程序操作、违反评审工作纪律等问题，将根据有关规定进行严肃处理并追究相关人员责任。申报人参评材料弄虚作假的，取消其申报资格，按照相关规定进行处理。用人单位要认真核实申报人员是否存在违纪情况，存在违纪情形的要严格按照有关规定办理，并将职称评审工作作为廉政风险防范的主要内容，主动接受纪检监察机关监督检查，建立全程监督机制。未尽事宜，请按照《自治区人力资源和社会保障厅关于做好2021年职称评审工作的通知》文件执行。', '在评审中，如发现有弄虚作假、不执行有关规定、不按程序操作、违反评审工作纪律等问题，将根据有关规定进行严肃处理并追究相关人员责任。申报人参评材料弄虚作假的，取消其申报资格，按照相关规定进行处理。用人单位要认真核实申报人员是否存在违纪情况，存在违纪情形的要严格按照有关规定办理，并将职称评审工作作为廉政风险防范的主要内容，主动接受纪检监察机关监督检查，建立全程监督机制。未尽事宜，请按照《自治区人力资源和社会保障厅关于做好', '个人毕业证和学位证复印件、学历证书电子注册备案表（单位盖章）（毕业证和学位证原件由单位审核后在复印件上写“复印件和原件一致”字样后盖章，原件退回本人）', '毕业后从事技术工作以来取得业绩成果（如作品、成果、技术方面的奖励、工作总结）等佐证材料，上述材料需提交原件或复印后盖单位公章', '事业单位职称申报推荐数量统计表（单位盖章），编制内人员提供单位聘任文件、任职期内或近5年年度考核登记表（复印件），编制外人员提供单位劳动（聘用）合同复印件', '取得助理工程师以来的工作经历（能力）和业绩成果（如作品、成果、技术方面奖励）等佐证材料，上述材料需提交原件或复印后盖单位公章', '根据评审条件提供相应数量的论文期刊原件及论文检索页（在期刊目录处勾出论文标题，检索页面要出现网页名，需单位盖章）（将论文检索页插放在期刊原件内论文页）', '盲评：选择专著1部、论文1篇或技术报告1篇，遮挡专著、论文、技术报告等相关资料的单位和姓名后，用A4纸双面复印5份，装入1个档案袋，用A4纸打印姓名、单位、申报层级、申报专业、联系方式粘贴在档案袋封面后一并装入蓝色文件盒', '取得工程师或高级工程师以来的工作经历（能力）和业绩成果（如作品、成果、技术方面奖励）等佐证材料，上述材料需提交原件或复印后盖单位公章', '（1）《专业技术职务任职资格登记表》：通过职称申报系统生成，A4纸正反打印，一式三份，其中贴照片处须贴一寸正面免冠照片，申报人承诺处须本人签字，单位承诺处须由单位负责人签字并加盖单位公章。', '（2）单位公示情况：用人单位应报告公示时间、形式、结果（见附件2）。根据申报层级对照《宁夏回族自治区工程技术系列交通运输专业技术职称评审条件（试行）》，逐条对应取得现资格以来符合相应申报资格条件具体条款的业绩、能力、专利、获奖情况等，按规定公示申报人基本信息、主要业绩和所对标的评审条件、投诉受理部门及电话。', '（3）单位推荐报告：推荐报告中须说明申报人员申报条件要求的任职年限内各年度考核结果、受处分情况、是否存在技术责任事故或在申报评审中弄虚作假的情形，说明推荐意见并由单位负责人签字，单位盖章。', '（5）继续教育考核表及佐证材料：继续教育考核表（见附件3）单位审核后盖章；公需课全部在宁夏专业技术人员继续教育培训网上学习获取，可从职称申报系统中提取并打印继续教育记录。专业课线上学习的，在职称申报系统中抽取打印，线下学习的须提供学习文件、继续教育证书等相关证明材料。', '（6）工作能力证明材料：任期内完成的专业技术工作，课题、科研、项目（任命文件、中标通知书、合同协议、交竣工验收报告等）、重大专项报告、行业发展规划、可行性研究报告、研究总结报告、专项报告等。', '（7）业绩成果：获得各类专业奖项、专利、科技成果、新产品证书等相关成果；国家、行业、地方、团体标准的制修订成果等。（业绩和业绩成果择选能代表个人工作能力的内容累计填报不超过6项）。', '（8）《专业技术职务任职资格评审一览表》（见附件4），须与系统中填报内容保持一致，业绩成果、论文著作都要提交佐证材料，没有提交佐证材料的，视为无效。', '（9）事业单位申报人必须提供《事业单位职称申报推荐数量统计表》（见附件5）和《事业单位职称申报推荐数量汇总表》（见附件6），', '直部门事业单位的须主管局人事部门审核盖章、市县事业单位的须经同级人社部门审核盖章。编制内人员需要提供单位聘任文件、任职期内或近5年年度考核登记表（复印件），编制外人员应提供单位劳动（聘用）合同复印件。', '直部门事业单位的须主管局人事部门审核盖章、市县事业单位的须经同级人社部门审核盖章。编制内人员需要提供单位聘任文件、任职期内或近', '（10）申报人按规定期限向评委会办事机构报送申报材料， 逾期不报的，视为放弃申报。', '（11）申报材料装入蓝色文件盒，盒面上粘贴材料清单（清单内容、数量、顺序与资料袋内装入的申报资料相一致），文件盒侧封按顺序填写姓名、所在单位、申报层级、申报专业、联系方式。如分装多个文件盒的，每个盒面上需贴盒内资料清单，盒侧封底部标明共几盒、第几盒。如共2盒，则以2-1、2-2标识。', '（12）报送纸质材料时须现场拷贝以下电子版材料，请提前整理并命名为“姓名+申报层级+单位”后拷入U盘：', '（13）为方便人才及职称评审工作交流，请各市、县（区）交通运输局和各相关企业负责人才和职称工作的人员，申请加入', '为充分体现职称评审公开、公正、公平的原则，建立以品德、能力、业绩为主要内容的评价导向，进一步准确地了解掌握专业技术人员在职业道德、专业水平、应用与创新能力等方面的情况，根据自治区职称评审工作流程要求，我单位对职称申报人员的基本情况、主要业绩和相对标的评审条件要求进行公示，公示时间X年X月X日至X年X月X日（5个工作日）。', '为充分体现职称评审公开、公正、公平的原则，建立以品德、能力、业绩为主要内容的评价导向，进一步准确地了解掌握专业技术人员在职业道德、专业水平、应用与创新能力等方面的情况，根据自治区职称评审工作流程要求，我单位对职称申报人员的基本情况、主要业绩和相对标的评审条件要求进行公示，公示时间', '1、张某 男，19XX年XX月出生，20XX年X月长安大学土木工程专业毕业，大学学历。中共党员，现任职务：*工程部主任，2014年取得工程师职称，拟申报高级工程师。主要业绩贡献有：主持S12那拉提至巴伦台公路建设项目NBSJ-1合同段初步设计；主持盐城至射阳高速公路工程YS-KCSJ标段施工图设计；参与闫地拉图至中卫市迎水桥镇改建公路工程。获自治区2018年度优秀工程勘察设计二等奖；获自治区2019年度优秀工程勘察设计一等奖；获中国公路学会科学技术一等奖。共有论文3篇，其中1篇为核心期刊。符合获得省（部）级以上规划设计奖励1项以上。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>291</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>吴忠市政协年部门预算</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2017-01-25</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2017nyq_48256/201701/t20170125_501675.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['的大政方针以及政治、经济、文化和社会生活中的重要问题在决策之前进行协商和就决策执行过程中的重要问题进行协商。民主监督是对国家宪法、法律和法规的实施，重大方针政策的贯彻执行、', '政治、经济、文化和社会生活中的重要问题以及人民群众普遍关心的问题，开展调查研究，反映社情民意，进行协商讨论。通过调研报告、提案、建议案或其他形式，向', '按照市编委核定，市政协共设机构7个（1个办公室和6个专门委员会）。其中，办公室设内设机构3个（秘书科、文档科、总务科），专门委员会下设综合一二三四共4个办事机构。', '人员经费883.5万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出。', '公用经费76.1万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '2017年一般公共预算项目支出98.8万元，其中：一般行政管理事务公务交通补助费5.2万元，主要用于车改后单位租车费；可控编人员工资10万元；学习考察费10万元，用于市政协各级领导干部出外学习考察、培训等费用；金仲华生活补助费3.6万元；政协会议(会议费)70万元，用于市政协全委会、常委会、主席会议等各类会议费用支出。', '2017年“三公”经费财政拨款预算比2016年减少65.9万元，其中：因公出国（境）费增加1.4万元，因自治区政协安排，相关厅级领导有出国考察任务；公务用车运行费减少68.1万元，因车改单位不再有公务用车；公务接待费增加0.8万元，主要原因为外省市政协来吴考察人员增多。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>291</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>全市公安机关教育培训基地揭牌启用</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2020-08-11</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202008/t20200811_2183876.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['8月10日，吴忠市在自治区党委党校盐池分校举行全市公安机关教育培训基地揭牌仪式。全市公安机关集中政治轮训学员参加揭牌仪式。', '为持续推进全市公安机关队伍建设，市公安局经过多次考察对接，确定自治区党委党校盐池分校为全市公安机关教育培训基地。此次政治轮训将利用两个月时间，分5期对全市700名公安民警、事业编警务人员、辅警进行集中政治轮训。轮训班将围绕思想政治、纪律作风、意识形态、国情区情、红色教育等内容，邀请区内外专家学者和市直有关部门负责人，通过专题讲座、情景教学、研讨交流等形式，开展国情党史、全面从严治党、马克思主义民族宗教观、学习习近平总书记视察宁夏重要讲话精神等专题讲座。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>291</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>在新时代各项工作中展现新气象新作为</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2020-04-27</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202004/t20200427_2049075.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 金方华 何欣）连日来，习近平总书记在陕西考察时的重要讲话在我市引发热烈反响。大家表示，要认真学习贯彻讲话精神，扎实做好“六稳”工作，全面落实“六保”任务，只争朝夕、真抓实干，在新时代各项工作中展现新气象、新作为。', '宁夏恒丰纺织集团积极响应国家精准扶贫的号召，2016年，在利通区“十二五”生态移民村同利村建设宁夏恒丰同利巾被厂，方便移民群众在家门口就业，有效解决当地脱贫问题。项目全部建成后，可达到年产240万米坯布、3.3万锭规模纺纱的生产能力，将带动同利村及周边村庄500余名劳动力就业，实现“一人就业，全家脱贫”。宁夏恒丰同利巾被有限公司总经理米恩强说：“我们要认真学习习近平总书记的重要讲话精神，打赢脱贫攻坚战，我们企业要担起社会责任，计划今年补齐所有设备，实现3.3万锭规模纺纱的产能，进一步加大招工力度，解决周边建档立卡户的就业问题。”', '青铜峡市邵岗镇同富村是“十二五”生态移民村，共有建档立卡户271户1396人，已脱贫269户1385人，未脱贫2户11人。2018年，同富村已整村脱贫销号，贫困发生率从最初的57.7％下降到目前的0.45％。这几年，同富村通过不断发展生产、促进就业等办法，让贫困群众持续稳定增收，不断巩固提升脱贫攻坚成果。同富村驻村第一书记纳晓东说：“总书记的讲话非常鼓舞基层扶贫干部，打赢脱贫攻坚战到了最关键的时刻，我们有信心打赢这场战役。”', '红寺堡区柳泉乡永新村是1999年从西海固搬迁的一个移民村。这几年，村上打造“民宿旅游＋移民文化＋农家美食＋果树认领＋土特产销售＋休闲度假”模式的“永新农家”乡村旅游品牌，推动乡村旅游高质量发展，带动村民增收致富。截至目前，全村共打造智慧民宿20余家，年收入达30余万元。永新村驻村第一书记丁伏金说：“我们村2017年只有两户发展乡村旅游，2019年已经发展到20余户，户均收入达到3万余元。同时，我们村利用民宿，借助航模节锦标赛，积极销售黄花菜和枸杞，这块带来的收入大概有11万元。”', '2014年，盐池县青山乡猫头梁村二道湖自然村村民陈纪元看到家乡的生态环境越来越好，便返乡成立了盐池县绿林农业科技开发有限公司，并在当地政府的扶持下，建立了盐池县绿林农业科技返乡创业示范基地。干旱沙地上种啥能致富？陈纪元决定流转当地农户土地，以“公司开发运行，农户科学种养”的形式带动合作社及农户发展集牧草种植、特色采摘于一体的综合性生态农业园区，成为本村的致富领头人。陈纪元说：“习近平总书记在陕西考察时说，脱贫摘帽不是终点，而是新生活、新奋斗的起点，接下来要做好乡村振兴这篇大文章。我想，只要我们肯吃苦、善思考、多学习，及时调整产业结构，猫头梁村的兴旺指日可待。”']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>291</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>吴忠市生态文明建设实践如火如荼</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-04-28</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202004/t20200428_2050282.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['近年来，在“绿水青山就是金山银山”发展理念的指引下，我市各地的生态文明建设实践如火如荼展开。近期，在学习了习近平总书记在陕西考察时的重要讲话精神后，我市干部群众更是以秦岭违建这个大教训为镜鉴，纷纷表示要做好当地生态保护与治理工作。', '针对整治黄河及入黄支流、沟道四乱等问题，我市先后开展体制机制建设、美丽河湖建设、智慧河湖建设及河湖综合执法行动，黄河治理工作成效显著，入黄排水沟水质达到Ⅳ类标准，黄河利通区段水质稳定保持在地表水Ⅱ类以上，黄河周边河湖环境优美、水质清澈的宜居环境逐步显现。利通区水务局防汛办负责人杨自健说：“通过学习习近平总书记在陕西考察时的重要讲话精神，更加坚定了我们的工作信心。我们要把以前的成果巩固好，盯着山水林田湖统筹治理的目标向前迈进，继续做好黄河流域的生态保护工作。”', '红寺堡区柳泉乡永新村结合乡村振兴战略，大力实施村巷道美化、亮化、绿化工程，切实推动美丽乡村建设。日子好了，农民富了，如今的永新村乡村旅游不再满足于走马观花，更趋向于以民宿为核心的住民居、吃农家美食、赏田园美景的深度体验游。永新村驻村第一书记丁伏金表示，永新村在做好“两不愁三保障”的同时，注重如何提高农民的幸福指数，改变人居环境。2017年，永新村完成了“厕所革命”。同时，该村对巷道进行了亮化，在村周围种植了杂果及苹果树。村子环境好了，真正成为了农民的乐园，也成了城里人的“休闲绿色氧吧”。', '2017年，吴国华被吴忠市农村商业银行派遣到同心县张家塬乡折腰沟村担任驻村第一书记。3年来，他带领工作队以“产业兴旺、生态宜居”为目标，发展生态养殖，打造农家窑洞，生态环境保护和乡村旅游融合发展，折腰沟村的生态环境、村容村貌发生了翻天覆地的变化。吴国华说：“习近平总书记指出，人不负青山，青山定不负人，绿水青山既是自然财富，又是经济财富。折腰沟村有良好的生态资源，我们有信心带领乡亲们共同走上小康之路。”', '折腰沟村65岁的村民王树珍2014年因病被确定为建档立卡户，为了摘掉贫困的帽子，他在驻村工作队和村“两委”的帮助下，靠着产业扶持贷款，通过种植小杂粮实现了脱贫。王树珍说：“总书记说脱贫摘帽不是终点，而是新生活、新奋斗的起点。我种了70亩小杂粮，现在年收入也不错，我要继续奋斗，争取过上更甜美的生活。”']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>291</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>吴忠市人民医院年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202312/t20231230_4402643.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为进一步加强医院人才队伍建设，引进急需的专业技术人才，根据《事业单位公开招聘人员暂行规定》《事业单位公开招聘违纪违规行为处理规定》《事业单位人事管理条例》', '(国务院令第652号)、《宁夏回族自治区事业单位公开招聘工作人员实施办法》《宁夏回族自治区事业单位公开招聘工作人员面试工作实施细则（试行）》（宁人社规字〔2022〕4号）等有关规定，结合实际，', '1.线下报名。应聘者携带本人有效身份证及岗位所需的材料原件和复印件（身份证正反扫描在一页、户口本户主及本人信息扫描在一页、毕业证、学位证、教育部学历证书电子注册备案表、教育部学籍在线验证报告、医师资格证、执业医师证、医师规范化培训考核合格证、护士资格证、护士执业证、职称证等其他岗位要求的证书），1张近期红底(6个月内)正面1寸免冠照片交由吴忠市人民医院审核，并填写《吴忠市人民医院自主公开招聘事业单位工作人员报名表》（附件3）。', '(6个月内)正面1寸免冠照片交由吴忠市人民医院审核，并填写《吴忠市人民医院自主公开招聘事业单位工作人员报名表》（附件', '“吴忠市人民医院报名登记表”二维码，按照要求填报相应的报名信息，确保信息真实、准确（二维码见附件4）。', '报名提交材料的真实性、准确性负责。吴忠市人民医院根据实际情况，在报名结束后汇总报名人员信息，在组织面试（考核）前再次复核应聘人员资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度', '120分钟，分值100分。医院公开招聘工作领导小组办公室根据笔试情况划定笔试最低分数控制线。', '2.面试形式为半结构化面试。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消', '3.根据考试总成绩，按岗位招聘计划1:1的比例，从高分到低分确定体检人选。同一岗位出现应聘者考试总成绩相同时，按照笔试成绩从高分到低分确定体检人选；如笔试成绩也相同，通过一定方式组织加试。', '体检工作在吴忠市卫生健康委员会的监督指导下，由吴忠市人民医院按照公开招聘要求自主组织实施', '对体检结论有疑问的，可以进行复检，复检应安排在不低于原体检医疗机构级别的其他医疗机构进行，体检结果以复检结论', '考察工作在吴忠市卫生健康委员会的监督指导下，由吴忠市人民医院组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的思想政治、道德品质、能力素质、遵纪守法、工作学习表现、个人诚信等情况，并对应聘者的应聘资格进行复审。', '3.考察中发现应聘者存在本公告中所列不得应聘相关情形的，不具备招聘岗位所需资格条件的，以及其他不宜进入事业单位工作情形的，经吴忠市人民医院自主公开招聘领导小组研究确定后，取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '根据考试、体检、考察结果，由吴忠市人民医院确定拟招聘人员公示名单，经吴忠市卫生健康委员会审核后，在吴忠市人民政府网、', '2.对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消聘用资格。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同或劳动合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '1.在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位，由医院招聘工作领导小组研究决定是否递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位，由医院招聘工作领导小组研究决定是否递补。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由吴忠市人民医院招聘工作领导小组研究决定。', '）招聘资格审查、面试、打分和分数管理等环节，须在吴忠市人民医院纪委的全程监督下进行。', '（六）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》', '）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者自负。', '附件1：吴忠市人民医院2024年自主公开招聘事业编制工作人员岗位计划一览表.pdf']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>291</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>吴忠市招商引资实际到位资金稳步增长</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202211/t20221101_3823309.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['今年以来,吴忠市认真贯彻自治区第十三次党代会精神,紧盯建设现代化美丽新吴忠和绿色发展先行市的奋斗目标,扎实开展“扩大有效投资攻坚年”活动,突出高质高效招商引资,各项工作稳步推进。前三季度,全市实施招商引资项目262个,实际到位资金328.94亿元,完成目标任务的82.03%,同比增长15.29%。一是坚持上下联动抓招商。市委、市政府主要领导分别带队赴内蒙古、北京、湖南、广东等地考察招商,洽谈对接伊利乳业四期项目、富力地产能源合作等事宜;主持召开“六新六特六优”产业及重大项目包抓落实情况汇报会、铝产业发展座谈会等专题会议,研究部署产业招商事宜;市级分管领导、职能部门、各县区、工业园区同频共振、联促外出招商215批次,对接洽谈项目378个,举办绿色食品产业等专题招商推介会15场次,落实签约项目91个,总投资约1343亿元。二是聚焦重点产业抓招商。围绕“六新六特六优”重点特色产业延链补链强链,逐企走访调研,建立招商信息台账,谋划上下游产业链项目100多个,梳理全市各县(市、区)、工(农)业园区基本情况和产业优势,编制投资指南和项目册,制作招商引资宣传片和优惠政策汇编,通过各类新媒体全方位、广角度宣传、推介吴忠。1-9月份,引进自治区“六新、六特、六优”特色产业项目136个,占项目总数的52%,到位资金192.39亿元,占总到位资金的58.49%。清洁能源、新型材料、牛奶产业三大核心产业到位资金150.09亿元,占总到位资金的45.63%。三是创新招商方式抓招商。构建“政府主导、部门联动、全民参与”的招商引资新格局。大力引进上下游配套企业,形成产业集聚的“葡萄串”效应。积极转变传统招商模式,采用视频会议的方式举行吴忠市线上招商推介会暨重点项目“云签约”仪式,签订北京质子动力氢能-储能产业园等项目12个,签约资金204.6亿元。随自治区党政代表团赴广东、福建等地考察学习,积极对接相关企业,落实考察签约项目,共签约项目12个,概算投资127.61亿元,目前已完成投资18.9亿元,开工率75%。今年以来,全市各级招商主体开展线上项目对接洽谈124批次、对接企业346个。四是强化跟踪服务抓招商。强化“店小二”服务意识,定期召开签约项目专题推进会和现场会,主动联系走访落地企业,实行“一对一”对接、“订单式”服务,协助解决企业遇到的困难和问题,集中优势要素资源推进项目建设。会同市委组织部从全市选派38名处级领导干部担任“项目管家”,跟进服务经济效益和社会效益好的新建、续建或签约的重点招商引资项目。盐池县、太阳山开发区分别成立土地、环评等8个工作专班,为企业提供项目备案、环评安评等“代领办”服务,及时协调解决项目建设过程中的问题和困难。', '认真贯彻自治区第十三次党代会精神,紧盯建设现代化美丽新吴忠和绿色发展先行市的奋斗目标,扎实开展“扩大有效投资攻坚年”活动,突出高质高效招商引资,各项工作稳步推进。', '认真贯彻自治区第十三次党代会精神,紧盯建设现代化美丽新吴忠和绿色发展先行市的奋斗目标,扎实开展', '市委、市政府主要领导分别带队赴内蒙古、北京、湖南、广东等地考察招商,洽谈对接伊利乳业四期项目、富力地产能源合作等事宜;主持召开', '产业及重大项目包抓落实情况汇报会、铝产业发展座谈会等专题会议,研究部署产业招商事宜;市级分管领导、职能部门、各县区、工业园区同频共振、联促外出招商', '对接洽谈项目378个,举办绿色食品产业等专题招商推介会15场次,落实签约项目91个,总投资约1343亿元。', '谋划上下游产业链项目100多个,梳理全市各县(市、区)、工(农)业园区基本情况和产业优势,编制投资指南和项目册,制作招商引资宣传片和优惠政策汇编,通过', '多个,梳理全市各县(市、区)、工(农)业园区基本情况和产业优势,编制投资指南和项目册,制作招商引资宣传片和优惠政策汇编,通过', '构建“政府主导、部门联动、全民参与”的招商引资新格局。大力引进上下游配套企业,形成产业集聚的“葡萄串”效应。', '积极转变传统招商模式,采用视频会议的方式举行吴忠市线上招商推介会暨重点项目“云签约”仪式,签订北京质子动力氢能-储能产业园等项目12个,签约资金204.6亿元。', '随自治区党政代表团赴广东、福建等地考察学习,积极对接相关企业,落实考察签约项目,共签约项目12个,概算投资127.61亿元,目前已完成投资18.9亿元,开工率75%。今年以来,全市各级招商主体开展线上项目对接洽谈124批次、对接企业346个。', '随自治区党政代表团赴广东、福建等地考察学习,积极对接相关企业,落实考察签约项目,共签约项目', '强化“店小二”服务意识,定期召开签约项目专题推进会和现场会,主动联系走访落地企业,实行“一对一”对接、“订单式”服务,协助解决企业遇到的困难和问题,集中优势要素资源推进项目建设。会同市委组织部从全市选派38名处级领导干部担任“项目管家”,', '服务,协助解决企业遇到的困难和问题,集中优势要素资源推进项目建设。会同市委组织部从全市选派', '跟进服务经济效益和社会效益好的新建、续建或签约的重点招商引资项目。盐池县、太阳山开发区分别成立土地、环评等8个工作专班,为企业提供项目备案、环评安评等“代领办”服务,及时协调解决项目建设过程中的问题和困难。', '跟进服务经济效益和社会效益好的新建、续建或签约的重点招商引资项目。盐池县、太阳山开发区分别成立土地、环评等']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>291</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>吴忠市教育局年自主公开招聘中学教师公告</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202104/t20210420_2792851.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为进一步加强吴忠市教育人才队伍建设，根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》《事业单位', '具体范围、条件等详见《吴忠市教育局2021年自主公开招聘中学教师岗位计划一览表》（附件1）。', '4.符合《吴忠市教育局2021年自主公开招聘中学教师岗位计划一览表》（附件1）中招聘岗位要求的资格条件；', '5.2021年应届毕业生须于2021年7月31日前取得毕业证书、学位证书和相应层次及学科教师资格证书；', '公告在宁夏人事考试中心、宁夏公共招聘网、宁夏高层次人才工作网、吴忠市人民政府网站、“吴忠教育”微信公众号、相关高校及社会公众人才招聘平台等公开发布。', '公告在宁夏人事考试中心、宁夏公共招聘网、宁夏高层次人才工作网、吴忠市人民政府网站、', '本次招聘采取网络报名进行，报名须在限定时间内完成。应聘人员填写《吴忠市教育局2021年自主公开招聘中学教师报名表》（附件2）《吴忠市教育局2021年自主公开招聘中学教师资格审核表》（附件3）、电子照片、本人有效身份证及岗位所需的学历学位证、教师资格证、工作经历及获奖情况等证明材料扫描件建立压缩包（以“姓名+应聘岗位”命名），发送至邮箱wzsjyjzzzp@163.com。应聘者报名须按照要求填报相应的报名信息，确保信息真实、准确。每位应聘者只能填报一个应聘岗位。', '）、电子照片、本人有效身份证及岗位所需的学历学位证、教师资格证、工作经历及获奖情况等证明材料扫描件建立压缩包（以', '。应聘者报名须按照要求填报相应的报名信息，确保信息真实、准确。每位应聘者只能填报一个应聘岗位。', '按照招聘岗位条件及招聘要求，对应聘者报名资料进行资格初审，并通过打电话、发短信等方式向考生进行初审结果确认。', '考生在规定时间内领取准考证及报考须知等，必须凭准考证和身份证（两证缺一不可）参加笔试。', '1.对应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '对应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '2.面试前复审。组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，报领导小组批准后，可在本招考岗位按笔试成绩从高分到低分依次替补。资格复审合格的面试人员名单在吴忠市人民政府网站、“吴忠教育”微信公众号等公布。', '面试前复审。组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，报领导小组批准后，可在本招考岗位按笔试成绩从高分到低分依次替补。资格复审合格的面试人员名单在吴忠市人民政府网站、', '3.面试由招聘领导小组办公室负责组织实施，主要通过说课试讲等形式，测试应聘者的专业知识及教学能力。面试成绩在吴忠市人民政府网站、“吴忠教育”微信公众号等公布。', '面试由招聘领导小组办公室负责组织实施，主要通过说课试讲等形式，测试应聘者的专业知识及教学能力。面试成绩在吴忠市人民政府网站、', '4.面试成绩满分为100分，合格分为60分，面试不合格者，不能列入考察、体检对象。', '面试结束后在面试成绩合格人员中，以笔试和面试成绩所占比例折合成总成绩，从高分到低分，按1:1的比例确定考察体检对象。若总成绩相等，以面试成绩高的排位在前。', '面试结束后在面试成绩合格人员中，以笔试和面试成绩所占比例折合成总成绩，从高分到低分，按', '体检和考察工作由招聘领导小组办公室负责组织实施。体检标准参照《公务员录用体检通用标准（试行', '》执行。考察参照《关于做好公务员录用考察工作的通知》等执行。考察或体检不合格的，报招聘领导小组批准后，可在面试合格人员中按考试总成绩从高分到低分依次递补。考察、体检的时间和地点由招聘领导小组办公室另行通知。', '根据考试、考察和体检结果确定拟招录人员，拟招录人员名单在吴忠市人民政府网站、“吴忠教育”微信公众号等公示5个工作日。公示期内无异议的，在公示结束后，按规定办理相关手续。', '（一）根据疫情防控工作有关要求，此次自主公开招聘工作各环节将全面落实依法防控、科学防治、精准施策要求，保证各考场开窗通风、清洁消毒，保持空气流通。所有考官、工作人员及考生进入考试区域需出示防疫健康码，接受体温监测，正确佩戴口罩', '（二）参加考试的考生要主动申报近期是否有国内中高风险地区或境外旅居史，如有国内中高风险地区或境外旅居史，须持有14天隔离医学观察期满证明，方可参加考试。外省考生需提供7天之内的核酸检测结果。按照疫情防控要求需提供相关健康证明但无法提供的考生，不得参加考试。', '（二）参加考试的考生要主动申报近期是否有国内中高风险地区或境外旅居史，如有国内中高风险地区或境外旅居史，须持有', '天之内的核酸检测结果。按照疫情防控要求需提供相关健康证明但无法提供的考生，不得参加考试。', '以上招聘岗位未达到开考比例的，可适当调整岗位，延长报名时间，以变更岗位公告时间为准。', '凡涉及本次招聘工作的重大事项或本公告未尽事宜，由吴忠市教育局2021年自主公开招聘工作领导小组研究决定。', '（二）考生自报名至拟聘用人员公示（资格审查、笔试、面试、体检、考察）期间，应确保报名时所填报的通讯工具畅通，以便联络；因所留通讯方式不畅所致后果由考生自负。', '（四）在体检和考察环节，出现体检不合格、考察不合格、自愿弃权、弄虚作假等情形者被取消应聘资格。', '（五）应聘者弄虚作假，或以其他不正当手段获取应聘资格的，一经发现，取消应聘资格；如果已经聘用的，解除聘用关系。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>291</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>吴忠市教育工委关于推荐表彰吴忠市教育系统先进基层党组织优秀共产党员和优秀党务工作者的通知</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-06-23</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202006/t20200623_2144543.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['吴忠市教育工委关于推荐表彰吴忠市教育系统先进基层党组织优秀共产党员和优秀党务工作者的通知_吴忠市人民政府', '吴忠市教育工委关于推荐表彰吴忠市教育系统先进基层党组织优秀共产党员和优秀党务工作者的通知', '周年之际，为展示我市教育系统基层党组织和广大党员学习贯彻习近平新时代中国特色社会主义思想，', '进一步激励全市教育系统各级党组织和广大党员增强“四个意识”、坚定“四个自信”、做到“两个维护”，干在实处、走在前列，在推进吴忠教育事业改革发展中建功立业。经市教育工委研究决定，表彰一批全市教育系统先进基层党组织、优秀共产党员和优秀党务工作者。现就有关事项通知如下：', '坚持民主集中制，班子成员团结和谐，坚持学习、开拓创新、乐于奉献，在创建星级基层党组织中不断进取，成绩显著。贯彻执行党风廉政建设责任制，无任何违法违纪问题。', '党员发展工作严格规范，党员教育管理服务富有实效。党员队伍先进性明显，牢记宗旨、心系群众，精神风貌积极向上，在教学科研和服务师生、服务社会等方面发挥先锋模范作用。', '认真落实党建工作责任制，党建工作制度和考核评价体系完善，监督约束制度健全，各项工作机制运行良好。重视党内民主制度建设，尊重党员主体地位，保障党员民主权利。', '凝聚力战斗力强，团结带领本单位党员和教职工创造性地开展工作，有效地领导或保证本单位各项工作取得显著成绩。目标考核和教学质量处于同类学校前列。', '密切联系群众，努力为教职工办好事、办实事，涉及教职工切身利益的问题得到较好解决，工作作风和工作实效得到群众公认，受到师生员工拥护。', '认真学习习近平新时代中国特色社会主义思想，在政治上、思想上、行动上与党中央保持一致。党性观念强，模范履行党员义务，积极承担党内工作，很好地完成党组织交给的各项任务。', '遵纪守法，敢于同不良风气、违纪违法行为作斗争。自我要求严格，思想品德优良、清正廉洁。', '具有强烈的事业心、责任感，在学校教学、科研、管理等工作中，认真履行岗位职责，勇于承担工作任务，在本职岗位上做出优异成绩，充分发挥党员先锋模范作用。', '积极参加志愿服务活动，帮助师生解决实际困难，关心学校建设，在师生中有较高威望，群众满意度高。', '优秀党务工作者需具备优秀共产党员的基本条件，从事党务工作3年以上，目前仍从事党务工作。', '认真学习研究党的建设理论，有较高的政策理论水平。坚定正确执行党的路线方针政策，模范执行党的决议、指示、决定。', '组织协调能力强，党建业务精，有较强的奉献精神,积极主动完成组织所分配的各项任务。积极探索新形势下学校党建工作的规律和特点，勤于总结实践，创新方式方法，不断提高党建工作质量，促进和保障中心工作作用明显。', '作风深入，密切联系群众，主动做党内外群众的思想政治工作，为人处事严以律己、原则强，公道正派、清正廉洁，党务工作者形象良好，受到党员群众好评。', '各县（市、区）教育工委、市直属学校党组织、市教育局机关党支部为推荐主体，负责推荐所属基层党组织、党员和党务工作者。', '各推荐主体要按照自下而上的原则组织好推荐工作，要注意结构和分布，注重向基层和教学一线倾斜。推荐的先进基层党组织、优秀共产党员和党务工作者要与党建示范点、基层党组织星级评定工作相结合。要坚持标准，严格程序，认真把关。', '各推荐主体要对确定的推荐对象进行认真考察，同时征求纪检、综治、计生等部门的书面意见，多方面听取当地党员、干部、群众的意见，并在一定范围内公示，务求每个推荐对象都能经得起检验。近两年被全国、自治区、吴忠市表彰的优秀共产党员、优秀党务工作者的，不再推荐表彰。', '推荐上报吴忠市教育工委的表彰对象，由推荐单位负责填写《吴忠市教育系统先进基层党组织推荐和审批表》《吴忠市教育系统优秀共产党员推荐和审批表》《吴忠市教育系统优秀党务工作者推荐和审批表》，并附推荐对象的事迹材料（2000字以内）、简要事迹（300字以内，个人推荐对象电子照片（近期免冠正面彩色，红色背景，无边框，JPG格式，不小于626×413像素，文件名为推荐单位+姓名）。上述材料，连同《关于教育系统先进基层党组织、优秀共产党员、优秀党务工作者推荐情况报告》，一式3份，并附所有推荐材料电子文稿（word格式、A4纸设置），于20', '推荐上报吴忠市教育工委的表彰对象，由推荐单位负责填写《吴忠市教育系统先进基层党组织推荐和审批表》《吴忠市教育系统优秀共产党员推荐和审批表》《吴忠市教育系统优秀党务工作者推荐和审批表》，并附推荐对象的事迹材料（']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>291</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>吴忠市人民医院年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202305/t20230515_4101460.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为进一步加强医院人才队伍建设，引进急需的专业技术人才，根据《事业单位人事管理条例》', '.符合《2023年吴忠市人民医院自主公开招聘事业编制工作人员岗位计划一览表》（附件', '11.与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者，不得应聘该单位负责人员的秘书或者组织（人事）、纪检监察、审计、财务岗位，以及有直接上下级领导关系的岗位；', '1.线下报名。应聘者携带本人有效身份证及岗位所需的材料原件和复印件（身份证正反扫描在一页、户口本户主及本人信息扫描在一页、毕业证、学位证、教育部学历证书电子注册备案表、教育部学籍在线验证报告、医师资格证、执业医师证、医师规范化培训考核合格证、护士资格证、护士执业证、职称证等其他岗位要求的证书），1张近期红底(6个月内)正面1寸免冠照片交由吴忠市人民医院审核，并填写《吴忠市人民医院自主公开招聘事业单位工作人员报名表》（附件3）。', '(6个月内)正面1寸免冠照片交由吴忠市人民医院审核，并填写《吴忠市人民医院自主公开招聘事业单位工作人员报名表》（附件', '报名提交材料的真实性、准确性负责。吴忠市人民医院根据实际情况，在报名结束后汇总报名人员信息，在组织面试（考核）前再次复核应聘人员资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度', '与往届毕业生一同纳入面试，待取得毕业证、学位证、资格证后再完成后续招聘程序。2023年应届毕业生由于个人原因，未能在2023年7月31日前取得毕业证、学位证、资格证的，取消招聘资格。', '120分钟，分值100分。医院公开招聘工作领导小组办公室根据笔试情况划定笔试最低分数控制线。', '2.面试形式为半结构化面试。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '4.根据考试总成绩，按岗位招聘计划1：1的比例，从高分到低分确定体检人选。同一岗位出现应聘者考试总成绩相同时，按照笔试成绩从高分到低分确定体检人选；如笔试成绩也相同，通过一定方式组织加试。', '体检工作在吴忠市卫生健康委员会的监督指导下，由吴忠市人民医院按照公开招聘要求自主组织实施', '对体检结论有疑问的，可以进行复检，复检应安排在不低于原体检医疗机构级别的其他医疗机构进行，体检结果以复检结论', '考察工作在吴忠市卫生健康委员会的监督指导下，由吴忠市人民医院组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。', '3.考察中发现应聘者存在本公告中所列不得应聘相关情形的，不具备招聘岗位所需资格条件的，以及其他不宜进入事业单位工作情形的，经吴忠市人民医院自主公开招聘领导小组研究确定后，取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '根据考试、体检、考察结果，由吴忠市人民医院确定拟招聘人员公示名单，经吴忠市卫生健康委员会审核后，在吴忠市人民政府网、', '2.对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消聘用资格。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同或劳动合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由吴忠市人民医院招聘工作领导小组研究决定。', '）招聘资格审查、面试、打分和分数管理等环节，须在吴忠市人民医院纪委的全程监督下进行。面试过程须全程录音录像。', '（六）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》', '（七）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者自负。', '附件1：2023年吴忠市人民医院自主公开招聘事业编制工作人员岗位计划一览表.docx', '附件2：2023年吴忠市人民医院自主公开招聘备案制工作人员岗位计划一览表.docx']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>291</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>吴忠市教育局关于印发吴忠市领航名师工作室建设实施方案的通知</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-12-19</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202212/t20221219_3892450.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['吴忠市教育局关于印发《“吴忠市领航名师工作室”建设实施方案》的通知_吴忠市人民政府', '规划》，全面加强吴忠市教师队伍建设，提高教师综合素质，坚持发挥本土教育人才优势，重点培养打造市级学科领航教学名师，鼓励在职教师在实践中大胆探索，创新教育模式和教学方法，培养一批本土优秀教育人才，推动全市教育教学水平进一步提升，市教育局决定建立一批', '名师工作室要求，搭建促进中青年教师专业成长以及名师自我提升的发展平台，进一步发挥名师工作室对教师专业发展的指导、支持、提升和优化等功能，形成', '的培养模式，优化骨干教师的成就路径，将名师工作室建设成骨干成长的基地、名师展示的舞台、教学示范的窗口、科研兴教的引擎、教育改革的论坛，与学科中心教研组和教研活动基地共同打造区域性教学合作团队，进一步提升教育教学创新能力，研发具有影响力的教学成果，形成可推广的教学模式。依托吴忠市学科领航名师工作室培养认定吴忠市骨干教师，促进全市教师队伍专业发展。', '（二）领航名师工作室主持人从全市中小学各学科教学名师、特级教师、骨干教师和学科带头人中遴选确定，采取个人申请、学校推选、市教育行政部门审核审定的程序组织实施。', '个同市域、同学科、同学段成员，遴选按照个人申请、学校推选、县（区）教育行政部门和领航名师工作室主持人联合审核、市教育行政部门审定的程序组织实施。', '（五）依据名师工作室工作要求和名师工作室主持人职责，由市教育局与工作室主持人签订《吴忠市领航名师工作室协议书》，明确工作要求、义务和权利', '（六）依据名师工作室成员职责，由名师工作室主持人与工作室成员签订《吴忠市名师工作室成员工作协议书》，明确周期工作目标，规定双方的权力与职责、工作任务等，因工作调离等原因退出工作室的不再增补。', '热爱教育事业，师德高尚，乐于奉献，善于学习，热心培养青年教师，有较强的培训和指导教师的能力。', '具有较强的教育管理能力、教育教学能力和教育科研能力，教育教学质量高，在全市享有较高知名度。', '热爱教育事业，有良好师德风范，有科研热情和改革创新的意识，有较强的自我发展能力和团队合作精神。', '专业基础扎实，不怕吃苦，好学上进，勤于钻研，乐于奉献，教育教学工作成绩显著，教学质量优秀，具有良好发展前景的优秀中青年教师，年龄在', '主持工作室日常工作。确定工作室研究发展目标和方向，制定工作室制度，拟定工作室工作方案三年规划和年度计划，撰写年度总结，组织工作室成员考核，促进工作室规范化建设。', '次。组织工作室成员积极参与学科中心教研组集体备课研讨及理论学习，针对新课标背景下中小学教育教学实践中的重点、难点问题进行专题研究。', '个市级专项研究课题，聚焦基础教育前沿与热点，研究教育教学领域难点，探索学科教学普遍问题，促进学科教学的理论建设。', '指导成员总结先进的教育教学理念、方法和经验，提炼本工作室成果，以报告、案例、论文论著等形式总结推广，并组织送教或示范展示等推广活动。周期内在市域范围内组织示范教学、学术讲座、教学研讨等应用推广活动不少于', '在宁夏教育云平台建立名师工作室空间，及时展示工作室动态、汇总教学实践资源，发挥引领辐射作用。', '接受主管部门的指导、检查、评估和交办的工作，向主管部门汇报工作，每学期作出书面总结。', '主动接受主持人的指导、检查和评估。在主持人的引领下，结合个人实际，制定个人三年发展规划、年度个人专业发展研修计划；做好各种研修记录，提交研修总结，完成个人专业发展报告，并上传至工作室空间。', '积极参与工作室开展的各项活动，积极承担上课、说课、议课、研课、专题讲座等教学任务。每学期至少研读', '参与主持人的课题研究，在主持人的引领下，完成相应的研究任务。工作室周期内至少有一项教科研课题获市级以上立项，至少有两篇专业论文、经验总结或科研报告在市级以上获奖或正式刊物上发表。', '市教育局负责名师工作室的领导工作，市教育局人事科负责名师工作室主持人及其成员的遴选与认定，市教研室负责名师工作室日常业务工作的管理、指导和年度考核检查，市教育局财务科为工作室工作的开展提供相应经费支持保障，负责相关经费落实及经费使用情况审核。', '实行年度过程性考核评估。通过听取汇报、查阅资料、调查访谈、成果检验等考核方式，对名师工作室进行年度过程性考核，考核结果分为优秀、合格和不合格三个等级，考核为不合格，考核组将下达整改通知，进行整改。', '实行周期终结性考核。在三年周期结束后，通过听取汇报、查阅资料、调查访谈、成果检验等考核方式，对名师工作室进行终结性考核。', '名师工作室成员平时考核由名师工作室主持人负责，终结性考核由市教育局聘请专家考核，成绩优异者将由市教育局人事科按照一定比例直接确定为市级骨干或优先推荐参评自治区级骨干。', '月，各领航名师工作室主持人通过邀请区内外骨干教师和名师进行学科教学培训或到名校学习等方式对工作室成员开展培养工作，通过组织开展各学科教学教研、优质课评比、示范课和精品课展示等活动，有针对性的提高本学科教师专业素养。研讨解决实际教学中的问题，特别是针对新课标背景下中小学教育教学实践中的重点、难点问题进行专题研究，形成可推广的经验或成果。', '名师工作室主持人所在学校要为名师工作室提供相应的工作场所，配备相应的工作设施，适当减少工作室主持人事务性工作。名师工作室成员所在学校要为名师工作室开展工作提供便利条件，在名师工作室开展活动时给予积极支持。', '万元，用于工作室开展学科教学教研、培训交流，开展学科专题讲座及指导，以及学习交流研讨中聘请专家、评委等费用。', '优先为工作室主持人、成员提供参加高层次研修、学习考察和学术研讨等活动的机会，在申报各级各类重点课题时优先推荐，在外出学习时优先安排。名师工作室成员所获成果荣誉记入原工作单位，享受相应的教育教学成果奖励。', '日前将附件中的《吴忠市领航名师工作室主持人申报表》《吴忠市领航名师工作室成员申报表》报市教育局']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>291</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>吴忠市大事记年月</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-06-29</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/202006/t20200629_2148851.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['2日 吴忠市委书记沈左权调研中小微企业复工复产情况。沈左权强调，要提升服务意识，落实兑现好自治区及吴忠市出台的各项扶持优惠政策，积极为中小微企业纾困解忧，提高企业复工复产的效益和水平，助推中小微企业发展。', '△ 吴忠市委书记沈左权对盐池县部分在建重点项目开复工建设情况、学校疫情防控及春季森林草原防火工作进行暗访督查。沈左权强调，要强化服务，全力支持重点项目建设提速、提质、提效；严格落实防疫措施，筑牢校园疫情防控安全防线；引导群众文明祭扫，以最严要求、最细举措抓好森林草原防火安全。', '3日 吴忠市举办“我们的节日·拥抱春天”清明诗会，通过朗诵诗歌抒发爱国情怀，寄托对革命英烈的怀念之情，助力脱贫攻坚、疫情防控和文明城市创建。', '4日 吴忠市各行各业举行哀悼活动，各地下半旗志哀，全市停止公共娱乐活动。10时整，防空警报鸣响、汽车鸣笛，全市各界干部群众静立默哀3分钟，深切悼念抗击新冠肺炎疫情牺牲烈士和逝世同胞。', '6日 自治区党委书记、人大常委会主任陈润儿在吴忠市调研黄河流域生态保护，强调要认真贯彻落实习近平总书记在黄河流域生态保护和高质量发展座谈会上的重要讲话精神，实施河道堤防安全提升工程，切实抓好黄河流域生态涵养。', '8日 吴忠市委书记沈左权主持召开五届市委2020年第13次常委会。会议传达学习贯彻习近平总书记在中央政治局会议和在浙江考察时的重要讲话精神以及自治区党委常委会会议精神，安排部署加快建立同疫情防控相适应的经济社会秩序等工作。会议还套开了市委统一战线领导小组第九次会议。', '△ 吴忠市举行食品产业网络招商推介暨项目签约会，通过“屏对屏”的方式，签约项目4个，总投资10.3亿元。市长喜清江出席签约会。', '10日 吴忠市组织收听收看全国、全区安全生产电视电话会议。市安委会有关成员单位负责人在吴忠分会场参加会议。', '13日 吴忠市委网络安全和信息化委员会召开第二次会议。会议传达学习贯彻习近平总书记关于网络强国的重要思想和自治区党委有关会议精神，听取2019年全市网信工作情况和2020年全市网信工作要点及分工汇报，审议有关文件。', '△ 吴忠市委书记沈左权对重点项目开复工建设情况进行暗访督查。沈左权强调，要切实把思想和行动高度统一到习近平总书记重要讲话精神上来，坚持在常态化疫情防控中提升经济运行的质量和效益，把抓发展的注意力集中到重点项目上，把稳增长的着力点集中到重点项目上，把调结构的突破口集中到重点项目上，加快项目建设进度，促进经济社会平稳发展。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第12次会议。会议传达学习习近平总书记在浙江考察时的重要讲话精神，中共中央政治局常务委员会会议、国务院常务会议、中央应对新冠肺炎疫情工作领导小组会议精神和自治区有关会议文件精神，听取有关部门工作情况汇报，分析了当前疫情防控工作存在的突出问题，研究部署了下一步工作，议定了有关事项。', '14日 吴忠市市长喜清江主持召开市人民政府第51次常务会议。会议传达全国、全区安全生产电视电话会议、推进重大项目建设积极做好稳投资工作会议及自治区党委决胜全面建成小康社会工作会议精神，听取全面建成小康社会目标落实进展、脱贫攻坚、安全生产、重点建设项目开复工等情况汇报，审定《吴忠市决战决胜脱贫攻坚方案》《吴忠市2020年财政扶贫资金使用方案》，安排部署下一步工作。会议还研究了其他事项。', '15日 吴忠市紧密结合当前新冠肺炎疫情防控工作，围绕“坚持总体国家安全观，统筹传统安全和非传统安全，为决胜全面建成小康社会提供坚强保障”这一主题，开展内涵丰富、形式多样的第五个全民国家安全教育日宣传教育活动。', '16日 吴忠市召开发展壮大村级集体经济协调推进会。会议通报了中央、自治区扶持壮大村级集体经济项目实施情况，听取了市农业农村局及各县（市、区）发展壮大村级集体经济情况汇报，对进一步加强农村基层党组织建设，持续发展壮大村级集体经济工作进行了安排部署。', '17日 吴忠市委召开常委会会议暨应对新冠肺炎疫情工作领导小组第八次会议。会议传达学习了习近平总书记关于安全生产的重要指示和自治区党委书记陈润儿有关批示要求，安排部署下一步安全生产工作；传达学习了中央文明委和自治区文明委全体会议、十二届自治区党委第八轮巡视动员部署会议精神；全区决胜全面建成小康社会工作会议和重大项目建设工作会议精神。会议还研究了其他事项。市委书记沈左权主持会议并讲话。', '20日 吴忠市委书记沈左权对中央和自治区环保督察反馈问题整改情况进行暗访督查。沈左权强调要深入贯彻落实习近平生态文明思想，牢固树立绿水青山就是金山银山的发展理念，始终坚持问题导向，确保所有反馈问题全部整改到位。', '21日 吴忠市委书记沈左权到青铜峡市对脱贫攻坚“四查四补”工作进行暗访督导。沈左权强调，要坚决贯彻落实习近平总书记在决战决胜脱贫攻坚座谈会上的重要讲话精神，按照自治区党委部署要求，抓实抓细“四查四补”工作，把发展扶贫产业作为实现稳定脱贫的根本之策，因地制宜、因人制宜，不断壮大村级集体经济，带动贫困群众稳定就业、增收致富，确保全面小康路上不漏一户、不落一人。', '22日 吴忠市市长喜清江主持召开市人民政府第52次常务会议。会议听取一季度全市经济运行情况汇报，审议《吴忠市促进消费十二条措施（送审稿）》，安排部署有关工作。会议还研究了其他事项。', '24日 吴忠市委书记沈左权主持召开五届市委2020年第16次常委会会议。会议学习传达中共中央政治局会议精神，听取市政府党组关于一季度全市经济运行情况和就业情况汇报，听取自治区党委第一巡视组巡视吴忠市反馈意见整改落实工作进展情况汇报，安排部署下一步工作。会议还研究了其他事项。', '△ 吴忠市扶贫开发领导小组召开2020年第2次会议。会议传达学习了自治区党委书记陈润儿在同心县调研脱贫攻坚“四查四补”工作时的讲话精神、自治区扶贫开发领导小组会议和全区脱贫攻坚问题整改工作电视电话会议精神，听取全市脱贫攻坚进展情况汇报，审议《吴忠市决战决胜脱贫攻坚方案（送审稿）》《2019年国家脱贫攻坚成效考核反馈问题整改方案（送审稿）》，对全市下一步脱贫攻坚工作进行安排部署。', '26日 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第13次会议。会议传达学习了习近平总书记在陕西考察时的重要讲话精神、中共中央政治局会议、国务院常务会议、中央应对新冠肺炎疫情工作领导小组会议精神和自治区有关会议文件精神，听取各县（市、区）、有关部门工作情况汇报，分析了当前疫情防控工作存在的突出问题，研究部署了下一步工作，议定了有关事项。', '△ 吴忠市安委会召开第二次全体（扩大）会议暨防汛抗旱工作会议。分析研判当前安全生产和防汛抗旱形势，安排部署全市安全生产和防汛抗旱重点工作。', '27日～28日 吴忠市委书记沈左权到同心县和红寺堡区就脱贫攻坚“四查四补”工作进行暗访督导。', '29日 吴忠市委书记沈左权主持召开五届市委2020年第17次常委会会议。会议学习贯彻中央纪委办公厅《关于切实加强7省区2020年扶贫领域腐败和作风专项治理工作的指导意见》和全区抓党建促决战决胜脱贫攻坚暨基层党建工作重点任务推进会精神，听取全市农（林）业受低温冻害情况汇报，安排部署下一步工作。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>291</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>吴忠市农业农村局年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-01-12</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202101/t20210112_2568239.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['吴忠市农业产业化服务中心是吴忠市农业农村局所属全额预算事业单位，主要承担全市农业物联网示范项目管理、农业大数据采集、筛选、农业信息化技术服务和推广、农产品对外交流合作、对外宣传推介、展示展览展销、对外窗口建设和农村电商服务等工作。根据工作需要，按照公开、平等、竞争、择优原则，面向全国范围公开招聘2名工作人员，现将有关事项公告如下：', '吴忠市农业产业化服务中心是吴忠市农业农村局所属全额预算事业单位，主要承担全市农业物联网示范项目管理、农业大数据采集、筛选、农业信息化技术服务和推广、农产品对外交流合作、对外宣传推介、展示展览展销、对外窗口建设和农村电商服务等工作。根据工作需要，按照公开、平等、竞争、择优原则，面向全国范围公开招聘', '.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '本次招聘对硕士及以上学历层次人员采取免笔试，直接面试的方式招聘，如报名人数达25人以上则增加笔试环节，笔试的测评范围、测评形式提前公告并告知应聘人员，笔试排名前', '。根据当前疫情防控工作需要，请现场报名人员佩戴口罩，经体温检测正常后进入现场进行报名。报名人员14天内有宁夏区外旅居史或发烧等不适症状的，必须如实报告情况并核酸检测合格后方可现场报名，对因需要留观、隔离或核酸检测结果尚未出具的，可以委托其他人员现场报名或者采取网上报名的方式。', '。根据当前疫情防控工作需要，请现场报名人员佩戴口罩，经体温检测正常后进入现场进行报名。报名人员', '天内有宁夏区外旅居史或发烧等不适症状的，必须如实报告情况并核酸检测合格后方可现场报名，对因需要留观、隔离或核酸检测结果尚未出具的，可以委托其他人员现场报名或者采取网上报名的方式。', '2.网络报名。不能前往招聘现场的应聘人员可以根据自身实际在规定报名时间内网络报名。应聘人员将本人报名表、电子照片、报名所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至', '网络报名。不能前往招聘现场的应聘人员可以根据自身实际在规定报名时间内网络报名。应聘人员将本人报名表、电子照片、报名所需各类材料扫描件建立压缩包（以', '应聘人员严格按照招聘岗位的条件报名，要对现场报名或网络报名提交材料的真实性、准确性负责。吴忠市农业农村局根据实际情况，在报名结束后汇总报名人员信息，在组织面试（考核）前再次复核应聘人员资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。', '面试重点测评应聘人员与岗位相适应的业务能力、工作技能、现场反应及沟通协调能力等方面内容，面试采取结构化方式进行，分值为100分，时间15分钟，面试成绩须达到60分及以上，否则取消其应聘资格。', '面试重点测评应聘人员与岗位相适应的业务能力、工作技能、现场反应及沟通协调能力等方面内容，面试采取结构化方式进行，分值为', '.面试成绩即为考试总成绩，所有成绩均保留小数点后面两个数字，考试总成绩出现并列时，通过加试题的方式解决，最后按岗位招聘计划1:1的比例，由高分到低分确定体检、考察对象。', '面试成绩即为考试总成绩，所有成绩均保留小数点后面两个数字，考试总成绩出现并列时，通过加试题的方式解决，最后按岗位招聘计划', '按照公开招聘要求自主组织实施，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '按照公开招聘要求自主组织实施，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔', '应聘者对体检结果有疑问的，经吴忠市农业农村局公开招聘领导小组同意，可以复检，体检结果以复检结论为准。', '应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '考察按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况。', '考察中发现因个人品德差、有不良政治或诚信记录的，不具备招聘岗位所需资格条件的，以及存在其他不宜进入事业单位工作情形的，经', '因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起', '对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知', '日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由吴忠市人力资源和社会保障局按规定办理招聘手续。', '聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已录用的，取消录用资格。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格', '公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第', '）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由市农业农村局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '附件1 2021年吴忠市农业农村局自主公开招聘事业单位工作人员岗位计划一览表.xls']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>291</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>吴忠市委统战部领导干部学法清单制度试行</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-07-16</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/ztzl/jtjgczl/mzzjswj/202207/t20220716_3611435.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['努力掌握贯穿其中的马克思主义立场观点方法，不断提高运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险的能力', '党章和《关于新形势下党内政治生活的若干准则》《中国共产党廉洁自律准则》《中国共产党党内监督条例》《中国共产党纪律处分条例》等党内法规', '清单应包括年度学法内容、学习方式、学时等内容，并在适当范围内公布。领导干部对照年度学法清单,作好当年度学法记录，留存备查。', '领导干部学法坚持学以致用、理论与实践相结合的原则，坚持集中学习与个人自学相结合，以个人自学为主。', '严格落实领导干部述法制度。部机关领导干部要围绕法治学习情况、重大事项依法决策情况、依法履职情况等进行述法。把法治观念、法治素养作为干部德才的重要内容，把能不能遵守法律、依法办事作为考察干部的重要依据。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>291</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>幸福是奋斗出来的</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2020-06-23</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202006/t20200623_2145098.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['本报讯（记者 庞芳 洪蓉 何欣）习近平总书记视察宁夏重要讲话，在吴忠市企业界引发热烈反响，大家纷纷表示，社会主义是干出来的，幸福是奋斗出来的。有党和政府持续努力，有各民族群众不懈奋斗，今后的生活一定会更好、更幸福。', '吴忠市利通区香丁丁牛肉面馆万达店负责人杨昊说：“习近平总书记视察宁夏重要讲话给民营企业发展指明了重要方向。我非常感动，对未来发展充满信心，也充满干劲，我们一定会抓住时代赋予的历史机遇，撸起袖子加油干，踏踏实实办好企业，为‘吃在吴忠’贡献力量。”', '吴忠市恒美集团常务副总经理马永斌通过各种媒介一遍又一遍地收听收看习近平总书记视察宁夏重要讲话，感到非常振奋。他说：“习近平总书记到我们吴忠考察脱贫攻坚、生态环境等，我心情非常激动，作为商贸流通企业，我们一定要引导商户和企业员工，爱党爱国，爱企业主体，在企业的领导下，积极复工复产，保稳定保就业。”', '吴忠市食名轩饭店总经理牛华平通过认真学习习近平总书记视察宁夏重要讲话，对当前疫情形势对经济社会发展的影响有了更深入的认识，对企业下一步发展有了更明确的方向和更坚定的信心。他说：“这次总书记到宁夏视察，非常关心脱贫攻坚工作。之前在企业的生产经营中，我们也经常到困难偏远乡村，做一些扶贫资助的事情。今后我们会下更大的力气和决心，把脱贫攻坚工作做得更好。”']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>291</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>吴忠市工业和信息化局举办年政府开放日活动</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/zfkfr/ssqk/202309/t20230926_4288783.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['为搭建政府与企业、群众之间的沟通桥梁，进一步做好政务公开工作，吴忠市工业和信息化局于9月22日开展了2023年“政府开放日”活动，通过组织代表到企业参观调研，召开座谈会等形式，展示了近几年我市工业绿色低碳发展的成就，征求了各位代表对工信部门工作及全市工业发展的意见建议。活动的开展对促进社会各界了解我市工业高质量发展、熟悉工信部门工作起到了积极作用。', '为切实扩大社会各界参加“政府开放日”范围，市工信局通过在吴忠市人民政府网站、“吴忠工信”微信公众号和发书面通知的方式，公开邀请在吴忠市工作、生活、学习，且关心吴忠工业发展的社会各界人士20余名参加活动。', '代表们分别参观考察了伊利乳业、宁杨食品和市数据运营中心，在企业工作人员带领下，他们进车间、入展厅，详细了解企业生产经营情况、产品生产流程和发展愿景，对企业采用智能化、数字化等现代化生产技术提高生产效率、促进企业转型升级和高质量发展给予高度评价。', '在“政府开放日”座谈会上,市工信局党组成员、副局长张克文同志就1-8月份全市工业经济运行情况向代表们进行了专题汇报，并针对我局2023年工作向与会代表们现场征求意见建议。', '代表们纷纷表示，市工信局全体干部职工积极履行工作职责，全心全意服务企业，助企纾困，着力为企业降本增效，目前工业经济整体呈现出企稳复苏的良好态势。张克文副局长就大家提出的意见建议和今后的工作作了表态发言，他表示，', '市工信局将认真梳理研究代表们提出的意见建议，结合学习贯彻习近平新时代中国特色社会主义思想主题教育，认真加以落实，', '以建设绿色发展先行市为目标，以实施工业强市计划为统领，以推动“六新”产业高质量发展为重点，持续']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>291</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>吴忠市妇幼保健院年自主公开招聘事业单位专业技术人员公告</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202303/t20230317_4000303.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为进一步加强医院人才队伍建设，推进人才强院战略，培养和引进急需的专业技术人才，根据《自治区党委组织部人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》', '2023年我院计划自主公开招聘专业技术人员17人，其中事业编3人，备案制14人。具体招聘岗位、资格条件及有关事项详见《吴忠市妇幼保健院2023年自主公开招聘事业编专业技术人员岗位计划一览表》（附件1）、《吴忠市妇幼保健院2023年自主公开招聘备案制专业技术人员岗位计划一览表》（附件2）。', '7.符合《吴忠市妇幼保健院2023年自主公开招聘事业编专业技术人员岗位计划一览表》（附件1）、《吴忠市妇幼保健院2023年自主公开招聘备案制专业技术人员岗位计划一览表》（附件2）中各招聘岗位要求的相关资格条件；', '4.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '1.应聘者下载并填写《吴忠市妇幼保健院2023年自主公开招聘事业单位事业编专业技术人员报名表》（附件3）、《吴忠市妇幼保健院2023年自主公开招聘事业单位备案制专业技术人员报名表》（附件4）。', '应聘者严格按照招聘岗位的条件报名，要对报名提交材料的真实性、准确性负责。吴忠市妇幼保健院公开招聘工作领导小组根据实际情况，在报名结束后汇总报名人员信息，在组织笔试前再次复核应聘者资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。', '2023年应届毕业生报名时暂不能提供毕业证书、学位证书的，可先提供具有学校签章的就业推荐表或相关证明，与往届毕业生一同纳入考试，待取得毕业证书、学位证书后再完成后续招聘程序。2023年应届毕业生由于个人原因，未能在2023年7月31日前取得毕业证书、学位证书的，取消招聘资格。', '2023年5月4日携带居民身份证件、学历（学位）证书、资格证、执业证、职称证等证件的原件及复印件，到吴忠市妇幼保健院南院区六楼会议室进行资格审查。', '在吴忠市人力资源和社会保障局、吴忠市纪委监委派驻第八纪检监察组和吴忠市卫生健康委员会的指导、监督下，由吴忠市妇幼保健院依法依规自主组织笔试和面试。考试公告将通过吴忠市人民政府网、吴忠市卫生健康委员会微信公众号（健康吴忠）、吴忠市妇幼保健院微信公众号发布，通知笔试人员名单、具体时间、地点、考试要求等内容，参加考试的应聘者需及时关注考试公告。', '1）笔试开考比例（同一岗位报考人数与该岗位招聘人数之比）为3:1。达不到3:1开考比例的，经吴忠市妇幼保健院公开招聘工作领导小组研究同意后可按实际报考人数参加笔试或适当降低比例、减少招聘名额或者取消招聘岗位。', '2）笔试科目与类别。笔试科目分为5个类别：临床、康复、影像、护理、放射。笔试科目为综合能力及专业知识测试。笔试时限120分钟，分值100分。', '3）笔试以闭卷方式进行。应聘人员应试时须携带黑色签字笔、2B铅笔和橡皮擦等考试用品。笔试时间、地点及成绩等均通过吴忠市妇幼保健院微信公众号另行通知。对岗位设置要求为研究生及以上学历的招聘岗位可免笔试， 通过资格审核后可直接进入面试。', '1）面试开考比例按照笔试人数与岗位招聘人数3:1的比例从高分到低分确定面试人员名单，进入面试资格最后一名笔试成绩相同者，并列人员一并进入面试。', '2）面试方式采取半结构化方式进行，满分为100分，重点测评应聘人员与岗位相适应的公共综合素质、专业知识、业务能力和工作技能等方面内容。', '3.根据考试总成绩，由院公开招聘工作领导小组按岗位招聘计划1:1的比例，从高分到低分确定体检、考察对象。考试总成绩出现并列时，按照笔试成绩从高分到低分确定体检、考察对象；笔试成绩也相同的，由院公开招聘领导小组通过一定方式组织加试。', '1:1的比例确定体检和考察对象。体检工作在吴忠市纪委监委派驻第八纪检监察组和吴忠市卫生健康委员会的监督指导下，由吴忠市妇幼保健院按照公开招聘要求自主组织实施，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。体检费用由应聘者承担。', '因放弃体检资格、自愿放弃岗位名额等情况出现岗位空缺的，按总成绩排名依次递补。因体检不合格等情况出现岗位空缺的，该岗位不再递补。', '考察工作在吴忠市纪委监委派驻第八纪检监察组和吴忠市卫生健康委员会的监督指导下，由吴忠市妇幼保健院组织实施，具体考察方式和内容按照相关规定执行。', '因放弃考察、自愿放弃岗位名额等情况出现岗位空缺的，按总成绩排名依次递补。考察不合格的不再依次递补。', '根据考试、体检、考察结果，由吴忠市妇幼保健院确定拟招聘人员公示名单，在吴忠市人民政府网、吴忠市卫生健康委员会微信公众号（健康吴忠）、吴忠市妇幼保健院微信公众号进行公示，公示不少于', '公示期满无异议的拟聘用人员，相关人员由吴忠市人力资源和社会保障局按规定办理招聘手续。', '（一）招聘工作在吴忠市人力资源和社会保障局、吴忠市纪委监委派驻第八纪检监察组和吴忠市卫生健康委员会的指导、监督和管理下进行。', '（二）凡涉及招聘工作的重大事项或本方案未尽事宜，由吴忠市妇幼保健院公开招聘领导小组研究决定。', '（三）招聘条件、方式、时间等若有变动和调整，以报名网站公开发布的招聘补充公告为准。', '（四）招聘资格审查、笔试、面试、打分和分数管理等环节，在吴忠市妇幼保健院纪律委员的全程监督下进行。', '（五）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第', '（六）应聘者报名时所留电话号码应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者自负。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>291</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>吴忠市发展和改革委员会党组关于市委巡察反馈意见整改情况的通报摘要</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019-06-20</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/201906/t20190620_1560878.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['吴忠市发展和改革委员会党组关于市委巡察反馈意见整改情况的通报（摘要）_吴忠市人民政府', '按照市委统一部署，2018年10月19日至12月7日，市委第三巡察组对市发展和改革委员会（以下简称“市发改委”）党组开展了常规巡察。2019年1月22日，巡察组向市发改委党组反馈了巡察意见。按照《中共吴忠市委关于加强巡察工作的实施意见》《被巡察党组织配合市委巡察工作暂行规定》要求，现将巡察反馈意见整改情况予以公布。', '1.针对“党内政治生活开展不严谨”问题。制定了谈心谈话、各类会议记录工作规范，明确谈心谈话形式、内容和会议记录要素等，发改委主要领导认真履行责任，坚持对各类谈心谈话、会议记录等定期检查；制定了2019年度党员领导干部讲党课计划，明确每季度至少有1名党员领导干部讲党课，并建立分级审核监督查重制度，进一步加强和规范了党内政治生活。', '2.针对“拨付大额资金未经党组会议研究”问题。针对过去工作失误，认真汲取经验教训，修订完善了市发改委党组会、委务会议事规则和“三重一大”决策制度实施办法，将发改委机关业务范围内支出3000元以上资金和各科室监管的政府投资项目资金使用安排纳入“三重一大”和党组会议决策范围，加强资金监管。', '3.针对“开展违反中央八项规定精神突出问题专项治理工作不彻底”问题。修订完善了《吴忠市发展和改革委员会财务管理制度》等规范性文件，列出了《吴忠市发展和改革委员会财务支出清单30条》，组织干部职工对财务管理相关规定和制度进行了学习。同时，更换了财务管理人员，财务报账由市财政局核算中心统一审核、核算和报销，财务报销程序更加规范。', '4.针对“政治理论学习不深入不扎实”问题。修订完善了党组中心组学习制度，制定委党组中心组2019年度学习计划，明确了学习频率、学习要求、主题内容和监督检查等细节，党组理论中心组每月至少集中学习1次，每季度学习研讨不少于1次，全年学习不少于12次。', '5.针对“意识形态领域工作责任制落实不到位”问题。修订完善市发改委意识形态工作责任制实施细则和意识形态领域舆情分析研判等制度，明确了党组领导班子、领导干部的意识形态工作责任；要求党组每年专题研究意识形态工作至少2次，每半年向市委和宣传部报告意识形态领域情况并提出工作建议。同时，把意识形态工作作为民主生活会和述职报告的重要内容，接受监督和评议。', '6.针对“支部换届选举工作不严肃”问题。修订完善了《吴忠市发改委党支部换届选举公推直选工作实施方案》，进一步规范了党支部换届选举程序。同时，建立了分级审核监督责任制，支部书记或副书记定期检查“三会一课”记录。建立党员干部信息台账，坚持每月信息更新，实行动态管理。调整更换了党务干部。', '7.针对“干部选拔任用工作不规范”。将《党政领导干部选拔任用工作条例》、干部选拔任用四项监督制度等内容纳入了干部职工集体理论学习计划。严格按程序落实干部拟选拔任用考察谈话记录、民主推荐表、民主测评表、考察报告、任免等资料的备案管理。', '8.针对“干部因私出国（境）证件管理不合规定”的问题。组织干部职工认真学习了《加强国家工作人员因私事出国管理的暂行规定》《中国共产党重大事项请示报告条例》《干部人事档案工作条例》等文件精神，严格护照等证件管理。同时，对党员干部出国（境）证件管理情况开展了全面排查，新考入、调入同志已到公安局进行出入境系统备案，所有党员干部出国（境）证件均已严格按照规定上交保管。', '9.针对“存在形式主义和官僚主义倾向”问题。完善了公文分级审核把关和日常工作监督检查制度，建立委机关月度工作推进情况台账，对工作任务进度缓慢的责任人进行提醒，对落实不力的责任人进行通报批评。同时，制定了委机关集中整治形式主义、官僚主义突出问题自查问题清单和整改措施，坚决整改存在的形式主义、官僚主义突出问题。', '10.针对“作风建设专题活动开展不扎实”问题。建立了理论学习分级审核监督查重制度，重点对学习心得、研讨文章、各类报告等材料逐级审核，层层把关。同时，结合工作实际，以实现“打基础、转作风、强素质、树形象、求实效”为目标，组织开展“八整八改强作风”活动，着力从政治思想、工作作风等方面解决“不想为、不敢为、不会为、不善为”等问题。', '11.针对“发文管理比较混乱”问题。已将国务院办公厅《关于加强行政规范性文件制定和监督管理工作的通知》（国办发〔2018〕37号）和自治区政府办公厅《关于加强行政规范性文件制定和监督管理工作的实施意见》（宁政办发〔2018〕77号）纳入干部职工集体学习计划，进一步规范了行政规范性文件的起草制定，强化了对行政规范性文件的监督管理。同时，制定了发文流程规范，绘制了流程图，进一步明确了行政规范性文件制发程序和步骤，并严格行政发文文号登记，实行一文一号。', '12.针对“对中介机构及项目资金监管不严格，折射出作风不扎实”问题。制定了优化项目申报审批服务和强化项目管理规定，进一步提升了政府投资项目管理水平。将监管的政府投资项目资金使用安排纳入“三重一大”决策范围，进一步强化政府投资项目资金使用监管力度，并对2015年至2017年抽取的中介机构进行了考核评分和满意度测评。同时，全面自查了2015年以来政府投资项目资金拨付单，实行存档管理。', '13.针对“ ‘一把手’ 履行第一责任人职责不到位”问题。委党组会议对“灯下黑”问题专项整治过程中存在问题的10名同志处理不规范问题进行了专题研究，党组织书记认真履行“第一责任人”职责，对责任人开展了提醒谈话。同时，严格执行《中国共产党支部工作条例（实行）》，积极开展了机关党建“灯下黑”问题专项整治“回头看”。', '14.针对“班子成员落实‘一岗双责’不到位”问题。制定了委机关2019年党风廉政建设工作要点，明确班子成员年终向委党组汇报责任制落实情况和委党组半年、年终向市委、市纪委报告责任制执行情况。建立完善全面从严治党责任清单、问题清单和问责清单，严格落实班子成员“一岗双责”。完善了谈心谈话机制，明确主要领导与分管领导、各科室负责人每年至少进行一次廉政恳谈。', '15.针对“签订《党风廉政建设主体责任书》流于形式”问题。严格落实党风廉政建设责任制等制度条例，委党组书记和班子成员、班子成员和分管业务科室负责人逐级签订了党风廉政建设责任书，层层压实了责任。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>291</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>关于印发年全市粮食和物资储备工作要点的通知</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/gz/bmwj/202104/t20210427_2802477.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九届五中、六中全会精神和习近平总书记视察宁夏重要讲话精神，认真落实党中央、自治区和吴忠市决策部署，立足新阶段新理念新格局要求，牢牢把握粮食安全主动权，扎实做好', '工作总思路（即：围绕一个目标：粮食安全省长责任制考核；压实两个责任：压实全面从严治党主体责任、压实粮食安全党政同责； 守住三条底线：安全、稳定、廉政；开展四个创建：模范机关创建、市级文明单位创建、四星级党支部创建、食品安全区全域创建；抓好五个重点：粮食和物资储备安全、粮油市场保供稳价、自治区原粮储备生产基地建设、推进粮食产业高质量发展、开展节约粮食行动），加快构建更高层次、更高质量、更有效率、更可持续的区域粮食安全和物资储备安全保障体系，坚决扛稳扛好全市粮食和物资储备安全重任，确保', '突出党的政治引领，坚持以习近平新时代中国特色社会主义思想为指导，深入学习宣传党的十九届五中、六中全会精神，深入贯彻落实习近平总书记视察宁夏重要讲话精神，牢牢把握', '，驰而不息正风肃纪，持续推进党风廉政建设和反腐败工作；持续整治形式主义、官僚主义突出问题，切实为基层减负；持续推进市委巡察反馈问题整改落实工作， 把', '回潮反弹。持续改进文风会风，力戒形式主义、官僚主义，切实为基层减负。要防范行业廉政风险，抓好收储轮换、执法监管、干部选拔、工程建设、招标采购等领域的监督管理和风险防控，从而形成不敢腐、不能腐、不想腐的良好局面。', '、宣传栏、电子屏等各类阵地管理，及时分析研判存在的问题和风险，扎实做好网评、网宣工作。扎实开展马克思主义国家观、民族观、历史观、文化观、宗教观教育，切实增强干部职工政治认同、思想认同、理论认同、情感认同。', '坚持总体国家安全观，强化国防形势、网络安全、保密工作学习宣传教育，筑牢国家安全意识。坚持底线思维，增强忧患意识，提高防控能力。严格落实', '任务，防范化解粮食收购、应急保供、企业改革等领域中可能存在的风险；抓好综治信访维稳，维护系统和谐稳定局面。', '充分发挥党组核心领导作用，带头强化自身建设，加强内部管理，进一步推进作风转变，提升机关效能。深入开展调查研究，推进调研成果转化运用，为基层解决实际问题。持续推进党务、政务公开工作，打造阳光开放机关。统筹推进基层党建、统战、群团、双拥和老干部工作。', '不断深化践行社会主义核心价值观，深入推进移风易俗工作，倡导文明交通、文明上网，积极开展', '工程，全面加强党员教育管理监督，大力开展党建品牌创建活动，严格落实党内关怀制度，切实做好离退休党员管理工作，主动对接共建社区，积极开展庆祝建党', '周年系列活动，推动党建和业务深度融合，以党建带动业务高质量开展，以业务高质量开展促进党建质量不断提升。', '完善粮食应急保障体制机制，加强粮食市场监测预警，密切跟踪市场动态，及时分析研判市场走势，适时发布权威信息，积极引导市场预期。积极组织调度粮源，保障市场粮食供应充足、价格平稳。按照粮食应急预案，制定粮食应急供应保障工作方案，随时做好粮食应急供应准备。试点建设吴忠市粮食应急供应保障智慧信息管理平台，提高粮食保障信息化水平。', '全力抓好粮食收购，加强产购形势分析，完善工作方案，积极引导市场多元主体入市收购，优化库点布局，提供优质服务， 防止发生农民', '按照自治区关于做好自治区原粮储备生产基地建设工作的通知和建设指引的要求， 指导青铜峡市落实好', '组织企业参加第四届中国粮食交易大会等展销活动，做好重点地区、重要时段、重大节日市场供应工作，确保粮油市场供应不脱销、不断档。不断促进产销衔接，推动与粮食主产、主销省区的购销合作关系。', '加快军民融合发展，指导青铜峡市军粮供应有限公司拓展供应保障品种和服务范围，满足部队主副食和生熟食品等物资供应，不断提高军粮供应保障水平。', '年度市委督检考工作计划和效能目标考核任务，提升考核质量和效能，完善考核奖惩机制，抓创新、抓亮点，强化落实党政同责，充分调动各级党委、政府扛起粮食安全政治责任的主动性，将粮食安全放在更加重要的位置，保障区域粮食安全。', '改革，规范行政权力运行和政务服务。建立健全行业制度体系，推进储备粮油管理、应急供应保障、粮食质量安全等制度规范建设。', '认真学习贯彻习近平总书记关于全面推进依法治国重要论述，严格落实市委、市政府关于法制宣传教育的决策部署，按照', '的要求，进一步明确普法主体责任和工作机制，充分发挥粮食和物资储备主管部门职能职责，促进粮食和物资储备行业法律法规宣传教育深入开展。', '万吨政府粮食临时储备任务，积极落实企业社会责任储备，强化粮食储备管理，确保粮食储备安全。联合市发改委、财政局、农发行吴忠市分行稳妥做好', '完善救灾物资储备管理制度，规范管理现有物资，确保物资储备安全，关键时刻能够调得出、用得上。积极争取市政府支持，配备仓储货架等设备设施，提高救灾物资储备库仓储能力。与市应急管理局密切协调，科学确定应急救灾物资储备的品类、规模、结构，争取采购补充一批急需物资，做到市级应急救灾物资数量充足、品类齐全、质量完好。', '建立完善粮食监管体制机制，加强行业信用监管和信息化监管。结合本地实际创新执法督查方式方法，加大涉粮案件查处力度，严厉打击粮食流通领域违法犯罪行为。', '粮食监管热线作用，重点抓好政策性粮食购销存和出库监管，严把粮食收购和储存质量安全关，管住管好政府粮食和物资储备，确保数量真实、质量良好、储存安全。', '；推进安全生产专项整治三年行动计划，加强重大事故隐患排查治理，坚决防止重大安全事故发生。', '，落实安全生产党政同责、一岗双责、失职追责和企业主体责任。完善安全隐患排查治理体系，坚决防止各类安全事故发生。', '围绕实施粮食绿色仓储、品种品质品牌、质量追溯、机械装备、应急保障能力以及节约减损健康消费等六大提升行动，继续争取项目资金支持，持续推进', '年度收获小麦、稻谷、玉米质量调查、品质，测报、质量安全监测及稻谷重金属检验、自治区储备粮油质量安全监测工作，做到全市新收获粮食检测全覆盖，外调粮食全批次检测覆盖，', '认真落实产业发展政策，发挥专项资金引领作用，促进产业转型、提质增效。巩固优质粮食工程成效，扩大示范效应，提升粮食优质品率和产品竞争力。', '金字招牌。加大对亚麻籽油能力提高、质量提升、技术研发等方面的项目、资金支持；充分利用各类商务展会平台，扩大吴忠亚麻籽油之乡区域品牌，提升品牌影响力。', '，加强校企合作，鼓励企业市场化引进人才。加强干部职工培训教育，组织外出学习考察，切实提高干部职工综合水平和业务能力。', '统筹行业资源，发挥行业优势，引导粮油生产、加工流通与乡村振兴工作相融合，促进乡村振兴工作更好发展。持续做好帮扶村对口帮扶和结对帮扶工作，着力增加帮扶农民收入。', '等专题活动，发挥粮食安全宣传教育基地、中小学爱粮节粮教育社会实践基地作用，运用报纸、网络等各类媒体媒介，认真组织开展爱粮节粮宣传教育活动。在全市大米加工企业中，开展']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>291</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>传达学习自治区党委常委会扩大会议精神</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2020-02-08</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202002/t20200208_1946000.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 张治燕）2月6日晚，市委常委会召开扩大会议，传达学习中共中央政治局常务委员会会议和自治区党委常委会扩大会议精神，研究进一步加强全市疫情防控工作。市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权主持会议。', '会议指出，在疫情防控的关键阶段，习近平总书记再次主持召开中央政治局常务委员会会议，对进一步做好疫情防控工作作出全面部署，充分体现了以习近平同志为核心的党中央对人民生命安全和身体健康的高度负责的责任担当和为民情怀。习近平总书记的重要讲话，着眼战略全局，突出问题导向，为我们打赢疫情防控阻击战指明了方向、提供了遵循。自治区党委常委会扩大会议，对认真贯彻落实习近平总书记重要讲话精神，对进一步做好疫情防控工作作出了部署安排。', '会议要求，各级各部门要认真学习、深刻领会，切实把思想和行动统一到习近平总书记的重要讲话精神上来，统一到党中央的重大决策部署上来，统一到自治区党委的部署要求上来，增强“四个意识”、坚定“四个自信”、做到“两个维护”，提高政治站位，扛起政治责任，把疫情防控作为当前全局工作的紧迫任务来抓，找差距、补短板，切实落实各项防控措施，同时间赛跑、与病魔较量，坚决遏制疫情蔓延势头，坚决打赢疫情防控阻击战。要立足依法防控、科学防控、全面防控，减少人员流动、减少人口集聚、减少感染可能。要抓好源头控制、切断传播途径、遏制疫情扩散，实行全覆盖“地毯式”的大排查、大起底，落地查人、跟踪查人，对排查出的重点人员实行居家隔离、集中隔离进行医学观察。要注重疏导群众情绪，落实“四包一”工作机制，提供好“四项服务”。', '会议强调，打赢疫情防控硬仗，关键在末梢，成败看基层，基层的重点在农村、在社区、在网格。要把中央、自治区的决策部署落实落地，必须夯实防控基层基础，压实基层责任，织牢防控网络。要注重在疫情防控一线考察识别干部的政治素质、担当意识、能力水平和工作作风，对不敢担当、作风漂浮、推诿扯皮的，要严肃问责，对失职渎职的，要依纪依法坚决惩处。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>291</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>吴忠国家农业科展传承党技园区开的百年光辉史基因铸牢中华民族共同体意识主题党日系列活动</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-09-21</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/sy/wzxx/bmxx/202109/t20210928_3060949.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['吴忠国家农业科展“传承党技园区 开的百年光辉史基因 铸牢中华民族共同体意识”主题党日系列活动_吴忠市人民政府', '吴忠国家农业科展“传承党技园区 开的百年光辉史基因 铸牢中华民族共同体意识”主题党日系列活动', '为深入学习贯彻习近平总书记“七一”重要讲话和中央民族工作会议重要会议精神，做好“民族团结进步月”各项活动，深化“铸牢中华民族共同体意识”教育,9月18日，吴忠国家农业科技园区管委会机关全体党员干部走进石嘴山，开展“传承党的百年光辉史基因 铸牢中华民族共同体意识”主题党日系列活动。', '为深入学习贯彻习近平总书记“七一”重要讲话和中央民族工作会议重要会议精神，做好“民族团结进步月”各项活动，深化“铸牢中华民族共同体意识', '9月18日，吴忠国家农业科技园区管委会机关全体党员干部走进石嘴山，开展“传承党的百年光辉史基因 铸牢中华民族共同体意识”主题党日系列活动。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>291</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>山东青岛宁夏吴忠经贸合作暨企业家恳谈会在青岛召开</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/bmxx/202309/t20230904_4249568.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['8月28日，宁夏回族自治区商务厅、农业农村厅，吴忠市人民政府共同主办的“山东青岛·宁夏吴忠经贸合作暨企业家恳谈会”在青岛假日酒店顺利举行。', '本次恳谈会旨在借助全国首批沿海开放城市青岛这个平台，邀请各位嘉宾和企业家朋友了解黄河明珠美丽吴忠，共商发展大计、共擘合作蓝图，推动吴忠优势产业和经济社会高质量发展。', '特来电集团、青岛海信集团、中节能环境公司、青岛西海岸供销集团、上海鲁一细胞生物、广发信德、青岛扬子国际、山东尚佳、青岛青科重工、青岛泰德、青岛东升集团、汉格斯特等300余家企业，青岛宁夏商会、吴忠山东商会、中国能源汽车商会、青岛即墨中小企业协会等10多家商协会以及中国工业报、山东新闻网等新闻媒体参会。自治区商务厅二级巡视员陈崇军及招商引资局局长乔军、农业农村厅一级调研员王仍春，吴忠市委常委、政府副市长周义和，市商务和投资促进局局长李焜及相关县（市、区）、园区分管领导和招商部门负责人参加恳谈会，会议由吴忠市政协副主席马刚主持。', '特来电集团、青岛海信集团、中节能环境公司、青岛西海岸供销集团、上海鲁一细胞生物、广发信德、青岛扬子国际、山东尚佳、青岛青科重工、青岛泰德、青岛东升集团、汉格斯特等', '多家商协会以及中国工业报、山东新闻网等新闻媒体参会。自治区商务厅二级巡视员陈崇军及招商引资局局长乔军、农业农村厅一级调研员王仍春，吴忠市委常委、政府副市长周义和，市商务和投资促进局局长李焜及相关县（市、区）、园区分管领导和招商部门负责人参加恳谈会，会议由吴忠市政协副主席马刚主持。', '商务厅二级巡视员陈崇军重点介绍了自治区“六新六特六优”产业优势及发展前景，诚邀广大山东企业家参加今年9月21日-24日在银川举办的第六届中国一阿拉伯国家博览会；农业农村厅一级调研员王仍春介绍了宁夏农业特色产业相关情况；吴忠市商务和投资促进局李焜局长全面介绍了吴忠经济社会发展、特色产业及重点招商领域等情况，相关县（市、区）和园区作了专题推介。', '日在银川举办的第六届中国一阿拉伯国家博览会；农业农村厅一级调研员王仍春介绍了宁夏农业特色产业相关情况；吴忠市商务和投资促进局李焜局长全面介绍了吴忠经济社会发展、特色产业及重点招商领域等情况，相关县（市、区）和园区作了专题推介。', '自特来电、中节能环境服务公司、上海鲁一细胞生物科技的参会企业代表就产业发展、营商环境、项目合作等情况发言，对吴忠区位优势、产业集聚度、未来发展潜力表示认可，表达了与吴忠畅谈合作、共襄盛事的意愿和携手发展、共创未来的信心。', '吴忠市委常委、政府副市长周义和在最后的讲话中，从“衷心感谢企业家关注吴忠、诚挚邀请企业家选择吴忠、对企业家投资吴忠作出郑重承诺”等三个方面展示了吴忠开放包容、上下一心、奋发有为的精神面貌，向企业发出了走进吴忠、置业吴忠、携手并进的诚挚邀请，真诚期盼广大企业家做吴忠发展的“最佳合伙人”，吴忠市委、市政府愿与广大企业家实现双向奔赴，切实维护每一位投资者的切身利益，尽最大可能使政策在动态中保持最优、成本在比较中降到最低、环境在服务中体现最好，全力支持企业家在吴忠大展宏图。', '等三个方面展示了吴忠开放包容、上下一心、奋发有为的精神面貌，向企业发出了走进吴忠、置业吴忠、携手并进的诚挚邀请，真诚期盼广大企业家做吴忠发展的', '，吴忠市委、市政府愿与广大企业家实现双向奔赴，切实维护每一位投资者的切身利益，尽最大可能使政策在动态中保持最优、成本在比较中降到最低、环境在服务中体现最好，全力支持企业家在吴忠大展宏图。', '本次恳谈会共签约青岛忠红源商贸校企合作及智慧城市建设，商一家（山东）供应链科技高端预制菜产业园，青岛建晟天成宁夏木材产业园，山东青甲化工30万吨电子氨水，山东省港口集团与宁夏瑞科综合性贸易、仓储、终端一体化产业合作等16个项目，总投资61亿元，项目涉及文旅融合、新型材料、酿酒葡萄、现代物流、', '本次恳谈会共签约青岛忠红源商贸校企合作及智慧城市建设，商一家（山东）供应链科技高端预制菜产业园，青岛建晟天成宁夏木材产业园，山东青甲化工', '27日-30日，考察团一行先后赴青岛特来电、海信集团、山东省港口集团、海尔集团等企业考察学习，推动特来电新能源电网及充电桩建设项目签约落地，山东省港口集团分别与宁夏瑞科综合性贸易仓储终端一体化产业、宁夏德昌铁路物流二期项目合作加快实施，洽谈对接海信集团校企合作、海尔集团家电生产项目等事宜。', '日，考察团一行先后赴青岛特来电、海信集团、山东省港口集团、海尔集团等企业考察学习，推动特来电新能源电网及充电桩建设项目签约落地，山东省港口集团分别与宁夏瑞科综合性贸易仓储终端一体化产业、宁夏德昌铁路物流二期项目合作加快实施，洽谈对接海信集团校企合作、海尔集团家电生产项目等事宜。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>291</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>吴忠市妇幼保健院年自主公开招聘事业单位专业技术人员公告</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202401/t20240123_4424657.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['为进一步加强医院人才队伍建设，推进人才强院战略，培养和引进急需的专业技术人才，根据《事业单位人事管理条例》（国务院令第', '652号）、《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《加快推进妇幼保健机构机制创新试点工作实施方案》（宁卫发〔2022〕4号）、《宁夏回族自治区事业单位公开招聘工作人员面试工作实施细则（试行）》（宁人社规字〔2022〕4号）《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁政办规发〔2023〕9号）等有关规定，结合医院发展需要，吴忠市妇幼保健院决定面向社会公开招聘专业技术人员，制定方案如下：', '2024年我院计划自主公开招聘专业技术人员22名，其中事业编5人，备案制17人。具体招聘岗位、资格条件及有关事项详见《吴忠市妇幼保健院2024年自主公开招聘事业编专业技术人员岗位计划一览表》（附件1）、《吴忠市妇幼保健院2024年自主公开招聘备案制专业技术人员岗位计划一览表》（附件2）。', '7.符合《吴忠市妇幼保健院2024年自主公开招聘事业编专业技术人员岗位计划一览表》（附件1）、《吴忠市妇幼保健院2024年自主公开招聘备案制专业技术人员岗位计划一览表》（附件2）中各招聘岗位要求的相关资格条件；', '4.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '1.线下报名。应聘者携带本人有效身份证及岗位所需的材料原件和复印件（身份证正反扫描在一页、户口本户主及本人信息扫描在一页、毕业证、学位证、教育部学历证书电子注册备案表、教育部学籍在线验证报告、医师资格证、执业医师证、医师规范化培训考核合格证、护士资格证、护士执业证、职称证等其他岗位要求的证书），1张近期红底（6个月内）正面1寸免冠照片交由吴忠市妇幼保健院审核，并填写《吴忠市妇幼保健院2024年自主公开招聘事业单位专业技术人员报名表》（附件3）。', '2.线上报名。应聘人员可以根据自身实际在规定报名时间内采取线上报名。应聘人员将本人报名表（贴照片处插入电子照片）、报名所需各类资格证件、材料分类扫描保存，打包发送至报名电子邮箱wzfygkzp@163.com（以“姓名+应聘岗位”命名发送）。', '应聘者严格按照招聘岗位的条件报名，要对报名提交材料的真实性、准确性负责。吴忠市妇幼保健院公开招聘工作领导小组根据实际情况，在报名结束后汇总报名人员信息，在组织笔试前再次复核应聘者资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。', '应聘者携带居民身份证件、学历（学位）证书、资格证、执业证、职称证等证件的原件及复印件，教育部学籍在线验证报告（学信网），于', '在吴忠市人力资源和社会保障局、吴忠市纪委监委派驻第八纪检监察组和吴忠市卫生健康委员会的指导、监督下，由吴忠市妇幼保健院依法依规自主组织笔试和面试。考试公告将提前一周在吴忠市人民政府网（', '1）笔试开考比例（同一岗位报考人数与该岗位招聘人数之比）为3:1。达不到3:1开考比例的，经医院公开招聘工作领导小组研究确定。', '2）笔试科目与类别。笔试科目分为4个类别：临床、护理、中药学、计算机科学与技术。笔试科目为综合能力及专业知识测试。笔试时限120分钟，分值100分。医院公开招聘工作领导小组根据笔试情况划定笔试最低分数控制线。', '3）笔试以闭卷方式进行。应聘人员应试时须携带黑色签字笔、2B铅笔和橡皮擦等考试用品。', '1）面试开考比例按照笔试人数与岗位招聘人数3:1的比例从高分到低分确定面试人员名单，进入面试资格最后一名笔试成绩相同者，一并进入面试。', '2）面试方式采取半结构化方式进行，满分为100分，重点测评应聘人员与岗位相适应的公共综合素质、专业知识、业务能力和工作技能等方面内容。面试成绩达不到60分者取消招聘资格。', '3）面试命题专家由吴忠市以外专家组成；面试评委由 7人组成，其中专业评委不少于三分之二，异地评委不少于三分之二。', '2.根据考试总成绩，由医院公开招聘工作领导小组按岗位招聘计划1:1的比例，从高分到低分确定体检、考察对象。考试总成绩出现并列时，按照笔试成绩从高分到低分确定体检、考察对象；笔试成绩也相同的，由医院公开招聘工作领导小组通过一定方式组织加试。', '1:1的比例确定体检和考察对象。体检工作在吴忠市卫生健康委员会和吴忠市纪委监委派驻第八纪检监察组的监督指导下，由吴忠市妇幼保健院按照公开招聘要求自主组织实施，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。应聘者应在规定时间内完成全部体检项目，体检费用由应聘者承担。', '因放弃体检资格、体检不合格或自愿放弃岗位名额等情况出现岗位空缺的，在均达到最低分数控制线的应聘者中，根据考试总成绩排名依次递补。', '考察工作在吴忠市卫生健康委员会和吴忠市纪委监委派驻第八纪检监察组的监督指导下，由吴忠市妇幼保健院组织实施，具体考察方式和内容按照相关规定执行。', '因放弃考察、自愿放弃岗位名额等情况出现岗位空缺的，在均达到最低分数控制线的应聘者中，根据考试总成绩排名，并经体检合格的依次递补。', '根据考试、体检、考察结果，由吴忠市妇幼保健院确定拟招聘人员公示名单，在吴忠市人民政府网（', '公示期满无异议的拟聘用人员，按规定上报吴忠市卫生健康委员会、吴忠市人力资源和社会保障局办理招聘手续。', '（一）招聘工作在吴忠市人力资源和社会保障局、吴忠市纪委监委派驻第八纪检监察组和吴忠市卫生健康委员会的指导、监督和管理下进行。', '（二）凡涉及招聘工作的重大事项或本方案未尽事宜，由吴忠市妇幼保健院公开招聘工作领导小组研究决定。', '（三）招聘条件、方式、时间等若有变动和调整，以报名网站公开发布的招聘补充公告为准。', '（四）招聘资格审查、笔试、面试、打分和分数管理等环节，在吴忠市妇幼保健院纪律委员的全过程监督下进行。', '（五）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第', '（六）应聘者报名时所留电话号码应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者自负。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>291</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>吴忠市农业农村局关于开展年政府开放日活动的公告</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfxxgkml/zfkfr/hdgg/202406/t20240612_4565431.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['打造阳光型政务，推进服务型政府建设，切实保障人民群众的知情权、参与权、表达权、监督权，', '（在吴忠市农产品质量安全检测中心）。活动主要包括：参观农产品质量安全检验检测的全过程，听取现场介绍，了解全市农产品质量安全现状', ':00，在吴忠市农业农村局开展群众进机关活动。活动主要包括：查看办文流程、办会场所、办事流程', '，在吴忠市农业农村局开展群众进机关活动。活动主要包括：查看办文流程、办会场所、办事流程', '对象为在行政机关所在行政区域生活、工作、学习且年满18周岁具有完全民事行为能力的市民代表，主要包括专家、学者、记者、职工、企业家、社区工作者、政务公开义务监督员等。', '周岁具有完全民事行为能力的市民代表，主要包括专家、学者、记者、职工、企业家、社区工作者、政务公开义务监督员等。', '请有意参与相关活动的市民朋友们在活动举办前3天通过以下方式进行报名，以便我们提前做好接待工作。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>291</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>吴忠市大事记年月</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-10-09</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/202010/t20201009_2250033.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['吴忠市组织收看收听全区推进法治政府建设电视电话会议。会议深入学习贯彻党的十九大、十九届四中全会和习近平总书记视察宁夏重要讲话精神，全面落实党中央、国务院有关精神和自治区党委十二届十次、十一次全会精神，总结工作，分析形势，研究部署下一步工作。吴忠市市长喜清江，市领导张学慧、宋海燕、章中全及相关部门负责人在吴忠分会场收看收听会议实况。会议要求，各地各部门要大力推进依法行政制度体系建设，始终坚持党对法治工作的集中统一领导，严格落实法治政府建设的主体责任和第一责任人责任，进一步加强和改进地方立法工作，确保各项任务全面落实。要把民法典作为各类行政行为的重要标尺，依法保障各类市场主体权利，切实提高社会治理法治化水平，以保证民法典实施为抓手，大力推进法治政府建设。会议还听取了自治区司法厅关于全区法治政府建设专项督查情况通报。自治区社科院院长张廉作《深化法治政府建设》专题讲座。', '吴忠市市长、市政府党组书记喜清江主持召开市人民政府第四次全体（扩大）会议暨廉政工作会议，深入贯彻落实习近平总书记视察宁夏重要讲话精神、国务院第三次廉政工作会议及自治区党委十二届十一次全会、自治区人民政府第四次全体（扩大）会议、自治区人民政府廉政工作会议精神，进一步安排部署全市政府系统党风廉政建设工作，动员各县（市、区）、各部门牢记嘱托、真抓实干，全力推动政府各项工作落地落实，努力完成全年目标任务。会议强调，要主动对标对表，全力加强政治建设，确保习近平总书记重要讲话精神和自治区决策部署落实到位。要进一步加快经济结构调整，坚定不移推动高质量发展；要坚持不懈推进重点领域改革，进一步优化营商环境，抓好金融有效供给，不断扩大开放水平；要坚决打赢脱贫攻坚战，确保如期实现脱贫目标；要全面落实《关于建设黄河流域生态保护和高质量发展先行区的实施意见》，全力完成今年各项目标任务。会议要求，要坚持廉政勤政，深入推进党风廉政建设和反腐败斗争；要加强法治政府建设，严格落实《重大行政决策程序暂行条例》，不断把法治政府建设向纵深推进；要牢固树立过紧日子思想，严管财政资金、严管国有资产、严管重点领域，加强规范约束，消灭滋生腐败的土壤；要统筹抓好疫情防控和经济社会发展，做好防汛抗旱和安全生产工作。会议传达学习了国务院第三次廉政工作会议、自治区党委十二届十一次全会、自治区人民政府第四次全体（扩大）会议和自治区人民政府廉政工作会议精神。同心县，市发改委、工信局、财政局、住建局、审计局负责人作了交流发言。', '吴忠市安委会、消委会2020年第三次全体（扩大）会议暨应急管理指挥部会议召开。会议分析研判了当前安全生产、消防安全和防汛救灾形势，通报了全市2020年1月至7月份安全生产、消防安全及防汛救灾工作，安排部署下半年重点工作。会议要求，各地各部门要抓好安全生产专项整治三年行动，抓好安全发展示范城市创建工作，进一步压实各方面各环节安全生产责任，抓实抓细安全生产专项整治和日常安全生产管理，深化各重点行业领域隐患排查治理，扎实做好安全生产和应急管理各项工作，坚决遏制重特大事故发生。市委常委、常务副市长张学慧出席会议。', '吴忠市市长喜清江主持召开市政府第57次常务会议。会议传达学习全区推进高质量发展重点项目建设现场观摩会精神，听取全市推进“一带一路”和内陆开放型经济试验区建设进展情况汇报，以及全市粮食生产、菜篮子建设、粮食安全保障工作情况汇报，研究部署下一步工作。会议强调，全市上下要把项目建设摆在突出位置，按任务落实、按目标达效；要紧盯规上企业，长效化抓好运行监测调度；要把扶助和推进中小微企业发展放到突出重要位置；要把握服务业发展新趋势，为服务业高质量发展提供有力保障。会议要求，要深入学习领会习近平总书记重要讲话精神，进一步提升对新时代扩大开放的认识，列出推进内陆开放型经济试验区建设的任务清单，聚焦重点任务，全力抓好工作落实；要加强与银川综合保税区、河东机场等对接合作，努力构建内外联动、双向互济的全面开放新格局；要立足国内大循环，进一步扩大开放力度，在提高供给质量上下功夫，不断增强经济内生动力；要将高标准农田建设与土地综合治理、现代农业发展、推进节水农业等有机融合，全力夯实农业生产基础，要筑牢农业安全防线、牢守耕地保护红线，确保粮食安全；要依托优势资源，加快农业结构调整，大力发展种养业、优质粮油产业、特色食品产业等，推动农业绿色高效发展。要坚决扛起维护粮食安全这个重大政治任务，进一步稳定粮食生产、加强粮食储备、强化应急保障，努力把农业基础打得更实、把粮食安全防线筑得更牢。', '△ 吴忠市扫黑除恶专项斗争领导小组召开2020年第三次会议。会议传达学习了中央、自治区近期有关会议精神，通报了今年上半年全市扫黑除恶专项斗争工作进展情况，听取了各县（市、区）工作情况汇报，安排部署下一步工作。市委副书记、市扫黑除恶专项斗争领导小组常务副组长朱云主持会议。市领导李元凤、解峰、章中全等出席会议。会议要求，全市各级各部门要始终保持清醒头脑，坚决同黑恶势力斗争到底，推动专项斗争由面上打击向深度打透转变、由治标为主向标本兼治转变；要坚持专项斗争主攻方向，扎实开展“六清”行动“大会战”；要聚焦专项斗争目标任务，坚决完成扫黑除恶为期三年总目标和今年“长效常治”任务，围绕依法严惩健全长效机制，围绕铲除土壤健全长效机制，围绕人民满意健全长效机制，做好专项斗争全面考核验收；加强组织领导，确保重点行业领域专项整治取得实效。', '△ 吴忠市召开深化习近平新时代中国特色社会主义思想“进教材、进课堂、进师生头脑”工作座谈会，总结吴忠市开展“三进”工作情况，安排部署下一步工作。', '由自治区体育局、自治区体育总会、吴忠市人民政府主办的2020年“全民健身日”暨“宁夏·奔跑”线上线下系列赛活动在吴忠滨河体育运动公园正式开幕。', '吴忠市召开2020年第27次常委会会议暨应对新冠肺炎疫情工作领导小组第十二次会议，学习贯彻中央政治局会议精神和国务院、自治区有关会议精神，以及全区推进高质量发展重点项目建设现场观摩会精神，安排部署下一步工作。市委书记沈左权主持会议并讲话。会议要求，要抓好疫情防控工作，健全防控机制、抓住防控重点、守住社区管理，持续巩固防控成果，抓紧制订应急预案、做好秋冬防范和物资保障工作，确保不出现疫情反弹；要抓好重点经济工作，用足用好中央和自治区出台的一系列纾困解难政策，有效打通政策落实的“最后一公里”；采取有效措施，千方百计帮助企业降低成本、扩大销售；要及时调整优化农业结构；做好疫情防控常态化条件下文明城市创建工作。会议指出，各级各部门要把重大项目建设作为推动高质量发展的“强引擎”和“硬支撑”，统筹“双赢”抓项目、围绕调转增融抓项目、招大引强抓项目、营造环境抓项目，以项目为载体推动经济社会发展。会议还研究了召开市委五届十一次全会事宜，并研究了其他事项。', '吴忠市市长喜清江前往吴忠市第五中学、妙嘉艺术培训学校和利通区胜利镇富荣社区，实地调研督导全国文明城市创建工作。他强调，要树牢创城为民理念，从群众最关心的问题抓起、从群众最不满意的地方改起，广泛发动群众参与创城工作，不断提高群众获得感、幸福感和满意度。', '自治区生态环境保护工作视频调度会召开后，吴忠市召开全市生态环境保护工作视频调度会，贯彻落实自治区会议精神，进一步安排部署全市生态环境保护工作。会议指出，各县（市、区）、各部门要从做到“两个维护”的政治高度，深入贯彻习近平生态文明思想，努力建设黄河流域生态保护和高质量发展先行区。会议指出，要坚决打好蓝天、碧水、净土“三大保卫战”；要进一步提升工业污染源整治水平，聚焦工业污染深度治理、柴油货车超标排放专项治理、重污染天气预判防治等，精准施策，加大联防联控联治力度，全力打赢蓝天保卫战；要进一步提升城镇、工业园区和农村污水治理水平，确保入黄水质达标，全力打好碧水保卫战；要进一步完善土壤污染防治体系，提高固废、危废处置和综合利用水平，综合防控农业面源污染，确保土壤环境安全，全力打好净土保卫战；要坚决完成中央环保督察反馈问题、生态环境部通报反馈意见、全市生态环境存在突出问题整改工作。要补齐中央、自治区督察反馈问题整改短板，如期高质量完成各项整改任务。会议要求，全面从严治党，严格追责。各县（市、区）、各部门要牢固树立绿色发展理念，确保各项任务全面完成。副市长王天军主持会议并讲话。', '自治区党委常委、宣传部部长李金科到青铜峡市和利通区，就深入学习贯彻习近平总书记视察宁夏重要讲话精神，贯彻落实自治区党委十二届十一次全会精神，决战“三大攻坚战”进行实地调研。', '吴忠市委召开理论学习中心组学习（扩大）会，自治区宣讲团成员、自治区党委副秘书长、政研室主任王成峰为我市领导干部作学习宣传贯彻习近平总书记视察宁夏重要讲话精神专题辅导。市委书记沈左权主持会议。喜清江、朱云等市领导参加。', '中国共产党吴忠市第五届委员会第十一次全体会议在吴忠市红宝宾馆举行。全会由吴忠市委常委会主持。全会以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记视察宁夏重要讲话精神，认真落实自治区党委十二届十一次全会决策部署，审议通过了《关于深入学习贯彻&lt;中共宁夏回族自治区委员会关于深入学习贯彻习近平总书记视察宁夏重要讲话精神继续建设经济繁荣民族团结环境优美人民富裕的美丽新宁夏的决定&gt;的实施意见》《关于创建全国市域社会治理现代化示范市完善市域治理体系提高治理能力的实施意见》。市委书记沈左权代表常委会作了讲话。市委副书记、市长喜清江就《关于创建全国市域社会治理现代化示范市完善市域治理体系提高治理能力的实施意见》（讨论稿）作了说明。全会根据《中国共产党章程》和《中国共产党地方委员会工作条例》规定，决定批准马玉龙、马海军同志辞去中共吴忠市第五届委员会委员，张倩同志辞去候补委员职务，递补市委候补委员马海涛、荀伏祥、侯永林同志为中共吴忠市第五届委员会委员。审议通过了中共吴忠市纪律检查委员会关于张吉贺严重违纪违法问题的审查报告，确认市委常委会之前作出的给予张吉贺开除党籍的处分。全会号召，全市各级党组织和广大党员干部要更加紧密地团结在以习近平同志为核心的党中央周围，坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记视察宁夏重要讲话精神，不忘初心、牢记使命，进一步解放思想，进一步真抓实干，进一步奋力追赶，干在实处、走在前列，努力建设黄河流域生态保护和高质量发展先行区、继续建设经济繁荣民族团结环境优美人民富裕的美丽新宁夏，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！', '吴忠市市长喜清江主持召开市政府第58次常务会议，听取全市就业创业工作情况汇报，研究部署下一步工作。会议指出，就业是民生之本，是“六稳”工作、“六保”任务之首。各县（市、区）、有关部门及工（农）业园区要切实把思想和行动统一到党中央、国务院和自治区党委、自治区政府的决策部署上来，全面落实就业优先各项政策，做好下半年稳就业保就业工作。会议要求，要认真做好就业形势分析研判，市相关部门和各工（农）业园区要保持战略定力、科学研判下半年就业走势；要切实抓好政策落实落地；抓好金融有效供给，加强政银企互动；全力做好拖欠民营企业的账款清理收尾工作，确保清欠工作干净、彻底。要全面激发市场主体活力和社会创造力，拓展就业增量。相关部门要设身处地为企业着想，不断深化“放管服”改革，消除障碍，为多种形式创业和灵活就业松绑。要扎实做好重点群体就业，全面拓宽高校毕业生就业渠道，积极支持农民工就地就近就业，提前谋划退役军人安置和就业工作，强化对就业困难人员的援助，全力以赴落实“六稳”工作、“六保”任务，稳住就业基本盘，切实解决好群众的操心事、烦心事、揪心事。会议还研究了其他事项。', '浙江宁波经促会、香港杭州商会考察团一行到吴忠仪表有限责任公司、宁夏伊利乳业有限责任公司进行考察。全国政协委员、宁波经促会会长杨戌标，浙江恒逸集团董事长、香港杭州商会会长邱建林，宁波市政协副主席叶双猛参加考察。自治区副主席赖蛟，市委书记沈左权陪同考察。', '吴忠市政协召开党组理论学习中心组学习会暨“三新”交流研讨会。市政协党组书记、主席孙瑛主持会议。会议对习近平总书记视察宁夏重要讲话精神进行宣讲。', '吴忠市委书记沈左权在利通区调研农村基层党建及软弱涣散党组织整顿时强调，要深入学习宣传贯彻习近平总书记视察宁夏重要讲话精神，提高思想认识，强化行动自觉，在持续整顿上出实招，在解决问题上下功夫，全面提升基层党组织的组织力，增强政治功能，充分发挥基层党组织战斗堡垒和广大党员先锋模范作用，带动群众发展致富产业，推动乡村振兴，为决胜全面建成小康社会、决战脱贫攻坚提供坚强组织保证。', '吴忠市召开2020年第28次常委会会议，传达学习习近平总书记对制止餐饮浪费行为、向全国广大医务工作者、全国青联学联会议及广大青少年、高校毕业生作出的重要指示和贺信，以及视察安徽、吉林等地重要讲话精神，全区巡视巡察工作会议暨十二届自治区党委第九轮巡视动员部署会和九县（区）党委巡察工作专项检查通报精神。研究部署信访维稳工作。市委书记沈左权主持会议并讲话。会议指出，习近平总书记重要讲话、重要指示批示是习近平新时代中国特色社会主义思想的重要组成部分，是党内政治要件。各级党组织和党员领导干部要认真学习、深刻领会，确保习近平总书记重要讲话精神全面落实、全面见效。会议指出，各级各相关部门要切实扛起保障粮食安全责任，倡导厉行勤俭节约，坚决制止餐饮浪费行为。要落实好关心爱护医务工作者各项措施，为医务工作者开展工作创造良好条件；要加强对青年工作的领导，强化政治引领，组织动员广大青年和青年学生坚定跟党走、奋进新时代，在全市推动高质量发展中展示青春作为；要全力做好高校毕业生就业工作。会议强调，各县（市、区）党委、巡察工作领导小组要深入学习习近平总书记关于巡视巡察工作的重要论述，坚决整改自治区党委专项检查反馈问题，不断推动巡察工作高质量发展；要聚焦“两个维护”根本任务开展政治监督，明确巡察监督重点，统筹好巡察任务；要扎实做好整改“后半篇文章”，推动系统性、领域性、根源性的深层次问题有效解决，发挥好巡察标本兼治作用。会议强调，各县（市、区）、各部门要强化风险意识，严格落实常态化疫情防控措施；加强分析研判，加大工作力度，全力以赴做好信访维稳工作；要持续加大矛盾纠纷排查力度，严格落实包案领导化解责任，注重源头预防化解、依法化解，切实把矛盾解决在萌芽状态，确保全市社会大局和谐稳定。', '△ 吴忠市召开总河长第4次会议。传达学习自治区总河长第4次会议精神，听取吴忠市河湖长制工作进展情况，安排部署下一步工作。市委书记、总河长沈左权主持会议并讲话，强调要深入学习贯彻习近平生态文明思想，特别是学习领会习近平总书记视察宁夏重要讲话精神，把做好河湖长制工作作为推动黄河流域生态保护和高质量发展的具体举措，坚决担起时代重任，让黄河成为造福人民的幸福河。会议要求，要坚持目标导向，持续深入开展“清水行动”和入河排污口规范整治专项行动，加强城镇生活、工业园区污水和农村面源污染监控管理，严厉打击涉河湖违法违规行为。要坚持问题导向，聚焦水利部暗访指出的问题、中央环保督察反馈问题和调研发现的问题，明确责任、拉条挂账，坚决整改到位。会议强调，各级河湖长要切实加强对河湖治理工作的领导，严格落实工作责任，定期开展巡河检查，及时发现存在的问题，督促指导整改落实，真正做到守河有责、守河担责、守河尽责。', '△ 吴忠市委理论学习中心组召开学习会，学习习近平总书记视察宁夏重要讲话精神，围绕“坚持不懈推动高质量发展”“推动改革开放取得新突破”两个专题开展学习研讨。市委书记沈左权主持会议并讲话。市政协主席孙瑛，市委副书记朱云等出席会议。会上，市领导张学慧、滑志敏、童伟东作了交流发言。', '27日 吴忠市召开全市服务业发展情况专题分析会。市委书记沈左权参加会议并讲话。会议强调，各级政府制订的各项促进服务业发展的措施要迅速落实到位；市发改委要制订切实可行的政策措施，积极争取更多项目、资金支持；交通运输、金融等部门要重点对运输、仓储、邮政和金融等自治区反馈数据进行分析；要高度重视统计工作，坚持依法统计、规范统计行为，不断提升统计质量，确保服务业收入应入尽入、应统尽统；要进一步优化发展环境，凝聚起推动服务业高质量发展的强大合力。会上，市发改委、交通运输局、商务和投资促进局、金融工作局及各县（市、区）汇报了服务业发展情况。', '△ 吴忠市召开创建全国文明城市工作推进会。市委副书记、政法委书记朱云出席会议并讲话。会议要求，各级各部门要坚持“高位推动”，全力做好文明城市创建工作，向市委、市政府和广大市民群众交出一份满意的答卷。会上，播放了创城工作暗访片，通报了创建全国文明城市第三方测评情况，安排部署了具体工作。利通区、红寺堡区及市教育局、交通运输局和公安局交管局等单位负责人作了表态发言。市领导张学慧、高建博参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>291</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>吴忠市住房和城乡建设局年政府开放日实施方案</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfxxgkml/zfkfr/hdfa/202407/t20240712_4594318.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['现场参观考察我市海绵城市建设项目及典型海绵设施、听取海绵城市建设情况、了解海绵城市建设理念', '吴忠市内生活、工作、学习且年满18周岁具有完全民事行为能力的市民代表，主要包括专家、学者、记者、职工、企业家、社区工作者、政务公开义务监督员等。', '周岁具有完全民事行为能力的市民代表，主要包括专家、学者、记者、职工、企业家、社区工作者、政务公开义务监督员等。', '9：10 实地参观考察南片区排水管网收集项目—福宁路沿线积水路段改造项目（时间20分钟）', '吴忠市乃光湖公园位于友谊路以北、富平街以西，乃光湖蓄水调节建设项目总占地总面积约333500平方米，绿化面积约80010.25平方米，铺装面积约52181.17平方米，水域面积约200100平方米，项目建设规模约186624平方米。项目建成后，将通过连通清宁河－乃光湖－南环水系－清水沟，打通中心城区排涝通道，形成中心城区排涝体系，汛期可将清宁河涝水通过乃光湖和南环水系排水清水沟，解决中心城区排水不畅的问题。', '清水沟，打通中心城区排涝通道，形成中心城区排涝体系，汛期可将清宁河涝水通过乃光湖和南环水系排水清水沟，解决中心城区排水不畅的问题。', '本项目对福宁路（利宁街－利红街）、利通街（友谊路－金积大道）等4.6km排水管道进行雨污分流改造，对朝阳街、利红街道路两侧进行海绵化改造。项目建成后雨水管网设计重现期达到3年一遇，区域内涝防治标准达到30年一遇，市医院南北门及福宁路积水问题完全消除，区域水安全得以保障。', '排水管道进行雨污分流改造，对朝阳街、利红街道路两侧进行海绵化改造。项目建成后雨水管网设计重现期达到', '吴忠市东片区保障性安置房项目海绵城市建设工程，项目总投资377万元，主要建设内容为：下沉式绿地面积5060㎡，透水铺装面积5422㎡，生态停车场3764㎡，雨水管网2193m。截至目前已完成透水铺装、生态停车场及雨水管网全部建设工作，下沉式绿地建设工作完成至95％，累计完成海绵设施总投资约370万元。计划5月30日完成全部建设内容。本项目海绵设施以，渗、滞、蓄、净、用、排相结合，实现生态排水、综合排水；同时在地下综合管网系统中通过雨污分流，实现雨水资源化，改善水环境与生态环境。项目共设计16个汇水分区，其中下沉式绿地、透水铺装、生态停车场等海绵设施建设完成后实现85％年径流总量控制率及55.6％的年SS总量削减率。', '。截至目前已完成透水铺装、生态停车场及雨水管网全部建设工作，下沉式绿地建设工作完成至', '日完成全部建设内容。本项目海绵设施以，渗、滞、蓄、净、用、排相结合，实现生态排水、综合排水；同时在地下综合管网系统中通过雨污分流，实现雨水资源化，改善水环境与生态环境。项目共设计', '项目位于吴忠市利通区古城湾人工湿地西北角。建设内容包括：变新建再生水生态补水泵池1座，设计供水能力40000m³／d，配电室1座、8140m³再生水池1座，安装潜污泵6台。敷设DN800再生水管网11955m。每年可最大向清宁河生态水系补水1500万立方米，同时缓解乃光湖等生态补水问题，保障清宁河及沿线水系生态基流，避免其因降雨季节性变化再度干涸，重现其水清岸绿、鱼翔浅底、游人如织的和谐景象。新增人工湿地—第一再生水厂补水管线将古城湾湿地尾水', '万立方米，同时缓解乃光湖等生态补水问题，保障清宁河及沿线水系生态基流，避免其因降雨季节性变化再度干涸，重现其水清岸绿、鱼翔浅底、游人如织的和谐景象。新增人工湿地', '项目位于吴忠市利通城区东片区福宁路北侧、清水街东侧、东旺街西侧。本小区采用雨污分流排水体制，建设下沉式绿地1902㎡，透水铺装 5870.6㎡等海绵设施。本小区采用雨污分流排水体制，建设下沉式绿地1902㎡，透水铺装 5870.6㎡等海绵设施。年径流总量控制率达91.0％', '项目位于吴忠市利通城区东片区福宁路北侧、清水街东侧、东旺街西侧。本小区采用雨污分流排水体制，建设下沉式绿地', '7月30日上午8：20在市住建局（利通区利宁北街5号）门口统一乘车前往活动现场，本次活动为纯公益性质，不收取任何费用。', '参加活动人员在接到吴忠市住房和城乡建设局确认电话后，按要求准时参加，未按时参加当日活动的视为主动放弃。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>291</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>年下半年吴忠市直属学校自主公开招聘中小学幼儿园教师公告</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-09-08</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202109/t20210908_3010839.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师公告_吴忠市人民政府', '为加强吴忠市直属学校教师队伍建设，缓解教师紧缺问题，满足教育教学工作需要，根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》《事业单位公开招聘人员暂行规定》《事业单位公开招聘违纪违规行为处理规定》《关于进一步做好全区事业单位自主公开招聘工作的通知》等有关', '名。具体范围、条件等详见《2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师岗位计划一览表》（附件）。', '4.符合《2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师岗位计划一览表》（附件）中招聘岗位要求的资格条件；', '年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师岗位计划一览表》（附件）中招聘岗位要求的资格条件；', '公告在宁夏人事考试中心、宁夏公共招聘网、宁夏高层次人才工作网、吴忠市人民政府等网站发布。', '（3）填写报名信息。应聘者请务必认真阅读并接受《网上报名协议》和《诚信承诺书》，按照要求填写本人报名信息，每位应聘者只能报考一个岗位，报名与考试时使用的身份证件必须一致。', '）填写报名信息。应聘者请务必认真阅读并接受《网上报名协议》和《诚信承诺书》，按照要求填写本人报名信息，每位应聘者只能报考一个岗位，报名与考试时使用的身份证件必须一致。', '应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料或报名材料、信息不实影响报名审核结果的取消本次应聘资格。', '如应聘者在报名最后一日提交报名信息，因不符合该岗位报考的资格条件，资格初审单位做审核', '笔试开考比例（岗位报考人数与招聘人数之比）为3:1。生源较少的岗位可适当降低开考比例，降低笔试开考比例、减少招聘名额或者取消招聘岗位的，经2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师工作领导小组研究后，在吴忠市人民政府网站等进行公告。', '。生源较少的岗位可适当降低开考比例，降低笔试开考比例、减少招聘名额或者取消招聘岗位的，经', '年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师工作领导小组研究后，在吴忠市人民政府网站等进行公告。', '2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师工作领导小组将根据笔试情况划定笔试最低分数控制线，笔试成绩低于笔试最低分数控制线者不得参加面试。根据笔试成绩，按招聘岗位人数与进入面试人数1:3比例，从高分到低分确定面试人选。不足1:3比例的，经招聘领导小组研究可适当降低比例。', '年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师工作领导小组将根据笔试情况划定笔试最低分数控制线，笔试成绩低于笔试最低分数控制线者不得参加面试。根据笔试成绩，按招聘岗位人数与进入面试人数', '1.对应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '对应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '2.面试前复审。组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，报领导小组批准后，可在本招考岗位按笔试成绩从高分到低分依次递补。资格复审合格的面试人员名单在吴忠市人民政府网站', '面试前复审。组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，报领导小组批准后，可在本招考岗位按笔试成绩从高分到低分依次递补。资格复审合格的面试人员名单在吴忠市人民政府网站', '2.面试由招聘领导小组办公室负责组织实施，主要通过说课试讲等形式，测试应聘者的专业知识及教学能力。面试成绩在吴忠市人民政府网站等公布。', '面试由招聘领导小组办公室负责组织实施，主要通过说课试讲等形式，测试应聘者的专业知识及教学能力。面试成绩在吴忠市人民政府网站等公布。', '3.面试成绩满分为100分，合格分为60分，面试不合格者，不能列入考察、体检对象。', '面试结束后在面试成绩合格人员中，以笔试和面试成绩所占比例折合成总成绩，从高分到低分，按1:1的比例确定考察体检对象。若总成绩相等，以面试成绩高的排位在前。', '面试结束后在面试成绩合格人员中，以笔试和面试成绩所占比例折合成总成绩，从高分到低分，按', '体检和考察工作由招聘领导小组办公室负责组织实施。体检标准参照《公务员录用体检通用标准（试行）》执行。考察参照《关于做好公务员录用考察工作的通知》等执行。考察、体检的时间和地点由招聘领导小组办公室另行通知。体检费用由应聘者承担。', '根据考试、考察和体检结果确定拟招聘人员，拟招聘人员名单在吴忠市人民政府网站等公示5个工作日。公示期内无异议的，在公示结束后，按规定办理相关手续。招聘录用后，在招聘单位服务年限必须满5年。', '个工作日。公示期内无异议的，在公示结束后，按规定办理相关手续。招聘录用后，在招聘单位服务年限必须满', '1.在资格复审阶段，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位且笔试成绩达到', '在资格复审阶段，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位且笔试成绩达到', '2.在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '3.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）根据疫情防控工作有关要求，此次自主公开招聘工作各环节将全面落实依法防控、科学防治、精准施策要求，保证各考场开窗通风、清洁消毒，保持空气流通。所有考官、工作人员及应聘者进入考试区域需出示防疫健康码，接受体温监测，正确佩戴口罩，并保持1米安全距离，避免因人员聚集带来交叉感染的风险。', '（一）根据疫情防控工作有关要求，此次自主公开招聘工作各环节将全面落实依法防控、科学防治、精准施策要求，保证各考场开窗通风、清洁消毒，保持空气流通。所有考官、工作人员及应聘者进入考试区域需出示防疫健康码，接受体温监测，正确佩戴口罩，并保持', '（三）参加考试的应聘者应自备一次性医用外科口罩，做好个人防护，应聘者应当服从配合疫情防控要求。', '（四）在招聘组织实施过程中，将按照新冠肺炎疫情防控有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时在吴忠市人民政府网站发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。因疫情原因，考试时间有变动的，另行通知。', '（二）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相', '（二）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》', '（三）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（三）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》', '（四）应聘者自报名至拟聘用人员公示（资格审查、笔试、面试、体检、考察）期间，应确保报名时所填报的通讯工具畅通，以便联络；因所留通讯方式不畅所致后果由应聘者自负。', '（六）在体检和考察环节，出现体检不合格、考察不合格、自愿弃权、弄虚作假等情形者被取消应聘资格。', '（七）应聘者弄虚作假，或以其他不正当手段获取应聘资格的，一经发现，取消应聘资格；如果已经聘用的，解除聘用关系。', '附件：《2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师岗位计划一览表》', '2021年下半年吴忠市直属学校自主公开招聘中小学（幼儿园）教师岗位计划一览表.xls']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>291</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>吴忠市三个真情力促上半年招商引资项目对接引进成效明显</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202208/t20220808_3662511.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['今年以来，吴忠市各级招商主体紧抓建设黄河流域生态保护和高质量发展先行区重大机遇，紧盯建设现代化美丽新吴忠奋斗目标，扎实开展“扩大有效投资攻坚年”活动，突出真心真情、高质高效招商引资，力促上半年招商引资项目对接引进成效明显。', '市委、市政府主要领导以身作则、挂帅招商，先后带队招商7批次，洽谈对接伊利乳业四期项目、富力地产能源合作等事宜，会见厦门国贸控股集团、福清市新大泽螺旋藻有限公司等企业负责人，洽谈推进天然石膏产业园、微藻养殖碳汇基地等重大项目，参与线上招商推介会暨重点项目“云签约”、国资国企吴忠行活动项目投资合作洽谈签约会、金昱元化工集团产业链融合发展项目签约仪式等重大招商活动。上半年，全市五个县（市、区）联动外出招商108批次，对接洽谈意向项目236个。', '积极转变传统招商模式，改“面对面”交流为“线连线”招商，采用视频会议的方式举行吴忠市线上招商推介会暨重点项目“云签约”仪式，签订北京质子动力氢能-储能产业园等项目12个，签约资金204.6亿元。随自治区党政代表团赴广东、福建等地考察学习，积极对接相关企业，落实考察签约项目，共签约项目12个，概算投资127.61亿元。上半年，全市各级招商主体采取电话谈、云会议、微视频等方式举办线上项目洽谈签约会18场次、对接企业311个。', '强化“店小二”服务意识，积极推行一个项目“一名领导挂帅、一个部门负责、一个专班服务、一个项目管家”的“四个一”工作机制，全市累计兑现招商引资工作奖励资金1979.8万元；各级招商主体累计兑现企业奖励资金3185.6万元。从全市选派38名处级领导干部担任“项目管家”，跟进对接38个经济效益和社会效益好的新建、续建或签约重点招商引资项目。截至目前，38个重点项目正在加速建设15个，已建成投产16个，其中10个项目实现当年立项、建设、投产，建设周期平均缩短57天。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>291</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>吴忠市秦宁中学吴忠市第十中学年自主公开招聘事业编制教师公告</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/sy/gsgg/202303/t20230323_4007362.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['吴忠市秦宁中学 吴忠市第十中学2023年自主公开招聘事业编制教师公告_吴忠市人民政府', '教师队伍建设，根据《事业单位人事管理条例》《宁夏回族自治区事业单位公开招聘工作人员实施办法》《关于进一步做好全区事业单位自主公开招聘工作的通知》等有关规定，结合吴忠市秦宁中学、吴忠市第十中学学校发展和教学工作的需求，现面向', '招聘公告在宁夏人事考试中心、吴忠市人民政府网站、“吴忠市秦宁中学”微信公众号等平台公开发布。', '后改报其他岗位。如应聘者在报名日最后一天提交报名信息，因不符合该岗位报考的资格条件，资格初审单位做审核', '笔试由自主公开招聘工作领导小组负责组织实施，考生在规定时间内领取准考证及报考须知等，必须凭准考证和身份证（两证缺一不可）参加考试。自主公开招聘工作领导小组将根据笔试具体情况划定笔试最低分数控制线，笔试成绩低于最低分数控制线者不得参加面试。笔试成绩在吴忠市人民政府网站、“吴忠市秦宁中学”微信公众号等平台公布。', '笔试由自主公开招聘工作领导小组负责组织实施，考生在规定时间内领取准考证及报考须知等，必须凭准考证和身份证（两证缺一不可）参加考试。自主公开招聘工作领导小组将根据笔试具体情况划定笔试最低分数控制线，笔试成绩低于最低分数控制线者不得参加面试。笔试成绩在吴忠市人民政府网站、', '面试前组织统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。如有列入面试对象者确认不参加面试、或被取消面试资格的，报领导小组批准后，可在本招考岗位按笔试成绩从高分到低分依次', '补。资格复审合格的面试人员名单在吴忠市人民政府网站、“吴忠市秦宁中学”微信公众号等平台公布。', '对应聘者的资格审查贯穿招聘工作全过程，凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '根据笔试成绩，按招聘岗位人数与进入面试人数1:3比例，从高分到低分确定面试人选。不足1:3比例的，经自主招聘领导小组研究可适当降低比例。', '面试时间、地点等相关事宜另行通知。面试由自主公开招聘工作领导小组负责组织实施，面试成绩满分为100分，合格分为60分。面试不合格者，不能列入体检对象。', '面试时间、地点等相关事宜另行通知。面试由自主公开招聘工作领导小组负责组织实施，面试成绩满分为', '高级专业技术职称岗位人员考试总成绩=面试成绩。如同一个招聘岗位出现应聘人员面试成绩相同时，经领导小组研究以加试的形式进一步确定排名顺序，加试成绩不计入面试成绩。', '面试成绩。如同一个招聘岗位出现应聘人员面试成绩相同时，经领导小组研究以加试的形式进一步确定排名顺序，加试成绩不计入面试成绩。', '其他岗位人员考试总成绩=笔试成绩×40%+面试成绩×60%。若总成绩相等，以面试成绩高的排位在前。', '面试结束后在成绩合格人员中，按照总成绩从高分到低分，按1:1的比例确定体检对象。无人报考的岗位，取消该岗位招考计划。', '体检和考察工作由自主公开招聘工作领导小组负责组织实施。体检标准参照《公务员录用体检通用标准（试行）》执行。体检合格的应聘者确定为考察人选。未按要求完成体检的，视为自动放弃体检资格。考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、专业知识、遵纪守法等方面的情况。考察、体检的时间和地点由自主公开招聘工作领导小组另行通知。体检费用由应聘者承担。', '人员名单在吴忠市人民政府网站、“吴忠市秦宁中学”微信公众号等公示5个工作日。公示期内无异议的，在公示结束后，按规定报市人力资源和社会保障局办理相关手续。对反映有影响聘用问题并查有实据的，不予聘用。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。', '个工作日。公示期内无异议的，在公示结束后，按规定报市人力资源和社会保障局办理相关手续。对反映有影响聘用问题并查有实据的，不予聘用。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。', '聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；考核不合格的，取消聘用资格。', '1.在资格复审阶段，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位且笔试成绩达到最低分数控制线以上的应聘者中由高分到低分依次递补。', '在资格复审阶段，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位且笔试成绩达到最低分数控制线以上的应聘者中由高分到低分依次递补。', '2.在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '3.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）考生自报名至拟聘用人员公示（资格审查、笔试、面试、体检、考察）期间，应确保报名时所填报的通讯工具畅通，以便联络；因所留通讯方式不畅所致后果由考生自负。', '）凡涉及本次招聘工作的重大事项或本公告未尽事宜，由本次自主公开招聘工作领导小组研究决定。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>291</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>吴忠市应急管理局年法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/gz/bmwj/202401/t20240125_4428399.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['2023年，市应急管理局坚持以习近平新时代中国特色社会主义思想为指导，紧紧围绕全面推进依法治国的总目标，深入学习贯彻习近平法治思想、自治区第十三次党代会精神及自治区和吴忠市法治建设“一规划两方案”、市委全面依法治市委员会2023年度工作要点，扎实推进严格执法、全面普法等工作要求，结合应急管理工作实际，采取有效措施，积极推进依法行政，强化法治政府建设。', '局党委深入学习习近平法治思想和习近平总书记关于依规治党的重要论述，坚持学规学法与执规执法一体贯通，教育引导党员领导干部牢固树立宪法法律意识，用党章党规党纪约束自己的一言一行，自觉在法治之下想问题、作决策、办事情。二是建立健全清单动态调整机制，对新制定修订的党内法规和国家法律清单、党内法规执行责任清单、党政主要负责人履行推进法治建设第一责任人职责清单，认真抓好学习教育和贯彻执行。三是局领导干部参与研究聘请本单位法律顾问等法治建设相关事项，牵头年度普法计划、安全生产监督检查计划以及行政处罚案件审理工作规则的制定，将工作任务分解到每个科室，层层落实责任。四是把学习习近平法治思想作为重要必修课程，深入系统学习习近平总书记《论全面坚持依法治国》、《习近平关于全面依法治国论述摘编》、《习近平关于依规治党论述摘编》和《习近平法治思想学习纲要》，通过理论学习中心组、专题学习会议等方式提高干部职工运用法治思维和法治方式开展工作的能力。深入推进《民法典》《安全生产法》《安全生产违法行为行政处罚办法》等法律法规的学习宣传和贯彻实施，举办全市应急管理综合监管执法人员业务能力提升法律法规培训班，全市应急管理系统92名行政监管执法人员参加培训。', '以服务企业为目标，从提高审批效率方面入手，深化“放管服”改革，进一步优化营商环境，贴心服务企业。一方面主动介入服务，深入、细致摸清到期许可企业底数，建立台账，实施暖心服务，对即将到期换证的许可企业实行提前3个月进行告知工作，贴心做好“便民惠企”工作。另一方面对行政许可事项及公共服务事项进行梳理，重新修编行政审批事项指南，优化网上办理审批程序，为企业提高优质、高效、便利的审批服务，高效办理行政审批事项。今年以来，我局所有办结的行政许可事项均规定时限网上公开，网上公告率达到100%。', '局主要负责人对重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办，把应知应会党内法规和国家法律纳入党委理论学习中心组、重大决策前学规学法等学习内容，局党委每年至少召开1次会议，专题研究党内法规执行工作。一是严格执行“三重一大”制度。不断完善和制定局党委议事规则,严格按程序规范决策，进一步提高我局涉及全局性的重大决策事项、重要人士任免事项、重大项目安排事项、大金额资金安排使用事项等事项的决策水平，体现集体决策的巨大优势,进一步规范重大决策行为，完善决策机制，强化决策责任，减少决策失误,推进决策科学化、民主化、法治化。二是认真听取公众意见。在制定局规范性文件过程中，利用吴忠市人民政府网站，发布通知，向社会公开征求意见。三是加大投入。将法律顾问费用作为专项经费纳入年度部门预算，采取政府购买服务的方式，认真筛选考察法律顾问合作单位，签订《法律顾问服务合同》。在行政处罚集体讨论和政府采购项目合同签订等关键环节咨询法律顾问，由法律顾问出具法律意见书。', '严格根据相关法律法规做好行政复议、行政诉讼工作，2023年以来我局无行政诉讼案件。二是妥善化解涉诉信访。坚持和发展新时代“枫桥经验”“谭桥做法”，不断强化政治引领、坚持依法治访、创新工作举措、畅通信访渠道，积极化解各类信访纠纷。接到涉诉信访案件，第一时间派出工作组深入一线调研，分析问题症结、研究解决办法，争取赢得信访人的信任和理解。2023年我局收到12345热线、来信、来访、来电等信息，全部在规定时间内一一回复办结，有效化解社会矛盾。', '编制印发了《吴忠市应急管理局2023年法治应急建设工作要点》《全市法治应急建设实施方案（2021-2025年）》《吴忠市应急管理局领导干部学法制度》《全市应急管理部门第八个五年（2021-2025年）法治宣传教育实施方案》《吴忠市应急管理局2023年普法责任制“四个清单”分解表》，根据《吴忠市应急管理局2023年度领导干部和工作人员应知应会法律法规知识点》组织学习宣传习近平法治思想，党内法规，《宪法》，《民法典》、新修订《中华人民共和国行政处罚法》等重点内容，开展《安全生产法》宣传培训会2次，共390余人参加了培训，深入开展学习宣传贯彻落实新修改的《宁夏回族自治区安全生产条例》。', '已法制审核项目67项，其中审核非执法类政府采购服务合同7件。审核行政规范性文件1件。共召开13次案审会，已审理案件59件,其中提交局党委会研究审定18件。严抓案卷评查工作，在2023年依法治国、依法治区、依法治市办对我局2022年6月份至2023年6月份行政执法案卷评查中未发现事实不清法律适用错误或程序错误等问题。', '完成了我局牵头的9家责任单位6项重点和27项常规考核指标，在市委政法委迎接自治区来吴两轮验收考核任务，未出现扣分项。', '今年我局在推进法治建设方面取得一定成效，但离目标要求还有一定差距，工作中还存在一些问题和不足。如创新行政执法方式不足以及未能较好地指导县（市、区）和工农业园区（开发区）执法人员开展执法工作。2024年，我局将持续深入学习贯彻习近平法治思想，切实把以人民为中心的发展思想贯穿于法治建设各项工作中。具体做好以下法治建设工作：', '坚持在学习贯彻习近平法治思想上走在前、作表率，建立健全领导干部常态化学法制度，不断提高运用法治思维和法治方式的能力，通过党委中心组会议学法、集中培训学法、庭审旁听学法、网络学法、个人自学等多种形式，系统学习习近平法治思想，深刻领会丰富内涵、精准把握核心要义，着力提升法治素养和依法行政能力。二是不断加强党对法治建设领导。持续贯彻落实自治区关于《领导干部应知应会党内法规和国家法律清单》《党内法规执行责任清单》《党政主要负责人履行推进法治建设第一责任人职责清单》等“三个清单”的通知精神和市委办批阅意见，切实推进全市领导干部应知应会党内法规和国家法律、党内法规执行责任、党政主要负责人履行推进法治建设第一责任人职责等工作落地落细，协调推进应急管理系统法治建设，切实把党的领导真正贯彻落实到应急管理、安全生产、防灾减灾和应急救援工作全过程。', '依法制定行政规范性文件，严控发文数量，严管制发程序。按要求开展规范性文件后评估、第三方评价、专家点评等活动，提高行政规范性文件实施质效。根据上位法的动态变化或者市政府相关要求，及时对应急管理领域不适应全面深化改革工作和经济社会发展要求的地方政府规章或者行政规范性文件进行清理，并将清理结果及时向社会公布。二是开展法治政府示范创建。按照市委依法治市办要求，坚持问题导向，明确任务清单，落实责任分工，补齐工作短板、健全长效机制，高标准开展法治政府建设示范创建活动，推动应急系统法治政府建设取得新突破。三是积极开展主题宣传活动。围绕全市应急管理和安全生产工作，充分利用“宪法日”、“防灾减灾日”、“安全生产月”宣传等活动，大力宣传安全生产、减灾救灾和应急管理等方面的法律法规、政策举措，树牢安全发展理念，推动安全责任落实，提升全民安全素养，凝聚安全发展共识，营造起全社会关注、全民参与的良好氛围。', '全面贯彻落实《中华人民共和国行政处罚法》《中华人民共和国安全生产法》和《宁夏回族自治区安全生产条例》等法律法规。严格落实行政执法公示、执法全过程记录、重大执法决定法制审核“三项制度”，探索开展柔性执法新模式，进一步规范日常执法检查、专项执法等执法程序，规范行使行政处罚裁量权。二是根据上级文件精神，组织开展安全生产技术检查员、社会监督员聘任工作，充实行政执法监管力量，强化社会监督。三是加强重点领域执法力度。统筹编制安全生产年度监督检查计划，明确各层级执法管辖范围和重点，联合实施执法检查，提高监管执法效能，以深化执法标准化为抓手，加大资金投入，不断夯实执法基础，深入开展文明执法教育活动，坚持教育与惩戒相结合，广泛运用说服教育、劝导示范、警示告诫、指导约谈等执法方式，加强重点时段重点企业安全风险管控，防风险，除隐患，保安全。四是加强对基层安全生产行政执法指导工作，采取集中培训教育，下基层实地指导等多种方式，进一步提高基层执法人员执法业务水平和执法案件的办案质量。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>291</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>吴忠市政府大事记年月</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-03-19</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/202003/t20200319_1994783.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['2日 全国政协副主席梁振英带领香港经济文化旅游界人士考察团来到吴忠市，就文化旅游、供港蔬菜、葡萄酒产业等方面的交流合作进行考察。市长喜清江、市政协主席孙瑛陪同考察。', '4日 中国共产党吴忠市第五届委员会第九次全体会议在吴忠举行，市委书记沈左权代表市委常委会作了讲话。市委副书记、市长喜清江就《吴忠市实施乡村振兴战略5个专项工作方案（讨论稿）》向全会作了说明。全会认为，党的十九大以来，习近平总书记围绕实施乡村振兴战略作出了一系列重要论述，为我们实施乡村振兴战略提供了根本遵循。全会指出，要聚焦重点集中发力，推动我市农业全面升级、农村全面进步、农民全面发展。', '5日 国务院第六次大督查第十六督查组到吴忠市督查。国务院第十六督查组组长、住房和城乡建设部副部长倪虹带领督查组一行，在市长喜清江陪同下先后到青铜峡市西鸽酒庄、宁夏伊利乳业有限责任公司绿色智能制造项目基地、吴忠仪表有限责任公司、市政务服务中心、宁夏民族职业技术学院幼儿教育系实训中心等处，采取听汇报、实地查看等形式，详细了解我市减税降费、稳定和扩大就业、深化“放管服”改革、优化营商环境、推进创新驱动发展、清理拖欠企业账款、合理扩大有效投资等情况。', '6日 宁夏回族自治区加强团的基层建设工作现场推进会在吴忠市召开。会议要求，各市、县（区）要统一思想，认清形势，深刻认识加强团的基层建设的极端重要性；要明确内涵，把握规律，以科学有效的方法推动团的基层建设任务落实落地；要提振精神，转变作风，为加强团的基层建设工作提供坚强保证。要进一步抓好团中央《新时代团的组织力提升三年行动计划（2019-2022）》的学习贯彻，抓紧研究制订本地区、本单位具体工作方案，努力将今年各项工作任务干成干好。', '11日 吴忠市委书记沈左权主持召开五届市委2019年第26次常委会会议，会议传达学习了中央和自治区“不忘初心、牢记使命”主题教育第一批总结暨第二批部署会议精神，研究部署全市主题教育实施方案相关事宜。会议要求，各级党委（党组）要认真学习贯彻中央和自治区会议精神，紧紧围绕“不忘初心、牢记使命”主题，牢牢把握“守初心、担使命，找差距、抓落实”总要求，严格按照中央和自治区党委安排，认真学习借鉴第一批主题教育的工作做法和经验，不折不扣抓好主题教育。', '19日 吴忠市归国华侨联合会在市委党校举行揭牌仪式。中国侨联副主席、中央和国家机关侨联主席邵旭军和自治区侨联副主席郑大鹏为我市侨联成立揭牌。', '△ 自治区党委常委、宣传部部长李金科前来吴忠市，就融媒体建设、新时代文明实践中心建设及新中国成立70周年庆祝活动筹备等工作进行调研。', '23日 吴忠市委书记沈左权先后来到黄河党家河湾段防沙治理工程现场、黄河生态园、青铜峡市新材料基地污水处理厂入黄排污口、青铜古镇、黄河右岸河渠玉带湖和黄河柳溪湖砌护段工程现场，对黄河生态保护工作进行实地调研。沈左权强调，要严格贯彻落实习近平总书记在黄河流域生态保护工作和高质量发展座谈会上的讲话精神，强化统筹协调，因地制宜做好黄河生态保护工作，集中整治“四乱”问题，推动全市经济社会高质量发展，真正让黄河造福于民、造富于民。', '△ 吴忠市2019年“中国农民丰收节”暨“黄河风情”葡萄酒节系列活动开幕式，在青铜峡葡萄酒体验中心举行。', '25日 吴忠市委书记沈左权针对基层干部“负担重”、群众反映强烈突出问题，深入利通区胜利镇朝阳社区、上桥镇、北湖花园小区等地进行调研。沈左权强调，要深入贯彻落实习近平总书记重要指示精神，深刻理解和把握解决形式主义、官僚主义突出问题为基层减负的重大意义。要将解决好群众反映强烈突出问题作为主题教育检视问题、整改落实的重要内容，既要解决好表面问题，更要解决好深层次问题，不断增强人民群众的获得感、幸福感。', '△ 吴忠市市长喜清江主持召开市人民政府第42次常务会议，审定《吴忠市推进城市安全发展的实施方案》，研究吴忠市人力资源服务产业园项目建设等事宜。', '△ “湖南电视媒体吴忠行”大型采访活动在吴忠市启动。来自湖南省直及市（州）7家电视媒体的编辑、记者共17人参加。', '26日 吴忠市委书记、市委主题教育领导小组组长沈左权等市领导来到同心县红军西征纪念馆，集体观看历史文献，重温入党誓词，从红色历史中感悟党的初心和使命，在追忆党的光辉历史中汲取前进力量，团结带领全市广大党员干部开创吴忠工作新局面。市长喜清江，市政协主席孙瑛参加。', '△ 吴忠市召开了农产品优质优价工作推进调研会，为进一步推动吴忠优质特色农产品走出去，实现品牌和效益双赢出谋划策。', '26日～27日 吴忠市委书记沈左权、市长喜清江及四套班子领导分赴各县（市、区），看望慰问部分先进模范人物，为他们送去党和政府的关怀，并致以节日的问候。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>291</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>吴忠市新闻传媒中心自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202204/t20220415_3454929.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为加强吴忠市新闻传媒中心专业技术人才队伍建设，优化专业技术人员结构，结合实际，面向全国及全区公开招聘专业技术人员11名，现将有关事项公告如下：', '采取公开报名方式，时政记者面向全区即具有宁夏回族自治区常住户籍（公告发布之日前取得）招聘本科及以上学历专业人才，其他岗位面向全国招聘本科及以上学历专业人才。', '（1）“三项目”人员（在宁夏服务的大学生西部计划志愿者、“三支一扶”人员、大学生村官）；', '（4）父母或配偶于公告发布之日前（含当日）取得宁夏户籍的人员（父母含岳父母、公婆，本人与配偶须在公告发布之日前进行婚姻登记）；', '（6）区内引进的高层次人才的配偶（高层次人才与配偶须在公告发布之日前进行婚姻登记）。', '4.符合《2022年吴忠市新闻传媒中心自主公开招聘工作人员岗位计划一览表》（附件）中各招聘岗位设置的相关资格和条件；', '11.应聘者不得报考《事业单位公开招聘工作人员暂行规定》第二十七条所列回避情形的岗位；', '详见《2022年吴忠市新闻传媒中心自主公开招聘事业单位工作人员岗位计划一览表》（附件1）和《吴忠市新闻传媒中心自主公开招聘事业单位工作人员专业参考目录》（附件3）。', '除电视新闻播音员1和电视新闻播音员2岗位招聘采取“试音试镜考试+笔试+面试”的方式招聘外，其他岗位招聘均采取“笔试+面试”的方式招聘。', '应聘者须仔细阅读招聘公告，按要求填写报名信息，每名应聘者只能应聘一个岗位，应聘信息必须与个人身份证件信息一致。', '考生需将本人身份证、本科及以上学历学位证书，学信网在线打印的“学历认证报告”或教育部中国留学服务中心出具的境外学历学位认证书，以及岗位所需的其他证明材料的扫描件，报考播音主持岗位的人员同时还要提供普通话水平测试证的扫描件上传至报名系统内。进入面试人员须在面试之前提交所有报名资料原件进行复审。', '应聘者应按本公告及所应聘的具体岗位资格条件要求报名。应聘者本人的条件应与所应聘的具体岗位条件要求相符，不符合请勿报名。', '应聘者要对填报信息的真实性、准确性负责。对伪造、涂改证件、证明等报名材料，或者以不正当手段获取应聘资格的；提供的涉及应聘资格的申请材料或信息不实，影响报名审核结果的，取消本次应聘资格。', '资格审查合格人员，全部参加由吴忠市新闻传媒中心委托吴忠市人事考试中心组织的统一笔试，重点考察履行岗位工作须具备的理论基础和专业基本素养，笔试成绩满分为100分。笔试试卷按岗位类别分别出卷，考试内容包括岗位基本理论和专业有关知识，其中时政记者笔试内容为新闻业务写作。', '电视新闻播音员1和电视新闻播音员2岗位招聘人员在笔试之前，提前进行试音试镜考试（时间和地点另行通知），试音试镜成绩满分为100分。试音试镜成绩合格线为60分，达到合格线后方可取得进入笔试资格。', '电视新闻播音员1和电视新闻播音员2岗位招聘人员根据试音试镜考试和笔试两项合并成绩总分，按照岗位招聘人数5:1的比例从高分到低分确定进入面试人员名单。其他岗位根据笔试成绩，按照岗位招聘人数3:1的比例从高分到低分确定进入面试人员名单。', '（1）面试由吴忠市新闻传媒中心委托吴忠市人事考试中心组织实施。面试方案由吴忠市新闻传媒中心自主公开招聘工作人员领导小组审核备案后实施。', '（4）面试试题包括岗位实操和综合素质两部分，坚持便于评分和保密原则，与岗位要求保持一致，不设置与岗位无关的偏题和难题。', '（7）各岗位实操内容：全媒体记者为新闻的采写、拍摄、编辑及新媒体产品的采编等；时政记者为新闻的采编等；电视新闻播音员为播音主持等；视频制作包装为现场视频制作包装等；技术运维为计算机及网络应用操作处理等。', '所有岗位招聘人员根据折算后的考试总成绩，按岗位招聘计划1:1的比例，确定体检、考察对象。考试总成绩出现并列时，按照笔试成绩从高分到低分确定体检、考察对象。', '3.受检人对体检结果有疑问的，可按照有关规定提出复检。复检只能进行一次，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况。', '3.考察中发现因个人品德差、有不良政治或诚信记录、弄虚作假等行为且被有关部门依法依规予以处理（在公告发布之日前解除处分或超过处分期的除外），并确有事实依据，经纪检监察部门书面确认的，取消招聘资格。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，予以正式聘用；不合格的，取消聘用资格。', '1.面试前，经复审不符合资格条件取消应聘资格或自愿放弃面试资格，出现的空缺名额从报考同一岗位的应聘者中按笔试成绩由高分到低分依次递补。', '2.进入体检和考察环节，应聘者放弃体检或考察资格的，按照笔试和面试折算后的总成绩由高分到低分依次递补。', '3.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '4.被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消聘用资格，取消后空缺的岗位不再递补。', '(二)应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消录用资格。', '(三)应聘者个人信息仅用于此次招聘，吴忠市新闻传媒中心承诺对应聘者的个人信息予以保密，应聘资料不予退还。', '(四)应聘者报名时所留电话应保持通畅，因电话不通畅导致吴忠市新闻传媒中心无法通知相关事宜的，责任由应聘者自负。', '(五)命题人员集中食宿，在全封闭环境下，做好试题的编制、打印、密封、保管等工作，由吴忠市新闻传媒中心纪委负责全程监督。', '（六）凡涉及招聘工作的重大事项或本方案未尽事宜，由吴忠市新闻传媒中心自主公开招聘工作领导小组研究决定。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>291</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市应对新冠肺炎疫情工作指挥部召开第次会议</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202003/t20200317_1992181.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 金方华）3月16日，市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第9次会议。会议传达学习了习近平总书记在湖北省考察新冠肺炎疫情防控工作的重要讲话、中央应对新冠肺炎疫情工作领导小组会议、国务院常务会议精神和自治区有关会议文件精神，听取各工作组和有关部门工作情况汇报，分析了当前疫情防控工作存在的突出问题，研究部署了下一步工作，议定了有关事项。', '会议指出，要认真贯彻落实中央和自治区决策部署，充分认识加快建立同疫情防控相适应的经济社会运行秩序的紧迫性、重要性，始终坚持疫情防控要求不降低，不断巩固拓展疫情防控形势持续向好、生产生活秩序加快恢复的良好势头，努力实现全年经济社会目标任务。', '会议强调，要时刻绷紧疫情防控这根弦，毫不放松抓紧抓实抓细各项防控工作。要把握防控重点，继续加强防范境外疫情输入，强化落实信息共享、应急处置、医学观察等管控措施。要强化健康码的规范管理和推广使用，确保健康码申领使用率不断提升，实现互通互认。要进一步压实社区、园区、校区、厂区等重点场所防控责任，织密织牢防控防线，坚决防止疫情反弹。', '会议要求，要加快建立同疫情防控相适应的经济社会运行秩序，最大限度把疫情影响降到最低。要严格疫情防控检疫站点设置，按照区内开放、省界管控原则，全面撤销市域和县域检验站点，建立同疫情防控相适应的交通运输秩序，保持道路畅通无阻。要有力保障企业生产经营，建立同疫情防控相适应的企业生产秩序，帮助企业解决用工、物流等问题，精准稳妥推进企业复工复产、扩大产能。要改善项目建设服务保障，建立同疫情防控相适应的工程建设秩序，加强各类要素保障，强化全方位责任，优化审批流程，促进项目加快落地达效。要按照科学统筹、分层错时、错峰返校原则，分步恢复学校教学秩序。要落实好疫情防控期间困难群众兜底保障各项措施，及时帮助其解决生活中的实际困难。要加强安全生产监管，严防各类事故发生，为疫情防控和企业复工复产营造良好环境。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>291</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市应对新冠肺炎疫情工作指挥部召开第次会议</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2020-04-27</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/ztzl/kjyq/202004/t20200427_2049073.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 金方华 何欣）4月26日，市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第13次会议。会议传达学习了习近平总书记在陕西考察时的重要讲话精神、中共中央政治局会议、国务院常务会议、中央应对新冠肺炎疫情工作领导小组会议精神和自治区有关会议文件精神，听取各县（市、区）、有关部门工作情况汇报，分析了当前疫情防控工作存在的突出问题，研究部署了下一步工作，议定了有关事项。', '会议指出，当前疫情防控向好态势进一步巩固，但保持疫情防控成果、防止疫情反弹的任务繁重，必须继续慎终如始抓紧抓实抓细常态化疫情防控工作。要认真贯彻习近平总书记重要讲话精神，按照中央、自治区决策部署，全面落实“外防输入、内防反弹”策略，加固疫情防控薄弱环节，突出重点做好精准防控，在常态化防控中全面推进复工复产和经济社会秩序全面恢复。', '会议强调，要做好长期应对疫情的思想准备和工作准备，紧绷疫情防控这根弦不放松，落实落细常态化防控工作，不断巩固拓展疫情防控持续向好态势。要严格落实外防输入各项措施，认真落实“四个关口”“三个到位”要求，加强重点地区入吴人员管控，确保闭环管理到位。要强化内防反弹工作机制，压紧压实社区、校区、厂区、园区和重点场所防控责任，做好无症状感染者管控，坚决防止疫情反弹。要落实应检尽检措施，对重点人群实行核酸检测应检尽检，坚决落实“四早”措施。要加快建立核酸检测实验室，切实提高检测效率。', '会议要求，要高度重视防灾减灾工作，尽快落实保险赔付，加快恢复灾后生产，努力降低受灾损失和影响。要大力促进消费，认真落实促进释放消费潜力实施意见，积极举办各类促消费活动，大力推进扶贫消费，持续释放消费潜力。要积极稳定扩大就业，加大公益性岗位开放力度，鼓励支持企业稳定用工岗位，全力推动农村劳动力转移就业，确保全市就业形势稳定向好。要着力提高城乡居民收入，增补措施，多措并举，综合施策，不断夯实城乡居民增收的基础。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>291</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>瓣瓣同心习近平心中的京津冀</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2019-02-27</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/tttj/201902/t20190227_1291856.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['【编前语】2月26日，京津冀协同发展战略实施五周年。党的十八大以来，习近平总书记7次到京津冀地区考察调研，主持召开相关会议10次，对京津冀协同发展作出一系列重要论述。让总书记高度重视的京津冀协同发展，应该是什么样？新华社《学习进行时》推出文章，与您一起探寻。', '在中国版图上，有这样一个区域：濒临渤海、背靠太岳、携揽“三北”，地缘相接、人缘相亲，地域一体、文化一脉，历史渊源深厚、交往半径相宜……这就是京津冀。', '“京津冀如同一朵花上的花瓣，瓣瓣不同，却瓣瓣同心。”党的十八大以来，习近平总书记高度重视京津冀协同发展，7次到京津冀地区考察调研，主持召开相关会议10次，对京津冀协同发展作出一系列重要论述。', '实现京津冀协同发展，是面向未来打造新的首都经济圈、推进区域发展体制机制创新的需要，是探索完善城市群布局和形态、为优化开发区域发展提供示范和样板的需要，是探索生态文明建设有效路径、促进人口经济资源环境相协调的需要，是实现京津冀优势互补、促进环渤海经济区发展、带动北方腹地发展的需要，是一个重大国家战略，要坚持优势互补、互利共赢、扎实推进，加快走出一条科学持续的协同发展路子来。', '着力加大对协同发展的推动，自觉打破自家“一亩三分地”的思维定式，抱成团朝着顶层设计的目标一起做，充分发挥环渤海地区经济合作发展协调机制的作用。', '坚持和强化首都全国政治中心、文化中心、国际交往中心、科技创新中心的核心功能，深入实施人文北京、科技北京、绿色北京战略，努力把北京建设成为国际一流的和谐宜居之都。', '疏解北京非首都功能、推进京津冀协同发展，是一个巨大的系统工程。目标要明确，通过疏解北京非首都功能，调整经济结构和空间结构，走出一条内涵集约发展的新路子，探索出一种人口经济密集地区优化开发的模式，促进区域协调发展，形成新增长极。', '河北省、张家口市要抓住历史机遇，紧密结合实施“十三五”规划，紧密结合推进京津冀协同发展，通过筹办北京冬奥会带动各方面建设，努力交出冬奥会筹办和本地发展两份优异答卷。', '雄安新区将是我们留给子孙后代的历史遗产，必须坚持“世界眼光、国际标准、中国特色、高点定位”理念，努力打造贯彻新发展理念的创新发展示范区。', '经济要发展，国家要强大，交通特别是海运首先要强起来。要志在万里，努力打造世界一流的智慧港口、绿色港口，更好服务京津冀协同发展和共建“一带一路”。', '要着力加强顶层设计，抓紧编制首都经济圈一体化发展的相关规划，明确三地功能定位、产业分工、城市布局、设施配套、综合交通体系等重大问题，并从财政政策、投资政策、项目安排等方面形成具体措施。', '推进京津双城联动发展，要加快破解双城联动发展存在的体制机制障碍，按照优势互补、互利共赢、区域一体原则，以区域基础设施一体化和大气污染联防联控作为优先领域，以产业结构优化升级和实现创新驱动发展作为合作重点，把合作发展的功夫主要下在联动上，努力实现优势互补、良性互动、共赢发展。', '要着力加快推进市场一体化进程，下决心破除限制资本、技术、产权、人才、劳动力等生产要素自由流动和优化配置的各种体制机制障碍，推动各种要素按照市场规律在区域内自由流动和优化配置。', '要着力调整优化城市布局和空间结构，促进城市分工协作，提高城市群一体化水平，提高其综合承载能力和内涵发展水平。', '着力构建现代化交通网络系统，把交通一体化作为先行领域，加快构建快速、便捷、高效、安全、大容量、低成本的互联互通综合交通网络。', '第一，紧紧抓住“牛鼻子”不放松，积极稳妥有序疏解北京非首都功能。要更加讲究方式方法，坚持严控增量和疏解存量相结合，内部功能重组和向外疏解转移双向发力，稳妥有序推进实施。要发挥市场机制作用，采取市场化、法治化手段，制定有针对性的引导政策，同雄安新区、北京城市副中心形成合力。要立足北京“四个中心”功能定位，不断优化提升首都核心功能。', '第二，保持历史耐心和战略定力，高质量高标准推动雄安新区规划建设。要把设计成果充分吸收体现到控制性详细规划中，保持规划的严肃性和约束性，用法律法规确保一张蓝图干到底。要打造一批承接北京非首都功能疏解的标志性工程项目，新开工建设一批交通、水利、公共服务等重大基础配套设施，让社会各界和新区百姓看到变化。要建设一支政治过硬、专业过硬、能吃苦、富有开拓创新精神的干部队伍，加强党风廉政建设，营造风清气正的良好环境。', '第三，以北京市级机关搬迁为契机，高质量推动北京城市副中心规划建设。要充分考虑搬迁过程中可能遇到的各种情况，研究出台具有针对性和可操作性的政策举措，解决干部职工的后顾之忧。要加快重大基础设施建设，配置教育、医疗、文化等公共服务功能，提高副中心的承载力和吸引力。要推进北京中心城区“老城重组”，优化北京空间布局和经济结构，提升北京市行政管理效率和为中央政务服务的职能。', '第四，向改革创新要动力，发挥引领高质量发展的重要动力源作用。要集聚和利用高端创新资源，积极开展重大科技项目研发合作，打造我国自主创新的重要源头和原始创新的主要策源地。要立足于推进人流、物流、信息流等要素市场一体化，推动交通一体化。要破除制约协同发展的行政壁垒和体制机制障碍，构建促进协同发展、高质量发展的制度保障。', '第五，坚持绿水青山就是金山银山的理念，强化生态环境联建联防联治。要增加清洁能源供应，调整能源消费结构，持之以恒推进京津冀地区生态建设，加快形成节约资源和保护环境的空间格局、产业结构、生产方式、生活方式。', '第六，坚持以人民为中心，促进基本公共服务共建共享。要着力解决百姓关心、涉及切身利益的热点难点问题，优化教育医疗资源布局。要加大力度推进河北省贫困地区脱贫攻坚工作，发挥好京津对口帮扶机制的作用，确保2020年京津冀地区贫困县全部摘帽。要坚持就业优先，做好当地百姓就业这篇文章。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>291</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>关于公开招聘烈士纪念设施专职讲解员的公告</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202311/t20231106_4340695.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['为了深入贯彻落实习近平总书记关于红色资源保护利用重要指示精神，切实加强烈士纪念设施展陈讲解工作', '热爱讲解员工作，五官端正，气质良好，普通话标准，语言表达能力强，具备较强的服务意识和随机应变能力，有较强的文字功底及学习钻研能力，能熟练操作各种办公软件', '考生所留的联系方式应准确无误并保持电话畅通，如因考生联系方式变化或不畅通造成延误的，造成的后果由考生自负。考生要按照通知要求凭身份证到报名地点领取准考证。', '如有伪造相关证件、材料骗取考试资格的，一经查实立即取消报考资格。凡发现报考者不符合报考条件的，随时取消招聘资', '（2）面试时间和地点：具体考试地点和时间另行通知。考生参加面试必须携带笔试准考证及有效身份证件。', '）面试时间和地点：具体考试地点和时间另行通知。考生参加面试必须携带笔试准考证及有效身份证件。', '考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法等方面的情况，并对应聘者的应聘资格进行复审。考察中发现应聘者存在本公告中所列不得应聘相关情形的，不具备招聘岗位所需资格条件的，以及其他不宜', '规违纪、不履行工作职责或其他不适应工作的情形，按照有关规定予以辞退。合同期满视工作需要和考核结果决定是否续签。', '组织，不指定辅导用书，不收取任何报名考试费用；报考人员应注意接听接收电话和消息通知，因报考人员自身原因未能按时参加招录工作的，视为自动放弃。本次招聘工作由']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>291</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市应对新冠肺炎疫情工作指挥部召开第次会议</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-04-14</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202004/t20200414_2020071.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 马一萍）4月13日，市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第12次会议。会议传达学习了习近平总书记在浙江考察时的重要讲话精神，中共中央政治局常务委员会会议、国务院常务会议、中央应对新冠肺炎疫情工作领导小组会议精神和自治区有关会议文件精神，听取有关部门工作情况汇报，分析了当前疫情防控工作存在的突出问题，研究部署了下一步工作，议定了有关事项。', '会议指出，要深刻领会习近平总书记对疫情形势的科学判断、对当前工作的部署要求，严格按照中央、自治区决策部署，深入研究、准确把握，抓紧健全完善常态化疫情防控机制，一如既往落实防控措施，慎终如始抓好疫情防控，不断巩固成果、扩大战果。', '会议强调，要认真贯彻“外防输入、内防反弹”总策略，坚持常态化思维、常态化举措，切实保持疫情防控形势持续向好。要从严防控境外疫情输入，强化联防联控，保证无缝对接，闭环运行管理，坚决防范境外输入病例导致疫情扩散和蔓延。要高度重视无症状感染者管理，充分认识无症状感染者的疫情传播风险，落实落细“四早”工作要求，做好监测、报告、管理等工作。要加强离汉入宁入吴人员管控，严格落实摸排、检查等健康管理服务措施，及时有效控制隐患。要压实重点区域防控责任，督促社区、校区、厂区和园区认真履行防控责任，抓紧抓实各项防控工作，坚决防止疫情反弹。', '会议要求，要加快谋划储备项目，着眼国家和区域发展全局，统筹经济和社会各个领域，积极谋划优质项目，全力扩大有效投资。要扎实推进脱贫攻坚，聚焦攻坚任务，完善基础设施，巩固脱贫成果，稳定扶贫政策，坚决打赢脱贫攻坚战。要坚定决胜全面小康决心，坚持问题导向，精准补齐短板，确保完成全面小康各项指标。要加强安全生产监管，压实党政领导责任，压实部门监管责任，压实企业主体责任，认真贯彻落实全国安全生产电视电话会议精神，全面排查隐患，依法坚决整改，为统筹推进疫情防控和经济社会发展营造良好安全环境。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>291</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>吴忠市工业和信息化局年法治政府建设工作报告暨年依法治市工作思路</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/ztzl/jtjgczl/gyhxxh/202201/t20220113_3282816.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['吴忠市工业和信息化局2021年法治政府建设工作报告暨2022年依法治市工作思路_吴忠市人民政府', '5次、研讨交流2次。充分利用干部理论学习、主题党日、新媒体平台和干部教育培训网络学院等载体和形式，通过集体学习、自学、观看网络庭审等方式，组织全局干部职工深入学习领会《中华人民共和国宪法》《中华人民共和国安全生产法》等法律法规30余次，不断提高党员干部依法行政能力。认真组织', '“廉政警示教育一刻钟”制度，坚持局党组会前通报违纪违法典型案例，组织干部职工集体观看《正风反腐就在身边》等警示教育片、参观警示教育基地，以案释法开展廉政警示教育，引导全局干部职工牢固树立法纪意识，坚守底线，不碰“红线”。', '“安全生产月”“国际禁毒日”等重要活动和时间节点，组织干部职工深入群众，在开元广场等地开展普法宣传活动。通过悬挂宣传标语、现场讲解、发放宣传材料等形式，向广大群众积极宣传', '余份，教育引导广大群众谨记法律知识。深入开展法律进企业进社区活动。在共建朝阳社区开展普法宣传活动，发放疫情防控法治宣传资料', '盐业市场专项治理过程中，积极向商户、食盐定点批发企业实地宣传《食盐专营办法》。为提高企业节能管理水平，做好节能降耗相关工作，印发工业节能政策汇编手册，累计向我市高耗能企业管理人员发放', '《民法典》《中华人民共和国中小企业促进法》《中华人民共和国节约能源法》《中华人民共和国安全生产法》《中华人民共和国消防法》等法律法规，', '2021年吴忠市第一届国家机关“谁执法谁普法”履职评议活动，充分总结展示了市工信局自开展“七五”普法以来的工作成果，得到社会各界及评议团各位成员的高度认可，在履职评议活动中被评定为“优秀”等次。', '参观我局机关运转情况，查看办文流程、办事流程、办会场所，召开座谈会，介绍单位部门组成、主要职责、重点工作和特色亮点工作，收集各参会代表', '全面落实党中央、国务院全面依法治国、建设法治政府重要决策部署和区、市党委、政府工作安排，充分发挥党组在推进全局法治建设中的领导作用。今年以来局党组会议研究法治政府建设相关工作', '9次，制定印发了《吴忠市工业和信息化局2021年全面依法治市工作要点》、《吴忠市工业和信息化局2021年普法计划》《吴忠市工业和信息化局关于普法责任制“四清单一办法”的报告》《吴忠市工业和信息化局“八五”普法工作计划（2021-2025年）》等。', '根据《中共吴忠市委全面依法治市委员会印发&lt;关于全面集中清理全市地方性法规和行政规范性文件的工作方案&gt;的通知》（吴法发〔2020〕7号', '22件、政策性文件3件。根据《吴忠市人民政府办公室 关于调整市政府有关部门行政职权事项的通知》（吴政办发〔2021〕15号），及时调整行政要素，增加行政职权6项，取消行政职权3项，调整后保留行政职权12项。', '2021年吴忠市减轻企业负担工作实施方案》，积极发挥减负办牵头抓总作用，凝聚助企减负发展的合力。', '158家企业争取22类强工惠企政策资金约1.72亿元。实行涉企信访“开门接访”、定期下访和重大情况及时报告制度，今年以来接待上访人员2人7次，办结信访件1起，答复率100%。', '严格落实涉企投诉事项快速反应和动态清零机制，及时答复国务院清欠问题线索台账系统转办事项，依法平等保护民营企业和企业家权益，今年以来收到国务院减负办问题线索', '严格规范公正文明执法。严格落实《吴忠市工业和信息化局行政执法三项制度规定》，购置执法记录仪6台、数据采集站1台，持续完善行政执法设施，着力提高行政执法透明度，依法保障企业对行政执法的知情权和监督权。认真履行盐业主管部门职责，制定印发《全市盐业市场专项治理实施方案》', '严格规范公正文明执法。严格落实《吴忠市工业和信息化局行政执法三项制度规定》，购置执法记录仪', '次对各县（市、区）盐业主管部门工作情况督导，对全市5家食盐定点批发企业管理情况进行随机检查，突击检查各类商超、集贸市场、调料批发部、乡村小店等67户，抽查6个种类的小包装盐品80多袋，合格率', '家食盐定点批发企业管理情况进行随机检查，突击检查各类商超、集贸市场、调料批发部、乡村小店等', '97.7%以上。针对食盐定点批发企业经营许可证过期、个体商户私自销售无碘盐和碘酸钾含量不符合宁夏标准等', '以上。针对食盐定点批发企业经营许可证过期、个体商户私自销售无碘盐和碘酸钾含量不符合宁夏标准等', '企业开展现场节能监察，依法出具“通知书”、“现场告知书”、“送达回证”、“现场检查笔录”等法律文书。坚持将日常监管与重要时段、重大节日督导检查深度融合，扎实推进“两会”期间民爆行业安全生产专项检查、安全隐患专项整治、电气火灾防控、百日安全专项整治等', '4项针对盐业市场治理的行政处罚权，自治区工信厅尚未就执法程序和执法标准进行系统培训，还未建立相应的执法有关制度，相关行政执法人员对执法流程和依据掌握还不够精准。', '“谁执法谁普法”责任制落实还不够深入，普法形式有待丰富，普法主动性有待加强，还或多或少存在重“执法”轻“普法”现象。', '法治思想和党的十九届五中、六中全会精神，持续提升干部职工法治思维和依法行政能力。依托法律进企业等活动载体，积极采取专题讲座、集中宣传等形式广泛开展宣传，努力在工业系统营造尊法学法守法用法的良好氛围。', '贯穿于行政执法全过程，持续规范行政执法程序、提升行政执法水平，保证行政执法透明度和公正性。扎实推进企业治理工作，督促协调有关执法部门严厉打击涉企违法行为，切实做到有法必依、执法必严、违法必究，以执法的严肃性和精准度推动企业依法经营、依法治理、依法履行社会责任。', '严格落实行政规范性文件合法性审查和公平竞争审查制度，在制定出台涉企规范性文件和政策措施前，', '主动帮助企业争取国家、自治区强工惠企政策资金，落实市级工业奖补政策，不断提振企业发展信心，推动全市工业经济持续平稳健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>291</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>吴忠市赴隆德县培训学习兽医实验室考核续展和计量认证工作</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-08-26</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfxxgkml/nyxx/nyxx/201710/t20171016_522887.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['近日，吴忠市组织市及各县(市、区)动物疾病预防控制中心主任、实验室负责人和技术骨干共计23人，赴全区第一家通过兽医实验室考核续展工作的隆德县，培训学习兽医实验室考核续展和计量认证工作。 培训班上，全体人员学习观摩了隆德县兽医实验室硬件设施和档案资料；隆德县兽医实验室专家介绍了考核续展和计量认证的工作经验；邀请的自治区兽医实验室考核专家对考核细则进行了逐条解读，指出了市、县级兽医实验室在考核工作中需要注意和必须要解决的问题；最后，参训人员结合各自实验室的实际工作，就存在的问题与专家进行了深入的交流讨论，培训工作取得了良好的效果，进一步推动了我市兽医实验室的考核续展和计量认证工作，为全市兽医实验室通过自治区的考核续展奠定了基础。 （朱立丽）', '(市、区)动物疾病预防控制中心主任、实验室负责人和技术骨干共计23人，赴全区第一家通过兽医实验室考核续展工作的隆德县，培训学习兽医实验室考核续展和计量认证工作。', '培训班上，全体人员学习观摩了隆德县兽医实验室硬件设施和档案资料；隆德县兽医实验室专家介绍了考核续展和计量认证的工作经验；邀请的自治区兽医实验室考核专家对考核细则进行了逐条解读，指出了市、县级兽医实验室在考核工作中需要注意和必须要解决的问题；最后，参训人员结合各自实验室的实际工作，就存在的问题与专家进行了深入的交流讨论，培训工作取得了良好的效果，进一步推动了我市兽医实验室的考核续展和计量认证工作，为全市兽医实验室通过自治区的考核续展奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>291</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>吴忠青铜峡工业园区多措并举推动产业绿色低碳转型发展</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202208/t20220808_3662559.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近年来，青铜峡工业园区深入学习贯彻习近平总书记视察宁夏重要讲话精神，认真践行新发展理念，抢抓先行区建设机遇，围绕现代化工、有色金属材料、装备制造三大主导产业，采取有效措施，加大工作力度，推动园区绿色低碳转型发展。', '牢固树立“抓项目就是抓发展”的理念，严格落实领导包抓项目工作机制，坚持倒排工期、挂图作战，压紧压实责任，强化“一站式”代办服务，积极协调解决建设报批、贷款融资、安评环评能评等影响和制约项目建设的“瓶颈”问题30余个，推动项目快建设、快投产、快达效，着力培育新的经济增长点。2020年以来，共实施领航生物、天泽新材料、海盛金属硅、海利科技、永利新材料等延链补链项目45个，已建成投产32个，新增产值近40亿元。', '围绕三大主导产业和上下游关联企业，紧盯京津冀、长三角、粤港澳大湾区等东中部产业转移地区，采取以商招商、产业链招商、顾问招商等方式，提高准入门槛，强化精准对接，先后引进了江西天新药业、金昱元产业链融合发展等一批投资强度大、产出效益好、带动能力强的大项目好项目，着力延链补链强链。2020年以来，共外出招商考察15余次，接洽项目90多个，完成招商引资82亿元；盘活“僵尸企业”15家，处置闲置低效用地3535亩，利用闲置厂房21.7万平方米,有力夯实了产业转型发展基础。', '严格执行国家绿色、循环、低碳相关政策法规，紧盯国家、自治区产业政策和投资导向，加快实施绿色创建，增强园区承载力。2020年以来，先后组织实施青鑫碳素焙烧炉改造、青铝分公司电解槽及绿色高效智能化升级改造、和兴公司碳化硅冶炼炉排放物升级治理改造等14个节能降耗项目，对部分生产线进行节能改造，完成投资近11亿元。积极申报自治区绿电园区试点示范项目，建成青铝23MW分布式光伏项目，正在推进嘉宝片区三峡新能源40MW分布式光伏项目。目前，已成功创建国家绿色园区，和兴碳基、鼎辉科技等4家企业获批绿色工厂，园区绿色发展取得显著成效。', '认真贯彻中央、区市“双控”“双碳”战略，有效遏制“两高”项目盲目发展。紧盯园区冶金、化工等现有高耗能行业，扎实开展重点用能企业节能诊断，全面推行重点行业能效对标，加强能源管理体系建设，督促企业严格落实节能降耗措施。按照“一企一策”要求，紧盯青铝、瑞资联等重点用能企业，引导企业加强节能技改，挖掘节能潜力，提高能效水平，以能耗双控倒逼企业转型升级，企业万元工业总产值能耗同比降低0.5吨标煤。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>291</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>吴忠市教育局关于印发教育局机关差旅费管理办法试行的通知</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020-04-27</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/gz/bmwj/202004/t20200427_2049623.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['为加强和规范局机关差旅费管理，推进厉行节约反对浪费，根据教育局机关实际情况，现将《教育局机关差旅费管理办法（试行）》印发给你们。2019年4月2日吴忠市教育局《关于印发', '为加强和规范局机关差旅费管理，推进厉行节约反对浪费，根据教育局机关实际情况，现将《教育局机关差旅费管理办法（试行）》印发给你们。', '为了加强和规范教育局机关国内差旅费管理，推进厉行节约，结合教育局工作实际，根据《吴忠市本级党政机关差旅费管理办法（暂行）》(吴财发〔2016〕230号)，制定本办法。', '为了加强和规范教育局机关国内差旅费管理，推进厉行节约，结合教育局工作实际，根据《吴忠市本级党政机关差旅费管理办法（暂行）》', '本办法只适用于吴忠市教育局机关(含事业科室)，不涉及下属各学校。各学校可根据《吴忠市本级党政机关差旅费管理办法（暂行）》(吴财发［2016］230号)规定，结合学校实际，制定各自差旅费管理办法，上报财政局、教育局备案。', '差旅费是指机关工作人员临时到常驻地以外地区公务出差所发生的交通费、住宿费和伙食补助费。因培训而发生的费用不得列入差旅费报销范围，严格按照培训费有关规定执行。', '机关内部要从严控制出差人数和天数；严格控制差旅费支出规模；严禁无实质内容、无明确公务目的的差旅活动，严禁以任何名义和方式变相旅游；严禁异地部门间无实质内容的学习交流和考察调研。外出听课、观摩、学术研讨等业务活动属培训费报销范畴。', '建立健全公务差旅审批制度。市区乡镇及自治区内出差必须报科室负责人、办公室及分管局领导批准，自治区外出差必须报分管局领导及局长批准。', '、挂职等工作，不在差旅费报销范围内。机关工作人员单位租用车辆到市区农村学校半天内返回的，不在差旅费报销范围内。', '工作人员差旅费报销时应当提供出差审批单、机票、车（船）票、住宿费发票及公务卡刷卡小票等凭证。自治区内', '机关各科室要严格执行自治区党委《关于统筹规范督查检查考核工作通知》要求，按照年初上报市委的督查检查计划执行，不得随意扩大督查检查内容和范围。凡出差事项必须严格控制次数和参与人数，重复工作和多头工作要经办公室协调合并办理，一个人可办理的事项，不得增加人数参与办理。', '出差人员应当按规定等级乘坐交通工具。一般工作性出差，原则上乘坐火车及长途汽车，如有特殊情况，经局长批准后方能乘坐飞机。未按规定等级乘坐交通工具的，超支部分由个人自理。', '城市间交通费按乘坐交通工具的等级凭据报销。订票费、经批准发生的签转或退票费可以凭据报销。', '出差人员的市内交通费按出差自然（日历）天数计算，实行定额补助，包干使用。在自治区外出差，每人每天80元；在自治区内其他', '出差人员的市内交通费按出差自然（日历）天数计算，实行定额补助，包干使用。在自治区外出差，每人每天', '）和吴忠市所辖市、县（不含利通区、青铜峡）出差，每人每天80元（不再报销交通费）。在自治区内出差，凡单位派车或租赁汽车的，不得报销交通费。到青铜峡出差市内交通费按照每人每天', '0元；扁担沟中心学校每人每天40元；金银滩复兴学校高闸中心学校、汉渠学校，每人每天30元；金银滩中心学校、金积中心学校、马莲渠中心学校(不含汉渠学校)、郭家桥中心学校、板桥中心学校，每人每天20元，其他学校均不予补助。一天内到多所学校出差的，交通费不合并计算，以最远距离学校补助标准执行。如单位派车或租赁车辆的，交通费不予补助。机关人员区内出差要选择乘坐公共交通车辆或租赁车辆，不得驾驶私家车出差。严禁要求基层学校派车接送。', '因公需要租赁公务用车，主要从政府公务用车租赁平台租赁。市区城区四至内开展所有公务活动不得租用公务用车。由局领导带队的评估、验收、观摩等重要工作，根据具体情况按照规定审批后可由办公室租赁公务用车。租赁公务用车开展公务活动时，要结合实际情况合并工作内容、减少随行人员。公务用车租赁要严格按照《吴忠市教育局关于进一步加强财务管理的规定》（吴教发', '银川市、石嘴山市、吴忠市（不含利通区）、固原市、中卫市及所辖市县区：每人每天不得超过330元。', '银川市、石嘴山市、吴忠市（不含利通区）、固原市、中卫市及所辖市县区：每人每天不得超过', '在自治区以外地方出差的住宿费开支标准，参照财政部发布的中央和国家机关差旅住宿费限额最新标准执行。', '当天往返的，原则上不报销住宿费。当天往返但公务活动超过半天的，可安排午休房，最高按全天房价的一半报销。', '出差人员应当在出差目的地住宿费限额标准内，选择安全、经济、便捷的宾馆住宿。未按规定限额标准住宿的，超支部分个人自理。', '在自治区以外地方出差的伙食补助费标准，参照财政部发布的中央和国家机关差旅伙食补助费标准。在途期间的伙食补助费按当天最后到达目的地规定标准报销。', '在自治区内（不含利通区）出差的伙食补助费标准为每人每天60元。如单位派车或租赁车辆在自治区内出差（不含利通区）半天内返回的，不得报销伙食补助费。到青铜峡出差每人每天伙食补助', '教育局各科室工作人员因公到市区各乡镇农村学校出差期间不予补助伙食补贴，不得接受基层学校吃请，如需要在学校餐厅用餐，按照学校教师', '机关工作人员出差期间未按规定限额标准用餐的，超支部分个人自理。如必须在出差期间发生一定接待费用，报请局长批准后，不列入差旅费报销范围，按照公务接待费相关规定报销。', '工作人员外出参加会议、培训，举办单位统一安排食宿的，会议、培训期间的食宿费和市内交通费用由会议、培训举办单位按规定统一开支；往返会议、培训地点的差旅费由所在单位按照规定报销.', '工作人员外出参加会议、培训，举办单位统一安排食宿的，会议、培训期间的食宿费和市内交通费用由会议、培训举办单位按规定统一开支；往返会议、培训地点的差旅费由所在单位按照规定报销', '出差人员不得向接待单位（下属学校）提出正常公务活动以外的要求，不得在出差期间接受违反规定用公款支付的宴请、游玩等，不得接受礼品、礼金和土特产品等。', '严格遵守中央八项规定精神。各科（室）长及分管领导，要严格控制出差次数和人数，不得借差旅费转嫁其他开支。违反规定的，追究相关责任。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>291</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>中共吴忠市委宣传部年度部门决算</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2017-09-20</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201709/t20170920_501693.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预〔', '市委宣传部是市委分管意识形态、宣传思想工作的职能部门，下设市文明办、国防教育办公室、外宣办，分管市委讲师团。', '、负责指导全市理论学习、理论研究、理论宣传和理论交流工作，指导讲师团的工作，协助自治区党委宣传部编制社会科学规划、实施计划；', '、负责新闻舆论导向的宏观管理。协调指导吴忠日报社、吴忠电视台、电台、新闻网、市新闻工作者协会的工作；', '、负责从宏观上指导全市文化工作，联系市文化体育广播电视局和市文联；协调指导全市文化体育、广播电视、文学艺术工作；', '、负责规划、部署市全局性的思想政治工作；会同有关部门研究和改进群众性思想教育工作；领导市思想政治工作研究会；', '、会同有关部门做好全市党的思想建设和党员教育宣传工作，编写党员教育材料，做好典型宣传；', '、受市委委托，会同市委组织部管理市直宣传文化新闻系统科级干部，考察、任命市直宣传文化新闻系统科级干部；', '市委宣传部设办公室、理论与社会宣传科、新闻科、网络舆情管理科、文化艺术与精神文明创建科和网络信息管理与宣传科', '。决算大于预算数的主要原因：一是创建全国文明城市增加财政预算；二是市委、市政府重大宣传活动增加财政预算；三是宣传吴忠好新闻奖励、宁夏日报征订等增加财政预算。', '，主要原因是创建全国文明城市支出、市委、市政府重大宣传活动及中国好人榜发布仪式等增加支出。较', '。因公出国（境）费支出减少的主要原因是加强因公出国审批管理，严格审批手续，没有因公出国人员；公务用车购置及运行费支出减少的主要原因是公务车改革减少公务车运行维护费用以及加强公务车派车管理，严格杜绝不必要的公务出车。', '元，主要用于自治区及区外媒体记者采访、自治区及以区外宣传文化系统领导考察学习招待。', '。主要原因是：创建全国文明城市机关办公经费、公务车及下乡差旅费支出增加，大型活动各项办公费用支出增加。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>291</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>吴忠市中等职业教育年年度质量报告</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202402/t20240226_4468294.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['2023年，吴忠市中等职业技术学校深入贯彻落实习近平新时代中国特色社会主义思想和《中华人民共和国职业教育法》，根据自治区《关于推动现代职业教育高质量发展的实施意见》总体要求，围绕自治区“十四五”发展规划和宁夏“六新六特六优”现代化产业布局，落实东西部教育协作，推进教育人才“组团式”帮扶、教学改革、人才培养模式转变、教师队伍建设、校企合作等工作，以立德树人为根本任务，以提高职业教育办学质量为目标，引导全体教职工转变观念，开拓创新，爱岗敬业，努力提高教育教学质量，培养优秀技能人才。', '年，吴忠市中等职业技术学校深入贯彻落实习近平新时代中国特色社会主义思想和《中华人民共和国职业教育法》，根据自治区《关于推动现代职业教育高质量发展的实施意见》总体要求，围绕自治区“十四五”发展规划和宁夏“六新六特六优”现代化产业布局，落实东西部教育协作，推进教育人才“组团式”帮扶、教学改革、人才培养模式转变、教师队伍建设、校企合作等工作，以立德树人为根本任务，以提高职业教育办学质量为目标，引导全体教职工转变观念，开拓创新，爱岗敬业，努力提高教育教学质量，培养优秀技能人才。', '一年来，各中职学校继续秉承“德育为先、技能为本”理念和“立德树人、精工强技、以生为本、全面发展”办学目标，瞄准职教名校，获评省级优秀等次，彰显了中职精神；聚焦文明创建，广泛开展各类志愿活动，擦亮了中职容颜；坚持改革创新，激发内部活力，强健了中职体魄；着力科研兴校，教科研成绩硕果累累，叫响了中职名片；深化闽宁东西部合作，创新协同育人模式，续写了吴忠中职“山海情”……这些，都为职业教育高质量发展奠定了坚实的基础。', '根据自治区教育厅关于做好2023年职业教育质量年度报告编制工作的通知精神，我们编写了《吴忠市中等职业教育2023年年度质量报告》，本报告所有数据均来自各县区质量年报。欢迎政府主管部门、行业企业、学生家长、用人单位和社会各界人士批评指正。本报告主要有以下特点：', '年年度质量报告》，本报告所有数据均来自各县区质量年报。欢迎政府主管部门、行业企业、学生家长、用人单位和社会各界人士批评指正。本报告主要有以下特点：', '一是完整性。围绕“向社会公众展示办学成果”这一原则制定各级指标。尽可能收集所有能说明问题的指标，涵盖起点、过程、结果；有成绩，也有不足；有描述，也有分析；有总结，也有展望。', '二是准确性。表达方式上主要以数据描述为主，尽可能使用量化指标，辅之以文字说明，并适当使用办学过程中的典型案例。数据主要来自各学校质量年报统计数据。', '三是发展性。考察一年来的办学质量，既要比照过去办学成绩，也要瞻望未来发展。有成绩必然有不足，有发展必然有探索，报告中有些描述是对今后发展提出问题，以此为中职教育发展起承转合做思考。', '1.2023年，青铜峡市职教中心学生李航在第37届全国青少年科技新大赛中，作品“中学物理电学功能数显试验仪”荣获全国一等奖；学生马瑛在“第十一届全国规范汉字书写大会”中，获得全国三等奖。', '年，青铜峡市职教中心学生李航在第37届全国青少年科技新大赛中，作品“中学物理电学功能数显试验仪”荣获全国一等奖；学生马瑛在“第十一届全国规范汉字书写大会”中，获得全国三等奖。', '2.青铜峡职教中心结合宁夏“六新六特六优”产业布局开办化学工艺专业，为助力宁夏现代煤化工产业用工奠定基础。定向扩招、培养化工专业学生300名。', '青铜峡职教中心结合宁夏“六新六特六优”产业布局开办化学工艺专业，为助力宁夏现代煤化工产业用工奠定基础。定向扩招、培养化工专业学生300名。', '3.2023年，红寺堡区职业学校成立闽宁教育合作新实践“中等职业学校联盟”。“职教联盟”由闽宁两地27所有一定影响力和较高教学水平的中等职业学校组成，通过相互合作、资源共享、经验交流等方式，促进各校之间的发展。', '年，红寺堡区职业学校成立闽宁教育合作新实践“中等职业学校联盟”。“职教联盟”由闽宁两地27所有一定影响力和较高教学水平的中等职业学校组成，通过相互合作、资源共享、经验交流等方式，促进各校之间的发展。', '4.2023年，红寺堡职业学校承担了2023年闽宁协作职业技能培训项目任务，以枸杞、黄花菜田间管理、农产品推销、家政服务等为培训项目，完成培训八期以上，培训结业人员达400人以上。', '年，红寺堡职业学校承担了2023年闽宁协作职业技能培训项目任务，以枸杞、黄花菜田间管理、农产品推销、家政服务等为培训项目，完成培训八期以上，培训结业人员达400人以上。', '5.2023年，红寺堡职业学校设置“社会开放日”活动，与县内中小学合作开展劳动教育，为中小学生提供丰富的职业体验，职业启蒙教育覆盖面有序扩大。', '年，红寺堡职业学校设置“社会开放日”活动，与县内中小学合作开展劳动教育，为中小学生提供丰富的职业体验，职业启蒙教育覆盖面有序扩大。', '6.2023年，盐池县职业技术学校协同吴忠市总工会、市教育局、市人力资源和社会保障局，承办吴忠市汽修行业职工职业技能竞赛暨职业院校学生技能大赛，并获得“优秀组织奖”。', '年，盐池县职业技术学校协同吴忠市总工会、市教育局、市人力资源和社会保障局，承办吴忠市汽修行业职工职业技能竞赛暨职业院校学生技能大赛，并获得“优秀组织奖”。', '7.2023年，盐池县职业技术学校协同26个有关滩羊产业的行业管理部门、行业协会组织、13所中高职、大学，以“滩羊养殖与加工”为核心，开发初、中、高三级9个职业技能等级标准、9套教材和数字资源。', '年，盐池县职业技术学校协同26个有关滩羊产业的行业管理部门、行业协会组织、13所中高职、大学，以“滩羊养殖与加工”为核心，开发初、中、高三级9个职业技能等级标准、9套教材和数字资源。', '8.2023年，同心县职业技术学校“湄职同心班”创新东西部联合办学模式，西部学生来东部学习实习，依托东部学校的教学资源，学成之后返回西部就业。第一期平面设计专业学生已学成就业，广受用人单位好评。', '年，同心县职业技术学校“湄职同心班”创新东西部联合办学模式，西部学生来东部学习实习，依托东部学校的教学资源，学成之后返回西部就业。第一期平面设计专业学生已学成就业，广受用人单位好评。', '9.2023年，同心县职业技术学校与宁夏工商职业技术学院、福建湄洲湾职业技术学校、成都天府新区职业学校等建立互助帮扶关系，打造远程互动课堂，开展远程互动教学、教研活动，使优质资源可以互联互通，共建共享。', '年，同心县职业技术学校与宁夏工商职业技术学院、福建湄洲湾职业技术学校、成都天府新区职业学校等建立互助帮扶关系，打造远程互动课堂，开展远程互动教学、教研活动，使优质资源可以互联互通，共建共享。', '10.2023年，自治区政府教育督导室、教育厅对全区中职学校办学情况督导评估中，青铜峡职业教育中心、盐池县职业技术学校、同心县职业技术学校获得优秀等次，红寺堡区职业技术学校获得良好等次。', '年，自治区政府教育督导室、教育厅对全区中职学校办学情况督导评估中，青铜峡职业教育中心、盐池县职业技术学校、同心县职业技术学校获得优秀等次，红寺堡区职业技术学校获得良好等次。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>291</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>吴忠市人民政府办公室关于印发深化医药卫生体制改革年重点工作任务及责任分工的通知</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/szdwj/202109/t20210930_3070775.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['吴忠市人民政府办公室关于印发深化医药卫生体制改革2021年重点工作任务及责任分工的通知_吴忠市人民政府', '吴忠市人民政府办公室关于印发深化医药卫生体制改革2021年重点工作任务及责任分工的通知', '为认真落实国家、自治区关于医改的决策部署，深入实施健康吴忠行动，推广三明市医改经验，强化“三医联动”改革，促进优质医疗资源均衡布局，统筹疫情防控与公共卫生体系建设，推动把以治病为中心转变为以人民健康为中心，着力解决群众看病难、看病贵问题。根据《国务院办公厅关于印发深化医药卫生体制', '为认真落实国家、自治区关于医改的决策部署，深入实施健康吴忠行动，推广三明市医改经验，强化', '改革，促进优质医疗资源均衡布局，统筹疫情防控与公共卫生体系建设，推动把以治病为中心转变为以人民健康为中心，着力解决群众看病难、看病贵问题。根据《国务院办公厅关于印发深化医药卫生体制', '按照自治区医改领导小组秘书长统一安排部署，积极参加自治区组织的三明医改经验的培训和实地考察，主动学习三明市在药品耗材采购、医疗服务价格调整、薪酬制度和医保支付方式改革等方面的有益经验，因地制宜推广借鉴。（', '常态化实施国家组织药品集中采购政策，逐步扩大药品和高值医用耗材集中带量采购范围。落实国家组织药品耗材集中采购医保资金结余留用政策，指导医疗机构利用好增加的可支配收入，提高医务人员薪酬水平。加大力度推进国家医保谈判药品落地使用。配合自治区做好跨区域和自治区级药品耗材集中采购。落实医药价格和招采信用评价制度。推进统一的医保药品、医用耗材分类与编码标准。推进医疗器械唯一标识在监管、医疗、医保等领域的衔接应用。', '（责任单位：市医疗保障局、卫生健康委、财政局、人力资源和社会保障局、市场监督管理局、公共资源交易中心）', '落实自治区公立医疗机构医疗服务价格动态调整机制，推进盐池县人民医院开展调整优化医疗收入结构试点工作，监测试点运行情况，配合自治区做好试点评估工作，并及时总结经验。加快', '。根据医疗保障改革形势需要，允许定价部门采取简明易行的方式开展成本调查和听取意见。', '落实“两个允许”要求，合理确定、动态调整公立医院薪酬水平。学习借鉴三明市和宁夏回族自治区人民医院薪酬制度改革经验，实行以岗定责、以岗定薪、责薪相适、考核兑现。允许医院自主设立薪酬项目。拓宽公立医院薪酬制度改革的经费渠道，年度人员支出占公立医院业务支出的比例控', '要求，合理确定、动态调整公立医院薪酬水平。学习借鉴三明市和宁夏回族自治区人民医院薪酬制度改革经验，实行以岗定责、以岗定薪、责薪相适、考核兑现。允许医院自主设立薪酬项目。拓宽公立医院薪酬制度改革的经费渠道，年度人员支出占公立医院业务支出的比例控', '完善医务人员职称评价机制，突出实践能力业绩导向，引导和鼓励卫生专业技术人员扎根防病治病一线。', '完善以按病种付费为主，按床日、按日间手术等付费为辅的多元复合式医保支付方式改革。继续开展按疾病诊断相关分组付', '（医联体）内实行“总额付费、监督考核、结余留用、合理超支分担”的医保支付方式改革，推进基层医疗机构服务能力提升，引导恢复期和康复期患者到基层就诊。', '的医保支付方式改革，推进基层医疗机构服务能力提升，引导恢复期和康复期患者到基层就诊。', '落实自治区《关于推动公立医院高质量发展的实施意见》，坚持和加强党对公立医院的全面领导，全面落实党委领导下的院长负责制。积极配合自治区做好我市公立医院绩效考核，并将考核结果与公立医院', '挂钩。推动公立医院建立健全现代医院管理制度，促进市、县级公立医院提档升级，以专科建设持续引领公立医院高质量发展。指导盐池县推进公立医院综合改革国家级示范县建设。', '（责任单位：市卫生健康委，市委组织部、编办，市发展改革委、财政局、人力资源和社会保障局、医疗保障局）', '对标自治区区域医疗中心建设标准，查漏补缺，积极创建自治区级专科类区域医疗中心。市级临床重点专', '持吴忠市人民医院加快创建三级甲等医院，支持同心县人民医院创建三级乙等医院。积极支持社会办医发展。', '全面推进县域紧密型医共体和区域紧密型医联体建设，构建优质高效的整合型医疗卫生服务体系。引导医共体、医联体更加注重疾病预防、提升基层服务能力和推动基层首诊、双向转诊。鼓励社会办医疗机构积极参与县域医共体和城市医联体。推进专科联盟和远程医疗协作网发展。', '（责任单位：市卫生健康委、医疗保障局，市委编办，市财政局、人力资源和社会保障局、发展改革委）', '加大支持引导力度，推动市、县、乡、村等各级各类医疗机构坚持功能定位，均衡发挥作用，优化分级诊疗体系布局。持续推进县级医院（含中医医院）服务和管理能力建设。完善城市社区卫生服务体系，按照自治区统一', '3个社区卫生服务中心。实施乡镇卫生院服务能力提升行动和基层医疗卫生机构服务能力提升项目，力争年内全市有2所乡镇卫', '生院达到国家推荐标准。推动采取灵活的家庭医生签约服务周期，精准对接群众多样化健康需求。落实乡村医生待遇，稳定乡村医生队伍。实施基层中医药服务能力提升工程“十四五”行动计划。', '生院达到国家推荐标准。推动采取灵活的家庭医生签约服务周期，精准对接群众多样化健康需求。落实乡村医生待遇，稳定乡村医生队伍。实施基层中医药服务能力提升工程', '严格执行全区城乡居民医保财政补助标准，建立防范因病返贫致贫长效机制，落实《贯彻落实巩固拓展医疗保障脱贫攻坚成果有效衔接乡村振兴战略实施意见》。积极配合自治区推动基本医保自治区级统筹', '做好跨统筹地区医保关系转移接续工作。完善医保定点医疗机构和定点零售药店协议管理，积极推进“掌上办”、“网上办”等便民服务。', '做好跨统筹地区医保关系转移接续工作。完善医保定点医疗机构和定点零售药店协议管理，积极推进', '促进中医治未病能力提升。实施中医药康复服务能力提升工程，发挥中医药在疾病康复中的作用。加大医保对中医药支持力度，', '坚持常态化防控和局部应急处置有机结合，严格落实外防输入、内防反弹各项工作。加快推进新冠病毒疫苗接种，提升接种能力。建立健全重大疫情救治体系，提升市人民医院传染病区能力建设，督', '（市）完成县级综合医院救治能力提升项目。推动完善早期监测预警、公共卫生重大风险评估、研判、决策机制，强化基层公共卫生体系，健全公共卫生应急处置和物资保障体系。', '（责任单位：市卫生健康委、发展改革委、工业和信息化局、财政局、医疗保障局、市场监督管理局）', '建立稳定的公共卫生事业投入机制，创新科研和社会化服务机制。加强疾控机构人才队伍和实验室建设，提升现场流行病学调查、检验检测、应急处置等专业能力，实施吴忠', '疾病预防控制中心实验室能力提升项目，提升重大公共卫生应急和防控能力。严格执行公共卫生医师制度。落实疾控机构“两个允许”要求，借鉴三明市薪酬制度改革经验，合理确定、动态调整疾控人员薪酬水平。落实疾控机构职称评价机制，突出实践能力业绩导向。', '疾病预防控制中心实验室能力提升项目，提升重大公共卫生应急和防控能力。严格执行公共卫生医师制度。落实疾控机构', '要求，借鉴三明市薪酬制度改革经验，合理确定、动态调整疾控人员薪酬水平。落实疾控机构职称评价机制，突出实践能力业绩导向。', '强化疾病预防控制中心技术指导、人员培训、督导评价等职能，督促各级医疗机构落实疾病预防控制职责。配合自治区推进高血压、高血糖、高血脂“三高”共管试点，推动疾控机构与医疗机构在慢性病综合防治方面业务融合，推进重大慢性病医疗机构机会性筛查干预。强化县级医院公共卫生服务职能。完善妇幼保健机构内部管理，提供防治结合的医疗保健服务。依托现有医疗卫生机构，提升市级职业病预防控制、诊断治疗、康复能力。加大医防融合人才培训和继续教育。', '强化疾病预防控制中心技术指导、人员培训、督导评价等职能，督促各级医疗机构落实疾病预防控制职责。配合自治区推进高血压、高血糖、高血脂', '共管试点，推动疾控机构与医疗机构在慢性病综合防治方面业务融合，推进重大慢性病医疗机构机会性筛查干预。强化县级医院公共卫生服务职能。完善妇幼保健机构内部管理，提供防治结合的医疗保健服务。依托现有医疗卫生机构，提升市级职业病预防控制、诊断治疗、康复能力。加大医防融合人才培训和继续教育。', '普及传播健康科普知识。强化市场监管，坚决依法打击非法兜售保健品、坑蒙拐骗等行为。推进基本公共卫生服务均等化。加强精神卫生和心理健康服务。扩大高发癌症筛查覆盖范围，', '县级癌症筛查和早诊早治中心建设试点。推进儿童青少年近视防控和超重肥胖防控。加强艾滋病、地方病、职业病等重大疾病防治。整合医疗、养老、残联资源，配合自治区实', '层医疗机构医养结合能力建设项目，推动老年健康服务体系建设，增加医养结合服务供给。深入开展爱国卫生运动，推进国家卫生城市（县城）、健康细胞建设。推进村（居）民委员会公共卫生委员会建设。', '（责任单位：市卫生健康委，市委宣传部、网信办，市教育局、民政局、市场监督管理局、文化旅游体育广电局）', '技术应用。督促辖区医疗机构积极对接宁夏互联网医院（“互联网+医疗健康”一体化平台），规范互联网诊疗服务，严格实行监管。指导吴忠市人民医院实施好吴忠市“互联网+医疗”信息化建设项目，督促各县（市、区）加快推进县域医共体平台项目。指导医疗机构合理保留传统服务方式，着力解决老年人等群体运用智能技术困难的问题。', '信息化建设项目，督促各县（市、区）加快推进县域医共体平台项目。指导医疗机构合理保留传统服务方式，着力解决老年人等群体运用智能技术困难的问题。', '深入推进“互联网+医疗健康”、“五个一”服务行动。推广多学科诊疗、日间手术等服务模式。推进预约诊疗制度，实施进一步便利老年人就医举措。推动医疗机构优化线上线下支付流程，探索推进一站式直接结算模式。有效发挥市级医疗质量控制中心指导培训作用，持续推动检验结果互认工作，提升互认质量和效果。加强县级胸痛、卒中、创伤、危重孕产妇、危重儿童和新生儿救治中心建设，提升急危重症救治能力。', '服务行动。推广多学科诊疗、日间手术等服务模式。推进预约诊疗制度，实施进一步便利老年人就医举措。推动医疗机构优化线上线下支付流程，探索推进一站式直接结算模式。有效发挥市级医疗质量控制中心指导培训作用，持续推动检验结果互认工作，提升互认质量和效果。加强县级胸痛、卒中、创伤、危重孕产妇、危重儿童和新生儿救治中心建设，提升急危重症救治能力。', '加强全科医生等紧缺人才培养，按照自治区安排部署，积极选派符合条件的医疗卫生专业技术人员到上级医疗卫生机构参加培训。落实医学专业高校毕业生免试申请乡村医生执业注册政策。面向社会招收的普通高校应届毕业生经住院医师规范化培训合格后当年在医疗卫生机构就业的，在招聘、派遣、落户等方面按应届毕业生同等对待；对经住院医师规范化培训合格的本科学历临床医师，在招聘、职称晋升、岗位聘用、薪酬待遇等方面与临床医学、口腔医学、中医专业学位硕士研究生同等对待。加强校医队伍建设。配合自治区继续实施全科医生特设岗位计划。', '完善短缺药品保供稳价机制，加强短缺药品监测和储备。配合自治区做好儿童短缺药品保障机制调研，及时解决药品短缺问题。落实基本药物配备使用要求和自治区相关政策，加大考核力度。提升重点药品和耗材监测力度，落实处方点评和督导检查力度，推进药械合理使用。规范医联体、医共体药械统一采购管理，保障用药需求。', '完善医疗卫生行业综合监管督察机制，将医疗卫生行业综合监管工作列入年度健康吴忠考核。大力推行医疗卫生行业“互联网+监管”，加快完善“双随机、一公开”监督抽查、飞行检查等精准监管机制，强化监管结果公开和责任追究。深化医保基金监管制度体系改革，配合自治区做好医保智能监控示范点建设。', '完善医疗卫生行业综合监管督察机制，将医疗卫生行业综合监管工作列入年度健康吴忠考核。大力推行医疗卫生行业', '监督抽查、飞行检查等精准监管机制，强化监管结果公开和责任追究。深化医保基金监管制度体系改革，配合自治区做好医保智能监控示范点建设。', '各有关部门要强化大卫生大健康理念，切实加强组织领导，压实工作责任，认真履行分工职责，细化工作内容和工作措施，不断推动全市医改工作走深走实。', '各部门要牢固树立“一盘棋”思想，结合自身职能，强化部门沟通协调，密切协作配合，努力担当作为，持续深化全市医改工作，提升广大群众在医改中的获得感。', '各部门要充分发挥新媒体宣传优势，加大宣传力度，积极引导社会预期，及时回应社会关切，进一步营造深化医改的良好氛围，为深化改革营造良好的舆论环境。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>291</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>吴忠市绘就区域协调发展新篇章</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202307/t20230713_4177867.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['精神，坚持以先行区建设为统揽，以西部大开发、东西部交流合作、对外开放为重点，统筹区域城乡，', '加强与京津冀、长三角、粤港澳等区域产业合作，拓展与山东、浙江、福建等地交流合作，实施招商引资项目', '；邀请双汇集团、波司登集团等客商来吴考察300多批次，先后引进中国能建、中核集团等20余家各类500强企业在吴投资。', '全市公路密度达46公里/百平方公里，高效率交通覆盖率达100%，“宁夏青铜峡—阿拉木图”、“宁夏德昌—山东港口青岛港”等货运班列成功开通，捷安公铁联运智慧物流园建成投产。围绕“盐池滩羊”等区域品牌和君星坊“亚麻籽油”等名优产品，在北京、上海、南京等地设立宁夏特色产品外销窗口50余家，累计实现销售额24.3亿元。太阳镁业、东吴农化等31家外贸企业产品出口到美国、欧盟等20多个国家和地区；宁夏恒丰与国内38家纺织服装企业组建新丝路产业联盟；吴忠仪表新型油井单流阀成功进入伊朗石油化工企业，成为中石油、中石化海外项目唯一国产化配套企业。', '家纺织服装企业组建新丝路产业联盟；吴忠仪表新型油井单流阀成功进入伊朗石油化工企业，成为中石油、中石化海外项目唯一国产化配套企业。', '完成96个成建制移民村实用性“多规合一”村庄规划，“三区三线”划定成果批准实施。调整城镇户籍迁移政策，实现城镇落户“零门槛”，常住人口城镇化率达到5', '个，生活垃圾无害化处理率达到100%。持续开展农村人居环境整治，实施清洁取暖“双替代”8万户', '。建立“异地受理、属地审批、就近取证”全新服务模式，签订“跨省通办”合作协议，打通政务服务“跨省通办”平台，69项政务服务事项实现异地申请、业务属地远程办理。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>291</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>吴忠市公安局党委关于市委巡察反馈问题整改情况的通报摘要</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-07-10</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/201907/t20190710_1595790.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['按照市委统一部署，2018年10月19日至12月7日，市委第一巡察组对市公安局党委开展了常规巡察。2019年1月29日，市委第一巡察组向我局党委反馈了巡察情况。按照《中共吴忠市委巡察工作办法》《被巡察党组织配合市委巡察工作暂行规定》要求，现将巡察反馈问题整改情况予以公布。', '1.针对“党委领导核心作用发挥不充分”的问题。市局党委组织召开基层党组织书记抓党建工作述职述责工作会和全市公安机关党建工作专题汇报会；修订完善了《吴忠市公安局党委会议制度》《吴忠市公安局机关党委工作职责》，对存在换届选举工作不规范等问题的3个党支部给予通报处理，批评教育4个党支部具体责任人和负有领导责任的人员，并要求作出书面检查。强化市局党委、机关党委对基层组织生活的指导监督，要求在基层组织换届选举等重要组织生活中，党委班子成员或者指定党建业务能力较强的党务工作者全程参与，解决市局党委在基层组织换届选举中指导、监督作用发挥不到位的问题。', '2.针对“对下级党组织管党治党要求不严”的问题。制定《党风廉政建设工作责任书》，杜绝党风廉政建设责任书内容相同、流于形式等问题；下发《2019年吴忠市公安局党建工作要点》《2019年全市公安机关党风廉政建设和反腐败工作要点》，全面安排全年党建及党风廉政建设工作。对巡察指出涉及的具体责任人员进行批评教育并责令作出书面检查。', '3.针对“开展违反中央八项规定精神问题专项治理不彻底”的问题。举办中央八项规定政策解读暨财务管理知识培训班，开展了专项自查整改工作，违规金额全部清退，对相关人员进行提醒谈心谈话，责令作出书面检查、通报批评、诫勉谈话的问责处理。建立常态化监督机制，发挥纪检、审计、警保等部门联合的“大监督”机制作用，形成全方位、多层面监督体系，对各类违规违纪问题始终保持“零容忍”态度，坚决预防和杜绝违反中央八项规定精神问题的发生。', '1.针对“党委中心组学习和干部理论学习不扎实”的问题。严格执行《中国共产党党组工作条例》要求，制定《吴忠市公安局党委中心组2019年理论学习计划》及《计划表》，每月召开一次理论学习中心组学习会议，做到一会议、一记录、一纪要，截止目前共开展专题讨论3次。下发《2019年民警理论学习计划安排》《吴忠市公安机关2019年度民警学法计划》，要求每月开展1次法律学习。对各项已制定的学习制度、计划要始终长期坚持，每月对学习情况进行监督晾晒并纳入年终考核。举办了为期2天的“坚持底线思维、着力防范化解重大风险”专题学习班，讨论交流8场次。通过撰写学习笔记、心得体会、专题辅导讲座、党员民警讲党课、加强“学习强国”使用等方式，不断增强学习效果。', '2.针对“落实意识形态责任制不力”的问题。研究制定《吴忠市公安局党委意识形态工作责任制考核办法》《吴忠市公安机关学习贯彻马克思主义民族观宗教观实施意见》等制度，市公安局党委与所辖基层党组织，层层签订意识形态工作责任书，将意识形态领域工作纳入基层党建述职述廉工作中。对全市公安系统民警工作交流、服务群众等微信群实行备案登记制度。', '1.针对“机关党建‘灯下黑’问题专项整治不彻底”的问题。举办了党务干部培训班，在前期党建“灯下黑”问题清单基础上，一一制定整改销号清单，并对销号清单中制定的整改措施、落实情况、整改效果进行全面检查，对各基层党支部书记进行了提醒谈心谈话。', '2.针对“基层党组织党建制度落实不力”的问题。针对各基层党组织换届选举、党费收缴、发展党员3个方面存在不规范、不严肃等具体问题，层层开展了提醒谈心谈话。下发了《吴忠市公安局机关党委关于加强对基层党组织指导管理的通知》《关于进一步规范党费工作的通知》。对负有领导责任的基层党组织负责人及党务工作者要求在巡察整改问题专题组织生活会上作出书面检查。', '3.针对“干部选拔任用不规范”的问题。制定《吴忠市公安局党委关于干部选拔任用工作突出问题的整改方案》，并报市委组织部，由纪检监察部门对4名责任人分别给予党内警告、诫勉谈话的问责处理。严格执行《党政领导干部选拔任用工作条例》等制度规定，从严把好动议酝酿、民主推荐、组织考察、讨论决定等干部选拔任用关键环节，认真落实“一报告两评议”制度。', '4.针对“民警因私出国（境）证件管理不严格”的问题。下发《关于市公安局干部职工因私出国（境）有关问题的通知》，每半年对新增人员、因工作变动等原因发生信息变化的人员进行相应变更，及时更新完善信息库。严格审查审批，严把出境关口，凡因私出国（境）人员，先填写审批表，经所在单位、局纪委、政治部审核通过，再履行申办或领取因私出国（境）证件手续。对核查发现的6人因私出国（境）证件全部收缴完毕，并由政治部专人专柜统一管理，实现个人“零持有”。', '1.针对“工作作风不扎实”的问题。对巡察组边巡边改期间移交群众反映区间测速问题、民警受立案不及时等10件信访事项，逐一调查核实、回复解决完毕。从服务态度、规范用语等方面持续抓窗口单位作风建设，完善了《吴忠市公安局110报警服务台考核考评管理办法》，打造“平安出入境服务零距离”党建服务品牌，充分利用“互联网+公安政务服务”平台，让群众办事更便捷。对照“新四风”的十种表现形式，深入治理隐形变异新表现，坚持抓日常、经常抓，持续释放越往后执纪越严的强烈信号。', '2.针对“一些党员组织生活会对照检查材料以旧充新应付差事”的问题。对巡察指出的5个党支部个别同志对照检查材料相同的具体问题，层层开展了提醒谈心谈话，责令作出书面检查，切实提高了思想认识，增强了支部书记、党务工作者对各类组织生活材料的重视程度。对组织生活会对照检查材料采取“党务干部预审、支部委员审查、支部书记审核签字”的三级联审方式，坚决杜绝材料雷同、质量不高等问题再次发生。', '1.针对“执行党的纪律不严格”的问题。下发《关于2018年违纪违法案件情况的通报》，对5个不符合表彰奖励、年度考核规定情况进行纠正，对负有审核把关责任人进行通报批评和提醒谈心谈话。研究制定《吴忠市公安机关人民警察奖励工作办法（试行）》，确保评先评优、年度考核等工作的规范性、严肃性。', '2.针对“财务管控制度执行不严格”的问题。制定《吴忠市公安局本级财务管理办法（暂行）》《吴忠市公安局机关资产管理办法（暂行）》等3个制度规定，举办财务知识培训班，不断规范财务管理工作，从制度上堵塞漏洞。对市局机关、孙家滩分局、强制隔离戒毒所等存在“未认真执行政府采购制度、大额支出支付方式不合规、违反公务卡结算制度、现金管理制度、政府零星采购备案制度、通用办公设备购置超标、公务接待不规范、差旅费报销不规范”等问题，层层开展提醒谈心谈话，要求相关责任人员作出书面检查。', '1.针对“党风廉政建设‘两个责任’落实不到位”的问题。严格执行《吴忠市落实党风廉政建设“两个责任”全程纪实制度（试行）》，明确党委班子成员主体责任，每半年至少听取并研究1次党风廉政建设工作情况，与分管部门班子主要负责人每季度开展1次、与分管部门班子成员每半年开展1次廉政谈话并签字背书。召开全市公安机关2019年党风廉政建设工作会议，签订《党风廉政建设工作责任书》。进一步深化“三转”工作，有效增强纪委行使监督权的相对独立性和权威性。', '2.针对“涉农扶贫领域腐败和作风问题专项治理有差距”的问题。研究制定《吴忠市公安局2019年扶贫工作方案》，重新制定了2019年度帮扶措施，各部门负责人、政治部分别审核签字把关，确保制定的帮扶措施真正达到与红寺堡区、镇实施的各项扶贫政策有机对接。责令帮扶计划相同的5个单位作出书面说明，层层开展提醒谈心谈话。调换2名工作不力驻村工作队员，另指派2名责任心强的年轻民警承担驻村帮扶工作。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>291</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>吴忠市委政策研究室年度部门决算公开</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018-10-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201810/t20181024_1136578.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预[2016]143号）和吴忠市财政局《关于做好2017年度部门决算公开工作的通知', '、根据市委指示，起草、参与起草或组织有关部门共同起草、修改市委有关重要文件、主要领导讲话；负责审核市直各部门制定的经济社会发展有关政策。', '、根据市委中心工作和领导意图，对全市经济、社会工作具有全局性、前瞻性和指导性的课题进行调查研究，提出意见和建议，为市委决策及时提供科学依据。', '、调查和研究全市在贯彻执行党的路线、方针、政策和加快经济发展的新情况、新问题和新经验，及时向市委报告并向有关部门反馈。', '、社会事业科。负责全市科教文卫社会事业领域改革和发展方面的调查研究工作；编制政研工作年度工作计划；协助领导处理和综合协调机关日常政务事务；负责综合材料的起草、信息简报编发工作；负责《吴忠工作研究》刊物稿件的收集整理、文章修改、审定、编辑、校对、印刷、发行等工作。负责会议组织、文电档案管理、文件收发及机要保密等工作；负责车辆管理及机关安全防范等行政事务和后勤保障工作；承办机关人事、编制、劳动工资、计划生育、综合统计等方面的具体工作；负责财务计划、会计核算、机关财务、各项资金和国有资产管理工作；积极完成领导交办的其他任务。', '、农村经济科。贯彻中央、自治区农村经济方面的政策，收集农村经济、城市经济信息并组织调研；提出对农业经济实行引导、支持、保护的政策性建议；研究农业和农村经济发展思想，为领导宏观经济决策提供科学依据；负责全市农业产业化发展、农业服务体系建设方面的调研，及时为领导宏观经济决策提供建议；积极完成领导交办的其他任务。', '、城市经济科。负责全市工业和工业经济发展、城市化改革、小城镇建设以及城市经济改革和发展等方面的调研，及时向市委反映城市建设、商贸流通、财贸金融等领域的发展情况，为市委提供城市经济发展的意见、建议。', '、改革协调科。负责全市全面深化改革领导小组会议相关工作及全面深化改革综合性材料起草工作。协调生态文明体制、行政审批制度改革专项小组开展生态文明、行政审批制度改革试点，改革方案的论证，重大改革举措的推进落实。负责全市全面深化改革领导小组办公室日常工作，', '、改革督办科。负责督促市全面深化改革领导小组决定事项、工作部署和要求；负责市深化改革效能目标考核工作，及时总结宣传各地各部门改革工作经验；协调文化体制、依法治市体制改革专项小组开展文化、依法治市改革试点，改革方案的论证，重大改革举措的推进落实。', '年度财政拨款支出年初预算为2585224.60元，支出决算为2639995.60元，完成年初预算的102%。决算大于预算数的主要原因：承担市委市政府全面深化改革及农业农村工作任务较上年度有了大幅增长，公务车租赁费、外出考察学习差旅费、材料印刷费等支出增加。', '（六）2017年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '年因公出国（境）团组数1个，因公出国（境）人次数1人。开支内容包括差旅费、住宿费、培训费等。', '其中：国内接待费支出2093元，主要用于接待广东省珠海市体改办、湖南郴州市委政研室工作考察。2017年国内公务接待批次3个，国内公务接待人次30人。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>291</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>吴忠市青铜峡工业园区学习贯彻自治区党委十三届四次全会精神筑牢园区高质量发展屏障</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202308/t20230809_4211262.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['吴忠市青铜峡工业园区学习贯彻自治区党委十三届四次全会精神筑牢园区高质量发展屏障_吴忠市人民政府', '“深、准、狠”总要求，对园区近期安全生产工作进行再安排、再部署，树牢安全第一意识、提升风险防范水平、强化督查检查手段、', '安全生产底线，从内到外、从上到下、由浅至深，全面学习贯彻自治区党委十三届四次全会精神。', '跟进招引。同时，严格落实项目入园联审工作机制，组织园区领导及应急管理和生态环境局干部，邀请市发改局、应急局、生态环境分局等有关部门和安全环保专家，从能耗、效益、安全风险、环境影响等多角度、多方面对入园项目进行审核，明确企业建设前置条件，严守项目审批安全红线，最大限度降低企业安全生产风险，确保园区安全生产总体形势稳定可控。', '聚焦风险隐患集中和安全事故易发多发领域，严格落实领导包片、干部包抓企业责任制，深入企业及在建项目一线，全面开展燃气安全、食品安全、消防安全、防汛救灾等重点领域大排查大整治工作，先后排查企业', '“政府购买服务、专家排查隐患、企业落实整改、部门依法监督”要求，引入社会专业服务机构和专家力量参与安全生产检查，形成“政、企、社”联动共促工作机制，', '现场下发整改通知书，明确整改责任人及整改标准，督促企业立行立改，不能立行立改的建立问题隐患台账，明确整改时限，实行销号管理，由安全专家负责指导企业整改落实，由包抓企业干部负责及时跟进问题整改落实情况，及并时做好整改前后照片等档案资料的整理。目前，自治区副主席陈春平暗访发现的', '1家企业3项问题于当日立行立改、整改完毕；自治区党委“四防”督查反馈园区13家企业安全问题隐患55项已全部完成整改，实现清零销号、闭环管理。', '通过在企业高管群、安环群等微信群转发自治区委十三届四次全会公报和有关解读链接、悬挂宣传横幅、制作宣传展板、发放宣传折页、干部下企业送精神等方式，强化企业职工，尤其是中高层领导的学习教育，提升企业法人、安全负责人对安全生产的重视程度，自觉主动带头学，切实把园区全体干部职工的思想和行动统一到习近平总书记重要指示要求和党中央决策部署上来。同时，强化职工教育培训，组织管委会全体干部及园区', '140多家企业主要负责人、安全管理人员及重点岗位操作工680余人开展安全技能培训，夯实安全工作基础，提升安全管理水平。', '万元实施园区封闭化管理、化工安全技能实训基地、危化车辆专用停车场、化工集中区安全事故废水应急池、消防环形车道、取水码头', '25名专职消防救援人员和5辆消防车及2000余套消防应急物资，并在化工集中区中危化企业等消防重点单位周围设置16处市政消火栓；', '发挥智慧园区平台智能化作用，与东吴农化、海盛实业等重点化工、冶金企业中控室链接，实时共享车间生产操作情况及关键设备运行情况，及时传送各类储罐温度、压强等关键数据，及时预警、提前防范，进一步强化技术支撑。同时，建立完善园区及企业突发事故应急救援方案，从逐级上报事故信息、成立应急指挥部、设立分工小组、疏散人群、救治伤员、消除风险、持续跟进等多方面全方位开展事故救援应急演练，进一步提升管委会及企业应急救援能力。', '建立完善园区规划体系，编制完成园区化工集中区总体规划、产业规划、安全发展规划、消防专项规划、气象灾害评估报告、选址风险论证报告等专项规划，坚持规划刚性引领。同时，先后制定了《青铜峡工业园区重点领域风险隐患再排查再整治任务分工方案》《青铜峡工业园区重点领域风险隐患排查整治', '“扫企”行动方案》，建立园区安全生产一表、一图、一本、一网责任链条机制，层层签订安全生产目标管理责任书，进一步', '“四防”督查反馈问题为抓手，梳理园区企业存在的共性问题及个性问题，并结合园区企业实际，明确督查检查重点，由管委会分管领导带队，组织应急管理和生态环境局干部和安全专家，分组分片区开展督查工作，逐企逐项检查销号，并定期对督查反馈问题开展“回头看”，', '及时根据园区阶段工作重点，对干部职工岗位进行合理调整，推动园区工作向安全生产倾斜，给工作能力强、专业储备足、工作作风实的干部压担子，', '以责任追究倒逼责任落实，针对未按期完成整改、整改不到位的企业和监管责任落实不到位、包抓企业问题频发的干部，在微信群']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>291</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>中国人民政治协商会议吴忠市第五届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202002/t20200218_1958280.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['2019年是新中国成立70周年，是人民政协成立70周年，也是决胜全面建成小康社会关键之年。一年来，在中共吴忠市委的坚强领导下，市政协常委会团结带领广大政协委员，以习近平新时代中国特色社会主义思想为指导，高举中国特色社会主义伟大旗帜，坚持团结和民主两大主题，紧紧围绕市委、市政府中心工作，充分发挥专门协商机构作用，努力在建言资政和凝聚共识上双向发力，为全市经济社会发展作出了积极贡献。', '常委会坚持把习近平新时代中国特色社会主义思想作为统揽政协各项工作的总纲，全面贯彻新时代党对政协工作的总要求，确保政协工作始终沿着正确政治方向前进。', '不断夯实共同思想政治基础。坚持把政治建设摆在政协工作的首位，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”。认真学习贯彻中共十九大，十九届二中、三中、四中全会精神和习近平总书记关于加强和改进人民政协工作的重要思想，深刻领会中央和区、市党委的重大决策部署，积极引导政协委员和各族各界人士，不断增进对中国特色社会主义的政治认同、思想认同、理论认同、情感认同。深入学习中央和自治区党委政协工作会议精神，通过党组会议带头学、主席会议深入学、常委会会议集中学、专题交流研讨学等多种形式，营造浓厚学习氛围，为推动各项工作的顺利开展奠定坚实的基础。', '准确把握政协工作性质定位。深入贯彻落实中央和区、市党委关于新时代加强和改进人民政协工作的新部署新要求，围绕新时代市县政协的作用“是什么”、新时代市县政协“干什么”“怎么干”开展讨论，进一步深化对人民政协工作性质定位和职能作用的认识，不断提高政治把握能力、调查研究能力、联系群众能力、合作共事能力。牢牢把握政协工作的新方位新使命，加强政协工作理论研究，切实处理好虚与实、松和紧、稳和进“三个关系”，积极推动政协工作从注重“做了什么”“做了多少”向“做出了什么效果”转变。', '全面加强政协党的建设工作。深入贯彻党对政协工作的总要求，充分发挥政协党组把方向、管大局、保落实的领导作用，重大问题、重要工作主动向市委请示汇报。深入开展“不忘初心、牢记使命”主题教育，坚持把学习教育、调查研究、检视问题、整改整治贯穿始终，针对党组班子和党组成员检视的问题制定整改措施，逐一销号整改落实，主题教育取得重要成果。扎实推进功能型党支部建设，有效发挥功能型党支部战斗堡垒作用和党员委员先锋模范作用，实现了党的组织对党员委员的全覆盖、党的工作对政协委员的全覆盖。市政协功能型党支部工作经验在自治区政协党的建设工作座谈会上进行了交流。', '（二）着力聚焦全市中心任务，努力促进经济社会发展。常委会坚持围绕全市工作大局履行职能，准确把握高质量发展的目标要求，深入开展协商议政，努力为全市经济社会建睿智之言、献务实之策。', '全力助推打赢脱贫攻坚战。紧密跟进市委脱贫攻坚重大部署，围绕“两不愁三保障”脱贫目标，采取座谈交流与问卷调查、实地查看与入户访谈相结合的方式，组织委员深入红寺堡区和同心县5个乡镇13个贫困村开展蹲点调研，市政协五届十二次常委会会议就高质量脱贫进行专题议政。围绕“如何实现稳定可持续脱贫”开展三级政协联动调研，对落实金融扶贫政策、健全扶贫综合保障体系、激发贫困群众内生动力提出对策建议。市政协联动调研成果在自治区政协常委会上进行了交流。', '围绕优化营商环境开展协商。针对深化“放管服”改革、减税降费政策落实、激发企业发展活力等问题，考察学习外地先进经验，深入县（市、区）和工业园区，通过实地走访、发放调查问卷、召开民营企业家座谈会等形式，对全市优化营商环境情况进行深入调研。市政协五届十三次常委会会议上，专题听取市人民政府关于全市优化营商环境的通报，组织委员围绕优化政务环境、社会环境、要素环境、法治环境与政府部门、金融机构和民营企业进行深入协商，协商报告得到了市委、市政府主要领导的肯定和批示。', '紧扣高质量发展建言献策。聚焦创新驱动发展战略实施，对科技创新平台建设开展调研协商，重点就推进产学研一体化、加强公共技术服务平台建设、打造科技企业孵化器等方面提出对策建议。着眼制约奶产业高质量发展的瓶颈和问题，就优质奶源供给、利益联结机制建立、产业服务保障等与有关部门进行深入协商，为奶产业规模化、市场化、社会化、高端化、科技化发展提供了决策参考。扎实做好市级领导包抓重大项目和停减产企业工作，认真落实“5+1”基层联系点、联系服务专家、创建全国文明城市督查、信访积案化解等任务，为推动各项工作顺利开展贡献了力量。', '（三）着力践行履职为民理念，积极推动民生问题改善。常委会坚持践行履职为民，围绕重大民生事项主动协商建言，切实做好解疑释惑、化解矛盾的工作，在增强人民群众幸福感、获得感、安全感方面作出了积极努力。', '积极建言黄河生态保护。加强与自治区政协和利通区、青铜峡市政协沟通协作，组织整合三级政协委员和专家的力量，深入罗家河、苦水河、南干沟等重点入黄排水沟进行实地踏访，全面了解沿线生态环境突出问题。针对污染源头把控、污水管线建设、设备运营管理、面源污染治理等短板问题，召开不同层面的协商会议，研究解决问题的办法，相关建议被部门积极采纳并转化为具体措施，形成的调研报告得到自治区政协充分肯定。', '致力推动民生问题解决。先后围绕养老服务体系建设、传染病防控体系建设、食品安全监管、殡仪馆管理等涉及群众切身利益的实际问题开展调研并提出建议。着眼农业社会化服务体系建设，深入农业农村新型经营主体开展调研，提出了加大政策法规支持力度、创新农业科技服务、大力发展现代农业、优化农业农村金融环境、提高农业信息化服务水平等建议。围绕农村人居环境整治工作，重点对加强规划统筹、基础设施建设、村容村貌提升等方面，组织委员开展对口协商，为推动乡村振兴战略实施发挥了重要作用。', '不断强化社情民意工作。加大社情民意信息的征集，畅通社情民意信息直通渠道，组织委员聚焦教育、医疗、文化、就业等民生热点问题建言献策。认真分析整理事关人民群众切身利益、有利全市改革发展的意见建议。全年共反映社情民意信息54件，其中《关于进一步加强“挂证”乱象治理的建议》被自治区政协以《建言》专刊上报全国政协。市政协反映社情民意信息工作连续多年位居五市政协前列。', '（四）着力健全完善创新载体，切实增强履职工作实效。常委会坚持把改革创新作为推动政协工作的重要动力，树立质量导向，推动履职工作更加富有成效。', '健全民主监督工作机制。综合运用会议监督、视察监督、专项监督等监督形式，深入开展民主监督工作，进一步完善民主评议部门工作机制，努力推动部门工作和作风转变。不断丰富特约监督“136”工作模式，注重10个民主监督小组作用发挥，切实增强特约监督工作的针对性和实效性，全年共形成监督意见书38份，市政协特约民主监督工作经验在全区政协工作经验交流会上进行了交流。', '切实提升协商议政实效。及时邀请党政领导出席政协专题协商会议，完善各类协商会议发言遴选机制，深入开展专题协商、对口协商、界别协商、提案办理协商，使协商议政的过程真正成为交换看法、汇聚众智、精准建言的过程，成为宣传政策、统一思想、凝聚共识的过程。稳步拓展网上委员履职服务，先后围绕创建全国文明城市和入黄排水沟综合整治开展了网络协商议政，积极推进“互联网+政协”工作。', '有效推动提案工作创新。采取“1＋N”捆绑督办方式，对12件重点提案和13件同类别提案进行督办。深入开展“双评双促一提升”活动，探索开展提案“清单式”管理，市政协五届三次会议立案的258件提案，已全部办复。市政协提案办理工作经验在全区政协委员培训班上作了专题交流，重点提案督办工作被《人民政协报》进行了报道。', '（五）着力加强团结联谊工作，广泛凝聚各方智慧力量。常委会坚持把加强思想政治引领、广泛凝聚共识作为履职工作的中心环节，以协商建言凝聚更大共识，以凝聚共识更好服务中心工作，努力寻求最大公约数，画出最大同心圆。', '加强与党派团体的合作共事。坚持在共同思想政治基础上的一致性与多样性的统一，主动邀请各党派团体和无党派人士参加政协调研视察、民主监督及有关会议活动，政协专委会同各民主党派共同承办协商议政活动、开展联合调研，为各党派团体和无党派人士在政协更好发挥作用创造条件。全年共邀请各民主党派参加专题协商活动23次，征集大会发言25篇，提案72件，党派团体在政协平台上的活力进一步增强。', '全力促进全市民族团结进步。聚焦巩固提升“全国民族团结进步创建活动示范市”经验成果，就推进“三个十”创建行动积极建言献策。加强少数民族界、宗教界委员沟通联系，组织委员参加全国政协来宁宣讲报告会，牢固树立“三个离不开”思想、切实增强“五个认同”意识，积极发动委员助力“三化”治理工作，努力促进民族团结、宗教和顺。', '不断深化文史和联络联谊工作。编辑完成第七辑文史资料《难忘记忆》。组织委员视察红色文化遗址保护情况，积极与文物保护部门进行协商。加强与区内外政协的联络联谊，先后配合全国政协、自治区政协来吴开展调研视察活动22次，接待外省市政协来吴考察学习25次。加大对县（市、区）政协工作指导力度，统筹安排县（市、区）政协参加学习培训、联合调研，形成了上下联动、互学互鉴的良好局面。', '（六）着力加强政协自身建设，全面夯实履职工作基础。常委会始终把加强自身建设作为重要的基础性工作来抓，着力在打基础、利长远上下功夫，使政协工作更符合发展要求、更具时代特色。', '委员履职活力不断增强。尊重委员主体地位，强化委员责任意识，重视发挥中共党员委员和常委会组成人员的示范带头作用。丰富完善委员学习培训制度，深入开展“四联系”“五个一”活动，建立委员列席常委会会议机制。认真落实委员考核管理、常委述职等制度，按照“懂政协、会协商、善议政，守纪律、讲规矩、重品行”要求，引导全体委员做好“委员作业”。', '专委会作用进一步发挥。优化专委会设置，增设农业和农村委员会。加强对专委会工作的研究，不断探索做好专委会工作的新途径、新方法。健全完善专委会工作机制，加强专委会与党政部门经常性联系，强化专委会之间的工作联动，通过组织专委会干部外出考察学习、参加专题培训等形式，各专委会对口协商的能力进一步增强。', '机关服务水平全面提升。坚持把全面从严治党贯穿机关各项工作之中，认真落实党风廉政主体责任和领导干部“一岗双责”制度，扎实推进机关党建“三强九严”工程，全面加强机关思想、组织、作风建设，努力建设学习型、服务型、创新型党组织，着力营造政治坚定、团结务实、勤奋敬业、勇于创新的良好氛围。认真落实定点帮扶贫困村和机关干部结对帮扶贫困户等工作，市政协机关被评为全区驻村帮扶工作先进单位。加强机关干部队伍建设，坚持挺纪在前、严格管理，机关工作活力不断增强，有力推进了各项工作的顺利开展。', '各位委员，常委会过去一年取得的成绩，是中共吴忠市委坚强领导的结果，是市人大、市政府和社会各界大力支持帮助的结果，是政协各参加单位、广大政协委员团结协作、共同奋斗的结果。在此，我代表政协吴忠市第五届委员会常务委员会，向所有关心、支持、参与政协工作的各级领导、各党派团体和各族各界人士，致以崇高的敬意和衷心的感谢！', '在肯定成绩的同时，我们也清醒认识到，我们工作还存在许多不足，主要是发挥专门协商机构作用的机制还不够完善，建言资政和凝聚共识双向发力的力度还不够大，推动政协工作提质增效的举措还不够多，创新界别工作的载体还不够丰富等等。对这些问题，我们要高度重视，切实加以解决。', '2020年是全面建成小康社会和“十三五”规划收官之年。市政协工作的总体要求是：以习近平新时代中国特色社会主义思想为指导，全面贯彻落实中共十九届四中全会精神和习近平总书记视察宁夏时的重要讲话精神，深入贯彻落实中央和自治区党委政协工作会议精神，不忘初心、牢记使命，把坚持和发展中国特色社会主义作为巩固共同思想政治基础的主轴，把服务实现“两个一百年”奋斗目标作为工作主线，把加强思想政治引领、广泛凝聚共识作为中心环节，紧紧围绕市委五届十次全会提出的始终抓住“三个着力”重点，坚决打赢三大攻坚战，深入实施三大战略，守好三条生命线，做好调、转、增、融“四篇文章”，走出一条高质量发展的新路子，充分发挥专门协商机构作用，加快政协履职平台创新、方式方法创新，推动政协工作提质增效，努力为确保与全国全区同步全面建成小康社会，建设经济繁荣民族团结环境优美人民富裕的美丽新宁夏作出政协应有的贡献。', '（一）贯彻落实党对政协工作的新要求，在巩固共同思想政治基础上取得更大成效。始终把习近平新时代中国特色社会主义思想作为统揽政协各项工作的总纲，坚持党对政协工作的全面领导，充分发挥政协党组把方向、管大局、保落实的领导作用，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”，教育引导广大委员和各族各界人士进一步增进对中国共产党和中国特色社会主义的政治认同、思想认同、理论认同、情感认同，着力夯实团结奋斗的共同思想政治基础。深入学习贯彻中共十九届四中全会精神和习近平总书记关于加强和改进人民政协工作的重要思想，贯彻落实中央和自治区党委政协工作会议精神，努力探索把人民政协制度优势转化为国家治理效能的方法举措。健全完善以党组理论学习中心组学习为引领的学习制度体系，深入开展具有政协特色的学习研讨，找准新方位、践行新使命，始终在政治立场、政治方向、政治原则、政治道路上同以习近平同志为核心的党中央保持高度一致。', '（二）聚焦全面建成小康社会，在推动高质量发展上作出更大贡献。按照自治区党委十二届八次、九次全会和市委五届十次全会的战略部署，紧紧抓住关系吴忠改革发展的重点问题，深入开展协商议政活动。着眼推动全市高质量发展，紧扣调整经济结构、转变发展方式、增强发展动能、推进区域城乡融合发展，围绕实施创新驱动、推进绿色发展、提升传统产业等重大部署，重点对民营企业高质量发展、健康吴忠建设进行专题协商议政，努力提出符合实情、反映民意、有助决策的对策建议，助推市委各项工作部署落地见效。聚焦实现全面建成小康社会，组织委员重点对县域治理法治环境建设、黄河吴忠段生态环保、民族团结进步创建、基层社会治理、农村电商发展等开展专题协商，集中优势智力资源，提出切实可行的意见建议。', '（三）深入践行履职为民理念，在维护社会和谐稳定上实现更大作为。坚持把不断满足人民对美好生活的需要、促进民生改善作为重要着力点，密切关注改革发展中出现的深层次矛盾，高度重视转型升级过程中出现的新情况新问题，抓住群众最关心最现实的利益问题，扎实有效地推进政协工作。要重点对脱贫攻坚成果巩固提升、房地产业健康发展、老旧小区改造进行协商建言，积极协助市委、市政府破解难题、化解矛盾，促进社会和谐。要紧紧围绕与群众生产生活密切相关且社会关注度高的教育、医疗、就业、养老、交通出行、文化生活等民生问题，开展“系列民生”履职活动，组织委员通过提交提案、开展专题视察、撰写社情民意信息等，如实准确地反映群众的诉求和愿望，努力促进更多的惠民举措落实落地，使广大群众的获得感、幸福感、安全感更加充实、更有保障、更可持续。', '（四）更好发挥专门协商机构作用，在政协工作提质增效上迈出更大步伐。坚持把协商民主作为主业，贯穿履职全过程，规范协商议题提出程序，完善政协全体会议、常委会会议、专题协商会议协商机制，更加灵活更为经常地开展对口协商、界别协商、提案办理协商。探索网络议政、远程协商，鼓励委员通过“履职通”平台，提出微建议、开展微协商、实施微监督。规范协商会议的方式程序，探索建立党政有关部门在政协听取相关界别委员意见建议的机制，积极搭建“有事好商量专题协商会”等新的协商平台。加强和改进民主监督工作，充分发挥10个特约监督小组作用，选择党政重视、群众关注的热点问题开展专项民主监督。深入开展提案工作“清单式”管理和“回头看”活动，扎实推进“双评双促一提升”工作，着力提高提案办理质量。坚持不学习就不调研、不调研就不协商，加强调研工作组织领导，增强调研工作的实效。', '（五）更加注重团结联谊各项工作，在广泛凝聚各方共识上发挥更大作用。健全政协工作中发挥新型政党制度优势的机制，对各民主党派以本党派名义在协商议政活动中发表意见、提出建议等作出机制性安排，建立民主党派和无党派人士在政协开展经常性工作的机制，完善情况通报、座谈交流、联合调研等制度，通过政协自身的有效运行和民主程序，切实把党的主张转化为社会各界的共识，使人民政协更好地成为坚持和加强党对各项工作领导的重要阵地。坚持以习近平新时代中国特色社会主义思想学习研讨会和学习座谈会为主要载体，探索开展经常性、制度性的学习讨论和思想政治引领，引导各族各界人士在事关道路、制度、旗帜、方向等根本问题上统一思想和步调，使人民政协成为用党的创新理论团结教育引导各族各界代表人士的重要平台。坚持把凝聚共识融入视察考察、调查研究、协商议政活动中，广泛开展谈心谈话、走访看望委员活动，建立界别委员工作室、委员大讲堂和委员工作驿站等制度，协助市委、市政府做好协调关系、理顺情绪、化解矛盾的工作，使人民政协成为在共同思想政治基础上化解矛盾和凝聚共识的重要渠道。', '（六）健全完善履职工作机制，在加强政协自身建设上取得更大突破。按照全国政协“四个第一线”要求，进一步严起来、紧起来、动起来。不断巩固“不忘初心、牢记使命”主题教育成果，推进“两学一做”学习教育常态化制度化。坚持突出政协特色抓党建，扎实推进功能型党支部工作，努力以党建工作的成效推进政协工作的高质量发展。加强委员队伍建设，畅通委员外出学习培训渠道，完善委员服务管理和激励约束机制，落实好“五个一”和“四联系”制度，不断激发委员主体意识。健全完善专委会工作制度，探索新思路新方法，更好地发挥基础性作用。加强政协机关规范管理，持之以恒抓正风肃纪，抓作风转变，不断提升机关干部队伍整体素质，努力打造高效务实、廉洁勤政、团结和谐的机关。加强对县（市、区）政协的指导，完善联合开展履职活动的方式方法，不断提高全市政协系统的整体合力。', '各位委员，新方位赋予新使命，新时代期待新作为。让我们更加紧密地团结在以习近平同志为核心的中共中央周围，在中共吴忠市委的坚强领导下，不忘初心、牢记使命，干在实处、走在前列，为确保与全国全区同步全面建成小康社会，确保“十三五”规划圆满收官，为建设美丽新宁夏、共圆伟大中国梦作出新的更大贡献！']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>291</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>吴忠市教育局关于印发吴忠市教育局年工作要点的通知</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202103/t20210315_2627393.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['是实施“十四五”规划的开局之年，也是开启全面建设社会主义现代化国家新征程的关键之年', '奋力建设现代化美丽新吴忠，确保“十四五”实现良好开局做出教育贡献，以优异成绩庆祝建党', '把学习贯彻习近平新时代中国特色社会主义思想和习近平总书记视察宁夏重要讲话精神作为首要政治任务，做到', '推进“‘三进’精品课”建设，打造“一校一品牌、一班一特色、一课一精品”，培育一批习近平新时代中国特色社会主义思想“三进”品牌项目和创新课例。', '党组织“对标争先”建设，着力打造一批市级党建示范学校（幼儿园）、样板党支部，扩大先进支部增量、提升中间支部水平、促进后进支部转化。', '建设，着力打造一批市级党建示范学校（幼儿园）、样板党支部，扩大先进支部增量、提升中间支部水平、促进后进支部转化。', '落实党组织书记与派驻纪检监察组组长（书记）定期沟通制度，支持纪检监察组全程参与监督、履行职责，', '将意识形态工作作为各级党组织民主（组织）生活会、效能考核和述职报告的重要内容，全面落实维护校园稳定和政治安全各项工作机制，紧盯重大时间节点、敏感领域，定期排查研判，做好舆论引导。切实筑牢教学、网络、宣传三大阵地，坚决管严课堂、管好教师，把好论坛、讲座、社团等政治审核关。突出抓好教材管理和使用，健全审查备案制度，严把教材和教学用书选用关，用好、教好、学好三科统编教材。广泛开展马克思主义民族观、宗教观、历史观、文化观大学习、大培训和民族团结教育大宣讲活动，', '围绕迎接和庆祝建党100周年，在教育系统开展全覆盖、全方位的党史、新中国史、改革开放史和社会主义发展史宣传教育活动，营造浓厚热烈的氛围。结合', '周年，在教育系统开展全覆盖、全方位的党史、新中国史、改革开放史和社会主义发展史宣传教育活动，营造浓厚热烈的氛围。结合', '广泛开展“永远跟党走”红色主题教育实践活动、“向党送祝福，感恩新时代”党史学习教育、“让有信仰的人讲信仰”学习宣讲以及“党在我心中——感念党恩情系教育”书记论坛和课题研讨等活动。', '继续巩固校风校纪深度治理成果，加强青少年法制教育、文明礼仪教育和中小学生日常行为规范养成教育', '切实发挥好教材培根铸魂、启智增慧作用，用好义务教育和普通高中三科统编教材，坚决杜绝随意删减课程、增减课时的现象发生。扎实推进创新素养教育，着力在培养学生创新人格、创新思维、创新方法上总结经验、形成特色，坚决纠正题海战术、超纲教学、重灌输轻实践等做法', '的引领作用，广泛开展主题鲜明、内容丰富、形式多样的教学教研活动，深入开展示范课、公开课、听评课等活动。', '开齐开足开好体育课，完善“健康知识+基本运动技能+专项运动技能体育”的教学模式，强化学校体育教学训练，保障学生校内校外一小时体育活动。注重发展特色体育项目，形成“一校一品”“一校多品”的特色，常态化开展校内比赛、校级联赛、选拔性竞赛', '的教学模式，强化学校体育教学训练，保障学生校内校外一小时体育活动。注重发展特色体育项目，形成', '实施学校美育教师配备和场地器材建设三年行动计划，确保音乐、美术、书法等课程教学有效落实。', '学校结合地方文化设立艺术特色课程，广泛开展班级、年级、校级等群体性展示交流，组织开展戏曲进校园等艺', '度关注长期厌学学生、恋网学生、特殊家庭学生、心理障碍学生等特殊群体的思想动态，妥善做好思想教育和引导工作。按照标准加强学校心理健康咨询室建设和专兼职心理健康', '，发展壮大家庭教育指导师、讲师、志愿者队伍。加大家校共育工作效能考核力度，纳入办学水平督导评估内容。加快提升家长学校建设品质，评选挂牌一批全市示范家长学校。', '聚焦我市重点产业和重点基础设施建设工程，通过“市内抱团发展、市外牵手合作”等形式，组建一批服务枸杞、葡萄酒、牛奶养殖、养老等产业的职教集团，重点建设一批优质特色专业（群）。实施好职业院校“五提升工程”和“双高”“双优”建设计划，加快推进现代学徒制、“1+X”证书制度试点和教材教法教学改革。持续深化产教融合、校企合作，推进职业院校与企业共建教师培养基地，引导企业参与职业院校职业规划、课程设置、课程开发、技术研发，壮大职业教育“双师型”教师队伍。对我市职业院校学前教育、护理、会计等同质化问题突出的专业开展质量评估。继续办好职业院校技能大赛和职业教育活动周。做好职业院校招生工作。', '等形式，组建一批服务枸杞、葡萄酒、牛奶养殖、养老等产业的职教集团，重点建设一批优质特色专业（群）。实施好职业院校', '证书制度试点和教材教法教学改革。持续深化产教融合、校企合作，推进职业院校与企业共建教师培养基地，引导企业参与职业院校职业规划、课程设置、课程开发、技术研发，壮大职业教育', '教师队伍。对我市职业院校学前教育、护理、会计等同质化问题突出的专业开展质量评估。继续办好职业院校技能大赛和职业教育活动周。做好职业院校招生工作。', '健全社区教育县（市、区）、乡镇（街道）、村（社区）三级办学网络，开展多种形式的社区教育和老年教育，加快推进学习型城市建设。充分利用各类教育资源，举办内容多样、形式丰富的学习活动，推动全民终身学习取得明显成效。', '把师德师风建设贯穿到教师培养、招聘、管理全过程，严格教师入口关的思想政治和师德考察，健全新入职教师准入制度，从源头上阻断“害群之马”进入教育系统。严格执行新时代教师职业行为十项准则，', '把师德师风建设贯穿到教师培养、招聘、管理全过程，严格教师入口关的思想政治和师德考察，健全新入职教师准入制度，从源头上阻断', '完善师德考核办法，明确师德红线，在年度考核、评优奖励、职称晋升、岗位竞聘等方面实行“一票否决”', '完善师德考核办法，明确师德红线，在年度考核、评优奖励、职称晋升、岗位竞聘等方面实行', '开展全市教师队伍现状大调研，制定各层级教师精准培训计划。实施教师政治能力、专业素养提升“两大工程”，加强源头培养、跟踪培养', '开展全市教师队伍现状大调研，制定各层级教师精准培训计划。实施教师政治能力、专业素养提升', '加大非师范专业青年教师教学基本功培训力度。定期开展优质课评选、教学基本功比赛和观摩展示活动。结合新高考', '教师轮岗交流力度，促进师资均衡配置。加强思政课教师队伍建设，多措并举配齐配强思政课教研员。实施人才培养工程，建立健全骨干教师、学科带头人、青年优秀教师等人才库。落实教师工资待遇保障机制，修订完善绩效考核指导意见，切实保障教师工资和特岗教师“五险一金”及时足额落实到位。加强乡村教师队伍建设，落实乡村教师生活补助政策。严格落实教师减负“10项措施”及督查检查评比考核和社会事务进校园事项“两个清单”，健全审批报备和审核备案制度，凡未列入清单的严禁进入校园，让教师安心教书、潜心育人。', '教师轮岗交流力度，促进师资均衡配置。加强思政课教师队伍建设，多措并举配齐配强思政课教研员。实施人才培养工程，建立健全骨干教师、学科带头人、青年优秀教师等人才库。落实教师工资待遇保障机制，修订完善绩效考核指导意见，切实保障教师工资和特岗教师', '及时足额落实到位。加强乡村教师队伍建设，落实乡村教师生活补助政策。严格落实教师减负', '，健全审批报备和审核备案制度，凡未列入清单的严禁进入校园，让教师安心教书、潜心育人。', '突出立德树人成效根本评价标准，坚决克服重智育轻德育、重分数轻素质等片面办学行为；教师', '按照不同学段的学生身心发展规律进行客观性评价，促进德智体美劳全面发展。对标教育评价改革《总体方案》的负面清单27条内容，', '按照不同学段的学生身心发展规律进行客观性评价，促进德智体美劳全面发展。对标教育评价改革《总体方案》的负面清单', '2021年全区中考要求，做好英语口语测试、信息技术考试、体育与健康考试、理化生实验操作考试、地理考试、生物考试等科目的备考工作，运用好综合素质评价结果', '年全区中考要求，做好英语口语测试、信息技术考试、体育与健康考试、理化生实验操作考试、地理考试、生物考试等科目的备考工作，运用好综合素质评价结果', '认真落实《关于深化新时代教育督导体制机制改革的实施意见》，健全教育督导机构，配齐配强各级督学，认真履行教育督导职责。扎实开展各级政府履行教育职责评价、', '。进一步提升政务服务能力，加强信用体系建设，落实权责清单动态调整及事中事后监管，推进互联网+监管、“双随机、一公开”抽查等工作。推进“一网通办”“一证通办”“一件事”集成办理。', '。进一步提升政务服务能力，加强信用体系建设，落实权责清单动态调整及事中事后监管，推进互联网', '健全语言文字管理机构和工作队伍。积极开展语言文字工作达标县创建工作。深入实施中华经典诵读工程，办好中华经典诵读大赛、中国诗词大会、推广普通话宣传周等活动，培育', '，组织优质学校、优秀教师在宁夏教育云平台开通名校、名师网络课堂，开展在线教学和课后辅导活动，使优质教育资源在更大范围内共享。深化教师智能助手创新应用和教师治理大数据应用，为教师实现高效教学、精准教学和管理提供科学支撑。聘请高端专家建立工作坊，指导“互联网', '，组织优质学校、优秀教师在宁夏教育云平台开通名校、名师网络课堂，开展在线教学和课后辅导活动，使优质教育资源在更大范围内共享。深化教师智能助手创新应用和教师治理大数据应用，为教师实现高效教学、精准教学和管理提供科学支撑。聘请高端专家建立工作坊，指导', '适时召开全市中小学校园治理现场会，对进展缓慢、成效不明显的教育行政部门和学校进行通报。', '健全学校民主管理制度，完善法律顾问制度，充分发挥法治副校长作用，妥善处理校园矛盾纠纷。结合“八五”普法安排，做好《教育法》《教师法》等教育法律法规的培训工作，尤其加大对《中小学教育惩戒', '健全学校民主管理制度，完善法律顾问制度，充分发挥法治副校长作用，妥善处理校园矛盾纠纷。结合', '普法安排，做好《教育法》《教师法》等教育法律法规的培训工作，尤其加大对《中小学教育惩戒', '2021年底前，城镇幼儿园封闭化管理达到100%，乡村幼儿园一键式报警、视频监控系统达标率达到100%', '消防、食品卫生、防溺水、预防校园欺凌等工作，加强危化品、实验室安全防控、暴恐音视频等督导检查，', '认真贯彻落实“外防输入、内防感染、严防扩散”要求，科学做好疫情防控工作。强化医教协同机制，落实结对医疗机构为学校选派卫生健康指导员制度，健全校园疾病预防控制体系，完善校园公共卫生突发事件应急预案，加强师生健康监测，对出现疑似症状坚持早发现、早报告、早隔离、早治疗，坚决把疫情挡在校门之外。深入开展爱国卫生运动', '要求，科学做好疫情防控工作。强化医教协同机制，落实结对医疗机构为学校选派卫生健康指导员制度，健全校园疾病预防控制体系，完善校园公共卫生突发事件应急预案，加强师生健康监测，对出现疑似症状坚持早发现、早报告、早隔离、早治疗，坚决把疫情挡在校门之外。深入开展爱国卫生运动', '，加强健康教育和生命教育，引导未成年人增强讲文明、讲卫生、防疾病的意识，养成文明行为习惯和生活方式。以最高标准和最严举措守住考场疫情和考试安全两道防线，确保高考、中考、会考等各类考试有序进行。', '。健全完善控辍保学长效机制，严防失学辍学问题反弹。依法保障进城务工人员和移民地随迁子女平等接受义务教育，加强农村留守儿童、残疾儿童、学困儿童教育关爱。完善家庭经济困难学生资助政策体系，确保应助尽助。', '加大对学校乱收费、违规征订教辅资料、教师与培训机构沆瀣一气谋取利益等问题的查处力度，发现一起、曝光一起、处理一起。', '。进一步精简会议和文件数量，完成基层减负年度目标。强化过“紧日子”思想，加强“三公”经费支出管理，深化节约型机关建设。用心用情']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>291</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>年度中国人民政治协商会议吴忠市委员会部门决算</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2022-10-09</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2021n_48265/202210/t20221009_3803256.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['一是对地方的大政方针以及政治、经济、文化和社会生活中的重要问题在决策之前进行协商和就决策执行过程中的重要问题进行协商;二是对国家宪法、法律和法规的实施,重大方针政策的贯彻执行、地方各级党政机关及其工作人员的工作,通过建议和批评进行监督;三是对我市政治、经济、文化和社会生活中的重要问题以及人民群众普遍关心的问题,开展调查研究,反映社情民意,进行协商讨论。通过调研报告、提案、建议案或其他形式,向地方党委、政府提出意见和建议。', '市政协共设机构8个(1个办公室和7个专门委员会)。其中,办公室设内设机构5个(秘书科、文档科、总务科、委员联络办公室、信息中心),专门委员会下设综合一二三四共4个办事机构。', '市政协现有在职人员50名(其中行政人员40人,机关工勤及事业人员8人,可控编1名,复转军人编制1名)。退休人员66人。', '一、收入支出决算总表(本表反映部门本年度的总收支和年末结余结转情况,数据取自财决01表)', '四、财政拨款收入支出决算总表(本表反映部门本年度一般公共预算财政拨款、政府性基金预算财政拨款和国有资本经营预算财政拨款的总收支和年末结余结转情况,数据取自财决01-1表)', '五、一般公共预算财政拨款支出决算表(本表反映部门本年度一般公共预算财政拨款实际支出情况,数据取自财决07表)', '六、一般公共预算财政拨款基本支出决算表(本表反映部门本年度一般公共预算财政拨款基本支出明细情况,数据取自财决08-1表)', '七、一般公共预算财政拨款“三公”经费支出决算表(2021年度预算数为“三公”经费全年预算数,反映按规定程序调整后的预算数;决算数是包括当年一般公共预算财政拨款和以前年度结转结余资金安排的实际支出,决算数据取自F03表)', '八、政府性基金预算财政拨款收入支出决算表(本表反映部门本年度政府性基金预算财政拨款收入支出及结转结余情况,数据取自财决09表)', '九、国有资本经营预算财政拨款支出决算表(本表反映部门本年度国有资本预算财政拨款支出情况,数据取自财决11表)', '2021年度“三公”经费一般公共预算财政拨款支出决算数比2020年度增加1010.12元,增长44.72%,其中:因公出国(境)费支出决算减少(增加)0元,下降(增长)0%;公务用车购置及运行费支出决算减少(增加)0元,下降(增长)0%;公务接待费支出决算增加1010.12元,增长44.72%;因公出国(境)费支出减少(增加)的主要原因是未发生因公出国(境)事项;公务用车购置及运行费支出减少的主要原因是我单位已车改,未保留公车,无费用发生;公务接待费支出增加的主要原因是外省市政协来吴学习考察组人员有所增加。', '(二)“三公”经费一般公共预算财政拨款支出决算具体情况说明。2021年度“三公”经费一般公共预算财政拨款支出决算中,因公出国(境)费支出决算0元,占0%;公务用车购置及运行费支出决0元,占0%;公务接待费支出决算3269.12元,占100%。具体情况如下:', '2.公务用车购置及运行维护费预算为0元,支出决算为0元,完成预算的100%。其中:公务用车购置费支出为0元,公务用车运行维护费支出0元。2021年度一般公共预算财政拨款开支的公务用车购置数0辆,公务用车保有量为0辆。', '2021年度政府性基金预算财政拨款本年收入0元,本年支出0元,年末结转和结余0元。较2020年度决算数增加0元,增长0%,主要原因是:为全额预算拨款单位,无政府性基金预算财政拨款收入。', '2021年度国有资本经营预算财政拨款本年收入0元,支出0元,年末结转和结余0元。较2020年度决算数增加0元,增长0%,主要原因是:无国有资本经营项目。', '1.绩效管理工作开展情况。根据预算绩效管理要求,本单位组织对2020年度一般公共预算项目支出全面开展绩效自评。共有项目6个,涉及资金1602500.30元,占一般公共预算项目支出总额的86.91%。政府性基金预算项目0个,涉及资金0万元,占政府性基金项目支出总额的0%。', '2.项目绩效自评结果。组织对学习考察费开展了重点绩效评价,学习考察费项目绩效自评得分为99分。项目全年预算数为250000元,执行数为250000元,完成预算的100%。主要产出和效果:一是确保市政协调研组外出学习借鉴外地经验、领导参与外出招商引资、重点项目督查等工作产生的经费保障;二是确保市政协委员学习培训工作顺利开展。从评价情况来看,主要是举办全市政协委员履职培训班,通过培训达到提高政协委员履职能力的目的。发现的问题及原因:政协委员来自各行各业,需要进一步加强学习政协理论,提升履职能力,培训还没能覆盖所有委员。下一步改进措施:合理安排培训,争取所有委员都参加轮训,进一步提高委员履职能力,提高委员参政议政水平。', '2、财政拨款收入:是指单位本年度从本级财政部门取得的财政拨款,包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、其他收入:是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '6、项目支出:是指单位为完成特定的行政工作任务或事业发展目标,在基本支出之外发生的各项支出。', '7、人员经费:是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '9、“三公”经费:纳入中央财政预决算管理的“三公”经费,是指中央部门用财政拨款安排的因公出国(境)费、公务用车购置及运行费和公务接待费。其中,因公出国(境)费反映单位公务出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出;公务接待费反映单位按规定开支的各类公务接待(含外宾接待)支出。', '10、机关运行经费:是指为保障行政单位(包括实行公务员管理的事业单位)运行用于购买货物和服务的各项资金,包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>291</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>吴忠市政府大事记年月</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019-09-25</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/201909/t20190925_1754263.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['日，吴忠市市长喜清江率队到银川市学习考察，双方深化交流、共商加快银川都市圈发展大计。利通区政府、青铜峡市政府和市发改委、工信局等部门负责同志及塞外香、吴忠城投等企业负责人参加考察。', '日，吴忠市委书记沈左权主持召开五届市委2019年第22次常委会会议。会议传达学习了《中国共产党宣传工作条例》《自治区党委办公厅印发&lt;关于加强党的政治建设的具体措施&gt;的通知》精神、自治区党委十二届七次全会精神、中央扫黑除恶第20督导组督导宁夏情况反馈会精神。会议还传达学习了全国、全区禁毒工作会议精神，听取了全市禁毒工作情况汇报。', '△ 吴忠市市长喜清江主持召开市政府第40次常务会议，传达学习全国、全区安全生产工作电视电话会议和《生产安全事故应急条例》《防范和惩治统计造假、弄虚作假督察工作规定》精神，听取全市上半年安全生产工作情况汇报，审定《2019年上半年国民经济和社会发展计划执行情况报告》等，研究部署了有关工作。', '△ 吴忠市文明办、市直机关工委和市红十字会联合开展“弘扬人道主义精神强化党员奉献意识”主题党日活动。市直机关工委等23个党支部，210 名党支部书记、党务干部和党员参加了活动。', '日，由中国皮革协会主办，中国皮革协会毛皮专业委员会、中国皮革协会毛皮经济动物养殖专业委员会、宁夏毛皮皮革协会承办的第九届全国毛皮产业联席会暨中国皮革协会毛皮专业委员会和毛皮经济动物养殖专业委员会2019年年会在吴忠市召开。', '日，吴忠市委书记沈左权调研督查国务院安委会危化专项巡查反馈问题整改情况。沈左权强调要进一步强化政治担当，从全局角度看待安全生产工作，以扎实作风和过硬担当抓牢抓实安全隐患排查整治，压紧压实企业主体责任，严格落实部门监管责任，坚决做好反馈问题整改，夯实高质量发展的安全基础。', '7日，吴忠市委书记沈左权调研农村集体产权制度改革推进情况。沈左权强调要始终坚持党建引领，抓住重点关键环节，不断深化农村集体产权制度改革，发展壮大农村集体经济，为全面推进乡村振兴打牢根基。', '8日，吴忠市委书记沈左权调研督办自治区党委巡视组巡视反馈问题整改情况。沈左权强调要切实增强巡视整改的政治自觉、思想自觉和行动自觉，全面对照巡视整改要求，坚持真改实改，压实责任、强化措施，确保巡视反馈问题整改到位。', '△ 2019全国优质石膏应用与发展高峰论坛在盐池县开幕，国内外知名专家、学者以及著名企业家，分别围绕天然石膏建材的高质量发展、天然石膏的开发和应用、发达国家石膏产品的技术应用等方面进行交流研讨，为石膏产业发展献计献策。', '△ 吴忠市创建全国文明城市电视问政（第一期）节目在市文化艺术馆演播大厅开问。利通区、红寺堡区、市城市管理局、市交通运输局、市市场监督管理局、市公安局交通管理局、市道路运输管理局相关负责人通过“问政短片+现场提问”的形式，现场接受群众代表问询。', '△ 吴忠市举办“壮丽七十年·奋斗新时代”吴忠市新闻媒体“好记者讲好故事”主题演讲比赛。', '以“创新驱动·青年争先”为主题的“创青春”吴忠青年创新创业大赛决赛在市区开源广场举行。', '日，吴忠市委书记沈左权主持召开五届市委2019年第23次常委会会议。会议听取自治区党委第一巡视组关于巡视吴忠市反馈意见整改落实工作进展情况汇报，做出了整改要求。会议传达学习了《自治区&lt;关于开展“对群众关心的利益问题漠然处之，空头承诺，推诿扯皮，以及办事不公、侵害群众利益问题”专项整治实施方案&gt;的通知》精神、自治区民族团结进步创建互观互检活动、全区新的社会阶层人士统战工作现场观摩暨实践创新基地建设推进会精神，研究贯彻意见。会议还研究了《吴忠市城市黑臭水体治理两年攻坚行动计划（送审稿）》，要求各责任单位对照任务分工，进一步强化措施，严格落实责任，逐项抓好落实。确保2020年底全面达到创建黑臭水体治理示范城市目标要求。', '11日，2019第五届沿长城中国·盐池国际自行车邀请赛暨环宁夏自行车联赛在盐池县落幕，来自美国、俄罗斯等7个国家11名国际友人、72 个省市的105个俱乐部近1800名运动员参加了全民健身骑游、山地越野、城区团体、城市公路绕圈赛4个项目的比赛。', '日，吴忠市委书记沈左权暗访督查中央环保督察反馈问题整改情况。沈左权强调，要深入贯彻落实习近平生态文明思想，牢固树立绿水青山就是金山银山的理念，始终坚持问题导向，担当作为、压实责任，全力以赴将中央环保督察反馈及群众反映强烈突出的环保问题整改到位。', '△ 2019年全国青少年航空航天模型锦标赛暨红寺堡区第六届航空文化旅游节在红寺堡区罗山飞行基地举行。', '日，吴忠市委书记沈左权，市长喜清江会见伊利集团董事长兼总裁潘刚一行，双方就深化务实合作、联手推动奶产业健康发展进行了座谈。', '日，银川都市圈媒体联盟签约仪式举行，银川市新闻传媒集团与石嘴山市新闻传媒集团、吴忠市新闻传媒集团联合成立银川都市圈媒体联盟，以“互联融通、共享共赢”为主旨，加强媒体在内容、技术、人才、运营方面的深度合作，为银川都市圈建设营造良好的舆论氛围。', '日，吴忠市代表队在自治区党委宣传部、宁夏军区政治工作局、自治区国防教育办公室联合举办的“庆祝新中国成立70 周年·国防知识竞答”电视大赛中获得二等奖和优秀组织奖。', '21日，自治区政协副主席李泽峰带领调研组对吴忠市奶产业发展情况进行调研。吴忠市政协主席孙瑛陪同调研。', '22日，吴忠市市长喜清江主持召开市政府第41次常务会议。会议传达学习《法治政府建设与责任落实督察工作规定》精神，听取全市扫黑除恶专项斗争工作、全面建成小康社会指标完成情况汇报，审定《关于加快补齐全面建成小康社会短板的具体措施》等，研究部署了有关工作。', '△ 吴忠市人民政府与宁东能源化工基地管委会推进银川都市圈建设合作事项备忘录签订仪式在太阳山开发区举行。吴忠市市长喜清江，宁东能源化工基地党工委常务副书记、管委会副主任陶少华等领导出席签约仪式。', '传达学习了全国深化“放管服”改革优化营商环境电视电话会议精神，听取全市优化营商环境工作情况汇报。研究了《吴忠市推进乡村振兴专项工作方案（送审稿）》《关于加快补齐全面建成小康社会短板的具体措施（送审稿）》以及吴忠市人大常委会党组《吴忠市文明行为促进条例（草案）》等事宜。', '△ 吴忠市委书记、吴忠军分区党委第一书记沈左权主持召开市委2019年议军会议，强调要坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平强军思想，全面落实党管武装工作各项制度，扎实推进军民融合深入发展，持续巩固发展军政军民团结的大好局面。', '26日，吴忠市委书记沈左权在金积工业园区、青铜峡市调研自治区党委巡视反馈问题整改情况时强调，要坚持问题导向，精准发力，下功夫把处置“僵尸企业”工作落到实处，引导“僵尸企业”走多渠道破产重组盘活之路，进一步盘活“僵尸企业”，推动全市经济高质量发展。', '28日，吴忠市委书记沈左权调研新时代文明实践让党的宣传思想工作在基层实起来强起来中心建设运行工作。沈左权强调，建设新时代文明实践中心，是深入宣传习近平新时代中国特色社会主义思想的重要载体，是党中央宣传群众、教育群众、服务群众、凝聚群众的重要举措。', '日，吴忠市五届人大常委会召开第二十次会议。会议由吴忠市委书记、市人大常委会主任沈左权主持。会议审议通过了《吴忠市文明行为促进条例（草案）》；会议听取和审议并表决通过了吴忠市2019年上半年国民经济和社会发展计划执行情况报告、关于2018年吴忠市本级决算（草案）和2019年上半年全市及市本级预算执行情况的报告、关于吴忠市2018年度市本级预算执行和其他财政收支情况的审计工作报告；会议听取和审议并表决 通过了关于全市工业园区改革创新和高质量发展情况的报告、市人民政府关于开展创建全国文明城市工作情况的报告、关于全市脱贫攻坚工作开展情况的报告、市人民检察院关于公益诉讼工作开展情况的报告；会议审议并表决通过了关于批准 2018 年吴忠市本级决算的决议（草案）。', '△ 吴忠市组织参加全区进一步加强安全防范工作视频会议。会议通报了“8·28”较大道路交通事故和“8·29”煤气炉爆炸事故情况，深入学习领会自治区领导就两起事故的指示批示精神，汲取事故教训，举一反三、引以为戒，对做好当前和今后一段时间安全防范工作再安排、再强调、再提醒。', '△ 吴忠市技术转移中心揭牌启动仪式在宁夏红山河食品股份有限公司研发中心举行。与会领导共同为吴忠市技术转移中心、天津科技大学技术转移中心宁夏吴忠分中心、江南大学国家技术转移中心宁夏吴忠分中心揭牌。', '日，自治区党委常委、纪委书记、监委主任许传智前来吴忠市，对基层党风廉政建设、扫黑除恶重点案件办理及经济社会发展情况进行调研。', '吴忠市委书记沈左权主持召开五届市委2019 年第25次常委会会议。会议研究了《吴忠市纪委监委派驻机构改革实施方案（送审稿）》《吴忠市贯彻落实中央扫黑除恶第20督导组反馈意见整改方案（送审稿）》，还研究了其他事项。', '本月，吴忠市召开市县（区）道路运输管理机构整体移交属地管理交接工作会议，标志着吴忠市交通运输综合行政执法改革工作进入了实质性实施阶段。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>291</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>吴忠市工业和信息化局年法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020-12-07</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/ztzl/jtjgczl/gyhxxh/202012/t20201207_2394643.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['以实现依法治市、建设法治政府为目标，全面落实法治政府建设总体部署，强化法治思维，规范执法行为，努力营造法治化营商环境。现将有关工作情况报告如下：', '结合法律进企业、进社区、节能宣传周、安全生产宣传教育“五进”、“安全生产宣传月”等重要时间节点和活动载体，', '组织开展“全市中小企业星光培训工程系列培训班”，邀请九江英果特管理咨询有限公司梁伟权开展了《民法典》《保障农民工工资支付条例》法治讲座，宁夏金世纪包装印刷有限公司等82家企业109人参加培训；组织全市38家重点产废企业人员', '学习习近平总书记关于安全生产重要论述和《中华人民共和国安全生产法》；到社区开展《食盐专营办法》普法宣传讲座,印制《食盐专营办法》宣传资料2000份，参与群众300余人。', '学习习近平总书记关于安全生产重要论述和《中华人民共和国安全生产法》；到社区开展《食盐专营办法》普法宣传讲座', '印发政务公开实施方案和“政府开放日”活动实施方案，制定完善公开目录和公开指南，通过“吴忠市人民政府”网站“政务公开”栏目、“吴忠工信”微信公众号、微博及吴忠日报、局内公开栏等途径，主动公开各类工作信息', '工集中学习《宪法》《民法典》等法律法规，通过“吴忠法治”微信公众号，组织全局干部职工进行宪法知识考试，集中观看', '年全国安全生产月主题宣教片《征程—奋力推进应急管理体系和能力现代化全力防控重大安全风险》，', '进一步提升了干部职工尊法学法守法用法自觉性以及推进应急管理体系和能力现代化的认识。', '接受全市“七五”普法工作考核、法治政府建设半年工作督查，强化问题整改，有效落实法治政府建设各项工作。', '制定出台了《吴忠市支持食品工业高质量发展政策措施》和《吴忠市应对新冠肺炎疫情支持企业加快复工复产和稳岗就业若干措施》，', '配套制定了相应实施细则和政策办理服务指南并在吴忠日报向社会公布，明确了政策措施的实施周期，同时', '集中清理政府部门拖欠民营企业中小企业账款，制定印发了《吴忠市2020年清理拖欠民营企业中小企业账款工作方案》和《吴忠市本级国有闲置资产处置工作方案》，强化措施，细化责任分工，确保高质量完成全年清欠目标任务。截至目前，全市民营企业中小企业账款总体清偿比例100%。', '。落实企业困难问题清单销号台账制度，围绕融资需求、防疫物资储备等6个方面，摸排并汇总建立了6个问题清单销号台账涉及问题618条，已解决或初步解决企业困难问题450余条，在协调各相关单位及时给予办理解决的同时，指导企业主动应对市场形势努力克服各类市场性困难问题。', '《关于进一步规范和改进涉企检查的意见》（吴党办发〔2017〕32号），除自治区相关厅（局）及市委、市政府安排的考察调研外，严控', '认真学习贯彻习近平新时代中国特色社会主义思想，全面落实党中央、国务院全面依法治国、建设法治政府决策部署和自治区、市委、市政府部署安排，充分发挥党组在推进全局法治建设中的领导作用，研究制定年度工作计划，将法治建设同全局各项工作同安排、同部署。', '根据《自治区工业和信息化厅关于印发&lt;自治区工业和信息化系统权力清单指导目录&gt;的通知》和《', '对市工信局行政处罚要素进行调整，增加行政职权6项，取消行政职权3项，调整后共保留行政职权12项，其中行政许可2项、行政处罚7项、行政检查1项、行政确认1项、行政奖励1项，调整申请已报市委编办审核通过。', '积极开展规范性文件定期清理工作。2020年代市委、市政府起草印发规范性文件《吴忠市应对新冠肺炎疫情支持企业加快复工复产和稳岗就业若干措施》《吴忠市促进食品工业高质量发展政策措施》《吴忠市5G通信网络基础设施建设任务分工方案》。', '将法律法规学习纳入党组理论学习中心组学习和干部集中学习，开展党组会前警示教育一刻钟，不断提高领导干部法治思维和依法行政能力；依托局微信公众号、工业企业微信服务群等新媒体平台，积极向工业企业管理人员及广大群众宣传国家法律法规等相关内容，及时转载各类违法案例，警示教育社会各界严格遵守国家法律法规，依法经营。', '制定印发了《吴忠市工业和信息化局党组“三重一大”决策制度》，进一步规范了领导班子决策行为，严格决策程序，防止决策失误，提高领导决策的科学化、民主化、公开化，强化对机关重大决策、重要干部任免、重大项目安排及大额资金使用方面的监督和管理；严格执行局党组议事规则，全部重大决策均实行集体讨论，主要负责同志末位表态，会议记录完整并且均制发纪要。', '坚持行政执法信息公开，提高行政执法工作透明度，保障公民、法人和其他组织对行政执法工作的知情权和监督权，', '积极落实市盐业主管机构工作职责，制定了《全市盐业市场专项治理实施方案》等，牵头市场监管、公安、卫健委等领导小组成员单位，对各县（市、区）盐业主管机构工作落实情况进行联合督导，先后开展盐业市场专项治理2次、整改“回头看”1次、国庆节假日盐业市场暗访摸排1次，并印发了《全市盐业市场专项治理督查情况通报》，对重点问题跟踪督办。截至目前，共排查各类盐品销售点40余处，查出问题盐9例，已全部得到整改，全市盐业市场平稳运行，盐品质量安全得到有效保证。', '积极落实市盐业主管机构工作职责，制定了《全市盐业市场专项治理实施方案》等，牵头市场监管、公安、卫健委等领导小组成员单位，对各县（市、区）盐业主管机构工作落实情况进行联合督导，先后开展盐业市场专项治理', '完善行政执法手续，开展节能专项监察。制定印发了《吴忠市2020年节能监察工作计划》，明确了年度节能监察及检查工作任务并组织开展2020年重大工业节能监察工作，', '。监察过程中，我局监察人员严格按照法律程序开展监察，每次抽取的执法检查人员均不少于2人，对被监察单位出具“通知书”、“现场告知书”、“送达回证”、“现场检查笔录”等法律文书，并明确告知相关事项。监察过程中未发现各被监察企业不合理用能情况，未实施行政处罚。', '。监察过程中，我局监察人员严格按照法律程序开展监察，每次抽取的执法检查人员均不少于', '将日常监管与重要时段和重大节假日等督导检查结合起来，开展了全国“两会”期间民爆行业安全生产专项检查、安全隐患专项整治、电气火灾防控工作、百日安全专项整治、“两体系”创建等8项重点工作。今年以来，', '次，对全市民爆物品生产、销售企业进行全面排查和预判分析，做到有检查、有整改、有复查的闭环管理', '4项盐业监管行政处罚权，盐业体制改革以来该项工作自上而下没有实施过系统学习和培训，相关科室执法人员业务水平有待提高。', '进一步健全依法行政工作的领导、协调和监督机制，坚持依法管理的理念，坚持依法办事、按章理事、管人问事，把依法行政作为履行自身职能，推动工业经济和信息化加快发展的一项基础性、根本性、全局性任务贯彻好、落实好。', '加强全局干部职工的法治建设，坚持以学习培训为主，采取多种形式深入开展政治和法律知识的学习，切实提高机关工作人员的政治思想素质和依法行政工作能力。', '严格执行重大行政决策程序与规范性文件制定的相关规定，遵照执行合法性审查、征求各部门及群众意见、集体讨论等重大行政决策的必经程序；加强普法宣传工作，利用网站、公众号、结对活动等途径，宣传与企业密切相关的法律知识，适时组织开展普法培训，提高企业、企业管理人员等的法治意识，营造良好的法治氛围。', '应享尽享；在常态化疫情防控下，精准帮扶重点民营企业，督促各金融机构不折不扣落实自治区促进小微企业健康发展和支持企业复工复产各项措施，提振企业发展信心，推动全市工业经济平稳健康高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>291</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>安排部署疫情防控和经济社会发展工作</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-02-25</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202002/t20200225_1968835.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 杨娜）2月24日，市委书记沈左权主持召开市委应对新冠肺炎疫情工作领导小组第四次会议，传达学习习近平总书记在中央统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上的重要讲话和自治区党委视频会议精神，安排部署全市疫情防控和经济社会发展工作。会议强调，要强化政治担当，切实把思想和行动统一到习近平总书记重要讲话精神上来，坚决贯彻落实中央和自治区决策部署，统筹抓好疫情防控和经济社会发展，全面打赢疫情防控的人民战争、总体战、阻击战，确保全面建成小康社会、完成脱贫攻坚任务和“十三五”规划。', '会议指出，当前疫情防控形势依然复杂严峻，全市上下要坚定必胜信念，保持清醒头脑，坚决克服麻痹思想、厌战情绪、侥幸心理、松劲心态，咬紧牙关，毫不放松抓紧抓实抓细各项防控措施。', '会议强调，要坚持精准施策，分区分级抓好疫情防控。自治区把盐池县、利通区划分为低风险地区，要实施“外防输入”策略，全面复工复产，全面恢复长途客运、农村客运和城市公共交通等客运服务；红寺堡区、青铜峡市划分为中风险地区，要实施“外防输入、内防扩散”策略，有序推进复工复产，逐步恢复道路客运服务。要抓住关键、突出重点，聚焦社区、校区、园区、厂区等重点地区，紧盯“三返”、商务等重点人群，织牢防线、严防输入。要在防控措施到位的情况下，有序开放公共场所。', '会议强调，今年是全面建成小康社会的决战之年、“十三五”规划收官之年，我们要坚定信心，攻坚克难，统筹经济社会发展各项工作，确保完成全年目标任务。要在做好疫情防控工作的前提下，抓好农业生产备耕，确保不误农时；要帮助企业解决疫情防控、物流运输等方面困难，促进企业复工复产，稳定企业生产经营；要把中央和自治区各项优惠政策落实落地，打通各个环节，帮助企业发展生产、共渡难关；全面畅通交通运输，打通“大动脉”，畅通“微循环”；要有序恢复商贸流通，有关部门要及早研究制定加快发展服务业、促进消费结构升级的具体政策措施，促进扩大消费，培育消费热点；要全力推进项目建设，做好前期准备，强化要素保障，积极争取项目；要切实抓好脱贫攻坚，查补遗漏、查补短板、查补弱项，确保高质量完成脱贫攻坚目标任务；要做好民生保障工作，关注孤寡老人等困难群体。', '会议要求，各级党组织要认真履行领导责任，特别是抓落实的职责，把中央和自治区各项决策部署抓实抓细抓落地。各级党员干部特别是领导干部，要提高执行力，增强担当意识，深入基层一线发现问题、化解矛盾、推动落实。要在疫情防控和经济社会发展一线考察识别干部，坚决纠正形式主义、官僚主义。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>291</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>青铜峡工业园区多措并举持续推动现代化工产业高质量发展</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202312/t20231204_4370926.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['近年来，青铜峡工业园区认真落实区市党委、政府关于推动现代化工产业高质量发展决策部署，紧紧围绕打造', '“百亿元精细化工产业板块”目标，坚持“稳中求进、科学布局、上下关联、产业集聚”的发展思路，依托现有产业基础，强化招商引资，突出项目建设，培育壮大产业集群，提升产业发展质量。', '学习借鉴外省地市招商引资工作好经验好做法，综合运用以商招商、产业链招商、小分队招商等多种', '“走出去”和“请进来”相结合，紧扣园区产业发展定位和自治区“六新”产业部署，以京津冀、长三角、珠三角和周边省市为重点，“有的放矢”开展精准招商。市级、园区党政主要领导亲自“挂帅”带队，外出开展招商引资活动，先后赴江苏、河北、山东、浙江、天津、陕西等地开展招商引资活动，考察项目涉及新型材料、精细化工等领域，引进了海利科技、天新药业等规模大、技术强、效益好的项目，以及永利新材料、华梦新材料等具有发展潜力的企业，进一步夯实园区产业转型基础。', '战略的强力引擎，精心指导，强化服务，鼓励支持企业加强与高校、科研院所合作，开展联合技术公关，共建创新平台，培育了一批国家级、自治区级创新型示范企业、高新技术企业、科技“小巨人”企业，以科技创新促进企业提升研发水平和产品市场竞争力。先后指导帮助京成天宝、中泰新能等', '10余家企业申报国家高新技术企业及其他各类科技型企业，指导东吴农化成功创建宁夏新烟碱类农药中间体连续化生产方式创新联合体。截', '5家、国家科技型中小企业7家、自治区科技型中小企业9家。2021年成功创建国家绿色园区、自治区高新技术产业开发区，为现代化工产业创新发展提供了有力保障。', '严格执行国家绿色、循环、低碳相关政策法规，紧盯国家、自治区产业政策和投资导向，加快实施低成本', '改造项目，增强化工集中区承载力。近年来，通过积极上争、政府配套、市场化融资等方式，先后实施新材料片区污水处理厂（一期、二期）、新材料片区人工湿地及尾水水质提升、蒸汽循环利用、智慧园区、危化停车场、道路、路灯等基础设施配套项目，逐步满足入园化工企业发展需要。同时为进一步提升承载力，园区根据新材料片区实际情况积极谋划实施污水处理厂三期、污水管网改造提升、智慧园区二期等项目，不断为现代化工产业高质量发展提供基础支撑。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>291</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>吴忠市城市管理局年度法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/ztzl/jtjgczl/ylglj/202403/t20240305_4476228.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['年工作要点》，统一部署，全力推进依法治市和法治政府建设各项工作，取得明显成效，现将工作情况总结如下：', '充分发挥局党组在推进法治建设工作中的领导核心作用，认真落实党政主要负责人履行推进法治建设第一责任人职责规定', '，切实做到重大案件亲自部署、亲自过问，重点环节亲自协调、亲自督办，分管领导主动研究、责任科室具体落实的工作格局。', '》，明确主要任务和责任分工，将推进依法治市和法治政府建设工作纳入年度计划并定期研究，与其他工作同部署、同推进、同总结。', '建立了重大行政决策机制，对重要规划、重大建设项目召开局党组会议、局务会议集体研究决定，所有重要事项向市委、市政府进行请示报告，努力做到科学决策、民主决策、依法决策。', '聘请北京泽元（银川）律师事务所律师常年担任法律顾问，参与重大决策和项目法律论证、审查合同等法律文书并提出书面审查意见；参与处理信访接待及处置重大突发事件等，有效解决了依法行政工作中遇到的法律问题，为规范行政行为、提高依法行政效能提供了强有力的法律保', '坚持把习近平法治思想作为党组理论学习中心组学法的重点内容，切实发挥局党组在推进单位法治建设中的领导核心作用，制定印发《', '》，深入抓好习近平法治思想以及党内法规的学习，同时把宪法、党内法规和党的二十大精神等列入党组理论学习中心组学习的要点和计划，做到理论学习有制度、有计划、有主题、有记录，切实提升新形势下运用法治思维和法治方式推动工作的能力和依法决策的水平。', '“4·15”全民国家安全教育日、优化营商环境等专题宣传活动等重要节点，开展形式多样的普法宣传活动，', '，对照行政执法事项清单，依据法律规章规定，编制随机抽查事项清单，明确抽查事项主体、依据、对象、内容，合理确定抽查比例、方式、频次等，确保抽查覆盖面和监管震慑力，最大限度的减少对市场活动的干扰，减轻企业负担，营造公平竞争、规范有序的市场环境。严格按照', '“双随机、一公开”工作计划，合理确定抽查比例、频次和方式，针对设置大型户外广告及在城市建筑物、设施上悬挂、张贴宣传品审批和改变绿化规划、绿化用地使用性质等审批事项，随机抽取市场主体及执法人员进行实地检查。全年随机抽取执法检查人员4名，抽查市场主体25家，未发现企业有违法违规行为。', '对全局持有行政执法证件的人员开展排查摸底，建立了行政执法人员信息库。认真做好行政执法证件申领工作，', '为进一步发挥法治引领和保障作用，激发市场活力，加快打造市场化、法治化营商环境，结合我局工作实际，参照《自治区住房和城乡建设领域实施包容免罚清单（试行）》，制定了《吴忠市城市管理领域实施包容审慎监管执法清单》。加强对综合执法局的监督力度，', '在执法过程中充分考虑违法行为的特点，按照宽严相济的思路，坚持过罚相当和综合裁量的原则，充分考虑行政行为对企业生产经营产生的影响，降低对市场主体生产经营的负面影响。', '立法起草工作。立法起草小组深入各县（市、区）及市直相关部门实地了解掌握各地停车现状及需求，起草完成《条例》初稿。', '次书面征求各县（市、区）、市直各部门意见，通过吴忠发布、吴忠日报等广泛征求社会意见，组织召开专家论证会进行全面论证，并赴银川、西安、郑州等地学习考察调研，充分借鉴其他省市成功做法和先进经验，按立法程序召开了听证会，再次征求各部门、人大代表、政协委员、社会代表意见。共征集意见建议', '印发《吴忠市城市管理局领导干部应知应会党内法规和国家法律清单》《吴忠市城市管理局党内法规执行责任清单》《吴忠市城市管理局党政主要负责人履行推进法治建设第一责任人职责清单》，把学习宣传贯彻习近平法治思想、《中华人民共和国宪法》《中华人民共和国民法典》等法律法规作为重要内容，列入局党组理论学习中心组会议内容，每月至少安排', '认真执行行政机关负责人出庭应诉制度，履行行政机关负责人出庭相关义务。通过组织人员参加现场旁听庭审、网上观看庭审视频、举办依法行政培训班等形式，不断提高党政主要负责人及执法人员依法行政的能力与意识。截至目前，我局无行政诉讼案件，不存在行政机关负责人应出庭而未出庭、行政案件败诉率高、不切实履行生效裁判等问题，', '丰富宣传载体，突出需求导向，针对目标人群，开展形式多样的、有特色的宣传活动，扩大社会知晓率，使法治意识真正入脑入心，使广大市民参与城市管理变为自觉自愿的行动，提升普法实效。', '增强执法人员在实际执法过程中的工作水平和应变能力。坚持培训方式的差异化，运用讲授式、研讨式、网络培训、专题讲座等形式，增强培训的适配性，提升培训的针对性、有效性，提高执法人员业务工作能力，提升案件执法质量，促进执法行为规范。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>291</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>吴忠市应急管理局年法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/fz/202303/t20230330_4015150.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['2022年，市应急管理局党委坚持以习近平新时代中国特色社会主义思想为指导，认真学习贯彻落实党的二十大精神，紧紧围绕全面推进依法治国总目标，', '年，市应急管理局党委坚持以习近平新时代中国特色社会主义思想为指导，认真学习贯彻落实党的二十大精神，紧紧围绕全面推进依法治国总目标，', '利用“5·12防灾减灾日”“安全生产月”“安全生产法宣传周”等重要节点，通过线上线下相结合的方式开展宣传活动，不断加强安全生产宣传教育，普及安全生产、应急救援和防灾减灾救灾知识', '赴国家农业科技园区和盐池县给县直部门单位、乡镇领导干部和企业主要负责人及安全管理人员授课培训', '《地方党政领导干部安全生产责任制规定》、新《安全生产法》等相关规定，有力促进了安全生产监管“三大责任”落实。', '《地方党政领导干部安全生产责任制规定》、新《安全生产法》等相关规定，有力促进了安全生产监管', '督促我局工作人员通过宁夏行政执法监督管理平台依法、规范、及时向社会公开公示行政执法事前信息以及行政检查、行政处罚、行政许可等行政执法结果', '在实施行政检查、行政处罚等现场执法过程中，我局执法人员严格按照行政执法全过程记录制度的要求，通过文字、音像等形式对执法全过程进行记录，并及时归档执法文档和音像。', '以服务企业为目标，从提高审批效率方面入手，深化“放管服”改革，进一步优化营商环境，在依法履行安全监管职责的同时，贴心服务企业。', '对行政许可事项及公共服务事项进行梳理，重新修编行政审批事项指南，优化网上办理审批程序', '高效办理行政审批事项。今年以来，我局所有办结的行政许可事项均规定时限网上公开，网上公告率达到100%。', '高效办理行政审批事项。今年以来，我局所有办结的行政许可事项均规定时限网上公开，网上公告率达到', '我局涉及全局性的重大决策事项、重要人士任免事项、重大项目安排事项、大金额资金安排使用等事项的决策水平。', '将法律顾问费用作为专项经费纳入年度部门预算，采取政府购买服务的方式，认真筛选考察法律顾问合作单位，签订《法律顾问服务合同》。在行政处罚集体讨论和政府采购项目合同签订等关键环节咨询法律顾问，', '平时严抓案卷评查工作，促进行政执法依规依据。依法治国、依法治区、依法治市办对我局2021年6月份至2022年6月份行政执法案卷评查中未发现事实不清法律适用错误或程序错误等问题。', '鼓励干部积极参加学法考试，强化法治思维和能力。我局在职在编人员积极参加有关部门组织的在线学法考试，通过率达100%', '鼓励干部积极参加学法考试，强化法治思维和能力。我局在职在编人员积极参加有关部门组织的在线学法考试，通过率达', '行政执法信息公示平台公示监督信息，向社会公布投诉电话、通讯地址及电子邮箱，自觉接受社会监督，依法处理群众举报和投诉事项。今年以来，未接到我局存在违法行政行为', '今年我局在推进法治建设方面取得一定成效，但离目标要求还有一定差距，工作中还存在一些问题和不足。如创新行政执法方式不足以及未能较好地指导', '，我局将持续深入学习贯彻习近平法治思想，切实把以人民为中心的发展思想贯穿于法治建设各项工作。以深化执法标准化为抓手，加大资金投入，不断夯实执法基础，深入开展文明执法教育活动，坚持教育与惩戒相结合，广泛运用说服教育、劝导示范、警示告诫、指导约谈等执法方式，加强重点时段重点企业安全风险管控，防风险，除隐患，保安全。加强对基层安全生产行政执法指导工作，采取集中培训教育，下基层实地指导等多种方式，进一步提高基层执法人员执法业务水平和执法案件的办案质量。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>291</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>吴忠市委政策研究室年部门决算公开情况说明整改</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019-12-23</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201912/t20191223_1900224.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['》（吴财发[2018]187号）要求，现将我单位决算公开信息提供如下，委托你局在吴忠市政府网站“预决算信息公开专栏”进行统一公开，我单位对公开内容的真实性和完整性负责。', '根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预[2016]143号）和吴忠市财政局《关于做好2017年度部门决算公开工作的通知》（吴财发[2018]187号）等有关法律、法规和文件的要求，现将我单位（含下属单位）2017年部门决算信息公开如下', '、根据市委指示，起草、参与起草或组织有关部门共同起草、修改市委有关重要文件、主要领导讲话；负责审核市直各部门制定的经济社会发展有关政策。', '、根据市委中心工作和领导意图，对全市经济、社会工作具有全局性、前瞻性和指导性的课题进行调查研究，提出意见和建议，为市委决策及时提供科学依据。', '、调查和研究全市在贯彻执行党的路线、方针、政策和加快经济发展的新情况、新问题和新经验，及时向市委报告并向有关部门反馈。', '、社会事业科。负责全市科教文卫社会事业领域改革和发展方面的调查研究工作；编制政研工作年度工作计划；协助领导处理和综合协调机关日常政务事务；负责综合材料的起草、信息简报编发工作；负责《吴忠工作研究》刊物稿件的收集整理、文章修改、审定、编辑、校对、印刷、发行等工作。负责会议组织、文电档案管理、文件收发及机要保密等工作；负责车辆管理及机关安全防范等行政事务和后勤保障工作；承办机关人事、编制、劳动工资、计划生育、综合统计等方面的具体工作；负责财务计划、会计核算、机关财务、各项资金和国有资产管理工作；积极完成领导交办的其他任务。', '、农村经济科。贯彻中央、自治区农村经济方面的政策，收集农村经济、城市经济信息并组织调研；提出对农业经济实行引导、支持、保护的政策性建议；研究农业和农村经济发展思想，为领导宏观经济决策提供科学依据；负责全市农业产业化发展、农业服务体系建设方面的调研，及时为领导宏观经济决策提供建议；积极完成领导交办的其他任务。', '、城市经济科。负责全市工业和工业经济发展、城市化改革、小城镇建设以及城市经济改革和发展等方面的调研，及时向市委反映城市建设、商贸流通、财贸金融等领域的发展情况，为市委提供城市经济发展的意见、建议。', '、改革协调科。负责全市全面深化改革领导小组会议相关工作及全面深化改革综合性材料起草工作。协调生态文明体制、行政审批制度改革专项小组开展生态文明、行政审批制度改革试点，改革方案的论证，重大改革举措的推进落实。负责全市全面深化改革领导小组办公室日常工作，', '、改革督办科。负责督促市全面深化改革领导小组决定事项、工作部署和要求；负责市深化改革效能目标考核工作，及时总结宣传各地各部门改革工作经验；协调文化体制、依法治市体制改革专项小组开展文化、依法治市改革试点，改革方案的论证，重大改革举措的推进落实。', '年度财政拨款支出年初预算为2585224.60元，支出决算为2639995.60元，完成年初预算的102%。决算大于预算数的主要原因：承担市委、市政府全面深化改革及农业农村工作任务较上年度有了大幅增长，公务车租赁费、外出考察学习差旅费、材料印刷费等支出增加。', '（六）2017年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '年因公出国（境）团组数1个，因公出国（境）人次数1人。开支内容包括差旅费、住宿费、培训费等。', '其中：国内接待费支出2093元，主要用于接待广东省珠海市体改办、湖南郴州市委政研室工作考察。2017年国内公务接待批次2个，国内公务接待人次34人。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>291</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>吴忠市交通运输局关于做好年工程技术系列交通运输专业职称评审工作的通知</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-05-31</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202205/t20220531_3529344.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['吴忠市交通运输局关于做好2022年工程技术系列交通运输专业职称评审工作的通知_吴忠市人民政府', '对全面实行岗位管理、专业技术人才学术技术水平与岗位职责密切相关的事业单位，一般要在岗位结构比例内开展职称评聘。一是按照不超过相应层级专业技术岗位职数的', '120%申报评审,即已取得高级职称人数（含正高和副高）少于本单位高级岗位职数120%的，可申报高级职称。二是取得高级职称人数已超出岗位职数120%的单位，采取“退二进一”（退出人员为已取得高级职称的专业技术人员，退出截止日期为2022年12月31日）方式择优推荐申报，逐步控制到岗位结构比例内。三是对突出贡献人才、引进高层次人才以及符合人社部、自治区有', '县（市、区）人社部门负责对县（市、区）所属及部门所属事业单位申报推荐数量情况进行审核，对不符合推荐数量要求的一律不得通过审核，对弄虚作假通过审核的，取消申报资格并追究审核单位的责任。', '2022年专业技术任职资格评审的专业技术人员，申报初级专业技术职务任职资格的，专科', '4年（2018-2021年）继续教育学时，总学时累计不少于360学时，其中公需课不少于120学时，硕士研究生学历的继续教育学时根据任职年限要求计算。申报副高级及以上专业技术职务任职资格的，审验近5年（2017-2021年）继续教育学时，总学时累计不少于450学时，其中公需课不少于150学时。在审验年限期内取得高一级学历或第二学历的，可视为接受继续教育，其中，在审验期内入学并毕业的，视同完成审验期继续教育任务，只需提交学历证明；跨审验期内入学并毕业的，具体学时由院校提供学时证明，并需完成审验期内的公需课目学习。参加国内外考察和专业技术交流活动的，依据考察或培训的有关文件，按实际考察培训时间（路程时间除外），每天以6学时折合计算专业课程培训学时。', '计算机应用能力考试和职称外语不做统一要求，对以往参加职称外语考试和计算机应用能力考试并合格的人员，成绩可作为继续教育公需课学时，其中职称外语可代替公需课', '继续加大论文网络核查、数据检索和查重力度，在知网等网站检索不到的论文，不得提交相应系列职称评审会。申报人员须上传论文全文', 'word电子版，且与期刊原件内容完全一致。评委会通过知网对论文进行相似度检测，对申报人个人提交的论文相似度检测报告不予认可。申报高级职称论文查重相似度达到40%以上的、论文或著作经评审专家审核质量不能代表申报层级水平的，均不得通过职称评审。', '按照自治区人力资源和社会保障厅《关于建立部分专业技术职业资格和职称对应关系的通知》（宁人社发〔', '2019〕55号），统筹做好职称制度和职业资格制度的衔接工作，专业技术人才取得职业资格（须是交通运输方面）即可认定其具备相应系列和层级的职称，并可作为申报高一级职称的条件，不需要换证和重新评审。按照自治区人力资源和社会保障厅《关于贯通工程技术领域高技能人才与工程技术人才职业发展的实施意见》（宁人社发〔2019〕98号），交通运输方面的高技能人才，取得高级工职业资格或职业技能等级后从事技术技能工作满2年，可申报评审相应专业助理级职称；取得技师职业资格或职业技能等级后从事技术技能工作满3年，可申报评审相应专业中级职称；取得高级技师职业资格或职业技能等级后从事技术技能工作满4年，可申报评审相应专业副高级职称。高技能人才参加职称评审应在现工作岗位上近3年年度考核合格。不将学历、论文、外语等作为高技能人才参加职称评审的限制性条件。建立高技能人才职称评审绿色通道，按照《宁夏回族自治区突出贡献人才和引进高层次人才职称评审办法》（宁人社发〔2018〕80号），获得中华技能大奖、全国技术能手、担任国家级技能大师工作室带头人、享受自治区以上政府特殊津贴的高技能人才可直接申报高级职称。', '工程专业技术职务评审委员会组织，申报人员在职称申报系统中选择定向职称评审活动进行申报，须提供各县（市、区）人社局核准的岗位数佐证材料，取得定向职称仅在本县（市、区）范围内有效，因工作岗位变化离开本县（市、区）或调入非基层单位，所取得定向职称失效。', '申报人任职年限、提供的业绩成果、论文、学历证书、继续教育合格证书、获奖证书、发明专利证书等取得时间均截止至', '→同级人社部门审核通过→个人注册→维护单位所属信息→维护个人信息→选择申报评审活动→填写申报信息→上报所属单位→单位内部公示→单位推荐上报→按系统流程报送申报资料的程序进行。', '2．申报人员个人账号注册。登陆“宁夏人事人才管理信息系统”，完成个人账号注册，登陆完善所属单位信息，填写个人基本信息、学历学位信息、工作经历信息、继续教育、工作业绩、研究成果、外文成绩、计算机成绩、业绩成果、著作、学术团体、论文情况、获奖情况、知识产权等共14项内容（有则填，没有则不填）。申报人员对本人填报内容及提供材料的真实性、准确性负责。', '日，申报人员根据评审系列和申报层级选择相应的评审活动。申报人员在网上提交的过程中，须遵循', '“干什么、评什么”的原则，正确选择申报专业，职称证、毕业证、学位证、学历认证报告以及继续教育学时等需上传电子版，如提交论文、工作报告、调研报告等，须上传全文word电子版（内容必须与发表内容完全一致）。申报人须真实、准确、完整填报个人信息并提供相关业绩、学术成果等材料，所填信息将生成《专业技术职务任职资格登记表》《专业技术职务任职资格评审一览表》和“电子职称证书”，因个人信息填写错误、资料漏报等情况造成的后果由个人承担。事业单位申报人员须提交单位聘任文件（复印件）、任职期内或近5年《年度考核登记表》（复印件），编制外人员应提供单位劳动（聘用）合同复印件。', ',采取个人述职、考核测评、民意调查等方式，全面考察申报人员的政治品质、职业操守和从业行为，严格审查申报材料的真实性和准确性。单位同意推荐的申报人应按规定公示申报人基本信息、主要业绩和所对标的评审条件、投诉受理部门及电话,公示时间不少于5个工作日。对不予推荐的申报人，应及时退回申报材料并说明原因。对公示无异议的人员出具推荐报告说明推荐意见并由单位负责人签字盖章。事业单位应制定符合本单位实际的申报推荐办法，择优推荐申报。超职数推荐、突出贡献人才、引进高层次人才、破格参评申报人须逐人说明推荐理由，明确申报人德能勤绩廉考核情况和推荐理由。', '“谁审核、谁负责”的原则，审核单位要按照评审条件对申报人员进行严格审核，认真审查申报材料的合法性、真实性、完整性和时效性，对不符合申报条件和程序的及时按原渠道退回并告知申报人。凡有以下情形之一的，不予受理：①非本系列（专业）评委会评审范围的；②申报材料不符合评审条件规定的；③未经用人单位或主管部门审核、公示、推荐的；④中央驻宁企事业单位、外省（区、市）驻宁单位上级主管部门未向人力资源和社会保障厅出具委托函的；⑤事业单位不符合岗位结构比例要求申报的；⑥不按规定时间申报的；⑦上年度参评未通过且本年度无新业绩的；⑧申报材料存在弄虚作假的。对发现申报材料弄虚作假的将报人社部门，并按有关规定处理。', '）人力资源和社会保障局、交通运输工程系列职称评审委员会进行审核。具体申报材料清单及相关要求详见附件', '报送纸质资料后，交通运输工程系列职称评审委员会将对申报人员的申报资格条件进行初审，初审结束后，将通知初审合格人员（或通知单位统一缴费）携带', '300元。初审不符合基本申报条件的人员不用缴费，初审合格并缴费后，进入面试评审阶段。', '面试评审阶段侧重了解申报人员的实际工作业绩。采取个人述职、业绩展示、面试答辩等方式组织召开评审会。申报中级', '在评审中，如发现有弄虚作假、不执行有关规定、不按程序操作、违反评审工作纪律等问题，将根据有关规定进行严肃处理并追究相关人员责任。申报人参评材料弄虚作假的，取消其申报资格，按照相关规定进行处理。用人单位要认真核实申报人员是否存在违纪情况，存在违纪情形的要严格按照有关规定办理，并将职称评审工作作为廉政风险防范的主要内容，主动接受纪检监察机关监督检查，建立全程监督机制。本通知未尽事宜，按照国家和自治区现行有关政策执行。工作中如遇政策调整，按新政策执行。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>291</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>新春走基层海小荣从土娃娃到女主播</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021-02-09</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/xqxx/202102/t20210209_2597428.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['几个月前，海小荣还是一位碰见生人就躲的害羞小媳妇，如今却能面对万千访客侃侃而谈，讲村史，展未来，说得头头是道。', '在吴忠市红寺堡区红寺堡镇弘德村党员教育基地，海小荣担任讲解员已满3个月，累计接待200多批参观者，人数难以统计，平均每天接待2个批次以上。', '海小荣清楚地记着，习近平总书记在弘德村考察时，指出要发挥自身积极性、主动性、创造性，用自己的双手创造更加美好的新生活。', '海小荣身体力行践行着总书记的这句嘱托。总书记来时，她还是村郊纺织厂的一名女工，凭着个人努力成为讲解员，现在又兼任了电商女主播。', '去年，红寺堡镇在弘德村建成党员教育基地，介绍红寺堡镇搬迁前后的历史变迁。基地成立后，开始聘请的是镇上的讲解员，后由海小荣接任，讲述红寺堡区生态移民变迁，以及总书记走访她家时的点滴印记。', '身为亲历者，海小荣比任何专业讲解员都更有发言权，因为讲述的是发生在他们一家人自己身上的故事，她的感情真挚，听众能从中深切感受到党的十八大以来易地扶贫搬迁取得的历史性成就。', '2012年以来，有6444名村民陆续从原州区、同心县的5个乡镇27个行政村搬迁到弘德村。2014年建档立卡时，全村贫困人口占总人口的2/3。借助党和政府的脱贫富民好政策，全村因地制宜发展劳务、养殖产业，到2020年时已全部脱贫。', '谈及老家居住条件，海小荣指着张一老一少的合影说：“这是在搬迁前的老家拍的，站着的是我婆婆和我小姑子，她们后面就是住了多年的土坯房。”', '这张照片的原件还在海小荣家。那天，习近平总书记坐在她家崭新的砖瓦房中谈搬迁前后的变化时，海小荣的公公刘克瑞就是拿出这张照片展示他们搬迁前后的巨变。', '讲解这些照片背后的故事时，海小荣不肯放过每一处细节，与参观者分享着那些激动人心的时刻。', '担任讲解员后，海小荣上班就在家门口，不耽误照顾老人孩子，月收入2500元。海小荣说，相对于要上夜班的纺织厂工作，她对新工作更满意。', '不久前，弘德村实业有限公司成立，专注销售本村及周边乡村的农特产品。于是，海小荣又兼职担任主播，负责直播带货。', '走出党员教育基地后，来访者多会到附近的农特产品展销厅转转，里面摆满了葡萄酒、黄花菜、枸杞等红寺堡特产样品。门口放置有二维码标识牌，有意者可在线购买。', '农特产品展销厅一角，还设有直播间，补光灯、麦克风、直播手机等设备一应俱全。26岁的海小荣也玩快手，私下也直播过，却没有正式直播带过货。', '2月3日傍晚，红寺堡电商扶贫创业孵化园在弘德村农特产品展销厅直播带货，一是要带动弘德村土特产品销售，二是要帮助他们建起自己的直播团队。', '“直播难度不大，我也能行！”通过现场观摩，海小荣一下子找到信心，决心在下场直播中亲自上阵。', '“我是大山里出生的‘土娃娃’，走出大山后靠着党的好政策和自己的努力，先是做了工人，后来又做了讲解员，这些都能做好，主播也一定能做好。”海小荣说。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>291</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>吴忠市住建局奋力跑出项目申报建设加速度</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202204/t20220426_3471631.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['全区首个入围全国黑臭水体治理示范城市的城市、唯一争取到北方地区冬季清洁取暖项目的城市、争取重点镇、美丽乡村项目最多的城市及全区2个全国城市体检样本城市之一的城市', '全区首个入围全国黑臭水体治理示范城市的城市、唯一争取到北方地区冬季清洁取暖项目的城市、争取重点镇、美丽乡村项目最多的城市及全区', '财政史上单个环保项目上争资金规模最大的财政资金奖补项目，切为全市经济社会高质量发展蓄积了能量、增添了动力。', '始终坚持把全国、全区、全市“两会”精神，以及生态环境、城市工作、农村工作等会议精神作为重要学习内容，深研细扣，切实找准城乡建设发展的发力点、落脚点。2021年，在反复研读习近平总书记视察宁夏重要讲话精神和关于实现“碳达峰、碳中和”、推动乡村振兴等重要论述的基础上，切实找准了吴忠市特色区位优势和重要意义，撰写的竞争性汇报材料既贯彻中央和自治区精神，又符合市情实际，增加了竞争致胜“筹码”。', '精神，以及生态环境、城市工作、农村工作等会议精神作为重要学习内容，深研细扣，切实找准城乡建设发展的发力点、落脚点。', '、推动乡村振兴等重要论述的基础上，切实找准了吴忠市特色区位优势和重要意义，撰写的竞争性汇报材料既贯彻中央和自治区精神，又符合市情实际，增加了竞争致胜', '始终保持与自治区相关厅局紧密联系，制定与自治区项目沟通对接计划，明确对接事项、责任分工，按月汇总沟通对接成效，及时了解掌握中央、自治区最新标准要求、政策变化，积极进京赴银专题汇报吴忠市相关工作开展情况，多方位、多措施争取理解支持。', '为后期成功争取项目资金奠定了坚实基础。市区清水沟、南干沟黑臭水体的销号是吴忠市成功入围全国黑臭水体治理示范城市的先决条件，在海绵城市建设上的先行先试更是成为了成功申报自治区海绵城市试点城市的重要支撑。', '面对近年来项目申报任务重、时间紧、竞争压力大等特点，在收到项目申报消息后，第一时间请示市委、市政府，牵头成立项目申报攻关领导小组，区分实地调研、沟通协调、方案编制、材料撰写等，科学划分攻关分组，', '深入现地、调研摸底、勘探勘查，分析研判市情现状，全面摸清短板弱项，深度挖掘区位优势，科学制定项目实施目标，认真编制项目申报方案。积极邀请市委、市政府领导带队，多次赴自治区相关厅局汇报准备工作，对标对表评审条件标准组织项目预审，积极征求意见建议，及时修改完善，确保申报方案既满足吴忠市情实际，更符合政策要求。', '认真组织撰写陈述汇报、制作演示课件，充分展示吴忠市的特殊区位、项目计划、保障措施以及信心决心；将近年来竞争性评审专家提问的问题整理成库，科学预判专家可能提出的问题，逐一制定回答策略、参考答案，争当“内行人”“问不倒”。2019年，在与全国45个城市同台竞技中，以第10名的优异成绩入围全国黑臭水体治理示范城市；2020年，以全区第3名的好成绩争取到污水提质增效项目；2021年，以全区', '认真组织撰写陈述汇报、制作演示课件，充分展示吴忠市的特殊区位、项目计划、保障措施以及信心决心；将近年来竞争性评审专家提问的问题整理成库，科学预判专家可能提出的问题，逐一制定回答策略、参考答案，争当', '在全面摸底调研的基础上，赴区内外城市进行实地考察，邀请相关行业专家、企业组织召开技术研讨会，全面摸清各类技术路线的', '积极拓展筹资渠道，大力引入社会资本，完善多元建设运营模式，最大限度发挥资金使用效益。', '2020年，吴忠市在全国黑臭水体治理示范城市奖补资金绩效考核中取得优秀等次；2021年', '2021年，全市4个重点镇项目在自治区年度绩效评价全部位列全区前8名，盐池高沙窝更是获得全区年度绩效评价第1名。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>291</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>坚持底线思维压紧压实责任落实落细措施坚决打赢疫情防控阻击战</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202002/t20200205_1941961.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 马淑玲）2月4日，市委应对新型冠状病毒感染肺炎疫情工作领导小组、指挥部召开第三次会议。市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权主持会议并讲话，强调要坚决贯彻落实习近平总书记重要讲话精神和中央、自治区党委决策部署，坚持底线思维，强化风险意识，压紧压实责任，落实落细措施，全力以赴做好各项工作，坚决打赢疫情防控阻击战。孙瑛、朱云、张学慧等市领导参加会议。会议以电视电话形式召开，各县（市、区）设分会场。', '会议认真学习贯彻中央政治局常务委员会会议和习近平总书记重要讲话精神，传达学习了自治区党委应对疫情工作领导小组第二次会议精神，听取了市委应对疫情防控工作领导小组办公室对疫情形势的分析和五个县（市、区）疫情防控工作情况汇报，提出了下一步重点工作和具体措施。', '会议指出，市委和市政府把疫情防控作为当前最重要的工作来抓，坚决扛起政治责任，落实落细防控措施，特别是医务工作者和基层干部，坚守岗位，连续奋战，各项工作有序有效有力推进。但是要清醒认识到，我市疫情防控工作到了严防死守的关键期，形势依然严峻复杂。做好疫情防控工作，直接关系人民生命安全和身体健康，直接关系经济社会大局稳定。全市各级党组织和广大党员干部必须进一步提高思想认识，增强政治意识，提高政治站位，切实把思想和行动统一到习近平总书记重要讲话精神上来，统一到中央和自治区党委决策部署上来，把做好疫情防控工作作为当前首要政治任务，作为践行“两个维护”的具体体现，作为坚守初心使命的试金石，以高度的政治责任感和使命感，坚决扛牢疫情防控重大政治责任。要坚持底线思维，强化风险意识，把形势估计得更严峻一些，把困难预判得更复杂一些，把防控任务考虑得更艰巨一些，从最坏处着想、向最好处努力，争取最好的结果。要始终保持战斗状态，坚决克服麻痹思想、侥幸心理和厌战情绪，坚决打赢疫情防控阻击战。', '会议强调，必须进一步压紧压实责任。持续强化市、县、乡三级领导层层包抓责任，压实乡镇（街道）、村组（社区）、园区（企业）主体责任和属地管理责任，靠实行业部门监管责任，坚持条块结合、属地管理、上下联动、密切协作，一级下沉一级，一级对一级负责，把疫情防控责任落实到基层、落实到村组、落实到社区、落实到园区。各级党组织要进一步强化责任担当，切实提高组织力、号召力、战斗力；广大党员干部要挺身而出、冲锋在前，打头阵、当先锋，让党的旗帜在抗“疫”一线高高飘扬。要把疫情防控作为党员干部最实际、最生动的考验，在疫情防控一线考察、识别、评价、使用干部，对表现突出的要表扬表彰、大胆使用；对不敢担当、作风漂浮、推诿扯皮、落实不力的严肃追责问责。要力戒形式主义、官僚主义，让基层干部把更多精力投入到疫情防控一线。', '会议强调，必须进一步落实落细工作措施。 坚持“一盘棋”思想，外防输入、内防扩散，紧盯重点人群、重点区域、重点场所、重点活动管控，落实好网格化管理责任，把各项措施覆盖到户、落实到人，真正构筑起严防严控、联防联控、群防群控的严密防线。要抓好源头管控防输入，做到逢车必检、逢人必查，把工作做得细之又细、严之又严，确保不漏一户、不漏一人。 对摸排出的疑似病例，要果断采取措施，送诊、接诊的“接力棒”必须落实到人、落实到岗，做到无缝对接。 对居家隔离的每一户、每一人实行由一名党政领导、一名基层党员、一名医护人员、一名社区干部负责的“四包一”工作方式，及时提供健康监测、心理疏导、市场购物、餐饮配送四项服务。当前，正值返程返企返学高峰，要本着有利于疫情防控的原则，实行分类、错峰复工，尽量避免短时期内人员大量集中聚集，坚决遏制疫情扩散传播。', '会议强调，必须进一步宣传发动群众，把中央和自治区部署要求向群众讲清楚，把疫情防控各项政策措施讲清楚，把疫情的严峻性、危害性讲清楚，宣传动员群众不聚集、不聚会、不聚餐，尽量减少外出，强信心、暖人心、聚民心。要正确引导舆论，把基层一线好的做法及时总结推广，深入挖掘疫情防控一线的先进典型，切实增强全社会阻击疫情的信心，营造同舟共济、阻击疫情的良好氛围。要始终保持高压严打态势，对利用网络编造、散布谣言的，对网上炒作、网下闹事的，要依法从重从快严厉打击。', '会议强调，必须进一步做好服务保障工作，坚持“防、控、治、保” 一体推进、务求实效，全力保障防护消毒用品供应，把救治资源和防护资源集中到阻击疫情一线。要全力保障居民生活所需，确保粮食、肉食、蔬菜等生活物资供应充足。要全力保障社会发展大局，在做好疫情防控工作的前提下，科学有序组织各类企业复工复产，做好春耕备耕工作，统筹抓好改革发展稳定各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>291</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>老土地上有了新花样</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-04-21</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202004/t20200421_2040200.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['“吴忠种出羊肚菌了！”这几天，吴忠羊肚菌上市的消息在利通区郭家桥乡不胫而走，一些周边城市的种植户也慕名而来。吴忠有着丰富的种菇经验，然而，在吴忠人工种植羊肚菌还是鲜有耳闻。', '“年年吃羊肚，八十照样满山走。”这句民间俗语说的正是羊肚菌。被称为“菌中之王”的羊肚菌，因其菌盖表面凹凸不平、状如羊肚而得名，被誉为“食品之冠，菌中之王”，是世界公认的珍稀食药兼用菌，富含多种人体需要的氨基酸和维生素。', '羊肚菌因种植面积少、产量低，市场售价比普通菌类高得多。“很贵的，摘一朵就像从地里挖出一块‘金子’一样。”人们如此形容羊肚菌的珍贵。', '羊肚菌是怎样种出来的？4月17日，我们来到利通区郭家桥乡山水沟生态园，探寻这从土里长出的“金子”。', '时下正是菌类生长采摘的好时节。走进大棚，只见一个个营养包覆盖在地上，上棕下白的羊肚菌就像一朵朵没有打开的“小伞”盛开在平整湿润的菌田中，十分惹眼。有的已经成熟，色泽诱人；有的破土而出，刚刚吐露嫩芽。', '“这一颗就卖5元，一斤鲜菇198元，干菇1250元。去年，我试着种了两亩，一共卖了10万元，除去成本，纯收入8万元。”在大棚内，望着田里郁郁葱葱的羊肚菌，该生态园负责人李霄边采摘边说。', '当地优质的土壤环境为羊肚菌的生长奠定了基础，但丰收还需靠科技的力量和精细化的管理。2018年，原本从事观光旅游农业的李霄决定转型发展，种植羊肚菌。种植时，沟要挖多深？营养棒要怎么使用？温度和湿度多少才合适？为了悉心照料大棚里这几亩“金贵物”，在当地政府的支持和引导下，他多次赴外学习，检测土壤，选址建棚。李霄说：“最适合生长的温度是15℃至18℃，湿度要控制在70%至80%。这都是学习和摸索出的经验。”', '科技的力量加上精心的管理最终结出了硕果。历经4个多月的生长期，大棚里的羊肚菌进入了成熟期。“刚开始，我们也有点担心，怕销售不出去。没想到，我们很快就联系到了买家，销售一空。如今，北上广等城市成为我们销路的主要渠道。”', '作为第一个“吃螃蟹”的人，李霄抱着试一试的想法，勇敢地迈出了第一步。就是这一步让他尝到了农业产业结构调整带来的“鲜”。“去年开始，我们就扩大了种植面积。通过挑选，我们分别在吴忠市、固原市、灵武市等地种植了66亩羊肚菌。如今，吸引了全区40多户农民、5家农业合作社以及两家国家级的农业园区前来学习，洽谈合作意向。目前，合作种植面积达500亩。”', '羊肚菌是低温菌，适合在冬春两季种植。“空余的时间还可以轮种其他农作物。”李霄说，羊肚菌对土壤的要求较高，但只要在轮种过程中不使用除草剂，种植前，将土壤进行化验，确保没问题就可以了。', '丰收的消息一下子就传开了，这边采摘，那边就有人上门购买。“虽然贵，但大家都想尝尝鲜。”如今，李霄每天都能接到好几个咨询购买羊肚菌的电话。每天摘下的鲜菇，除了电话销售，还有网上销售，可谓供不应求。', '捧着刚刚采摘的羊肚菌，李霄给我们算了一笔账。因为羊肚菌的生长环境是模拟野外环境，所以无需施肥和除草，更不用喷洒农药，使用的是节水型灌溉模式，人工需求量很低，产量高，产值大。最为关键的是从种植到产出，前后只要4个月左右的时间，时间短，效益高。', '在该村进行农业产业结构调整的不止李霄。在距离李霄种植羊肚菌大棚的不远处，吴忠市点点红草莓种植基地的一座座日光温棚在春日的阳光下，排列整齐。温棚的负责人董松涛手捧着鲜艳欲滴的西红柿，向前来观摩的农户说：“这个水果番茄易储存、口感好、价格高，都是订单销售，大家不用担心销路。”', '2018年，有着多年种植经验的董松涛决定改种水果番茄。“以前，我们是主推休闲农业，这几年，感觉市场有些疲软。经过考察和筛选后，我们试种了水果番茄。当年，效益就很好。2019年，我们种了165亩，吸引了120户农户加入。今年，我们与北京新发地蔬菜水果批发市场签订了150万斤的订单，4月底将大批量供货。”', '当日，作为吴忠市点点红草莓种植基地负责人白宗英的手机响个不停。她说：“都是催单的，我们和银川大悦城内的有机农夫市集有合作。每隔一天，就会给他们提供100单，约500斤的水果番茄。这不，今天的水果番茄上市还没有两分钟，就销售一空，又在催加单。”', '谋划产业的发展，不仅仅只是大面积的推广种植，更重要的是如何提高当地农民的收入。郭家桥乡副书记杨冰云说：“2019年，我们大力调整产业结构，在山水沟村试种羊肠菌、水果番茄取得了良好的社会和经济效益，也带动了周边的群众积极参与。今年，我们在区委、政府的大力支持下，积极争取农业农村厅的村集体发展项目资金500万元，用于在山水沟特色产业园投资建设二期项目，新建14所新型材料大棚，主推高端果蔬种植，达到增产、增效促进农民增收的目的。”', '入山问樵，入水问渔。在致富奔小康的路上，发展特色产业永远是一条主线。试种羊肚菌成功和改种水果番茄，为当地的产业布局增添了色彩，也为群众拓宽了致富道路。今年，我市认真贯彻落实自治区关于农业抓结构调整部署要求，坚持“稳粮、优经、扩饲”的发展思路，聚焦发展高效种养业，加快结构调整步伐，让粮经饲比达到51：28：21。立足各县（市、区）产业优势，推动特色优势产业区域化发展。巩固近年来结构调整成果，提升产出效益。适度调减籽粒玉米面积，扩大粮饲兼用、青贮、鲜食、制种玉米种植。稳定设施蔬菜种植面积，优化区域布局，保障蔬菜均衡供应。鼓励各县（市、区）结合资源禀赋，大力发展中药材、小杂粮等“一县一业”“一村一品”特色产业，不断提升产业发展效益。粮食播种面积稳定在300万亩以上，新增青贮玉米24.3万亩，达到53.1万亩，新增苜蓿3万亩，达到47万亩。推进“五优”蔬菜基地建设，目前全市番茄、辣椒、黄瓜等在田蔬菜1.7万亩，日产蔬菜390吨左右。推动发展“硒+X”产业，富硒生产基地扩为75个，种植面积扩到25万亩。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>291</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>年法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/ztzl/jtjgczl/aqscjdj/202301/t20230109_3908331.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['2022年，市应急管理局坚持以习近平新时代中国特色社会主义思想为指导，全面学习贯彻党的二十大精神，紧紧围绕全面推进依法治国的总目标，结合应急管理工作实际，采取有效措施，积极推进依法行政，强化法治政府建设。现将2022年度局法治政府建设工作总结如下：', '局主要领导高度重视法治政府建设工作，严格履行法治建设第一责任人职责。一是参与研究聘请本单位法律顾问等法治建设相关事项，牵头年度普法计划、安全生产监督检查计划以及行政处罚案件审理工作规则的制定，将工作任务分解到每个科室，层层落实责任。二是狠抓教育培训，主要举措有：１.组织全体干部职工收听收看中国共产党第二十次全国代表大会开幕会和召开学习贯彻党的二十大精神专题会议，把深入学习贯彻党的二十大精神作为首要政治任务，认真领会报告的精神实质和丰富内涵，立足岗位、扎实工作，把学习报告精神与做好实际工作结合起来，把学习成效转化为推动各项工作任务落实的强大动能。２.通过专题会议方式学习“一规划两纲要”、习近平法治思想等，提高干部职工运用法治思维和法治方式开展工作的能力。３.深入推进《中华人民共和国民法典》《中华人民共和国安全生产法》《安全生产违法行为行政处罚办法》等法律法规的学习宣传和贯彻实施。我局于2022年年初和年末举办参加全区法律知识讲座，邀请宁夏昊德律师事务所杨伏华律师授课。４.积极组织执法人员参加执法业务培训班，定期组织执法人员参加执法考试，坚持做到先培训、再执法，实现全体执法人员持证上岗，不断提升执法人员的依法执政、依法行政和依法办事水平。５.鼓励干部职工通过自学形式自觉增强法治意识。今年以来，我局各科室先后自行学习了《中华人民共和国安全生产法宪法》《中华人民共和国安全生产法安全生产法》《宁夏回族自治区安全生产条例》等法律法规。六是鼓励干部积极参加学法考试，强化法治思维和能力。我局在职在编人员积极参加有关部门组织的在线学法考试，通过率达100%。', '一是推动执法标准化、规范化。为确保全面依法履行安全生产监督管理职责，进一步规范安全生产监督检查行为、提升监督检查效能，我局编制并严格落实2022年度安全生产监督执法检查计划。今年以来我局检查企业隐患整改率90.97%。二是全面推行行政执法“三项制度”。1.全面推行行政执法公示制度。督促我局工作人员通过宁夏行政执法监督管理平台依法、规范、及时向社会公开公示公开了行政执法事前信息以及行政检查、行政处罚、行政许可等行政执法结果。2022年1月至今，我局通过各种信息平台录入公示安全生产许可信息188条，信用新闻类信息36条，行政处罚行为信息27条，企业标准化创建信息13条。2.全面推行执法全过程记录制度，做到执法全过程留痕和可回溯管理。在实施行政检查、行政处罚等现场执法过程中，我局执法人员严格按照行政执法全过程记录制度的要求，通过文字、音像等形式对执法全过程进行记录，并及时归档保存执法记录文档和音像。3.全面推行重大执法决定法制审核制度。目前，我局法制审核人员1人，法制审核人员和执法人员配比基本符合要求。今年我局修订了《吴忠市应急管理局重大执法决定法制审核制度》，进一步规范案件审理程序，规范了执法行为，提高了执法质量，有力地促进了严格规范公正执法。', '以服务企业为目标，从提高审批效率方面入手，深化“放管服”改革，进一步优化营商环境，在依法履行安全监管职责的同时，贴心服务企业。一方面，认真贯彻执行“延期换证提前告知工作制度”，主动介入服务，深入、细致摸清到期许可企业底数，建立台账，实施暖心服务，对即将到期换证的许可企业实行提前3个月进行告知工作，贴心做好“便民惠企”工作。另一方面，深入推进“最多跑一次”改革。市应急管理局对行政许可事项及公共服务事项进行梳理，重新修编行政审批事项指南，优化网上办理审批程序，为企业提高优质、高效、便利的审批服务，高效办理行政审批事项。今年以来，我局所有办结的行政许可事项均规定时限网上公开，网上公告率达到100%。', '一是严格执行“三重一大”制度。不断完善和制定局党委议事规则,严格按程序规范决策，进一步提高我局涉及全局性的重大决策事项、重要人士任免事项、重大项目安排事项、大金额资金安排使用事项等事项的决策水平，体现集体决策的巨大优势,进一步规范重大决策行为，完善决策机制，强化决策责任，减少决策失误,推进决策科学化、民主化、法治化。二是认真听取公众意见。在制定局规范性文件过程中，利用吴忠市人民政府网站，发布通知，向社会公开征求意见。三是加大投入。将法律顾问费用作为专项经费纳入年度部门预算，采取政府购买服务的方式，认真筛选考察法律顾问合作单位，签订《法律顾问服务合同》。在行政处罚集体讨论和政府采购项目合同签订等关键环节咨询法律顾问，由法律顾问出具法律意见书。', '一是做好行政复议、行政诉讼工作。严格根据相关法律法规做好行政复议、行政诉讼工作，2022年以来我局无行政诉讼及行政复议案件。二是妥善化解涉诉信访。坚持和发展新时代“枫桥经验”，不断强化政治引领、坚持依法治访、创新工作举措、畅通信访渠道，积极化解各类信访纠纷。接到涉诉信访案件，第一时间派出工作组深入一线调研，分析问题症结、研究解决办法，争取赢得信访人的信任和理解。2022年我局收到12345热线、来信、来访、来电等信息，全部在规定时间内一一回复办结，有效化解社会矛盾。', '结合现阶段疫情防控常态化实际，我局利用“5·12防灾减灾日”“安全生产月”“安全生产法宣传周”等重要节点，通过线上线下相结合的方式开展宣传活动，不断加强安全生产宣传教育，普及安全生产、应急救援和防灾减灾救灾知识，大力提升了全民安全素质和应急技能。今年以来，一是积极开展落实“谁执法谁普法”普法责任制履职报告评议活动，编制印发了《吴忠市应急管理局2022年法治应急建设工作要点》《全市法治应急建设实施方案（2021-2025年）》《吴忠市应急管理局领导干部学法制度》《全市应急管理部门第八个五年（2021-2025年）法治宣传教育实施方案》《吴忠市应急管理局2022年普法责任制“四个清单”分解表》，根据《吴忠市应急管理局2022年度领导干部和工作人员应知应会法律中华人民共和国安全生产法法规知识点》组织学习宣传习近平法治思想，党内法规，《中华人民共和国安全生产法宪法》，《中华人民共和国安全生产法民法典》、新修订《中华人民共和国行政处罚法》等重点内容，开展《中华人民共和国安全生产法安全生产法》宣传培训会2次，共150余人参加了培训，深入开展学习宣传贯彻落实新修改的《宁夏回族自治区安全生产条例》。二是严格履行法制审核制度，已法制审核项目45项，审核管理规范性文件1件。截至2022年12月份共召开11次案审会，已审理案件34件（吊销危险化学品经营许可证1件，罚款204.75万元，其中企业169.2万元、主要负责人35.55万元）其中提交局党委会研究审定5件。严抓案卷评查工作，在2022年依法治国、依法治区、依法治市办对我局2021年6月份至2022年6月份行政执法案卷评查中未发现事实不清法律适用错误或程序错误等问题。三是参加安全生产与刑事司法衔接工作联席会议，参与制定了《联席会议制度》和《实施办法（试行）》明确了《衔接标准》。四是分别赴国家农业科技园区和盐池县给县直部门单位、乡镇领导干部和企业主要负责人及安全管理人员授课培训《地方党政领导干部安全生产责任制规定》、新《安全生产法》等相关规定，有力促进了安全生产监管“三大责任”落实。五是参加地方性法规来我市开展立法调研座谈会4次，处理征求意见稿47件次。', '今年我局在推进法治建设方面取得一定成效，但离目标要求还有一定差距，工作中还存在一些问题和不足。如创新行政执法方式不足以及未能较好地指导县（市、区）和工农业园区（开发区）执法人员开展执法工作。2023年，我局将持续深入学习贯彻习近平法治思想，切实把以人民为中心的发展思想贯穿于法治建设各项工作中。以深化执法标准化为抓手，加大资金投入，不断夯实执法基础，深入开展文明执法教育活动，坚持教育与惩戒相结合，广泛运用说服教育、劝导示范、警示告诫、指导约谈等执法方式，加强重点时段重点企业安全风险管控，防风险，除隐患，保安全。加强对基层安全生产行政执法指导工作，采取集中培训教育，下基层实地指导等多种方式，进一步提高基层执法人员执法业务水平和执法案件的办案质量。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>291</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>吴忠市委宣传部年部门预算</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2017-01-25</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2017nyq_48256/201701/t20170125_501670.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['市委宣传部是市委分管意识形态、宣传思想工作的职能部门，下设市文明办、国防教育办公室、外宣办、吴忠市互联网信息中心，分管市委讲师团。', '1、负责指导全市理论学习、理论研究、理论宣传和理论交流工作，指导讲师团的工作，协助自治区党委宣传部编制社会科学规划、实施计划；', '2、负责新闻舆论导向的宏观管理。协调指导吴忠日报社、吴忠电视台、电台、新闻网、市新闻工作者协会的工作；', '3、负责从宏观上指导全市文化工作，联系市文化体育广播电视局和市文联；协调指导全市文化体育、广播电视、文学艺术工作；', '4、负责规划、部署市全局性的思想政治工作；会同有关部门研究和改进群众性思想教育工作；领导市思想政治工作研究会；', '5、会同有关部门做好全市党的思想建设和党员教育宣传工作，编写党员教育材料，做好典型宣传；', '9、受市委委托，会同市委组织部管理市直宣传文化新闻系统科级干部，考察、任命市直宣传文化新闻系统科级干部；', '市委宣传部设办公室、理论与社会宣传科、新闻科、网络舆情管理科、文化艺术与精神文明创建科5个行政科室，吴忠市互联网信息中心1个事业科室，市委讲师团下设综合科1个科室。', '市委宣传部设办公室、理论与社会宣传科、新闻科、网络舆情管理科、文化艺术与精神文明创建科', '市委宣传部行政编制18名，其中，部长1名，副部长2名（副处），精神文明办公室专职副主任1名（副处），国防教育办公室专职副主任1名，正科级5名，副科级4名机关后勤服务事业编制3名。', '设1个职能科室，财政全额拨款事业编制4名，核定领导职数3名，其中：团长1名（副处级）、副团长1名（正科级）、综合科科长1名（正科级）。', '市委宣传部现有人员19人，财务由市财政局会计核算中心核算管理，执行行政单位会计制度。', '收入预算包括：上年结转0万元，财政拨款收入0万元，事业收入0万元，事业单位经营收入0万元，其他收入 0万元。', '1、按照市政府职能调整，将我部原互联网信息中心调整划归市政府办公室信建办，2016年预算的206万阳光政务直通车经费2017年减少。', '人员经费307.6945万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费15.2万元，主要包括：办公费、手续费、邮电费、取暖费、物业管理费、差旅费、 维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '市委宣传部2017年“三公”经费财政拨款预算数为7.9万元，其中：因公出国（境）费0万元，公务用车购置0万元，公务用车运行费0万元，公务接待费7.9万元。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>291</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>吴忠特殊教育学校年部门预算</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2017-01-24</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2017nyq_48256/201701/t20170124_501408.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['吴忠特殊教育学校2017年部门预算 目录 第一部分 单位概况 一、部门职责和机构设置情况 二、部门预算单位构成 第二部分 2017年部门预算情况说明 第三部分 2017年部门预算表 一、部门收支总表 二、部门收入总表 三、部门支出总表 四、财政拨款收支预算总表 五、一般公共预算支出预算总表 六、一般公共预算支出预算明细表 七、一般公共预算基本支出预算明细表 八、一般公共预算项目支出预算明细表 九、一般公共预算“三公”经费预算表 十、政府性基金预算支出表 吴忠特殊教育学校2017年部门预算——单位概况 一、部门职责和机构设置 吴忠特殊教育学校为全日制九年义务教育学校，基本职能是实施中小学义务教育，促进基础教育发展。有教职员工23人，其中专任教师23人；有退休教师8人；现有教学班10个，在校学生人数98人。 根据市编委批准，我校内设教务处、政教处、总务处、工会4个职能处室。 二、部门预算单位构成 从预算单位构成看，吴忠特殊教育学校部门预算包括：吴忠特殊教育学校本级预算。 吴忠特殊教育学校 2017年部门预算——部门预算情况说明 一、关于吴忠特殊教育学校2017年收支预算情况的总体说明 按照综合预算的原则，吴忠特殊教育学校2017年收入总预算414.33万元，支出总预算414.33万元。 收入预算包括：上年结转0万元，财政拨款收入414.33万元，事业收入0万元，事业单位经营收入0万元，其他收入0万元。 支出预算包括：基本支出414.33万元，项目支出0万元。事业单位经营支出0万元。 2017年收入预算比上年增加75.23 万元，主要原因为人员经费增加（在职教师特教津帖增加） 二、关于吴忠特殊教育学校2017年财政拨款收支预算情况的总体说明 吴忠特殊教育学校2017年财政拨款收支总预算414.33万元。收入预算包括：一般公共预算拨款414.33万元，政府性基金预算拨款0万元，国有资本经营预算拨款0万元。支出预算包括（按政府收支分类功能科目逐项说明）：教育支出308.71万元、社会保障和就业支出46.18万元、医疗卫生16.55万元、住房保障支出42.89万元。 三、关于吴忠特殊教育学校2017年一般公共预算拨款情况说明 基本支出情况说明。 吴忠特殊教育学校2017年一般公共预算基本支出414.33万元，其中： 人员经费330.99万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出。 公用经费83.34万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。 四、关于吴忠特殊教育学校2017年政府性基金预算拨款情况说明 吴忠特殊教育学校2017年无政府性基金预算拨款。 五、关于吴忠特殊教育学校2017年“三公”经费预算情况说明 吴忠特殊教育学校2017年“三公”经费财政拨款预算数为0万元。 主要原因是：公务招待费：我校人员少，本年度没有开展大型业务活动，所以没有发生招待费。公车：我校没有公车。出国、出境培训：本年度没有出国出境学习培训指标。 2017年“三公”经费财政拨款预算比2016年减少0.437万元，其中：因公出国（境）费0万元，主要原因无出国考察；公务用车0万元，主要原因不需要；公务接待费减少0.437万元，主要原因是由于我校人员少，本年度没有开展大型业务活动，所以没有发生招待费。', '吴忠特殊教育学校为全日制九年义务教育学校，基本职能是实施中小学义务教育，促进基础教育发展。有教职员工23人，其中专任教师23人；有退休教师8人；现有教学班10个，在校学生人数98人。', '收入预算包括：上年结转0万元，财政拨款收入414.33万元，事业收入0万元，事业单位经营收入0万元，其他收入0万元。', '2017年收入预算比上年增加75.23 万元，主要原因为人员经费增加（在职教师特教津帖增加）', '人员经费330.99万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出。', '公用经费83.34万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '吴忠特殊教育学校2017年“三公”经费财政拨款预算数为0万元。 主要原因是：公务招待费：我校人员少，本年度没有开展大型业务活动，所以没有发生招待费。公车：我校没有公车。出国、出境培训：本年度没有出国出境学习培训指标。', '年“三公”经费财政拨款预算比2016年减少0.437万元，其中：因公出国（境）费0万元，主要原因无出国考察；公务用车0万元，主要原因不需要；公务接待费减少0.437万元，主要原因是由于我校人员少，本年度没有开展大型业务活动，所以没有发生招待费。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>291</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>吴忠市大事记年月</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2020-09-07</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/202009/t20200907_2223738.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['1日 自治区党委副书记、自治区主席咸辉来到吴忠市儿童福利院、青铜峡市中滩中心小学，看望慰问少年儿童，向孩子们赠送图书、文具、体育用品和生活用品，代表自治区党委、自治区政府祝全市少年儿童节日快乐，寄语大家要牢记习近平总书记谆谆教诲，坚定理想信念，刻苦学习知识，磨练坚强意志，锻炼强健体魄，做德智体美劳全面发展的合格接班人。', '2日 吴忠市委书记沈左权在青铜峡市调研老旧小区改造项目进展情况时强调，要贯彻落实好党中央关于全面建成小康社会补短板的部署要求，始终坚持以人民为中心的发展思想，问需于民、因地制宜、长远谋划、分类施策，完善老旧小区各项设施，补齐功能短板，为群众营造更加舒适宜居的生活环境。', '4日 吴忠市委书记沈左权在调研全面建成小康社会服务业发展和文化建设情况时强调，要把思想认识统一到习近平总书记重要讲话和全国两会精神上来，贯彻落实好党中央关于全面建成小康社会补短板的部署要求，咬定目标不放松，聚焦关键领域，围绕薄弱环节，扎扎实实补短板、强弱项，进一步提升人民群众的获得感和幸福感，确保全面建成小康社会顺利收官。', '5日 吴忠市市长喜清江主持召开吴忠市人民政府第54次常务会议，传达全国高校毕业生就业创业工作电视电话会议精神，听取全市食品药品安全工作和生态环境保护工作汇报，研究部署下一步工作。会议指出，各县（市、区）、各有关部门要切实提高思想认识和政治站位，认真贯彻落实全国高校毕业生就业创业工作电视电话会议精神，把高校毕业生就业作为当前工作的重中之重来抓，抓实抓细高校毕业生就业各项工作。会议强调，要始终把人民群众生命安全和身体健康放在第一位，准确把握食品药品安全监管工作面临的新形势，结合疫情防控工作，落实好食品安全“四个最严”要求，深入实施食品安全战略，保障人民群众饮食用药安全。要准确把握当前生态环境工作面临的形势，深化大气污染治理攻坚，坚决落实河湖长制，继续做好土地污染状况详查，确保全面完成生态环境质量改善目标任务。会议还研究了其他事项。', '8日 习近平总书记来到吴忠市红寺堡区红寺堡镇弘德村和利通区金花园社区考察脱贫攻坚工作。', '△ 宁夏回族自治区第七次全国人口普查综合试点启动会议在吴忠市利通区举行，来自全区各市县区100余名人口普查员和普查指导员参加会议。', '8日～10日 习近平总书记在宁夏回族自治区党委书记陈润儿、自治区政府主席咸辉陪同下，先后来到吴忠、银川等地，深入农村、社区、防洪工程、农业产业园区等，就统筹推进常态化疫情防控和经济社会发展工作、巩固脱贫攻坚成果、加强生态环境保护、推动民族团结进步进行调研。', '12日 吴忠市委召开2020年第20次常委会会议，传达学习习近平总书记视察宁夏时的重要讲话精神和自治区党委常委会扩大会议精神，安排部署贯彻落实工作。吴忠市委书记沈左权主持会议并讲话，强调要从增强“四个意识”、坚定“四个自信”、做到“两个维护”的高度，着力增强贯彻落实的政治自觉、思想自觉和行动自觉，真正把总书记的重要讲话作为全部工作的主题主线、引领发展的方向指引、统揽事业的基本遵循，确保总书记的重要讲话精神在吴忠落地落实。会上，市领导喜清江、朱云、张学慧、兰德明、李元凤、解峰、高建博围绕学习领会习近平总书记重要讲话精神作了发言，谈认识、谈体会、谈思路。大家一致认为，习近平总书记的重要讲话，为我们推进改革发展指明了前进方向、提供了根本遵循，要结合实际持续学、深入悟、笃实行。', '△ 吴忠市召开中长期青年发展规划联席会议第一次全体会议，审议吴忠市中长期青年发展规划联席会议制度和成员单位工作职责，对《宁夏中长期青年发展规划（2019-2025）》实施工作进行安排部署。', '14日 吴忠市在开源广场开展以“弘扬诚信文化、建设信用吴忠”为主题的信用记录关爱日暨社会信用体系建设宣传月活动。', '△ 吴忠市举行以“安全血液·拯救生命”为主题的无偿献血活动。活动现场，通过悬挂横幅、发放宣传手册、宣传单等，让群众更深入地了解无偿献血的益处。', '15日 吴忠市市长、市政府党组书记喜清江主持召开市政府党组会议，传达学习习近平总书记视察宁夏时的重要讲话精神和自治区党委常委会扩大会议精神，安排部署贯彻落实工作。会议强调，习近平总书记的讲话为做好当前和今后一个时期各项工作提供了根本遵循、明确了前进方向、注入了强劲动力。市政府班子成员要把学习贯彻习近平总书记视察宁夏时的重要讲话精神作为当前最重要的政治任务，带着党性学、带着思考学、带着问题学、带着责任学、带着感情学，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，认真学习领会、坚决抓好贯彻落实。', '△ 吴忠市政协主席、党组书记孙瑛主持召开市政协党组扩大会议，专题传达学习习近平总书记视察宁夏时的重要讲话精神，安排部署贯彻落实工作。大家围绕学习习近平总书记重要讲话精神作了交流发言，谈认识、谈体会，并结合政协工作谈了很多思路。', '16日 吴忠市委书记沈左权在暗访督查重点项目建设情况时强调，要认真学习宣传贯彻习近平总书记视察宁夏重要讲话和重要指示精神，全面落实中央做好“六稳”工作、落实“六保”任务要求，绷紧弦、卯足劲，齐心协力、苦干实干，以项目建设助推经济社会高质量发展。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第15次会议。会议传达学习了习近平总书记在专家学者座谈会上的重要讲话精神，中央应对新冠肺炎疫情工作领导小组会议精神和自治区有关文件精神，听取各县（市、区）、有关部门工作情况汇报，分析了当前疫情防控工作存在的突出问题，研究部署了下一步工作，议定了有关事项。', '17日 政协吴忠市五届十七次常委会会议召开。吴忠市政协主席孙瑛主持会议。会议传达学习了习近平总书记视察宁夏重要讲话精神和全国政协十三届三次会议精神；开展了专题学习培训；听取了市人民政府关于房地产发展情况的通报和政协调研组的汇报；各位常委、委员围绕房地产健康发展开展了协商议政。会议指出，近年来，市委、市政府高度重视房地产市场平稳健康发展，扎实推进供给侧结构性改革，有效防范化解矛盾风险，积极化解房地产库存，取得了显著成效。市、县两级政协组织、广大政协委员要立足实际，继续围绕房地产发展工作中的热点难点问题，深入开展调查研究，广泛组织协商论证，努力提出更多具有前瞻性、针对性、可行性的意见建议，为促进我市房地产业健康发展凝聚共识、汇聚力量。', '17日～18日 吴忠市委书记沈左权在盐池县和同心县调研实施乡村振兴战略及脱贫攻坚工作时强调，要认真学习宣传贯彻习近平总书记视察宁夏重要讲话精神，全面落实全国“两会”精神，统筹协调、精准施策，抓好抓实“五个振兴”，推进脱贫攻坚与实施乡村振兴战略有效衔接，努力实现农业强、农村美、农民富。', '19日 吴忠市委召开2020年第21次常委会会议，传达学习全国巡视工作会议暨十九届中央第五轮巡视动员部署会议精神，研究贯彻意见。吴忠市委书记沈左权主持会议并讲话。会议指出，要深入学习习近平总书记关于巡视巡察工作的重要论述，把握好政治巡察定位和巡察工作方针，扎实推进市委巡察工作。要强化联动机制，推进巡察监督与党内监督和其他监督贯通融合，实现无缝对接，形成监督合力。会议在审议《吴忠市贯彻落实国家统计局关于督察宁夏防范和惩治统计造假弄虚作假情况反馈意见整改方案（送审稿）》《吴忠市进一步开展统计造假弄虚作假专项整治工作方案（送审稿）》时强调，要深入学习贯彻习近平总书记关于统计工作的重要讲话和指示批示精神，充分认识统计造假弄虚作假的严重危害，把抓好国家统计督察反馈意见整改落实作为重大政治任务，即知即改、立行立改、真抓实改。会议传达了全国文明城市创建工作培训班精神，听取了全国文明城市创建工作情况汇报，审议《吴忠市创建全国文明城市质量提升行动工作方案（送审稿）》。', '△ 吴忠市委应对新冠肺炎疫情工作领导小组召开第11次会议，听取全市常态化疫情防控工作情况汇报，安排部署下一步工作。会议指出，近期，国内疫情防控又出现了一些新情况、新动向，全市上下要切实把思想认识统一到中央和自治区党委的部署要求上来，进一步完善常态化疫情防控机制，持续抓紧抓实外防输入、内防反弹各项工作，决不能让来之不易的疫情防控成果前功尽弃。会议要求，各县（市、区）、各部门要抓好监测预警，实时掌握重点地区来吴人员情况，全力排查补齐疫情防控短板弱项，确保形成严密高效的工作闭环。', '22日 吴忠市召开离退休干部情况通报会，传达学习习近平总书记视察宁夏重要讲话精神，通报吴忠市委关于学习宣传贯彻工作的安排部署。吴忠市委副书记朱云参加会议。会议指出，习近平总书记视察宁夏重要讲话意义非常重大、影响十分深远。市委要把学习宣传贯彻习近平总书记视察宁夏重要讲话精神作为当前和今后一个时期的首要政治任务和重大政治责任。扎实推动习近平总书记视察宁夏重要讲话精神落地生根，着力推动高质量发展，坚定不移全面深化改革，坚决打赢脱贫攻坚战，坚决守好改善生态环境生命线。会议强调，各级党委和各级政府要高度重视并切实做好老干部工作，落实政策待遇，及时通报情况，让老领导、老同志发挥余热、再立新功。老领导、老同志一致表示，习近平总书记对宁夏工作的高度重视、对宁夏干部群众的关心厚爱，让大家倍感温暖、备受鼓舞。', '23日 吴忠市委理论学习中心组召开学习会。会议深入学习贯彻习近平总书记关于力戒形式主义官僚主义的重要论述，围绕“力戒形式主义官僚主义为基层减负”主题进行交流研讨，对持续解决困扰基层的形式主义问题进行了安排部署，提出了明确要求。吴忠市委书记沈左权主持会议并讲话。吴忠市委副书记朱云等参加会议。会议指出，今年是决战脱贫攻坚、决胜全面小康收官之年，面对复杂的外部环境及新冠肺炎疫情影响，任务更加艰巨，更加需要我们以优良作风狠抓工作落实。要从政治和全局的高度来审视把握持续解决形式主义突出问题为基层减负工作，深刻领会持续解决形式主义突出问题为基层减负是贯彻落实党中央决策部署的政治要求，特别是当前要认真学习贯彻习近平总书记视察宁夏重要讲话和重要指示精神，切实把思想和行动统一到党中央和自治区党委决策部署上来，打好三大攻坚战，坚决守好三条生命线，扎实做好“六稳”工作，全面落实“六保”任务，全力做好调转增融“四篇文章”，以作风转变推动改革发展稳定各项工作。', '△ 吴忠市人大常委会党组召开理论学习中心组学习会。会议学习了习近平总书记视察宁夏重要讲话精神，与会人员围绕学习贯彻习近平总书记视察宁夏重要讲话和党的十九届四中全会精神进行了交流研讨。', '△ 吴忠市委财经委员会召开第四次会议，传达学习自治区“十四五”规划编制和当前项目谋划工作会议及黄河流域生态保护和高质量发展项目谋划推进会精神，听取全市及各县（市、区）“十四五”规划编制思路及项目谋划情况汇报，研究部署下一步工作。吴忠市委书记、市委财经委员会主任沈左权主持会议并讲话。', '24日 吴忠市市长喜清江主持召开市人民政府第55次常务会议，听取全市1-5月份经济运行情况和脱贫攻坚工作情况汇报，研究部署下一步工作。会议要求各县（市、区）、各部门要认真学习宣传贯彻习近平总书记视察宁夏重要讲话精神，要努力减轻疫情带来的影响，持续巩固疫情防控成果。要全力稳定工业经济，及时兑现各项利企惠企政策，切实稳住市场主体。要聚力发展高效种养业，加快产业结构调整，稳步推进特色产业发展。要着力改善生态环境，努力建设黄河流域生态保护和高质量发展先行区。要积极扩大有效投资，持续优化投资环境，充分发挥有效投资的关键作用。要用力保障改善民生，落实就业优先政策，坚决补齐民生保障领域短板弱项。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>291</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>中共吴忠市委组织部年度部门决算公开</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018-10-25</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201811/t20181102_1147803.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预[2016]143号）和吴忠市财政局《关于做好2017年度部门决算公开工作的通知', '（1）、研究指导全市党的基层组织建设，探索、指导全市各类基层党组织的设置和活动方式；协调、规划和指导党员教育工作，主管党员的发展、管理和服务工作；负责组织、指导、协调党代表大会代表开展活动，做好党代表意见、建议、提案办理和教育培训管理等日常服务联络工作；组织、协调新时期党建工作新情况、新问题和党建理论的研究。', '（2）、对市委管理的领导班子、领导干部提出调整、配备意见和建议；负责市管干部的选拔、考察工作，指导协调、组织实施全市公开选拔领导干部工作；按照干部管理权限，负责有关科级干部的备案、审查、管理和任免；负责区属有关部门领导成员任免的协管工作；负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批，；承办有关干部的调配、交流、安置及出国（境）政审等事宜。', '（3）、指导和加强全市各级领导班子思想政治建设和作风建设，督促检查下级党委认真贯彻执行民主集中制，坚持集体领导，开好民主生活会。', '（4）、研究贯彻中央制定的干部队伍建设的方针、政策，组织落实培养选拔年轻干部、少数民族干部、妇女干部、非中共党员干部和后备干部。', '（5）、研究和宏观指导全市党的组织制度和干部人事制度改革，制定或参与制定组织、干部、人事工作的重要政策和制度。', '（6）、负责全市干部监督工作的综合、协调和宏观指导，组织制定有关干部监督的制度和规定，及时向市委反映情况，提出意见和建议。', '（7）、主管干部教育培训工作，制定干部教育培训工作的有关政策、规划；组织市委管理的干部以及年轻干部、科级干部、组织人事干部的培训；指导、协调、检查全市的干部教育培训工作；研究、探索干部教育培训工作制度改革，指导干部培训基地、师资队伍建设和教材编写等工作。', '（8）、承担市委人才工作领导小组的日常工作。负责全市人才工作的牵头抓总、宏观指导、政策研究、综合协调和督促检查工作。', '（9）、负责退（离）休干部工作的宏观管理，制定或参与制定退（离）休干部工作的方针、政策。', '（11）、负责全市干部统计和党员统计工作，负责全市干部档案管理宏观指导工作；负责市管干部人事档案的建立、整理、转递和管理，负责全市干部人事档案管理达标建设工作，负责市管干部人事档案数字化建设工作。负责组织部文书档案工作。', '吴忠市委组织部属一级预算单位，内设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、干部教育监督科、人才科、网络与信息科、党员教育中心十个内设机构。', '执行《行政单位会计制度》，由办公室负责部机关财务、劳资、固定资产和车辆日常管理工作，在会计核算中心统一核算。', '（六）2017年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '年度“三公”经费财政拨款支出预算为128544元，支出决算为49717元，完成预算的39%，其中：因公出国（境）费支出决算为0元，完成预算的0%；公务用车购置及运行经费支出决算为0元，完成预算的0%；公务接待费支出决算为49717元，完成预算的39%。2017年度“三公”经费支出决算数小于预算数的主要原因：严格执行中央八项规定，招待费减少。', '年度“三公”经费财政拨款支出决算中，因公出国（境）费支出决算0元，占“三公”经费支出的0%；公务用车购置及运行费支出决算0元，占“三公”经费支出的0%；公务接待费支出决算49717元，占“三公”经费支出的100%。具体情况如下：', '年度政府性基金预算财政拨款本年收入0元，本年支出0元，年末结转和结余0元。支出具体情况如下：按支出功能分类科目说明。', '预算绩效管理工作处于认识、学习阶段。下一步，我们将继续学习预算绩效管理业务，不断健全绩效管理工作机制，明确职责分工，努力提高绩效管理工作水平。高度重视预算绩效管理工作，组织召开相关会议，明确各工作职能机构和人员，制定预算绩效管理工作内部机制和实施细则，建立评价个性指标体系。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>291</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>吴忠市教育工委吴忠市教育局关于印发吴忠市中小学思政课名师工作室和班主任名师工作室建设实施方案的通知</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202104/t20210419_2791925.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['吴忠市教育工委 吴忠市教育局关于印发《吴忠市中小学思政课“名师工作室”和班主任“名师工作室”建设实施方案》的通知_吴忠市人民政府', '吴忠市教育工委 吴忠市教育局关于印发《吴忠市中小学思政课“名师工作室”和班主任“名师工作室”建设实施方案》的通知', '教学研究为载体，以专业引领为手段，以名师工作室为阵地，搭建我市校际之间、学科之间以及我市与外地先进地区学科教研、学术交流的平台，组织开展学科教学研究，对有潜质的青年教师进行集中指导培训，从而探索实施塑造名师的方法和途径，带动更多的教师迅速成长。', '组建以特级教师、区级骨干教师、市级名师为主要力量的名师工作室，开展教育教学研究活动，激励名师不断进取', '名师工作室主持人为工作室其他成员的导师，负责制定工作室工作方案和成员培养方案，指导和帮助工作室成员在工作周期内达到培养目标，引领他们提高师德修养和教育教学研究水平。工作室成员应在主持人的指导和引领下，成为在某一方面学有专长、术有专攻的知名教师', '以工作室主持人的专长为基础，以工作室成员的集体智慧为依托，针对中小学教育教学实践中的重点、难点问题进行专题研究。三年为一周期，名师工作室至少要完成一个', '研讨会、报告会、名师论坛、师徒结对、公开教学、送教下乡、现场指导等形式的活动，进一步提升', '依托宁夏教育云平台，根据思政学科和班主任工作特点建立专题网页，及时上传有关的教育教学资源和活动资料，经常开展在线交流与研讨活动，使之成为工作动态发布、成果辐射推广和资源生成整合的中心。', '建设一批在线开放的空中思政精品课和班主任工作精品课，培育一批思政课和班主任工作品牌项目和创新课例。充分利用微信、微博、手机客户端等媒介，运用VR全景、H5微场景、动画图解等技术性手段，组织开展嵌入式、渗透式教育教学活动，推动人工智能等现代信息技术在教育教学工作中的示范性应用。', '建设一批在线开放的空中思政精品课和班主任工作精品课，培育一批思政课和班主任工作品牌项目和创新课例。充分利用微信、微博、手机客户端等媒介，运用', '微场景、动画图解等技术性手段，组织开展嵌入式、渗透式教育教学活动，推动人工智能等现代信息技术在教育教学工作中的示范性应用。', '名师工作室的教育教学研究成果以论文、讲座、公开课、研讨会、报告会、名师论坛、专题视频、现场指导等形式在全市范围内介绍、推广。工作周期内，工作室主持人应带领工作室成员开设一定数量的市、县级公开课、培训讲座或教学论坛（报告会、研讨会），定期组织工作室全体成员开展下基层送教，或与农村学校开展结对帮教。', '21个，班主任名师工作室19个。各县（市、区）和市直属学校可按照分配名额（见附件2）审核确定所辖范围内的名师工作室。', '教育局认定并授牌，以三年为一个工作周期，实行主持人负责制，面向教研共同体各成员单位招聘成员。', '科研热情和改革创新意识，乐于奉献，合作包容，同时在本学科系统内具有较高的认同度和影响力。', '具有较强的专业引领、培训指导和组织协调能力，有从事教科研工作的时间和精力保证，能够承担工作室的职责任务。', '热爱教育事业，具有良好师德风范，有科研热情和改革创新的意识，勇于拼搏，乐于钻研，善于学习，具有较强的自我发展能力和团队合作精神。', '由名师工作室主持人与工作室成员签订《吴忠市名师工作室成员工作协议书》，明确周期工作目标，规定双方的权力与职责、工作任务等。', '教育局选择适当形式命名各工作室，授予聘书和牌匾，并以工作室主持人所在学校为基地挂牌，工作室依据有关规定和协议开展工作。', '.指导工作室成员制订自我发展计划、整理教学资源，定期开展灵活有效的研讨活动，组织落实教学公开课、专题讲座等。', '指导工作室成员制订自我发展计划、整理教学资源，定期开展灵活有效的研讨活动，组织落实教学公开课、专题讲座等。', '教育教学研究及实践活动，组织成员参与工作室的课题研究，指导成员确定各自的研究课题，按时优质地完成课题研究或专题研究报告。', '5.自觉承担“专递课堂”“名师课堂”“名校网络课堂”的教学任务，发挥引领辐射作用。', '1.在主持人的引领下，结合个人实际，制定个人三年发展规划，制订学年度个人专业发展研修计划，做好各种研修记录，提交研修总结，并上传工作室空间。', '在主持人的引领下，结合个人实际，制定个人三年发展规划，制订学年度个人专业发展研修计划，做好各种研修记录，提交研修总结，并上传工作室空间。', '2.接受主持人的指导、检查、评估，积极参与工作室开展的各项活动，积极承担上课、说课、议课、研课、专题讲座等教学任务。', '接受主持人的指导、检查、评估，积极参与工作室开展的各项活动，积极承担上课、说课、议课、研课、专题讲座等教学任务。', '1节公开课，参加2次以上专题研讨活动，举办1次专题微讲座，在宁夏教育云平台上传1节优质课堂实录和2份以上的优秀教学设计。', '市教育局人事科负责名师的评选与认定，市教研室负责对名师工作室日常业务工作的管理和指导、学年度考核检查，市教育局财务科建立专项经费保障制度，为工作室工作的开展提供相应经费支持，负责相关经费落实及经费使用情况审核，市教育信息化中心负责指导名师工作室网页建设和运行，协助各工作室进行网页更新和日常维护。', '2.县（市、区）教育工委和教育局负责协助管理名师工作室，督促名师工作室按时完成工作任务。', '县（市、区）教育工委和教育局负责协助管理名师工作室，督促名师工作室按时完成工作任务。', '1.实行年度过程性考核评估。通过听取汇报、查阅资料、调查访谈、成果检验等考核方式，对名师工作室、名师工作室主持人及成员进行年度过程性考核。年度考核结果分为优秀、合格和不合格三个等级。考核为不合格，考核组将下达整改通知', '实行年度过程性考核评估。通过听取汇报、查阅资料、调查访谈、成果检验等考核方式，对名师工作室、名师工作室主持人及成员进行年度过程性考核。年度考核结果分为优秀、合格和不合格三个等级。考核为不合格，考核组将下达整改通知', '2.实行周期终结性考核。通过听取汇报、查阅资料、调查访谈、成果检验等考核方式，在三年周期结束后，对名师工作室、名师工作室主持人及成员进行终结性考核。合格以上者自动进入下一周期的名师工作室组建。考核为优秀的，将给予奖励；考核为不合格的，取消该工作室并摘牌。', '实行周期终结性考核。通过听取汇报、查阅资料、调查访谈、成果检验等考核方式，在三年周期结束后，对名师工作室、名师工作室主持人及成员进行终结性考核。合格以上者自动进入下一周期的名师工作室组建。考核为优秀的，将给予奖励；考核为不合格的，取消该工作室并摘牌。', '3.名师工作室成员的考核由名师工作室主持人负责，年度考核不合格的调出名师工作室，同时按规定程序吸收符合条件、有发展潜力的新成员进入工作室。', '名师工作室成员的考核由名师工作室主持人负责，年度考核不合格的调出名师工作室，同时按规定程序吸收符合条件、有发展潜力的新成员进入工作室。', '市教育工委和教育局印发实施方案，各县（市、区）宣传发动，动员符合条件的教师开展申报工作，填写有关申报表，并由教师所在学校完成初审工作，推选名师工作室报所在地教育局进行资格审定。', '各县（市、区）组建专家团队，召开论证会，由名师工作室主持人阐述名师工作室工作目标、工作任务、工作措施等内容，专家团队进行具体指导。在此基础上，按照《吴忠市思政课（班主任）名师工作室名额分配表》确定名师工作室，报所在县（市、区）教育工委、教育局批准后，报市教育工委和市教育局进行确认。市直属学校由市教育工委和市教育局进行资格审定。', '市教育工委和市教育局组成专家团队，对所申报的名师工作室进行终审，确认各名师工作室。', '吴忠市教育工委、教育局与名师工作室主持人签订目标责任书，名师工作室主持人与成员签订互相合作共同提高协议书。', '名师工作室主持人所在学校要为名师工作室提供相应的工作场所，配备相应的工作设施，适当减少工作室主持人事务性工作。名师工作室成员所在学校应为名师工作室开展工作提供便利条件，', '用于工作室的各项业务活动，包括添置书籍、课题研究、专题研究、专家授课及与培养工作有关的观摩学习费用以及名师工作室主持人工作津贴等', '经费报销符合财务规定和报销程序。一个工作周期结束后，工作室主持人所在单位要报送经费使用结果清单，由主管部门会同审计部门进行审计。', '对考核合格的名师工作室，优先为工作室主持人、成员提供参加高层次研修、学习考察和学术研讨等活动的机会，在评优评先、晋职晋级时优先考虑，在申报', '重点课题时优先推荐，在外出学习时优先安排。名师工作室成员所获成果荣誉记入原工作单位，享受相应的教育教学成果奖励。', '为了进一步扩大名师知名度，建立起全市中小学优秀教师间合作互动的培养人才新机制，发挥全市高水平教师的专业引领作用，使其成为培养全市优秀教师重要的发源地、优秀青年教师的集聚地和未来名师的孵化地，不断促进全市教育事业更快更好地发展，根据《吴忠市中小学思政课“名师工作室”和班主任“名师工作室”建设实施方案》的有关规定，就完成工作室研究项目、培养中青年教师、质量评估、各项保障等方面有关事项，经吴忠市教育工委、教育局（以下简称甲方）与本名师工作室（以下简称乙方）协商达成如下协议：', '为了进一步扩大名师知名度，建立起全市中小学优秀教师间合作互动的培养人才新机制，发挥全市高水平教师的专业引领作用，使其成为培养全市优秀教师重要的发源地、优秀青年教师的集聚地和未来名师的孵化地，不断促进全市教育事业更快更好地发展，根据《吴忠市中小学思政课', '建设实施方案》的有关规定，就完成工作室研究项目、培养中青年教师、质量评估、各项保障等方面有关事项，经吴忠市教育工委、教育局（以下简称甲方）与本名师工作室（以下简称乙方）协商达成如下协议：', '3.督促相关部门、学校为乙方的研究、培训工作提供时间、设备、物质、场所、智力等方面的支持。', '督促相关部门、学校为乙方的研究、培训工作提供时间、设备、物质、场所、智力等方面的支持。', '4.指导、监督对乙方进行过程性、终结性考核评估，并组织认定是否实现了本协议所确定的目标。', '指导、监督对乙方进行过程性、终结性考核评估，并组织认定是否实现了本协议所确定的目标。', '5.根据《吴忠市中小学思政课“名师工作室”和班主任“名师工作室”建设实施方案》相关规定支付乙方工作经费，并视培养成效对乙方实施奖励。', '在协议执行期间，乙方需中止本协议，必须提出书面报告，陈述理由，并经甲方批准方可中止协议，并酌情减拨工作津贴；甲方对乙方实行过程性、终结性评价淘汰制，考核不合格则摘牌停止运行，并相应停止核拨工作津贴。', '为了进一步扩大名师知名度，建立起全市优秀教师间合作互动的培养人才的新机制，发挥全市高水平教师的专业引领作用，使其成为培养全市优秀教师重要的发源地、优秀青年教师的集聚地和未来名师的孵化地，不断促进全市教育事业更快更好地发展，现就名师工作室主持人', '1.根据《吴忠市中小学思政课“名师工作室”和班主任“名师工作室”建设实施方案》中“', '”确定的培养目标制定乙方的具体培养考核方案，明确其发展方向和培养方法、途径、考核指标。', '确定的培养目标制定乙方的具体培养考核方案，明确其发展方向和培养方法、途径、考核指标。', '2.帮助乙方制定1-3年专业成长计划，认真实施培养计划，根据乙方的成长情况不断调整和完善培养计划、方法和模式，使乙方在专业素养、专业能力得以快速成长，具有一定专业建树。', '年专业成长计划，认真实施培养计划，根据乙方的成长情况不断调整和完善培养计划、方法和模式，使乙方在专业素养、专业能力得以快速成长，具有一定专业建树。', '，由甲方对乙方进行考核，并认定是否实现了本协议所确定的目标，考核不合格者则调整出名师工作室。', '在协议执行期间，甲、乙方需中止本协议，必须提出书面报告，陈述理由，并经丙方批准方可中止协议；丙方对甲方实行过程性、终结性评价淘汰制，考核不合格，可以报请市教育局取消工作室主持人资格。因不可抗拒的原因造成协议无法履行的，本协议所约束的责权利终结。后续事宜由市教育局协调有关部门或个人解决。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>291</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>吴忠市直机关工委年部门预算</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2018n_48257/201802/t20180212_690291.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['(二)制定市直机关党建工作规划，提出加强和改进机关党建工作的措施，检查督促市直机关党组织切实履行职责，落实好党建工作各项任务，指导基层组织搞好党的思想建设、组织建设、作风建设和制度建设，抓好对党员的教育和管理。', '(三)负责市直机关党员的宣传教育和理论学习工作，指导基层党组织和广大党员学习党的路线、方针、政策、决议，抓好理论武装和思想政治工作。', '(四)督促、指导机关基层党组织按期进行换届选举，负责审批市直机关党委、总支、支部班子。', '(五)做好发展党员工作。加强对入党积极分子的教育、培养和考察。积极慎重地审批新党员，做好预备党员转正工作。', '市直机关工委行政编制10名。其中：书记1名(正处)，副书记2名（副处）；正科级领导职数', '万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出', '万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '5、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '7、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>291</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市领导七一前走访慰问党员</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-07-01</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202007/t20200701_2151037.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['吴忠网讯（记者 谷刚 金方华 杨娜 马一萍 吴海燕）在建党 99 周年来临之际，6月29日至30日，市委书记沈左权，市长喜清江，市政协主席孙瑛，市委副书记朱云及其他市领导分赴各县（市、区）看望慰问老党员、生活困难党员、离任村党组织书记等，并通过他们向全市广大党员致以节日的问候。', '6月30日，沈左权、高建博一行来到青铜峡市，看望慰问离任村党组织书记、生活困难老党员等。在离任村党组织书记马文忠家，沈左权与他促膝交谈，亲切询问他的身体和家庭情况，并送上节日的问候和组织的关怀。沈左权指出，老党员是我们党干事创业的宝贵财富，他们中虽然多数人已退休离岗，但他们共产党人的精气神并没有减少，很多老党员仍为地方建设发展献计出力，为党和人民事业发光发热。希望老党员们认真学习宣传贯彻习近平总书记视察宁夏重要讲话精神，继续发挥好党员先锋模范作用，为吴忠高质量发展作出贡献。在生活困难党员叶连芳家，沈左权与她一起忆往昔、话发展。他说，习近平总书记在金花园社区考察时，深刻阐明了奋斗的重大意义，强调有党和政府持续努力，有各族群众不懈奋斗，今后的生活一定会更好更幸福。希望叶连芳勇敢面对困难，乐观坚强生活，继续保持和发扬共产党员优秀革命传统，传承良好家风，教育引导下一代苦干实干，通过奋斗过上更加幸福的生活。沈左权强调，各级各有关部门要带着感情、带着责任，关爱体恤老党员、生活困难党员等，落实好有关政策，解决好实际困难，在生活上给予他们更多关心照顾，让他们生活得更加幸福安康。当天，沈左权还走访慰问了疫情防控一线党员刘清池，因公牺牲党员王克强家属李丽影。', '6月30日，喜清江、马洪海一行到同心县，看望慰问疫情防控一线党员，已故优秀共产党员家属等。1996年入党的李长发，在疫情防控期间，主动到村党支部“请战”，连续在村口卡点执勤40余天，参与重点人员走访排查，劝导群众戴好口罩，协助落实消毒责任。喜清江仔细询问李长发的身体状况、生活情况，对他在疫情防控期间积极响应党的号召，义无反顾冲上疫情防控一线的做法表示敬佩。喜清江说，老党员们久经考验、立场坚定、无私奉献，为党的事业作出了重要贡献，希望他们充分发挥党员先锋模范作用，为美丽乡村建设献计出力。在因公牺牲党员曹建华家属樊秀兰家，喜清江与老人拉起家常，亲切询问老人饮食起居、身体状况，叮嘱老人保重身体，祝愿她生活幸福。喜清江强调，要从细微处入手，开展定期走访活动，尽最大努力排忧解难，使英烈家属感受到党的温暖和关怀。', '6月29日，孙瑛、兰德明、童伟东一行前往利通区，到中华人民共和国成立前入党农村老党员、疫情防控一线党员、生活困难党员等家中慰问。“赵峰生前是社区好干部、好榜样，他为社区做的许许多多的好事，群众都记在心里。虽然他人走了，但精神仍然在……”在已故优秀共产党员赵峰的遗属谢芳家，得知谢芳现在从事互善联盟爱心公益社团工作，孙瑛鼓励她继续做好志愿服务工作。在疫情防控一线党员金占云家，孙瑛叮嘱他继续发挥党员的余热和先锋模范带头作用，做一些力所能及的事情。在慰问中华人民共和国成立前入党农村老党员马保山和生活困难党员张明廷时，孙瑛仔细询问他们的身体健康情况和目前的困难。她说，像马保山一样在中华人民共和国成立前入党的老党员，都是新中国的有功之臣，党和政府永远不会忘记他们所作出的贡献，希望他们节日快乐、健康长寿。', '6月29日，朱云、李元凤一行前往盐池县，看望慰问部分老党员、生活困难党员。张培芳是盐池县人民医院感染科主任，疫情期间，她冲锋在前、战斗在前，在该县定点隔离病房坚守了70多个日夜。朱云与张培芳亲切交谈，感谢她和其他医务人员为我市防疫工作作出的无私奉献，希望她在工作岗位上继续发挥党员先锋模范作用，为广大患者提供高质量的医疗服务。在生活困难党员李柏、赵清海，离任村党组织书记林生宽家中，朱云、李元凤仔细询问了他们的家庭情况和身体状况，深入了解实际困难，恳切征求意见建议，感谢他们为党的事业发展所作出的贡献，并向他们送去节日的问候，带去党和政府的关怀。', '6月30日，张学慧、马伟等一行来到红寺堡区看望慰问老党员，为他们送上节日的问候。在生活困难党员毛生有家中，张学慧、马伟关切地询问老人的生活情况，嘱咐老人保重身体，叮嘱相关部门时刻把困难党员的冷暖挂在心上，落实到行动上。在离任村党组织书记杨占彪家，张学慧、马伟对他所作出的贡献表示感谢，勉励其继续发挥好党员先锋模范作用，多为村民办实事、办好事。当天，慰问组还看望慰问了生活困难党员马世月和杜玉玲，给他们送去了党的关怀和温暖。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>291</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>吴忠市打响擦亮吃在吴忠品牌推动餐饮产业高质量发展</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202303/t20230323_4007401.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['近年来，吴忠市统筹推进全域旅游与餐饮业融合发展，以做大做优做亮吴忠特色美食为抓手，持续打造“游在宁夏、吃在吴忠”及“吴忠早茶”城市品牌，全市餐饮业零售额连续5年实现两位数增长。', '近年来，吴忠市统筹推进全域旅游与餐饮业融合发展，以做大做优做亮吴忠特色美食为抓手，持续打造', '吴忠美食特色鲜明、源远流长。吴忠市抢抓自治区打造全域旅游示范区的有利契机，大力实施“游在宁夏 吃在吴忠”品牌战略，将餐饮产业列入全市重点特色产业之一，建立市领导包抓产业机制，印发专项工作方案、成立专门工作机构、出台专项扶持政策、聚各方之力强力推进。成立市级菜品研发中心，深入挖掘传统小吃、创新特色菜品，先后培育了吴忠手抓、手撕土鸡等“中国名菜”41道、吴忠油香份子、肉粘饭等“中华名小吃”12道、吴忠盘丝饼、牛舌酥等“中国名点”17道，全羊宴、九碗十三花等“中华名宴”7个，评选香丁丁、玉祥楼等吴忠早茶示范店40家，兴云饭庄等12家餐饮单位被中国烹饪协会列入“中餐特色美食企业名录”，吴忠民族美食广场的大蒜烧黄河鲶鱼、杜优素羊杂和兴云饭庄白水鸡入选宁夏十大经典名菜。特别是遍布城乡的吴忠早茶，已经成为吴忠的城市名片和文化符号，享有“南有广州、北有吴忠”的美誉。', '吴忠美食特色鲜明、源远流长。吴忠市抢抓自治区打造全域旅游示范区的有利契机，大力实施', '游在宁夏 吃在吴忠”品牌战略，将餐饮产业列入全市重点特色产业之一，建立市领导包抓产业机制，印发专项工作方案、成立专门工作机构、出台专项扶持政策、聚各方之力强力推进。成立市级菜品研发中心，深入挖掘传统小吃、创新特色菜品，先后培育了吴忠手抓、手撕土鸡等', '家餐饮单位被中国烹饪协会列入“中餐特色美食企业名录”，吴忠民族美食广场的大蒜烧黄河鲶鱼、杜优素羊杂和兴云饭庄白水鸡入选宁夏十大经典名菜。特别是遍布城乡的吴忠早茶，已经成为吴忠的城市名片和文化符号，享有', '统筹谋划、科学定位，明确了“一核多点（以利通区为核心，各县区为节点）”的全市餐饮产业发展布局，在市区集中打造了“二区三街四广场”等特色街区，培育了一批中华餐饮名店，着力构建美景美食、名街名店的旅游+餐饮融合发展格局。市区城南牛家坊特色餐饮集聚区成为夏季最美网红打卡点；沿黄旅游集聚区成为宁夏旅游黄金线路；特色街区集聚效应明显，光耀美食街获评国家级旅游休闲街区，光耀美食街、龙海商业街成为宁夏十大旅游特色街区；利通食府、迎宾街美食广场、吴忠万达美食广场、民族美食广场“四大美食广场”，以及吴忠民族饭庄、食名轩、盐池宾馆等21家“中华餐饮名店”和杜优素羊杂、国强手抓2家中华老字号餐饮店构建起具有吴忠特色的“餐饮矩阵”集群，吴忠市被中国烹饪协会授予“民族美食文化地标城市”称号。', '一核多点（以利通区为核心，各县区为节点）”的全市餐饮产业发展布局，在市区集中打造了', '二区三街四广场”等特色街区，培育了一批中华餐饮名店，着力构建美景美食、名街名店的旅游', '餐饮融合发展格局。市区城南牛家坊特色餐饮集聚区成为夏季最美网红打卡点；沿黄旅游集聚区成为宁夏旅游黄金线路；特色街区集聚效应明显，光耀美食街获评国家级旅游休闲街区，光耀美食街、龙海商业街成为宁夏十大旅游特色街区；利通食府、迎宾街美食广场、吴忠万达美食广场、民族美食广场', '坚持走品牌化、标准化发展之路，在全国率先出台了《关于促进吴忠早茶产业高质量发展的决定》，以法规形式保障吴忠早茶高质量发展；先后制定了吴忠早茶服务规范、原材料采购指南等7项团体标准，开展餐饮质量提升“三大行动”，力求让每位用餐者吃得放心安心。打好宣传组合拳，拍摄“吴忠日食记”、编印“吃在吴忠”宣传画册、绘制吴忠美食地图，让南来北往的游客按图索骥、找到美食。联合中国烹饪协会，连续举办四届中国特色小吃文化节、成功举办了两届中国面食博览会暨吴忠早茶美食文化节，组织开展“游在宁夏吃在吴忠”八大系列美食及十大餐饮名店、吴忠老字号和绿色餐饮饭店等评选活动，', '坚持走品牌化、标准化发展之路，在全国率先出台了《关于促进吴忠早茶产业高质量发展的决定》，以法规形式保障吴忠早茶高质量发展；先后制定了吴忠早茶服务规范、原材料采购指南等', '吴忠日食记”、编印“吃在吴忠”宣传画册、绘制吴忠美食地图，让南来北往的游客按图索骥、找到美食。联合中国烹饪协会，连续举办四届中国特色小吃文化节、成功举办了两届中国面食博览会暨吴忠早茶美食文化节，组织开展', '拓展形成了美食竞技、文化交流、餐饮消费、房车博览等主题品牌活动，吸引了新华网、人民网、快手、抖音等众多媒体采访报道，吴忠早茶在宁夏乃至全国小有名气，充分发挥了拉动餐饮业、带动服务业发展的“火车头”效应。2021年吴忠市被中国烹饪协会授予“早茶文化地标城市”称号。', '拓展形成了美食竞技、文化交流、餐饮消费、房车博览等主题品牌活动，吸引了新华网、人民网、快手、抖音等众多媒体采访报道，吴忠早茶在宁夏乃至全国小有名气，充分发挥了拉动餐饮业、带动服务业发展的', '健全完善餐饮美食产业人才培养机制，创新人才成长平台，采取请进来讲、送出去学等方式，持续壮大本土餐饮人才队伍。先后与中国烹饪协会、江苏省餐饮行业协会、宁夏餐饮饭店协会达成了餐饮业人才培养战略合作协议，举办了全国地域特色美食创意大赛、吴忠市首届厨王争霸赛暨“寻味吴忠”民间厨艺大赛，联合江苏省餐饮行业协会举办了吴忠市首届餐饮业发展论坛暨江苏·宁夏两地厨王交流赛，由政府出资组织全市优秀厨师赴南京、广州、重庆、长沙等地开展考察活动3次，学习先进经验，交流提高厨艺，全市共培养高级烹饪大师35名、高级烹饪技师36名、高级职业经理人52人，“吴忠厨师”被人社部评为优秀劳务品牌。', '健全完善餐饮美食产业人才培养机制，创新人才成长平台，采取请进来讲、送出去学等方式，持续壮大本土餐饮人才队伍。先后与中国烹饪协会、江苏省餐饮行业协会、宁夏餐饮饭店协会达成了餐饮业人才培养战略合作协议，举办了全国地域特色美食创意大赛、吴忠市首届厨王争霸赛暨“寻味吴忠”民间厨艺大赛，联合江苏省餐饮行业协会举办了吴忠市首届餐饮业发展论坛暨江苏·宁夏两地厨王交流赛，由政府出资组织全市优秀厨师赴南京、广州、重庆、长沙等地开展考察活动3次，学习先进经验，交流提高厨艺，全市共培养高级烹饪大师35名、高级烹饪技师36名、高级职业经理人52人，', '2023年，吴忠市将积极抢抓“十四五”发展机遇，紧紧围绕打造“游在宁夏、吃在吴忠”、吴忠早茶品牌，高质量办好早茶美食文化节，着力在丰富品牌内涵、提升行业品质、扩大对外影响、促进融合发展上下功夫、做文章，切实把“游在宁夏、吃在吴忠”、吴忠早茶的品牌优势转化为经济优势，为建设黄河流域生态保护和高质量发展先行区做出新的贡献。', '十四五”发展机遇，紧紧围绕打造“游在宁夏、吃在吴忠”、吴忠早茶品牌，高质量办好早茶美食文化节，着力在丰富品牌内涵、提升行业品质、扩大对外影响、促进融合发展上下功夫、做文章，切实把', '游在宁夏、吃在吴忠”、吴忠早茶的品牌优势转化为经济优势，为建设黄河流域生态保护和高质量发展先行区做出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>291</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>吴忠市委组织部年度部门决算公开情况说明整改</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2019-12-27</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201912/t20191227_1907780.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预[2016]143号）和吴忠市财政局《关于做好2017年度部门决算公开工作的通知', '根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预', '（1）、研究指导全市党的基层组织建设，探索、指导全市各类基层党组织的设置和活动方式；协调、规划和指导党员教育工作，主管党员的发展、管理和服务工作；负责组织、指导、协调党代表大会代表开展活动，做好党代表意见、建议、提案办理和教育培训管理等日常服务联络工作；组织、协调新时期党建工作新情况、新问题和党建理论的研究。', '（2）、对市委管理的领导班子、领导干部提出调整、配备意见和建议；负责市管干部的选拔、考察工作，指导协调、组织实施全市公开选拔领导干部工作；按照干部管理权限，负责有关科级干部的备案、审查、管理和任免；负责区属有关部门领导成员任免的协管工作；负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批，；承办有关干部的调配、交流、安置及出国（境）政审等事宜。', '（3）、指导和加强全市各级领导班子思想政治建设和作风建设，督促检查下级党委认真贯彻执行民主集中制，坚持集体领导，开好民主生活会。', '（4）、研究贯彻中央制定的干部队伍建设的方针、政策，组织落实培养选拔年轻干部、少数民族干部、妇女干部、非中共党员干部和后备干部。', '（5）、研究和宏观指导全市党的组织制度和干部人事制度改革，制定或参与制定组织、干部、人事工作的重要政策和制度。', '（6）、负责全市干部监督工作的综合、协调和宏观指导，组织制定有关干部监督的制度和规定，及时向市委反映情况，提出意见和建议。', '（7）、主管干部教育培训工作，制定干部教育培训工作的有关政策、规划；组织市委管理的干部以及年轻干部、科级干部、组织人事干部的培训；指导、协调、检查全市的干部教育培训工作；研究、探索干部教育培训工作制度改革，指导干部培训基地、师资队伍建设和教材编写等工作。', '（8）、承担市委人才工作领导小组的日常工作。负责全市人才工作的牵头抓总、宏观指导、政策研究、综合协调和督促检查工作。', '（9）、负责退（离）休干部工作的宏观管理，制定或参与制定退（离）休干部工作的方针、政策。', '（11）、负责全市干部统计和党员统计工作，负责全市干部档案管理宏观指导工作；负责市管干部人事档案的建立、整理、转递和管理，负责全市干部人事档案管理达标建设工作，负责市管干部人事档案数字化建设工作。负责组织部文书档案工作。', '吴忠市委组织部属一级预算单位，内设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、干部教育监督科、人才科、网络与信息科、党员教育中心十个内设机构。', '执行《行政单位会计制度》，由办公室负责部机关财务、劳资、固定资产和车辆日常管理工作，在会计核算中心统一核算。', '（六）2017年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '加大干部日常测评、考核、管理工作，印刷费增加，加大干部教育培训力度，差旅费增加，加强基层督导力度，租车费用增加。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '6、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '7、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '9、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '10、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>291</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>中共吴忠市教育局党组关于印发吴忠市直学校幼儿园教职工及机关干部管理暂行规定的通知</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-07-29</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202007/t20200729_2175071.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['中共吴忠市教育局党组关于印发《吴忠市直学校、幼儿园教职工及机关干部管理暂行规定》的通知_吴忠市人民政府', '中共吴忠市教育局党组关于印发《吴忠市直学校、幼儿园教职工及机关干部管理暂行规定》的通知', '为切实加强和规范市直教育系统机关事业单位人员管理，严肃人事纪律，现将《吴忠市直学校、幼儿园教职工及机关干部管理暂行规定》印发给你们，请严格按照规定执行。', '为切实加强和规范吴忠市直教育系统人员管理，严肃人事纪律，根据《中华人民共和国公务员法》《行政机关公务员处分条例》《事业单位人事管理条例》《事业单位工作人员处分暂行规定》《国家机关工作人员病假期间生活待遇的规定》及自治区、吴忠市机关事业单位人员管理相关规定，结合教育实际，制定本规定。', '（二）在编不在岗违纪违规领取工资、津贴补贴的，属于个人“吃空饷”，主要包括以下情形：', '2.因旷工或因公外出、请假期满且无正当理由逾期不归的，按规定应当与单位终止人事关系，但仍在原单位领取工资、津贴补贴的；', '5.受党纪政纪处分及行政、刑事处罚等，按规定应当停发或降低工资待遇，但未停发或仍按原标准领取工资、津贴补贴的；', '（一）婚假：按法定结婚年龄(女20周岁，男22周岁)结婚的，可享受3天婚假；结婚时男女双方不在一地工作的，可视路程远近，另给予路程假；在探亲假(探父母)期间结婚的，不另给假期；婚假包括公休假和法定假；再婚的可享受法定婚假。', '（二）产假：女教职工产假158天。男教职工在配偶生产时给予25天护理假，有特殊情况的按有关规定执行。', '（三）探亲假：未婚人员跨省探望父母每年一次，假期20天；已婚人员跨省探望父母每四年一次，假期20天；跨省探望配偶每年一次，假期30天。', '因病申请休假，休假人应提交书面报告并附县级以上人民医院的疾病诊断证明、病历等。病假审批按以下规定执行：', '1个月以内的，由休假人所在单位审批，具体办法自行制定；1个月以上的，由休假人所在单位主要领导把关审批，报教育局人事科备案。', '病事假2天以内的向科长书面请假；3至5天的征得科长同意后，向分管领导书面请假；5天以上的经科长同意，分管领导审核，以书面形式报局长审批。科室负责人，病事假2天的向分管领导书面请假；3天及以上的经分管领导同意，以书面形式报局长审批。所有干部请假均需报请教育局人事科备案。', '病事假5天以内的向校（园）长请假；5天以上的，须征得校（园）长同意后，向教育局分管人事领导书面请假。', '离开学校、幼儿园2天以上的，须向局长书面请假；因公外出学习考察的，经业务分管领导同意后，以书面形式报局长审批。正职校（园）长、书记请假均需报请教育局人事科备案。', '1.病假2个月以上不超过6个月且工作年限不满10年的，从第3个月起，发给本人基本工资的90%，工作年限满10年及以上的，执行原工资待遇。', '2.病假超过6个月且工作年限不满10年的，从第7个月起，发给本人基本工资的70%，工作年限满10年及以上的，发给本人基本工资的80%。', '患重大疾病，经个人申请，由所在单位报请劳动能力鉴定机构进行劳动能力鉴定，经鉴定属于完全丧失劳动能力的人员，应当按规定履行病假手续。', '劳动能力鉴定结论由所在单位在一定范围内公示。公示时应注意保护个人隐私。对劳动能力鉴定结论有异议的，可申请自治区劳动能力鉴定机构重新鉴定。', '机关事业单位应合理安排工作人员年休假，已休年休假的不享受应休未休假报酬。未休年休假的，享受报酬按有关规定执行。', '国家法定休假日、休息日，国家规定的婚假、产假、探亲假、丧假假期，不计入年休假天数。', '年度病、事假累计在1个月以上的，年终考核不得评定为优秀等次，不予推荐各类评优选先；6个月以上的，不参加年度考核，本年度不计算为晋升工资的考核年限，不享受年终一次性奖金，应休未休假报酬按相关政策规定执行。', '旷工或者因公外出、请假期满无正当理由逾期不归的，连续不满15天（含15天）或者1年内累计不满30天（含30天）的，年度考核为不称职或不合格等次，不享受年终一次性奖金，应休未休假报酬按相关政策规定执行。', '（三）因所在机关调整、撤销、合并或者缩减编制员额需要调整工作，本人拒绝合理安排的；', '（四）不履行公务员义务，不遵守公务员纪律，经教育仍无转变，不适合继续在机关工作，又不宜给予开除处分的；', '（五）旷工或者因公外出、请假期满无正当理由逾期不归连续超过15天，或者1年内累计超过30天的。', '事业单位人员辞职的，由个人申请，所在单位上报，教育局审批，按照干部管理权限报组织、人社部门备案。', '（一）旷工或者因公外出、请假期满无正当理由逾期不归连续超过15天，或者1年内累计超过30天的；', '吸食毒品的，按照《行政机关公务员处分条例》和《事业单位工作人员处分暂行规定》的相关规定执行。', '对受到免予刑事处罚或党纪政纪处分但未被开除、辞退、解聘的人员，应安排适当的工作岗位。本人拒不服从安排且不正常上班的，按旷工处理。', '被取保候审、监视居住、刑事拘留、逮捕期间，停发工资待遇，按本人基本工资的75%计发生活费，不计算工作年限。被刑事拘留在逃或批准逮捕在逃的，停发工资待遇。', '工作人员失联超过15天的，所在单位可在媒体予以公告，在限定时间内仍未返岗的，按本规定', '开除公职、辞退、解聘、撤职、降级等人员，各单位应当在相关决定生效后7个工作日内，向组织、教育、人社、财政部门申报办理核销、停发、降低工资待遇等手续。', '各单位人员达到国家规定的退休年龄，报教育局审核，按照干部管理权限分别由组织、人社部门办理退休手续，另有规定的除外。', '机关事业单位人员工作年限满10年以上，未达到国家规定退休年龄，因病（非因工伤致残）连续病休2年以上，经劳动能力鉴定机构鉴定为完全丧失劳动能力的，可以办理退职手续。退职生活费按有关规定计发。', '机关事业单位人员（含离退休人员）及遗属生活困难补助对象死亡的或不具备享受遗属补助条件的，所在单位应及时向人社、财政部门申报办理工资、补助核销手续。工资、补助核销时间从死亡或失去补助条件之日的次月起执行。', '退休年龄以人事档案记载为准。对退休年龄有异议的，以人事档案和户籍档案中最先记载的出生日期为依据。', '人员调动按照《吴忠市市直机关事业单位工作人员调配办法》有关规定执行。调入人员自批准之日起，在一个月之内办理人事关系手续。调出人员，自批准之日的次月起停发工资。', '各单位应当建立编制、工资、财政供养人员实名制管理和按月核查机制，严格执行工资统发规定，对人员编制、工资发放、绩效考核等进行公示。', '各单位应当严格执行组织人事和财经纪律，强化人员日常管理，杜绝发生“吃空饷”问题。具有下列情形之一的，直接追究所在单位主要领导责任：', '严格执行病假审批及劳动能力鉴定相关规定。出具虚假病历证明或鉴定结论的，追究直接责任人责任。属于医院或鉴定人责任的，按相关规定予以追究。', '建立社会监督机制，各单位须每半年将人员在岗情况在单位内公示，并向组织、编制、教育、人社、财政部门备案。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>291</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>吴忠市委组织部年部门决算公开</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2018n_48262/201909/t20190924_1751976.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预', '研究制定全市党组织设置、组织生活、基层组织建设等政策规定和规划，并组织实施，负责全市发展党员入党员教育管理。', '、工（农）业园区等内设机构及所属事业单位正科级干部的考察任免，负责以上单位科级干部的调动、', '统一管理公务员录用调配、考核奖惩、教育培训和工资福利等事务，研究拟定公务员管理制度规定及规划并组织实施，指导全市公务员队伍建设和绩效管理。', '负责全市党的组织建设、干部工作、公务员工作和人才工作的组织协调和检查督促，及时向市委和自治区党委组织部反映重要情况，提出意见和建议。', '吴忠市委组织部属一级预算单位，内设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、干部教育科、', '执行《行政单位会计制度》，由办公室负责部机关财务、劳资、固定资产和车辆日常管理工作，在会计核算中心统一核算。', '一般公共服务支出、科学技术支出、、社会保障和就业支出、医疗卫生和计划生育支出、保障房支出增加。', '（六）2018年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '加大干部日常测评、考核、管理工作，印刷费增加，加大干部教育培训力度，差旅费增加，加强基层督导力度，租车费用增加。', '2.财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4.其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '6.项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '7.人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '9.“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '10.机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>291</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>不忘初心担当履职步履铿锵砥砺奋进</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202001/t20200122_1930727.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['2019年，在自治区纪委监委和市委的坚强领导下，全市各级纪检监察机关坚持稳中求进工作总基调，强化监督基本职责，持续深化体制机制改革，一体推进不敢腐、不能腐、不想腐，纪检监察工作高质量发展迈出坚实步伐，取得更加明显成效。', '拍摄2部违纪违法案警示教育片，组织78个单位3600余名党员干部到吴忠党风廉政教育基地接受教育……', '一串串数字凝结着全市纪检监察机关和广大纪检监察干部正风反腐的履职担当；一串串数字见证着全市坚定不移深化全面从严治党的铿锵步履。', '市纪委监委始终恪守纪检监察机关的政治定位和政治属性，坚定理想信念，牢记初心使命，坚决扛起落实“两个维护”的根本政治责任。', '抓牢政治学习，坚持把学懂弄通做实习近平新时代中国特色社会主义思想作为首要政治任务，常委会9次集体学习，理论学习中心组12次专题研讨，引导全市纪检监察机关不断提高理论思维、系统谋划、精准落实水平。扎实开展“不忘初心、牢记使命”主题教育，紧扣主题主线，主动接受教育，举办读书班、研讨会9场次，形成调研成果15篇，检视问题70条，立行立改30条，推动主题教育见实效、纪检监察工作上台阶。', '压实“两个责任”，积极为市委履行全面从严治党主体责任当好参谋助手，协助市委组织开展述责述廉、健全完善“三个清单”、强化主体责任落实情况的监督检查，督促全市各级党组织切实发挥主体作用。坚持用好问责利器，对“两个责任”落实不力的11个党组织、155名党员领导干部进行问责，使失责必问、问责必严成为常态。', '深化政治巡察，市委巡察工作领导小组不断深化政治巡察，严格按照“六围绕一加强”和“四个落实”要求，精准发现问题，纠正政治偏差，完成3轮对25个市直部门（单位）党组织的巡察，对市国资委党委开展了巡察“回头看”，发现问题434个，移交问题线索18件，立案5件，给予党纪政务处分3人，组织处理44人。对被巡察单位开展回访督查，对整改落实不力的3个被巡察单位党组织主要负责人进行约谈；对1名履行整改责任不到位的部门党组织主要负责人调整工作岗位，释放巡察整改问责强烈信号。', '市纪委监委把监督作为首要职责扛牢抓实，责任向监督压实，力量向监督倾斜，着力在“治未病”上下功夫，让党员干部习惯在受监督和约束的环境下工作生活。', '突出政治监督，开展习近平总书记关于对宁夏重要指示批示落实情况“回头看”， 持续推动巡视反馈问题整改，紧紧围绕打好“三大攻坚战”和“三化”治理、减税降费等中央重大决策和政策措施落实情况、“大棚房”和违建别墅问题专项清查整治、人防系统腐败问题专项治理等重大工作，加强监督检查，确保政令畅通，以政治监督督促各级党组织把“两个维护”落到实处。', '强化日常监督，将监督寓于被监督单位日常工作之中，综合运用听取汇报、个别谈话、参加民主生活会等形式强化日常监督、过程监督、动态监督。开展部门政治生态自查工作，动态完善市管干部廉政档案，推动日常监督与执纪问责、审查调查贯通衔接。严把党员干部政治关、廉洁关、形象关，共对27个集体和2602人（次）回复党风廉政意见，坚决防止“带病提拔”。', '市纪委监委坚持把解决群众身边腐败和作风问题作为一项政治任务，严惩群众身边的“蝇贪蚁腐”，持续深化作风建设，为群众拔出“眼中钉”“肉中刺”，使其切身感受到正风肃纪反腐就在身边，纪检监察工作就在身边。', '严厉整治基层“微腐败”，深入开展扶贫领域腐败和作风问题专项治理，采取直查直办、督查督办、提级办理等措施，精准监督执纪，全市共查处违纪违法问题38件，处理112人，给予党纪政务处分31人，“一案双查”问责80人，通报曝光18起典型案例。牵头开展民生领域漠视侵害群众利益问题专项整治，确定教育、卫生、生态环境等12个重点整治领域，督促主责部门履行监管责任，全市立案59件，处理219人，给予党纪政务处分68人。', '深挖彻查“保护伞”，坚决履行扫黑除恶专项斗争监督执纪问责和监督调查处置的政治责任，健全班子成员联点包案、专案督导等工作机制，聚焦重点领域开展专项打击，实行交叉办案、异地管辖、集中攻坚，强力推动“打伞破网”向纵深发展。全市立案82件125人，给予党纪政务处分99人，移送司法机关17人，严肃审查了为黑恶势力做大成势充当“保护伞”的张吉贺、杨学林、马龙等案件。对履职不力的党员干部给予党纪政务处分37人，组织处理77人。扎实推进中央督导组反馈问题的整改工作，移交的494件督办、交办件，办结率100％。', '持之以恒纠治“四风”，坚决整治形式主义、官僚主义，采取专项督查、调研督导等形式，加大对出工不出力、只喊口号不抓落实、弄虚作假、照抄照搬等问题的查处力度。围绕自治区《负面清单》30条具体问题开展督查，着力解决文山会海、过度留痕等问题，切实为基层减负松绑。全市共查处形式主义、官僚主义问题63个，处理143人，给予党纪政务处分37人。', '扎实开展贯彻落实中央八项规定及其实施细则精神专项整治“回头看”，全市共查处违反中央八项规定精神问题28起，给予党纪政务处分27人，同比分别下降48.1％、62.5％，对18起典型案例通报曝光，党员干部的纪律和规矩意识进一步增强。', '市纪委监委持续保持反腐败高压态势，一体推进“不敢腐”“不能腐”“不想腐”体制机制，通过强力惩治腐败、完善制度机制、开展廉政教育等措施，强化标本兼治综合效果，努力营造风清气正良好政治生态。', '强化不敢腐的震慑，突出重点削减存量，零容忍遏制增量，全市各级纪检监察机关共受理信访举报3320件，处置问题线索2635件，同比分别增长55％、42.4％；初核问题线索2566件，同比增长46％；立案592件，给予党纪政务处分624人，立案数和处分人数均有所下降；移送检察机关22人，对14名处科级干部采取留置措施，收缴违纪资金447.3万元，主动投案1人，挽回经济损失578.96万元。严肃查处了执法犯法、搞权钱交易的张军、李兴华等法院系统性腐败案件。', '扎牢不能腐的笼子，多措并举开展以案促改，在市中级人民法院、利通区和青铜峡市法院召开警示教育大会3场次，组织全市重点部门（单位）80余名主要负责人旁听李金磊职务犯罪案庭审，发送纪律检查、监察建议书69份，开展纪律处分执行情况“大起底”，为党员干部解除处分、恢复党员权利，纠正考核不合规问题，推动各部门（单位）及时查漏补缺、建章立制、规范管理。', '市纪委监委坚持一体推进“三项改革”，不断增强监督合力，推动制度优势向治理效能转化，为全市经济社会发展提供坚强的政治和纪律保障。', '坚持深化纪律检查体制改革，认真落实“三个为主”，坚持重大事项、重要案件第一时间向自治区纪委监委和市委请示报告。加强对下级纪委监委的领导，在“打伞破网”等重点工作、重大案件的办理中强化工作督导、业务指导和复查复核，构建上下贯通的监督网络；会同组织部门考察任用县（市、区）纪委副书记、监委副主任2名、纪委常委监委委员5名，为基层纪检监察机关更好地履职提供支持。', '持续深化国家监察体制改革，将执纪监督室更名为监督检查室，促其将职能进一步向纪律监督和监察监督聚焦，统筹监督检查部门、派驻机构和巡察机构力量，形成优势互补、互促共进的监督合力。建设启用标准化留置场所，设立综合保障中心，出台《监督检查审查调查安全工作规定》等制度，推动安全文明办案。', '分层分类推进派驻机构改革，市纪委监委共设立13家派驻（派出）机构，其中设综合派驻9家，在法检两院、公安机关单设派驻机构，在市直机关工委设派出纪检监察工作委员会。指导县（市、区）纪委监委优化派驻机构设置，实现对市县两级党和国家机关派驻监督“全覆盖”。', '执纪者必先守纪，律人者必先律己。过去一年，市纪委监委还坚持严管与厚爱结合、激励与约束并重、惩戒与教育共抓，努力打造特别讲忠诚、特别敢斗争、特别有定力、特别能奉献的纪检监察铁军，有力推动新时代纪检监察工作高质量发展。', '扬正气奋楫中流，扛使命再谱新篇。全市各级纪检监察机关将立足新起点，展示新气象、实现新作为，牢记嘱托、感恩奋进，不松劲、不停步，重整行装再出发，以永远在路上的坚韧，执着推动党风廉政建设和反腐败工作高质量发展，当好新时代全面从严治党的合格“答卷人”。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>291</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>中共吴忠市委关于巡视整改情况的通报</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-02-19</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/202102/t20210219_2601355.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['自治区党委第一巡视组向我市反馈巡视意见以来，市委高度重视，从严从实抓好整改落实，取得了阶段性成效。', '市委把抓好巡视整改作为一项重要的政治任务，作为学习贯彻党的十九届五中全会精神、贯彻落实习近平总书记视察宁夏重要讲话精神的重要契机，作为确保', '“十三五”圆满收官、谋划好“十四五”的重要举措，切实提高政治站位和政治觉悟，增强“四个意识”、坚定“四个自信”、做到“两个维护”。', '“当下改”上下功夫，又在“长久立”上做文章，举一反三、标本兼治。对已经完成和取得阶段性成果的整改任务，进一步巩固提升整改效果，坚决防止问题反弹。对需分步推进和长期坚持的整改任务，对照整改要求，持续跟踪督办，确保任务、责任和进度三落实，不解决问题绝不放手，不达标准绝不销号。', '进一步压实巡视整改工作领导小组职责，沈左权同志负总责、承担第一责任，副组长和各位成员负重要责任，各负其责、分兵把口。市委要求各级党委（党组）主要负责同志对本地区、本部门巡视整改工作负总责，并把整改责任具体到分管负责同志、具体到人、具体到事，做到压力层层传递、责任层层落实、任务层层分解。对照《自治区党委第一巡视组巡视吴忠市反馈意见整改落实方案》，逐条逐项再梳理、再细化、再落实，建立了整改台账，实行挂图作战、对账销号，确保反馈意见指出的问题改到位、改彻底。', '个专项小组对各自承担的整改任务跟踪督查、逐条评查，确保任务落实到位。加大对巡视整改全过程的跟踪督办，既督任务、督进度、督成效，又察认识、察责任、察作风，确保整改方向不偏、标准不降、力度不减。', '“以党的十九大精神为统领，贯彻落实习近平新时代中国特色社会主义思想不够到位”问题整改情况', '坚持把学习贯彻习近平新时代中国特色社会主义思想作为首要政治责任、长期政治任务，与学习贯彻习近平总书记视察宁夏重要讲话精神结合起来，与贯彻落实习近平总书记重要指示批示贯通起来，带着信仰学、带着使命学、带着感情学，切实增强', '场，及时学习中央、自治区召开的重要会议、出台的重要文件、部署的重要工作，推动学习贯彻往深里走、往实里走、往心里走。', '习近平总书记重要讲话精神、党委（党组）中心组巡听巡查、领导干部上讲台等制度，推动理论学习规范化制度化。', '“四级书记赴一线、千名干部大调研、万名干部大宣讲”活动，持续开展马克思主义民族观宗教观“百场万人”大宣讲，举办县处级干部研修班、中青年科级干部培训班、年轻干部培训班，把“课堂”设在媒体融合发展第一线、扶贫攻坚重点贫困村，推动习近平新时代中国特色社会主义思想和党的十九大精神入脑入心、见行见效。', '坚持融会贯通、做好结合文章，先后出台了《关于深入学习贯彻〈中共宁夏回族自治区委员会关于深入学习贯彻习近平总书记视察宁夏重要讲话精神 继续建设经济繁荣民族团结环境优美人民富裕的美丽新宁夏的决定〉的实施意见》《关于创建全国市域社会治理现代化示范市 完善市域治理体系提高治理能力的实施意见》《做好调转增融“四篇文章”走出一条高质量发展新路子的实施方案》等，明确工作任务，细化工作措施，确保习近平新时代中国特色社会主义思想和习近平总书记视察宁夏重要讲话精神落地生根、开花结果。', '坚持融会贯通、做好结合文章，先后出台了《关于深入学习贯彻〈中共宁夏回族自治区委员会关于深入学习贯彻习近平总书记视察宁夏重要讲话精神', '继续建设经济繁荣民族团结环境优美人民富裕的美丽新宁夏的决定〉的实施意见》《关于创建全国市域社会治理现代化示范市', '“四篇文章”走出一条高质量发展新路子的实施方案》等，明确工作任务，细化工作措施，确保习近平新时代中国特色社会主义思想和习近平总书记视察宁夏重要讲话精神落地生根、开花结果。', '.针对“推进银川都市圈建设措施不够有力，青铜峡至银川正源街快速通道至今没有打通等”问题。', '件指示批示，制定清单、明确责任、动态管理，持续跟踪督查问效，确保总书记重要指示批示落地落实。', '对中央巡视、中央环保督察和宗教、扫黑除恶、脱贫攻坚督查及国务院大督查等反馈问题进行全面梳理，进一步加大督促检查力度，攻难点、解痛点、疏堵点，反馈问题按时序进度全部完成整改。', '坚持把生态环保、脱贫攻坚、民生改善、民族宗教等重点工作纳入市委督查检查考核计划，推动中央和自治区重大决策部署落地见效。', '建立都市圈建设协同推进机制，有力有序推进各项重点任务、重大项目，青铜峡至银川正源街快速通道青铜峡段已完成并全线贯通，永宁段已按照自治区方案完成绕行改造、实现联通。', '坚持以新发展理念为引领，认真学习贯彻习近平总书记视察宁夏重要讲话精神，准确把握新发展理念核心要义，做到学懂弄通做实', '，全市地区生产总值、规模以上工业增加值增速、单位工业增加值能耗降幅、固定资产投资增速、一般公共预算收入增速', '家，培育了一批竞争力强的龙头企业，食品工业、装备制造、现代纺织、特色种养业等产业快速发展。培育', '“吃在吴忠”品牌优势，打造“夜婡巷”、万达金街等夜间经济“打卡地”。在北京、上海等建设运营展销中心', '严格执行吴忠市《政府性债务管理暂行办法》《本级政府性债务风险化解计划》，牢固树立债务风险防范意识，不断规范政府举债融资行为，完成年度隐性债务化解任务', '个入黄排水沟断面水质均稳定达标，黑臭水体全面消除。盐池工业园区、同心工业园区、太阳山开发区', '个固体废物贮存处置场全部建成（红寺堡工业园区并入太阳山开发区，不再单独建设），利通区', '个农村污水处理站已全部完成提标改造并投入使用。成功创建成为国家生态文明建设示范市。', '，聚焦群众反映强烈的征地拆迁、非法集资等重点领域重点问题，开展集中攻坚，妥善处置了一批信访突出问题，全市信访秩序持续好转。', '“六清”行动，扎实推进“六建”工作，坚持扫黑除恶与“破网打伞”同步推进，抓捕涉案人员与“打财断血”同步进行，通过领导督办、集中办案、提级办案等方式，深挖涉黑涉恶案件背后的“关系网”“保护伞”。', '党组织整顿不放松，全面落实村党组织书记县级备案、村干部县级联审和动态调整办法，对村', '“两委”成员逐个“过筛子”、查表现，清理不符合任职条件的村干部，通过内部选、上级派、跨村任等措施同步配齐。', '坚定不移把党的政治领导、思想领导、组织领导贯穿到民族宗教工作的全过程和各方面，抓住', '期副科级以上干部轮训班，不断强化理论武装，提高各级领导干部做好民族宗教工作的能力和水平。', '严格落实《党委（党组）意识形态工作责任制考核办法》，把各级党委（党组）履行意识形态工作职责作为民主生活会对照检查和述责述廉重要内容', '“回头看”，对县（市、区）党委、各部门（单位）意识形态工作责任制落实及中央、自治区巡视反馈问题整改情况进行全覆盖督查，持续压紧压实责任、层层传导压力。', '修订完善《维护意识形态领域安全工作协作机制》，制定《意识形态领域防止出现政治性风险问题监测预警审核制度》，坚持定期分析研判，查找风险隐患，市委常委会先后专题研究', '对在全国文明城市申报中个别单位提供材料弄虚作假，被中央文明办通报批评的问题，对相关责任人进行严肃处理，同时组织专班对', '指导宁夏民族职业技术学院制定《进一步加强思想政治课教育整改方案》，持续跟进督导检查，推动整改取得实效。进一步加强师资队伍建设，招录在编和外聘思政课教师', '“一张网”“一朵云”的要求，市级融媒体中心和红寺堡区、盐池县、同心县融媒体中心均已建成投入运行。', '配齐配强乡镇综合文化站管理员、村综合文化服务中心文化专干，保障公益性文化活动有效开展，先后组织开展活动', '先后制定市直机关党组织书记履行党建工作职责考核办法、党支部建设标准规范、机关党务干部配备管理办法等配套制度。全面启动“让党中央放心、让人民群众满意”模范机关创建活动，细化5项标准和32项考评内容，推动机关党建与业务融合发展。二是紧盯市委巡察反馈机关党建突出问题，扭住党组（党委）书记这个关键，采取市委组织部、市直机关工委、市委巡察办集体约谈等方式，压实政治责任、推动整改落实。三是聚焦解决农村基层组织建设五个方面重点问题，通过双月调度、现场点评、集中会诊促整改，对排查确定的软弱涣散村党组织全部建立台账，落实县级领导分片挂点、乡镇领导包村整顿、驻村工作队驻村整顿责任制，一村一策整顿提升。', '坚持编制职数、任职资格、结构比例、任用程序“四必审”，严把“预审关”，从源头防止违规用人。', '坚持把严肃纪律、严密程序摆在首位，完善资格预审、督促提醒、跟踪落实等闭环管理措施，推动干部调任动议有据、环节严谨、流程规范。', '修订《吴忠市市直机关科级领导干部选拔任用工作实施办法》，设计“干部选拔任用及职务职级晋升工作流程图”，逐单位逐人员审核，推动选人用人更加严谨规范。', '“凡提必审、凡进必审、凡转必审”，建立干部身份存疑、档案涂改等档案问题台账，用好用活外调户籍、文件印证、司法鉴定等方式，为综合研判提供科学准确认定。', '深入贯彻落实全面从严治党部署要求，市委常委会及时研究部署坚持党的领导、加强党的建设工作。', '年全面从严治党、党风廉政建设和反腐败任务方案》并督促落实，压实各级党组织主体责任。', '个县（市、区）党委和市级领导干部以及市直部门党组织主要负责人定期书面报告责任履行情况，市委先后两次会议听取党委（党组）党风廉政建设主体责任落实情况汇报。', '“三大攻坚战”守好“三条生命线”等重大决策部署跟进监督，督促职能部门开展农村乱占耕地等问题专项清查整治，加强餐饮浪费行为的监督检查，确保党中央政令畅通、令行禁止。严明疫情防控纪律，共问责防控不力党组织', '“‘一些政府投资工程项目监管不严’等问题仍然存在，招标程序不规范和人为操控的现象时有发生”问题。', '修订完善《吴忠市公共资源交易中心制度汇编》，整合公共资源交易平台，整改招投标领域存在问题，取消线下项目招标进场登记，全面推行审批部门线上审核。', '强化评标专家抽取管理，严格按照招标文件及专家数量类别分别设置抽取条件，并对开标、评标现场全流程音视频监控。', '“‘落实党风廉政建设责任制存在层层递减现象’仍没有整改到位，一些地方和单位‘空转不挂挡’、‘制度不落地’等问题没有从根本上解决”问题。', '“后半篇文章”深化以案促改工作方案》，严格落实以案促改“三会两书两报告”要求，坚持“两书三送”，处分决定、纪律检查和监察建议书既送发案单位，又报送市委和市政府，推动问题整改；督促各级各部门召开警示教育大会、专题民主生活会、组织生活会等', '一是严格实行年度发文计划管理，制定年度发文计划，严格落实评估审查机制，从严审核把关。', '。二是大幅压缩会议。实行会议审批管理，严格控制以市委和市政府召开的会议，减少各类议事协调机构会议及工作会、专题会、协调会。', '下一步，吴忠市委将继续把巡视整改工作作为一项重大政治任务，以钉钉子精神抓好整改工作，持续压实整改责任，持续抓好问题整改，持续推进建章立制，持续巩固巡视整改成果，以扎扎实实的整改成效向自治区党委、向全市人民交出一份满意的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>291</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>吴忠市金银滩中心学校年部门预算</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2017-01-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2017nyq_48256/201701/t20170124_501400.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['、负责和指导学校教职工的思想政治工作，规划学校品德教育、体育卫生教育、艺术教育和国防教育工作；负责做好社会治安综合治理及安全保卫工作。', '从预算单位构成看，吴忠市利通区金银滩中心学校部门预算包括：吴忠市利通区金银滩中心学校本级预算。', '万元，政府性基金预算拨款2.5万元，国有资本经营预算拨款0万元。支出预算包括（按政府收支分类功能科目逐项说明）：一般公共服务支出', '人员经费1751.5424万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出。', '万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '人员经费2万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费0.5万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '吴忠金银滩中心学校2017年“三公”经费财政拨款预算数为0万元。 主要原因是：公务招待费：我校人员少，本年度没有开展大型业务活动，所以没有发生招待费。公车：我校没有公车。出国、出境培训：本年度没有出国出境学习培训指标。', '年“三公”经费财政拨款预算比2016年减少0.54万元，其中：因公出国（境）费0万元，主要原因无出国考察；公务用车0万元，主要原因不需要；公务接待费减少0.54万元，主要原因是由于我校人员少，本年度没有开展大型业务活动，所以没有发生招待费。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>291</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>吴忠市工业和信息化局关于报送吴忠市工业园区整合优化和改革创新工作进展情况的报告</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/201904/t20190422_1418477.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['吴忠市工业和信息化局关于报送吴忠市工业园区整合优化和改革创新工作进展情况的报告_吴忠市人民政府', '）要求，我们认真对照开发区整合优化和改革创新实施方案和分工台账，逐项梳理，现将落实情况和最新进展汇报如下：', '决策部署，将工业园区整合优化和改革创新工作列为全市重点改革任务和工业转型发展的重要工作，', '成立了市长任组长、分管副市长任副组长的吴忠市促进工业园区改革创新发展工作领导小组，统筹组织推进工业园区整合优化工作。', '《吴忠市工业园区整合优化和体制机制改革实施方案》和《吴忠市工业园区空间和机构优化整合的意见》', '市直部门和各县（市、区）人民政府、各工业园区管委会的工作任务，明确责任单位和时限要求', '所有撤并园区的清产核资、资产移交，“三重一大”事项决策落实全部由并入园区领导班子统一实施', '《关于调整工业园区党工委设置的通知》，对工业园区党组织、党工委书记进行了重新调整设置和配备。', '项自治区级工业园区经济管理职权向我市各工业园区进行下放，截至目前，吴忠太阳山开发区、宁夏吴忠金积工业园区、宁夏青铜峡工业园区、宁夏同心工业园区分别下放职权', '项。宁夏盐池工业园区因与县政务服务中心紧邻，为节约公共资源，没有承接下放职权，在政务服务中心设立了综合服务窗口，行政审批实行代领办服务。其他未下放的职权，由园区全程帮办、代办。', '按照园区的实际情况，通过不同方式落实“一站式”服务。吴忠太阳山开发区、宁夏吴忠金积工业园区建设了政务服务中心，宁夏青铜峡工业园区、', '制定印发《吴忠市建设项目区域评估评审试点工作实施方案》，通过梳理评估评审事项清单，将节能评估、环境影响评价、水土保持方', '积极对接光合新兴产业集团、中商智库、深圳中商产业研究院有限公司、北京科创联盟、深圳摩天之星孵化器等招商中介机构，就第三方招商进行了有效沟通，目前各工业园区通过引进专业化招商队伍、自行组建、与企业签订以企招商合作协议等方式，均组建了专业化招商队伍。', '并草拟了《吴忠市招商引资奖励办法》和《吴忠市招商引资优惠政策》，各工业园区也制定了招商引资管理办法和奖励办法。', '月，我市与银川市、石嘴山市、宁东管委会签订合作框架协议，四方将围绕联合招商、异地开发、利税共享等方面开展深度合作，并草拟了《吴忠市跨园区招商项目收益分成管理办法》。市内的五个工业园区保持紧密沟通联系机制，根据引进洽谈项目的产业类别，相互推荐，形成招商引资信息共享机制。', '建立工业园区和地方政府合理的投入和收益分配制度，加大对工业园区的财力投入。吴忠太阳山开发区税收全部交市财政，', '的比例进行分成；宁夏吴忠金积工业园区以园区上年度入库税收收入为基数，当年新增部分利通区不参与分成，全部用于工业园区建设。同心县在', '目前，吴忠太阳山开发区依托正阳公司设立投融资平台，计划设立太阳山医药科技产业园产业基金，由正阳公司代表园区与宁夏银行签订了意向授信', '亿元的框架合作协议。同心县正在筹备建设园区投资开发公司。宁夏吴忠金积工业园区与吴忠市农投公司组建投融资平台，与宁夏银行签订了战略合作协议。宁夏盐池工业园区组建了中民融盐担保公司盐池工业园区分公司，担保基金', '近期，我市组织相关部门赴江苏南京、苏州、山东济南等区外高新区和宁东能源化工基地等区内开发区进行学习考察，', '借鉴外地高新区发展的新思想、新观念、新思路，特别是汲取人事管理、绩效考核、薪酬分配等方面的新机制和新措施', '制定印发了《吴忠市区技术改造综合奖补资金使用办法》，通过切块资金支持重大技术改造项目，', '近年来，全市共培育认定金积工业园区中小企业创业孵化基地、吴忠市孙家滩设施农业全民创业孵化基地等', '制定了《市安监局落实工业园区整合优化和体制机制改革实施方案》，着力健全安全风险分级管控和隐患排查治理双重预防性工作体系，构建严格的源头管控和安全准入制度体系。', '全面开展园区闲置土地调查工作，建立闲置土地处置台账，加大巡查力度，通过协商、兼并、转让等措施进行处置。', '按照自治区“亩产论英雄”的要求，我市制定了《吴忠市企业投资工业项目“标准地”试点实施方案》。', '正在起草《吴忠市工业园区节约集约用地管理意见（暂定名）》，将工业用地管理制度和土地利用效益、用地定额指标等要求全部纳入，规范工业园区用地。', '按照建设智慧城市的总体要求，起草了《吴忠市智慧园区建设方案》，依托吴忠市城市数据运营中心的基础环境和资源，建设区、市、工业园区三级联动的统一管理平台和联通工业园区内各部门间的应用服务平台，综合运用互联网、物联网、云计算、大数据等技术，对园区、企业的数据进行采集存储、挖掘分析等，形成集运行监测、用地管理、环境监测、安全监管、协同办公等功能为一体的智慧园区管理和服务平台体系，提高工业园区行政效能和决策能力，降低工业园区行政管理服务成本。', '紧紧围绕自治区党委、政府关于工业园区整合优化的决策部署和园区今年的发展目标任务，扑下身子抓好各项改革措施落实，全力确保完成工业园区', '推进专业化招商、公司化招商、第三方招商，围绕主导产业和产业链抓招商，提高项目招商精准度和落地率。加快创新完善招商引资政策和绩效考核办法。', '推进落实《工业对标提升转型发展行动方案》， 加强延链补链强链，形成产业集群，提高主导产业产值占比。', '吴忠太阳山医药科技产业园动力岛项目、宁夏吴忠金积工业园区牛首山园区集污管网项目、宁夏同心工业园区天然气输气管道工程等']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>291</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>年度吴忠市非公有制经济发展服务中心原吴忠市投资促进服务中心部门决算</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2022-10-07</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2021n_48265/202210/t20221007_3801886.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['2021年度吴忠市非公有制经济发展服务中心（原吴忠市投资促进服务中心）部门决算_吴忠市人民政府', '(一)贯彻执行国家、自治区发展非公有制经济的法律法规和方针政策，研究提出促进全市非公有制经济发展的意见建议。', '一)贯彻执行国家、自治区发展非公有制经济的法律法规和方针政策，研究提出促进全市非公有制经济发展的意见建议。', '(二)建立完善非公经济发展“一站式”服务信息平台，开展企业办事、项目对接、创业辅导、市场拓展等方面的服务。', '二)建立完善非公经济发展“一站式”服务信息平台，开展企业办事、项目对接、创业辅导、市场拓展等方面的服务。', '(三)开展非公市场主体投诉咨询和法律维权服务，承担维权诉求的受理、协调落实和反馈工作。', '三)开展非公市场主体投诉咨询和法律维权服务，承担维权诉求的受理、协调落实和反馈工作。', '(六)培育非公市场主体，联系协调各类产业联盟、商协会，组织开展政企交流、对外合作、市场拓展、经贸洽谈等。', '六)培育非公市场主体，联系协调各类产业联盟、商协会，组织开展政企交流、对外合作、市场拓展、经贸洽谈等。', '(七)积极开展融资投资服务，协调对接银行、小额贷款公司、保险公司、担保公司等各类金融机构，为非公市场主体提供多元化金融产品和融资服务。', '积极开展融资投资服务，协调对接银行、小额贷款公司、保险公司、担保公司等各类金融机构，为非公市场主体提供多元化金融产品和融资服务。', '(八)组织开展学习、培训和考察，指导非公市场主体建立现代企业制度，提升科技创新能力、运营管理水平和市场竞争能力。', '八)组织开展学习、培训和考察，指导非公市场主体建立现代企业制度，提升科技创新能力、运营管理水平和市场竞争能力。', '(九)开展非公有制经济发展宣传活动，引导非公企业和人士积极投身公益事业，服务经济社会高质量发展。', '九)开展非公有制经济发展宣传活动，引导非公企业和人士积极投身公益事业，服务经济社会高质量发展。', '从预算单位构成看，吴忠市非公有制经济发展服务中心预算包括：吴忠市非公有制经济发展服务中心本级预算。市非公有制经济发展服务中心核定全额预算事业编制14名。其中，领导职数：主任（正处级）1名，副主任（副处级）2名；内设机构科级领导职数3正3副。', '从预算单位构成看，吴忠市非公有制经济发展服务中心预算包括：吴忠市非公有制经济发展服务中心本级预算。市非公有制经济发展服务中心核定全额预算事业编制', '(本表反映部门本年度一般公共预算财政拨款、政府性基金预算财政拨款和国有资本经营预算财政拨款的总收支和年末结余结转情况，数据取自财决01-1表)', '(本表反映部门本年度一般公共预算财政拨款基本支出明细情况，数据取自财决08-1表)', '(2021年度预算数为“三公”经费全年预算数，反映按规定程序调整后的预算数；决算数是包括当年一般公共预算财政拨款和以前年度结转结余资金安排的实际支出，决算数据取自F03表)', '(本表反映部门本年度政府性基金预算财政拨款收入支出及结转结余情况,数据取自财决09表)', '。决算数大于预算数的主要原因：一是机构职能调整为招商引资，相应支出增加；二是人员增加，相应人员经费增加。其中（按支出功能分类说明）：一般公共服务（类）支出增加', '（一）“三公”经费一般公共预算财政拨款支出决算总体情况说明。2021年度“三公”经费一般公共预算财政拨款支出预算为0元，支出决算为10121元，完成预算的100%，2021年度“三公”经费支出决算数大于预算数的主要原因：我单位机构职能调整为招商引资，相应产生公务接待费。', '年度“三公”经费支出决算数大于预算数的主要原因：我单位机构职能调整为招商引资，相应产生公务接待费。', '（二）“三公”经费一般公共预算财政拨款支出决算具体情况说明。2021年度“三公”经费一般公共预算财政拨款支出决算中，因公出国（境）费支出决算0元；公务用车购置及运行费支出决算0元；公务接待费支出决算10121元。具体情况如下：', '2.公务用车购置及运行维护费预算为0元，支出决算为0元，完成预算的100%。其中：公务用车购置费支出为0元，公务用车运行维护费支出0元。2021年度一般公共预算财政拨款开支的公务用车购置数0辆，公务用车保有量为0辆。', '2021年度本部门政府采购支出总额0元。其中：政府采购货物支出0元、政府采购工程支出0元、政府采购服务0元。授予中小企业合同金额0元。', '吴忠市吴忠中学组织对2021年度项目支出开展绩效自评。其中，一般公共预算一级项目0个，二级项目0个，共涉及资金0万元，占一般公共预算项目支出总额的0%。政府性基金预算项目0个，涉及资金0万元，占政府性基金项目支出总额的0%。(请各部门对具体项目绩效管理工作进行说明)', '2.项目绩效自评结果。根据年初设定的绩效目标，“无”项目自评得分为0分。发现的主要问题：无。下一步改进措施：无。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '6、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '7、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '9、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '10、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>291</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>吴忠市委组织部年部门预算</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2018n_48257/201802/t20180212_690308.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['（1）、研究指导全市党的基层组织建设，探索、指导全市各类基层党组织的设置和活动方式；协调、规划和指导党员教育工作，主管党员的发展、管理和服务工作；负责组织、指导、协调党代表大会代表开展活动，做好党代表意见、建议、提案办理和教育培训管理等日常服务联络工作；组织、协调新时期党建工作新情况、新问题和党建理论的研究。', '（2）、对市委管理的领导班子、领导干部提出调整、配备意见和建议；负责高管干部的选拔、考察工作，指导协调、组织实施全市公开选拔领导干部工作；按照干部管理权限，负责有关科级干部的备案、审查、管理和任免；负责区属有关部门领导成员任免的协管工作；负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批，；承办有关干部的调配、交流、安置及出国（境）政审等事宜。', '（3）、指导和加强全市各级领导班子思想政治建设和作风建设，督促检查下级党委认真贯彻执行民主集中制，坚持集体领导，开好民主生活会。', '（4）、研究贯彻中央制定的干部队伍建设的方针、政策，组织落实培养选拔年轻干部、少数民族干部、妇女干部、非中共党员干部和后备干部。', '（5）、研究和宏观指导全市党的组织制度和干部人事制度改革，制定或参与制定组织、干部、人事工作的重要政策和制度。', '（6）、负责全市干部监督工作的综合、协调和宏观指导，组织制定有关干部监督的制度和规定，及时向市委反映情况，提出意见和建议。', '（7）、主管干部教育培训工作，制定干部教育培训工作的有关政策、规划；组织市委管理的干部以及年轻干部、科级干部、组织人事干部的培训；指导、协调、检查全市的干部教育培训工作；研究、探索干部教育培训工作制度改革，指导干部培训基地、师资队伍建设和教材编写等工作。', '（8）、承担市委人才工作领导小组的日常工作。负责全市人才工作的牵头抓总、宏观指导、政策研究、综合协调和督促检查工作。', '（9）、负责退（离）休干部工作的宏观管理，制定或参与制定退（离）休干部工作的方针、政策。', '（11）、负责全市干部统计和党员统计工作，负责全市干部档案管理宏观指导工作；负责市管干部人事档案的建立、整理、转递和管理，负责全市干部人事档案管理达标建设工作，负责市管干部人事档案数字化建设工作。负责组织部文书档案工作。', '吴忠市委组织部设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、人才科、干部教育监督科、网络与信息科9个内设机构。下设党员教育中心属全额预算事业单位。', '吴忠市委组织部设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、人才科、干部教育监督科、网络与信息科', '吴忠市委组织部属一级预算单位，执行《行政单位会计制度》，由综合办公室负责部机关财务、劳资、固定资产等管理工作，在会计核算中心统一核算。', '人员经费334.83万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费45.91万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '吴忠市委组织部2018年一般公共预算拨款项目支出1790 万元，其中：村党组织为民服务资金配套资金580万元；非公企业党建设经费30万元；复转军人工资10万元；干部人事档案数字化建设经费50万元；干部教育培训经费60万元；固定资产购置费10万元；农村基层党的建设经费200万元；领导班子及领导干部管理工作经费50万元，七大产业人才高地建设专项资金600万元，人才工作经费200万元。', '非公企业党务工作者培训；筹办非公企业党建工作会议；划拨支持非公企业党组织党员活动阵地建设；表彰奖励先进集体和个人等。', '期、举办干部区外培训班2-3期、加强对党校骨干教师进行业务培训和实践锻炼、选派干部到沿海发达地区挂职锻炼', '深入推进抓党建促脱贫富民工作、整顿转化软弱涣散村党组织、培育农村“两个带头人”、村党组织书记和农村党员教育培训、远程教育站点建设。', '对市管领导班子、领导干部进行选拔任用、组织考察、调整配备所需交通费、纸张耗材等、通过竞争性选拔等方式，组织实施全市公开选拔领导干部工作、按照干部管理权限，负责有关科级干部的备案、审查、管理和任免、负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批 、承办有关干部出国（境）政审等事宜', '对市管领导班子、领导干部进行选拔任用、组织考察、调整配备所需交通费、纸张耗材等、通过竞争性选拔等方式，组织实施全市公开选拔领导干部工作、按照干部管理权限，负责有关科级干部的备案、审查、管理和任免、负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批', '人员经费0万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费0万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '2018年，吴忠市委市政府采购预算10万元，其中：政府采购货物预算10万元，政府采购工程预算0万元，政府采购服务预算20万元。', '所属单位房屋0平方米，价值0万元；土地0平方米，价值 0万元；车辆0辆，价值0万元；办公家具价值 0万元；其他资产价值0万元。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '5、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '7、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>291</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>吴忠市大事记年月</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sywz/wzgk/wzdsj/202005/t20200513_2088848.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['日 自治区党委常委、纪委书记、监委主任艾俊涛在青铜峡市主会场主持召开吴忠市疫情防控工作督导推进视频会议，与吴忠市、各县（区）分会场视频连线，传达自治区党委应对疫情工作领导小组会议精神，通报自治区督导检查组督导检查情况，进一步压实疫情防控工作责任，推动防控措施落实。', '△ 吴忠市委书记、市应对新型冠状病毒感染的肺炎疫情工作领导小组组长沈左权，深入利通区部分小区、乡镇、超市，以及金积工业园区等地，对自治区和吴忠市暗访督查疫情防控工作落实情况过程中发现的问题整改情况进行“回头看”。', '2日 吴忠市委书记、市应对新型冠状病毒感染的肺炎疫情工作领导小组组长沈左权，深入同心县乡镇卫生院、公路检查站、宗教场所、疾控中心、火车站等地暗访督查新型冠状病毒感染的肺炎疫情防控措施落实情况。沈左权强调，要坚决贯彻落实习近平总书记重要批示精神，自觉扛起疫情防控重大政治责任，坚决克服侥幸麻痹思想，进一步落实落细疫情防控措施，盯紧看牢重点人员，全力做好疫情防控工作。', '4日 吴忠市委应对新型冠状病毒感染肺炎疫情工作领导小组、指挥部召开第三次会议。市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权主持会议并讲话，强调要坚决贯彻落实习近平总书记重要讲话精神和中央、自治区党委决策部署，坚持底线思维，强化风险意识，压紧压实责任，落实落细措施，全力以赴做好各项工作，坚决打赢疫情防控阻击战。孙瑛、朱云、张学慧等市领导参加会议。会议以电视电话形式召开，各县（市、区）设分会场。', '5日 吴忠市委书记、市应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权，深入高速公路出口检查站、火车站、高铁站、居民小区及宁夏青铜峡工业园区等地暗访督查新型冠状病毒感染肺炎疫情防控措施落实情况。', '△ 吴忠市召开应急管理系统疫情特殊时期安全生产视频会议，会议传达学习了自治区安全生产委员会关于加强疫情防控期间安全防范工作的通知，安排部署吴忠市当前安全生产和消防工作。', '6日 吴忠市委书记、市应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权，深入吴忠国家农业科技园区设施农业基地、养殖企业、高速公路出口及利通区扁担沟镇利源村等地，对应对新型冠状病毒感染的肺炎疫情防控措施落实情况进行督查调研。', '△ 吴忠市委常委会召开扩大会议，传达学习中共中央政治局常务委员会会议和自治区党委常委会扩大会议精神，研究进一步加强全市疫情防控工作。市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权主持会议。会议指出，习近平总书记的重要讲话，着眼战略全局，突出问题导向，为我们打赢疫情防控阻击战指明了方向、提供了遵循；会议要求，各级各部门要立足依法防控、科学防控、全面防控，减少人员流动、减少人口集聚、减少感染可能；会议强调，要把中央、自治区的决策部署落实落地，必须夯实防控基层基础，压实基层责任，织牢防控网络。要注重在疫情防控一线考察识别干部的政治素质、担当意识、能力水平和工作作风，对不敢担当、作风漂浮、推诿扯皮的，要严肃问责，对失职渎职的，要依纪依法坚决惩处。', '△ 新型冠状病毒感染的肺炎疫情防控工作开展以来，吴忠市采取通报批评、责令检查、免职等方式，对疫情防控不力、责任落实不力等问题进行严肃问责处理，共问责党员干部59人，其中给予党纪政务处分1人，形成有力震慑。', '8日 吴忠市４名确诊的新冠肺炎患者（利通区2名，红寺堡区2名）经宁夏新冠肺炎专家诊疗组诊断，临床症状明显好转，体温正常3天以上，两次病毒核酸检测为阴性，达到治愈条件出院。', '9日 吴忠市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权，到同心县、太阳山开发区、红寺堡区的乡镇卫生院、高速公路出入口检查站、高铁站、农村等地暗访督查新冠肺炎疫情防控工作。沈左权强调，要坚决贯彻落实习近平总书记重要讲话精神，以及自治区新型冠状病毒感染的肺炎疫情防控工作视频会议精神，要吸取韦州镇疫情防控工作履行责任不到位、落实防控措施不力、工作不细不实的教训，举一反三，引以为戒，进一步压紧压实责任，特别是各级领导班子和领导干部要主动担责作表率，做到守土有责、守土担责、守土尽责。', '9日～10日 吴忠市援助湖北疫情阻击一线的两批共计100吨生活物资陆续启程，奔赴湖北。', '10日 吴忠市市长、市委应对新型冠状病毒感染肺炎疫情工作指挥部指挥长喜清江到利通区、青铜峡市部分居民小区、乡村、集中隔离观察点、道路检查站、农副产品市场及企业暗访督导新冠肺炎疫情防控工作。他强调，当前吴忠疫情防控形势严峻复杂，面临内防扩散和外防输入双重压力，各县（市、区）、各部门要坚决贯彻落实习近平总书记重要指示精神和中央、自治区决策部署，思想认识再深化，工作措施再加强，坚决杜绝形式主义，把疫情防控各项工作做得细之又细、实之又实、严之又严，坚决打赢疫情防控阻击战。', '△ 吴忠市市长、市应对新型冠状病毒感染肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第五次会议。会议指出，各工作组要各负其职、各尽其责，突出重点、分类指导，对青铜峡市、同心县进一步加大督导检查力度，及时研究解决存在的问题，严防疫情扩散蔓延；各县（市、区）要严格落实“五个凡是”要求，充分发挥网格化管理作用；各县（市、区）要突出“三个全面”重点，对来自湖北武汉和疫情严重地区的人员、外来返岗返工人员以及出现发热、咳嗽等不适症状且与外来人员有过接触的疑似病例、留观人员和密切接触者，全部进行14天集中医学隔离观察；全面加强老旧小区、偏远村庄、路边摊点、流浪人员等薄弱环节管控，避免出现管理死角；医疗救治要到位。', '11日 吴忠市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权深入盐池县高速路口检查站、企业、居民小区、乡村等地，督查调研疫情防控工作和企业复工复产情况。沈左权强调，各级各部门要深入贯彻习近平总书记关于疫情防控的重要指示批示精神，全面落实党中央和区市党委决策部署，要在坚决抓好疫情防控的前提下，科学有序推进企业复工复产，保障群众日常生活需要，确保经济社会平稳健康发展。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江深入同心县韦州镇，太阳山开发区卫生院、集中隔离点、企业督导疫情防控工作。他强调，疫情防控正值关键时期，各县（市、区）、各部门要坚决贯彻落实习近平总书记重要指示精神和中央、自治区决策部署，坚决贯彻“坚定信心、同舟共济、科学防治、精准施策”总要求，压紧压实防控责任，依法管控防止扩散，全力切断疫情传播链，坚决打赢疫情防控阻击战。', '△ 吴忠市２名新冠肺炎确诊患者经过宁夏新冠肺炎诊疗组精心治疗，专家组会诊后，正式出院。', '12日 吴忠市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权，深入青铜峡市部分企业、乡村，督查调研疫情防控工作和企业复工复产情况。沈左权强调，要按照习近平总书记提出的坚决打赢疫情防控的人民战争、总体战、阻击战要求，在做好疫情防控的前提下，科学有序推进企业复工复产，确保经济社会平稳健康发展。', '△ 吴忠市市长、市应对新型冠状病毒感染肺炎疫情工作指挥部指挥长喜清江深入红寺堡区道路检查站、居民小区、乡村和集中隔离点督导疫情防控工作。他强调，当前疫情形势仍然严峻复杂，疫情防控正处于胶着对垒状态，要坚决贯彻落实习近平总书记重要指示精神和中央、自治区决策部署，严格按照自治区党委书记陈润儿和自治区主席咸辉批示要求，落实落细防控措施，科学依法抓好防控，全力切断疫情传播链，围住疫情扩散点，坚决打赢疫情防控的人民战争、总体战、阻击战。', '14日 吴忠市委召开常委会（扩大）会议，学习贯彻中央政治局常委会会议和习近平总书记重要讲话，学习贯彻全区疫情防控工作视频会议精神，分析研究吴忠市疫情防控形势，安排部署下一步工作。会议强调，要深刻吸取教训，坚决扛牢疫情防控重大政治责任；要落实落细社区管理措施，织牢疫情防控的人民防线。要统筹抓好当前疫情防控和经济社会发展工作，切实做到两手抓、两不误，确保全面建成小康社会和“十三五”规划圆满收官，奋力夺取疫情防控和经济社会发展双胜利。', '15日 自治区党委书记、自治区党委应对新冠肺炎疫情工作领导小组组长陈润儿深入吴忠市的社区、乡村、企业，暗访督查疫情防控工作，强调要坚决贯彻落实习近平总书记重要讲话精神，从政治的、全局的高度看待疫情防控，严格落实围点控源措施，全面阻击疫情扩散蔓延，坚决打赢疫情防控阻击战。', '△ 吴忠市委书记沈左权主持召开五届市委2020年第七次常委会会议。会议传达学习了自治区党委书记陈润儿督查青铜峡市疫情防控工作时的讲话精神，研究贯彻落实措施。会议要求，要落细落实防控责任。各级领导干部要坚持一线调度指挥、前线作战，亲自抓、抓具体，既深入现场督导，又具体解决问题；包乡（镇）、村（社区）领导干部要紧盯每一个环节，对薄弱环节要及时打“补丁”、补措施。要严格依法防控，加大传染病防治法的宣传力度，对经过劝导拒不履行法律责任的行为，要依法严肃处理。会议还研究了其他事宜。', '16日 吴忠市委书记、市委应对新冠肺炎疫情工作领导小组组长沈左权深入红寺堡区部分道路检查站、乡村和高铁站，督查调研疫情防控工作。沈左权强调，各级各部门要深入贯彻习近平总书记关于疫情防控的重要指示批示精神，全面落实自治区党委书记陈润儿和自治区主席咸辉在我市暗访督查疫情防控工作时提出的具体要求，坚决克服侥幸麻痹思想，压紧压实疫情防控责任，严格落实围点控源措施，做到外防输入、内防扩散，把疫情控制在最小范围，坚决打赢疫情防控人民战争、总体战、阻击战。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江暗访督导同心县疫情防控工作，强调各县（市、区）、各部门要深刻认识当前疫情防控工作的严峻形势，坚决贯彻落实习近平总书记重要指示精神，全面落实党中央和自治区决策部署，按照自治区党委书记陈润儿提出的做到“三早”具体要求，聚焦防控薄弱环节，持续严格压实防控责任，下沉力量、守好关口、扣紧链条、筑牢防线，堵住一切可能扩散的疏漏，坚决有力遏制疫情蔓延扩散。', '17日 吴忠市委书记、市委应对新冠肺炎疫情工作领导小组组长沈左权，深入利通区、宁夏金积工业园区部分企业，督查调研企业疫情防控措施落实和复工复产情况。沈左权强调，各级各有关部门要严格落实好各项防控措施，靠紧压实领导干部包抓责任、县（市、区）属地责任、园区和部门管理责任，以及企业主体责任，在抓紧抓实疫情防控工作的前提下，科学有序推进复工复产，统筹做到疫情防控和企业复工复产“两手抓，两不误”。', '18日 吴忠市委书记、市委应对新冠肺炎疫情工作领导小组组长沈左权深入青铜峡市、宁夏青铜峡工业园区部分企业，督查调研企业疫情防控措施落实和复工复产情况。沈左权强调，各级各部门要坚决贯彻落实习近平总书记关于疫情防控重要讲话精神，全面落实党中央和区市党委决策部署，牢固树立全市“一盘棋”思想，在抓实抓好疫情防控工作前提下，坚持精准施策、精细服务，科学有序推进企业复工复产。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江检查督导利通区部分居民小区、学校，宁夏民族职业技术学院疫情防控工作及金积工业园区部分企业复工复产情况。喜清江强调，当前疫情防控到了第二波吃劲的时候，各县（市、区）、各部门要坚决贯彻落实习近平总书记重要讲话精神，牢牢把握中央、自治区疫情防控工作要求，认真贯彻落实自治区党委书记陈润儿、自治区主席咸辉讲话和指示批示精神，围绕“三返”人员等重点人群，压实县（市、区）属地责任、园区和部门管理责任及企业主体责任，盯细节、盯重点、盯落实，切实将“三返”人员管控工作做实做细做到位。', '19日 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江到宁夏吴忠金积工业园区、宁夏青铜峡工业园区检查督导企业复工复产情况。他强调，各县（市、区）、各部门要坚决贯彻落实习近平总书记重要讲话精神，全面落实党中央和自治区安排部署，按照自治区党委园区疫情防控和企业复产工作专题会及自治区政府第56次常务会具体要求，在加强疫情防控、筑牢防控体系前提下，科学有序推动企业复工复产。', '20日 市委书记、市委应对新型冠状病毒感染肺炎疫情工作领导小组组长沈左权，深入同心县和太阳山开发区的部分乡镇、村组、居民小区、企业等地，暗访督查疫情防控措施落实和企业复工复产情况。沈左权强调，各级各部门要切实把思想和行动统一到习近平总书记重要讲话精神上来，全面贯彻落实党中央和区市党委决策部署，按照自治区党委书记陈润儿提出的“三早”要求，把疫情防控责任进一步压实，把各项措施进一步抓细，把查验关口进一步守好，织密防线、堵塞漏洞，以坚定的意志和决心赢得疫情防控阻击战的最后胜利。要在抓实抓好疫情防控工作的前提下，主动作为、加强指导、靠前服务，科学有序推进企业复工复产，为巩固拓展脱贫攻坚成果和完成全年经济社会发展目标打好基础。', '△ 吴忠市人民政府召开第48次常务会议，传达学习国务院、自治区复工复产有关会议和文件精神，听取全市疫情防控、复工复产、落实自治区支持中小微企业健康发展若干措施等工作情况汇报，部署下一步工作，研究《吴忠市促进食品工业高质量发展政策措施》。会议要求，各级领导干部特别是主要领导干部要坚守岗位、靠前指挥，分区分级精准防控，管控好社区、厂区、校区、园区基本面，管好重点人群“、三返”人员、商务人群；要统筹推进各项工作，在严格落实疫情防控措施的前提下，科学有序做好企业复工复产、农业春耕生产、重点项目开工建设、维护社会和谐稳定、稳定就业、安全生产等各项工作。', '21日 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江到红寺堡区部分企业、居民小区（村）、学校、蔬菜市场督导检查疫情防控和企业复工复产情况。他强调，各县（市、区）、各部门要坚决贯彻落实习近平总书记重要指示、讲话精神和中央、自治区决策部署，按照突出重点、统筹兼顾、分类指导、分区施策的要求，精准施策，环环相扣，统筹抓好疫情防控和经济社会发展。', '△ 吴忠市返校工作视频会议召开。会议传达自治区教育工委、吴忠市应对新冠肺炎疫情工作指挥部相关会议和文件精神，对全市返校人员防控工作进行全面安排部署。', '24日 吴忠市委书记沈左权主持召开市委应对新冠肺炎疫情工作领导小组第四次会议，传达学习习近平总书记在中央统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上的重要讲话和自治区党委视频会议精神，安排部署全市疫情防控和经济社会发展工作。会议强调，统筹抓好疫情防控和经济社会发展，全面打赢疫情防控的人民战争、总体战、阻击战，确保全面建成小康社会、完成脱贫攻坚任务和“十三五”规划。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江主持召开指挥部第七次会议。会议传达学习习近平总书记在中央统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上的重要讲话精神和自治区持续抓好疫情防控和保持经济平稳运行视频会议精神，研究部署下一步工作。', '△ 吴忠市委书记沈左权主持召开五届市委2020年第八次常委会会议。会议听取吴忠市贯彻落实习近平总书记重要指示批示精神“回头看”情况的汇报；会议强调，各级各部门要坚持问题导向，围绕贯彻落实习近平总书记对宁夏提出的“三个着力”要求，针对疫情防控、脱贫攻坚、民族宗教、生态环保等方面的突出短板和问题，结合中央巡视和自治区党委巡视等反馈问题，扎实整改；同时，要总结贯彻落实中的一些好经验好做法，形成长效机制。会议传达学习了中央农村工作会议、自治区党委农村工作暨脱贫攻坚工作会议精神，研究贯彻意见。', '26日 吴忠市委书记、市委应对新冠肺炎疫情工作领导小组组长沈左权深入万达商业广场、市政务服务中心、北方农资城、阳光骄子小区等地，调研督导疫情防控工作和生产生活秩序恢复情况。他强调，要坚决贯彻落实习近平总书记重要讲话精神，全面落实自治区持续抓好疫情防控和保持经济平稳运行视频会议要求，准确把握我市疫情防控新形势新变化，分区分级精准防控，稳妥有序恢复生产生活秩序。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江深入领航生物年产15000吨绿色农药、天泽化工新材料年产3.32万吨精细化工、三力工贸年产13000吨硫酸衍生产品、青铝绿色高效智能化升级技术改造、银川都市圈东线供水等项目建设现场，检查重点项目建设开复工情况。', '△ 吴忠市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江到吴忠高铁站、青铜峡火车站和河东机场吴忠接站点检查督导“三返”人员防控工作。喜清江强调，当前疫情防控形势依然严峻复杂，防控正处在最吃劲的关键阶段，要切实把思想和行动统一到习近平总书记重要讲话精神上来，统一到中央和自治区的安排部署上来，坚决克服麻痹思想、厌战情绪、侥幸心理，毫不放松抓紧抓实抓细各项防控工作。要认真落实“三返”人员各项防控措施，准确掌握“三返”人员底数，严格落实分类隔离措施，坚决阻断疫情从外输入。', '△ 吴忠市委书记、市委应对新冠肺炎疫情工作领导小组组长沈左权，深入青铜峡市部分企业、乡村、居民小区等地，调研督导疫情防控和生产生活秩序恢复工作。沈左权强调，要坚决贯彻落实习近平总书记重要讲话精神，严格落实党中央和区市党委决策部署，分区分级精准防控，突出重点、精准施策，稳妥有序恢复生产生活秩序，确保完成全年经济社会发展目标。', '28日 吴忠市委书记沈左权主持召开五届市委2020年第9次常委会会议，传达学习中央政治局常委会和自治区党委常委会会议精神，安排部署疫情防控和经济社会发展工作。响应党中央对广大党员的号召，沈左权、喜清江、孙瑛、朱云等市领导为支持新冠肺炎疫情防控工作捐款。', '△ 吴忠市市长、市应对新冠肺炎疫情工作指挥部指挥长喜清江，到市敬老院、儿童福利院、公安监所等特殊场所检查督导疫情防控工作。喜清江强调，当前疫情形势依然严峻复杂，特殊场所和重点人群的疫情防控面临较大风险。要深入学习贯彻习近平总书记重要讲话和指示批示精神，全面落实中央、自治区安排部署，切实增强紧迫感、责任感，对重点人群要特别关心、对特殊场所要特别管理、在特殊时期负起特别责任，抓紧抓实抓细各项防控措施，坚决做好特殊场所和重点人群疫情防控工作。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>291</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>吴忠市商务局年部门预算</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1281076.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['根据自治区党委办公厅、人民政府办公厅《关于印发&lt;吴忠市人民政府职能转变和机构改革方案&gt;的通知》（宁党办〔2014〕58号）精神，设立吴忠市商务局，为市人民政府工作部门。', '（一）贯彻执行有关法律、法规、规章和方针、政策；执行国家、自治区有关国内外贸易、国际经济合作、外商投资的发展战略，拟订相关规划并组织实施。', '（二）研究提出商贸流通业发展重大问题和相关政策建议，指导流通产业结构调整，推动电子商务应用与发展。', '（四）负责拍卖业、典当业、成品油流通、再生资源、报废汽车回收等特殊行业的预审、备案、年检等工作。', '（五）组织实施重要消费品市场调控和重要生产资料流通管理工作，建立健全生活必需品市场供应应急管理机制；监测分析市场运行和商品供求状况，加强预测和信息引导。', '（六）负责商品进出口贸易的协调服务工作；组织协调出口企业参加国外市场考察和各类国内外展示展销。', '（七）贯彻执行国家有关外国投资政策，依法做好外商投资企业的设立、变更的备案及监督工作。', '（八）指导协调对外承包工程、劳务合作和境外投资等工作；管理国际多双边无偿援助和受援项目的实施。', '根据上述职责，市商务局内设办公室、商贸流通科、外经贸科、商务执法科、行政审批科五个科室机构。', '市商务局核定行政编制17人、后勤编制1人，实有16人，领导职数一正三副。现任领导班子成员共4人，其中：党组书记、局长马海涛，党组成员、副局长赵汝彦（调研员）、戴生礼、张永忠.', '人，其中：党组书记、局长马海涛，党组成员、副局长赵汝彦（调研员）、戴生礼、张永忠.', '万元。包括：按政府收支科目类、款、项，用途分项说明。一般公共服务（类）财政事务（款）其他商贸事务（项）', '2019年“三公”经费财政拨款预算比2018年减少1.05 万元，其中：因公出国（境）费增加0万元，主要原因无因公商务考察项目；公务用车购置费增加0万元，主要原因无公务车辆；公务用车运行费增加0万元，主要原因无公务车辆；公务接待费0.45万元，减少1.05万元，主要原因是上年严格执行了中央八项规定，对外省来吴考察学习单位及企业无接待函件的一律不予公务接待，压减了公务接待的费用。', '万元，主要原因是上年严格执行了中央八项规定，对外省来吴考察学习单位及企业无接待函件的一律不予公务接待，压减了公务接待的费用。', '2019年，市商务局本级1个行政单位，无参公管理事业单位，机关运行经费财政拨款预算', '2019年，市商务局政府采购预算0万元，其中：政府采购货物预算0万元，政府采购工程预算0万元，政府采购服务预算0万元。', '所属单位房屋0平方米，价值0万元；土地0平方米，价值0万元；车辆0辆，价值0万元；办公家具价值0万元；其他资产价值0万元。', '市长“菜篮子”工程（鲜活农产品流通基础设施新、改造、应急保供、冬春蔬菜储备等）50万元', '。“菜篮子”直接关系到农民收入和城市居民生活，是兜底的民生工程。该项费用主要强化“菜篮子”市长负责制，全面加强“菜篮子”工程建设。城乡居民“菜篮子”供应及质量安全是否得到切实保障，是一项平抑蔬菜价格惠及民生的项目，于', '2019年预算安排国家电子商务示范城市创建30万元，创建国家级电子商务示范城市于2018年开始，到2020年完成，本年完成县级仓储物流配送中心一个。', '安排陕甘川宁毗邻地区经联会第33届年会暨第28届西交会70万元。本届大会吴忠市为主办方，召开此次大会主要起到招商引资推介吴忠，', '搞活流通，促进贸易，构筑西部大市场，带动各方经济发展为目的，通过贸易先导，以商破题，搞好对外开放和区内横向经济交流，该项目于当年完成。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '6、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '7、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '9、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）', '费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '10、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>291</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>吴忠市委组织部年部门预算</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1281097.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['（1）研究指导全市党的基层组织建设，探索、指导全市各类基层党组织的设置和活动方式；协调、规划和指导党员教育工作，主管党员的发展、管理和服务工作；负责组织、指导、协调党代表大会代表开展活动，做好党代表意见、建议、提案办理和教育培训管理等日常服务联络工作；组织、协调新时期党建工作新情况、新问题和党建理论的研究。', '（2）对市委管理的领导班子、领导干部提出调整、配备意见和建议；负责高管干部的选拔、考察工作，指导协调、组织实施全市公开选拔领导干部工作；按照干部管理权限，负责有关科级干部的备案、审查、管理和任免；负责区属有关部门领导成员任免的协管工作；负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批，；承办有关干部的调配、交流、安置及出国（境）政审等事宜。', '（3）指导和加强全市各级领导班子思想政治建设和作风建设，督促检查下级党委认真贯彻执行民主集中制，坚持集体领导，开好民主生活会。', '（4）研究贯彻中央制定的干部队伍建设的方针、政策，组织落实培养选拔年轻干部、少数民族干部、妇女干部、非中共党员干部和后备干部。', '（5）研究和宏观指导全市党的组织制度和干部人事制度改革，制定或参与制定组织、干部、人事工作的重要政策和制度。', '（6）负责全市干部监督工作的综合、协调和宏观指导，组织制定有关干部监督的制度和规定，及时向市委反映情况，提出意见和建议。', '（7）主管干部教育培训工作，制定干部教育培训工作的有关政策、规划；组织市委管理的干部以及年轻干部、科级干部、组织人事干部的培训；指导、协调、检查全市的干部教育培训工作；研究、探索干部教育培训工作制度改革，指导干部培训基地、师资队伍建设和教材编写等工作。', '（8）承担市委人才工作领导小组的日常工作。负责全市人才工作的牵头抓总、宏观指导、政策研究、综合协调和督促检查工作。', '（9）负责退（离）休干部工作的宏观管理，制定或参与制定退（离）休干部工作的方针、政策。', '（11）负责全市干部统计和党员统计工作，负责全市干部档案管理宏观指导工作；负责市管干部人事档案的建立、整理、转递和管理，负责全市干部人事档案管理达标建设工作，负责市管干部人事档案数字化建设工作。负责组织部文书档案工作。', '从预算单位构成看，吴忠市委组织部部门预算包括：吴忠市委组织部本级预算、所属事业单位党员教育中心预算。', '吴忠市委组织部内设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、人才科、干部教育监督科、网络与信息科9个行政科室。', '吴忠市委组织部内设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、人才科、干部教育监督科、网络与信息科', '吴忠市委组织部2019年一般公共预算财政拨款项目支出1740万元，其中：本年收入安排支出1740万元，上年结转结余资金安排支出1790万元。包括：村党组织为民服务资金配套资金580万元；非公企业党建设经费30万元；复转军人工资10万元；干部人事档案数字化建设经费10万元；干部教育培训经费60万元；基层党建“强龙工程”、农村基层党的建设经费100万元；城市基层党的建设经费100万元；领导班子及领导干部管理工作经费50万元，人才工作经费800万元。', '2019年村党组织为民服务资金配套资金预算580万元，与2018年执行数据一致。主要用于：根据自治区党委《关于进一步加强农村基层党建工作的若干意见》（宁党发〔2015〕33号）要求，按照每个行政村5-10万元标准，设立为民服务资金，3千人以下的村', '非公企业党务工作者培训；筹办非公企业党建工作会议；划拨支持非公企业党组织党员活动阵地建设；表彰奖励先进集体和个人等。', '复转军人工资预算10万元，与2018年执行数据一致。主要用于复转军人工资、社会保障、医疗卫生、民族团结奖、效能奖的开支。', '干部人事档案数字化建设预算经费10万元，比2018年执行数减少40万元，下降20 %。主要用于：干部档案数字化建设。', '主要用于：组织开展党的十九大精神和习近平总书记系列重要讲话精神学习轮训、抓好全市干部网络学习培训、举办干部主体培训班5-10期、举办干部区外培训班2-3期、加强对党校骨干教师进行业务培训和实践锻炼、选派干部到沿海发达地区挂职锻炼、向基层划拨干部教育培训任务落实经费。', '深入推进抓党建促脱贫富民工作、整顿转化软弱涣散村党组织、培育农村“两个带头人”、村党组织书记和农村党员教育培训、远程教育站点建设。', '对市管领导班子、领导干部进行选拔任用、组织考察、调整配备所需交通费、纸张耗材等、通过竞争性选拔等方式，组织实施全市公开选拔领导干部工作、按照干部管理权限，负责有关科级干部的备案、审查、管理和任免、负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批 、承办有关干部出国（境）政审等事宜', '2018年人才工作经费预算800万元。与2017年执行数据一致。主要用于市委人才工作领导小组的日常工作。健康产业人才高地、现代农业产业人才高地、装备制造产业人才高地、生态纺织产业人才高地、全域旅游产业人才高地、专业技术人才培训高地建设。', '吴忠市委组织部2019年“三公”经费财政拨款预算数为 0万元，其中：因公出国（境）费0万元，公务用车购置0万元，公务用车运行费0万元，公务接待费0万元。', '2019年“三公”经费财政拨款预算比2018年减少1.4 万元，其中：因公出国（境）费减少0 万元，主要原因：严格控制因公出国人员；公务用车购置费减少0 万元，主要原因严格执行中央八项规定；公务用车运行费减少0万元，主要原因行政单位公车改革；公务接待费减少0万元，主要原因严格执行中央八项规定。', '2019年，吴忠市委组织部政府采购预算 10万元，其中：政府采购货物预算10万元，政府采购工程预算 0万元，政府采购服务预算0万元。', '2019年吴忠市委组织部无重点预算项目绩效评价。2019年市财政预算拨款1740万元主要用于基层党建“强龙工程”，深入推进抓党建促脱贫富民工作、整顿转化软弱涣散村党组织、培育农村“两个带头人”、村党组织书记和农村党员教育培训、远程教育站点建设；市委人才工作领导小组的日常工作。健康产业人才高地、现代农业产业人才高地、装备制造产业人才高地、生态纺织产业人才高地、全域旅游产业人才高地、专业技术人才培训高地建设。', '2019年吴忠市委组织部无重点预算项目绩效评价。2019年市财政预算拨款1740万元主要用于基层党建“强龙工程”，', '深入推进抓党建促脱贫富民工作、整顿转化软弱涣散村党组织、培育农村“两个带头人”、村党组织书记和农村党员教育培训、远程教育站点建设；', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '5、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '7、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>291</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>中国人民政治协商会议吴忠市委员会年部门预算</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2020n_48259/202003/t20200326_2002228.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['主要职能是政治协商、民主监督、参政议政。政治协商是对地方的大政方针以及政治、经济、文化和社会生活中的重要问题在决策之前进行协商和就决策执行过程中的重要问题进行协商。民主监督是对国家宪法、法律和法规的实施，重大方针政策的贯彻执行、地方各级党政机关及其工作人员的工作，通过建议和批评进行监督。参政议政是对我市政治、经济、文化和社会生活中的重要问题以及人民群众普遍关心的问题，开展调查研究，反映社情民意，进行协商讨论。通过调研报告、提案、建议案或其他形式，向地方党委、政府提出意见和建议。', '从预算单位构成看，中国人民政治协商会议吴忠市委员会部门预算包括：中国人民政治协商会议吴忠市委员会本级预算、无所属事业单位预算。', '按照市编委核定，中国人民政治协商会议吴忠市委员会共设机构8个（1个办公室和7个专门委员会）。其中，办公室设内设机构4个（秘书科、文档科、总务科、委员联络办公室），专门委员会下设综合一二三四共4个办事机构。中国人民政治协商会议吴忠市委员会现有在职人员44名(其中行政编37名，机关后勤服务事业编制5名、聘用编制1名，复转军人编制1名)。退休人员61名。', '、市政协全年调研视察活动经费保障；20万元委员工作经费主要用于委员活动室建设及委员活动费用；5万元报刊费用于为委员征订报刊，使其更好的参政议政；20万元用于支付可控编人员丁自云和复转军人王国平全年工资、社保等各项费用，各10万元。2、政协会议（2010204）2020年预算60万元，比2019年执行数（决算数）42.81万元增加17.19万元，增长40.14%。主要用于市政协全委会、常委会等各类会议经费保障。', '本年收入包括：财政拨款预算收入1101.92万元，占100%；事业预算收入0万元；上级补助预算收入0万元；附属单位上缴预算收入0万元；经营预算收入0万元；债务预算收入0万元，；非同级财政拨款预算收入0万元；投资预算收益0万元；其他预算收入0万元。', '2020年，市政协政府采购预算10万元。其中：政府采购货物预算10万元，政府采购工程预算0元，政府采购服务预算0元。', '所属单位房屋0平方米，价值0元；土地0平方米，价值0元；车辆0辆，价值0元；办公家具价值0元；其他资产价值0元。', '2020年市政协项目支出预算涉及6个项目（包括委员工作经费、复转军人工资、学习考察费、报刊费、可控编人员工资、会议费）', '个项目（包括委员工作经费、复转军人工资、学习考察费、报刊费、可控编人员工资、会议费）', '按照市财政局部门预算支出绩效综合评价指标及计分标准，对部门预算整体支出情况进行绩效综合评价，在支出进度、预算执行等方面进行全程控制与监督，加大源头管控力度，提高财政资金使用效益。', '是指行政单位从同级财政部门取得的财政预算资金，包括基本支出拨款和项目支出拨款收入。', '是指行政单位为保障机构正常运转和完成日常工作任务发生的支出，包括人员支出和公用支出。', '是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '是指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及公务用车燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）费用支出。', '是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公费、印刷费、邮电费、差旅费、因公出国(境）费、公务接待费、日常维修费、其他交通费用以及其他商品和服务支出等。', '是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公费、印刷费、邮电费、差旅费、因公出国']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>291</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>吴忠市人民政府办公室年部门预算</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2018n_48257/201803/t20180301_696739.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['吴忠市人民政府办公室为协助吴忠市政府领导处理市人民政府日常工作的行政机构，市政府组成部门。主要职责为：负责市政府会议的准备工作，协助政府领导同志组织实施会议决定事项；负责政府领导同志重要活动的日程安排；负责市政府与自治区有关部门和市政府与市委、人大、政协、吴忠军分区、驻吴单位联系等工作。', '从预算单位构成看，吴忠市政府办2018年部门预算部门预算包括：吴忠市政府办2018年部门预算本级预算', '内设秘书科、信息新闻调研科、文档科、市政府督查室、行政科、总务科、法制法规科、信建办8个科室。', '内设秘书科、信息新闻调研科、文档科、市政府督查室、行政科、总务科、法制法规科、信建办', '人员经费937.18万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费107.51万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '主要用于公务交通补助、电子政务外网维护、阳光政务直通车、法制工作经费、宁夏党政专用通信网二级运行维护费、法律顾问费、市政府应急平台维护费、考察培训费、报刊费、挂职补贴、小型移动应急平台维护费。', '公务用车购置费0万元；公务用车运行费0万元；公务接待费增加4.59万元，主要原因接待华侨，归侨侨眷。', '吴忠市人民政府办公室2018年政府性基金预算拨款无基本支出 ，与2017年数据一致。', '吴忠市人民政府办公室2018年政府性基金预算拨款无项目支出 ，与2017年数据一致。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '5、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '7、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。', '经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>291</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>吴忠市人民政府办公室关于印发关于建立现代医院管理制度的实施方案的通知</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-04-25</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/szdwj/201805/t20180504_748254.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['吴忠市人民政府办公室关于印发《关于建立现代医院管理制度的实施方案》的通知_吴忠市人民政府', '为全面推进全市公立医院综合改革，加快建立公立医院现代化管理制度，实现公立医院治理体系和治理能力现代化，更好地满足人民群众看病就医需求，根据《国务院办公厅关于建立现代医院管理制度的指导意见》〔国办发〔2017〕67号）和《自治区人民政府办公厅关于建立现代医院管理制度的实施意见》（宁政办发〔2017〕215号）文件精神，结合我市实际，制定本实施方案。', '深入贯彻落实党的十九大精神，坚持以习近平新时代中国特色社会主义思想为指导，坚持党的领导和正确的卫生与健康工作方针，认真落实自治区第十二次党代会、全区卫生与健康大会的部署要求，按照市委、市政府的整体部署，把人民健康放在优先发展的战略地位，全面推进医院治理体系和管理能力建设，以落实医院运营自主权和强化医院监管为重点，以深化管理体制和运行机制改革为核心，不断提高医疗服务质量，充分调动医务人员积极性，努力实现社会效益与运行效率的有机统一，为推进健康吴忠建设奠定坚实基础。', '把人民健康摆在优先发展的位置，以公平可及、群众受益为目标，健全稳定长效、充满活力、规范有序的医院运行新机制，维护基本医疗卫生服务的公益性，全方位、全周期保障人民健康，使全体人民在共建共享中有更多获得感。', '落实党委、政府对公立医院的领导责任、保障责任、管理责任、监督责任，把社会效益放在第一位，增强普惠性。', '合理界定政府作为公立医院出资人的举办监督职责和公立医院作为事业单位的自主运营管理权限，实行所有权与经营权分离。', '在坚持公立医院改革方向和原则下，尊重地方首创精神，鼓励各地因地制宜、突破创新，建立符合自身发展特点、符合实际的现代医院管理运行模式。', '到2019年，全市公立医院管理制度更加完善，治理体系更 加有效，党的建设切实加强，政府办医责任进一步落实，政事分开、管办分开有序推进。', '到2020年，基本形成维护公益性、调动积极性、保障可持续的公立医院运行新机制和决策、执行、监督相互协调、相互制衡、相互促进的治理机制，基本建立权责清晰、管理科学、治理完善、运行高效、监督有力的现代医院管理制度。', '各级各类医院应制定医院章程，包括医院性质、办医宗旨、功能定位、办医方向、管理体制、经费来源、组织结构、决策机制、管理制度、监督机制、文化建设、党的建设、群团建设，以及举办主体、医院、职工的权利义务等内容，明确党组织在医院内部治理结构中的地位和作用。医院章程要经过医院职工代表大会审议通过。医院要以章程为统领，建立健全内部管理机构、管理制度、议事规则、办事程序等，规范内部治理结构和权力运行规则，提高医院运行效率。（市卫生计生局、人社局，各县（市、区）负责，排在第一位的部门为牵头部门，下同）', '组织结构、决策机制、管理制度、监督机制、文化建设、党的建设、群团建设，以及举办主体、医院、职工的权利义务等内容，明确党组织在医院内部治理结构中的地位和作用。医院章程要经过医院职工代表大会审议通过。医院要以章程为统领，建立健全内部管理机构、管理制度、议事规则、办事程序等，规范内部治理结构和权力运行规则，提高医院运行效率。（市卫生计生局、人社局，各县（市、区）负责，排在第一位的部门为牵头部门，下同）', '实行院长负责制，公立医院院长全面负责医疗、教 学、科研、行政管理工作。院长办公会议是公立医院行政、业务议事决策机构，对讨论研究事项作出决定。在决策程序上，公立医院发展规划、“三重一大”等重大事项，以及涉及医务人员切身利益的重要问题，要通过医院党组织会议研究讨论，并报请同级公立医院管理委员会研究决定。充分发挥专家作用，组建医疗质量安全管理、药事管理等专业委员会，对专业性、技术性强的决策事项提供技术咨询和可行性论证。对资产多元化、实行托管的医院以及医疗联合体等，可在医院层面成立理事会。严格执行医院财务会计制度，建立健全财务分析和报告制度以及医院财务审计和院长经济审核制度。把党的领导融入公立医院治理结构，医院党组织领导班子成员应当按章程进入医院管理层或通过法定程序进入理事会，医院管理层或理事会内部理事中的党员成员一般应当进入医院党组织领导班子。（市卫生计生局、编办，各县（市、区）负责）', '健全以职工代表大会为基本形式的民主管理制度，保障职工参与管理和监督的民主权利。工会依法组织职工参与医院的民主决策、民主管理和民主监督。医院研究经营管理和发展的重大问题应当充分听取职工意见，涉及职工切身利益的会议，必须有工会代表参加。推进院务公开，落实职工群众知情权、参与权、表达权、监督权。（市卫生计生局负责）', '贯彻落实《医疗质量管理办法》，落实医疗质量安全院、科两级责任制。院长是医院依法执业和医疗质量安全的第一责任人，临床科室以及药学、护理、医技等部门主要负责人是本科室医疗质量管理的第一责任人。建立全员参与、覆盖临床诊疗服务全过程的医疗质量管理与控制工作制度。严格落实首诊负责、三级查房、分级护理、手术分级管理、抗菌药物分级管理、病历管理、临床用血审核等18项医疗质量安全核心制度，加强抗生素、激素类、抗肿瘤、心血管等药物临床应用管理以及重点药品的监控，将辅助性、营养性、高回扣药品列入重点跟踪监控品规目录，促进合理用药，保障临床用药安全、经济、有效。严格执行医院感染管理制度、医疗质量内部公示制度等。加强医疗基础质量、环节质量、终末质量控制，健全结构、过程、结果指标监测、评价、反馈、改进机制，加强重点科室、重点区域、重点环节、重点技术的质量安全管理，推进合理检查、用药和治疗。以安全、质量和效率为中心，建章立制，强化管理。（市卫生计生局负责）', '落实《自治区人民政府办公厅转发自治区编办关于公立医院实行人员总量管理意见的通知》（宁政办发〔2017〕149号）、《关于印发宁夏回族自治区公立医院薪酬制度改革试点工作意见的通知》（宁人社发〔2017〕34 号）、《吴忠市市级公立医院编制人事薪酬制度改革实施方案》（吴党办发〔2017〕61号）文件精神，建立健全公立医院人员备案管理、岗位管理、职称管理、执业医师管理、护理人员管理、收入分配管理等制度。公立医院对备案人员在岗位聘用、职称评聘、进修培训、薪酬待遇等方面与在编人员同等对待，缴纳“五险一金”和职业年金。公立医院在核定的薪酬总量内进行自主分配，体现多劳多得、优绩优酬。（市人社局、编办、财政局、卫生计生局负责）', '将财务收支、预算决算、会计核算、成本管理、价格管理、资产管理纳入医院财务部门统一管理制度。建立健全全面预算管理，公立医院所有收支全部纳入部门预算，实现全口径、全过程、全员性统一预算管理。加强成本核算与控制，在实行医疗业务成本核算的基础上，逐步实行公立医院全成本核算，建立健全成本控制考核制度，有效防止资源浪费。健全财务报告制度，从2018年起，全市所有县级及以上公立医院要实行财务报告制度，按照有关规定向同级财政部门、业务主管部门报送财务报告。加强内部审计监督，探索建立医疗联合体内部审计制度，明确内部审计的工作职责、权限、程序、方法等。建立财务信息公开制度，按照《医疗卫生单位信息公开管理办法（试行）》相关规定向社会公布财务信息。吴忠市人民医院落实总会计师制度，其他有条件的公立医院可以结合实际推进总会计师制度建设。（市财政局、卫生计生局、编办、人社局、国资委负责，各县（市、区）负责）', '将绩效考核落实到科室和岗位，对不同岗位、不同职级医务人员实行分类考核。建立健全绩效考核指标体系，围绕办院方向、社会效益、医疗服务、经济管理、人才培养培训、可持续发展等方面，突出岗位职责履行、工作量、服务质量、行为规范、医疗质量安全、医疗费用控制、医德医风和患者满意度等指标。严禁给医务人员设定创收指标。将考核结果与医务人员岗位聘用、职称晋升、个人薪酬挂钩，并作为职务任免的重要参考。（市卫生计生局、财政局、人社局，各县（市、区）负责）', '落实自治区住院医师规范化培训、专科医师规范化培训、助理全科医生培训、继续医学教育和管理人员培训等制度，做好医学生培养工作，到2020年，新进入公立医院的医生须经过住院医师规范化培训。完善中医药师承教育制度，构建中医药人才梯队。加强临床重点专科、学科建设，积极培养医疗专业学科带头人，提升医院核心竞争力。按照公立医院特点，自行设置岗位，实行竞聘上岗、能上能下，激活医院专业技术人员的动力活力。落实职称评定“凡晋必下”制度。通过医联体建设、“千名医生下基层”、对口支援项目等，积极为基层培养人才。（市卫生计生局、人社局负责）', '各级公立医院按照功能定位严格执行分级诊疗制度，加强急诊急救力量，畅通院前院内绿色通道，理顺上下转诊通道，逐步下转常见病、多发病和疾病稳定期、恢复期患者。各级公立医院要积极参与医疗联合体，三级公立医院要全部参与医疗联合体建设并发挥引领作用。通过建设城市医疗集团，发展县域内医共体，组建专业性分工协作的跨区域专科联盟，加强面向基层和边远地区的远程医疗协作网络系统，促进医联体内优质医疗资源上下贯通，重点带动基层医疗卫生机构发展。提高医疗服务整体效率。积极开展精准化对口帮扶工作，积极主动引进区内外优质医疗资源和优质医疗服务，加快提升医疗服务能力和水平。（市卫生计生局、人社局，各县（市、区）负责）', '加快诊疗技术创新突破，大力开展适宜技术推广普及，提高医疗技术水平。加强基础学科与临床学科、辅助诊疗学科的交叉融合。建立健全科研项目管理制度。（市卫生计生局、科技局，各县（市、区）负责）', '强化医院发展建设规划编制和项目前期论证，落实基本建设项目法人责任制、招投标制、合同管理制、工程监理制、质量责任终身制等。合理配置适宜医学装备，建立采购、使用、维护、保养、处置全生命周期管理制度。鼓励推行后勤服务外包，探索医院“后勤一站式”服务模式，推进医院后勤服务社会化。（市卫生计生局、发展改革委，各县（市、区）负责）', '按照国家统一标准和规范，切实加强以电子病历和医院管理为核心的公立医院信息系统建设，实现对规范诊疗、绩效考核、财务运行的动态化管理，实现医疗服务、公共卫生、计划生育、医疗保障、药品供应保障和综合管理系统的互联互通、区域协同、资源共享，提高医院精细化管理水平。建设面向基层医疗卫生机构的区域检查检验中心和远程会诊系统，开展纵向技术合作，方便群众就医。完善医疗服务管理、医疗质量安全、药品耗材管理、成本核算、内部审计、廉洁风险防控等功能。建立完善医务人员信息管理系统和考核档案，记录医务人员各项基本信息、平时考核、年度考核、项目考核、岗位晋级及违规情况等。加强医院网络和信息安全建设管理，完善患者个人信息保护制度和技术措施。（市卫生计生局、工业和信息化局、信建办、财政局、人社局、市场监督管理局负责）', '落实国家《关于印发进一步改善医疗服务行动计划（2018-2020年）的通知》和吴忠市医疗联合体建设的相关要求，推进多种形式医疗联合体建设，促进优质医疗资源下沉，提升基层医疗机构服务能力。进一步改善医疗服务，优化就医流程，合理布局诊区设施，科学实施预约诊疗，推行日间手术、远程医疗、多学科联合诊疗模式。加强急诊急救力量，畅通院前院内绿色通道。开展就医引导、诊间结算、检查检验结果推送、异地就医结算等信息化便民服务。开展优质护理服务，加强社工、志愿者服务。提高医患沟通能力，保障患者知情权，畅通投诉渠道，健全投诉受理制度。推进院内调解、人民调解、司法调解、医疗风险分担机制有机结合的“三调解一保险”机制建设，妥善化解医疗纠纷，构建和谐医患关系。（市卫生计生局、司法局、人社局，各县（市、区）负责）', '（1）各县（市、区）要成立多部门组成的公立医院管理委员会，行使公立医院举办权、发展权、重大事项决策权、资产收益权等，负责公立医院发展规划、章程制定、重大项目实施、运行监管、绩效考核等。', '（2）落实《吴忠市区域卫生规划（2016—2020年）》和《吴忠市卫生计生事业和人口均衡发展“十三五”规划》精神，各县（市、区）要在全市规划的约束、管控和指导下，落实好各自制定的医疗卫生服务体系规划，优化医疗卫生机构布局和资源配置，合理控制公立医院数量和规模。', '（3）全面落实对符合区域卫生规划的公立医院投入政策，对公立医院基本建设、大型设备购置、重点学科发展、人才培养以及公立医院承担的公共卫生任务等给予专项补助，细化落实对中医医院（含民族医院）的投入倾斜政策，逐步偿还和化解符合条件的公立医院长期债务。', '（4）理顺医疗服务价格，积极稳妥推进医疗服务价格改革，强化价格、医保等相关政策衔接，确保医疗机构发展可持续、医保基金可承受、群众负担总体不增加。建立以成本和收入结构变化为基础的价格动态调整机制，到2020年基本理顺医疗服务比价关系。', '理顺医疗服务价格，积极稳妥推进医疗服务价格改革，强化价格、医保等相关政策衔接，确保医疗机构发展可持续、医保基金可承受、群众负担总体不增加。建立以成本和收入结构变化为基础的价格动态调整机制，到2020年基本理顺医疗服务比价关系。', '（5）实行人员总量管理，科学合理配置人力资源，依据自治区医疗卫生服务体系规划确定的各级公立医院床位、人员配置标准、及核定床位数、人员总量，人员总量由原核定的事业编制数和新核定的备案人员数两部分组成，备案人员数实行备案管理。逐步取消公立医院行政级别，卫生计生行政部门负责人一律不得兼任公立医院领导职务。', '（6）完善绩效工资制度，积极推进落实《吴忠市市级公立医院编制人事薪酬制度改革实施方案》精神，合理核定医务人员薪酬总量，有效调动医务人员积极性。', '（7）建立健全以公益性为导向的考核评价指标体系，定期组织开展公立医院绩效考核以及院长年度和任期目标责任考核，考核结果与财政补助、医保支付、绩效工资总量、医院评审评价以及院长薪酬、任免、奖惩等挂钩。', '（1）建立综合监管制度。完善“双随机、一公开”机制，强化事中事后监管，重点加强对各级各类医院医疗质量安全、医疗费用以及大处方、欺诈骗保、药品回扣等行为的监管，建立“黑名单”制度，形成全行业、多元化的长效监管机制。推进执法全过程记录制度，开展行政执法、执法案卷等专项稽查。', '（2）推广使用手持执法终端，推动监督信息公开。建立问责机制，对造成重大社会影响的乱收费、不良执业等行为，造成重大医疗事故、重大安全事故的行为，严重违法违纪案件，严重违反行风建设的行为进行问责。', '（3）强化卫生计生行政部门医疗服务监管职能，完善机构、人员、技术、装备准入和退出机制。', '（4）深化医保支付方式改革，推进医保诚信体系建设。充分发挥医保对医疗服务和费用的调控引导和监督制约作用，完善医保医师诚信管理机制，在医保结算系统启用医保医师标识，实现医保医师诚信管理与医保处方权关联。建立医保参保个人诚信管理机制，进一步规范医保参保个人就医行为。', '（5）从严控制公立医院床位规模、建设标准和大型医用设备配备，严禁举债建设和豪华装修，对超出规模标准的要逐步压缩床位。坚持资源共享和阶梯配置原则，引导医疗机构合理配置适宜设备。控制公立医院特需服务规模，提供特需服务的比例不超过10%。', '（6）加强对公立医院经济活动和财务活动的监管和审计监督，对公立医院预算、决算、结余资金、资产、负债、对外投资等事项加强日常监督管理，并按规定组织开展经济管理绩效评价工作。建立医院财务报告制度和委托注册会计师审计制度，对公立医院的重大政策措施、重大投资项目、重点专项资金等开展重点审计和检查。', '（7）建立医疗机构综合监管信息化平台，探索利用信息化手段对医疗机构诊疗行为和费用全程监控和审核。健全非营利性和营利性社会办医院分类管理制度，加强对非营利性社会办医院产权归属、财务运营、资金结余使用等的监管，加强对营利性社会办医院盈利率的管控。', '（市卫生计生局、人社局、发展改革委、财政局、审计局、市场监督管理局，各县（市、区）负责）', '公立医院要依法依规进行经营管理和提供医疗服务，行使内部人事管理、机构设置、中层干部聘任、人员招聘和人才引进、内部绩效考核与薪酬分配、年度预算执行等经营管理自主权。落实公立医院用人自主权，在核准的人员总量内参照国家和自治区相关规定自主设置岗位，建立岗位结构比例动态调整机制；在备案人员数内补充人员的，根据业务需要依程序提出招聘方案，经主管部门同意并报同级人力资源社会保障部门备案后，由公立医院面向社会自主公开招聘医务人员；对紧缺、高层次人才可按国家和自治区规定采取考察的方式予以招聘。对艰苦边远地区公立医院人员招聘，要降低岗位资格条件，放宽开考比例，实行“双合格线”控制。（市卫生计生局、人社局、财政局，各县（市、区）负责）', '加强医院信息公开，重点公开质量安全、价格、医疗费用、财务状况、绩效考核、事业单位法人年度报告等信息。加强医疗行业协会、学会等社会组织在行业自律和职业道德建设中的作用，引导医院依法经营、公平有序竞争。改革完善医疗质量、技术、安全和服务评估认证制度。探索建立第三方评价机制，全面、客观评价医院绩效、医疗质量、服务态度、行风建设等。严格行业管理，各级卫生计生行政部门加强医院服务监督体系建设，强化对公立医院医疗质量安全、费用控制、财务运行等方面的监管，及时查处为追求经济利益的不合理使用药品、耗材、服务设施和检查检验等行为。（市卫生计生局，各县（市、区）负责）', '树立正确的办院理念，弘扬 “敬佑生命、救死扶伤、甘于奉献、大爱无疆”的职业精神。恪守服务宗旨，增强服务意识，提高服务质量，全心全意为人民健康服务。推进医院精神文明建设，开展社会主义核心价值观教育，促进形成良好医德医风。关心爱护医务人员身心健康，尊重医务人员劳动成果和辛勤付出，增强医务人员职业荣誉感。建设医术精湛、医德高尚、医风严谨的医务人员队伍，塑造行业清风正气。（市卫生计生局负责）', '公立医院党委要抓好对医院工作的政治、思想和组织领导，把方向、管大局、保落实。把方向，主要是自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，全面贯彻落实自治区第十二次党代会、市委的理论路线方针政策，引导监督医院遵守国家法律法规，维护各方合法权益，确保医院改革发展正确方向。管大局，主要是坚持在大局下行动，谋全局、议大事、抓重点，统筹推进医院改革发展、医疗服务、医德医风等各项工作，努力建设患者放心、人民满意的现代医院。保落实，主要是管干部聚人才、建班子带队伍、抓基层打基础，讨论决定医院内部组织机构的设置及其负责人的选拔任用，领导精神文明建设和思想政治工作，领导群团组织和职工代表大会，做好知识分子工作和统一战线工作，加强党风廉政建设，确保党的卫生与健康工作方针和政策部署在医院不折不扣落到实处。（市卫生计生局，各县（市、区）负责）', '坚持把公立医院党的建设与现代医院管理制度建设紧密结合，同步规划，同步推进。健全完善医院党建工作领导体制和工作机制，建立党建工作机构，配齐配强党建工作力量。按照“党组织随着学科建”要求，遵循发挥作用、便于管理、便于活动的原则，优化基层党组织设置。坚持把政治标准放在首位，严把发展党员“入口关。”认真开展基层党组织评星定级、党员评星定格活动。推进“两学一做”学习教育常态化制度化，严格落实党的组织生活制度，坚持 “三会一课”、民主生活会和组织生活会、谈心谈话、民主评议党员、“支部主题党日”等制度。持续抓好党内监督责任落实，加强作风行风建设，严肃整治“三不为”问题。（市卫生计生局，各县（市、区）负责）', '巩固和扩大社会办医院党的组织覆盖和工作覆盖，加大社会办医院党组织组建力度，批准设立社会办医院时，坚持党的建设同步谋划、党的组织同步设置、党的工作同步开展。凡有3名以上正式党员的，都要按照党章规定成立党的基层组织；不足3名的，', '采取片区联建、同业共建、挂靠组建等方式，建立联合党组织；没有党员的，通过选派党建工作指导员联系服务、组建群团组织开展工作等方式，实现党的工作覆盖。不断加强对业务骨干的思想政治教育，引导他们向党组织靠拢，改善医院党员队伍结构', '，为医院党组织建设打下基础。加大对社会办医院党组织的工作指导力度，按照属地管理与主管部门管理相结合原则，建立健全社会办医院党建工作管理体制。社会办医院党组织要紧紧围绕党章赋予基层党组织的基本任务，充分发挥政治核心作用，结合实际开展工作，大力宣传、坚决贯彻执行党的路线方针政策，促进中央、自治区各项决策部署在社会办医院贯彻落实。各级卫生计生行政部门党组织要加强对社会办医院党建工作的指导，帮助完善党建规章制度，推动将党建工作写入章程；研究和解决党建工作新情况、新问题。社会办医院党组织书记要向上级党组织述职，以述职评议为抓手，推动党建工作深入开展。（市卫生计生局，各县（市、区）负责）', '各地要将建立现代医院管理制度作为深化医改的重要内容，理顺对医院资产、人事、财务等方面的责权关系和管理体制，完善落实督办制度。各级卫生计生等相关部门要适应建立现代医院管理制度的新要求、新情况，明确目标任务，细化责任分工，及时下放相关权限，调整相关政策，加强事中事后监管，优化政务服务流程，形成工作合力，共同推进现代医院管理制度的建立健全和落实。（各县（市、区）、市医改领导小组各成员单位负责）', '市、县医改领导小组要建立工作调度和定期通报制度，结合公立医院综合改革效果评价指标体系和公立医院院长绩效考核指标体系，加强对公立医院现代管理制度改革进展情况和效果的监测和评价，加大督导检查考核力度，并将评价结果与市县财政补助资金和卫生计生项目安排挂钩，确保现代医院管理制度建设工作有序推进。（市医改领导小组办公室、各成员单位负责）', '市县两级卫生计生行政部门要会同有关部门密切跟踪工作进展，加强调研指导，及时研究解决改革中出现的新情况、新问题。挖掘、总结、提炼、推广各地建立现代医院管理制度的典型经验，及时将成熟经验上升为政策，有效发挥典型带动、示范引领作用，推动现代医院管理制度不断完善。（市医改领导小组办公室、各成员单位，各县（市、区）负责）', '坚持正确的舆论导向，及时回应社会关切，合理引导社会预期，为建立现代医院管理制度营造良好舆论环境。加强对医改政策的宣传培训力度，妥善处理好改革过程中出现的问题与矛盾，调动广大医务人员参与改革的积极性、主动性，形成学习政策、掌握政策、运用政策、支持改革的良好局面。加强宣传引导，引导公众树立科学、理性、有序的就医理念，营造全社会尊医重卫的良好风气。（市医改领导小组各成员单位，各县（市、区）负责）']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>291</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>坚守初心使命忠诚履职尽责为续写新时代吴忠发展新篇章提供坚强保障</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2020-03-19</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/wzxx/zfxx/202003/t20200319_1994909.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['坚守初心使命 忠诚履职尽责 为续写新时代吴忠发展新篇章提供坚强保障_吴忠市人民政府', '这次会议的主要任务是：以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大、十九届二中、三中、四中全会，中央纪委四次全会、自治区党委十二届八次、九次全会和自治区纪委十二届四次全会及市委五届十次全会精神，回顾总结2019年全市纪检监察工作，安排部署2020年任务。市委对这次全会高度重视，常委会专题听取汇报、进行研究。刚才，市委书记沈左权同志的讲话，对我市深入推进全面从严治党、党风廉政建设和反腐败工作提出了明确要求，我们一定要认真学习领会，坚决贯彻落实。', '2019年是中华人民共和国成立70周年，也是我市决胜全面建成小康社会的关键之年。一年来，市委以习近平新时代中国特色社会主义思想为指导，旗帜鲜明落实新时代党的建设总要求，以政治建设为统领，扎实履行主体责任，坚定不移推进全面从严治党、党风廉政建设，巩固发展反腐败斗争压倒性胜利。在自治区纪委监委和市委的坚强领导下，全市各级纪检监察机关坚持稳中求进工作总基调，强化监督基本职责，持之以恒正风肃纪，一体推进不敢腐、不能腐、不想腐，纪检监察工作坚定稳妥、扎实有效，在高质量发展中迈出坚实步伐、取得更加明显成效。', '（一）深入学习贯彻习近平新时代中国特色社会主义思想，推动“两个维护”落到了实处。市纪委坚持把学懂弄通做实习近平新时代中国特色社会主义思想作为首要政治任务，理论学习中心组12次专题研讨，不断提高理论思维、系统谋划、精准落实水平。扎实开展“不忘初心、牢记使命”主题教育，紧扣主题主线，主动接受教育，举办读书班7天、研讨会9场次，形成调研成果15篇，检视问题70条，立行立改56条，扎实推进问题整改，把主题教育激发出来的政治热情转化为坚定理想信念、锤炼党性心性、忠诚履职尽责的思想自觉和行动自觉。跟进学习党的十九届四中全会精神，常委班子带头学、党员干部全员学、专题辅导深入学，促使全体纪检监察干部充分认识中国特色社会主义制度的本质特征和优越性，更加坚定了“四个自信”。认真履行政治责任，扎实开展习近平总书记关于对宁夏重要指示批示落实情况“回头看”，紧紧围绕打好“三大攻坚战”“三化”治理、减税降费等中央重大决策和政策措施落实情况、“大棚房”和违建别墅问题专项清查整治等重大工作，加强监督检查，确保政令畅通，督促各级党组织把“两个维护”落到实处。持续推动巡视反馈问题整改，中央第八巡视组移交的239件举报件办结238件，自治区巡视组移交的55件举报件全部办结。', '（二）坚决整治群众身边腐败和作风问题，维护了群众的切身利益。坚持执纪为民，深入开展扶贫领域腐败和作风问题专项治理，制定《2019年任务清单》，采取直查直办、督查督办、提级办理等措施，精准监督执纪，全市共查处违纪违法问题38件，处理112人，给予党纪政务处分31人，“一案双查”问责80人，通报曝光18起典型案例。坚决履行扫黑除恶专项斗争监督执纪问责政治责任，深挖彻查涉黑涉恶腐败问题的“关系网”和“保护伞”，健全班子成员联点包案、专案督导等工作机制，强化与政法机关的协作配合，聚焦重点领域开展专项打击，实行交叉办案、异地管辖、集中攻坚，强力推动“打伞破网”向纵深发展，查处了一批重大案件，立案82件125人，给予党纪政务处分99人，移送司法机关17人，严肃审查了为黑恶势力做大成势充当“保护伞”的张吉贺、杨学林等案件。对扫黑除恶履职不力的党员干部给予党纪政务处分37人，组织处理77人。全面整改中央扫黑除恶督导组反馈问题，移交的494件督办、交办件，办结率100%。牵头开展民生领域突出问题专项治理和漠视群众利益问题专项整治，分类确定教育、卫生等12个重点整治领域，召开两次推进会，强化专项检查，分批次公布专项整治成果，督促主责部门履行监管责任。全市立案59件，处理219人，给予党纪政务处分68人，以维护群众切身利益的实际成效取信于民。', '（三）深化纪检监察体制改革，构建了全面覆盖的监督体系。一体推进党的纪律检查体制改革、国家监察体制改革、纪检监察机构改革，推动制度优势向治理效能转化。认真落实“两个为主”，坚持重大事项、重要案件第一时间向自治区纪委监委和市委请示报告。加强对下级纪委监委的领导，在“打伞破网”等重点工作、重大案件的办理中强化工作督导、业务指导和复查复核，构建上下贯通的监督网络；会同组织部门考察任用县（市、区）纪委监委班子成员7名，为基层纪检监察机关更好地履职提供支持。持续深化国家监察体制改革，将执纪监督室更名为监督检查室，促其将职能进一步向纪律监督和监察监督聚焦，统筹监督检查部门、派驻机构和巡察机构力量，形成优势互补、互促共进的监督合力。全市46个乡镇（街道）全部设立监察办公室，实现基层监察监督的全覆盖。建设启用标准化留置场所，设立综合保障中心，出台《监督检查审查调查安全工作规定》等制度，推动依法依规安全文明办案。分层分类推进派驻机构改革，市纪委监委共设立13家派驻（派出）机构，其中综合派驻9家，在法检两院、公安机关单设派驻机构，在市直机关工委设派出纪检监察工作委员会。指导县（市、区）纪委监委加快推进派驻机构改革，优化机构设置，实现对市县两级党和国家机关派驻监督全覆盖。', '（四）深入贯彻落实中央八项规定精神，作风建设成效进一步显现。扎实开展贯彻落实中央八项规定及其实施细则精神专项整治“回头看”，既抓平时又抓节点，既抓查处又抓通报，既集中整治又明察暗访，坚决防止产生“疲劳综合征”，全市共查处违反中央八项规定精神问题28起，给予党纪政务处分27人，同比分别下降48.1%、62.5%，对21起典型案例通报曝光，党员干部的纪律和规矩意识进一步增强。从讲政治的高度把整治形式主义、官僚主义突出问题作为一项长期性、经常性工作，采取专项督查、调研督导等形式，加大对出工不出力、只喊口号不抓落实、弄虚作假、照抄照搬等问题的查处力度。围绕自治区为基层减负的30条措施，强化监督、开展督查，向市委常委会专题汇报检查结果，下发通报要求有关部门严肃整改，着力解决文山会海、过度留痕等问题，切实为基层减负松绑。全市共查处形式主义、官僚主义问题63个，处理143人，给予党纪政务处分37人。', '（五）构建上下联动巡察监督网络，利剑作用发挥更加明显。市委认真履行主体责任，定期研究巡察工作，市委常委会9次研究有关议题12个。市委巡察工作领导小组不断深化政治巡察定位，坚持围绕中心、服务大局，科学部署巡察任务。严格按照“六围绕一加强”和“四个落实”要求，精准发现问题，纠正政治偏差，全年完成3轮对25个市直部门（单位）党组织的巡察，并对市国资委党委开展了巡察“回头看”，共发现问题434个，移交问题线索18件，立案5件，给予党纪政务处分3人，组织处理44人。年度巡察任务完成后，全覆盖率达58.1%。研究出台《市委巡察协作配合规程（试行）》《关于规范巡察沟通工作的意见（试行）》等6项制度，巡察工作规范化程序化水平不断提升。统筹各县（市、区）上下联动开展“推磨式”交叉巡察，促进巡察“利剑”直插基层。把推动问题解决作为巡察工作的落脚点，有效压实整改责任，强化巡察整改和成果运用，通过约谈问责等方式做实巡察“后半篇文章”。按轮次对反馈期满2个月的被巡察单位开展回访督查，对整改落实不力的3个被巡察单位党组织主要负责人进行约谈；市委对1名履行整改责任不到位的部门党组织主要负责人岗位进行调整，坚决维护巡察整改的严肃性。', '（六）认真履行监督第一职责，管党治党责任进一步压实。积极为市委履行全面从严治党主体责任提供有效载体、当好参谋助手，协助市委组织开展述责述廉、健全完善“三个清单”、强化主体责任落实情况的监督检查，督促全市各级党组织切实发挥主体作用。坚持以高质量监督促进高质量发展，坚持用好问责利器，对“两个责任”落实不力的11个党组织、155名党员领导干部进行问责，使失责必问、问责必严成为常态。做深做实做细日常监督，综合运用听取汇报、个别谈话、明察暗访、调研督导、参加民主生活会等多种形式强化日常监督、过程监督、动态监督。开展部门政治生态自查工作，动态完善市管干部廉政档案，推动日常监督与执纪问责、审查调查贯通衔接。严把党员干部政治关、品行关、作风关、廉洁关，市纪委监委共对27个集体和2620人（次）回复党风廉政意见，坚决防止“带病提拔”。提高准确把握执纪标准和运用政策能力，正确处理“树木”和“森林”的关系，抓早抓小、关口前移，惩前毖后、治病救人，全市纪检监察机关运用“四种形态”处理3037人次，占比分别为78.5％、14.8％、5.5％、1.2％，监督执纪由惩治极少数向管住大多数拓展。', '（七）一体推进不敢腐、不能腐、不想腐，巩固发展了反腐败斗争压倒性胜利。加强党对反腐败工作的集中统一领导，出台《吴忠市反腐败案件查处协调领导小组成员单位相互协作配合工作办法》等4项制度。强化不敢腐的震慑，突出重点削减存量，零容忍遏制增量，全市各级纪检监察机关共受理信访举报3320件，处置问题线索2635件，同比分别增长55%、42.4%；初核问题线索2566件，同比增长46%；立案592件，给予党纪政务处分624人，立案数和处分人数均有所下降；移送检察机关22人，对14名处科级干部采取留置措施，主动投案1人，共收缴违纪资金477.4万元，挽回经济损失578.9万元。严肃查处了执法犯法、搞权钱交易的马龙、张军、李兴华、魏新元等法院系统性腐败案件。深化标本兼治，扎牢不能腐的笼子，多措并举开展以案促改，在市中级人民法院、利通区和青铜峡市法院召开警示教育大会，组织全市重点部门（单位）80余名主要负责人旁听李金磊职务犯罪案庭审，发送纪律检查、监察建议书69份，开展纪律处分执行情况“大起底”，为党员干部解除处分、恢复党员权利，纠正考核不合规问题，推动各部门（单位）及时查漏补缺、建章立制、规范管理。增强不想腐的自觉，对135名新任领导干部开展廉政谈话，完成吴忠党风廉政教育基地升级改造，警示教育78个单位3600余名党员干部，拍摄2部违纪违法案警示教育片、编印《忏悔录》，以案示纪、以案示警。坚持严管与厚爱相结合，对受处分人员进行回访教育，帮助663名受处分人员“卸包袱”、“祛心病”；对7件诬告错告信访举报及时予以澄清，充分发挥审查调查的政治效果、纪法效果和社会效果。', '（八）打造忠诚干净担当纪检监察铁军，自身建设取得明显成效。加强纪检监察机关党的建设，成立机关党委，下设6个党支部，制定《进一步加强和改进市纪委监委机关党的建设的实施办法》，扎实推进“三强九严”工程，建好审查调查、巡察组临时党支部，以党建工作推动各项任务更好地落实。举办“不忘初心跟党走、忠诚担当勇争先”演讲比赛和主题党日活动，有效激发了党员奋发有为、锐意进取的激情。围绕建设高素质、专业化队伍目标，坚持每周一集中学习，突出习近平新时代中国特色社会主义思想和中央纪委国家监委系列培训教材的学习，全年学习46次、交流研讨68人（次）；举办全市纪检监察综合业务培训班，选派74人（次）参加上级纪委监委培训，选派9名干部到中央纪委国家监委和自治区纪委监委参与专案办理，纪检监察干部日常监督、执纪审查、依法调查本领不断增强，在自治区纪委监委监督检查和审查调查互查互评工作中，市纪委监委考核成绩位列五市第一，同心县、利通区、盐池县纪委监委位列全区各县（区）第五至第七名，受到自治区纪委监委通报表扬。强化自我监督管理，扎实开展“制度建设执行年”活动，梳理制度32项，废止3项，继续执行7项，修改完善15项，新建7项。修订《吴忠市纪检监察干部监督管理暂行办法》，受理反映纪检监察干部问题线索52件，初核37件，提醒谈话、批评教育、作出书面检查8人，立案2人，调离岗位1人，确保队伍纯洁。', '成绩固然可喜，但问题更需重视。十九届中央纪委四次全会、自治区纪委十二届四次全会，对全面从严治党的严峻性、复杂性作出深刻分析，指出了存在的问题，有的问题在我市同样存在。从我市来看，有的单位管党治党政治责任尚未层层压实，甚至表态多调门高、行动少落实差，措施不细不硬，违纪违法问题仍有发生，整治形式主义官僚主义还需持续用力；“四风”问题更加隐蔽，违反中央八项规定精神问题树倒根在，群众身边腐败和作风问题仍然易发多发；一些党员领导干部不收敛不收手、甘于被“围猎”，尽管增量问题明显减少，但存量问题仍然不容忽视，因此消除存量、遏制增量的任务仍然艰巨。纪检监察工作仍存在短板弱项，监督首责履行还不够充分，尤其是政治监督还不够聚焦，被动监督问题尚未有效解决；做思想政治工作、从政治视角分析解决问题、把握运用政策策略、规范执纪执法等能力亟待提升。巡察整改的“后半篇文章”仍需强化，对问题整改的监督检查还不够，在“回头看”上尚需持续用力。这些问题，需要我们继续发扬斗争精神，以更加务实的作风，认真研究，切实加以解决。', '2019年，全市各级纪检监察机关和纪检监察干部主动适应新形势新任务新要求，守初心担使命，扎实履职尽责，用汗水浇灌收获，以实干笃定前行，在推动全市党风廉政建设和反腐败斗争中，积累了弥足珍贵的经验，需要在实践中不断坚持和深化。必须坚持以习近平新时代中国特色社会主义思想为指导，推动纪检监察工作始终沿着正确方向前进。习近平新时代中国特色社会主义思想是我们必须长期坚持的指导思想，只有学懂弄通做实，才能保证思想意志统一、步调行动一致。要深入系统学、持续跟进学、联系实际学，努力用这一科学理论的基本观点、理论体系、立场方法指导实践，才能确保纪检监察工作始终沿着正确的方向前进。必须坚持和加强党的全面领导，把“两个维护”落实到纪检监察工作全过程各方面。坚决做到“两个维护”是纪检监察机关最重要、最根本的职责。做好纪检监察工作，必须始终坚持党的领导，紧紧围绕“两个维护”开展监督检查、审查调查、追责问责等工作，才能更加有效推动党的路线方针政策和重大决策部署落地落实。必须坚持以人民为中心的发展思想，着力解决群众身边的腐败和作风问题。人民群众的拥护和支持是推进反腐败斗争的强大动力。我们必须始终把初心落在行动上，向群众身边的腐败和作风问题亮剑，对为政不勤、为政不公、为政不义、为政不廉者严肃追责问责，推动各级各部门切实解决好群众最关心最直接最现实的利益问题，实现纪检监察工作与民心民意同频共振。必须坚持发挥标本兼治的战略作用，实事求是运用监督执纪“四种形态”。“惩前毖后、治病救人”是党教育和挽救干部的一贯原则。必须在深化运用“四种形态”上下更大功夫，正确处理“树木”和“森林”的关系，惩治“极少数”、管好“绝大多数”，用好用足第一、第二种形态，突出抓早抓小；准确运用第三、第四种形态，精准监督执纪，树立正确的政绩观，坚决杜绝问责泛化，让吴忠政治生态青山永驻、绿水长流。必须坚持增强斗争本领，推进纪检监察工作实现高质量发展。反腐败斗争形势依然严峻复杂，稍有松懈就会反弹，坚定斗争立场、增强斗争精神、锤炼斗争本领显得尤为重要。我们必须严格按照政治过硬、本领高强的要求，不断强化自身建设，旗帜鲜明进行坚决斗争，更加精准有效履行职责，确保党和人民赋予的权力不被滥用、惩恶扬善的利剑永不蒙尘。', '习近平总书记在十九届中央纪委四次全会上发表的重要讲话，站在实现“两个一百年”奋斗目标的历史交汇点上，深刻总结新时代全面从严治党的历史性成就，深刻阐释我们党实现自我革命的成功道路、有效制度，深刻回答管党治党必须“坚持和巩固什么、完善和发展什么”的重大问题，对以全面从严治党新成效推进国家治理体系和治理能力现代化作出战略部署，持续推动全面从严治党向纵深发展具有重大指导意义。赵乐际同志在全会上所作的报告，对2020年纪检监察工作作出全面安排部署，主题鲜明，重点突出，目标明确。自治区纪委十二届四次全会，陈润儿同志的讲话和艾俊涛同志所作的报告，深入贯彻了党的十九届四中全会和十九届中央纪委四次全会精神，对今年全区全面从严治党、党风廉政建设和反腐败工作作出具体安排，提出明确要求。市委五届十次全会紧扣全面建成小康社会目标任务，作出了坚决打赢“三大攻坚战”，深入实施“三大战略”，守好“三条生命线”，走出一条高质量发展新路子，做好调、转、增、融“四篇文章”的工作部署，也对全面从严治党提出了新的更高要求。全市各级党组织和纪检监察机关要认真学习领会，全面研究落实，奋力推进全市全面从严治党、党风廉政建设和反腐败工作取得更新更大成果。', '2020年是全面建成小康社会和“十三五”规划收官之年，做好纪检监察工作意义重大。总体要求是：以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大、十九届二中、三中、四中全会，十九届中央纪委四次全会，自治区党委十二届八次、九次全会和自治区纪委十二届四次全会以及市委五届十次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持稳中求进工作总基调，忠诚履行党章和宪法赋予的职责，协助市委深化全面从严治党，坚持和完善党和国家监督体系，强化对权力运行的制约和监督，一体推进不敢腐、不能腐、不想腐，在坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化中充分发挥监督保障执行、促进完善发展作用，努力建设高素质专业化纪检监察干部队伍，推进新时代纪检监察工作高质量发展，为决胜全面建成小康社会、决战脱贫攻坚、续写新时代吴忠发展新篇章提供坚强保障。', '全市各级纪检监察机关要坚持一以贯之学习贯彻习近平新时代中国特色社会主义思想，一以贯之督促党员、干部自觉做到“两个维护”，一以贯之贯彻落实全面从严治党方针和要求，自觉把各项工作放到坚持完善中国特色社会主义制度和国家治理体系的大局中来思考、谋划、推进，积极适应健全党和国家监督体系要求，促进党内监督、国家监察与完善发展我国国家制度和治理体系相适应相协调，深化纪检监察体制改革和制度创新，不断提高治理能力和治理水平，以高质量监督保障国家治理各项决策部署、政策措施贯彻落实，保障中国特色社会主义制度切实得以坚持巩固，使党和国家各方面的制度优势充分发挥、治理效能充分彰显。', '（一）切实把初心使命植根思想融入实践，坚决做到“两个维护”。把不忘初心、牢记使命作为加强党的建设的永恒课题和党员干部的终身课题，巩固拓展主题教育成果。坚持以政治建设引领纪检监察工作，真学真信真用习近平新时代中国特色社会主义思想，坚持用党的最新理论成果武装头脑、指导实践，更加自觉地增强“四个意识”、坚定“四个自信”、做到“两个维护”。坚持和加强党对纪检监察工作的绝对领导、全面领导，坚决落实党中央、自治区党委和市委决策部署，坚持党中央重大决策部署到哪里、政治监督就跟进到哪里，推进政治监督具体化常态化。紧扣党的十九大和十九届二中、三中、四中全会的战略部署和贯彻新发展理念、打好“三大攻坚战”、实现高质量发展等内容，重点加强对党章党规、贯彻落实习近平总书记对宁夏重要讲话和指示批示落实情况的监督检查，加强对“三个着力”要求、守好“三条生命线”、走出一条高质量发展新路子、做好“四篇文章”和“干在实处、走在前列”等部署安排的监督检查，督促各级党组织切实担当责任，认真落实责任，确保党中央、自治区党委和市委的决策部署落到实处。强化对制度执行情况的政治监督，把党员领导干部遵守制度情况纳入政治监督的范围，对在制度落实中做选择、搞变通、打折扣，有令不行、有禁不止、阳奉阴违等行为严肃查处，坚决维护制度的权威性，让制度成为带电的高压线。', '（二）贯彻以人民为中心的发展思想，全力维护群众切身利益。及时回应人民群众关切，聚焦群众最反对最痛恨的基层腐败和作风问题，揪住不放，整治到底。深入推进扶贫领域腐败和作风问题专项治理，严肃查处贪污挪用、虚报冒领、优亲厚友等“蝇贪蚁腐”和惠民政策不落实、资金监管缺失、虚假脱贫等作风问题。加强对贫困县脱贫摘帽后“不摘责任、不摘政策、不摘帮扶、不摘监管”情况的监督检查，坚决防止脱贫出列后腐败和作风问题发生反弹，督促主责部门健全完善监管机制和措施，坚决做到贫困县出列但责任不出列、监督不出列、监管不出列。深入开展民生领域侵害群众利益问题集中整治，督紧督实教育、民政、建设、医疗、生态环境等主责部门落实监管责任，严肃查处吃拿卡要、盘剥克扣等侵害群众利益的违纪违法行为，对责任不落实、治理无成效、制度不健全、监管不到位的，坚决进行追责问责。推动问题解决在基层，拓宽群众举报渠道，监督基层党组织扛起主体责任，推动群众身边问题首先靠身边党组织解决。深入推进扫黑除恶专项斗争监督执纪问责，强化与政法部门的沟通衔接，对在侦的涉黑涉恶案件主动介入，严肃查处“关系网”和“保护伞”；对已查结的问题，督促发案单位健全完善长效机制，以扫黑除恶显著成效提升人民群众的获得感、幸福感和安全感。', '（三）坚持一体推进“三项改革”，推动制度优势转化为治理效能。坚持以党的纪律检查体制改革统领国家监察体制改革和纪检监察机构改革，构建党统一领导、全面覆盖、权威高效的监督体系。深化纪律检查体制改革，协助市委完善全面从严治党制度，贯彻自治区落实全面从严治党主体责任践行“四种形态”实施办法，健全完善领导班子内部监督制度，加强对同级党委班子成员和各级主要领导的监督，着力破解对同级和“一把手”监督难的问题，贯通推动主体责任和监督责任有效落实。健全“两为主一报告”工作机制，自觉接受自治区纪委监委和市委领导，重大问题、重要工作、重大案件及时报告。强化上级纪委监委对下级纪委监委在查办腐败案件、书记和副书记提名考察、班子成员配备工作中的领导和指导，切实推进双重领导落实落具体。深化国家监察体制改革，进一步健全完善乡镇监察办公室依法履职的制度机制，探索建立乡镇监察办公室与农经、城建、民政等基层站所的横向联系协调机制，完善乡镇监察办公室与县（市、区）纪委监委、巡察机构、村监会之间的纵向联动机制，促使各方面监督力量同向发力，织密基层监察网络。深化派驻机构改革，补短板强弱项，配齐配强派驻机构人员力量，健全完善“三为主一报告”的具体办法和工作制度。抓实全面从严治党“三个清单”，驻在部门完善责任清单，派驻机构建立监督台账，试行“清单+台账”责任落实模式。市纪委监委监督检查室分片联系派驻机构，探索建立“监督检查室+派驻机构”的监督模式，提升监督合力。', '（四）切实履行第一职责，强化对权力运行的制约和监督。严格依据党章党规和宪法监察法开展监督工作，统筹衔接纪律监督、监察监督、派驻监督和巡察监督，强化信息互通、监督互动，切实增强监督的协同性、针对性和实效性。紧盯权力运行各个环节，严格日常监督，完善发现问题、纠正偏差、精准问责的有效机制，压减权力设租寻租空间。聚焦解决体制性障碍、机制性梗阻、政策性创新等方面问题，充分运用纪检监察建议这一有力武器，坚持做到“一书三送”，既送发案单位，又分别抄送市委、市政府分管领导，督促各级党组织严肃整改存在的问题，倒逼深化改革、完善制度机制，有力推进治理体系和治理能力现代化。督促各级各部门建设信息化监督平台，推动深化党务、政务、司法和各领域办事公开制度，以公开促公正、以透明保廉洁，让监督常在形成常态，让有权者规范用权不任性。力戒单纯办案思想，坚决纠正对日常监督“说起来重要、干起来次要、忙起来不要”的问题，注重总结经验、改进监督方法。实事求是运用“四种形态”，深化运用第一种形态，综合运用信访受理、线索处置、约谈提醒、谈话函询和参加民主生活会等多种方式，夯实日常监督工作基础。着眼“监督的再监督”，重点监督各级党组织履行主体责任、各部门履行监管职责的情况，牵住“牛鼻子”，“四两拨千斤”，让有限的监督力量发挥最大作用，实现监督全覆盖。深入贯彻落实问责条例，通过依规依纪依法问责、精准有效问责，层层传导压力，让失责必问、问责必严成为常态。严格落实“三个区分开来”要求，实施容错纠错，既防止问责不力，又防止问责泛化和简单化。严肃查处诬告陷害行为，及时为干部澄清正名，最大限度调动干部干事创业的积极性，努力实现政治效果、纪法效果、社会效果相统一。', '（五）巩固拓展作风建设成果，持续推动党风政风和社会风气向好。以抓铁有痕、踏石留印的坚韧和执着，驰而不息纠“四风”转作风，持续释放越往后执纪越严的强烈信号。推进中央八项规定及其实施细则精神落细落实，强化日常检查，坚守重要节点，严肃查处分批多次操办婚丧喜宴、借培训学习之机绕道旅游、不吃公款吃老板、收送电子红包、违规发放津补贴等隐形变异问题，对巡视巡察、监督检查、明察暗访发现的新问题，以及在专项治理、“回头看”期间虚假整改的老问题，严肃“一案双查”，重点追究领导责任。加大通报曝光力度，充分发挥群众监督和舆论监督作用。从讲政治的高度坚决纠治形式主义官僚主义问题，对在扫黑除恶、脱贫攻坚、乡村振兴、生态环境整治等重大决策上，在为基层减负、减税降费等重大工作中，只表态不落实、或者表态多调门高、行动少落实差、改头换面、明减暗增等突出问题，严肃查处问责。重点从“关键少数”抓起，从领导干部严起，督促各级党组织履行主体责任、各级领导干部发挥“头雁效应”，层层传导压力，保持常抓态势，让“四风”问题无处遁形，推动持续形成良好党风政风，引领形成淳朴民风社风。', '（六）坚定不移深化政治巡察，切实发挥利剑震慑作用。坚持政治巡察定位，紧扣被巡察党组织政治责任和职责使命，查找和纠正政治偏差，推动巡察工作高质量发展。科学谋划巡察年度工作计划和阶段任务，完成3轮对26个市直部门的巡察监督，全覆盖率达到90%以上。坚持把巡察整改作为一项系统性工程整体推进，紧扣做好巡察“后半篇文章”，加强对巡察整改的日常监督，按一定比例对已巡察部门开展“回头看”，进一步增强整改内生动力和外部推力；完善巡察整改落实情况报告制度，推动形成整改长效机制；充分运用整改通报、提醒谈话、约谈问责等方式，持续释放强化整改的鲜明信号。加强巡察工作规范化建设，加快信息化建设步伐，全面推广使用巡视巡察数据管理系统。健全完善新任处科级干部和优秀年轻干部参与巡察工作机制，着力提升巡察队伍能力素质。推动形成市县联动巡察机制，着力构建市县巡察工作“一盘棋”格局。', '（七）强化一体推进“三不”体制机制，进一步巩固发展反腐败斗争压倒性胜利。持续强化不敢腐的震慑，坚持行贿受贿一起查。紧盯权力集中、资金密集、资源富集重点领域和关键环节，重点对党的十八大以来不收敛不收手，严重阻碍党的路线方针政策贯彻执行、严重损害党的执政根基，成为全面从严治党障碍的腐败问题从严查处，对主动投案者依规依纪依法从宽处理，对巨额行贿、多次行贿的严肃处理，坚决破除权钱交易的关系网。聚焦国有企业，严肃查处靠企吃企、关联交易、内外勾结侵吞国有资产等问题。加大对医疗机构内外勾结欺诈骗保行为的查处力度，督促职责部门建立长效监管机制。切实扎牢不能腐的制度笼子，坚持一案一总结、一案一剖析，坚持追根溯源、研究案发规律、查找制度漏洞、分析责任缺位、做实以案促改。认真落实自治区纪委《深化警示教育推进以案促改制度化常态化实施办法》，督促法院等行业领域严肃履行主体责任、监督责任和监管责任，推动审批监管、执法司法、工程建设、资源开发、公共资源交易等重点领域强化制度建设，健全监管机制。不断增强不想腐的自觉，打通监督检查、审查调查、教育警示等环节，拍摄职务违法犯罪警示教育片，编印《警示录》，组织万名党员干部到吴忠党风廉政教育基地接受教育，以案释德、以案明纪、以案说法，促使党员干部筑牢遵纪守法底线。督促各级党组织强化对党员干部的党章党纪党规、宪法法律法规教育，推进廉政文化建设，筑牢理想信念，弘扬优良传统，营造崇廉尚廉的浓厚氛围。', '（八）着力加强纪检监察机关自身建设，努力锻造忠诚干净担当勇于斗争的执纪执法铁军。加强纪委常委会和机关党的建设，带动业务建设、作风建设、纪律建设，加强思想淬炼、政治历练、实践锻炼、专业训练，促使纪检监察干部进一步增强斗争本领。深入推进“三转”，巩固深化“制度建设执行年”成果，按照自治区纪委监委要求扎实开展“制度规范建设年”活动，完善自身权力运行机制和自我监督管理体系，不断提高纪检监察机关治理能力，促进纪检监察干部带头维护制度权威，安全文明执纪执法。开展纪检监察干部家访活动，了解干部思想、工作、生活和家风情况，培养纪检监察干部良好的职业道德、家庭美德和个人品德。加大纪检监察干部选拔任用力度，畅通干部进出渠道，优化干部队伍结构。实施全员培训，坚持和深化微型课堂、以老带新、以干代训、网络课堂等形式，分批到江西干部学院等院校开展党性修养和能力提升培训，引导纪检监察干部坚定斗争意志、明确斗争任务、掌握斗争规律、讲求斗争方法，做敢于善于斗争的战士。加强信息化基础设施和运行维护保障体系建设，建好纪检监察系统检举举报平台，提高信息化运用水平。聘请特约监察员，自觉接受各方面监督，促使干部习惯在监督和约束下行使权力。刀刃向内、不护犊子，严肃查处系统内执纪违纪、执法违法行为，坚决清理门户，打造模范政治机关，引导纪检监察干部坚决做党和人民的忠诚卫士。', '同志们，新时代需要新气象新作为。让我们紧密团结在以习近平同志为核心的党中央周围，只争朝夕、不负韶华，在自治区纪委监委和市委的坚强领导下，不忘初心、牢记使命，干在实处、走在前列，在新的起点上展现新作为、再创新业绩，努力实现新时代纪检监察工作高质量发展，为建设美丽新宁夏作出吴忠贡献不懈奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>291</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>中共吴忠市委组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2017-09-20</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201709/t20170920_501688.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预[2016]143号）和吴忠市财政局《关于做好吴忠市本级2016年部门决算公开工作的通知', '（1）、研究指导全市党的基层组织建设，探索、指导全市各类基层党组织的设置和活动方式；协调、规划和指导党员教育工作，主管党员的发展、管理和服务工作；负责组织、指导、协调党代表大会代表开展活动，做好党代表意见、建议、提案办理和教育培训管理等日常服务联络工作；组织、协调新时期党建工作新情况、新问题和党建理论的研究。', '（2）、对市委管理的领导班子、领导干部提出调整、配备意见和建议；负责高管干部的选拔、考察工作，指导协调、组织实施全市公开选拔领导干部工作；按照干部管理权限，负责有关科级干部的备案、审查、管理和任免；负责区属有关部门领导成员任免的协管工作；负责各级党委、人大、政协机关、审判、检察机关和各民主党派、工商联机关、群团机关公务员登记、管理；负责管理市管干部的任免、工资、待遇、退（离）休报批，；承办有关干部的调配、交流、安置及出国（境）政审等事宜。', '（3）、指导和加强全市各级领导班子思想政治建设和作风建设，督促检查下级党委认真贯彻执行民主集中制，坚持集体领导，开好民主生活会。', '（4）、研究贯彻中央制定的干部队伍建设的方针、政策，组织落实培养选拔年轻干部、少数民族干部、妇女干部、非中共党员干部和后备干部。', '（5）、研究和宏观指导全市党的组织制度和干部人事制度改革，制定或参与制定组织、干部、人事工作的重要政策和制度。', '（6）、负责全市干部监督工作的综合、协调和宏观指导，组织制定有关干部监督的制度和规定，及时向市委反映情况，提出意见和建议。', '（7）、主管干部教育培训工作，制定干部教育培训工作的有关政策、规划；组织市委管理的干部以及年轻干部、科级干部、组织人事干部的培训；指导、协调、检查全市的干部教育培训工作；研究、探索干部教育培训工作制度改革，指导干部培训基地、师资队伍建设和教材编写等工作。', '（8）、承担市委人才工作领导小组的日常工作。负责全市人才工作的牵头抓总、宏观指导、政策研究、综合协调和督促检查工作。', '（9）、负责退（离）休干部工作的宏观管理，制定或参与制定退（离）休干部工作的方针、政策。', '（11）、负责全市干部统计和党员统计工作，负责全市干部档案管理宏观指导工作；负责市管干部人事档案的建立、整理、转递和管理，负责全市干部人事档案管理达标建设工作，负责市管干部人事档案数字化建设工作。负责组织部文书档案工作。', '吴忠市委组织部属一级预算单位，内设办公室、组织一科、组织二科、组织三科、干部一科、干部二科、干部教育监督科、人才科、网络与信息科、党员教育中心十个内设机构。', '执行《行政单位会计制度》，由办公室负责部机关财务、劳资、固定资产和车辆日常管理工作，在会计核算中心统一核算。', '（六）2016年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '其中：公务用车购置费支出为0元，公务用车运行维护费支出72882.53元，主要用于公车改革前车辆维护和公车改革后租车费。2016年，本单位和下属的二级单位财政拨款开支的公务用车购置数 0辆，公务用车保有量0辆。', '其中：国内接待费支出69310元，主要用于接待外省、市学习、挂职干部、人才工作方面研修人员。国（境）外接待费支出0元。 2016年国内公务接待批次47个，国内公务接待人次470人，国（境）外公务接待批次0个，国（境）外公务接待人次0人。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>291</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>吴忠市委宣传部年部门预算</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2018n_48257/201802/t20180212_690280.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['市委宣传部是市委分管意识形态、宣传思想工作的职能部门，下设市文明办、国防教育办公室、外宣办、吴忠市网信办，分管市委讲师团。', '1、负责指导全市理论学习、理论研究、理论宣传和理论交流工作，指导讲师团的工作，协助自治区党委宣传部编制社会科学规划、实施计划；', '2、负责新闻舆论导向的宏观管理。协调指导吴忠日报社、吴忠电视台、电台、新闻网、市新闻工作者协会的工作；', '3、负责从宏观上指导全市文化工作，联系市文化体育广播电视局和市文联；协调指导全市文化体育、广播电视、文学艺术工作；', '4、负责规划、部署市全局性的思想政治工作；会同有关部门研究和改进群众性思想教育工作；领导市思想政治工作研究会；', '5、会同有关部门做好全市党的思想建设和党员教育宣传工作，编写党员教育材料，做好典型宣传；', '9、受市委委托，会同市委组织部管理市直宣传文化新闻系统科级干部，考察、任命市直宣传文化新闻系统科级干部；', '市委宣传部设办公室、理论与社会宣传科、新闻科、网络舆情管理科、文化艺术与精神文明创建科5个行政科室，吴忠市网信办1个事业科室，市委讲师团下设综合科1个科室。', '市委宣传部设办公室、理论与社会宣传科、新闻科、网络舆情管理科、文化艺术与精神文明创建科', '市委宣传部行政编制16名，其中，部长1名，副部长2名（副处），精神文明办公室专职副主任1名（副处），国防教育办公室专职副主任1名，正科级5名，副科级4名，机关后勤服务事业编制2名，网信办事业编制5名。', '设1个职能科室，财政全额拨款事业编制4名，核定领导职数3名，其中：团长1名（副处级）、副团长1名（正科级）、综合科科长1名（正科级）。', '市委宣传部现有人员23人，财务由市财政局会计核算中心核算管理，执行行政单位会计制度。', '人员经费286.91万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费36.88万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '市委宣传部2018年一般公共预算拨款项目支出160万元，其中：其中对外宣传和社会宣传经费30万，新闻宣传经费110万元，学习型党组织建设暨市委中心组学习经费10万元，国防教育经费10万元。', '2018年“三公”经费财政拨款预算比2017年减少4.86万元，其中：因公出国（境）费增加（减少）0万元；公务用车购置费增加（减少）0万元；公务用车运行费增加（减少）0万元；公务接待费减少4.86万元，主要原因为执行八项规定减少公务接待支出。', '2018年，市委宣传部政府采购预算0万元，其中：政府采购货物预算0万元，政府采购工程预算0万元，政府采购服务预算 0万元。', '：是指各部门的公用经费，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维修费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>291</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>吴忠市商务和投资促进局年部门预算公开</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2020n_48259/202002/t20200207_1944743.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['自治区党委及市委的决策部署，在履行职责过程中坚持和加强党对商务、经济合作与投资促进工作的集中统一领导。主要职责是：', '（一）贯彻执行国家、自治区有关国内外贸易、国际国内经济合作与投资促进工作的发展战略、方针政策，拟订发展规划、政策建议及年度计划并组织实施。', '（二）负责推进流通产业结构调整，研究提出商贸流通业发展相关政策建议，指导商贸服务业和社区商业发展。指导流通领域信息网络和电子商务建设，推动流通行业标准连锁经营、商业特许经营、电子商务等现代流通方式的应用和发展。按照职责指导、督促商贸服务业落实安全生产和职业健康管理工作。', '（三）研究拟订城乡市场体系建设的政策措施并组织实施，指导城市商业网点规划和商业体系建设工作，负责商品现货市场的行业管理，推动城乡市场一体化发展。', '（四）指导规范全市商务领域市场经济秩序，推动建立商务领域信用体系。牵头组织规范零售企业促销行为及零售商、供应商建立公平交易关系。', '（五）按照有关规定，承担辖区内对拍卖行、成品油流通、再生资源、报废汽车回收等特殊行业的监督指导工作。', '（六）组织实施重要消费品市场调控和重要生活必需品流通管理工作，建立健全生活必需品市场供应应急管理机制。负责监测分析市场运行和商品供求状况，加强预测和信息引导。', '（七）贯彻执行国家外国投资政策，拟订全市促进外资增长的政策措施，指导全市外商投资促进工作。负责权限内外商投资企业的设立、变更事项的备案管理。推动对外贸易便利化。组织出口企业参加国外市场考察展示展销。', '（八）贯彻执行国家、自治区对外经济合作政策，指导和监督对外承包工程、劳务合作和境外投资等工作，做好外派劳务人员和境外就业人员权益保护工作；负责多双边国际无偿援助项目的争取和投资主体的监督管理与服务，管理受援项目的实施。', '（九）负责全市投资促进工作，拟订区域经济合作与投资促进规划、年度计划并组织实施。牵头落实吴忠市人民政府与外省区市政府签订的经济技术合作与交流事宜。负责招商引资项目的协调服务、统计分析、考核评价，建立招商引资项目库和资源库，指导各县（市、区）做好招商引资工作。', '（十一）指导全市会展业促进工作，拟订管理办法，指导、协调、组织、实施各类会展活动。', '负责机关日常运转工作。负责机关文电会务、机构编制、干部人事、党的建设、党风廉政建设、宣传思想、精神文明、意识形态、新闻发布、财务管理、国有资产管理、政务公开、档案、信息、信访、保密、信息化建设等工作；负责起草综合性重要文稿等。', '负责拟订全市商贸流通行业发展的工作规划、政策建议并组织实施。统筹推进城乡市场协调发展，拟订城乡市场发展规划、年度计划及相关政策并组织实施，协调城乡商贸市场体系建设，推进农村市场体系建设。负责商品现货市场的行业管理。指导城市商业网点规划以及农产品流通体系建设。指导流通行业标准化建设工作。承担商务领域市场秩序指导工作，推动商务领域信用体系的建设工作，指导商业信用销售，督促建立公平交易关系。指导社区商业、绿色流通、流通领域节能减排、再生资源回收、家政服务、特色街区建设等发展工作。负责拍卖、商业特许经营等特殊流通行业的监督管理。指导监督汽车销售，负责二手车流通行业的备案管理等工作，负责报废汽车的有关初审及监督管理。', '统筹全市商务领域消费促进工作，拟订发展规划、政策措施、年度计划并组织实施。建立促进市场消费体制机制，组织开展各类促消费活动。组织开展市场运行和重要商品的市场供求状况监测以及商贸流通统计工作，建立统计和监测体系，监测分析市场运行和商品供求状况，进行预测预警和信息引导，并提出政策建议。负责建立生活必需品市场供应应急管理机制，承担肉类、蔬菜等重要消费品储备的管理和调控工作。负责重要产品追溯体系、肉菜流通追溯体系建设相关工作。统筹推进全市电子商务发展，拟订电子商务发展政策并组织实施，建立电子商务服务体系，开展电子商务监测分析，组织实施电子商务重大项目，引导商贸领域推广电子商务应用、促进转型升级。承担批发、零售、住宿、餐饮等生活性服务业的行业管理工作。负责拟订现代物流体系建设的政策措施、年度计划并组织实施。统筹推进国际物流、商贸物流、供应链体系建设。推进物流业重大项目建设，积极培育第三方物流等专业化物流企业。对物流行业实施安全监督管理。负责落实酒类流通发展相关政策。承担成品油的监督管理工作。承担全市服务业发展、“菜篮子”工程、老字号保护、商贸流通行业协会等相关工作任务。', '统筹全市商务领域消费促进工作，拟订发展规划、政策措施、年度计划并组织实施。建立促进市场消费体制机制，组织开展各类促消费活动。组织开展市场运行和重要商品的市场供求状况监测以及商贸流通统计工作，建立统计和监测体系，监测分析市场运行和商品供求状况，进行预测预警和信息引导，并提出政策建议。负责建立生活必需品市场供应应急管理机制，承担肉类、蔬菜等重要消费品储备的管理和调控工作。负责重要产品追溯体系、肉菜流通追溯体系建设相关工作。统筹推进全市电子商务发展，拟订电子商务发展政策并组织实施，建立电子商务服务体系，开展电子商务监测分析，组织实施电子商务重大项目，引导商贸领域推广电子商务应用、促进转型升级。承担批发、零售、住宿、餐饮等生活性服务业的行业管理工作。负责拟订现代物流体系建设的政策措施、年度计划并组织实施。统筹推进国际物流、商贸物流、供应链体系建设。推进物流业重大项目建设，积极培育第三方物流等专业化物流企业。对物流行业实施安全监督管理。负责落实酒类流通发展相关政策。承担成品油的监督管理工作。承担全市服务业发展、', '贯彻落实国家、自治区对外贸易、外商投资、对外经济合作的发展规划和政策措施，拟订全市外经贸工作年度计划、政策建议并组织实施。做好各类外经外贸支持资金的申报、兑现及监管工作。负责权限内外商投资企业的设立、变更事项的备案管理。负责进出口企业的备案等工作。负责全市对外贸易、外商投资的统计分析工作。依法监督外商投资企业执行有关法律法规和合同章程的情况。负责国际多双边无偿援助项目的争取和受援项目的实施。做好加工贸易梯度转移承接指导服务工作。指导协调融入“一带一路”建设、自由贸易试验区建设经验复制推广、对外贸易便利化、对外承包工程、劳务合作、外派劳务人员和境外就业人员权益保护、境外投资、贸促会、口岸管理、国家级经济技术开发区等有关工作。', '贯彻落实国家、自治区对外贸易、外商投资、对外经济合作的发展规划和政策措施，拟订全市外经贸工作年度计划、政策建议并组织实施。做好各类外经外贸支持资金的申报、兑现及监管工作。负责权限内外商投资企业的设立、变更事项的备案管理。负责进出口企业的备案等工作。负责全市对外贸易、外商投资的统计分析工作。依法监督外商投资企业执行有关法律法规和合同章程的情况。负责国际多双边无偿援助项目的争取和受援项目的实施。做好加工贸易梯度转移承接指导服务工作。指导协调融入', '贯彻落实国家、自治区服务贸易发展政策，拟订全市服务贸易、国内外市场开拓等贸易促进计划并组织实施。负责全市服务外包工作，规范服务贸易经营秩序，指导服务贸易产品市场开拓工作。承担服务贸易统计分析、公共平台建设等工作。负责指导全市会展业发展工作，拟订会展业发展规划、政策措施、年度计划并组织实施，指导、协调、组织、实施各类会展活动。统筹组织企业参加国内外举办的大型商品交易会、博览会等贸易促进活动。负责吴忠优质特色产品在国内外市场的宣传推介、产品推广、品牌培育、信息咨询以及销售窗口建设、市场开拓等相关工作。负责中阿博览会、西部商品交易会等大型会展活动的联络对接工作。', '负责全市投资促进、招商引资工作，研究国内外投资趋势，拟订经济技术合作规划、投资促进计划及年度计划并组织实施。建立招商引资项目库和资源库，编印招商引资宣传材料。组织开展招商引资对外宣传推介活动、全市重大招商引资活动等各类招商引资活动的联络协调服务工作。负责与港澳台地区、国内外投资促进机构、商协会、宁夏驻境内外办事处、商务代表处等各类组织建立合作机制，做好招商引资工作，建立招商引资工作网络。负责指导各县（市、区）、工业园区的招商引资工作。负责落实吴忠市人民政府与外省区市政府签订的经济技术合作与交流事宜。督促落实多双边机构与我市签订的经贸合作协议。', '组织拟订全市国内外贸易、国际国内经济合作和投资促进发展中长期规划，研究商务领域供给侧结构性改革、招商引资优惠政策等重大问题并提出政策建议。指导商务和投资促进系统依法行政、普法教育、法制宣传等工作，', '行政复议、行政诉讼等相关法律事务工作。负责境内外投资项目、投资企业的政策咨询、法律服务、项目服务、权益保障等服务工作，制定服务政策和措施，为企业提供“一站式”服务。指导外商投资企业、招商引资企业履行社会责任，受理投诉举报及信访、上访，协调解决反映的问题。负责招商引资目标任务的制定、考核评价及奖励审核。负责招商引资投资项目库的建设与管理。负责招商引资数据的统计分析。', '行政复议、行政诉讼等相关法律事务工作。负责境内外投资项目、投资企业的政策咨询、法律服务、项目服务、权益保障等服务工作，制定服务政策和措施，为企业提供', '其他商品和服务支出300万元。2、40万元为我市组团在外参加会议用于设计搭建吴忠市特装馆等支出会议费40万元。3、50万元为“市长菜篮子”工程冬春储蔬菜储备投放及猪肉储备投放其他对企业补助：50万元。', '吴忠市商务和投资促进局2020年“三公”经费财政拨款预算数为0万元，其中：因公出国（境）费0万元，公务用车购置0万元，公务用车运行费 0万元，公务接待费0万元。', '主要原因是无因公出国（境）；公务用车购置费增加0万元，主要原因2016年公车改革；公务用车运行费增加0万元，主要原因2016年公车改革，公车收回，无公务用车；', '。大力开展“高质高效招商引资年”活动，先后制定了吴忠市招商引资优惠政策、奖励办法和三年行动方案，明确了招商引资的重点区域、重点产业和政策扶持、奖励办法。采取市级领导包抓、项目小组跟进、定期督查通报等方式，推进签约项目早日投产达效。先后组团参加了自治区党政代表团苏浙沪以及福建学习考察、中阿博览会等重大活动，落实苏浙沪签约项目12个，总投资67.4亿元；闽宁签约6个，总投资9.3亿元。组团参加了自治区商务厅江苏省经贸合作交流活动、湖南长沙“宁夏·湖南装备制造产业合作交流恳谈会”、首届中国—中东欧国家博览会暨国际消费品博览会等', '活动，先后制定了吴忠市招商引资优惠政策、奖励办法和三年行动方案，明确了招商引资的重点区域、重点产业和政策扶持、奖励办法。采取市级领导包抓、项目小组跟进、定期督查通报等方式，推进签约项目早日投产达效。先后组团参加了自治区党政代表团苏浙沪以及福建学习考察、中阿博览会等重大活动，落实苏浙沪签约项目12个，总投资67.4亿元；闽宁签约6个，总投资9.3亿元。组团参加了自治区商务厅江苏省经贸合作交流活动、湖南长沙', '等单位围绕健康养老、生物医药、铝深加工等产业，赴江苏、浙江等地开展精准招商。先后邀请中国国储能源化工集团、华江建设集团、河北武安裕华钢铁、修正集团等企业负责人来吴考察140多批次近700人次，洽谈对接精细化工、院士工作站、特色农业等项目。', '等单位围绕健康养老、生物医药、铝深加工等产业，赴江苏、浙江等地开展精准招商。先后邀请中国国储能源化工集团、华江建设集团、河北武安裕华钢铁、修正集团等企业负责人来吴考察', '批次，先后洽谈对接项目170多个，落实签约项目85个，计划投资430亿元，已开工建设项目30个，到位资金', '大型企业建立合作关系，拓宽特色产品供应渠道，力促吴忠成为大型企业优质食材的采购地、供应商。', '组织实施特色街区、菜篮子、51015生活圈、冷链物流等民生项目，增强商务惠民能力。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '5、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '7、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>291</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>吴忠市接待办公室年度部门决算</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2017-09-20</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2017nyq_48261/201709/t20170920_501571.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》、《中华人民共和国政府信息公开条例》、《地方预决算公开操作规程》（财预[2016]143号）和吴忠市财政局《关于做好吴忠市本级2016年部门决算公开工作的通知', '：负责党和国家领导人，中央和国家机关各部门领导以及其带领的调查组或视察组的接待工作。', '：负责外省，区，直辖市和区内外各地，州，市四套班子领导，正副秘书长以及其带领的访问团或经贸考察团等的接待工作。', '：负责自治区四套班子全体领导和四套班子正副秘书长以及其组织的检查组或视察组的接待工作。', '：负责市级领导邀请来我市进行公务，商务活动的国内外知名人士，专家学者，企业家等的接待工作。', '年度财政拨款支出年初预算为7344281.25元，支出决算为4895483.25元，完成年初预算的66.66%。决算小于预算数的主要原因：结合学习贯彻十八大工作报告，严格执行中央关于党政机关国内公务接待的管理规定及厉行节约有关规定，等等。', '（六）2016年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '执行八项规定，公务接待减少；2016年4月上交公务车辆，不再产生公务车辆运行费用。', '其中：公务用车购置费支出为0元，公务用车运行维护费支出10153.31元，主要用于车辆维护和公务车燃油费等。2016年，本单位和下属的二级单位财政拨款开支的公务用车购置数0辆，公务用车保有量0辆。', '年度政府性基金预算财政拨款本年收入0元，本年支出0元，年末结转和结余0元。支出具体情况如下：按支出功能分类科目说明。', '年，本单位政府采购预算0元，支出决算0元，完成年初预算的0%。其中：政府采购货物预算0元，支出决算0元，完成年初预算的0%。政府采购工程预算0元，支出决算0元，完成年初预算的0%。政府采购服务预算0元，支出决算0元，完成年初预算的0%。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '、机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>291</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>中共吴忠市委直属工作委员会年部门预算</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1281092.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['(二)制定市直机关党建工作规划，提出加强和改进机关党建工作的措施，检查督促市直机关党组织切实履行职责，落实好党建工作各项任务，指导基层组织搞好党的思想建设、组织建设、作风建设和制度建设，抓好对党员的教育和管理。', '制定市直机关党建工作规划，提出加强和改进机关党建工作的措施，检查督促市直机关党组织切实履行职责，落实好党建工作各项任务，指导基层组织搞好党的思想建设、组织建设、作风建设和制度建设，抓好对党员的教育和管理。', '(三)负责市直机关党员的宣传教育和理论学习工作，指导基层党组织和广大党员学习党的路线、方针、政策、决议，抓好理论武装和思想政治工作。', '负责市直机关党员的宣传教育和理论学习工作，指导基层党组织和广大党员学习党的路线、方针、政策、决议，抓好理论武装和思想政治工作。', '(四)督促、指导机关基层党组织按期进行换届选举，负责审批市直机关党委、总支、支部班子。', '(五)做好发展党员工作。加强对入党积极分子的教育、培养和考察。积极慎重地审批新党员，做好预备党员转正工作。', '做好发展党员工作。加强对入党积极分子的教育、培养和考察。积极慎重地审批新党员，做好预备党员转正工作。', '从预算单位构成看，吴忠市直机关工委部门预算包括：市直机关工委本级预算。无所属事业单位预算。无纳入市直机关工委2019年部门预算编制的二级预算单位。', '从预算单位构成看，吴忠市直机关工委部门预算包括：市直机关工委本级预算。无所属事业单位预算。无纳入市直机关工委', '根据主要职责，机关工委内设综合科、组织宣传纪检科2个内设机构。人员编制和领导职数：市直机关工委行政编制10名。其中：书记1名(正处)，副书记2名（副处）；正科级领导职数3名(含机关工会委员会专职副主席1名)，副科级领导职数1名。', '）8万元，用于支持基层党组织党建工作，进一步强化机关党建工作；二是2018年临时增加群众评议机关作风工作（科目2013601）10万元，用于第三方测评费用。', '市直机关工委2019年“三公”经费财政拨款预算数为0万元，其中：因公出国（境）费0万元，公务用车购置0万元，公务用车运行费0万元，公务接待费0万元。', '2019年“三公”经费财政拨款预算比2018年无变化，其中：因公出国（境）费无变化为0万元，主要原因是单位职责所在，无出国（境）业务发生；公务用车购置费无变化为0万元，主要原因是参加公车改革', '；公务用车运行费无变化为0万元，主要原因公车上缴，无公车；公务接待费无变化为0万元，主要原因严格执行中央八项规定精神，减少公务接待。', '%。主要原因是：2019年市直机关工委机关运行经费财政拨款预算按8人核算，较2018年减少工作人员2名，机关运行经费财政拨款预算相对减少。', '2019年，市直机关工委政府采购预算0万元，其中：政府采购货物预算0万元，政府采购工程预算0万元，政府采购服务预算0万元。', '2019年市直机关工委重点项目：一是4期电视问政，旨在进一步发挥媒体监督作用,强化各部门服务意识、大局意识、责任意识,促进各部门改进工作作风；二是群众评议机关作风活动，旨在着力解决机关“四风”“三不为”等突出问题，进一步转变机关作风，努力打造干事创业、奋发进取、团结和谐的政治生态环境，为与全国同步进入全面小康社会提供坚强的作风保证。', '等突出问题，进一步转变机关作风，努力打造干事创业、奋发进取、团结和谐的政治生态环境，为与全国同步进入全面小康社会提供坚强的作风保证。', '2、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '、财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '、项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '5、人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '7、“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。', '经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>291</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>吴忠市人民政府印发关于加强数字政府建设的实施方案的通知</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/gz/szdwj/202311/t20231127_4364919.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['《关于加强数字政府建设的实施方案》已经市人民政府研究同意，现印发给你们，请认真贯彻执行。', '为贯彻落实党的二十大精神和党中央、国务院关于加强数字中国和数字政府建设的重大决策部署，根据《国务院关于加强数字政府建设的指导意见》（国发〔2022〕14号）、《自治区人民政府关于加强数字政府建设的实施意见》（宁政发〔2023〕17号）、《数字宁夏“1244+N”行动计划实施方案》（宁政办发〔2023〕11号）等文件精神，以数字化改革助力政府职能转变，以数字政府建设助推数字吴忠发展，不断提升政府治理体系和治理能力现代化水平，现结合我市实际，制定本实施方案。', '坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大和习近平总书记视察宁夏重要讲话指示批示精神，全面落实自治区第十三次党代会工作部署，完整、准确、全面贯彻新发展理念，坚持改革引领、数据赋能、整体协同、安全可控，深入实施网络强国战略和国家大数据战略，将现代数字技术广泛应用于政府管理服务，推动政府决策科学化、社会治理精准化、公共服务高效化，全面提升数字政府效能和水平，激发数字经济活力、优化数字社会环境、打造良好数字生态，加快推进大数据产业，促进经济社会高质量发展，为全面建设现代化美丽新吴忠提供有力支撑。', '数字政府工作体系更加科学规范；数字政府建设各类平台“家底”全面理清；各县（市、区）、各部门', '通过数字赋能和深化改革，政府治理流程全面优化、模式全面创新、履职能力全面提升，与政府治理能力现代化相适应的数字政府体系框架成熟完备，整体协同、敏捷高效、智能精准、开放透明、公平普惠的数字政府全面建成，为全市基本实现社会主义现代化提供有力支撑。', '强化系统观念，坚持全市“一盘棋”，在数字政府建设中统一顶层规划、统一建设管理、统一标准规范、统一共性基础支撑平台，全面提升一体化、集约化建设水平。', '以数字政府建设引领驱动数字经济、数字社会、数字生态“三个驱动”，持续增强数字政府效能，形成数字吴忠发展新格局。培育发展数字企业，加强政产学研用合作，促进数字生态建设，形成创新驱动的融合型数字经济体系。', '围绕经济社会发展迫切需要，着力强化改革思维，注重顶层设计和基层探索有机结合、技术创新和制度创新双轮驱动，以数字化改革助力政府职能转变，促进政府治理能力改革创新，推动政府治理法治化与数字化深度融合。', '深化市域治理平台、城市运行管理服务平台建设，依托自治区“我的宁夏”“宁政通”统领性和基础性作用，统筹推进技术融合、业务融合、数据融合，提升跨层级、跨地域、跨系统、跨部门、跨业务的协同管理和服务水平，做好与相关领域改革及“十四五”规划的有效衔接和统筹推进，促进数字政府建设与数字经济、数字社会协调发展。', '。立足企业、群众需求及办事获得感、满意度，以政务服务线上线下融合，向基层延伸试点工作为契机，聚焦群众“急难愁盼”的重点领域，推进数字技术服务场景融合创新，催生经济社会发展新动能。', '全面落实总体国家安全观，坚持促进发展和依法管理相统一、安全可控和开放创新相统一，严格落实网络安全各项法律法规制度，全面构建制度、管理及技术衔接配套的安全防护体系，切实守住网络安全底线。', '遵循数字化转型发展规律，统筹发展和安全，坚持改革引领与数据赋能双轮驱动、业务融合和技术应用相互促进，在深度整合现有信息资源基础上，健全完善发展架构、运行架构、管理架构、层级架构和业务架构，整体形成“一套体系、三个驱动、四大支撑、七', '遵循数字化转型发展规律，统筹发展和安全，坚持改革引领与数据赋能双轮驱动、业务融合和技术应用相互促进，在深度整合现有信息资源基础上，健全完善发展架构、运行架构、管理架构、层级架构和业务架构，整体形成', '进一步强化数字政府建设组织管理，明确各方面工作职责，加快形成高位指导、各方联动、运转高效、有序推进的工作体系。', '职责。重点依托上级平台开发本地特色应用，一体化推进综合协同应用平台建设，深入开展数据开发、数据挖掘应用，强化数字赋能。', '推动形成“一联系、两清单”（两清单：工作清单和底数清单）的数字政府工作机制。各县（市、区）人民政府和市数字政府建设成员单位要明确分管领导和具体工作人员负责数字政府建设，探索建立“科室+数据专员”机制，配齐配强数字化工作力量，进一步提升业务工作和数字化工作融合度，统筹推进本单位、本系统数字政府建设各项工作，定期对相关部门', '（两清单：工作清单和底数清单）的数字政府工作机制。各县（市、区）人民政府和市数字政府建设成员单位要明确分管领导和具体工作人员负责数字政府建设，探索建立', '机制，配齐配强数字化工作力量，进一步提升业务工作和数字化工作融合度，统筹推进本单位、本系统数字政府建设各项工作，定期对相关部门', '持续增强数字政府效能，着力打造数字政府引领驱动数字经济、数字社会、数字生态“三个驱动”协同发展的新格局。', '以数字政府建设为牵引，聚焦“六新六特六优”产业，加快发展数字经济，拓展经济发展新空间，培育经济发展新动能，促进数字经济和实体经济深度融合，提高数字经济治理体系和治理能力现代化。', '产业，加快发展数字经济，拓展经济发展新空间，培育经济发展新动能，促进数字经济和实体经济深度融合，提高数字经济治理体系和治理能力现代化。', '持续优化工业互联网平台推广体系，推动智能生产线、数字化车间、智能工厂建设等“5G+工业互联网”典型应用场景建设，鼓励企业系统上云。加快发展工业互联网，推进工业互联网标识解析产业化创新应用，拓展新增标识解析应用场景。加快完善太阳山开发区、金积工业园区、青铜峡园区等“智慧园区”功能，加强工业运行态势分析，强化安全、环保、能耗监管，提升园区管理服务水平。', '典型应用场景建设，鼓励企业系统上云。加快发展工业互联网，推进工业互联网标识解析产业化创新应用，拓展新增标识解析应用场景。加快完善太阳山开发区、金积工业园区、青铜峡园区等', '加快推进智慧农业发展，着眼解决涉农数据碎片化等问题，实施数智农业高质量发展行动，重点在智慧节水灌溉、智慧农机作业、智慧农业全域全产业链接等方面建设大数据工程。积极引导农业示范区、产业园和农业龙头企业推进智慧农业生产体系和产品质量可追溯体系建设，推进农业机械设备和生产设施智能化改造，提升农业作业智能化水平，依托数字信息平台，加强滩羊、葡萄酒等优质农特产品对外宣传，争创全区数字农业示范县、大数据标准园（场）示范区。', '服务业融合创新，加快仓储物流、电子商务、现代金融等领域数字化建设。促进新型消费发展壮大，加速数字技术与智慧旅游、健康养老、文体娱乐等融合应用，创新线上线下新体验，推动消费产业升级。持续提升“吃在吴忠”品质，举办“早茶文化节”“中国（盐池）滩羊产业大会暨电商文化旅游节”“吴忠优质特色产品全国行”等活动，利用“宁优汇”电商平台，赋能“六优”产业发展。', '服务业融合创新，加快仓储物流、电子商务、现代金融等领域数字化建设。促进新型消费发展壮大，加速数字技术与智慧旅游、健康养老、文体娱乐等融合应用，创新线上线下新体验，推动消费产业升级。持续提升', '探索建立与数字经济持续健康发展相适应的治理方式，制定更加灵活有效的政策措施、监管模式，把监管和治理贯穿创新、投资、生产、经营全过程。', '以数字政府建设促进数字技术与社会发展全面融合，着力普及数字设施、优化数字资源供给、弥合数字鸿沟，提升全民数字化生活水平。', '推进城市运行“一网统管”，建设城市运行管理服务平台，提升城市治理科学化、精细化、智能化水平；推动交通领域数字化，完善智慧交通管控平台，助力交通监测、智能管控、智慧警务、信息服务等业务能力提升；加强住建领域数字化建设，推进海绵城市及', '，建设城市运行管理服务平台，提升城市治理科学化、精细化、智能化水平；推动交通领域数字化，完善智慧交通管控平台，助力交通监测、智能管控、智慧警务、信息服务等业务能力提升；加强住建领域数字化建设，推进海绵城市及', '污、路灯等市政行业智慧化建设；依托自治区城市信息模型平台（CIM），拓展深化城市管理、交通出行等领域应用；打造全域物联感知管理能力，依托自治区统一物联网平台，实现城市物联感知设施集约化建设和管理', '），拓展深化城市管理、交通出行等领域应用；打造全域物联感知管理能力，依托自治区统一物联网平台，实现城市物联感知设施集约化建设和管理', '推进“互联网+医疗健康”建设，深化县域综合医改，持续提升医联体（医共体）建设成效；推进“互联网+医保”，推广电子处方流转，实现医保报销直达药店，以DIP支付方式推进医保支付改革落地，建立专业化、智能化和精细化的基金支付管理服务体系，增强患者就医幸福感、安全感；推进教育数字化转型，深入推广宁夏智慧教育平台，实现教学数字化应用、数字校园全覆盖；推进“互联网+养老”社区居家养老服务模式，不断升级完善养老服务信息平台，加强社区养老、农村养老、特困人员供养等服务设施建设，为老年人提供便捷可及的养老服务。', '支付方式推进医保支付改革落地，建立专业化、智能化和精细化的基金支付管理服务体系，增强患者就医幸福感、安全感；推进教育数字化转型，深入推广宁夏智慧教育平台，实现教学数字化应用、数字校园全覆盖；推进', '社区居家养老服务模式，不断升级完善养老服务信息平台，加强社区养老、农村养老、特困人员供养等服务设施建设，为老年人提供便捷可及的养老服务。', '以数字化支撑现代乡村治理体系，加快补齐乡村信息基础设施短板，加快推进数字乡村试点建设。全面推进全国“数字供销”示范区建设，以数字化技术赋能现代农业生产体系、经营体系、管理服务体系，', '以数字化支撑现代乡村治理体系，加快补齐乡村信息基础设施短板，加快推进数字乡村试点建设。全面推进全国', '以数字政府建设促进数据要素市场培育，逐步完善数据要素共享开放环境，加强数据隐私保护，促进公共数据、社会数据要素融合开放及开发利用，探索安全可靠的数据交易市场。', '遵照国家现行大数据开放规范，按照自治区相关要求，探索制定数据资源采集、共享、应用规范制度，明确数据资源开放共享法律边界。面向重点行业，探索建立数据标准体系，统一数据编码、格式标准、交换接口等关键技术标准。完善“数链”“数脑”“数盾”体系建设，开展多方安全计算、区块链、隐私计算、数据沙箱等技术模式应用，促进数据可信流通。', '遵照国家现行大数据开放规范，按照自治区相关要求，探索制定数据资源采集、共享、应用规范制度，明确数据资源开放共享法律边界。面向重点行业，探索建立数据标准体系，统一数据编码、格式标准、交换接口等关键技术标准。完善', '体系建设，开展多方安全计算、区块链、隐私计算、数据沙箱等技术模式应用，促进数据可信流通。', '融合汇聚全市数据资源，对公共数据按照重要性和敏感度分级分类，明确开放标准、开放内容、时间节点，实现数据资源适度、合理开放分享，有效指导和带动全社会数据资源开发利用。重点面向精细化工、新材料、新能源、农产品加工、商贸物流、文化旅游等领域，试点研究企业数据汇聚引导机制，依托“企业上云”“两化融合”等工程，探索数据服务的商业模式创新，推动企业数据资源云化存储、共享应用，形成大数据开放氛围。', '融合汇聚全市数据资源，对公共数据按照重要性和敏感度分级分类，明确开放标准、开放内容、时间节点，实现数据资源适度、合理开放分享，有效指导和带动全社会数据资源开发利用。重点面向精细化工、新材料、新能源、农产品加工、商贸物流、文化旅游等领域，试点研究企业数据汇聚引导机制，依托', '等工程，探索数据服务的商业模式创新，推动企业数据资源云化存储、共享应用，形成大数据开放氛围。', '统筹推进数字政府安全保障、制度规则、数据资源、平台支撑“四大支撑”建设，有力保障政府数字化转型。', '全面落实数字政府安全管理法规制度要求，加强关键信息基础设施和重要信息系统安全保障，筑牢数字政府建设安全防线。', '落实市、县（区）、乡（镇）数字政府建设安全和保密工作的主体责任、监督责任，构建全方位、多层级、一体化安全防护体系，形成跨地区、跨部门、跨层级的协同联动机制。建立数字政府安全评估、责任落实和重大事件处置机制，完善企业参与政务信息化建设和运营的规范制度，确保管理边界清晰、职责明确、责任落实。', '建立健全数据分类分级保护、风险评估、检测认证等制度，定期对政务信息系统开展网络安全和数据安全专项检查评估。加强关键信息基础设施安全保护和重要信息系统、网络安全等级保护，建立健全网络安全、保密监测预警和密码应用安全性评估机制，定期开展网络安全、保密和密码应用检查，提升数字政府领域关键信息基础设施保护水平。', '建立健全动态监控、主动防御、协同响应的数字政府安全技术保障体系。充分运用主动监测、智能感知、威胁预测等安全技术，强化日常监测、通报预警、应急处置，拓展网络安全态势感知监测范围，加强大规模网络安全事件、网络泄密事件预警和发现能力。', '推动政务信息系统基于信创环境开发，强化信创技术和信创产品应用，切实提高自主可控水平。积极推进符合国家标准要求的密码应用。对新技术新应用及时进行安全评估，建立健全对算法的审核、运用、监督等管理制度和技术措施。落实运营者主体责任，强化关键信息基础设施保护', '以数字化改革促进制度创新，实现政府治理方式变革和治理能力提升，推动数字政府建设高质量发展。', '充分发挥数字技术创新变革优势，优化业务流程，创新协同方式，推动政府运行更加协同高效。健全完善与数字化发展相适应的政府职责体系，强化数字经济、数字社会、数字网络空间等治理能力。推动各类行政权力事项网上运行、动态管理，强化审管协同，优化营商环境。', '健全完善政务信息化建设管理会商机制，加强全市政务信息化项目全生命周期统筹管理，探索建立综合论证、绿色通道、联合验收等项目管理新模式', '。加强各级党委、人大、政协、监察、审判、检察机关、人民团体等非涉密、非敏感数字化资源的登记备案，协同提高政府治理现代化水平。', '全面建设数字法治政府，依法依规推进技术应用、流程优化和制度创新，消除技术歧视，保障个人隐私，维护市场主体和人民群众利益。持续抓好现行法律法规贯彻落实，细化完善配套措施。推动及时修改和清理现行地方党内法规、规范性文件和地方性法规、政府规章、行政规范性文件中与数字政府建设不相适应的条款，将实践检验行之有效的做法及时上升为制度规范，加快完善与数字政府建设相匹配的地方法规制度框架体系。', '依据现行国家、自治区数字政府建设相关标准及规范，健全完善数字政府标准化工作要求，统筹协调处理标准规范应用实施过程中的重大问题，督促各级政府切实抓好数字政府标准规范的应用实施。开展标准宣贯及评估评价工作，加大既有标准推广执行力度、提升应用水平，以标准化促进数字政府建设规范化。', '围绕数字政府建设重点领域、关键环节、共性需求等，选择有条件的市级部门、县（市、区）开展试点示范。在统一标准规范指导下，鼓励开展应用创新、服务创新和模式创新，积极争取自治区各类试点、示范和配套项目，努力打造在全区、全市具有普适性、可推广的典型应用。', '完善数据共享交换体系，充分利用自治区公共数据开放平台，推动各行业数据互联互通、共享交换，加强数据治理，充分释放数据要素价值。', '强化数据管理职责，完善数据归集、共享、开放、应用、安全、存储、归档等工作。建立健全数据全生命周期质量管理机制，制定政务数据分类分级标准，提升数据资源管理能力。建立政务数据资源调查制度，全面摸清全市政务数据资源底数，形成全市政务数据“一本账”。深化数据高效共享机制，建立健全政务数据供需对接机制，支持政务数据跨地区、跨部门、跨层级互认共享，积极对接上级部门（单位），', '强化数据管理职责，完善数据归集、共享、开放、应用、安全、存储、归档等工作。建立健全数据全生命周期质量管理机制，制定政务数据分类分级标准，提升数据资源管理能力。建立政务数据资源调查制度，全面摸清全市政务数据资源底数，形成全市政务数据', '。深化数据高效共享机制，建立健全政务数据供需对接机制，支持政务数据跨地区、跨部门、跨层级互认共享，积极对接上级部门（单位），', '建立政务数据属地返还机制，推动数据按需向本地回流，有力支撑地方政务数据资源深度开发利用。', '逐项明确责任主体，推动各市级部门、县（区）政务数据资源汇聚，积极对接全区统一基础库和主题库，完善社会保障、生态环保、应急管理、政务服务、国资监管、经济运行、医疗健康等主题库。', '围绕重大领域改革和重点任务，不断提升公共数据资源开发利用水平，支持各级各部门持续开展大数据创新应用，加快推进公共数据和社会数据融合，打造重点领域大数据创新应用标杆示范，以点带面，整体提升。', '充分利用自治区统一的政务云平台、网络平台、共性应用平台等资源，着力构建吴忠特色基础设施支撑平台，全面加强全市数字政府建设核心资源供给能力，切实提高新型信息基础设施对数字政府建设的保障水平。', '充分利用自治区信创云资源，组织现有政务信息化系统和新建应用系统向信创云有序迁移、适配运行，做到“应上尽上”。依托自治区行业云资源，鼓励支持全市各行业上云，整体形成与自治区保持高度一致的“政务云+行业云”统一云资源格局。', '充分利用自治区信创云资源，组织现有政务信息化系统和新建应用系统向信创云有序迁移、适配运行，做到', '进一步拓宽电子政务外网覆盖范围，建成电子政务外网“一张网”，实现市、县（市、区）、乡（街道）、村（社区）四级全覆盖；加快推进全市电子政务外网IPv6优化改造和骨干线路“一网多平面”优化升级，增强电子政务外网带宽资源，推动骨干网络升级扩容，持续扩大千兆光网覆盖范围。', '，实现市、县（市、区）、乡（街道）、村（社区）四级全覆盖；加快推进全市电子政务外网', '优化升级，增强电子政务外网带宽资源，推动骨干网络升级扩容，持续扩大千兆光网覆盖范围。', '持续提升工业园区、农村重点乡镇、行政村（自然村）、重点商圈、医院、高校、交通枢纽的5G覆盖能力。', '持续提升工业园区、农村重点乡镇、行政村（自然村）、重点商圈、医院、高校、交通枢纽的', '推广应用自治区统一电子身份认证、电子证照、电子印章、公共支付、非税支付、电子文件、电子票据等业务协同支撑服务。深化电子文件及电子档案服务利用，协助推进宁夏政务协同办公平台与宁夏档案管理系统信息交互对接，实现电子文件与数字档案室（馆）无缝衔接，提升全市电子文件归档和电子档案管理水平。加快推进信用中国（宁夏）吴忠站建设，构建一体化社会信用体系，提升信用信息数据共享效率和水平。', '以数字化改革助力政府职能转变，加快提升政府经济调节、市场监管、社会管理、公共服务、生态环境保护、政务运行、政务公开等领域数字化、智能化履职“七种能力”，将数字化理念思维、技能素养融入政府履职的全过程各方面，全面推进政府数字化转型。', '加强人口、就业、产业、投资、消费、贸易等领域关键数据的全链条全流程汇聚、治理和分析应用，赋能传统产业转型升级和新兴产业高质量发展。', '依托自治区经济运行大数据平台，提高全市经济运行监测分析质量和水平，加强保供物资等重点行业及重点企业和重点产品监测与分析，建立完善分析报告体系，及时发现苗头性、倾向性问题，做好监管调控。', '积极对接使用自治区经济运行大数据平台，全面感知经济社会发展态势，强化经济趋势研判，及时准确预警影响经济平稳运行的苗头性、趋向性问题，助力跨周期政策设计，提高逆周期调节能力。', '依托大数据技术形成中小微企业精准画像和农业农村经济形势精准分析，强化金融数据共享，提升各级政府推动经济社会发展的成效。', '监管事项清单数字化、动态化管理机制，推行“照单监管”。依托宁夏智慧市场监管一体化平台，加强食品、药品、特种设备、质量监督等重点监管领域治理管控，利用自治区市场主体大数据分析平台，加强监管数据归集、治理、分析、应用，实现监管事项全覆盖、监管分析智慧化。', '。依托宁夏智慧市场监管一体化平台，加强食品、药品、特种设备、质量监督等重点监管领域治理管控，利用自治区市场主体大数据分析平台，加强监管数据归集、治理、分析、应用，实现监管事项全覆盖、监管分析智慧化。', '健全“审管联动”机制，厘清审批部门和监管部门之间的权责边界，梳理审批和监管事项清单，强化审批、监管、执法、信用监管各环节的实时联动、高效运行。强化监管数据和行政执法信息归集共享，推动跨地区、跨部门、跨层级协同监管。加强与自治区药监局、药械经营使用单位以及其他有关部门的数据交换共享，有效衔接国家、自治区药品智慧监管平台和吴忠市相关业务系统，有效发挥大数据在日常监管、风险防控、产品召回、应急处置等工作中的作用，提升精细化监管水平。', '机制，厘清审批部门和监管部门之间的权责边界，梳理审批和监管事项清单，强化审批、监管、执法、信用监管各环节的实时联动、高效运行。强化监管数据和行政执法信息归集共享，推动跨地区、跨部门、跨层级协同监管。加强与自治区药监局、药械经营使用单位以及其他有关部门的数据交换共享，有效衔接国家、自治区药品智慧监管平台和吴忠市相关业务系统，有效发挥大数据在日常监管、风险防控、产品召回、应急处置等工作中的作用，提升精细化监管水平。', '市场监管综合业务管理系统与自治区“互联网+监管”系统、国家企业信用信息公示系统（宁夏）等', '实现互联互通，推进行政执法类信息和各行业信用管理平台在公共信用信息平台实现数据共享。', '充分运用非现场、视频图像、物联感知、卫星遥控、人工智能、掌上移动、穿透式等新型监管手段，推进远程监管、移动监管、预警监管、实时监管，弥补监管短板，提升监管效能', '。坚持和发展新时代“枫桥经验”，打造吴忠“塞上枫桥”，扩大人民调解志愿服务队，创新“三官一顾问+N”矛盾纠纷多元治理模式，推动政法干警深入社区、乡村，助力基层社会治理工作。加快推进社会治理现代化，加强市域社会治理智能平台协同能力，构建标准统一、互联互通的社会治理体系。以县（市、区）为主体，推进智慧社区建设，支持社区基础设施数字化改造，全面提升基层智慧治理能力。', '矛盾纠纷多元治理模式，推动政法干警深入社区、乡村，助力基层社会治理工作。加快推进社会治理现代化，加强市域社会治理智能平台协同能力，构建标准统一、互联互通的社会治理体系。以县（市、区）为主体，推进智慧社区建设，支持社区基础设施数字化改造，全面提升基层智慧治理能力。', '推进“雪亮工程”向基层全覆盖，探索推广“智安小区”“智安单位”应用，建立完善全时空、全方位的社会治安防控体系，深化数字化手段在国家安全、社会稳定、打击犯罪、治安联动等方面的应用，提高预测预警预防各类风险的能力。', '应用，建立完善全时空、全方位的社会治安防控体系，深化数字化手段在国家安全、社会稳定、打击犯罪、治安联动等方面的应用，提高预测预警预防各类风险的能力。', '加快推进“智慧应急”建设，深化监测预警和应急指挥网络“双网”建设，加快完善自然灾害监测预警、自然灾害风险普查、危化品双重预防、应急指挥调度等信息化基础建设，强化风险监测预警、分析研判和闭环管控，全面提升安全生产监督管理、应急救援指挥、物资保障等数字化、智能化水平。', '建设，加快完善自然灾害监测预警、自然灾害风险普查、危化品双重预防、应急指挥调度等信息化基础建设，强化风险监测预警、分析研判和闭环管控，全面提升安全生产监督管理、应急救援指挥、物资保障等数字化、智能化水平。', '“易办·吴优”政务服务品牌，以政务服务线上线下融合和向基层延伸试点工作为契机，打造全新的政务服务体系。', '政务服务品牌，以政务服务线上线下融合和向基层延伸试点工作为契机，打造全新的政务服务体系。', '全面推广“我的宁夏”政务APP，持续做强做优吴忠专区功能，推广宁夏“一人一码”平台，推动更多高频政务服务事项“掌上办、码上办”。', '以企业和群众需求为导向，推动多个跨部门、跨层级政务服务事项“集成办”，扩大电子证照应用领域和互通互认，进一步拓展“扫码亮证、证照免提交”应用场景', '建立完善“一企一档”“一人一档”功能，推出惠企政策“免申即享”，推动更多便民利企政策和办事服务直', '达直享。健全12345政务热线与110报警服务台、基层网格员联动工作机制，构建精准识别、自动流转、上下联动的诉求响应体系，探索在线人工客服与智能客服融合模式，打造“民呼我应”政务热线“总客服”。', '报警服务台、基层网格员联动工作机制，构建精准识别、自动流转、上下联动的诉求响应体系，探索在线人工客服与智能客服融合模式，打造', '按照“一次告知、一表申请、一套材料、一窗（端）受理、一网办理”的要求，优化业务流程，通过系统对接整合和数据共享，减少办事环节、精简申请材料、压缩办理时限。', '的要求，优化业务流程，通过系统对接整合和数据共享，减少办事环节、精简申请材料、压缩办理时限。', '。以国土空间基础信息、生态环境数据、能耗监测数据及其他业务应用等为主体，构建全市联网、上下协同、信息共享的生态环境智慧监测体系；依托生态环境大数据平台，强化大气、水、土壤、自然生态、气候变化等数据资源综合开发利用，推进重点流域区域协同治理；强化污染源监控，加强生态环境质量、污染源、污染物等数据关联分析和综合研判。', '推进“互联网+城乡供水”建设，启动实施水利新基建行动；推广“互联网+高效节水农业”服务平台，为农户提供智能便捷化灌溉服务；积极配合建设全区土壤普查数据库及应用系统建设，推进第三次全国土壤普查工作顺利开展；依托自治区自然资源卫星应用中心，全面提升全市遥感影像数据的存储、管理和使用效率，实现“一源多用、能用尽用”。', '服务平台，为农户提供智能便捷化灌溉服务；积极配合建设全区土壤普查数据库及应用系统建设，推进第三次全国土壤普查工作顺利开展；依托自治区自然资源卫星应用中心，全面提升全市遥感影像数据的存储、管理和使用效率，实现', '推进水、气、土、废污染防治攻坚战，全面加强生态修复，推动形成集约节约、循环高效、普惠共享的绿色低碳发展新格局。', '建设数字政府智能决策体系，汇聚整合多源数据资源，推动实现运行情况一屏统览、政务运行实时监测、效能指标综合研判，形成“用数据说话、用数据决策、用数据管理、用数据创新”的辅助决策体系。', '建设数字政府智能决策体系，汇聚整合多源数据资源，推动实现运行情况一屏统览、政务运行实时监测、效能指标综合研判，形成', '依托宁夏政务协同办公平台，整合办文、办会、办事等内容，加快推动政府机关内部事务线上集成办理。提速宁政通APP推广应用，加快推动各单位办公、执法、管理等政务APP接入宁政通APP。', '依托宁夏政务协同办公平台，整合办文、办会、办事等内容，加快推动政府机关内部事务线上集成办理。提速宁政通', '统筹整合各地各部门非涉密视频会议系统资源，形成全市统筹应用的视频会议平台。提高辅助审批智能化水平，规划建设基层报表填报系统，改变层层核实和多系统上报工作方式，推动基层工作人员减负。', '以数字化手段固化行政权力事项运行流程，加快推动行政执法全流程数字化运行、管理和监督，促进行政权力规范透明运行。进一步完善政府采购、工程建设项目招投标数字化运行标准和规范，为实施行政监管提供支持。', '区机关事务管理统一的系统门户和后台管理，整合全市各级各类机关事务管理信息系统，加快自治区机关事务管理数字化平台推广应用。', '进一步完善各类政务公开信息化平台，加快构建以网上发布为主、其他渠道发布为辅的政务公开发布新格局。依托已有文件数据库资源，加快建设全市统一、分级分类、共享共用、动态更新的政策文件库，推动政策信息集成智能发布，实现政策“一库通查”。完善政务公开保密审查制度，严格审查标准，消除安全隐患。', '进一步完善各类政务公开信息化平台，加快构建以网上发布为主、其他渠道发布为辅的政务公开发布新格局。依托已有文件数据库资源，加快建设全市统一、分级分类、共享共用、动态更新的政策文件库，推动政策信息集成智能发布，实现政策', '加快构建政务新媒体矩阵体系，形成整体联动、同频共振的政府信息传播格局。适应不同类型新媒体平台传播特点，开发多样化政策解读产品。依托政务新媒体做好突发公共事件信息发布和政务舆情回应工作，及时澄清事实、解疑释惑。', '发挥政府网站、12345政务服务便民热线、领导信箱在回应群众诉求中的阵地作用，及时回应社会关切', '始终把党的全面领导作为加强数字政府建设、提高政府管理服务能力、推进国家治理体系和治理能力现代化的根本保证', '各级党委要切实履行领导责任，及时研究解决影响数字政府建设的重大问题。各级政府要在党委的统一领导下，切实履行数字政府建设主体责任，谋划落实好数字政府建设各项任务，主动向同级党委报告数字政府建设推进中的重大问题。各级政府及有关职能部门要履职尽责，将数字政府建设工作纳入“一把手”工程，建立主要领导负责制，制定工作方案，抓好组织实施。', '各级党委要切实履行领导责任，及时研究解决影响数字政府建设的重大问题。各级政府要在党委的统一领导下，切实履行数字政府建设主体责任，谋划落实好数字政府建设各项任务，主动向同级党委报告数字政府建设推进中的重大问题。各级政府及有关职能部门要履职尽责，将数字政府建设工作纳入', '制定年度数字政府建设重点任务考核指标体系，健全并坚持常态化考核和以奖代补工作机制。定期开展督促检查和经验交流，推广典型应用，鼓励基层创新，建立容错和奖惩机制。加强第三方评估、社会监督评价，强化项目绩效评估，避免分散、重复建设，不断提升数字政府应用效能和满意度。', '根据各级财政支出责任，强化数字政府建设经费保障，将数字政府建设经费纳入年度预算。鼓励通过购买服务、市场化运作等方式推动数字化建设，建立完善多渠道投入的资金保障机制。推动数字普惠，加大对县、乡、村三级的数字政府建设支持力度。建立政务平台常态化运行与年度运维资金挂钩的评估机制。', '依托宁夏干部教育培训网络学院的数字政府培训课程体系，开展全市政府系统各级干部数字化业务能力“大培训”；借鉴先进省区数字政府建设典型经验和工作方法，利用考察、培训等时机开展“大学习”；充分挖掘', '依托宁夏干部教育培训网络学院的数字政府培训课程体系，开展全市政府系统各级干部数字化业务能力', '各部门（单位）数字政府建设成果经验和标志性应用场景，适时组织观摩会、现场开展“大交流”', '及时总结推广典型经验，充分利用融媒体、“两微一端”等渠道，宣传数字政府建设政策措施和进展成效，为全面实施数字政府建设凝聚共识、汇聚力量，', '等渠道，宣传数字政府建设政策措施和进展成效，为全面实施数字政府建设凝聚共识、汇聚力量，']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>291</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>中共吴忠市委统战部年部门预算</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2019-02-18</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190218_1283063.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['一领导的要求,发挥市委在统战工作方面的参谋机构、组织协调机构、具体执行机构、督促检查机构作用,了解情况、掌握政策、协调关系、安排人事、增进共识、加强团结,协调统一战线', '各方面关系,组织和落实中央、自治区党委关于统一战线工作重大决策部署,巩固壮大最广泛的统一战线。', '(二)组织起草吴忠市统一战线有关政策规定并推动落实,深入调查研究,及时向吴忠市委报告统一战线工作情况并提出建议,统筹协调和指导各县(市、区)各单位统一战线工作。', '(三)负责发现、培养党外代表人士,负责党外人士的政治安排,会同有关部门做好安排党外人士担任政府和司法机关等领导职务的工作,协助民主党派市委会、市工商联等统战系统单位做好干部管理工作,反映和协调解决党外代表人士工作生活中的实际困难。', '(四)贯彻落实党的宣传工作方针,统筹推进全市统一战线宣传工作,拟订统一战线宣传工作政策和规划并组织实施,指导全市委统战部门和统战系统单位的宣传活动,负责统战线意识形态领域工作,研判涉及统一战线的舆情并协调有关部门应对处置。', '(五)负责联系全市各民主党派,通报情况、反映意见,贯彻落实中国共产党领导的多党合作和政治协商制度以及对民主党派的方针政策,支持、帮助民主党派加强自身建设做好支持民主党派履行职责、发挥作用的工作。', '(六)贯彻落实党的民族工作方针,研究拟订民族工作政策和措施,协调处理民族工作中的重大问题,联系少数民族人士,根据分工做好少数民族干部工作,依法管理民族事务,全面促进民族事业的发展。', '（七）贯彻落实党的宗教工作基本方针和政策，研究拟定宗教工作的政策、措施并督促落实，依法管理宗教行政事务，保护公民宗教信仰自由和正常的宗教活动,维护宗教界合法权益,抵御境外利用宗教进行渗透,引导各宗教坚持中国化方向,巩固和发展同宗教界的爱国统一战线。', '（七）贯彻落实党的宗教工作基本方针和政策，研究拟定宗教工作的政策、措施并督促落实，依法管理宗教行政事务，保护公民宗教信仰自由和正常的宗教活动', '(八)负责联系、培养无党派代表人士,支持、帮助无党派人士加强自身建设、发挥作用。调查研究党外知识分子', '(九)参与拟订、推动落实鼓励支持引导非公有制经济发展的方针政策,调查研究非公有制经济人士情况并提出政策建议,了解和反映非公有制经济人士的意见,团结、服务、引导、教育非公有制经济人士,促进非公有制经济健康发展和非公有制经济人士健康成长。', '(十)开展全市港澳台统战工作,拟订工作规划并组织协调、督促检查落实,深入调查研究并提岀政策建议,做好台胞、台属有关工作。', '(十一)统一管理侨务工作,贯彻落实党的侨务工作方针政策,负责拟订侨务工作规划并组织协调、督促检查落实调查研究全市侨情和侨务工作情况,管理侨务行政事务,统筹协调有关部门和社会团体涉侨工作,指导推动涉侨宣传文化交流、华文教育工作等,保护华侨和归侨侨眷合法权利和利益。', '(十二)协助管理县(市、区)党委统战部部长。受吴忠市委委托,领导市工商联党组,指导工商联工作。领导吴忠市社会主义学院工作。做好统一战线有关单位和团体的管理工作。', '从预算单位构成看，中共吴忠市委统战部部门预算包括：市委统战部本级预算，无二级预算单位。', '中共吴忠市委统战部行政编制21名。设部长1名,由市委领导同志兼任;副部长4名(不含兼职,分管日常工作的副部长为正处级)。核定科级领导职数7正6副。', '2019年一般公共预算财政拨款项目支出84万元，其中：本年收入安排支出84万元，上年结转结余资金安排支出0万元。包括：', '一般行政管理事务（项）2018年预算24万元，比2018年执行数据增加1万元，增长4.3%；社会主义学院工作经费2万元，党外知识分子工作经费2万元，考察调研经费5万元，宗教工作经费15万元，民族团结工作经费60万元。', '吴忠市委统战部2019年“三公”经费财政拨款预算数为2万元，其中：因公出国（境）费0万元，公务用车购置0万元，公务用车运行费0万元，公务接待费2万元。', '万元，其中：因公出国（境）费增加（减少）0万元，主要原因无因公出国（境）；公务用车购置费增加（减少）0万元，主要原因无公务车；公务用车运行费增加（减少）0万元，主要原因无公务车；公务接待费增加1.05万元，主要原因外省区前来交流调研次数增多。', '2019年，中共吴忠市委统战部本级1个行政单位机关运行经费财政拨款预算21.57万元，比2018年预算增加5.99万元，增长38.44%，主要原因是吴忠市委统战部2019年宣传力度加大，印刷费增加；外省区学习交流次数增多，接待费增加；办公计算机、复印机使用年限长，耗材更换次数增加。', '2019年，中共吴忠市委统战部政府采购预算0万元，其中：政府采购货物预算0万元，政府采购工程预算0万元，政府采购服务预算0万元。', '2019年中共吴忠市委统战部无重点预算绩效项目评价。84万元主要用于社会主义学院工作经费、党外知识分子工作经费、考察调研经费、宗教工作经费、民族团结工作经费。预期达到', '机构作用,了解情况、掌握政策、协调关系、安排人事、增进共识、加强团结,协调统一战线，巩固壮大最广泛的统一战线。', '（一）财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '（三）项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '（四）人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '（六）“三公”经费：纳入财政预决算管理的“三公”经费，是指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（七）机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>291</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>吴忠市机关事务服务中心年度部门决算公开情况说明</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2020-10-20</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2019n_48263/202010/t20201020_2262335.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国预算法》《中华人民共和国政府信息公开条例》《地方预决算公开操作规程》（财预', '1、贯彻执行国家、自治区机关事务工作的法律法规；研究拟订我市机关事务管理、保障、服务工作的规章、制度，并组织实施；指导监督全市机关事务工作，会同有关部门推进机关后勤服务工作的社会化改革。', '、贯彻执行国家、自治区机关事务工作的法律法规；研究拟订我市机关事务管理、保障、服务工作的规章、制度，并组织实施；指导监督全市机关事务工作，会同有关部门推进机关后勤服务工作的社会化改革。', '2、负责推进、指导、协调、监督全市公共机构节能工作，制订吴忠市公共机构节能改造计划并组织实施，负责全市公共机构能耗统计和节能宣传、教育及培训工作。', '、负责推进、指导、协调、监督全市公共机构节能工作，制订吴忠市公共机构节能改造计划并组织实施，负责全市公共机构能耗统计和节能宣传、教育及培训工作。', '3、承担规定范围内的公务接待，负责指导监督各县（市、区）市直各部门公务接待工作，协助相关部门做好重大活动的食宿安排。', '、承担规定范围内的公务接待，负责指导监督各县（市、区）市直各部门公务接待工作，协助相关部门做好重大活动的食宿安排。', '4、负责市本级党政机关办公用房的规划、权属、配置、使用、维修、处置等管理工作，指导各县（市、区）党政机关办公用房管理工作。', '、负责市本级党政机关办公用房的规划、权属、配置、使用、维修、处置等管理工作，指导各县（市、区）党政机关办公用房管理工作。', '6、负责市公务用车信息化平台建设及平台车辆的日常运行、维修保养等管理工作，负责机要通信、应急保障、执法执勤等公务用车的保障工作，负责驾驶员的教育、培训、考核、管理等工作。', '、负责市公务用车信息化平台建设及平台车辆的日常运行、维修保养等管理工作，负责机要通信、应急保障、执法执勤等公务用车的保障工作，负责驾驶员的教育、培训、考核、管理等工作。', '7、负责市本级党政机关办公用房、公务用车等资产管理；负责市级领导公寓、人才公寓、机关食堂、吴忠会堂等房产及其设施设备资产管理。', '、负责市本级党政机关办公用房、公务用车等资产管理；负责市级领导公寓、人才公寓、机关食堂、吴忠会堂等房产及其设施设备资产管理。', '8、负责市行政中心消防安全、环境卫生、绿化、安全保卫、水暖电、中央空调、电梯的管理和维护工作。', '、负责市行政中心消防安全、环境卫生、绿化、安全保卫、水暖电、中央空调、电梯的管理和维护工作。', '9、负责市行政中心办公大楼、吴忠会堂、机关食堂，及行政中心院内道路、管网等公共设施的规划、建设、维修和管理工作。', '、负责市行政中心办公大楼、吴忠会堂、机关食堂，及行政中心院内道路、管网等公共设施的规划、建设、维修和管理工作。', '吴忠市机关事务服务中心为事业单位，核定全额预算事业编制30名，聘用编制2名。其中：主任（正处级）1名、副主任（副处级）2名，内设机构科级领导职数8正7副。', '六、2019年度一般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）', '元，支出决算为39337.2元，完成年初预算的100%；比上年增加39337.2元，增长100%。决算数大于年初预算数的主要原因是按照自治区机关事务管理局安排出访德国、芬兰学习考察公共机构节能的先进理念和技术。全年因公出国（境）团组数1个，因公出国（境）人次数1人。开支内容包括：机票、综合服务费、签证费。', '。其中：公务用车购置费支出为0元，公务用车运行维护费支出1234444.27元，主要用于公务车平台车辆', '2019年度政府性基金预算财政拨款本年收入0元，本年支出0元，年末结转和结余0元。', '根据预算绩效管理要求，本部门组织对2019年度一般公共预算项目支出全面开展绩效自评。其中，一级项目0个，二级项目0个，共涉及资金0元，占一般公共预算项目支出总额的0%。', '各部门至少将1个以上以部门为主体开展的重点项目绩效评价报告或绩效评价综述向社会公开', '2.财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '4.其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '6.项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '7.人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '9.“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '10.机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>291</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>吴忠市年度法治政府建设情况报告</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-07-04</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/fz/201907/t20190704_1585320.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['年度会议，听取法治政府建设情况汇报，研究部署当前和今后一个时期的工作，对法治政府建设提出了要求，指明了方向。市委、市政府下发了《关于落实自治区下达吴忠市', '年度效能目标责任分工的通知》，增大效能目标考核分值，将平安建设、决策落实、法治建设、政务公开等涉及法治政府考核的项目纳入效能目标考核，县（市、区）考核分数', '年吴忠市全面推进依法治市工作实施方案》从推进科学立法、民主立法，依法执政、依法行政等', '项工作任务。其中，涉及严格政府规章和规范性文件管理制度、全面推行行政执法“三项制度”、深入开展法治政府示范创建活动等重点工作', '年法治政府建设提供行动指南和工作遵循，各牵头单位印发实施方案，各项工作任务有效推进。', '”模式开展市级法治政府建设示范创建活动。创建单位以市政府申报创建自治区级示范单位的', '个市政府部门（直属事业单位）。各示范创建单位明确任务，积极创建，充分利用各种媒体大力宣传创建过程中好经验、好做法，发挥示范引领作用，实现点、面结合，整体推进法治政府建设。', '项，并在“自治区权责清单公示平台”向社会统一公示。开展权责清单调整督查，督促有关部门加强事中事后监管措施，有效的促进了改革措施落地见效。', '项行政许可事项，并向社会公示。按照“谁主管、谁监管”的原则，制定完善事中事后监管措施，确保工作衔接有序。取消市住建局、国土局等', '项行政审批中介服务和证明材料，并通过印发文件、办理窗口和“一网两微”等形式向行政相对人公示，进一步降低了制度性交易成本。加强工业园区整合，将吴忠市太阳山移民开发区、红寺堡工业园区、金积工业园区、利通区毛纺织产业园、青铜峡新材料产业基地、青铜峡市嘉宝轻纺工业园', '家工业园区职能整合优化，更好地聚合各类资源，加快园区转型升级和创新发展。推进经济发达镇行政管理体制改革试点，将利通区部分行政审批、行政给付类行政职权下放至金积镇，进一步激发经济发达镇发展内生动力。开展证照清理工作，共取消证照事项', '研发并上线运行“掌上政务”微信平台，推行前置材料网上预审，办事预约取号、办件质量网上评议，实现“网上办”。在政务大厅设置', '小时不下班”服务大厅服务区，与中国邮政合作设立速递服务专区，收取申请材料，送达审批结果，实现大厅服务“不见面”。在太阳山镇和下马关镇建设', '个跨层级、跨行政区域的政务服务中心，实现民生事项就近能办，落实“最后一公里”服务。推进“一网通办”，按照全区政务服务要求对全市', '在全区率先推行个体工商户简易登记、豁免登记改革，实行“口头申报、当场领照”的免填单登记新模式。实行企业登记“审核合窗通办”模式，办事效率提速', '着眼推动经济高质量发展全局、培育形成竞争新优势，出台《吴忠市优化营商环境措施》，从行政审批流程优化、市场主体监管、降低企业税费负担、解决企业', '的“六优”营商环境目标，及时召开新闻发布会，从广度和深度上，不断增强企业和社会对优化营商环境的获得感、满意度。', '落实《吴忠市党政领导干部生态环境损害责任追究实施办法（试行）》，将损害生态环境行为列入领导干部“负面清单”，对市委市政府主要领导任期自然资源资产管理和生态环境保护责任履行情况进行审计，强化党政领导干部对生态环境和自然资源保护责任。落实《吴忠市环境保护全面量化管理体系》、《吴忠市建设项目环评审批验收改革方案》、《吴忠市企业环保信用及信用管理制度》等制度，全面深入开展问题排查，提升环境保护管理效能。对环保行政许可、行政处罚和企业环保信用评价信息进行归集，纳入全市信用信息共享平台。', '落实《吴忠市党政领导干部生态环境损害责任追究实施办法（试行）》，将损害生态环境行为列入领导干部', '项守信联合激励措施；市道路运输管理局制定道路运输行业安全生产“黑名单”制度；市场监管局通过国家企业信用信息公示系统向社会公布严重违法失信企业名单。全市从加强信用信息管理、联合奖惩等重点环节入手，全面推进全市社会信用体系建设。', '开展重点领域立法，市政府成立吴忠市城乡环境立法起草工作领导小组和立法专家顾问组，坚持问题导向，深入调研、多地考察学习，征求意见，制定出台《吴忠市城乡容貌和环境卫生治理条例》，经自治区人大常委会批准，于', '规范全市行政规范性文件制定，印发《进一步加强行政规范性文件制定和监督管理工作的通知》，把规范性文件的起草、审核、论证、审议、备案、清理等工作环节和行政规范性文件“三统一”工作全面纳入制度管理范围，从制定到清理的各个环节，全流程加强全市行政规范性文件的管理。严格落实规范性文件三统一制度和有效期制度，在吴忠市“', '规范全市行政规范性文件制定，印发《进一步加强行政规范性文件制定和监督管理工作的通知》，把规范性文件的起草、审核、论证、审议、备案、清理等工作环节和行政规范性文件', '”公文系统设定“吴政规发”和“吴政办规发”在发文中对规范性文件进行统一登记、统一编号、统一印发。', '件，按要求及时向自治区人民政府和市人大常委会进行备案，同时加大对各县（市、区）及各部门报备的规范性文件的审查力度，对报备的', '件规范性文件，制作《规范性文件备案审查处理单》，逐一进行审查，确保规范性文件无违反上位法的情形。将市政府', '件规范性文件汇编成册，发送至全市各部门（单位），方便群众知悉、提升政府工作的透明度。', '年，开展了涉及著名商标制度、排除限制竞争、产权保护的规范性文件三次专项清理工作。经对我市现行有效的规范性文件梳理，对涉及产权保护制度的', '件的建议，提出对《吴忠市注册商标专用权质押贷款施行细则》涉及著名商标制度的相关内容删除的建议，再次确认我市没有排除、限制竞争的规范性文件，与上位法和上级政策相一致。', '为持续推进“放管服”改革，推进简政便民，优化服务，印发《关于做好证明事项清理工作的通知》，集中对政府部门及事业单位在行使职权过程中要求办事群众或企业提供的证明材料进行清理，以', '的原则，提出对没有法律、法规规定的证明事项一律取消等“六个一律”工作要求。在完成自治区证明事项清理工作的基础上，启动编制吴忠市本级证明事项清单，按照部门梳理、依法清理、法制审核、主动公开、事后监督等环节依次开展，划分出依申请行政职权事项和政务服务事项，按照同一类别同一标准清理，再次梳理。举办培训班，针对部分单位对梳理原则、标准理解不到位、把握不精准的问题进行专项培训。抽调专人集中审核，拟定保留和取消证明事项清单，经市政府审定后，统一向社会公布，并对清单进行动态管理，达到“清单”之外无证明。目前，盐池县完成证明事项清单编制工作，将暂保留', '拟将市政府编制国民经济和社会发展总体规划、安排重大资金、决定重大投资和建设项目、制定重大公共政策和措施等方面的重大行政决策', '项工作编制《吴忠市人民政府重大行政决策事项目录》，拟将涉及行政事业性收费标准，编制修改土地利用总体规划及医疗、教育、公共交通、社会保障、住房保障等方面应当听证的重大行政决策', '督促责任单位对重大决策事项严格按照公众参与、专家论证、风险评估、合法性审查和集体讨论决定的法定程序进行。', '年，重点对吴忠市国民经济和社会发展第十三个五年规划中期评估、吴忠市工业园区整合优化实施方案、关于促进会展业发展的政策措施以及划定烟花爆竹禁放区等重大决策事项进行督促指导，决策质量进一步提高，决策风险进一步降低。', '项目投资协议》、《市残疾人康复中心实施委托运营方案》、《市人民政府·财产保险股份有限公司宁夏分公司“政融保”合作协议》、《市人民政府·国网宁夏电力有限公司加快生态美丽吴忠战略框架协议》等', '个村通过政府购买服务的方式聘请了法律顾问，农村民主管理，依法管理的水平进一步提高。', '月，根据自治区批复，市委、市政府印发《吴忠市开展市辖区综合执法改革试点方案》，利通区、红寺堡区综合执法局机构、人员、职能整合到位，全面履行环保、农牧、住建、国土、水务等相关执法职责，两区综合执法局成立以来共查处违法违规行为', '，执法力量下沉基层，初步建立统筹城乡、市区一体、三级贯通、全域覆盖的综合行政执法体制，有效解决基层执法力量不足、重复执法、交叉执法、管理真空等问题。', '重大执法决定法制审核制度实施方案》，搭建公示平台，在吴忠市人民政府网建立“行政执法公示”专栏，', '个行政执法部门将执法事项、主体资格、执法人员资格、随机抽查事项等清单和行政执法程序流程图、服务指南等', '项信息在吴忠政府网站进行公示，制定了执法环节记录的内容、方式、载体标准，编制了音像记录事项清单，重大执法决定法制审核目录清单、要素清单和审核流程图。公安局、规划局等单位配备执法记录仪，从立案、调查、取证、决定、送达等全过程进行文字、图像记录，交通局运用内河航道监控管理系统，提高行政执法监管水平。市场监管局、环保局建立行政处罚案件审理委员会制度，加强内部执法监督，有效规范行政执法行为。截至', '全面建立“一单、两库、一细则”工作机制，在协同监管平台中健全执法检查人员名录库、检查对象名录库、抽查计划任务库、抽查事项清单库。', '重点对食品、药品、医疗器械、特种设备生产、经营、使用行为及企业信用信息年报等事项实施随机抽查，共抽取市场主体', '家，抽查结果全部予以公示。严格落实“经营异常名录”“失信企业名单”等管理制度，对未按时进行年报公示，抽查“失联”、资产状况信息公示“弄虚作假”的企业移入“异常名录”，在全国企业信用公示系统进行公示。', '为了加强行政执法监督，将重大行政处罚、行政复议行政应诉案件备案和执法事项流程纳入执法监督范围，构建常态化监督机制。起草《吴忠市重大行政处罚案件备案暂行办法》《吴忠市行政复议行政应诉案件备案暂行办法》，规定了报送备案案件标准、备案程序和时限、监督方式、责任追究等内容。制作行政许可、行政处罚等', '项行政执法事项流程图，规范行政执法流程，现已经征求各部门意见，待修订完善后印发执行。', '草拟《吴忠市行政执法机关关于涉嫌犯罪案件的移送办法》，对行政执法与刑事司法“跨界”衔接的程序和规则进行优化和调整，构建更加通畅的“两法衔接”体系。', '年度市本级预算执行和其他财政收支审计发现问题的整改落实工作进行联合督查，截止目前，要求整改的', '准确界定复议受案范围，引导非行政复议案件走入正常渠道，针对青铜峡库区退耕还湿一案，涉及历史遗留问题，时间跨度大、人数多，多次与青铜峡市政府沟通，并向自治区政府请示，界定该案为信访事项，向申请人释明按照信访渠道解决问题，妥善审理本案。发挥行政复议的监督纠错功能，针对执法机关普遍存在重实体、轻程序的倾向，在复议中做到实体与程序并重，强调程序的重要性，对于市环保局在行政处罚决定中存在的程序错误予以撤销。在复议中充分运用调解方式，将复议审理与矛盾化解同步进行，对于市规划局的违建拆除决定，多次查看现场，组织相关单位与人员对存在的行政纠纷进行调解，申请人主动撤回复议申请，最终化解矛盾纠纷。', '认真履行诉讼义务，在法定期限内提交答辩材料。组织行政执法单位参与典型行政诉讼案件旁听庭审，落实《吴忠市行政机关负责人出庭应诉暂行办法》，将行政负责人出庭应诉工作纳入法治政府建设考核，督促行政机关负责人积极出庭应诉。', '举办《学习习近平法治思想，推动宪法实施》《弘扬宪法精神，维护宪法权威》《领导干部法治能力提升专题报告会》等专题讲座，', '多名领导干部参加学习，提高领导干部依法决策、依法管理、依法办事的能力；定期开展行政执法人员轮训，举办《新招录公务员初任培训》、《全市审计人员培训》等专题培训', '一周一法”系列法治宣传常态化。在全区率先实现县级法治文化广场全覆盖，建立了乡镇法治文化基地，实现了县有广场、乡有阵地、村有专栏的“三有”目标。在《吴忠日报》《宁夏法治报》开设“以案释法”', '年，通过宁夏政府法制网、吴忠政府门户网、吴忠日报、吴忠新闻网等信息交流平台，共发布法治政府建设工作信息', '月份，召开“七五”普法中期迎检工作动员会，统一思想，统一行动，认真部署迎检工作，自治区七五普法督导组对我市“七五”普法工作取得的成效给予了充分肯定。', '虽然我市法治政府建设工作取得了一定成绩，但仍然存在一些不足，主要表现在：一是认识还不到位，个别地方和部门对推进依法行政、建设法治政府的重要性认识不足，依法行政理念不强，工作推动机制不够完善；二是工作进展不平衡，个别行政执法机关还存在执法责任还不够明确、执法行为不够规范、执法责任落实不到位等现象；三是保障还不够强，县（市、区）级政府和市直部门法制机构人员配备和工作保障与新形势下法治政府建设工作需求还有差距等。下一步，我们将重点做好以下几个方面的工作：', '出台落实《党政主要负责人履行推进法治建设第一责任人职责规定》具体举措，督促各级党委、政府切实发挥推进法治建设第一责任人作用。结合本轮机构改革，加强对法治政府建设工作的领导，做到机构改革与调整法治政府建设领导机制衔接有序，将法治建设纳入地区发展总体规划和年度工作计划，与经济社会发展同部署、同推进、同督促、同考核、同奖惩。', '做好《吴忠市重大决策程序规定》的贯彻落实，依照科学、民主的原则，广泛向社会征求意见，对我市的重大行政决策事项目录和听证目录进行动态调整，督促责任单位落实重大决策事项目录和听证目录，完善重大决策后评估机制，定期对各部门的重大决策事项进行监督指导，加强对重大决策事项的跟踪监督，进一步提高决策质量，降低决策风险。', '充分发挥考核工作指挥棒和风向标作用，围绕年度重点工作和重点任务制定考核细则，科学、合理评价各地工作情况，加强对考核结果的运用，充分调动各地各部门推进工作积极性、主动性。做好机构改革后各部门三定方案的合法性审查，对权责清单及时进行动态调整，深入全面推行行政执法“三项”制度，持续开展证明事项清单清理工作，建立证明事项清单的动态调整的长效管理机制，继续加强行政复议应诉工作，', '充分发挥考核工作指挥棒和风向标作用，围绕年度重点工作和重点任务制定考核细则，科学、合理评价各地工作情况，加强对考核结果的运用，充分调动各地各部门推进工作积极性、主动性。做好机构改革后各部门三定方案的合法性审查，对权责清单及时进行动态调整，深入全面推行行政执法', '提高领导干部学法用法能力，落实常务会议学法制度，加强对领导干部任职前法治知识考查和依法行政能力测试，将考查和测试结果作为领导干部任职的重要参考；继续加强对行政执法人员法律法规和职业道德教育，不断提升行政执法人员依法行政的能力和水平，努力形成办事依法、遇事找法、解决问题用法、化解矛盾靠法的良好法治氛围。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>291</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>吴忠市文明行为促进条例解读</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-11-05</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/gsgg/201911/t20191105_1839171.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['吴忠市人大常委会法制工作委员会 开展《吴忠市文明行为促进条例》（以下简称《条例》）立法，由市委宣传部根据全国文明城市创建要求提出，经市委同意。另外，由部分市人大代表提出并经市五届人大四次会议确定为议案，交由市人大法制委办理。根据立法法规定，《条例》经市人大常委会两次审议通过，2019年9月27日由宁夏回族自治区第十二届人民代表大会常务委员会第十五次会议批准，自2019年11月1日起施行。这是我市享有地方立法权后制定的第三部实体法。', '近年来，我市大力培育和践行社会主义核心价值观，深入推进公民道德建设，全市城乡面貌显著改善，公民文明素养明显提升。随着我市全国文明城市创建工作的深化，迫切需要制定文明行为促进方面的地方性法规，发挥引领与推动作用，引导和规范公民文明行为，推进城乡文明建设。', '开展文明行为促进方面的立法具有重要意义：一是将社会主义核心价值观落实到地方立法活动中，用法律权威增强公民培育和践行社会主义核心价值观的自觉性，充分发挥法律的规范、引导、保障、促进作用，形成有利于培育和践行社会主义核心价值观的良好法治环境。二是将实践中已经形成共识的相关道德规范上升为具体法律规定，通过法律规定传播道德规范，发挥法律的规范作用，以法治体现道德理念、强化法律对道德建设的促进作用。三是将文明城市创建相关要求和创建工作中的成功做法以地方性法规形式加以固化，有针对性地界定和规范公民不文明行为，提倡和引导文明行为，提升公民文明素养和社会文明程度，实现文明城市创建常态化、法治化、规范化。', '在制定过程中，市人大法制委与市委宣传部紧密配合，抽调司法、公安等部门人员组成立法起草小组，深入各县（市、区）及相关部门、社区等，采取现场座谈、实地考察、问卷调查、网络征集等方式，广泛征求立法建议、意见，认真研究相关、相邻法律法规、学习借鉴各地立法，结合全国文明城市创建标准，反复论证修改完成。立法过程中，坚持“科学立法、民主立法、依法立法”，特别是在调研、征求意见时，全市上下积极参与，踊跃建言献策，《条例》顺利批准，并获得高度评价，凝结着全市人民的智慧。', '《条例》共四十九条，分为总则、行为规范、保障措施、法律责任和附则五章。第一章总则：规定了立法目的依据、适用范围、概念原则、组织协调等，明确了精神文明建设工作机构、各级政府、社会组织及公民的责任和基本要求；第二章行为规范：从公共礼仪、公共秩序、公共卫生、交通文明、小区文明、网络文明、家庭文明、生态文明及鼓励和倡导等方面界定文明行为和不文明行为，进行正向引导、反向约束；第三章保障措施：规定了各级政府基础建设、财政保障和政务服务的责任，明确了精神文明建设工作机构及有关职能部门的工作责任，建立了相应制度；第四章法律责任：明确执法主体，设定相应处罚；第五章附则：规定施行日期。', '习近平总书记强调“要培育和践行社会主义核心价值观”“把社会主义核心价值观融入社会发展各方面，转化为人们的情感认同和行为习惯”。2018年5月，中共中央印发了《社会主义核心价值观融入法治建设立法修法规划》，《规划》强调，要以习近平新时代中国特色社会主义思想为指导，坚持全面依法治国，坚持社会主义核心价值体系，着力把社会主义核心价值观融入法律法规的立改废释全过程。开展文明行为促进方面的立法，重点之一就是将社会主义核心价值观落实到地方立法活动中，《条例》通篇都体现了社会主义核心价值观的要求，尤其是在公民个人层面的价值准则“爱国、敬业、诚信、友善”方面重点体现，如《条例》第八条“公民应当爱国守法、明礼诚信、团结友善、勤俭自强、敬业奉献，维护民族团结，遵守文明公约和行为规范”，明确将社会主义核心价值观的内容写入法规，作为公民行为规范的基本要求，并针对我市作为民族地区，旗帜鲜明提出公民应当“维护民族团结”的特别要求。《条例》第二章行为规范中遵守公共礼仪、公共秩序、爱护环境、爱护公物、文明交通、孝老爱亲、见义勇为等内容都充分体现社会主义核心价值观的要求，用法律权威增强公民培育和践行社会主义核心价值观的自觉性，充分发挥法律的规范、引导、保障、促进作用，形成有利于培育和践行社会主义核心价值观的良好法治环境。', '《条例》第二章行为规范，是《条例》核心和重点，从不同层面界定文明行为和不文明行为，进行正向引导、反向约束。在公共秩序方面，针对噪音扰民问题、损坏公物等问题进行规范，特别增加理性就医、尊重医护人员的内容；在环境卫生方面，针对宠物扰民、禁烟控烟、城市养鸽、垃圾分类等问题都有规定；在交通文明方面，《条例》分三条对机动车、非机动车、行人进行规范，对争道抢行、闯红灯、车辆乱停乱放、行人横穿马路等社会关注的不文明现象进行了规范；创新性建立了城乡居民小区文明行为规范；细化了网络文明、家庭文明、生态文明的内容，拓展了鼓励和倡导的文明行为，在11个方面作出了引导性的规定。', '交通文明是各界关注的热点之一，也是体现社会文明的“晴雨表”。随着经济社会发展，我市机动车发展迅速，但交通文明与群众的希望还有差距，争道抢行、闯红灯、车辆乱停乱放、行人横穿马路等不文明现象仍有发生。在交通秩序管理方面，国家道路交通安全法和自治区道路交通安全条例规定的比较全面，我市《条例》侧重于文明行为和问题导向，在必要重复的基础上，作了一些补充和延伸：一是在所占篇幅方面，第二章行为规范共12条，关于交通文明方面用了3条，分量较重；二是强化了车辆礼让行人和禁止闯红灯的内容；三是加强了对非机动车如电动自行车、代步车等车辆的管理；四是加强了对交通陋习的规范；五是加强出租车的管理和违法处罚力度，打靓“城市名片”。', '《条例》第三章从政府管理角度，规定了各级政府在基础建设、财政保障和政务服务等方面的责任，明确了精神文明建设工作机构及有关职能部门的工作责任。', '在政府相关职能部门职责方面，有重点的进行了强化：一是强化了公安机关在道路交通安全方面的管理职责；二是强化了交通运输管理部门对公交车、出租车等运营单位和从业人员的监督管理职责；三是强化了教育行政管理部门和教育机构在校园建设、培养学生养成文明行为习惯方面的职责；四是强化了民政部门加强志愿服务指导和支持的职责；五是强化了民政部门、公安机关加强对流浪乞讨人员的管理职责；六是强化了住房和城乡建设部门强化对物业服务企业的管理职责。另外还强化了互联网信息管理部门在维护网络安全，净化网络环境的职责；强化了精神文明建设工作机构的相应职责，主要是建立公民文明公约，组织开展文明城市、文明行业、文明单位、文明村镇、文明校园、文明家庭创建活动和道德模范等评选活动，定期开展文明行为情况调查和评估等。', '《条例》侧重教育、引导，目的在于促进。在处罚方面，有关法律、法规已有处罚规定的，原则上不再重复规定。在罚则方面：', '一是明确了执法主体，规定违反本条例的，由公安机关或者交通运输管理、城市管理、综合执法部门根据职责依法实施，或者由人民政府确定的行政机关依法实施。', '二是针对公共秩序、小区管理等方面的突出问题设定了相应的处罚措施；有重点的对礼让行人、闯红灯、出租车管理等行为从文明创建的角度予以强调；对宠物扰民、禁烟区吸烟等增加设定了相应处罚。如《条例》针对损坏、涂污公共场所设施设备，而又未构成治安管理处罚的，第四十条规定“责令停止违法行为，可以处五百元以下罚款。”第四十一条规定“在禁止吸烟区域吸烟、携带犬只外出未拴束牵领或者未清理犬只粪便的，责令改正，拒不改正的，处五十元罚款。”这在我市都是首次，这里需要说明的是养犬、吸烟或者小区种菜，如果行为不当有可能受到处罚。', '三是设置了替代处罚措施，行为人在参与交通活动时未礼让行人或者闯红灯，应当给予行政罚款处罚的，可以由公安交管部门决定进行相应社会服务，完成相应社会服务的，可以依法从轻、减轻或者不予处罚。这是法治实践的探索。', '全国各地在文明行为促进方面的立法较多，内容、形式、表述方式大同小异，但体例、结构、侧重各有特点。《条例》结合吴忠实际，主要有以下特点：', '（一）立足公民行为，界定文明行为。分版块予以规范，引导与约束相补充，规范与倡导相结合，层次清晰，一目了然，便于识读、操作。', '（二）坚持问题导向，解决实际问题。突出公共秩序、交通秩序、环境卫生和小区管理等重点，聚焦乱扔垃圾、宠物扰民、小区乱象及飞线充电等热点，强化政府在停车场建设、物业管理、乞讨治理、校园环境、志愿服务及社会信用等方面的责任。', '（三）把握政策精神，体现最新要求。坚持社会主义核心价值观入法入规，拓展了生态文明、网络文明、家庭文明、生活文明等方面的内容，并融入理性就医、爱国卫生、全民健身、全民阅读等要求。', '（四）结合实际，统筹兼顾。以发展眼光和底线思维，平衡城乡、山川存在的共性问题，文明创建定目标指路径，文明立法兜底线做保障，尽可能寻找最大公约数，城市、川区引领，覆盖乡村、山区，统筹促进文明建设。', '（五）合理借鉴，发展创新。虽然从西北五省非省府城市看，我市文明行为立法比较超前，但从全国看又有后发优势。《条例》在综合吸纳各地的研究成果和先进理念基础上，在小区文明、生态文明、家庭文明及替代处罚措施等方面都有创新性探索。', '良法善治，法贵在行。正如著名法学家钱端升所言：“如果有法而不能实行，不被人遵守，则离法治更远，不如无法”。市委书记、市人大常委会主任沈左权在市五届人大常委会第十九次会议第一次审议《条例》时指出：文明是一座城市进步的标志，也是城市发展的灵魂。《条例》充分考虑吴忠发展的现实需要，把一些基本道德规范转化为法律规范，把实践中行之有效的政策制度上升为地方性法规，对于培育和践行社会主义核心价值观、巩固和提升公民文明素质和社会文明程度，助推全国文明城市创建，优化发展环境都具有重要意义。《条例》于11月1日颁布生效，在全市上下深入创建全国文明城市关键时期，文明促进，行在当时：', '一是加强宣传。要通过多种途径和渠道广泛、深入宣传《条例》，使社会各界在知晓前提下得以遵守，提高全社会文明自觉和文明氛围。', '二是注重效果。在教育、引导的同时，要强化《条例》适用和罚则运用，通过典型案例，处罚一人教育一片，扩大执法效果。新闻媒体要按照《条例》规定，切实加强文明行为和文明行为促进工作的宣传引导和舆论监督，助推《条例》实施。', '三是不断完善。有关部门和执法机关要在实践中不断总结经验，探索创新，为今后依法修订《条例》提供依据，特别是一些理论上尚未明确尚未纳入的问题、目前尚有争议尚未形成共识的问题以及执法条件和背景发生变化的问题等，还需实践检验。市人大常委会将适时开展立法评估和执法检查等活动，保障《条例》及时、有效、正确、全面实施，实现立法目的。', '结束语：文明促进，吴忠在行动。寄希望每一名吴忠人，随着《条例》施行，引领和带动您的家人和身边人，积极行动起来，共同创建我们共同生活的美好家园。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>291</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>吴忠市委宣传部年部门预算</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1279890.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['、负责指导全市理论学习、理论研究、理论宣传和理论交流工作，指导讲师团的工作，协助自治区党委宣传部编制社会科学规划、实施计划；', '、负责新闻舆论导向的宏观管理。协调指导吴忠日报社、吴忠电视台、电台、新闻网、市新闻工作者协会的工作；', '、负责从宏观上指导全市文化工作，联系市文化旅游广电局和市文联；协调指导全市文化体育、旅游、广播电视、文学艺术工作；', '、负责规划、部署市全局性的思想政治工作；会同有关部门研究和改进群众性思想教育工作；领导市思想政治工作研究会；', '、会同有关部门做好全市党的思想建设和党员教育宣传工作，编写党员教育材料，做好典型宣传；', '、受市委委托，会同市委组织部管理市直宣传文化新闻系统科级干部，考察、任命市直宣传文化新闻系统科级干部；', '从预算单位构成看，本单位部门预算属于市本级财政预算单位。吴忠市委讲师团为市委直属市委宣传部管理的副处级参公事业单位，该单位财务、资产全部纳入市委宣传部管理，没有独立财务。', '市委宣传部是市委分管意识形态、宣传思想工作的职能部门，下设市文明办、国防教育办公室、外宣办、吴忠市网信办，分管市委讲师团。', '市委宣传部设办公室、理论和社会宣传科、新闻科、网络舆情管理科、文化艺术与精神文明创建科', '万元项目经费，主要用于市委、市政府中心工作、重大活动、重大政策的社会宣传、新闻宣传、网络宣传，组织开展市委中心组理论学习、全民国防教育、群众性精神文明建设等。通过这些宣传，确保中央、自治区及市委、市政府各项方针政策、中心工作顺利开展，在全市营造良好的舆论氛围，提供强大的精神动力、智力支持和思想保证。', '是指各部门的公用经费，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '二、“三公”经费：是指用财政拨款安排的因公出国（境）费、公务用车购置及运行维护费和公务接待费。（一）因公出国（境）费：反映公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出。（二）公务接待费：反映按规定开支的各类公务接待（含外宾接待）支出。（三）公务用车购置及运行维护费：反映公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费等', '经费：是指用财政拨款安排的因公出国（境）费、公务用车购置及运行维护费和公务接待费。（一）因公出国（境）费：反映公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出。（二）公务接待费：反映按规定开支的各类公务接待（含外宾接待）支出。（三）公务用车购置及运行维护费：反映公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费等', '四、财政专户资金：指行政事业单位按照省物价部门和财政部门批准的收费许可证收取的缴入财政专户的行政事业性收费。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>291</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>吴忠市第一届人民代表大会第三次会议上的报告</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfgzbg/201908/t20190801_1639842.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会作政府工作报告，请予审议，并请市政协各位委员提出意见。', '过去的一年，是建设经济强市的开局之年。在自治区党委、政府和市委的正确的领导下，全市各族人民高举邓小平理论伟大旗帜，认真贯彻落实党的十五届三中、四中全会精神，知难而进，奋力拼搏，真抓实干，开拓创新，全面完成了市一届人大二次确定的各项任务。全市国内生产总值达到78.5亿元，比上年增长9.5%，国民经济实现了预期发展目标，改革开放和社会主义现代化建设取得了新的成就。', '——农村经济全面发展。围绕农民增收、农民增效，积极调整优化产业结构和产品结构，大力发展优势企业和特色农业，农村经济呈现出蓬勃发展的良好态势。粮食生产战胜严重自然灾害获得好收成，总产达到113.3万吨，增长2%；经济作物种植面积发展到114万亩，增加9.6万亩，粮经种植比例达到77：23；畜牧业生产克服了疫情和市场价格下滑带来的严重影响，仍然保持了强劲的发展势头。肉类总产9.56万吨，增长21.6%；鲜蛋总产14.7万吨，增长13.2%，养殖业产值站农业总产值的比重达到42%。特色农业蓬勃兴起，优质米、枸杞、红枣、药材等特色农产品基地达到51万亩，特种种植、特种养殖得到较快发展，品种达200多个。产业化经营稳步推进，一批农副产品加工企业和批发市场得到改造提高，茂源浓缩果汁厂、灵武精米加工厂等龙头企业建成投产。林草建设取得新进展，完成人工造林28.2万亩，封山育林11万亩，其中飞播造林9.5万亩，林网植树573.6万株，草原围栏15万亩。全市农业总产值达37亿元，增长4％。小康建设整体水平提高，灌区基本实现小康目标。扶贫攻坚继续推进，盐同两县认真组织实施了“温饱工程”、“生命工程”和“交通通信扶贫工程”，山区群众的生产生活条件进一步改善。', '——工业经济效益稳步回升。坚持以产权制度改革为重点，着力培育优势骨干企业，推进企业技术进步。美利纸业三期等16个重点技改新上项目进展顺利，吴忠塑编厂等7户企业脱困方案正在加紧落实，大部分骨干企业效益稳步提高。部分骨干企业效益稳步提高。725户企业完成改制任务，改制面达到93％。全市地方工业完成总产值47.3亿元，增加值12.5亿元，实现利税1.4亿元，分别增长13％、13.6％和33％，整体实现扭亏为盈。', '——基础设施建设力度加大。完成全社会固定资产投资42亿元，增长20％，是我市历年来投资力度最大的一年。全市新建续建的重点项目88项，总投资30.8亿元，其中城市基础设施项目33项，投资9.6亿元；地方道路交通项目28项，投资6.4亿元；工业项目27项，投资14．8亿元。市区安排建设项目32项，总投资8.5亿元。除个别项目外，其余全部开工建设，有的已竣工交付使用。各县(市、区)也新建了一批供水供暖等基础设施，扩建改造了部分城镇道路，开发建设了一批住宅小区，全市新建续建住宅62万平方米。市区街道改造、灵武环城一级路、青铜峡城市改造、中卫东大街拓宽和车站广场扩建、城市绿化美化等形象工程建设有了新的突破，城镇面貌进一步改观。灌区加大农房、农路建设力度，14个千户农宅示范工程启动实施，新建翻建农房2.4万户，新修水泥柏油路1100公里，89％的行政村通水泥柏油路。', '——对外开放取得新成果。组织参加了99香港(宁夏)、第三届厦门等10个投资贸易洽谈会，成功举办了吴忠市第二届(青铜峡)商交会，联系外商和东部地区企业家到我市洽谈合作，共签订引资合作项目69项，目前已有一半启动实施，其中有11项建成投产。全市外贸出口商品供货值4.6亿元，自营出口企业创汇2300万美元，外贸企业出口创汇1710万美元。', '——财政收入平稳增长，城乡居民生活质量和水平有所提高。全市地方财政收入完成4.01亿元，按可比口径计算增长10.8%。地方财政支出8.37亿元，增长12.9%。年末金融机构各项存款余额86亿元，增长11.2%；各项贷款余额94亿元，增长9.3%；现金净投放18.6亿元，增长21.6%。社会消费品零售总额达到23亿元，增长5%。集市贸易成交额达到13.5亿元，增长8.1%。城镇居民可支配收入4200元，增长8%。农民人均纯收入2127元，增长3.2%。全面贯彻中央12号文件，落实调整收入分配政策，增加城镇低收入阶层工资待遇的政策基本到位。社会保障制度改革有序推进，三条社会保障线基本确立，下岗职工基本生活费和企业离退休人员养老金按照新的标准，做到了及时足额发放。多渠道分流安置下岗职工，在就业率达到37.8%。', '——科技、教育事业迈出新步伐。技术创新、新产品开发取得新的进展，美利脱墨文化纸、法福来面粉、西夏贡米、香山酒、夏进乳品、国雄饲料、古峡绒衫等一批新产品已稳定地占领市场。农业科技进步成效显著，立体复合种植、地膜种植、水稻旱育种植、高效节水灌溉、工厂化育苗、设施种养、高效饲料添加剂、畜禽杂交改良、枸杞扦插等一批农业新技术得到推广和应用。全市麦套玉米吨粮田面积占到75%，水稻旱育稀植面积占到79.2%，建设优质大米基地25万亩，发挥节能日光温室、大棚5000亩，引进各类新品种120多个。继利通区建成吨粮区、灵武市建成水稻旱育稀植示范市后，去年灵武、青铜峡两市实现麦套玉米吨粮市，中宁县、利通区基本实现水稻旱育稀植达标。科技进步对经济增长的贡献率进一步提高。教育体制改革积极推进，各级给类教育全面发展。在灌区五县(市、区)全部实现“两基”目标的基础上，盐同两县“两基”共建全面展开，国家贫困地区义务教育工程进展顺利，办学条件和教师住房进一步改善。职业教育、成人教育积极适应经济和社会发展的需要，办学规模进一步扩大。素质教育开始启动，教育对经济发展的智力支撑作用有所增强。计划生育工作取得新成绩。全市人口自然增长率11.12‰，计划生育率94%，全面完成了自治区下达的指标任务。', '——精神文明建设得到加强。广泛深入地开展邓小平理论学习和机关思想作风教育整顿，干部群众的思想观念进一步更新，精神面貌有了新变化。按照区、市党委的统一部署，政府领导班子、领导干部和大部分政府部门处级领导班子、领导干部开展了“三讲”教育，使领导干部在党性党风方面经受了一次严格的锻炼，政治上有明显进步，作风上有明显转变，贯彻执行党的路线方针政策的自觉性进一步增强。围绕国庆50周年、宁夏解放50周年和澳门回归，开展了一系列群众性精砷文明创建活动，涌现了“铁党员”金占林等先进人物，又有一批单位进入自治区和市级文明单位行列。文化、体育、卫生、广播电视等社会事业不断繁荣和发展，举办了首届小康乡镇文艺调演、社火节等群众性文化体育活动，在第十届自治区运动会和第六届全国民运会上取得较好成绩。认真贯彻党的民族宗教政策，大力推进民族团结进步事业。平等、团结、互助的社会主义新型民族关系得到巩固和发展。积极开展“双拥”和“军民共建”活动，青铜峡再次、中卫首次获得全国“双拥模范县(市)”的称号，利通区、盐池县、中宁县获得自治区“双拥模范县(区)”称号，进一步密切了军政、军民关系。', '——民主法制建设全面推进。认真执行人民代表大会及其常委会的决议和决定，自觉接受人大监督，密切了与人民政协、各民主党派和人民团体的联系。办理人大代表议案、建议、意见48件，政协委员提案114件。依法治市进展顺利，基层民主制度建设取得新的进展，村务公开，厂务公开，政务公开工作向前推进了一大步。市政府建立了市长接待日，开设了市长专线电话，认真处理群众来信来访，化解了矛盾，促进了工作，受到了社会各界的好评。认真落实中央、自治区廉政建设的有关规定，全面开展了处级以上领导干部住房清理、财政欠款清收和农民负担、企业负担、土地、环保、矿产资源管理执法监督检查，纠正和查处了一批违法违纪案件。开展了揭批“法轮功”的斗争，摧毁了“法轮功”邪教组织体系。社会治安综合治理工作进一步加强，深入开展“三五”普法教育，农村社会治安集中整治、追逃、同心禁毒等专项斗争取得了阶段性成果，一大批刑事和经济案件相继告破，有效地维护了社会治安秩序，为全市改革开放和经济发展创造了良好的氛围。', '各位代表，过去的一年，是我们顺利实现撤地设市平稳过渡并取得重大胜利的一年。这些成绩的取得，是全市各族人民开拓进取、团结奋斗的结果。在此，我代表市人民政府向工作在各条战线上的广大工人、农民、知识分子和干部，向对政府工作给予关心和支持的人大代表、政协委员，向各民主党派、人民团体和社会各界人士，向驻吴部队、武警官兵和公安干警，致以崇高的敬意和衷心的感谢。', '在总结成绩的同时，我们也清醒地看到，我市经济社会发展中还存在不少困难和问题。主要是：经济结构、产业结构、产品结构不适应市场需求的矛盾更加突出，战略性结构调整与重组难度较大；农业产业化层次低，农民收入增长缓慢，消费需求启动不足；山区群众稳定解决温饱的程度不高，生态环境保护和建设的任务繁重。工业经济运行的质量和效益还不高，企业解困任务比较艰巨，城镇就业压力增大；财政形势依然严峻，宏观调控能力较弱，吃饭与建设的矛盾突出；经济发展的外部环境还不够宽松，某些政策落实还不够到位；科技教育对经济增长的推动作用尚未充分发挥出来，技术创新体系建设亟待加强；市辖区体制需要进一步理顺；一些行业不正之风的整改力度还不够，反腐倡廉仍需作出艰苦的努力。这些问题有的是长期积累下来的，有的是近年来出现的，需要我们采取更加积极有效的措施．认真加以解决。', '2000年是全面完成“九五”计划的最后一年，也是西部大开发的起步之年。实施西部大开发，是国家进一步调整优化区域经济结构、加快西部发展的重大举措。今年国家和自治区在我市安排的重点建设项目，总投资达30多亿元，还可争取到更多的基础设施、生态环境、产业结构调整等建设项目和资金。这些项目的实施，将对拉动全市经济社会发展，实现建设经济强市的宏伟目标具有重要作用。我们将紧紧团结全市各族人民，艰苦奋斗，开拓进取，在西部大开发中抢夺主动权，走在全区的前列。今年经济工作的指导思想是：高举邓小平理论伟大旗帜，认真贯彻落实党的十五大、十五届三中、四中全会和中央、自治区经济工作会议精神，以西部大开发总揽经济工作全局，以改革开放和科技创新为动力．以结构调整为主要着力点，以提高经济效益和人民生活水平为中心，进一步巩固提高农业，突出抓好工业，大力发展第三产业，加强基础设施建设和生态环境建设．着力发展优势特色产业和产品，积极开拓市场，创造经济竞争新优势，推动大开发，促进大发展。主要目标任务是：国内生产总值达到88亿元，增长9.5％，其中第一产业增长3％，第二产业增长12％，第三产业增长10％。全社会固定资产投资达到48亿元，增长15％。地方财政收入达到4.04亿元，按可比口径计算增长9.1％。城镇居民可支配收入达到4500元，增长7.1％；农民人均纯收入达到2280元，增长7％，城镇登记失业率控制在4％以内。', '高举邓小平理论伟大旗帜，认真贯彻落实党的十五大、十五届三中、四中全会和中央、自治区经济工作会议精神，以西部大开发总揽经济工作全局，以改革开放和科技创新为动力．以结构调整为主要着力点，以提高经济效益和人民生活水平为中心，进一步巩固提高农业，突出抓好工业，大力发展第三产业，加强基础设施建设和生态环境建设．着力发展优势特色产业和产品，积极开拓市场，创造经济竞争新优势，推动大开发，促进大发展。', '把增加农民收入作为牵动国民经济全局的大事，作为农村工作的重中之重，围绕市场需求和增收致富，积极推进农业和农村经济的战略性调整，优化种植业，突破养殖业，提高加工业，拓展流通业，大力发展优势产业，开发培植新兴产业，壮大提高特色产业，促进农业和农村经济的稳定发展。', '全面实施“强村富民”工程。把强村富民工程作为推动农村经济发展、加速小康建设、增加农民收入的关键措施．认真研究，调查摸底，分类排队，全面规划，抓紧实施。坚持实施强村富民工程与调整产业结构相结合，因地制宜地确立主导产业和发展项目，依靠项目带动，组织农业生产和农业建设，推动农业向高层次发展。抽调干部到村人户，帮助农户制订发展规划，宜粮则粮，宜果则果，宜菜则菜，宜牧则牧．实行规划到户、项目到户、措施到户、扶持到户、科技到户，做到家家有致富的项目，户户有挣钱的路子，村村有主导产业，把强村富民的基础夯实，促进全市经济发展。', '调整优化种植业。在提高单产、优化品质、稳定粮食生产的同时，瞄准市场种地，盯住餐桌调整，努力扩大经济作物，大力发展特色农业、设施农业、生态农业、观光农业，提高优质高效农产品的比重。市财政安排50万元资金，扶持特色农业发展，促进产业升级。全市粮经比例调整到7：3，瓜菜、经果林、油料种植面积分别达到27万亩、40万亩和72万亩，其中反季节的日光温棚发展到1.75万亩，通过种植业结构调整，形成特色明显、多元高效的生产体系。', '突出发展养殖业。坚定不移地把养殖业作为调整农业结构、增加农民收入的突破口，大力发展牛羊，稳步发展猪鸡，积极发展特种养殖，实现养殖业的新飞跃。特别要大养牛羊，走山区繁殖、川区育肥、市场营销、增加收入的路子。立足千家万户，重点抓好一批规模栈羊、牛场和群体大规模连片示范点建设，抓紧落实天洁、大通两个百万只工厂化肉羊育肥养殖项目。继续加强疫病防治，落实关键措施，为养殖业发展创造良好的环境。力争全市肉类总产达到11万吨，增长15％；禽蛋产量达到4.8万吨，增长10％；鲜奶产量达到17万吨，增长15.6％，使养殖业在农业总产值中的比重达到45%。', '扶持发展农副产品加工龙头企业。充分发挥农字号龙头企业在农业结构调整中的主导作用，多极开发，延伸产业链，增加农产品的附加值。围绕农业办工业，办好工业促农业，立足农产品的精加工、深加工，实行以工兴农，以工补农，农工结合，加工增值，让农民从第一产生中挣钱，在二、三产业中受益。重点抓好利通区4500吨肉联厂、3万吨玉米淀粉，中卫板鸡生产线扩建，中宁兴泰实业有限公司万头生猪加工，天洁、大通集团公司羊肉屠宰加工和同心、灵武绒毛皮革加工项目的建设。同时，积极考察论证，着力在药材、红枣、小杂粮、肉食品等领域创办新的龙头企业。通过各种措施，培育壮大粮油、饲料、造纸、乳制品、肉制品、绒毛、果品、枸杞、红枣、蔬菜等十大农产品加工、贮藏、运销体系，努力实现农产品转化增值。', '今年是实现国有企业三年改革与脱困目标的最后一年，随着西部大开发战略的实施和国家加入世贸组织，工业经济必将迎接世界范围内经济结构重组和产业升级的挑战。我们将围绕调整所有制结构、产业结构、产品结构、企业组织结构，坚持整体推进、分类指导的原则，积极推进工业结构的战略性调整。', '继续加大企业产权制度改革力度。坚持以股份制、股份合作制为主要形式，鼓励企业经营者和管理者持大股，进行产权改革，力争企业产权制度改革面达到90％以上。积极推进企业资本结构优化重组，通过兼并扩张和实施破产，争取灵武特种水泥厂、中卫铁厂、灵武毛纺厂、吴忠塑编厂享受国家核销呆坏账准备金鼓励政策；结合国有银行集中处理不良资产改革，争取赢继集团、金玉淀粉厂、中卫新型建材厂实行债转股，解决企业负债过高的问题。对整体难搞活，但部分产品有市场，部分资产可利用的企业．实施分立重组，分块搞活。继续做好赢海集团、吴忠造纸厂等企业股票上市的前期工作。认真总结中小企业改革的成功经验，及时发现并解决一些带倾向性的问题，把“放小”与“扶小”、“抓大”与“扶优”结合起来，促进中小企业健康发展。', '继续强化企业经营管理。结合建立现代企业制度，建立规范的法人治理结构，健全决策、执行和监督体系，尽快形成企业优胜劣汰的新机制。把建立现代企业制度同强化内部管理结合起来，建立健全激励约束机制，完善民主监督制度。继续推广“邯钢”“亚星”经验，广泛采用现代管理方法和手段，推行物资采购比价管理、成本核算管理、末位淘汰制等先进经验，加强现代信息技术在企业管理中的应用，实现管理制度的全面创新。', '加快社会保障体系建设。依法扩大社会养老、失业保险覆盖面，启动医疗保险制度改革，社会保险费收缴率力争达到90%，清欠率达到50%，逐步推进社会保障的社会化管理。继续完善三条保障线制度，实行企业、社会、政府各方负担的办法，落实社会保障资金，确保下岗职工的基本生活费、离退休人员养老费按时足额发放。实施好下岗职工再就业工程，确保下岗职工当年再就业率达到50%，保障社会稳定，促进企业改革。', '抓住西部大开发和国家加大基础设施建设投入的历史机遇，千方百计争取国债转贷、专项投资，吸纳社会资金，加大投入力度，加快城乡基础设施建设，改善经济发展环境，拉动经济增长。', '加快以吴忠市区为重点的城市基础设施建设。按照“统筹兼顾，科学规划，合理布局，分步实施”的原则，高标准、高起点、高质量抓好重点项目建设。继续抓好城市集污及污水处理、集中供热二期工程、垃圾无害化处理、市区电网改造、危房改造、电信大楼等10个续建项目建设，开工建设市区道路、利通街整修、住宅小区、西交会展场、税务大楼、东方商厦、星级宾馆、城市绿化、垃圾中转站等10多个项目。各县(市、区)继续加快县城基础设施建设，着重围绕绿化、亮化、美化和城市上下水、集中供暖、街道改造进行建设，增强县城功能。加强城市管理，开展城市管理年活动，力求使城市面貌每年都有一个新的改观。', '加快主干道路建设。进一步完善全市公里网络建设总体规划，争取建设一批项目。计划修建道路36条，总长472公里。加快灵吴青一级公路灵吴段、吴惠二级公路一期工程建设，力争上半年建成通车。积极创造条件，争取吴惠公路二期工程开工建设。全力以赴搞好服务，积极配合自治区加快古王一级公路、叶盛至中宁高速公路、盐兴二级公路等国家和自治区重点工程建设，构建吴忠四通八达、快捷畅通的交通网络。', '加快小城镇建设。坚持合理布局、科学规划、规模适度、注重实效的原则，运用市场机制，多元集资，走出一条政府引导、民间投资建设小城镇的路子。重点抓好金积、新华桥、峡口、宜和、石空、韦州、惠安堡等10多个集镇建设，在集镇道路、农房改造、电网改造、通信建设等方面取得新的进展，提高城镇化水平。灌区硬化乡、村道路300公里，基本实现村村、校校通硬化路，新建翻建农房2.5万户。在抓好去年14个“千户农宅示范试点”。继续加强农村环境治理，搞好村庄和道路绿化，提高农民群众的生活质量，从整体上推进农村城市化进程。', '加快农业基础建设。重点组织实施扶贫扬黄灌溉工程红寺堡灌区开发项目，盐环定开发项目，四期河套农业综合开发项目，黄河、山洪沟险工险段治理工程，中卫“西风口”防沙固沙工程，盐池县城防洪工程，郝家台水库续建工程及苦水河治理等大型工程建设。全市新增灌溉面积18万亩，该造中低产田10万亩。坚持不懈地开展大规模的农田水利基本建设，不断改善生产条件，提高农业的防灾抗灾能力，增强发展后劲。', '坚持把发展非公有制经济作为县域经济的主体，纳入国民经济和社会发展总体规划，积极引导，大力支持，搞好协调服务，使之保持旺盛的发展势头，大幅度地提高其对国民经济的贡献份额。', '进一步落实发展非公有制经济的各项政策。强化政策服务，切实帮助非公有制企业做好项目安排、土地征用、信贷融资、组建企业集团、处理经济纠纷等方面的工作。积极创造条件，加快推行“一厅式”办公、“一条龙”服务，开办经济综合服务大厅，提供政策咨询、集中办证办照等快捷优质服务；认真清理涉及非公有制企业的各类收费项目和标准，制定全市统一收费目录，坚决治理乱检查、乱摊派、乱罚款和“吃拿卡要”。逐步建立涵盖非公有制企业的社会保障体系，在全社会形成关心支持非公有制经济发展的良好氛围。教育个体私营企业依法经营，照章纳税，科学管理，提高经营管理水平。', '加快非公有制经济结构调整。抓住国企改革和经济结构调整的有利时机，引导非公有制经济向农业开发、农业产业化、高新技术产业等方面进军，鼓励发展民营科技企业，采取联办、参股、控股、兼并国有企业等形式，加速非公有制经济的低成本扩张，促进非公有制经济产业升级和结构优化。多规模大、效益好、有发展前景的私营优势骨干企业，进行重点教育。加大非公有制经济的扶持力度。按照“政府引导、多方集资、银行参与、市场用作”的模式，逐步增加非公有制企业贷款担保基金，解决非公有制经济贷款难、担保难、抵押难的问题。市政府将成立非公有制经济发展办公室，继续安排50万元非公有制经济贷款贴息资金，以此吸纳注入更多的资金，促进非公有制经济快速发展。切实抓好18个投资过千万元、61个投资过百万元的新上、技改、扩建项目建设，力争全市非公有制经济总产值达到67.5亿元，利润达到4.8亿元，上缴税金2.16亿元，分别增长26.9%、20.6%和24.9%。', '生态环境建设是实施西部大开发的根本和切入点，是实现经济可持续发展的重要途径。我们将抓住西部大开发这一千载难逢的历史性机遇，以山区种树种草和灌区防护林建设为载体，用全新的思想、有效的措施，切实搞好生态建设，为改善黄河流域生态环境作出应有的贡献。', '制定生态建设规划，明确区域治理重点。坚持因地制宜、宜林则林、宜草则草、退耕种草、养畜增收的原则，制定我市生态建设规划，统筹安排，突出重点，分步实施。山区生态建设的重点是退耕还林还草、小流域治理和土地荒漠化综合治理，用5年时间将25度以上的坡耕地和严重沙化地全部退耕，集中连片种植紫花苜蓿等优质牧草和柠条等优质灌木林，推广草原围栏承包到户的成功经验，加强草原管护，坚决制止滥挖甘草等破坏草原的违法行为。灌区以农田防护林建设为主攻方向，突出二代农田林网、黄河护岸林、绿色通道工程和城镇、村庄绿化。全市完成人工造林28.8万亩，其中二代林网植树1200万株，营造黄河护岸林1.5万亩，封山育林19万亩，飞播造林21.3万亩，围栏草原15万亩。把城镇绿化纳入城镇建设总体规划，以植树为基调，造景与造园相结合，一街一种树，一街一个景，提高城镇绿化水平。', '坚持生态建设与产业开发相结合。对生态建设进行区域性定位，大力培育兼具生态、经济双重效益的区域性主导产业，实现生态效益、社会效益、经济效益的统一。把加强生态环境建设与脱贫致富结合起来，把一家一户植树种草和产业开发、企业介入结合起来，运用市场经济的手段，采用龙头带基地的产业化运作方式，吸引工商企业参与开发具有市场竞争力的畜牧产业、草产业、林产业、药材业，形成龙头、基地、衣户相联合的产业链条，提高生态产业效益，实现农民增收致富。', '认真落实生态建设的政策措施。坚决执行“退耕还林(草)、封山绿化、以粮代赈、个体承包”的政策，强化政府行为，把生态环境建设作为一把手工程，成立生态建设领导机构，全面负责生态建设工程的组织实施，层层落实目标责任制，确保工程按计划、分步骤、保质保量完成。今年将集中精力抓好盐同两县2万亩退耕还林还草试点，为大面积推进退耕还林还草提供经验。正确处理国家投入与依靠政策调动群众投入的关系，将国家提供的粮食、资金补贴、所需苗木和草种及时供应到户，充分调动群众投工投劳的积极性，掀起生态建设的新高潮。', '切实加强环境和资源保护。继续实行主要污染物排放总量控制，严格治理工业污染和城市环境污染，努力完成“一控双达标”任务。加大环境管理和执法力度，严肃查处各种违法排污行为。严格执行环境影响评价和“三同时”制度，坚决控制新污染源的产生。实施资源有偿使用制度，加强对水资源和土地、森林、矿产资源的管理和保护，逐步形成可再生资源占用与开发补偿动态平衡的新机制。全面实施土地用途管制，认真执行土地利用总体规划，切实落实耕地保护措施，严格控制非农业建设占用耕地。严肃查处违法批地用地和破坏森林、矿产资源的违法行为。重视加强气象预测预报和地震综合防御，努力提高防灾减灾能力。', '以盐同两县稳定解决温饱为目标，进一步加大扶贫开发力度，组织各方面的力量坚持不懈抓好扶贫工作，切实做到精力不放松、力量不减弱、措施不弱化、投入不减少，巩固和扩大抚平攻坚成果。', '继续改善山区的基本生产条件。结合国家西部大开发战略的实施，以水、电、路和林草为重点，加快山区基础设施建设，不断改善发展条件和生存环境。着力组织实施“生命工程”，加快打井打窖、人畜饮水工程建设，新建人畜饮水工程6处，打井窖1.65万眼，新增井窖灌溉面积3万亩，认真实施行政村通电、通公路、通电话、通广播电视等基础设施建设，力争年内基本实现行政村通公路，自然村通电，农电入户率达到80%，80%的行政村通电话、通广播电视。', '努力增加山区群众收入。加快扬黄灌区开发建设，增加物质技术投入，提高综合经济效益。调整山区产业结构，重点发展有助于增加农民收入的经济作物、养殖业、农副产品加工业、商贸流通、多种经营。加快培育具有山区特色的区域性支柱产业，增强发展后劲。以贫困村为主战场，以贫困户为对象，坚持行之有效的扶贫措施，汇集备方面的扶贫资金，集中实施家家能干、户户受益的项目，把扶贫计划和措施切实落实到村到户。着力解决剩余1.6万贫困人口和2.9万返贫人口温饱问题，最大限度地缩小返贫面，巩固扶贫成果。继续抓住国家、自治区和我市重点工程建设项目多、劳务需求量大的机遇，大力组织劳务输出，增加现金收入，稳定解决温饱。进一步加强闽宁对口扶贫协作，把合作项目的实施与生态建设、水利建设和脱贫致富结合起来，扩大领域，洼重实效。继续搞好县市、部门、企业对口扶贫工作，改进扶贫方式，增强对口帮扶的活力。加强灌区扶贫开发工作，认真抓好吊庄点的交接、生产和建设，加快新灌区经济发展步伐，缩小地区差别。', '抓住我国即将入世的机遇，树立大发展必须大开放、快开放的思想，充分利用各方面的有利条件和积极因素，大力实施招商引资，加快建设经济强市进程。', '争取国家项目引资金。项目是当前国家资金投放的主要形式，有了项目，就有了资金，就为发展奠定了物质基础。我们将组织精干的领导班子和技术力量，有计划、有重点地编制和储备一批符合国家产业政策和本地实际的高质量项目，千方百计争取国家国债转贷、专项投资、增资减债和扶贫开发资金，加快我市各项建设。', '利用优惠政策引资金。西部大开发战略的实施，在国际社会引起了广泛关注。我们将充分利用国家引导外商投资的政策措施，鼓励外商参与我市能源、水利、矿产、农副产品加工、商业和城市改造等领域的开发建设；不断充实完善利用国外资金项目库、外商直接投资项目库和备选项目库，抓紧论证筛选一批有规模、上档次、科技含量高、对经济具有拉动作用、对外商具有吸引力的项目，大力开展招商引资。对已签订的引资合同协议实行项目目标责任制，切实抓好履约和落实，提高项目的成功率，实现招商引资的新突破。', '扩大对外交往引资金。巩固发展与福建省泉州市的友好城市关系，加快与加拿大魁北克省圣忠市、日本美农加茂市缔结为友好城市的进程，积极开展经济交流、人才培训和技术引进活动。积极组团参加各种经贸洽谈会，办好吴忠市第三届(中卫)商交会，寻求合作对象，拓宽合作领域。组织一批重点企业走出去，与国内外发达地区结成合作对子，为其产业升级、转移和替换提供市场，以资源换技术，以产权换资金，以存量换增量，多形式引进资金、技术、人才和管理经验，促进我市经济更快更好的发展。', '优化投资环境引资金。以承办2001年西部商品交易会为契机，着眼于提高对外开放的吸引力，加快商品交易场所和星级宾馆等硬件设施建设，组织专门机构，做好西交会的各项筹备工作。积极筹备设立客商投资办事大厅，强化办证、收费等环节管理，为客商投资置业提供高效、优质、便捷的服务。进一步修订完善招商引资的有关政策，组织精干务实的涉外干部队伍，依法保护外商投资企业的合法权益，努力营造对外开放的良好环境。', '认真分析研究市场变化趋势，按照市场需求组织经济运行，安排生产经营活动，启动消费市场，推动第三产业发展。', '大力拓展城乡市场。本着“培育、完善、提高、搞活”的原则，抓好各类市场的布局和建设，重点完善和提高牛羊肉、瓜果蔬菜、粮油、禽蛋、生猪、发菜和皮毛绒等中心市场的仓储、保鲜、运输等配套设施建设，不断扩大市场的吞吐量，加快形成立足吴忠、覆盖宁夏、辐射西北、影响国内外的大市场格局。进一步发挥市场在资源配置中的基础性作用，加速发展资本、技术、信息、劳动力等生产要素市场。重视开拓外地市场，尤其要依靠各类行业协会、运销配送中心、信息咨询单位、群众性流通组织和驻外办事机构，依靠我市特色经济、规模经济和优势品牌，采取合同、订单、契约、商品展销会等各种营销形式，扩大产品销售，提高我市肉类、禽蛋、皮毛绒、枸杞、红枣、蔬菜、特色瓜果等农副产品和美利纸、香山洒、夏进乳品、法福来面粉、西夏贡米、国雄饲料、古峡绒衫等优势品牌的市场占有率，加快产品的流通转化增值。', '努力扩大消费需求。采取积极有效的措施，启动住宅、旅游娱乐等消费市场，推动第三产业向投资多元化、经营产业化、服务社会化方向发展。充分发挥住宅产业需求潜力大、', '带动作用强的优势，加快城镇住房制度改革，推进住房商品化、货币化进程，以发展经济适用住房为主体，建立面向不同收入阶层的住房供应保障体系。培育和启动住房二级市场，规范住宅开发建设的各项税费，降低开发成本。积极扩大住房信贷和按揭业务，用足用好住房公积金制度，提高居民购房能力，激活房地产市场，今年力争新建住宅60万平方米。大力促进旅游娱乐消费，集中抓好利通区野生动物园、民俗村、灵武黄河小龙头、金水娱乐城、水洞沟开发、青铜峡库区、中卫沙坡头旅游区二期工程以及董府修缮、秦渠公园一期工程等项目建设。拓展旅游市场，积极发展双休日节假日观光旅游，促进旅游市场的繁荣活跃。通过扶持发展以上重点产业和行业，逐步形成多层次、高质量、功能互补、相互依托的第三产业发展格局，刺激消费需求，拉动经济增长。', '按照生财、聚财、用财并举的方针，切实抓好财源建设，加强税收征管，优化支出结构，充分发挥财政资金的使用效益，保证改革与发展顺利推进。', '强化财政生财职能。认真贯彻实施积极的财政政策，多方争取资金，扶持发展生产，重点支持土地开发、科技开发和农业产业化等能带动相关产业发展的财源项目，加大对重点企业技改和短平快项目的扶持力度，培植一批利税大户，稳固重点财源，壮大税收增长点。积极培植市本级财源，市财政今年将安排50万元资金，扶持发展市属企业，逐步增加市本级财政收入。金融部门对有市场、有效益的项目，及时给予贷款支持。积极配合国债转贷项目，配套信贷资金，积极开辟新的税源。', '强化财政聚财职能。认真落实“加强征管、堵塞漏洞、清缴欠税、惩治腐败”的方针，强化税基管理，依法惩处偷税、骗税、抗税等违法犯罪行为，严格清理各种欠税，坚决杜绝税款流失。进一步加大税收征管力度，切实加强对重点税源的控管，保证应收税款足额征收。强化非税收入管理，规范行政事业性收费和罚没收入，严格执行收支两条线，严防挪用、截留和坐支现象发生。加强城镇一级土地市场管理，规范征用程序，盘活存量土地，严格征收土地出让金，使土地收益真正成为财政收入的重要来源。', '强化则政用财职能。树立过紧日子的思想，坚决反对各种形式的铺张浪费。坚持“人员按编制、公用按标准、事业按项目、专项按规划、编制到部门”的预算原则，实行“零基预算”，统筹安排财力。严格财政预算管理，全面实施政府采购制度，探索建立公共财政框架，优化预算支出结构，确保改革发展重点项目的支出。大力压缩人、车、会、话等非生产性支出，不断降低行政管理成本。严肃财经纪律，强化财政、审计监督，逐步推行会计委派制，提高财政资金的使用效益。', '面对世界科技突飞猛进，知识经济已见端倪的形势，我们将坚持把科技、教育发展作为政府工作的首要任务，把加速科技进步和提高劳动者素质作为建设经济强市的根本动力，强化科技创新意识，加快实施“科教兴市”战略，推动全市经济建设和社会发展实现新跨越。', '加快教育改革与发展。进一步确立教育在现代化建设中的先导性、全局性、基础性战略地位，深化教育改革，调整教育结构，优化教育资源配置，全面推进素质教育。围绕提高教育的综合实力和总体水平，加强“两基”教育，扩大非义务教育，带动各级各类教育的发展。川区继续抓好“普九”复查工作，巩固提高“普九”成果。山区坚持“两基”教育不动摇，加大攻坚力度，积极推进农村教育综合改革，认真实施“国家贫困地区义务教育工程”，确保如期实现“两基”目标。认真实施“百所回民中小学标准化建设工程”，办好普通高中民族班和寄宿制回民中小学，大力发展民族教育。推动非义务教育走产业发展的路子，开拓教育市场，拉动教育消费。加快筹建吴忠高等职业技术学院，发展电大、函授、自考等各类成人教育，推进在职人员的继续教育，扩大高中和幼儿园招生规模。争取在有条件的城乡中学、中心小学普遍开设微机课。积极发展民办教育，鼓励社会力量独立办学、合资办学、联合办学。认真组织实施“跨世纪园丁工程”，建设一支师德高尚、结构合理、素质优良的教师队伍。', '全面提高农业科技水平。围绕发展优质高效农业，大力推广重大农业科技成果和实用技术，在麦套玉米吨粮田建设、水稻旱育稀植、优质大米基地、节水控灌、设施农业、暖棚养畜、渔业丰收计划、科技示范园建设上有新进展。加强县乡与大专院校、科研院所的协作，建立由院校到田间的直通车，加快科学技术的转化，全面提高农产品的科技含量。灌区发展优质大米基地30万亩，争取启动建设30万亩现代农业示范园区，灌区五县(市、区)全部实现麦套玉米吨粮县(市、区)和水稻旱育稀植化，不断提高科技在增加农民收入中的贡献份额。', '推进企业技术创新。抓住国家支持企业技术改造的政策机遇，加快运用高新技术改造传统工业，重点抓好美利纸业三期制浆造纸等12个技术改造项目。积极开展机械化植树挖坑机、变性玉米淀粉、吸水纸等19个新产品。大力推广节能降耗技术、计算机辅助设计和制造、自动控制、污染治理、工艺设备改造等技术，加快引进技术的消化吸收，积极培育名牌产品。市政府将研究制定运用高新技术改造传统产业的规划，精心组织实施，加强协调指导，力求在技术创新上取得大的突破。适时召开科技教育大会，研究制定科技创新及重奖科技人才等政策措施。进一步强化“尊重知识、尊重人才”的社会意识，树立不求所在、不求所有、但求所用的人才新观念，建立凝聚、培养、引进和合理使用人才的新机制，营造激励科技创新的良好氛围，充分发挥科技在经济发展中的支撑作用。', '建设繁荣富裕、文明法制的新吴忠。是我们的一项重要任务。在改革开放和现代化建设进程中，必须始终不渝地坚持两手抓、两手都要硬的方针，实现物质文明和精神文明共同进步，经济和社会协调发展。', '围绕实现我市跨世纪发展目标，坚持用邓小平理论教育干部群众，引导广大干部群众树立正确的世界观、人生观、价值观。广泛进行党的基本路线、基本纲领教育，深入进行爱国主义、集体主义、社会主义和艰苦创业教育，大力进行社会公德、职业道德、家庭美德教育，以积极、健康向上的精神状态，创造性地开展工作。加强马克思主义唯物论和无神论教育大力提倡科学精神，反对封建迷信和伪科学，彻底肃清“法轮功”的流毒。加强形势政策和民主法制教育，维护安定团结的大好局面。针对城市、农村、行业的不同特点，以群众生产生活息息相关、迫切需要解决的具体问题为出发点，面向群众，依靠群众，选取群众乐于接受的活动为载体，广泛开展创建文明城市、文明村镇、文明行业等活动，继续开展学习金占林活动，大力弘扬英雄模范人物的无私奉献精神，把人们的思想和行动凝聚到爱岗敬业、振兴吴忠的实践中来，形成学先进、讲奉献、树正气的良好社会风尚。坚持开展“三下乡”活动，广泛普及各种科学知识，培养科学文明的生活方式，促进农村的精神文明建设。积极发展残疾人事业，维护残疾人的合法权益。广泛深入开展拥政爱民、拥军优属和军民共建活动，积极创建双拥模范城(县)，加强全民国防教育，增强广大干部群众的爱国拥军意识，不断提高双拥工作的整体水平。', '坚持“二为”方向和“双百”方针，面向社会、面向基层、面向群众，引导文艺工作者创作富有时代精神和艺术感染力的优秀作品，为改革开放和现代化建设提供良好的舆论氛围和强大的思想保证。开展多种形式的文化活动，把健康有益、丰富多彩的精神食粮和文化服务，奉献给全市广大群众。大力发展广场文化、社区文化、企业文化、校园文化、乡村文化等文化建设，各级文化部门要切实组织好送戏、送书、送电影下乡活动，积极开展文化扶贫，推动创新文化先进县和文明乡镇活动向纵深发展。广播电视和新闻工作要坚持正确的舆论导向，努力提高作品、节目制作水平和播出质量，不断满足广大人民群众的文化需求。切实加强对文物的保护和管理。坚持一手抓繁荣，一手抓管理，开展“扫黄打非”，净化文化市场。体育工作要坚持群众体育与竞技体育协调发展，认真实施《全民健身计划》，广泛开展全民健身运动和民族体育运动，积极创建群众体育先进县。多渠道筹措资金，加强文化、体育等基础设施建设，为群众性文化体育活动的广泛开展创造条件。', '坚持预防为主，广泛推进健康教育，大力普及卫生保健知识，抓好计划免疫，加强对传染性疾病和地方病的综合防治和监督管理，全面完成国家卫生行业2000年四项达标任务，提高人民群众的健康水平。推进卫生体制改革，抓紧制定卫生区域规划，合理配置卫生资源。抓好农村合作医疗制度试点工作，合理调整乡镇卫生院的功能和规模，充分发挥农村三级卫生服务网的整体作用。积极发展社区卫生服务，逐步形成功能合理、方便群众的卫生服务网络。广泛深入地开展爱国卫生运动，创建卫生城市、卫生乡镇。加强卫生队伍建设，努力改善医德医风，促进医疗卫生水平和服务质量的提高。认真纠正医药购销中的不正之风，依法打击制造假劣药品的违法犯罪行为，坚决取缔非法药品市场和商业营销点，确保人民群众用药安全有效。积极解决边远地区缺医少药的问题，为山区群众的健康提供保障。', '遵循可持续发展战略思想，坚持现行的计划生育政策不变，既定的人口控制目标不变，一把手亲自抓、负总责不变，落实“三为主”、深化“三结合”，强化人口与计划生育目标管理责任制，坚决执行“一票否决制”。加大宣传教育力度，不断拓展教育领域，更新教育内容，广泛开展婚育新风进万家活动，引导群众树立科学、文明、进步的婚育观念。坚持分类指导，逐步把计划生育工作纳入法治轨道。以山区、农村和流动人员为重点，进一步加大综合治理力度，把计划生育同脱贫致富、发展经济和建设文明幸福家庭结合起来，引导广大妇女积极参与经济建设，自觉实行计划生育。加强基层基础工作，完善基层计划生育服务网路，提高管理和服务水平，实现由单纯的计划生育向生育健康保健和提高人口素质转变，确保全市人口自然增长率控制在11.6‰以内。', '各级政府和政府各部门要把依法治市作为关系改革、发展、稳定的一件大事，真正落实到行政活动的各个方面、各个环节。要转变思想观念，不断增强法律意识和法制观念，善于运用法律手段管理国家事务、经济文化事业和社会事务，为改革开放和经济发展提供高效服务。认真实施《依法治市规划》，继续开展法制宣传教育，进一步加强政府法制工作，建立执法责任制，加大行政执法力度，切实做到有法必依、执法必严、违法必究，确保政令畅通。加强行政系统内部的层级监督和政纪、审计、财政等专项监督，不断提高依法行政的能力和水平。认真贯彻民族区域自治法规，全面落实党的民族宗教政策，依法加强对宗教事务的管理，查禁邪教组织，打击邪教活动。大力推进民族团结进步事业，巩固和发展社会主义新型民族关系，扩大基层民主，全面推进村级民主选举、民主决策、民主管理、民主监督，实行村务公开、政务公开、厂务公开，保障基层群众的民主权益。', '各级政府要切实承担起维护社会稳定的政治责任，及时掌握影响稳定的各种因素，重视群众来信来访，尤其是抓好减轻农民负担、关心下岗职工和贫困群众生活等工作，妥善处理和化解各种人民内部矛盾，进一步提高依法处理群体性事件的能力，把可能影响社会稳定的问题解决在萌芽状态。坚决打防并举、标本兼治、重在治本的方针，依法严厉打击各种刑事犯罪、经济犯罪、毒品犯罪活动，不间断地开展专项斗争，坚决扫除黄赌毒等社会丑恶现象。加强社会治安综合治理，切实落实社会治安综合治理目标管理责任制和综治领导责任制，把保一方平安的任务落实到城乡基层单位，强化齐抓共管的工作力度。大力开展安全文明小区和安全文明村镇创建活动，建立健全治安防范网络。加强公安、司法、安全队伍建设，努力提高政法干警的执法水平，坚决纠正有法不依、执法不严、违法不究、滥用职权的现象。大力表彰奖励敢于同犯罪分子作斗争的英雄人物，在全社会形成一种见义勇为、打击犯罪、扫荡丑恶、弘扬正气的强大氛围，为改革开放和经济建设创造良好的治安环境。', '在吴忠跨世纪的发展进程中，政府能否带领全市人民卓有成效的开展工作，推进改革开放、经济建设和各项事业有个更大的发展，加强自身建设至关重要。建设一个廉洁勤政、开拓进取、务实高效、群众信赖的人民政府，既是党和人民的要求，也是我们始终不渝的努力方向。', '在建立社会主义市场经济体制、加强现代化建设的进程中，新矛盾、新情况、新问题、新知识、新经验层出不穷，我们不熟悉、不懂得的东西很多，必须注重学习、加强学习、勤奋学习、善于学习。各级政府要以“讲学习、讲政治、讲正气”为主要内容，开展经常性的“三讲”教育，认真学习马列主义、毛泽东思想特别是邓小平理论，深刻理解和准确把握精神实质，学会运用马克思主义的立场、观点和方法+认识问题、分析问题、解决问题。善于向群众学习、向实践学习，从群众的社会实践中汲取营养，不断改造自己、充实自己、提高自己。坚持学以致用、理论联系实际的优良作风，把学习理论与研究问题、解决问题结合起来，增强学习的针对性、实用性，不断提高为人民服务的本领。', '集中精力抓发展。发展是硬道理，抓住机遇，加快发展是我们全部工作的出发点和落脚点。只有加快发展，才能缩小与沿海地区的差距，，才能解决面临的各种困难，才能增强经济实力。一句话，发展是头等大事，是重中之重。我们要始终坚持以经济建设为中心，集中精力搞建设，殚精竭虑谋发展，做到领导到位、精力到位、措施到位、落实到位，把各方面的积极性调动起来，形成发展的强大合力，保持强劲的发展势头。无论是上项目、搞建设，还是出政策、搞服务，都要围绕发展做文章，精心谋划，科学决策，周密安排，认真实施，提高成效，在宁夏经济发展中争次位，在西部大开发中定坐标，加快建设经济强市的步伐。', '创造性地开展工作。各级政府和政府工作人员都处在经济建设和各项事业的第一线，肩负着带领群众深化改革、加快发展的重任，必须具备强烈的时代精神和改革意识，不断地解放思想，更新观念，跟上发展的形势，创造性地工作。在当前，我们要破除一切靠本本、靠上级的旧习惯，树立实事求是、一切从实际出发，敢闯、敢试、敢于创新的新观念；破除封闭的“内陆意识”，树立以开放促发展、促改革的新观念；破除消极畏难、无所作为、小进则满、温饱即安的小农经济思想，树立艰苦奋斗、开拓进取、干大事业、求大突破、上大台阶的新观念。冲破禁锢，大胆前进，决不能让机遇在犹豫观望中丧失，不能让改革在畏难等待中迟缓，不能让发展在消极埋怨中放慢，不能让差距在封闭自满中拉大。', '全心全意为人民谋利益。“治国有常，而以利民为本”。我们所做的一切都是为了经济的发展、人民生活的改善和社会的全面进步。各级政府及其工作人员都必须无条件的、全心全意地为人民谋利益，自觉当好人民的公仆。要重视人民群众的愿望和情绪，想问题、办事情、作决策，都要想到群众高兴不高兴、满意不满意、拥护不拥护，时刻把人民群众的利益放在第一位，关心群众疾苦，体察民情民意，及时解决涉及群众切身利益的具体问题，多为群众办实事、办好事。增强政府工作人员的公仆意识，勤奋工作，自觉维护党和政府在人民群众中的良好形象，做人民满意的公务员。', '进一步转变工作作风。各级政府及其部门要牢固树立为经济建设服务，为企业、为基层服务的思想，切实转变职能，大力倡导和发扬求真务实、运转高效、扑下身子干事业的良好作风。要在“实”字上下功夫，尊重客观实际，按照客观规律办事，深入实际，真抓实干，鼓足劲、出实招、求高效，做到作风扎实、工作落实、成果真实。建立和实行严格的工作目标责任制和专项督察制度，对各项重大决策、重要工作、重点项目建设都要逐项逐件地抓好督查落实。要加快工作节奏，提高工作效率，雷厉风行，说办就办。看准了、定了的事情，要紧紧抓住不放，一鼓作气，一抓到底，抓出成效。', '坚持不懈地加强廉政建设。认真落实廉政建设责任制，进一步加大反腐败斗争的力度，从严治政，反腐倡廉，标本兼治，综合治理。继续抓好大案要案的查处和科级以上干部住房清查工作，认真开展行政执法监察，坚决纠正行业不正之风，下大力气治理“三乱”，切实减轻农民和企业负担。全体政府工作人员特别是领导干部，都要志存高远，洁身自好，拒腐防变，做廉洁自律的模范，当好人民的公仆。要自重、自省、自警、自励，为广大干部作表率，带吃一个好的班子，带出一支好的队伍，形成一个好的政风。建立健全廉政建设制度，完善监督制约机制，从源头上、机制上、制度上预防和治理腐败，把廉政建设提高到一个新水平。', '自觉接受监督，不断改善政府工作。各级政府都要自觉接受同级人大及其常委会的监督，认真贯彻人大通过的各项决议，重大问题及时报告。积极支持政协发挥政治协商、民主监督和参政议政的作用，密切与各民主党派、人民团体和社会各界联系，重大决策和重要活动及时通报，虚心听取各方面的意见和建议，自觉接受民主监督和社会监督。认真办理人民代表建议、议案和政协委员提案，积极配合市人大常委会开展执法执纪检查，及时纠正存在的问题，不断改进政府工作。', '积极推进政府机构改革。根据中央和自治区的统一部署，今年下半年进行市、县(区)、乡镇的政府机构改革。改革的目标是建立办事高效、运转协调、行为规范的行政管理体系，完善国家公务员制度，建设高素质的专业化行政管理队伍，逐步建立适应社会主义市场经济体制的地方行政管理体制。改革的重点是调整和撤销那些直接管理企业、管理经济的企业行政主管部门和专业经济部门，加强综合经济部门，健全执法监管部门，调整社会管理部门，合并业务相同或相近、职能单一的部门。通过政府机构改革，实现政企分开，使政府真正担负起社会管理者、经济调节者和国有资产管理者的职能。这次改革，机构变化较大，人员调整较多，任务重，难度大，时间紧，要求高。各级政府要切实加强领导，精心组织，周密部署，按照自治区的统一安排，认真抓好这项工作。从现在起，要严把进人关，及早消化超编人员，深入细致地做好思想教育和人员分流工作，做到思想不散，秩序不乱，工作正常运转。', '各位代表，我们正处在一个关键的历史时期，既面临着发展的良好机遇，也面临着许多困难。让我们在邓小平理论伟大旗帜指引下，紧紧围绕一届一次人代会确定的发展目标，振奋精神，负重拼搏，同心同德，开拓创新，在西部大开发中加快建设经济强市的进程，不断夺取全市改革开放和现代化建设的胜利，为创造更加美好的新吴忠而努力奋斗!']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>291</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>吴忠市财政局关于年度财政专项资金支出绩效评价有关情况的报告</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/zfys/2022n/202205/t20220518_3504705.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['吴忠市财政局关于2021年度财政专项资金支出绩效评价有关情况的报告_吴忠市人民政府', '了合理的指标评价体系，采取实地勘察、翻阅资料、发放调查问卷等形式对项目实施情况进行了全面调查，经过评价分析，达到“优”等级的项目', '了合理的指标评价体系，采取实地勘察、翻阅资料、发放调查问卷等形式对项目实施情况进行了全面调查，经过评价分析，达到', '项目主要内容是通过“柔性引进高层次医疗卫生人才项目”等38个项目的实施，引进、培养各类人才，提升我市的人才素质，加快培养我市更多本土技能人才，从而缓解人才紧张、技术短缺的问题。项目资金实际到位3761.59万元。截止评价日，共支出3445.92 万元，结存463.54万元。', '1.项目立项时间普遍靠后，批复文件下达的时间接近年中，致使项目实施时间不足，不能按计划保质保量的完成后续项目任务；', '1.加强项目单位财务人员进行培训，以确保财务信息质量；合理安排资金使用，提高资金使用效率；', '3.项目应充分做好前期论证，避免出现资金下拨却因各种原因而未实施，导致项目资金浪费的问题；', '项目中存在个别监理公司监理文书不规范的现象。图新设计咨询有限公司的个别监理报表中，总监理工程师罗永康签字与分项工程报验申请表的签名不一致，存在他人冒充签名的情况。', '遵循监理总则，严格按照国家规范和标准，熟悉工程实际施工的情况，对本工程施工质量进行检查和验收，认真准确填写监理日志。', '购买表决设备配套桌（主席台）5张；椅子（主席台）10把；表决设备配套桌18张；会议桌22张；椅子98把；报告席桌1组；茶水柜1组；讨论表决主机1台；会议主席机1台；会议代表机41台；会议表决软件1套；控制电脑1台；副屏监视器1台；摄像主机1台；摄像球3台；摄像跟踪软件1套；信号转换器3台；硬盘录像机1台；监控显示器1台；空气净化器1台；线材3项；会议表决综合布线系统1项；安装调试费。', '1.建设单位未及时进行竣工验收、工程竣工决算的审核，没有出具竣工验收、工程竣工决算报告；', '2.今后项目实施中，完善工程竣工验收、工程财务决算资料，加强项目管理，科学合理制定项目绩效指标，增强绩效管理意识，提高绩效管理水平。', '1.项目前期论证不到位，导致无法实施，造成资金闲置。“利通区扁担沟烽火墩村农业生产服务项目”未经过认真考察论证，导致资金到位后项目无法实施，造成100万元资金闲置，后经村委会研究后将资金转给烽火台苹果种植专业合作社，购买肉牛65头。合作社交给村集体4.32万元的收益，收益于2020年8月2日打入吴忠市利通区扁担沟镇人民政府会计委托代理中心。该笔本金100万元于2021年2月26日归还给吴忠市利通区扁担沟镇人民政府会计委托代理中心。', '“板桥乡蔡桥村工业园区轻钢物资原料库建设项目”财政资金100万元，村集体自筹50万元。批复内容为建设标准化生产车间及进行设施提升改造。项目实施单位实际将该笔专项资金全部用于支付土地保证金。资金改变用途未经请示、无变更批复。', '“青铜峡陈袁滩镇唐滩村唐滩渔村农产品地头交易中心项目”财政资金100万元，村集体自筹52万元。批复内容为建设青铜峡市陈袁滩镇唐滩村唐滩渔村农产品地头交易中心，实际用于鱼塘建设，剩余50万元财政资金现存于村委会账户。', '3.违反招投标程序的问题。“青铜峡小坝镇红星村设施温棚项目”财政资金100万元。项目工程及监理未进行招投标，而是直接与宁夏科信园农业设施发展有限公司签订了工程合同；工程未编制预算；工程监理未履行监理职责；工程结束以后未进行竣工验收和工程决算，而是直接交付租赁使用。', '1.建立健全村级财务管理制度，严格按照专项资金有关要求使用和管理专项资金。加强财务核算管理，完善各村收入管理制度、财务开支审批制度等，并按要求严格执行，加强对试点村干部进行村集体经济“三资”管理培训，提高村干部财务管理意识和技能。提升基层财务人员素质，定期对财务人员进行培训，以确保财务信息质量；合理安排项目资金，提高资金使用效率。', '加强项目前期调研，做好符合实际情况的项目计划书，避免人力、物力、财力的浪费，专项资金的闲置。', '各试点村应结合本村实际，积极探索不同的集体经济发展方式，改变以承包经营和集体经营为主且经济效益不高的局面。同时，借鉴集体经济发展较好的试点村经验，逐步复制和推广，发展具有特色的现代农业产业。积极鼓励农户以土地承包经营权折股入社，调动农户广泛参与的积极性，吸引更多的社会资本参与村集体经济发展事业。', '4.各监管部门应加强日常管理和监督，严格执行项目审批流程，建立项目实施全过程考核机制。', '项目建设单位未设立项目绩效目标评价体系，未对项目实施情况进行绩效分析，在项目的管理工作上存在管理不严格的问题。', '根据《项目支出绩效评价管理办法》（财预〔2020〕10号）和《宁夏回族自治区预算绩效目标管理暂行办法》的规定，项目单位应进一步加强绩效自评和预算绩效目标设置工作。', '项目评价内容为：2020年市本级安排吴忠市博物馆、图书馆、文化馆免费开放项目专项经费205万元，其中：吴忠市博物馆125万元，图书馆40万元，文化馆40万元。主要用于日常运转支出及聘用人员支出，实际支出205万元。', '项目建设内容为：建设电子警察设备10套；建设行人过街信号灯4处；建设人脸识别系统5处；移动式交通信号灯10 套；智慧交通指挥中心系统升级改造。项目到位资金500万元，均为市本级资金，支出296.86万元，结存203.14万元。', '根据《项目支出绩效评价管理办法》（财预〔2020〕10号）和《宁夏回族自治区预算绩效目标管理暂行办法》的规定，项目单位应进一步加强绩效自评和预算绩效目标设置，细化项目实施方案，加强项目日常管理。', '八、吴忠太阳山开发区管委会宁夏金塔有色环保科技有限公司10万吨/年固体废物循环利用处置项目', '焚烧回转炉（分两期建设）、流化床、物化、稳定化/固化、安全填埋场、综合处理、应急处理、监控及计量、储罐等设施。建设的主要内容有：暂存库（一）、（二）、（三）、人流门卫室、物流门卫室、固化车间、刚性填埋场、综合供水站、废水车间、地上一/四层的土建及安装工程、1.1万方刚性填埋场土建工程、办公公楼等工程。项目总投资：98000万元', '2.项目进度滞后。合同规定竣工时间为2021年2月12日，截止报告日主体建筑工程虽已经建设完工但是部分设备还在安装调试当中。', '3.项目内控管理需强化。项目实施方案没细化不便于进行考核，项目管理制度、财务管理制度适用性', '加强监督检查。工程建设单位应当对工程施工单位、监理单位等相关人员的工作情况进行监督检查，督促其按工程计划做好各种资料的填报、核实、上报及资料的整理工作，加强工程质量和工程进度的监督检查。按计划顺利完成工程建设项目。', '。工程建设单位应当对工程施工单位、监理单位等相关人员的工作情况进行监督检查，督促其按工程计划做好各种资料的填报、核实、上报及资料的整理工作，加强工程质量和工程进度的监督检查。按计划顺利完成工程建设项目。', '实施方案，完善工程建设安全制度及其他涉及项目管理的制度，资金管理办法，做到事前计划方案周密，实施中监控管理有效、措施落实到位。', '指定专人对相关的资料分类进行整理归档，装订成册，制定相关的目录，建立严格的查阅、借用人登记制度，明确借阅人员的责任。', '制定切实可行施工方案和施工计划，督促施工方及时按施工方案和计划进行施工，确保工程项目按时按质的完成。', '宁夏正宏工程咨询有限公司的监理日志大部分没有记录人、安全监管员、总监签名，不符合工程监理日志的管理要求。', '1.加强档案管理工作。指定专人对相关的资料分类进行整理归档，装订成册，制定相关的目录，建立严格的查阅、借用人登记制度，明确借阅人员的责任。', '2.加强项目建设过程管理。加强工程的日常监督管理，制定切实可行施工方案和施工计划，督促施工方及时按施工方案和计划进行施工，确保工程项目按时按质的完成。', '3.加强项目监督检查。开发区管委会应对监理方、施工方加强现场监管，确保其职能正常发挥。', '。采取多种方式及时足额筹集项目建设所需资金，按工程项目进度计划及工程监理出具的监理', '实施方案，完善工程建设安全制度及其他涉及项目管理的制度，资金管理办法，做到事前计划方案周密，', '高发射塔、购置发射机、信号传输系统等设备，以及原发射机搬迁及安装集成、供配电系统、道路硬化、绿化、围墙、发射塔亮化等工程', '；新建1栋700㎡一层框架结构附属用房及、水、暖、电等室外配套工程。项目计划投入专项资金额为1265', '内容不够细化、量化，逻辑性不强；建设单位暂未填报《绩效目标申报表》，未将项目实施总体目标细化为具体指标。', '5.未建立发射塔运行管理长效机制。由于吴忠市广播电视发射塔仍未投使用，项目长期运行维护机制未建立，项目实施的可持续性无法保障。', '实际确保目标内容和指标准确无误，为后续绩效运行监控、绩效评价及考核等工作的开展奠定基础。', '2.加快资金支付进度，避免资金沉降、闲置。加快资金支付进度，避免出现财政资金长时间沉淀、闲置的情况；及时与相关部门沟通，完成发射机、信号传输系统等核心设备购置工作，加快资金支付进度，确保资金发挥最大效益。', '3.做好项目管理，确保项目如期竣工投用。及时做好项目前期准备工作，完善项目前期审批、用地手续，确保项目按计划时间开工，避免出现项目进度滞后的情况；项目实施过程中出现导致项目进展滞后、停工等情况，应及时向相关主管单位提交情况说明，确保项目程序完整；项目完工后，应及时组织验收，确保项目尽快投入使用，早日发挥效益。', '4.尽快安排核心设备采购，保障项目早日发挥效益。项目建设单位尽快组织安排发射机、信号传输系统等核心设备的招标采购工作，确保广播电视发射塔早日投入使用，早日发挥效益。', '绩效目标填报的规范性和细化程度仍需加强。产出指标中存在“指标值填写错误，指标与指标值未分开填写、时效指标性质不明显”等问题。', '项目的结算定案价超合同金额，成本控制需加强。项目施工合同价为689.692万元，结算定案价为735.5346万元，定案价超出施工合同金额6.23%，主要原因是项目建设单位结合项目实施实际情况，在合同约定内容的基础上，增加各类输水管道铺设1.433公里，增加闸阀井2座以及卵石护坡面积等建设内容，成本控制存在不到位的情况。', '蓄水池、泵站长期运行维护长效机制暂未建立，有待完善。项目由吴忠国家农业科技园区管理委员会牵头组织验收后，将使用权移交至吴忠市通达果业有限公司，由公司进行运行管理，吴忠国家农业科技园区管理委员会已与运营管理单位签订《运营管护协议》，由运营管理单位安排1-2人进行管护，相关运营事项已在协议中进行说明，但运营管理单位未制定运营方案或计划，项目长期运行维护机制', '蓄水池、泵站长期运行维护长效机制暂未建立，有待完善。项目由吴忠国家农业科技园区管理委员会牵头组织验收后，将使用权移交至吴忠市通达果业有限公司，由公司进行运行管理，吴忠国家农业科技园区管理委员会已与运营管理单位签订《运营管护协议》，由运营管理单位安排', '1.提升绩效管理意识，规范绩效目标管理。在后续年度开展工作时，应定期组织相关人员对绩效相关政策文件内容进行学习和培训，提升相关负责人员绩效意识；规范绩效目标的编制工作，综合考虑自治区、吴忠市下达的目标任务和实际情况，对填报内容进行核对检查，确保目标内容和指标准确、无误。', '2.做好项目前期准备，确保项目如期竣工投用。及时做好前期准备，完善项目审批、用地手续；及时组织相关参建单位进行验收，验收后及时试运行，在质量达标的前提下，确保项目尽快投入使用，早日发挥效益。', '3.严格控制项目投资，确保资金发挥效益。在今后项目实施过程中，严格按照批复文件要求控制项目建设规模及预算，若确需增加工程量，需及时向财政部门等相关部门说明，批准后，方可按实际情况实施；同时，加强项目结算审核和财务决算，确保专项资金使用物有所值。', '4.制定运行管理方案，定期组织考核和监督。建议制定《运行管理考核制度》，对运营单位的运营管理情况进行定期考核和监督，并督促运营管理单位制定《运行管理及供水方案》，对蓄水池、泵房日常的管理、维护、应急响应措施等内容进行明确。', '对金积大道、友谊路、至德路、吴忠日报路等15条城市道路排水管道和金积泵站、花卉市场泵站进行改造', '绩效目标管理工作需加强。项目绩效目标表述较为完整，但不够细化、量化；项目建设单位未将绩效目标细化为具体的绩效指标，绩效目标管理工作、绩效意识需加强。', '项目实际竣工时间均晚于计划时间，项目进度存在滞后。项目实际竣工时间均不同程度晚于计划竣工时间，项目进度存在滞后情况。', '项目验收投用不及时，项目效益暂未发挥。项目第7标段的建设内容竣工验收工作已于2021年1月开展，其他标段内容均未完成项目竣工验收工作，且暂未投入使用，验收投用不及时。', '1.提升绩效管理意识，规范绩效目标管理工作。定期组织相关人员对绩效相关政策文件内容进行学习和培训，提升相关负责人员绩效意识；规范绩效目标编制，综合考虑自治区、吴忠市下达的目标任务和实际情况，对填报内容进行核对和检查，确保填写的目标内容和指标准确、无误。', '2.做好项目前期准备工作，确保项目如期竣工投用。一是做好项目前期准备，完善项目审批、用地手续；二是项目完工后，应及时组织相关参建单位进行验收，验收后及时试运行，在质量达标的前提下，确保项目尽快投入使用，早日发挥效益。', '3.尽快开展项目竣工验收工作，确保项目早日投用发挥效益。一是项目完工后，及时组织相关参建单位进行验收；二是及时开展项目结算审核和财务决算工作，完善项目后期资料。', '4.制定运行管理方案，确保项目持续发挥效益。对吴忠市市区排水防涝管网日常的管理、维护、应急响应措施等通过制度进行明确并严格执行。', '绩效目标管理工作需加强。一是项目绩效目标表述较为完整，但不够细化、量化；二是项目建设单位未将绩效目标细化为具体的绩效指标，绩效目标管理工作、绩效意识需加强。', '4.未建立运行维护长效机制。未制定《道路维修、管理方案》《道路养护方案》或《定期养护制度》，项目长期运行维护机制不健全，项目效益发挥的可持续性无法保障。', '定期组织相关人员对绩效相关政策文件内容进行学习和培训，提升相关负责人员绩效意识；规范绩效目标编制，确保目标内容和指标准确完整。', '2.加快资金支付进度，避免资金沉降、闲置。加快资金支付进度，避免财政资金长时间沉淀、闲置；尽快组织开展金滨东路（清宁街-同心大街）道路工程项目竣工验收工作，按合同约定及项目进度支付资金，确保资金发挥最大效益。', '3.做好项目前期准备工作，确保项目如期竣工投用。做好项目前期准备工作，完善项目前期审批、用地手续；及时组织项目验收。', '4.尽快开展项目竣工验收工作，确保项目早日投用发挥效益，及时开展项目结算审核和财务决算，完善项目后期资料。', '5.制定运行管理方案，确保项目持续发挥效益。对道路日常的管理、维修、监测等工作通过制度进行明确并严格执行。', '项目建设内容为：扁担沟乡镇运输服务站：项目为扁担沟公路站原地翻建改造，占地面积8.35亩，新建综合服务站一座517.2㎡，新建库房78.1㎡，拆除工程、硬质铺装工程及其他工程；金银滩乡镇运输服务站：项目为旧站原地改造，占地面积2.7亩，新建仓库140㎡，公厕44㎡。主要功能为：农村客运、公路养护、交通战备保障、农资仓储物流、邮政电商、百货配送。', '1.绩效目标管理工作需加强。项目绩效目标过于简单、笼统，对预期产出和效果内容的表述有待加强；社会效益指标、可持续影响指标及满意度指标填写不规范，绩效指标编制的规范程度有待加强，绩效管理意识需提升。', '2.预算资金尚未完全执行，存在结转资金。项目到位资金500万元，已支出351.92万元，结转148.08万元。预算资金未完全执行的原因主要是金银滩、扁担沟交通综合服务站附属设施正在建设中，尚未完工。', '3.部分批复建设内容未完成，附属设施建设进度滞后。金银滩、扁担沟交通综合服务站项目主体已于2020年底前完工，新增附属设施于2021年7月21日完成招标采购，截止评价日仍未建成投用。', '4.项目主体未验收就投入使用，安全无法保障。项目主体已投入使用，发挥效益，但未进行验收，是否存在质量问题及安全隐患尚未可知。', '5.附属设施暂未建成投用，项目效益未完全发挥。由于扁担沟交通综合服务站的库房、食堂和金银滩乡镇运输服务站的交通储备库房等附属设施暂未建成投用，项目附属设施功能暂不完善，交通战备保障、农资物流仓储量仍处于偏低水平，保障和储存能力相对薄弱。', '6.服务站后期运行管理机制尚不完善，可持续性无法保障。项目建设单位暂未针对金银滩、扁担沟交通综合服务站后期运行管理制定管理方案或制度，运维机制尚不完善，项目实施的可持续性无法保障。', '1.提升负责人员绩效管理意识，规范绩效目标管理。定期组织相关人员对绩效相关政策文件内容进行学习和培训，提升相关负责人员绩效意识；加强绩效目标的编制，为后续绩效运行监控、绩效评价及考核等工作的开展奠定基础。', '4.制定综合服务站运行管理方案，确保项目持续发挥效益。综合考虑项目的特点，建议项目建设单位针对综合服务站的基础设施维修、运行管理及突发状况措施响应等内容制定综合服务站运行管理方案或制度，对综合服务站的运营管理作出安排，保障综合服务站运营管理规范化、制度化，确保项目持续发挥效益。', '政务服务事项库、“微政务”平台等应用软件开发及叫号系统设备等系统核心硬件配置。项目概算总投资197.59万元，项目到位资金127.69万元，均为市本级资金，实际支出127.69万元。', '1.绩效目标管理工作需加强。项目绩效目标内容不够细化、量化，逻辑性不强；未将项目实施总体目标细化为具体指标；绩效目标管理工作需加强，绩效意识有待提升。', '2.部分设施、设备老化，影响中心的高质量运行。大楼基础设施老化严重，水暖电等管路、管网等设施已出现不同程度老化，跑冒滴漏现象严重；设施设备损耗严重，大楼两部电动直梯、六部电动扶梯由于使用频繁，损耗严重，运维成本较高；大厅局部墙体出现裂缝，存在严重安全隐患；中心机关工作人员、窗口工作人员及开、评标室使用的电脑配置偏低，运行各类网上办事系统、平台速度缓慢，需更新升级。', '提升负责人员绩效管理意识，规范绩效目标管理。定期组织相关人员对绩效相关政策文件内容进行学习和培训，提升相关负责人员绩效意识；规范绩效目标的编制，', '2.积极争取资金，为设施、设备维修提供资金保障。积极争取各类财政资金、专项资金，加强设施设备维修管理，确保政务服务工作稳步高效运行。', '绩效目标编制的规范化程度、精细化程度需加强。项目绩效目标但缺少对项目实施产生效益及影响的表述', '预算资金执行率低，结余量大。项目实际到位补贴资金443万元，已执行147.43万元，资金结余量较大，资金结余量偏大的主要原因是大部分合作社优先选择2019年度储备的性控冻精（胚胎），而补贴范围为2020年度新采购的性控冻精（胚胎），补贴口径存在差异，且2020年度各合作社均未使用优质性控胚胎，导致优质性控胚胎补贴资金全部结余。', '项目目标内容未完成，补贴资金效益未完全发挥。补贴发放完成率为33.28%，严重偏低，补贴资金效益未完全发挥。', '“大部分合作社2020年采购使用性控冻精（胚胎）量较少、澳牛性控冻精（胚胎）补贴参数及标准”等问题', '1.提升负责人员绩效管理意识，规范绩效目标管理。加强人员培训，提升绩效意识；规范绩效目标编制，加强绩效运行监控、绩效评价及考核。', '3.完善奶牛产业发展长效机制，确保项目持续发挥效益。制定后续年度《项目实施方案》时，应严格落实自治区相关政策文件，及时与主管部门沟通解决不确定事项，确保项目持续发挥效益。', '1.绩效目标申报表不完整、不具体。党校2020年部门项目支出预算绩效目标申报表中，社会效益及满意度指标未设置明确的指标值。', '2.项目实施计划不够完整。《2020年度吴忠市干部教育培训计划》（吴组通[2020]19号）、《2020年全市党员教育培训计划》（吴组通[2020]21号） 主要以安排培训课程、内容、时间、地点、学制、人数以及培训对象等，没有对项目培训资金计划进行详细分配；培训对象只有人数，对培训的群体以及预期达到的效果没有进行详细说明。', '1.落实绩效管理政策文件，规范绩效目标管理、绩效自评工作。加强绩效政策培训，提高员绩效业务水平；规范绩效目标编制、绩效自评工作。', '2.细化项目实施计划。对资金的分配、构成进行详细分解说明；优化培训内容，并进一步强化与培训群体的匹配，尽量做到与工作需求相契合，避免“一锅烩”的现象；重点对项目实施后应当达到的目标、预期效果进行详细描述，并加强对培训学员的跟踪考核，建立长效机制。', '3.做好项目前期准备工作，确保项目顺利落地与实施。完善培训进度规划，明确各级部门的分工与责任，做好相关工作衔接与过程保障，提高绩效目标完成效率。', '4.加强对档案的管理。依据《机关事业单位档案管理制度》，党校根据单位实际情况，应进一步建立健全档案管理办法，包括归档制度、预立卷制度、保密制度等。', '项目实施内容为：吴忠市委组织部对吴忠市利通区（6个社区）、红寺堡区（4个社区）、青铜峡市（2个社区）给予的党建经费补助。项目本级预算资金120万元，实际到位资金120万元，实际支出120万元。', '1.项目绩效目标设置不清晰，未能细化、量化，绩效目标申报表不完整，不具体，产出指标仅体现了补贴的资金额度。', '2.预算编制的调研工作不足，对预算所需数据缺乏调查和分析，不能与绩效评价有机结合，不利于预算资金管理，预算编制不符合规定标准，预算内容、资金与项目不匹配。', '3.红寺堡区博大社区和绿苑社区党建经费的预算执行率为56.16%，预算执行率偏低。', '4.青铜峡市黄河楼社区党群服务中心的装修改造验收资料未提供，社区的项目资料整理存档管理工作不到位。', '1.绩效目标设置应明确指向部门计划目标，并与相应的财政支付范围、方向、效果紧密联系，应从数量、质量、成本、时效等方面细化，形成具体可衡量的目标任务。', '2.预算编制以绩效目标为导向，编制评价预算，并建立相应的操作体系规范和管理预算编制工作，对预算编制工作进行精细化管理。', '3.提高预算执行率的情况重点在于预算编制的准确性，预算编制工作要做到准确，需建立严格的、系统的预算工作机制，保障预算编制清晰、明确、细化。', '4.社区应建立严格的档案管理制度，档案管理人员严格履行职责，并建立相关监督检查机制，保障档案管理工作的顺利进行。', '项目实施内容为：本项目实施内容包括看守所被羁押人员给养费及监区运维费、拘押收教人员日常管理经费。项目本级预算资金250万元，实际到位资金233.5万元，实际支出233.5万元。', '项目实施内容为：本项目实施内容包括看守所被羁押人员给养费及监区运维费、拘押收教人员日常管理经费。项目本级预算资金', '1.项目绩效目标设置不清晰，未能细化、量化，产出指标仅体现了补贴的资金额度，缺少产出完成总量、产出质量和产出时效指标。', '2.项目档案资料整理不齐全，项目的人均成本的相关统计资料不全，不利于进行项目总结和年度绩效考核。', '1.绩效目标设置应明确指向部门计划目标，并与相应的财政支付范围、方向、效果紧密联系，应从数量、质量、成本、时效等方面细化，成本的费用化科目和人数应做进一步的精细化统计，形成具体可衡量的具体目标任务。', '2.预算编制以绩效目标为导向，编制评价预算，并建立相应的操作体系规范和管理预算编制工作，对预算编制工作进行精细化管理，对预算的科目分类做进一步细化。', '3.强化绩效管理意识。进一步强化绩效理念，将绩效管理理念贯穿于资金分配到资金使用全过程，提高财政资金使用效益。', '4.建立严格的档案管理制度，各类项目统计资料明细分类登记，档案管理人员严格履行职责，并建立相关的监督检查机制，保障档案管理工作的顺利进行。', '项目实施内容为：本项目用于保障吴忠市行政中心的各项设备设施、保安保洁服务及其他服务、氛围营造、院落绿化和网络信息、车辆管理等基本运行。项目本级预算资金400万元，实际到位资金400万元，实际支出326.33万元。结转73.67万元。', '项目实施内容为：本项目用于保障吴忠市行政中心的各项设备设施、保安保洁服务及其他服务、氛围营造、院落绿化和网络信息、车辆管理等基本运行。项目本级预算资金', '1.预算绩效目标设置有待规范。本项目在年初编报预算时，绩效目标申报表设置的社会效益指标和影响力指标均未达到清晰、细化、可衡量的要求。', '2.项目采购合同签订未进行公开采购。根据提供的政府采购管理制度，本项目相关的第三方合同吴忠市保安服务总公司，吴忠国运盛物业有限公司等未进行公开采购。', '3.未核实到固定资产管理佐证材料。根据现场访谈得知固定资产清查盘点账实不相符，且未提供相关佐证材料。', '1.提升预算编制和绩效目标申报水平。在年初编制预算时，依照历史数据、行业数据、工作计划、年度目标等准确合理的编制年度预算，并对预算资金分解细化，尽量进行定量表述，不能以量化形式表述的，可以采用定性的分级分档形式表述，指标值应做到清晰、明确、细化、可衡量，并对指标值加以补充说明。', '2.及时签订采购合同并进行公开采购程序。应严格按照《中华人民共和国政府采购法》中关于政府采购行为和中标通知书、合同签订要素等相关规定及时签订采购合同。', '3.定期组织对所使用固定资产清查、核对和统计。根据《宁夏回族自治区行政事业单位国有资产处置管理暂行办法》的通知（宁财（资）发〔2020〕4号）等有关固定资产清查的要求，应完善固定资产账卡、领用、处置、清查盘点等日常管理制度，做到账实相符，确保资产完全完整。', '项目实施内容为：通过对2020年度机构绩效的评价和分析，引导其坚守主业，严格执行国家支小支农、服务小微、“三农”和创业创新的政策；依据地区经济和社会发展战略和特点，加大对小微企业、“三农”和创业创新企业的支持力度；不断完善担保行为，规范公司内部管理和控制，充分发挥国家政策性担保机构在支持小微企业和“三农”主体的作用。', '公司担保业务台账是以电子表格方式进行登记和记录的，存在各客户群体所反映信息内容不一、部分信息反映不完整等问题。', '建议运用现代电子信息化技术，建立规范、完整的电子台账信息记录系统，在确保准确、规范反映业务信息的前提下，实现机构内业务数据的共享、互通。就目前台账记录反映信息来说，建议增加和调整担保款项还款时间记录，规范担保客户经营范围和行业的界定，及时更新担保客户保后调查事项记录等。', '我局针对绩效评价项目评价报告中指出的问题，将向各项目实施单位下达整改通知书，要求各单位在规定时间内认真整改，并将整改结果报市财政局。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>291</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>中共中央关于加强党的政治建设的意见</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2019-02-28</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/sy/tttj/201902/t20190228_1293293.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，切实加强党的政治建设，坚持和加强党的全面领导，推进全面从严治党向纵深发展，不断提高党的执政能力和领导水平，确保全党统一意志、统一行动、步调一致向前进，现提出如下意见。', '旗帜鲜明讲政治是我们党作为马克思主义政党的根本要求。党的政治建设是党的根本性建设，决定党的建设方向和效果，事关统揽推进伟大斗争、伟大工程、伟大事业、伟大梦想。', '在革命、建设、改革各个时期，我们党都高度重视党的政治建设，形成了讲政治的优良传统。党的十八大以来，以习近平同志为核心的党中央把党的政治建设摆在更加突出位置，加大力度抓，形成了鲜明的政治导向，消除了党内严重政治隐患，推动党的政治建设取得重大历史性成就。同时，必须清醒看到，党内存在的政治问题还没有得到根本解决，一些党组织和党员干部忽视政治、淡化政治、不讲政治的问题还比较突出，有的甚至存在偏离中国特色社会主义方向的严重问题。切实有效解决这些问题，必须进一步加强党的政治建设。', '加强党的政治建设，必须高举中国特色社会主义伟大旗帜，全面贯彻党的十九大精神，坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，坚持党的基本理论、基本路线、基本方略，落实新时代党的建设总要求，增强“四个意识”，坚定“四个自信”，坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护党中央权威和集中统一领导，把准政治方向，坚持党的政治领导，夯实政治根基，涵养政治生态，防范政治风险，永葆政治本色，提高政治能力，把我们党建设得更加坚强有力，确保我们党始终成为中国特色社会主义事业的坚强领导核心，为实现“两个一百年”奋斗目标和中华民族伟大复兴的中国梦提供坚强政治保证。', '加强党的政治建设，目的是坚定政治信仰，强化政治领导，提高政治能力，净化政治生态，实现全党团结统一、行动一致。要以党章为根本遵循，把党章明确的党的性质和宗旨、指导思想和奋斗目标、路线和纲领落到实处。要突显党的政治建设的根本性地位，聚焦党的政治属性、政治使命、政治目标、政治追求持续发力。要以党的政治建设为统领，把政治标准和政治要求贯穿党的思想建设、组织建设、作风建设、纪律建设以及制度建设、反腐败斗争始终，以政治上的加强推动全面从严治党向纵深发展，引领带动党的建设质量全面提高。要坚持问题导向，注重“靶向治疗”，针对政治意识不强、政治立场不稳、政治能力不足、政治行为不端等突出问题强弱项补短板。要把党的政治建设融入党和国家重大决策部署的制定和落实全过程，做到党的政治建设与各项业务工作特别是中心工作紧密结合、相互促进。', '加强党的政治建设，必须坚持马克思主义指导地位，坚持用习近平新时代中国特色社会主义思想武装全党、教育人民，夯实思想根基，牢记初心使命，凝聚同心共筑中国梦的磅礴力量。', '马克思主义是我们立党立国的根本指导思想。习近平新时代中国特色社会主义思想是当代中国马克思主义、21世纪马克思主义，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，是经过实践检验、富有实践伟力的强大思想武器，必须长期坚持并不断发展。要深入学习习近平新时代中国特色社会主义思想，加强思想政治教育，推动学习教育往深里走、往心里走、往实里走，真正做到学深悟透、融会贯通、真信笃行，巩固全党全国人民团结奋斗的共同思想基础。要坚定理想信念，牢固树立共产主义远大理想和中国特色社会主义共同理想，挺起共产党人的精神脊梁，坚决防止不信马列信鬼神、不信真理信金钱，坚决反对各种歪曲、篡改、否定马克思主义的错误思想。要坚定“四个自信”，坚信中国特色社会主义是科学社会主义理论逻辑和中国社会发展历史逻辑的辩证统一，是当代中国发展进步的根本方向，是全面建成小康社会、全面建成社会主义现代化强国、实现中华民族伟大复兴的必由之路。领导干部要带头学理论、强信念，筑牢信仰之基，补足精神之钙，把稳思想之舵。实施年轻干部理想信念宗旨教育计划，大力培养造就具有坚定共产主义信仰和较高马克思主义理论素养的社会主义建设者和接班人。', '党在社会主义初级阶段的基本路线作为党的政治路线，是党和国家的生命线、人民的幸福线，必须坚决捍卫、坚定执行。越是面临严峻复杂的国际国内形势，越是处于中华民族伟大复兴的关键时期，越要保持清醒头脑和战略定力，全面贯彻执行党的政治路线，把以经济建设为中心同坚持四项基本原则、坚持改革开放两个基本点统一于中国特色社会主义伟大实践，绝不能有丝毫偏离和动摇。坚持党的政治路线，必须全面贯彻实施新时代中国特色社会主义基本方略，统筹推进“五位一体”总体布局和协调推进“四个全面”战略布局，为实现“两个一百年”奋斗目标不懈努力。全党制定执行大政方针，要从党的政治路线出发；部署推进党和国家事业发展重大战略、重大任务、重大工作，要紧紧围绕党的政治路线来进行。各地区各部门确定工作思路、工作部署、政策措施，要自觉同党的政治路线对标对表、及时校准偏差。要坚决同一切违背、歪曲、否定党的政治路线的言行作斗争。', '政治立场事关根本。全党必须始终坚定马克思主义立场，坚持党性和人民性相统一，坚决站稳党性立场和人民立场。要坚持以党的旗帜为旗帜、以党的方向为方向、以党的意志为意志，始终做到在党言党、在党忧党、在党为党，任何时候都同党同心同德。要坚持以人民为中心，立党为公、执政为民，践行全心全意为人民服务的根本宗旨，树立真挚的人民情怀，把人民放在心中最高位置，始终相信人民，紧紧依靠人民，把人民对美好生活的向往作为奋斗目标。要把对党负责和对人民负责高度统一起来，想问题、作决策、办事情都从人民利益出发，崇尚实干、勤政为民，把精力和心思用在稳增长、促改革、调结构、惠民生、防风险、保稳定上，着力解决人民群众最关心最直接最现实的利益问题，努力让人民群众有更多获得感、幸福感、安全感。', '党是最高政治领导力量，党的领导是中国特色社会主义最本质的特征，是中国特色社会主义制度的最大优势。加强党的政治建设，必须坚持和加强党的全面领导，完善党的领导体制，改进党的领导方式，承担起执政兴国的政治责任。', '事在四方，要在中央。坚持和加强党的全面领导，最重要的是坚决维护党中央权威和集中统一领导；坚决维护党中央权威和集中统一领导，最关键的是坚决维护习近平总书记党中央的核心、全党的核心地位。要教育引导党员干部从历史和现实、理论和实践、国内和国际的结合上深刻认识、强化认同，不断增强拥护核心、跟随核心、捍卫核心的思想自觉政治自觉行动自觉，始终同以习近平同志为核心的党中央保持高度一致，做到党中央提倡的坚决响应、党中央决定的坚决执行、党中央禁止的坚决不做。要以党章为根本依据，不断完善保障“两个维护”的制度机制，严格执行《关于新形势下党内政治生活的若干准则》、《中国共产党重大事项请示报告条例》、《中共中央政治局关于加强和维护党中央集中统一领导的若干规定》等党内法规，加强对贯彻执行党的路线方针政策和决议情况的督促检查，完善党中央重大决策部署和习近平总书记重要指示批示贯彻落实的督查问责机制。要以正确的认识、正确的行动坚决做到“两个维护”，坚决防止和纠正一切偏离“两个维护”的错误言行，不得搞任何形式的“低级红”、“高级黑”，决不允许对党中央阳奉阴违做两面人、搞两面派、搞“伪忠诚”。', '坚持党总揽全局、协调各方，建立健全坚持和加强党的全面领导的制度体系，为把党的领导落实到改革发展稳定、内政外交国防、治党治国治军各领域各方面各环节提供坚实制度保障。研究制定党领导经济社会各方面重要工作的党内法规。健全党中央集中统一领导重大工作的体制机制。完善地方党委、党组、党的工作机关实施党的领导的体制机制。建立健全国有企业党委（党组）和农村、事业单位、街道社区等的基层党组织发挥领导作用的制度规定。贯彻落实宪法规定，制定和修改有关法律法规要明确规定党领导相关工作的法律地位。将坚持党的全面领导的要求载入人大、政府、法院、检察院的组织法，载入政协、民主党派、工商联、人民团体、国有企业、高等学校、有关社会组织等的章程，健全党对这些组织实施领导的制度规定，确保其始终在党的领导下积极主动、独立负责、协调一致地开展工作。', '着眼于党把方向、谋大局、定政策、促改革，强化战略思维、创新思维、辩证思维、法治思维、底线思维，正确制定和坚决执行党的路线方针政策，不断增强党的政治领导力、思想引领力、群众组织力、社会号召力。要坚持民主集中制这一根本领导制度，善于运用民主的办法汇集意见、科学决策，善于通过协商的方式增进共识、凝聚力量，同时善于集中、敢于担责，防止议而不决、决而不行。要坚持群众路线这一基本领导方法，不断增强群众工作本领，大兴调查研究之风，改进和创新联系群众的途径方法，坚持走好网上群众路线，汇集民智民力，善于通过群众喜闻乐见方式宣传党的理论和路线方针政策，把党的主张变为群众自觉行动。坚决反对“四风”特别是形式主义、官僚主义。要坚持依法执政这一基本领导方式，注重运用法治思维和法治方式治国理政，善于使党的主张通过法定程序成为国家意志、转化为法律法规，自觉把党的领导活动纳入制度轨道。', '加强党的政治建设，关键是要提高各级各类组织和党员干部的政治能力。必须进一步增强党组织政治功能，彰显国家机关政治属性，发挥群团组织政治作用，强化国有企事业单位政治导向，不断提高党员干部特别是领导干部政治本领。', '党的力量来自组织。政治属性是党组织的根本属性，政治功能是党组织的基本功能，要认真贯彻落实新时代党的组织路线，不断强化各级各类党组织的政治属性和政治功能。党中央是党的最高领导机关，是党的组织体系的大脑和中枢，对党和国家事业发展重大工作实行集中统一领导，涉及全党全国性的重大方针政策问题只能由党中央作出决定和解释。地方党委要在党中央和上级党委领导下，全面领导本地区经济社会发展，全面负责本地区党的建设，坚决纠正党的领导弱化、党的建设缺失、全面从严治党不力问题。党的基层组织要着力提升组织力，突出政治功能、强化政治引领，下大气力解决软弱涣散问题。党支部要担负起直接教育党员、管理党员、监督党员和组织群众、宣传群众、凝聚群众、服务群众的职责，发挥好战斗堡垒作用。党组要在批准其设立的党组织领导下，在本部门本单位发挥好把方向、管大局、保落实的重要作用，确保党中央和上级党组织决策部署在本部门本单位贯彻落实。党的各级纪委要进一步强化党内监督专责机关的职能定位，全面监督执纪问责，坚决维护党章党规党纪的严肃性和权威性。党的工作机关要更好发挥党委参谋助手作用，提高履职尽责的政治性和有效性，力求参当其时、谋当其用，更好服务党委决策、抓好决策落实。党员要强化党的意识和组织观念，自觉做到思想上认同组织、政治上依靠组织、工作上服从组织、感情上信赖组织。所有党组织和全体党员都必须牢固树立一盘棋意识，在党中央集中统一领导下齐心协力、步调一致开展工作，形成党的组织体系整体合力。', '中央和地方各级人大机关、行政机关、政协机关、监察机关、审判机关、检察机关本质上都是政治机关，旗帜鲜明讲政治是应尽之责。要始终坚持在党的领导下依法实施经济社会管理活动，坚决贯彻落实党的基本理论、基本路线、基本方略，积极主动将党的领导主张和重大决策部署转化为法律法规和政策政令，转化为对经济社会管理的部署安排和工作活动，转化为领导体制、工作机制和管理方式方法创新，转化为推动经济社会发展的实际效果。国家机关履行职责、开展工作，要提高政治站位，把准政治方向，注重政治效果，考虑政治影响，坚决防止和纠正把政治与业务割裂开来、对立起来的错误认识和做法，确保政治和业务融为一体、高度统一。', '工会、共青团、妇联等群团组织是党领导下的政治组织，政治性是群团组织的灵魂。各群团组织要认真履行政治职责，充分发挥联系人民群众的桥梁和纽带作用，加大政治动员、政治引领、政治教育工作力度，更好承担起引导群众听党话、跟党走的政治任务，把自己联系的群众最广泛最紧密地团结在党的周围。要坚定不移坚持党的领导，坚定不移走中国特色社会主义群团发展道路，不折不扣落实党中央关于群团改革的决策部署，切实增强群团组织的政治性、先进性、群众性。', '国有企业是中国特色社会主义的重要物质基础和政治基础，事业单位承担着满足人民群众日益增长的公益服务需求职责，都是我们党执政兴国的重要依靠力量。国有企事业单位必须始终坚持党的领导，坚决贯彻执行党的路线方针政策，认真落实党中央关于推进国有企事业单位改革发展的决策部署，切实加强本单位党的建设工作，充分发挥党组织重要作用，保证本单位工作坚持正确政治方向、取得良好政治效果。', '党员干部特别是领导干部要加强政治能力训练和政治实践历练，切实提高把握方向、把握大势、把握全局的能力和辨别政治是非、保持政治定力、驾驭政治局面、防范政治风险的能力。要在大是大非面前态度鲜明、立场坚定，始终在政治立场、政治方向、政治原则、政治道路上同以习近平同志为核心的党中央保持高度一致。要善于从政治上研判形势、分析问题，自觉在党和国家工作大局下想问题、做工作，做到一切服从大局、一切服务大局。要强化忧患意识、风险意识，增强政治敏锐性和政治鉴别力，对容易诱发政治问题特别是重大突发事件的敏感因素、苗头性倾向性问题，对意识形态领域各种错误思潮、模糊认识、不良现象，保持高度警惕，做到眼睛亮、见事早、行动快。要提高风险处置能力，及时阻断不同领域风险转换通道，防止非公共性风险扩大为公共性风险、非政治性风险演变为政治风险。要增强斗争精神，强化政治担当，敢于亮剑、善于斗争，发现违反政治纪律、危害政治安全的行为坚决抵制，做勇于斗争的“战士”，不做爱惜羽毛的“绅士”，严防对挑战政治底线的错误言论和不良风气听之任之、逃避责任、失职失察。', '加强党的政治建设，必须把营造风清气正的政治生态作为基础性、经常性工作，浚其源、涵其林，养正气、固根本，锲而不舍、久久为功，实现正气充盈、政治清明。', '营造良好政治生态，必须严格执行《关于新形势下党内政治生活的若干准则》，着力提高党内政治生活质量，努力在全党形成又有集中又有民主、又有纪律又有自由、又有统一意志又有个人心情舒畅生动活泼的政治局面。增强党内政治生活的政治性，强化政治教育和政治引领，让党员干部经常接受政治体检，打扫政治灰尘，净化政治灵魂，增强政治免疫力，坚决防止和克服党内政治生活忽视政治、淡化政治、不讲政治的倾向。增强党内政治生活的时代性，主动适应信息时代新形势和党员队伍新变化，积极运用互联网、大数据等新兴技术，创新党组织活动内容方式，推进“智慧党建”，使党内政治生活始终充满活力，坚决防止和克服党内政治生活不讲创新、不讲活力、照搬照套的倾向。增强党内政治生活的原则性，坚持按原则开展党的工作和活动，按原则处理党内各种关系，按原则解决党内矛盾和问题，严格执行党的组织生活制度，认真召开民主生活会和组织生活会，提高“三会一课”质量，落实谈心谈话、民主评议党员和主题党日等制度，坚持和完善重温入党誓词、党员过“政治生日”等政治仪式，使党内生活庄重、严肃、规范，坚决防止和克服党内政治生活不讲原则、平淡化庸俗化随意化的倾向。增强党内政治生活的战斗性，坚持以整风精神开展批评和自我批评，勇于思想交锋、揭短亮丑，旗帜鲜明坚持真理、修正错误，统一意志、增进团结，建立健全民主生活会列席指导、及时叫停、责令重开、整改通报等制度，坚决防止和克服党内政治生活一团和气、评功摆好、明哲保身的倾向。', '政治纪律是党最根本、最重要的纪律，是净化政治生态的重要保证。要把坚决做到“两个维护”作为首要政治纪律，在全党持续深入开展忠诚教育，开展“守纪律、讲规矩”模范机关创建和先进个人评选活动，教育督促党员干部始终对党忠诚老实，决不允许在重大政治原则问题上、大是大非问题上同党中央唱反调，搞自由主义。严格执行《中国共产党纪律处分条例》，严肃查处违反政治纪律的行为，通过严明政治纪律带动党的其他纪律严起来。坚持“五个必须”，必须维护党中央权威，决不允许背离党中央要求另搞一套；必须维护党的团结，决不允许在党内培植个人势力；必须遵循组织程序，决不允许擅作主张、我行我素；必须服从组织决定，决不允许搞非组织活动；必须管好领导干部亲属和身边工作人员，决不允许他们擅权干政、谋取私利。严肃查处“七个有之”问题，把政治上蜕变的两面人及时辨别出来、清除出去，坚决防止党内形成利益集团攫取政治权力、改变党的性质，坚决防止山头主义和宗派主义危害党的团结、破坏党的集中统一。', '营造良好政治生态，离不开党内政治文化的浸润滋养。坚持“三严三实”，大力弘扬忠诚老实、公道正派、实事求是、清正廉洁等价值观，充分利用各类爱国主义教育基地和党性教育基地对广大党员干部进行教育和熏陶，增强党员干部的政治定力、纪律定力、道德定力、拒腐定力。大力倡导清清爽爽的同志关系、规规矩矩的上下级关系、干干净净的政商关系，弘扬正气、树立新风。推动中华优秀传统文化创造性转化、创新性发展，培育党员干部政治气节、政治风骨。发扬革命文化，传承红色基因，弘扬革命精神，教育党员干部正确处理公和私、义和利、是和非、正和邪、苦和乐的关系。弘扬社会主义先进文化，推进社会主义核心价值观宣传教育，引导党员干部带头做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者。坚决抵制庸俗腐朽的政治文化，自觉抵制商品交换原则对党内生活的侵蚀，狠刹权权交易、权钱交易、权色交易等不正之风，破除关系学、厚黑学、官场术等封建糟粕，坚决防止和反对个人主义、分散主义、自由主义、本位主义、好人主义，坚决防止和反对宗派主义、圈子文化、码头文化。', '选人用人是政治生态的风向标。要坚持党管干部原则，贯彻新时期好干部标准，始终把政治标准放在第一位，注重选拔任用牢固树立“四个意识”、自觉坚定“四个自信”、坚决做到“两个维护”、全面贯彻执行党的理论和路线方针政策、忠诚干净担当的干部，对政治不合格的干部实行“一票否决”，已经在领导岗位的坚决调整。严格执行《党政领导干部选拔任用工作条例》，在选人用人中进一步突出政治标准，强化政治把关。制定实施《党政领导干部考核工作条例》，建立健全领导干部政治素质识别和评价机制，强化对干部政治忠诚、政治定力、政治担当、政治能力、政治自律等方面的深入考察考核，坚决把政治上的两面人挡在门外。匡正选人用人风气，坚持不懈整治选人用人上的不正之风，对任人唯亲、说情打招呼、跑官要官、买官卖官、拉票贿选等行为发现一起查处一起，对“带病提拔”的干部实行倒查，对政治标准把关不严的严肃处理。严格执行干部选拔任用工作纪实制度，对私自干预下级或者原任职地方和单位选人用人的，记录在案并严肃追究责任。', '坚决反对腐败，建设廉洁政治，是涵养政治生态的必要条件和重要任务。强化不敢腐的震慑，坚持反腐败无禁区、全覆盖、零容忍，坚持重遏制、强高压、长震慑，运用监督执纪“四种形态”，重点查处党的十八大以来不收敛、不收手，问题线索反映集中、群众反映强烈，政治问题和经济问题交织的腐败案件，严肃查处违反中央八项规定精神的问题，持续保持反腐败高压态势。扎紧不能腐的笼子，健全党和国家监督体系，加强对权力运行的制约和监督，通过改革和制度创新切断利益输送链条。特别要针对管人管钱管物管项目的单位和岗位，查找廉政风险点，通过科学管理、严格监督和发挥巡视利剑作用，切实管住权力，坚决反对特权行为和特权现象，让人民群众真正感受到清正干部、清廉政府、清明政治就在身边。增强不想腐的自觉，领导干部特别是高级干部要带头加强党性修养，知敬畏、存戒惧、守底线，坚决防范被利益集团“围猎”，持之以恒锤炼政德，明大德、守公德、严私德，带头遵守《中国共产党廉洁自律准则》，注重家庭家教家风，自觉做廉洁自律、廉洁用权、廉洁齐家的模范。', '加强党的政治建设是一项重大艰巨的政治任务。各地区各部门要进一步增强推进党的政治建设的自觉性坚定性，把思想和行动统一到党中央部署要求上来，加强组织领导、强化责任担当，确保本意见提出的各项举措落到实处，确保党的政治建设取得成效。', '建立健全推进党的政治建设工作责任制，各级党委（党组）要切实负起本地区本部门党的政治建设工作主体责任，将其纳入党委（党组）工作总体布局，摆在首要位置来抓，认真研究部署、大力推进落实。党委（党组）书记要认真履行第一责任人职责，对党的政治建设重要工作亲自部署、重要问题亲自过问、重大事件亲自处置。党委（党组）其他成员要根据职责分工，按照“一岗双责”要求，抓好分管部门和领域党的政治建设工作。各级党的建设工作领导小组要发挥统筹协调的职能作用，各级纪检监察机关和党委有关部门要各司其职、各负其责，履行推进党的政治建设工作相关职责。中央和国家机关要在推进党的政治建设上带好头、作示范，在深入学习贯彻习近平新时代中国特色社会主义思想上作表率，在始终同党中央保持高度一致上作表率，在坚决贯彻落实党中央决策部署上作表率，建设让党中央放心、让人民群众满意的模范机关。', '加强党的政治建设，要坚持抓“关键少数”和管“绝大多数”相结合，重点是抓住领导机关和领导干部，发挥其示范引领作用。各级领导干部特别是高级干部要深刻认识自己在加强党的政治建设中的特殊重要性和肩负的重大责任，职位越高越要自觉严格要求自己，注重加强政治历练、积累政治经验、增进政治智慧，做到信念如磐、意志如铁，政治坚定、绝对忠诚，清正廉洁、担当负责，坚决做到“两个维护”，成为坚定的马克思主义者。实施“一把手”政治能力提升计划。', '加强党的政治建设，要把建章立制贯穿全过程各方面，建立健全长效机制，形成系统完备、有效管用的政治规范体系，真正实现党的政治建设有章可循、有据可依。坚持集成联动，完善党内法规制度体系有关制度，健全国家法律体系有关规定，在各类章程中明确提出有关要求，做到相辅相成、有机统一。坚持明确标准，既提出政治高线，激励党员干部向往践行，又划出政治底线，防止党员干部逾矩失范。坚持执规必严，加大宣传教育和执行力度，督促党员干部把党的政治规范刻印在心上、落实在行动上，坚决维护制度权威。', '各地区各部门要加强对党的政治建设工作的监督检查，将其作为巡视巡察和督查检查的重要内容，深化政治巡视，强化政治监督，着力发现和纠正政治偏差。探索建立本地区本部门政治生态评价体系。把党的政治建设工作情况纳入党委（党组）书记抓党建述职评议和党建考核评价体系，并突出其权重。坚持失责必问、问责必严，对落实党的政治建设责任不到位、推进党的政治建设工作不力以及违反党的政治纪律和政治规矩的行为严肃追责问责。', '各地区各部门要紧密结合自身实际制定贯彻实施本意见的具体措施。中央军委可以根据本意见提出加强军队党的政治建设的具体意见。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>291</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>吴忠市档案局年部门预算</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2018n_48257/201802/t20180212_690193.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['吴忠市档案局（馆）为吴忠市委直属的正处级事业单位，实行吴忠市和利通区两级档案局（馆）合体运行，实行一套机构、两块牌子，简称吴忠市档案局（馆）。', '（4）组织、指导市直及辖区档案理论与科学技术研究、档案宣传与档案教育、档案工作人员的培训。', '万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费40.44万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '万元，其中：因公出国（境）费增加1.08万元，主要原因出国考察学习；公务用车购置费增加（减少）0万元；公务用车运行费增加（减少）0万元；公务接待费增加0.98万元，主要原因公务接待批次及人数增加。', '人员经费0万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费0万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '按照全口径预算的原则，吴忠市档案局2018年所有收入和支出均纳入部门预算管理。收入总预算', '2018年我单位对部门预算整体支出情况进行绩效综合评价，在支出进度、预算执行方面进行全程控制与监督，加大源头管控力度，提高财政资金使用效率。', '财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>291</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>吴忠市畜牧水产技术推广服务中心年部门预算</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1280989.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['、负责全市畜牧、渔业科技项目的申报、立项、实施以及畜牧、渔业科技成果的申报和管理工作。', '、指导和参与全市畜牧、渔业基本建设项目评估论证，项目中期检查以及建设项目验收、后期评价。', '7、负责全市水生动植物病害的监测、预报、防治和处置，渔业资源可持续利用的技术指导，环境保护与生态平衡方面的技术指导与评估。', '从预算单位构成看，吴忠市畜牧水产技术推广服务中心部门预算包括：吴忠市畜牧水产技术推广服务中心本级预算，无所属事业单位预算。', '吴忠市畜牧水产技术推广服务中心现核定事业编制6名，设主任1人，副主任1人。专业技术人员6名.', '三、关于吴忠市畜牧水产技术推广服务中心2019年一般公共预算财政拨款“三公”经费预算情况说明', '2019年“三公”经费财政拨款预算比2018年减少2.5万元，其中：因公出国（境）费增加0.00万元，主要原因本单位无因公出国人员；公务用车购置费增加0.00万元，主要原因本单位未购置公务用车；公务用车运行费减少3.0万元，主要原因是事业单位公务用车改革，导致车辆运行费减少；公务接待费增加0.5万元，主要原因是农业农村部及外省市调研学习考察次数增加。', '2019年，吴忠市畜牧水产技术推广服务中心本级的机关运行经费财政拨款预算0.00万元，比2018年预算增加0.00万元，增长0.00%。主要原因是：吴忠市畜牧水产技术推广服务中心是全额拨款事业单位，无机关运行经费。', '2019年吴忠市畜牧水产技术推广服务中心重点项目绩效评价：吴忠市畜牧水产技术推广服务中心2018年度支农政策专项资金收支情况，内控制度基本健全，财政财务收支基本符合财经法规的规定。但在落实支农政策过程中，在资金拨付、政策落实和项目实施等方面还存在一些问题，需要采取措施予以纠正和规范。', '3.事业单位经营收入：指事业单位在专业业务活动及辅助琥珀那个之外开展非独立核算经营活动取得的收入。', '4.其他收入：指除上述“一般公共预算拨款收入”、“事业收入”、“事业单位经营收入”等以外的各项收入。主要包括非本级财政拨款、事业单位的投资受益等收入。', '5.林水支出（类）农业（款）：反映财政用于种植业、畜牧业、渔业、兽医、农技、农垦、农场、农业产业化经营组织、农村和垦区公益事业、农产品加工等方面的支出。', '6.事业运行（项）：反映用于农业事业单位基本支出，事业单位设施、系统运行与资产维护等方面的支出。', '7.科技转化与推广服务(项）：反映用于农业科技成果转化、农业新产品、新机具、新技术引进、试验、示范、推广及服务等方面支出。', '8.农业组织化与产业化经营（项）：反映对农民专业合作组织、农业产业化龙头企业等开展基地建设、质量标准等方面的补助支出。', '10.住房保障支出（类）住房改革支出（款）：反映行政事业单位用财政拨款资金和其他资金等安排的住房改革支出，包括住房公积金、提租补贴和购房补贴（指无房和未达标住房补贴）。', '11.住房公积金（项）：指按照《住房公积金管理条例》的规定，由单位及其在职职工缴存的长期住房储金。', '12.购房补贴（项）：指根据《国务院关于进一步深化城镇住房制度改革加快住房建设的通知》（国发〔1998〕23 号）的规定，从 1998 年下半年停止实物分房后，房价收入比超过 4 倍以上地区对无房和住房未达标职工发放的住房货币化改革补贴资金。中央行政事业单位从 2000 年开始发放购房补贴资金，地方行政事业单位从 1999 年陆续开始发放购房补贴资金，企业根据本单位情况自行确定。在京中央单位按照《中共中央办公厅 国务院办公厅转发建设部等单位&lt;关于完善在京中央和国家机关住房制度的若干意见&gt;的通知》（厅字〔2005〕8 号）规定的标准执行，京外中央单位按照所在地人民政府住房分配货币化改革的政策规定和标准执行。', '13.“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>291</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>吴忠市农牧局年部门预算本级</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1280973.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['属于市人民政府组成部门，主要职责是：贯彻执行国家、自治区有关法律、法规、规章和方针政策；拟定吴忠市农业发展政策、规划、并组织实施；指导农业社会化服务体系建设、乡村集体经济组织建设和合作经济组织建设，建立完善农村土地流转服务体系，指导全市农业新品种、新技术的试验示范及农业技术推广工作；负责食用农产品质量安全监督管理；负责农业生产资料的质量监督管理工作；指导、监督全市畜禽疫病、植物病虫害的防疫检疫等。', '农牧局所辖5个科室：办公室(含财务室)、产业信息科、农业农机科、畜牧渔业科、市场政策与法规科；编制人数25人，其中行政编制22人，参照公务员法管理人员3人；2018年年未在职人员18人（包括工勤人员1人），离休人员1人；市农牧局属全额拨款一级行政单位，财务独立核算，在吴忠农业银行开设1个基本账户和1个零余额用款账户。执行《行政单位会计制度》，法人：马长贵。按照“五不直接分管”规定，财务由汪洋副局长同志分管，6月下旬汪洋副局长调出由副调研员何建民分管财务，所属7个事业单位财务独立核算，由局机关财务室代理记账、核算。', '个零余额用款账户。执行《行政单位会计制度》，法人：马长贵。按照“五不直接分管”规定，财务由汪洋副局长同志分管，', '2019年“三公”经费财政拨款预算比2018年减少2.7万元，其中：因公出国（境）费增加0.00万元，主要原因无因公出国人员；公务用车购置费增加0.00万元，主要原因无购置公务用车；公务用车运行费减少7.1万元，主要原因是吴忠市农牧局公车为执法运行车辆，执行执法任务相对较少；公务接待费增加4.4万元，主要原因是农牧局招商引资任务大，外省市到我局调研学习考察次数较多，接待费用相对增加。', '3.事业单位经营收入：指事业单位在专业业务活动及辅助琥珀那个之外开展非独立核算经营活动取得的收入。', '4.其他收入：指除上述“一般公共预算拨款收入”、“事业收入”、“事业单位经营收入”等以外的各项收入。主要包括非本级财政拨款、事业单位的投资受益等收入。', '5.林水支出（类）农业（款）：反映财政用于种植业、畜牧业、渔业、兽医、农技、农垦、农场、农业产业化经营组织、农村和垦区公益事业、农产品加工等方面的支出。', '6.事业运行（项）：反映用于农业事业单位基本支出，事业单位设施、系统运行与资产维护等方面的支出。', '7.科技转化与推广服务(项）：反映用于农业科技成果转化、农业新产品、新机具、新技术引进、试验、示范、推广及服务等方面支出。', '8.农业组织化与产业化经营（项）：反映对农民专业合作组织、农业产业化龙头企业等开展基地建设、质量标准等方面的补助支出。', '10.住房保障支出（类）住房改革支出（款）：反映行政事业单位用财政拨款资金和其他资金等安排的住房改革支出，包括住房公积金、提租补贴和购房补贴（指无房和未达标住房补贴）。', '11.住房公积金（项）：指按照《住房公积金管理条例》的规定，由单位及其在职职工缴存的长期住房储金。', '12.购房补贴（项）：指根据《国务院关于进一步深化城镇住房制度改革加快住房建设的通知》（国发〔1998〕23 号）的规定，从 1998 年下半年停止实物分房后，房价收入比超过 4 倍以上地区对无房和住房未达标职工发放的住房货币化改革补贴资金。中央行政事业单位从 2000 年开始发放购房补贴资金，地方行政事业单位从 1999 年陆续开始发放购房补贴资金，企业根据本单位情况自行确定。在京中央单位按照《中共中央办公厅 国务院办公厅转发建设部等单位&lt;关于完善在京中央和国家机关住房制度的若干意见&gt;的通知》（厅字〔2005〕8 号）规定的标准执行，京外中央单位按照所在地人民政府住房分配货币化改革的政策规定和标准执行。', '13.“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>291</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>吴忠市人大年部门预算</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2018n_48257/201802/t20180213_691212.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['保证宪法、法律、行政法规和上级人民代表大会及其常委会决议、决定在本行政区域内的遵守和执行；领导或者主持本级人民代表大会代表的选举，召集本级人民代表大会会议；讨论决定本行政区域内的政治、经济、教育、科学等工作的重大事项；', '撤销下一级人民代表大会及其常务委员会不适当的决议；撤销本级人民政府不适当的决定和命令', '吴忠市人大常委会办公室，机关设七委一办：法制工作委员会、财经工作委员会、教科文卫工作委员会、民族宗教外事侨务工作委员会、代表联络与选举工作委员会、农业与环境资源保护工作委员会、内务司法委、人大办公室；其中人大办公室内设4个科室：行政科、秘书一科、秘书二科、综合科。', '吴忠市人大常委会办公室，机关设七委一办：法制工作委员会、财经工作委员会、教科文卫工作委员会、民族宗教外事侨务工作委员会、代表联络与选举工作委员会、农业与环境资源保护工作委员会、内务司法委、人大办公室；其中人大办公室内设', '人员经费1045.89万元，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费169.78万元，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置。', '2018年“三公”经费财政拨款预算数为5万元，其中：因公出国（境）费0万元，公务用车购置0万元，公务用车运行费 0万元，公务接待费5万元。', '2018年“三公”经费财政拨款预算比2017年增加（减少） 万元，其中：因公出国（境）费增加（减少）0万元，主要原因无因公出国（境）费；公务用车购置费增加（减少）0万元，主要原因无公务用车购置费；公务用车运行费增加（减少）0万元，主要原因无公务用车运行费；公务接待费增加5万元，主要原因预算公务接待外省市县人大学习考察及区人大等。', '人员经费，主要包括：基本工资、津贴补贴、奖金、社会保障缴费、伙食补助费、绩效工资、其他工资福利支出、离休费、退休费、抚恤金、生活补助、医疗费、助学金、奖励金、住房公积金、提租补贴、购房补贴、其他对个人和家庭的补助支出；', '公用经费，主要包括：办公费、印刷费、咨询费、手续费、水费、电费、邮电费、取暖费、物业管理费、差旅费、因公出国（境）费、维修（护）费、租赁费、会议费、培训费、公务接待费、专用材料费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费、其他商品和服务支出、办公设备购置、专用设备购置；']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>291</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>年度宁夏吴忠国家农业科技园区管理委员会部门决算</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022-10-09</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2021n_48265/202210/t20221009_3803291.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['负责园区建设项目的申报、实施、资金管理和检查、验收工作；负责落实园区招商引资优惠政策。', '宁夏吴忠国家农业科技园区管理委员会内设综合科、项目建设科、技术研发推广部、安监环保科和产业科共', '政府性基金预算财政拨款和国有资本经营预算财政拨款的总收支和年末结余结转情况，数据取自财决01-1表', '政府性基金预算财政拨款和国有资本经营预算财政拨款的总收支和年末结余结转情况，数据取自财决', '本表反映部门本年度政府性基金预算财政拨款收入支出及结转结余情况,数据取自财决09表', '用于保障封山禁牧工作的开展，改善生态环境，确保禁牧成效；强化土地管理；招商引资工作业务考察、项目洽谈、学习培训等工作交通费及差旅费', '99分，项目执行数为39.54万元。绩效自评过程中发现的问题及原因：一是预算执行进度和效率有待加强；二是绩效目标不太明确，增加了自评难度；', '在今后的工作中，本单位将尽量预估实际工作变化，在期初项目金额分配方面，合理分配项目资金，确保完成项目绩效目标。', '财政拨款收入：是指单位本年度从本级财政部门取得的财政拨款，包括一般公共预算财政拨款和政府性基金预算财政拨款。', '其他收入：是指单位取得的除“财政拨款收入”、“事业收入”、“经营收入”等以外的各项收入。', '项目支出：是指单位为完成特定的行政工作任务或事业发展目标，在基本支出之外发生的各项支出。', '人员经费：是指单位基本支出中用一般公共预算财政拨款安排的“工资福利支出”和“对个人和家庭的补助”。', '“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '机关运行经费：是指为保障行政单位（包括实行公务员管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>291</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>吴忠市教育局关于修订印发吴忠市教育局预算管理制度吴忠市教育局收入管理制度吴忠市教育局经费支出管理制度吴忠市教育局工程建设和政府采购项目资金支付管理制度吴忠市教育局政府采购项目管理制度吴忠市教育局合同管理制度印发吴忠市教育局工程建设项目管理制度试行的通知</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/gz/bmwj/202301/t20230111_3911415.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['吴忠市教育局关于修订印发《吴忠市教育局预算管理制度》《吴忠市教育局收入管理制度》《吴忠市教育局经费支出管理制度》《吴忠市教育局工程建设和政府采购项目资金支付管理制度》《吴忠市教育局政府采购项目管理制度》《吴忠市教育局合同管理制度》印发《吴忠市教育局工程建设项目管理制度（试行）》的通知_吴忠市人民政府', '吴忠市教育局关于修订印发《吴忠市教育局预算管理制度》《吴忠市教育局收入管理制度》《吴忠市教育局经费支出管理制度》《吴忠市教育局工程建设和政府采购项目资金支付管理制度》《吴忠市教育局政府采购项目管理制度》《吴忠市教育局合同管理制度》印发《吴忠市教育局工程建设项目管理制度（试行）》的通知', '《吴忠市教育局预算管理制度》《吴忠市教育局收入管理制度》《吴忠市教育局经费支出管理制度》《吴忠市教育局工程建设和政府采购项目资金支付管理制度》《吴忠市', '单位预算要实事求是、稳妥可靠。编制预算的基础数据资料要真实可靠。各项收入全部纳入预算，统一核算，统一管理。支出预算严格执行规定的开支范围及标准。', '单位预算编制要统筹兼顾，保证重点，合理安排各项资金。先保证基本支出，后安排项目支出；先安排重点项目、急需项目，后安排一般项目。', '单位预算管理要发扬民主，在主管财务局长的统一领导下，由财务室具体牵头，组织单位各科室参与预算编制，并经党', '单位预算要以项目绩效目标及其保障机制科学性、可行性为依据，科学合理编制、执行，确保预算管理规范、高效。', '（一）配合财务室提供与本科室有关的单位最新基础数据，如人员情况、资产存量、采购计划、履约合同等；', '预算是指单位根据教育事业发展、教育教学活动的目标和计划，按照有关法律法规和政策要求，编制的年度财务收支计划，由收入预算和支出预算组成。', '（一）收入预算应以上年度预算执行情况为基础，考虑预算年度的收入增减因素进行测算。单位收入包括公共财政预算拨款、政府性基金预算拨款、事业收入、上级补助收入和其他收入。', '基本支出预算指的是为保障单位正常运转，完成日常工作任务，根据年度单位综合财力情况进行统筹编制的年度经费支出计划。基本支出预算主要采用定额计算的方式确定。基本支出定额主要包括人员经费定额以及公用经费定额，公用经费定额进一步分为日常定额以及专项定额。', '项目支出预算是指为实现特定教育事业发展目标，在基本支出预算之外编制的年度项目支出计划。', '结合单位基础数据，根据最新公布的人员经费定额标准，采用定额计算的方式编制单位年度基本支出预算；', '财务科负责对各科室报送的项目支出预算是否符合规定的支出标准、是否符合国家的政策要求等情况进行审核，汇总形成', '单位组织收入应当合法合规，各项收费应当严格执行规定的收费范围、收费项目和收费标准，使用符合规定的票据。对按规定上缴国库或财政专户的资金，应当按国库集中收缴的有关规定及时足额上缴，不得隐瞒、滞留、截留、挪用和坐支。', '对单位预算进行总体把控，依照有关政策、制度以及单位规定的开支范围和标准从严控制各项开支。', '即时结清方式外，单位其他对外发生的经济行为均应按照规定订立书面合同，并按照单位合同管理的相关要求执行。', '应对预算执行情况进行全方位、全过程监控，及时收集整理预算执行信息，定期评估预算执行整体进度，', '预算追加、调整是指在年度预算执行中，由于发生不可抗力、上级部门政策调整、临时安排工作等不可预见因素造成的新增预算需求、超预算或预算开支范围更改调整的过程。', '确因上述政策性和不可预见因素需作调整的，应由责任科室提交书面申请，详细说明预算追加、调整的理由及政策依据等，财务科审核后提出', '各科室应主动对本科室实施的支出项目开展绩效自评，财务科每年应抽取部分资金量较大的支出项目开展重点绩效评价，所有评价结果应作为以后安排工作、编制预算的依据。', '在资金管理和使用中，违反国家有关法律、法规和财务规章制度的，依据《财政违法行为处罚处分条例》的有关规定进行处理。', '市教育局（以下简称：本单位）的收入管理，合理有效地使用资金，保障单位健康发展，依据国家财政管理的有关规定，结合我局实际情况，制定本制度。', '健全收入内部管理制度及内部监督制度，定期相互核对账目并实施岗位分离，包括：机构分离、钱账分离、物账分离。确保收款、会计核算等不相容岗位相互分离。', '收入是指单位依据国家有关法律法规及政策规定，为开展业务及其他活动依法取得的非偿还性资金。主要包括：财政预算拨款、事业收入', '。不得将财政性资金或者其他公款以个人名义私存私放、设立账外账，不得发生下列各种设立', '单位应当按照法定项目和标准征收非税收入，并按照有关规定开具财政票据，做到收缴分离、票款一致。', '建立票据购领、使用登记簿，登记票据编号及购买、使用日期；票据的购入、使用、注销要符合手续。', '单位应依据《中华人民共和国会计法》、《会计基础工作规范》等法律、法规健全财务、会计监督体系。', '接受财政、监察、审计等部门组织实施的各项监督检查，并积极予以配合。要根据财政、监察、审计等部门提出的审计检查报告改进内部会计控制制度，强化内部管理工作。', '）支出管理，规范财务支出行为，提高资金使用效益，根据《中华人民共和国会计法》《中华人民共和国预算法》《政府会计制度》等法律法规，结合预算执行要求、工作任务和财务支出实际情况，制定本制度。', '基本支出指用于满足机关日常工作需要的各类支出，按政府收支分类科目进行核算。包括工资福利支出、商品和服务支出、对个人和家庭的补助、其他资本性支出。', '项目支出是指由上级拨付以及本级财政根据有关规定安排的用于完成项目或专项任务的费用支出，由各科室提供支出依据，严格按照批准的范围、用途和规定的标准列支。', '的原则。业务经办人及其科室负责人对发票和事项的真实性、合法性负责；财务科对报账手续和资料的完整性负责。', '公用经费支出中：差旅费、公务接待费、公务用车服务费、维修（护）费、会议费、培训费、劳务费、制作费、', '（二）承办科室负责人和分管此项业务的副局长对支出事项的必要性、合理性进行审核并签署审核意见', '本单位的重点经费主要包括公务接待费、公务用车运行维护费、差旅费、会议费、培训费、维修维护费、办公费、印刷费和其他费用等，本部分主要对各项重点经费的支出范围、支出标准、审批流程及单据要求等进行规范。', '公务接待费指单位因公务接待活动而发生餐费、住宿费、交通费等相关的经费支出，应按照确认接待任务、履行审批、组织实施、结算审核报销四个节点严格管控。', '接待对象应当按照规定标准自行用餐，确因工作需要，局机关可安排一次工作餐。省级领导出席或陪餐的，就餐人员人均标准不得超过', '元用餐；接待对象自行用餐，用餐地点在吴忠市机关餐厅的，由接待对象自行按照机关餐厅对外收费标准向餐厅缴纳餐费；由', '可以安排午休房，费用不得超过全天住宿费标准的一半，所产生的费用可以在接待费中列支。', '当场结算，随后持接待费报销凭证到财务科进行报销。公务接待费报销凭证应当包括：《吴忠市教育局公务接待', '》、派出单位公函（或公务活动通知、邀请函、电话记录单、接待方案）、发票、接待清单、公务卡刷卡小票', '公务接待费实行一事一结，不得多单集中报销，不得大单化整为零进行报销。不得用公款报销或支付应当由个人负担的费用。不得报销任何超范围、超标准以及与公务活动无关的费用。资金支付应当采用公务卡或者银行转账方式结算，不得以现金方式支付。其他具体要求应严格按照《宁夏回族自治区公务接待费管理规定》（宁财（行）发〔', '申请公务用车，应由用车科室指定一名经办人向局办公室提出用车申请，填写《吴忠市教育局公务用车租赁', '等信息，经科室负责人签字、办公室审核、分管领导审批同意后，由局办公室统一向汽车租赁公司提出派车需求。', '如出现紧急情况，不能及时办理申请手续时，用车科室应及时与局办公室负责人沟通先行派车，并在事后五个工作日内补办相关手续。', '）汇总派车信息，持派车单与局办公室负责人进行核对，同时开具发票，办理相关结算事宜。', '结算时，局办公室相关人员应持公务用车报销凭证到财务科进行报销。公务用车报销凭证应当包括：《', '》、用车依据（文件）、发票、派车单等资料。报销凭证不齐全或内容不一致的，财务科不予报销。', '差旅费，指单位职工在公务出差期间按规定开支的城市间交通费、住宿费、伙食补助费和市内交通费。', '城市间交通费是指职工因公到常驻地以外地区出差乘坐火车、轮船、飞机等交通工具所发生的费用。', '第二十五条出差人员应按照规定等级乘坐交通工具，未按规定等级乘坐交通工具的，超支部分由个人自理。', '单位职工到常驻地以外公务出差发生的差旅费的支出标准按照《吴忠市本级党政机关差旅费管理办法（暂行）》（吴财发〔', '出差参加会议或培训，参会或参训期间驻地未发生变更的，除往返当日以外不再报销市内交通费。', '。在自治区以外地方出差的住宿费开支标准，参照财政部发布的中央和国家机关差旅住宿费限额标准执行。以上住宿费标准为最高限额。', '在自治区以外地方出差的伙食补助费标准，参照财政部发布的中央和国家机关差旅伙食补助费标准。在途期间的伙食补助费按当天最后到达目的地规定标准报销。', '出差人员应当自行用餐。凡由接待单位统一安排用餐的，应当向接待单位交纳伙食费。未按规定限额标准用餐的，超支部分个人自理。', '出差目的地、出差人员、出发返回时间等内容，附会议、培训通知等其他相关文件依据，经科室负责人、分管局长、局长审批后方可出差。', '如出现紧急情况，不能及时办理出差审批手续时，出差人员应及时与分管领导沟通先行出发，并在返回后五个工作日内补办相关手续。', '工作人员外出参加会议、培训，举办单位统一安排食宿的，会议、培训期间的食宿费和市内交通费用由会议、培训举办单位按规定统一开支；往返会议、培训地点的差旅费由本单位按照规定报销。住宿费、机票等支出，按规定必须使用公务卡结算，原则上不得以现金方式支付，如遇特殊情况需要本人现金支付的，办理报销手续时应附', '本制度所称会议，是指经市委、市政府同意由市教育局召开的本行业全市性会议（三类会议），以及本单位自行组织召开的内部会议（四类会议）。', '会议费开支范围包括会议住宿费、伙食费、交通费、会议场地租金、文件印刷费、专用设备租赁费等。', '交通费是指用于会议代表接送站，以及会议统一组织的实地考察、调研等发生的交通支出。参会人员参加会议发生的城市间交通费，按差旅费管理办法的规定回所在单位报销。', '会议费开支实行综合定额控制，除伙食费以外其他各项费用之间可以调剂使用。对于不发生的事项，报销额度上限应按明细标准进行相应扣减。特别是不安排住宿的会议不能列支住宿费，额度上也不能超过无住宿费的支出标准。', '单位举办会议由会议经办人员填写《预算资金申请表》，注明会议目的、会议地点、参会人员及数量、预计经费支出等内容，按事前申请审批程序进行审批，经批准后方可执行。', '会议结束后，承办科室经办人应当及时办理报销手续。办理会议费报销时应当提供：《预算资金申请表》', '》、会议通知、参会人员签到表、政府采购会议费结算明细单（会议定点场所盖章和会议主办人签字）、定点饭店等会议服务单位提供的费用原始明细等单据（含发票）。', '会议费支付应当严格按照国库集中支付制度和公务卡管理制度的有关规定执行，以银行转账或公务卡方式结算。禁止以现金方式结算。', '个月以内）教师岗位培训、教育教学业务培训、初任教师培训、教师综合培训、教育管理培训', '，以及参加上级教育部门和教育机构组织的外出业务培训、听课、观摩、学术研讨、教学比赛等教育教学业务活动等。', '培训费支出范围包括师资费、住宿费、伙食费、培训场地费、培训资料费、交通费以及其他费用。', '除师资费外，培训费实行分类、分区内外综合定额标准，分项核定、总额控制。综合定额标准如下：', '综合定额标准是培训费开支的上限，单位应在综合定额标准以内结算报销。各项费用之间可以调剂使', '，但伙食费不得超过上述明细标准。对于不发生的事项，报销额度上限应按明细标准进行相应扣减。特别是不安排住宿的培训不能列支住宿费，额度上也不能超过无住宿费的支出标准。', '小时。同时为多班次一并授课的，不重复计算讲课费。授课老师的城市间交通费、住宿费、伙食费按照差旅费有关规定和标准执行，由培训举办单位承担。委托培训机构培训的，由培训机构承担。', '局机关举办培训，邀请本部门及直属单位人员授课的，一律不得向授课人员发放讲课费。邀请非本部门及其直属单位人员授课的，可以参照上述相应标准发放讲课费。', '，注明培训名称、培训时间、培训事由、培训地点、预算情况及依据等内容，按事前申请审批程序进行审批，经批准后方可执行。', '》、培训通知、培训课程安排表、正式发票、实际参训人员签到表、讲课费签收单、培训机构出具的原始明细单据及电子结算单等履行报销手续。', '持培训通知、培训费票据到财务科履行报销程序，外出参加培训发生的差旅费支出按差旅费的相关要求办理报销手续。', '单位的日常维修维护工作由办公室统一负责，办公室负责人按照采购管理办法的要求负责选定具有相应资质和能力的合作服务单位，签订服务合同或框架协议，约定服务方式、付费标准及结算方式、结算周期等内容。', '单位职工在工作或使用过程中发现房屋及附属设施有问题时应及时上报办公室负责人。办公室负责人现场确认实际情况，如不能自行处理，则由相关科室填写《预算资金申请表》，注明具体情况及所需金额等，按事前申请审批程序进行审批。审批通过后，办公室负责人电话通知维修合作单位进行维修。', '维修合作单位到单位确认具体情况并实施维修，维修工作完成后单位的经办人员应组织进行验收确认，在维修单位提供的维修记录上签字确认，并留存一份交办公室负责人。', '单位按照合同约定定期与维修单位进行结算。结算时，维修单位需提供发票与维修明细，办公室负责人根据维修记录核对维修明细。确认无误后，由经办人持发票、《预算资金申请表》、《', '印刷费管理。局机关复印、打印原则上不得外出经办。一般性文稿等由各科室自行打印，规范性文件、报表、会议材料、大批量资料的装订、印刷等，局机关不具备条件的，由各相关科室提出申请，填制《教育局机关物品领用（印刷）申请表》列出明细清单，报局机关办公室、财务科及分管领导审定后由办公室统一安排外出装订、印制，金额达到政府采购', '严格采购与验收分离，完善保管制度，明确专人管理，建立实物台账，对办公用品（印刷品）的采购、验收、分发、领用等实行全程记录。', '单位按照合同约定定期与供货或印刷单位进行结算。结算时，供货或印刷单位需提供发票与物品（印刷品）明细，局办公室根据物品领用（印刷）记录核对确认无误后，由专人持发票、《', '》、《教育局机关物品领用（印刷）申请表》、物品领用（印刷）明细、签收记录、合同等证明材料履行报销审批程序。', '人员）因病住院、重大变故的走访慰问，由工会具体实施，事后在工会经费中列支核算，不得在局机关财务列支核算，更不得重复慰问。', '专项资金分配。市教育局根据专项资金使用范围和相关管理办法向市直各有关学校分配资金时，应由相关业务科室按规定拟定资金分配方案，报经分管此项业务的副局长和分管财务副局长审核，报请局长同意后，提请局党组会议研究决定。拨付资金时应', '机关职工个人非因工作需要不得借用公款。因办理公务需要预支公款的，要从严控制数额，由借款人填制《借款单》（见附表', '月对往来款项进行清理，及时催收借款，借款人应当积极配合做好还款或结算工作。如有特殊情况不能收回的，应及时提出', '本单位一切结算票据由财务科统一管理，并指定专人负责财政票据的管理工作，设置财政票据管理台账。定期向财政部门报送财政票据的购领、使用、结存、保管等情况，确保财政票据安全、规范使用。', '财政票据使用应按照财政票据编号顺序和规定用途使用，做到内容完整、字迹清楚、印章齐全，各联次内容和金额一致。如填写错误，应另行填开，涂改无效。填错的财政票据应当加盖作废戳记或注明', '严格按照银行结算制度办理银行业务。不得签发空头支票，任何科室或部门不准公款私存、私设', '财务科应及时登记银行存款日记账，每月必须与开户银行核对银行存款余额。对未达账款项，要及时认真清理，保证资金安全。', '财务人员必须严格遵守《会计法》，坚持公开、公平、公正原则核算好每一笔支出，处理好各项经济业务，统一编制单位年度预决算。', '财务科应于每季度终了后的次月向局党组报告上一季度局机关经费支出情况，并适时根据财政部门或本单位主要领导的要求提供相关财务报表或分析报告。', '本单位应不断完善内控制度，强化内控监督。财务科和办公室负责内控制度的制定和修订，其他各科室及局属事业单位应积极配合做好有关工作。', '此前本单位出台的有关规定与本制度不一致的，按本制度规定执行。本制度与同级财政部门新出台规定不一致时，以同级财政部门的规定为准。上级有新规定的，按新规定执行。', '报销单后应提供《吴忠市教育局机关工作人员出差（培训）审批表》及机票、车（船）票、住宿费发票、公务卡刷卡小票及其复印件等相关票据；', '《中华人民共和国政府采购法》《中华人民共和国政府采购法实施条例》《中华人民共和国招标投标法》《中华人民共和国招标投标法实施条例》《政府采购货物和服务招标投标管理办法》《政府采购非招标采购方式管理办法》《中华人民共和国民法典》', '资金实施的建筑工程、基础设施工程及设备安装工程，以及与工程项目紧密相关的工程勘察、设计、监理、审计等内容，包括新建、改建、扩建、加固、维修改造、装饰、绿化、基础设施等类型。', '货物是指各种形态和种类的物品。包括：多媒体设备、计算机、网络设备、图书（含电子图书）设备、课桌椅、实验室、录播教室、智慧教室（含软硬件）、智慧校园、专用功能教室、数字化管理平台、智慧教育及管理资源、教育教学所需后勤设施设备以及其他相关的教育教学装备（设施）和办公设备（设施）等。', '服务是指除货物和工程以外的其他政府采购对象。包括：教师培训、能力提升、课题研究、竞赛活动、物业服务、', '（四）局机关小型维修和零星采购事项的资金支付，参照《吴忠市教育局经费支出管理制度》执行。', '审核相关经办部门提交的支付申请和附件资料，对审批手续和所附资料的完整性负责，并及时、准确的按规定办理资金支付手续', '元（含）的，均应严格按照《吴忠市教育局“三重一大”决策制度》提交局党组会议研究决定；低于', '。因施工单位原因，影响竣工验收备案进度的，该项目竣工验收备案完成之前，不得支付项目尾款。', '必须真实、合法、有效、完整，具备以下要素：原始凭证名称和经济业务内容；填制原始凭证的日期、数量、单价和金额；填制原始凭证的单位印章、填制人姓名和接受原始凭证的单位名称；', '原始凭证须有经手人、审批人签字；发票没有明细的须附凭证附件。对要素不齐全的票据，会计不予审核、报账。', '严格按照政府采购合同要素登记备案的相关信息办理支付手续，项目资金的收款人名称、开户银行、银行账号等信息必须与政府采购合同一致。', '财务科应指定专人建立项目资金支付台账，并实时记录资金支付进度；项目实施科室应指定专人对项目实施进度和付款进度建立台账，并在每个季度末与财务科进行对账。', '（供应商所提供的货物、工程和服务比合同约定内容提高了使用功能、标准或者属于技术更新换代产品的需在此说明相关情况）', '为进一步加强吴忠市教育局政府采购项目的管理，规范采购操作程序，提高资金使用效益，切实保障采购质量', '进一步提升采购过程中的廉政风险防控水平，根据《中华人民共和国政府采购法》《中华人民共和国政府采购法实施条例》《中华人民共和国招标投标法》《中华人民共和国招标投标法实施条例》《政府采购货物和服务招标投标管理办法》《政府采购非招标采购方式管理办法》《中华人民共和国民法典》，以及国家、自治区和吴忠市其他有关招标采购的法律法规和文件精神，结合市教育局实际，制定本', '（一）依法规范原则。所有采购应严格按照规定的流程和程序实施，明确各环节、各相关人员工作职责，切实加强项目实施过程中的管理和监督。', '（二）科学谋划原则。深入结合实际情况，在满足先教学后办公、先基础后提升、先学生后教师的前提下，结合区、市年度工作重点及学校（幼儿园）特色发展的要求，科学、合理谋划采购项目。', '（三）公开公正原则。建立采购制度、程序、结果公开机制，持续推进采购程序、采购行为规范化和专业化建设，实现节支、防腐和物有所值的目标。', '（四）注重绩效原则。采购的货物、工程或服务应当在确保质量的前提下，尽量节约资金，同时压缩采购周期，提高行政效率，力求采购项目尽快发挥既定目标作用。', '成员参加；会议可根据不同采购项目的需要，邀请相关科室、局属事业单位、市直属有关学校（幼儿园）列席会议；会议议定事项，应当形成《吴忠市教育局项目建设领导小组会议纪要》。', '（四）负责各类政府采购相关资料的归集存档，包括：各类会议纪要、采购签报、合同（协议）、验收报告等；', '提出委托采购代理机构名单、组建评标委员会、谈判小组、询价小组的建议，包括代表采购人参加评标委员会、谈判小组、询价小组的科室、学校及人数，聘请评审专家的人数和办法；', '项目验收不合格，对中标企业出具验收不合格整改意见书，并要求其限期整改后，开展复验工作。', '（一）提出政府采购项目业务需求、项目预算和对供应商资格条件的建议，但不得违背政府采购法有关规定；', '（四）参与采购货物和服务的开箱清点、实施安装、调试使用、验收监督的全过程，协助办理货物资产调拨手续；', '（二）负责对政府采购合同有效期内，需要对合同内容进行变更的项目的审核以及风险评估工作；', '严禁以任何理由或借口将应该招标的项目拆分为限额标准以下项目或者以其他任何方式规避招标。', '（四）市直属各学校（幼儿园）申请市教育局安排补助资金的政府采购项目，经财务科和项目办审核后，提交局党组会议研究决定。', '万元以上的货物或服务项目，由项目办按照《中华人民共和国政府采购法》及其实施条例有关规定的程序实施。', '外，按项目实施的政府集中采购目录以内或分散采购限额标准以上的采购均应公开采购意向。采购意向应当提前公开，公开时限不得晚于上报采购计划前', '需求部门（科室）负责制定比选方案，比选方案报经项目领导小组会议审议通过后方可实施。比选方案应包含比选小组成员名单、比选通知、采购参数、', '），比选通知应载明项目名称、项目内容、项目控制价、报名时间、报名地点等。比选报名时间', '比选小组在报名时间截止后，通知报名单位比选活动开展的时间、地点和接收资料。报名时间截止后，报名不足', '比选小组按照比选方案开展比选活动，参加比选活动的小组成员和监督人员可就存在的疑问现场对比选小组提出质询。比选结束后，比选小组成员和监督人员对比选结果签字确认，并当场宣布比选结果。', '个工作日内与中标单位签订合同，中标单位放弃中标的，由排名第二的比选单位递补，以此类推。', '采购项目实施过程中，采购公告和采购文件的内容应当进行充分的调研论证和修改完善，由项目办填制《吴忠市教育局项目管理审核意见表》，分别经相关部门负责人审核签字确认后公开发布。', '（二）项目办或采购代理机构汇总商务、业务和技术问题处理意见，起草澄清函或质疑处理意见；', '（三）澄清函或质疑处理意见经分管局领导审核后，由项目办或采购代理机构在指定媒体上发出，澄清内容可能影响响应文件编制的，应当在规定时间前以书面形式通知所有领取采购文件的供应商，质疑处理意见由项目办或采购代理机构以书面形式通知质疑供应商和其他有关供应商。', '会议审定事项或意见分歧较大的询问、质疑问题，应当组织专家进行论证，或召集原评审委员会或协商小组复核后，报政府采购', '授权委托代理人应当取得经法定代表人签章的《吴忠市教育局政府采购项目授权委托书》（附件', '合同履行中，需追加与合同标的相同的货物、工程或者服务的，在不改变合同其他条款的前提下，可以与供应商协商签订补充合同，但所有补充合同的采购金额不得超过原合同采购金额的百分之十。', '合同继续履行将损害国家利益和社会公共利益的，双方当事人应当变更、中止或者终止合同。有过错的一方应当承担赔偿责任，双方都有过错的，各自承担相应的责任。', '应分别对采购项目基本信息、采购合同执行情况、项目资金支付进度情况建立台账，实行采购工作动态管理，监控工作进度，确保项目质效和资金支付安全。', '使用财政性资金采购集中采购目录以内的或者采购限额标准以上的货物、工程和服务项目的履约验收管理工作，', '适用《中华人民共和国招标投标法》及其实施条例的政府采购工程类项目的履约验收管理，按照相关法律法规规定执行。', '（一）提出验收申请。采购合同约定的履约验收条件达到时，供应商应当组织内部自验，自验合格后及时', '个工作日内审核是否达到采购合同约定的履约验收条件，达到履约验收条件的，启动履约验收程序，向供应商发出《', '人以上单数组成，并确定一名负责人。技术复杂、专业性较强的采购项目，可以邀请相关专业技术人员参与，专业技术人员可以由项目验收专班从本单位自行选择，也可以邀请相关领域专家参与验收。', '前期参与该项目的采购代理机构工作人员、评审专家、采购人代表以及政府采购回避制度规定的与供应商有利害关系的人员，应当回避。', '应当将招标文件（谈判文件、磋商文件、询价通知书、征集文件等）、投标文件（响应文件）、采购合同、封样样品等验收依据进行归集，移交', '验收小组可以采用现场展示、技术说明、测评测试、音视频、检验检测、专家论证、调研分析及争议纠纷解决、分节点验收、分期验收资料、工作量、问卷调查等多种形式开展验收工作。', '服务类项目在验收时供应商需提供服务单位对服务满意度的调查表、服务项目满意度、服务时限、服务内容等资料。', '列明验收情况及项目总体评价，并经验收小组全体成员和供应商签字。验收小组成员对需要共同认定的事项存在争议的，应当按照少数服从多数的原则作出结论。对验收意见报告载明的结论有异议的验收小组成员，应当在验收意见报告上签署不同意见并说明理由，否则视为同意验收意见报告。', '）专家付费。政府采购项目验收期间发生的费用原则上由局机关承担，采购合同有特殊约定的按照合同执行。当供应商提供的货物和服务质量达不到合同要求的，验收费用以及其他有关费用由供应商承担。采购项目验收专家付费标准按照《关于', '个工作日内将履约验收结果信息向社会公开，分节点或分期验收的，应当在每次验收结束后向社会公开。', '项目验收专班在组织和参与验收过程中，发现问题应当及时提出且立即向项目实施专班反映，并依照规定程序与供应商协商改变中标、成交结果，确保不发生损失。', '（二）验收小组成员必须按照招标文件、投标文件、各项承诺、合同要件、技术方案、配置型号等内容进行验收，不得私自改变验收标准，降低验收等级，遇到重大的技术问题要采取民主原则解决，验收小组成员都有自由发表意见的权力。', '（三）验收小组成员应当坚持原则，客观公正地独立提出验收意见并对自己的验收意见负责。', '（四）验收小组成员在验收中发现有下列不符合合同约定的情形的，应在验收报告中注明违约情形，并及时通知项目实施', '．供应商未按合同约定的时间、地点或方式履约，提供的货物型号或配置不符合合同约定，缺少应有的配件、附件、材料，货物的数量、质量、性能、功能达不到合同约定的（合同未约定的，按国家、行业有关标准或技术文件规定执行）。', '（六）验收小组成员在验收过程中发现有严重质量问题、假冒伪劣产品等重大可疑情况的，应及时书面向项目办反映。经确认属质量等问题的，项目实施专班应当及时与供应商进行交涉，追究违约责任；经确认属假冒伪劣产品的，应移交市场监管、质量监督等行政执法部门依法查处。', '任何单位和个人对政府采购活动中的违法行为，有权控告和检举，有关学校、机关科室应当依照各自职责及时处理，问题严重的应当移交有关部门处理。', '未涉及的政府采购其他事项，按照《中华人民共和国政府采购法》《中华人民共和国政府采购法实施条例》及有关规定执行。', '对拟采购的产品、服务、数量、技术规格、技术要求、交付或实施时间和地点、服务期限、验收标准及其他技术、服务等要求进行详细说明。（可附表）', '同志，为吴忠市教育局政府采购项目的合法代理人，以吴忠市教育局名义全权处理分管科室对外与政府采购有关的招标、签订合同以及合同执行的一切事宜。本授权书自签字之日起生效，有效期为一年。被授权人无转让委托权。', '本表按规定程序审核通过后，应及时向申请单位发送《吴忠市教育局政府采购履约验收通知单》；', '经审核，供应商提出的履约验收申请达到采购合同约定的履约验收条件，请供应商按照《政府采购履约验收通知单》确定的验收时间和地点配合做好验收工作。', '和采购人负责，严格参照政府采购相关精神、原则实施受委托的采购活动，遵守采购工作纪律，包括但不限于：', '．严禁参加本机构代理的采购项目的投标，采购代理机构工作人员不得参加本机构代理的采购项目的评审；', '．严禁在采购活动中与采购人、投标企业等有不正当的接触，不得发生影响采购公平、公正的行为。', '）合同管理，防范合同风险和减少纠纷，保障国有资产、财政资金的安全和自然资源、公共资源的有效利用，根据《中华人民共和国民法典》等有关法律、法规，结合市教育局实际，制定本制度。', '本制度所称合同，是市教育局在教育行政管理、公共服务和民事、经济活动中，作为一方当事人与自然人、法人或者其他组织签署的涉及国有资产、财政资金使用和自然资源、公共资源利用的合同、协议、承诺书以及涉及当事人之间民事权利义务法律关系的意向书、备忘录等法律文件。', '市教育局及其内设科室、所属事业单位在合同的谈判、草拟、审查、签订、履行、管理及争议解决中的活动，适用本规定。应对突发事件而采取应急措施订立合同的，不适用本规定。', '涉及政府采购合同、政府购买服务合同等行政合同的，具体应当符合《中华人民共和国政府采购法》《中华人民共和国招标投标法》及相应的行政法规的规定。', '合同的订立和履行要遵循合法、审慎、公平和诚实信用原则，保障国有资产、财政资金的安全和自然资源、公共资源的有效利用。合同管理遵循事前防范法律风险、事中控制法律风险为主及事后法律监督、补救为辅原则。', '以市教育局名义签订合同，必须坚持确有必要原则。拟约定事项的社会影响较大、关系重大的公共利益、法律风险较大，或合同标的较大的，或所涉事项列入或拟列入市重点项目及重大工程等合同为重大事项合同，应报', '（六）在合同中约定其他违反法律、法规、规章等禁止性规定或者损害国家、集体或第三人合法利益的内容。', '的管理体系。在合同审查和管理过程中，可委托法律顾问提供法律服务。各内设科室应指定专人负责合同事项统筹管理。', '以市教育局名义订立的合同，合同内容涉及两个或两个以上科室业务范畴的，实行相关科室会签制，牵头科室即为承办科室，不能确定承办科室的，由办公室', '承办科室应当按照法律、法规规定的程序和条件确定合同相对方。采用政府采购或者招投标方式确定合同相对方的，应当严格遵守《中华人民共和国政府采购法》《中华人民共和国招标投标法》等规定。', '承办科室应当对合同相对方的资产、信用、履约能力等事项进行充分了解，要求合同相对方提供以下资信依据进行审查，并留存原件或加盖公章的复印件备案：', '（一）企业法人营业执照副本原件并保存复印件，并委托法律顾问在国家企业信用信息网站核查相关内容；如对方是自然人，须提交身份证或其他合法有效证件并保存复印件，并委托法律顾问在吴忠市公安人口管理网站核查相关内容；', '（三）签订重大政府合同时，须要求合同相对方提供资产负债表、损益表、现金流量表、开户银行出具的资金证明及会计师师事务所出具的审计报告等资料。提供担保的，须查明担保人的担保资格和担保能力；提供资产抵押的，须核实抵押物的合法性及司法限制的情况；', '（四）对需具备专业经营许可资格的行业，要查证对方是否具有国家有关部门核发的单位经营许可证及相关人员的从业资格证书；', '必要时市教育局可进行资信调查，涉及重大、疑难问题或者风险较大的，可以委托专业机构调查。', '在合同磋商和起草过程中，承办科室应事先对合同的法律、经济、技术和社会稳定等风险进行全面分析，必要时应当进行风险论证。涉及重大、疑难问题或者风险较大的，可以邀请有关专家、法律顾问等参加论证。', '订立政府合同应当采用书面形式，优先使用合同示范文本。没有合同示范文本的，由承办科室负责起草，可委托法律顾问共同参与起草工作。', '合同文本要做到形式合法、合同标的明确，合同内容合法，主要条款完备，权利义务明确，文字表达准确。一般应当包括以下内容：', '合同中如有专业术语、特有词汇、重要概念，应设专门条款解释。合同中涉及数字、日期须注明是否包含本数。', '合同涉及境外的自然人、法人或者其他组织的，应当约定优先适用中华人民共和国法律，并约定由市教育局所在地的人民法院或者仲裁机构管辖；确需两种或两种以上文字版本的，应当明确中文版本为准或者优先。', '（一）合同条款是否完备，是否包括同类合同的必备内容，是否充分考虑了合同履行过程中可能涉及的问题；', '合同谈判、磋商、论证和起草等过程中，可能涉及国家秘密、商业秘密或工作秘密的，应采取必要的保密措施。承办科室应与对方签订保密协议或在合同中并入保密条款，明确违反保密条款应承担的具体的法律后果。', '参与磋商、起草、论证的人员不得擅自对外披露或者向他人提供有关政府合同的信息和资料。', '牵头负责。其中涉及资金收付、资产转移等与财务、国有资产管理相关的内容由财务科负责。在审查的过程中，办公室可委托专业法律服务机构（法律顾问）提出咨询意见', '采用国家、自治区、吴忠市有关部门制定的示范文本并且对主要条款没有进行修改、调整的合同，主要审查合同主体是否适格、订立的程序是否合法等内容。', '合法性审查应当同时对合同条款是否完整进行审查，必要时可以对合同内容的合理性提出意见。', '承办科室应按照合法性审查意见，对拟订立的合同进行修改。无法与合同相对人达成一致，或者经研究认为不宜按照合法性审查意见办理的，承办科室应当向合同所涉事项分管领导及主要领导书面说明理由。', '合法性审查程序终结但未正式订立，合同当事人变更实质性内容或者订立补充合同的，应当就变更或补充内容再次进行合法性审查。', '办公室应对拟盖章合同的订立材料、合法性审查材料进行形式审查，经比对存在问题的，办公室有权拒绝盖章并联系相关科室核实情况。补正材料应及时提交办公室核对，无误后方可用章。', '市教育局应当与合同相对方同时或于合同相对方之后用章。办公室应对合同文本加盖行政公章的使用情况登记造册并留存备查。', '合同应当明确签订的份数，签字、签章份数应当与合同约定的签订份数相一致。两页或两页以上的合同应当加盖骑缝章，并保证合同文本完整。', '合同订立后，承办科室应当全面跟踪合同履行情况，定期向分管领导或者主要领导报告工作进展。', '承办科室应定期对本科室所涉延续性业务的合同进行梳理审查，在合同到期前及时发起合同订立流程，避免相关业务出现中断。', '履约过程中涉及财政经费支付的，承办科室应在全面评估合同履行情况的基础上，根据合同约定的付款时间、付款方式及金额，及时按照局机关资金支出有关规定办理相关审批手续，并提交财务科审核。财务科应及时按照合同约定方式完成经费支付。', '出现下列情形之一的，承办科室应当及时预警并主张权力，采取措施预防和应对合同风险的发生：', '合同发生纠纷时，应当首先采取协商、调解方式解决。经协商或者调解达成一致意见的，应当签订书面协议。', '经协商或者调解不能达成一致意见的，承办科室应当及时会同法律顾问提请诉讼或仲裁解决，并做好应对工作，防止败诉风险。', '在合同纠纷处理过程中，未经市教育局集体决策同意，不得放弃属于市教育局一方在合同中享有的合法权益。', '违反本规定，有下列情形之一并造成较大经济损失或者严重影响的，由吴忠市教育局和局党组按照有关权限依法追究政纪、党纪责任；涉嫌严重违纪违法犯罪的，依法移交纪委监委和有关司法部门处理：', '合同订立、履行过程中取得的档案材料，应当由承办科室及时收集整理，并交局办公室保存、归档。', '年以上，本规定第五条所指重大合同的档案应当自订立之日起永久保管。法律、法规另有规定的，从其规定。', '项目的合法代理人，以吴忠市教育局名义全权处理分管科室对外有关的签订合同以及合同执行的一切事宜。本授权书自签字之日起生效，有效期为一年。被授权人无转让委托权。', '望贵公司收到本催告函三日内向我局书面说明情况，并加快履约进度，如继续违约，我局将通过诉讼途径解除合同并追偿违约金，以维护合法权益。', '应严格按照规定的流程和程序实施，明确各环节、各相关人员工作职责，切实加强项目实施过程中的管理和监督。', '过程中出现的质疑、投诉、合同纠纷等其他重要或争议事项。会议由领导小组组长主持，领导小组成员参加；会议可根据不同项目的需要，邀请相关科室、局属事业单位、市直属有关学校（幼儿园）列席会议；会议议定事项，应当形成《吴忠市教育局项目建设领导小组会议纪要》。', '工程建设项目经市政府批准后，项目办应根据批准的投资规模做好项目建议书、可行性研究报告、土地勘测定界报告、固定资产节能登记报告、用地预审及选址意见书、地质勘测、项目规划设计方案、环境影响评价报告、初步设计、建设工程规划许可证、建设用地规划许可证、人防手续、施工图设计（含消防）、施工图审查、消防设计审查等前期工作。', '的，应当报经原审批部门同意。对非客观原因增加项目投资概算的，项目单位、建设地点、技术方案变化对项目实施将带来明显影响的，需重新报批可行性研究报告。', '严格审查招标文件，特别是建设规模是否明确、投标人资格要求是否合规、投标保证金是否超额等内容', '应按批准的招标范围、招标方式和招标组织形式进行招标。变更招标方式和组织形式，应报相关部门批复同意。确因技术复杂、专业性强、抢险救灾等特殊原因无法招标的项目，应报相关部门批复同意。', '》等法律法规。不得将达到招标规模的项目采取拆分、肢解、化整为零等方式规避招标。不得制定不合理条款，限制、排斥本地区、本系统以外的法人或者其他组织参加投标。', '项目招投标活动。不得利用职权或者职务上的影响，向有关人员打招呼，以指定、授意、暗示等方式影响招投标工作。', '及处罚方式等，禁止不按招标文件和中标人的投标文件订立合同或订立背离招投标文件实质内容的合同。', '工程开工前，应当向建设行政主管部门申请领取施工许可证，领取施工许可证之日起三个月内必须开工。因故不能按期开工的，应当向发证机关申请延期；延期以两次为限，每次不得超过三个月。', '在建的建筑工程因故中止施工的，应当自中止施工之日起一个月内，向发证机关报告，并做好建筑工程的维护管理工作。建筑工程恢复施工时，应当向发证机关报告；中止施工满一年的工程恢复施工前，应当报发证机关核验施工许可证。', '法定代表人任命项目负责人，授权其全面负责工程质量、造价、安全、进度、廉政等工程项目全过程的控制和管理。', '负责项目的现场管理，以及项目详细实施计划制定、计划实施、对内对外工作协调、项目建设过程中的', '监理单位不得转让监理业务，不得承包工程，不得与所监理工程的承包单位或建筑材料、建筑构配件和设备供应单位隶属于同一管理单位，不得具有股份利益或其他利害关系。', '要定期召开工地例会，研究工程进度、安全、投资和质量等情况，重大问题要及时报告项目建设管理', '新建校舍和室内装饰装修工程竣工后入住学生前，学校应委托有资质的机构对室内空气质量进行检测，并将检测结果公示，接受学生、家长监督。凡检测不合格的，要', '工程建设项目，应严格实行按图施工，确需调整、变更的建设内容和项目，必须通过图纸互审确定。图纸互审', '实行工程签证会签会审制度。设计图以外的工程项目（含设计变更、因设计或建设单位原因造成的返工', '，不得回忆补签。所发生的签证项目必须在施工日志和监理记录中有相关内容记载，同时必须与原始会签资料及工程签证相一致。工程签证', '，在工程进度付款申请表上签署付款意见。申请表由施工方编制，监理工程师初审，现场甲方代表、项目负责人复审。复审无误后，由', '要严格控制工程总造价。工程总投资原则上不得超概算，工程结算价原则上不得超工程中标价，确属实际需要，必须增加投入的，要按规定程序报批，否则不作结算与拨款依据。', '严格竣工验收程序。验收时，建设、勘察、设计、施工、监理单位分别汇报工程合同履行情况以及相关法律、规范执行情况，审阅工程档案资料，实地检查工程质量，验收专家组', '验收意见，对验收中存在的问题进行督促，责令施工方限时改正，不得将不符合竣工验收条件的项目提交验收，不得随意简化验收程序', '施工单位根据施工图和所完成的工程量、项目设计变更、现场签证等其他有关结算的原始资料，编制', '书。造价咨询企业对工程结算成果文件承担相应的法律责任。建设、施工、监理单位对工程结算依据的真实性承担相应责任。', '个月内报请初步设计审批部门组织竣工验收，确有困难的，应报请初步设计审批部门研究同意后方可延期验收，延长期一般不得超过', '建设工程要严格按照《中华人民共和国档案法》的有关规定，由专人负责，建立健全建设工程项目的档案。其内容包括从项目提出筹划到工程竣工验收各个环节和阶段的文件、合同、资料和图纸等，都要严格地按规定收集、整理、归档，形成完整的建设工程档案。工程资料均以原件形式归档。', '学校要加强校舍的管理和维护工作。工程项目交付使用后，学校应制定管理制度，加强校舍的日常维护及季节性检查维修，以延长房屋的使用寿命。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>291</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>吴忠市第三届人民代表大会第一次会议上的报告</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfgzbg/201908/t20190801_1640126.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会作政府工作报告，请予审议，并请市政协委员和其他列席人员提出意见。', '面对市情的新变化、发展的新要求，在自治区党委、政府和市委的领导下，在市人大和市政协的监督支持下，政府工作坚持以科学发展观统领全局，紧紧依靠全市各族人民，凝心聚力谋发展，开拓创新求突破，圆满完成了市二届人大一次会议确定的各项目标任务。全市地区生产总值由2003年的82.6亿元增加到136亿元，年均增长12.7%，人均生产总值迈上1000美元新台阶。地方财政收入由2003年的4.7亿元增加到13亿元，年均可比增长14.9%。城镇居民人均可支配收入和农民人均纯收入分别由2003年的6126元和2507元增加到9680元和3400元，年均分别增长12.1%和7.9%。市域经济综合实力稳步提升，县域经济活力明显增强，青铜峡市跃居西部百强县第43位，盐池县在全区山区县中率先跨过财政收入亿元关口。', '面对市情的新变化、发展的新要求，在自治区党委、政府和市委的领导下，在市人大和市政协的监督支持下，政府工作坚持以科学发展观统领全局，紧紧依靠全市各族人民，凝心聚力谋发展，开拓创新求突破，圆满完成了市二届人大一次会议确定的各项目标任务。全市地区生产总值由', '全市农业总产值由2003年的26.8亿元增加到41.9亿元，年均增长5.6%。粮食生产稳定增长，奶产业、设施农业、酿酒葡萄、高酸苹果、滩羊、肉牛、圆枣、甘草等特色产业显示出强大的发展后劲。全市奶牛存栏达到18万头，比2003年增长了1.8倍。利通区被评为“全国牛奶生产强县”。培育市级以上农业产业化龙头企业77家，发展农村专业经济合作组织253个，认定无公害产地60个。“盐池滩羊”产地证明商标成功通过国家注册。实施村企互动共建新农村活动及千村整治、塞上农民新居、山区危房危窑改造等工程，全市新建塞上农民新居示范点20个，完成危房危窑改造5853户，农村生产生活条件有效改善。市区率先在全区开展试点，农村面源污染综合整治取得显著效果。土地、矿产资源、水资源节约利用取得新成效，耕地保护、水利建设、水土保持不断加强。全市砌护渠道600多公里，新建改造水利设施8000多座，新修“三田”18.8万亩，改造中低产田35.9万亩，解决了22万人的安全饮水问题。造林绿化、封山禁牧、退耕还林(草)取得丰硕成果，累计完成人工造林面积196.2万亩，封山育林33.5万亩，草原围栏488万亩，森林覆盖率由2003年的6.7%提高到9%。青铜峡市跻身全国林产业示范县和绿色小康县行列，盐池县荣获全国生态建设先进县。扶贫开发成效显著，抗旱避灾农业与封山禁牧接续产业稳步发展，整村推进工程、同心东部引水工程等深入实施，市区孙家滩、同心惠安新村等生态移民项目发挥效益，引领作用明显。贫困人口由2003年的17.1万人减少到了2.3万人。', '全社会固定资产投资累计完成241.5亿元，年均增长22.9%。开工建设了一批重点基础设施项目。全市新建等级公路1023公里，公路通车里程比2003年增加1349公里。太中银铁路过境段、盐中高速公路过境段等项目顺利推进。市区实施了老城商贸核心区改造、新区开发、城中村改造、城乡环境综合整治与绿化美化等工程，城市功能和品位不断完善和提升。城市建成区面积由16.7平方公里扩展到23平方公里，人均公共绿地面积由0.6平方米增加到7.5平方米。加快了城市西移与近水亲河，滨河大道、金滨路建设，防洪排涝工程启动实施，大幅拉开了滨河生态城市框架。县城建设各具特色、各展异彩，道路、供热、供水、垃圾处理等基础设施日趋完善。青铜峡小坝东区开发、城市景观绿化，盐池瓮城古迹修复、革命历史纪念馆工程，同心北沟综合治理、红军西征纪念园建设，红寺堡城区北扩、生态绿化等一批项目顺利实施，城市面貌焕然一新，人居环境不断改善，集聚效应和辐射带动能力日益增强。', '第三产业增加值预计达40.8亿元，年均增长9.7%。 “沙漠王子”等品牌大步走向市场，成为全国知名品牌。城乡流通体系不断完善，物价基本保持稳定，消费市场更加繁荣兴旺。连锁经营、物流配送、电子商务、信息中介、金融、保险、证券、社区服务、餐饮等服务业快速发展。全市社会消费品零售总额由2003年的18.9亿元增加到30亿元，年均增长12.9%。“万村千乡市场工程”加快推进，全市建成标准化农家店650个，受益农民达65万人。红色经典、生态农业等特色旅游资源开发加快，旅游市场日趋活跃，旅游总收入由2003年的4800万元增长到3.5亿元，增长6倍多。盐池、同心进入全国百家红色旅游经典景区行列。', '企业产权制度改革取得新的进展，企业改制面达95%。完成了国有企业下岗失业人员基本生活保障向失业保险制度并轨工作。行政管理体制改革稳步推进，平稳实施了调整市区机构设置、进一步理顺市区管理职能的决定和全市党政群机关编制实名制管理。完成了市区经营性事业单位转企工作。财政收支分类改革不断深化，部门预算管理得到加强，国库集中支付和乡财县管乡用制度全面建立，政府采购规模逐步扩大，收入分配政策和规范津补贴工作得到及时落实。撤并乡镇与农村税费改革顺利完成，取消了农业税，累计化解乡镇债务15175万元。农村义务教育经费保障机制改革全面推进。辖区金融体制改革不断深化，组织体系日益健全，税收征管体制更加完善，金融、税收对经济社会发展贡献明显提升。成功举办了“中国文化宣传周”、“全国中小学生书法节”等大型活动，大幅度提升了吴忠的知名度。主动“走出去”、“请进来”开展招商引资和经贸合作。先后组团到发达省市山东、浙江、江苏、北京等地考察学习，专门组团赴马来西亚，积极探寻与马来西亚及中东国家发展经贸关系的新途径，迈出了合作共赢的实质性步伐。引进了中国华能、内蒙庆华、中国阳光等一批大企业、大集团落户吴忠，与湖南长沙、中国农业大学、宁夏大学等地区与机构建立了友好合作关系，实施了一批合作项目。四年累计落实招商引资合同项目220个，实际到位资金91亿元。出口企业发展到83家，今年预计完成进出口总额1100万美元，是2003年的1.3倍。', '科技事业发展步伐加快，科技特派员创业行动成效显著，以企业为主体的创新体系逐步建立，一大批新技术、新成果得到推广应用，宁夏吴忠国家农业科技园区通过自治区验收，全国科技强警示范城市创建任务基本完成，科技进步对经济增长的贡献率达到47%。教育优先发展的地位更加突出，全社会办教育的氛围更加浓厚，全市提前一年完成“两基”攻坚任务，利通区、青铜峡市实现教育强区(市)目标。信息技术教育居自治区领先水平。教育资源有效整合，学校布局不断优化，实施中小学新改扩建项目200个，创建自治区“百标学校”24所。吴忠职业技术学院更名为宁夏民族职业技术学院，青铜峡市职业教育中心被列为全国重点职业中专。群众性精神文明创建活动广泛开展，建设村级组织活动场所116个，创建全区五星级社区3个，社会文明程度不断提高，涌现了全社会崇尚的金峰、魏斌、朱玉等英雄模范人物，学先进、比奉献的氛围更加浓厚。文化体育事业日益繁荣，群众文化丰富活跃，宣传文化体育中心户创建经验在全区推广，吴忠体育馆等一批文体设施建成使用，成功举办了太阳山之夜大型交响音乐会、吴忠市首届运动会、中西部十二省市区领导干部乒乓球比赛等大型文体活动。文物保护和开发得到加强，董府、盐池张家场古城址和青铜峡鸽子山遗址被列为全国重点文物保护单位。城乡广播电视公共服务体系基本建立，完成有线电视数字化平移，微波信号覆盖全市农村地区。公共卫生和医疗服务体系建设不断加强，市疾控中心等14个市(县)级医疗卫生机构、11个城市社区卫生服务站、40所乡镇卫生院和547个标准化村卫生室投入使用。新型农村合作医疗实现全覆盖，农民参合率达到83%以上。药品统一招标、统一价格、统一配送“三统一”制度全面实行。吴忠市被评为“全国无偿献血先进城市”。农民健康教育与健康促进行动工程启动实施。青铜峡市创建为国家食品安全示范县。人口与计划生育工作成效显著，人口自然增长率首次攻克千分之十难关，今年控制在9.73‰以内，计划生育率达到92.53%。民族宗教政策深入落实，宗教稳定，民族团结。外事侨务、气象、档案、住房公积金等工作取得新成绩，妇女儿童、残疾人、老龄、统计、地震、保密等工作全面推进。国防教育和人防、民兵预备役等工作不断加强，国民经济动员正规化建设走在全区前列，双拥共建取得新成效，吴忠首次获得国家双拥模范城称号。', '科技事业发展步伐加快，科技特派员创业行动成效显著，以企业为主体的创新体系逐步建立，一大批新技术、新成果得到推广应用，宁夏吴忠国家农业科技园区通过自治区验收，全国科技强警示范城市创建任务基本完成，科技进步对经济增长的贡献率达到', '高度重视政府管理创新和效能建设，不断深化行政审批制度改革，四年清理各类授权行政许可事项263项，取消63项。整合提升市、县政府政务大厅职能，实行行政审批事项集中办理。全面推行政务公开，强化监察和审计监督，开展商业贿赂专项整治。制定实施政府工作规则，成立政府法律顾问团，完善公众参与、专家论证和集体决策相结合的机制，政府决策更加科学民主。严格执行市人大及其常委会的决议、决定，及时向政协通报政情，认真办理人大代表议案、建议和政协委员提案，与民主党派、工商联的沟通联系继续加强，与工会、共青团、妇联等群众团体的联系更加密切。民主法制建设不断深入，完成“四五”普法，启动“五五”普法。加强制度建设，市政府及其组成部门新订或修改出台了各类制度300多项，规范了运行程序，增强了服务效能。大力推进“平安吴忠”建设，建立重大突发公共事件应急机制。市场经济秩序有了较大改观，产品质量、食品药品、安全生产等监管不断加强，安全生产控制指标降幅连续三年居全区前列。认真做好信访工作，积极调处人民内部矛盾。加强社会治安综合治理，严密防范和依法打击各类违法犯罪活动，保持了社会稳定。', '高度重视政府管理创新和效能建设，不断深化行政审批制度改革，四年清理各类授权行政许可事项', '这些成绩的取得，是在自治区党委、政府和市委正确领导下，全市各族人民锐意进取、干事创业的结果，也是全市上下和衷共济、通力协作、共同奋斗的结果。在此，我代表市人民政府，向全市各族人民，向各民主党派、工商联和各人民团体，向离退休老同志，向中央和自治区驻吴各单位，向公安干警和驻吴人民解放军、武警官兵，向所有关心、支持吴忠发展的社会各界朋友，表示崇高的敬意和衷心的感谢！', '各位代表，本届政府履行职责四年以来，深刻认识和正确把握新市情带来的新机遇，面对矛盾与困难、压力与挑战，坚持谋长远、打基础，探索新思路、寻找新突破；始终把关系民生的事放在各项工作的首要位置，财力再紧再难，都坚持公开承诺为民办实事，坚持优先解决教育、医疗、安全饮水、弱势群体救助、失地农民安置补偿等问题，从点点滴滴着手为百姓谋福祉，从方方面面努力让群众得实惠；紧扣山川发展差别大的实际，在推动川区快速发展的同时，更加关注山区的发展，更加重视山区群众的脱贫致富；高度维护市委的权威，自觉维护与人大、政协及社会各界的团结；始终维护民族团结，坚决保持宗教稳定，充分调动一切积极因素，形成加快发展的强大合力；以更加开放的理念，举办好提升吴忠知名度的各项重大活动，采取一系列打响吴忠品牌的有效措施，让吴忠大步走向国际。这些都为全面推动我市经济社会健康快速发展注入了新的活力和动力。也可以说，这四年是我们攻坚克难、负重拼搏、再求突破的四年；是吴忠积蓄实力、重新崛起、阔步前进的四年；是全市人民奋起直追、艰苦创业、享受更多实惠的四年；也是吴忠城乡面貌显著变化、各行各业展现新姿的四年！', '成绩来之不易，但回顾总结过去，豪迈中我们感受更多的是压力和责任，是对困难与不足的审视和警觉。应当看到，吴忠的发展仍然面临着不少困难和问题。', '市域经济总量小、实力弱，山川之间、城乡之间发展不平衡；经济增长方式较为粗放，资源、能源消耗较高，节能减排、环境保护压力大；工业结构性矛盾突出，企业自主创新能力不强；现代农业发展不快，山区扶贫开发任务繁重；农民增收渠道单一，收入增长幅度不高；财政保障能力较弱，硬性支出加大；困难群众生活救助、失地农民转移就业等一些关系民生的问题尚未得到有效解决，医疗、教育等公共产品供给还难以充分满足人民群众的需求；政府效能建设有待加强，发展环境需要不断改善；招商引资的成效还不突出，引进的大项目还不多。对这些问题，我们必须以高度负责的精神，切实加以解决，决不辜负人民群众的期望。', '目前，吴忠仍然处在一个攻坚克难、爬坡追赶的发展阶段，经济欠发达是最大的市情，推进跨越式发展是吴忠的必然选择。从现在到2012年，是全市上下必须积极应对挑战、抢抓机遇，推进跨越式发展的关键五年。我们必须从战略上，牢牢把握解放思想这一法宝，不断破除束缚发展的思想、体制、制度障碍，努力营造开放包容、借力发展、争上项目的创业氛围，让创业活力更加喷涌迸发；牢牢把握科学发展这一灵魂，切实转变发展方式，加快经济结构调整和产业培育，努力实现速度质量效益相协调，消费投资出口相协调，人口资源环境相协调；牢牢把握构建和谐这一根本，统筹城乡、山川发展，更加注重改善民生，切实维护公平正义，激发社会活力，让改革发展成果惠及广大人民群众；牢牢把握改革创新这一主线，更加注重观念创新、制度创新、科技创新和工作创新，提高全社会自主创新能力，全力推进我市的改革开放和现代化事业。', '目前，吴忠仍然处在一个攻坚克难、爬坡追赶的发展阶段，经济欠发达是最大的市情，推进跨越式发展是吴忠的必然选择。从现在到', '牢牢把握解放思想这一法宝，不断破除束缚发展的思想、体制、制度障碍，努力营造开放包容、借力发展、争上项目的创业氛围，让创业活力更加喷涌迸发；牢牢把握科学发展这一灵魂，切实转变发展方式，加快经济结构调整和产业培育，努力实现速度质量效益相协调，消费投资出口相协调，人口资源环境相协调；牢牢把握构建和谐这一根本，统筹城乡、山川发展，更加注重改善民生，切实维护公平正义，激发社会活力，让改革发展成果惠及广大人民群众；牢牢把握改革创新这一主线，更加注重观念创新、制度创新、科技创新和工作创新，提高全社会自主创新能力，全力推进我市的改革开放和现代化事业。', '高举中国特色社会主义伟大旗帜，认真贯彻党的十七大、自治区第十次党代会和吴忠市第三次党代会及三届四次全体(扩大)会议精神，解放思想、开拓创新，深化改革、扩大开放，着力转变发展方式，大力实施兴工强市战略和城镇化带动战略，加快推进现代农业和服务业发展，全面加强社会建设、文化建设和民主政治建设，为建设山川秀美、特色鲜明、民族团结、社会稳定、人民富裕的小康吴忠、实力吴忠、魅力吴忠、和谐吴忠而努力奋斗。跨越式发展的奋斗目标是：力争到2012年，全市地区生产总值达到270亿元，在今年基础上翻一番；地方财政收入20亿元以上；全社会固定资产投资累计超过700亿元；城镇居民人均可支配收入、农民人均纯收入分别达到15000元和5000元；人口自然增长率控制在10‰以内；万元GDP能耗下降20%，主要污染物排放总量削减30%。', '高举中国特色社会主义伟大旗帜，认真贯彻党的十七大、自治区第十次党代会和吴忠市第三次党代会及三届四次全体', '坚定不移地实施兴工强市战略，围绕“两城五园”建设，加快资源开发、结构调整、项目带动和技术创新。大力培育以煤炭、电力为主的能源产业集群，以煤化工、石油化工为主的化工产业集群，以铝、镁及其深加工为主的新材料产业集群，以造纸包装、农产品加工、羊绒深加工等为主的轻工产业集群；做强以仪器仪表、重型装载机械为主的制造业、以多晶硅冶炼和深加工为主的高新技术产业产业。全力打造太阳山新型能源化工城，重点发展煤炭、电力、化工、新材料及新能源产业，建成占到全区三分之一份额的煤化工基地，成为全区镁合金等新材料生产研发基地、大型风电场和太阳能研发利用基地，到2012年GDP超过50亿元；打造青铜峡新型铝业城，大力发展铝、镁、镁合金及其精深加工产业，建成西部重要的铝、镁及其合金等新材料加工基地，到2012年GDP超过90亿元。加强市区金积、盐池东顺、同心羊绒、青铜峡嘉宝和红寺堡等五个工业园区的基础设施建设，完善配套功能，优化发展环境，积极承接发达地区产业转移，引导现有企业向园区聚集，使园区真正成为产业聚集、特色鲜明、带动县域经济发展的重要增长极。力争把金积工业园建成中西部重要的乳品加工基地、造纸印刷工业基地；把青铜峡嘉宝工业园建成市域重要的机械加工和农产品加工基地；把盐池东顺工业园建成市域重要的石化产业基地；把同心羊绒工业园建成全国重要的羊绒集散和加工基地；把红寺堡工业园建成全区以葡萄深加工为主的农产品加工基地。通过产业培育和园区建设，巩固提高中小企业发展，引进建设一批新的项目，使地方工业的实力更加强大，对地方财政的贡献更加突出。到2012年，全市工业总产值突破500亿元，在现有基础上翻一番，对经济增长、财政收入的贡献率分别达到70%和65%。年销售收入过亿元的企业发展到50家、过10亿元的企业发展到13家、过50亿元的企业发展到4家。', '太阳山新型能源化工城，重点发展煤炭、电力、化工、新材料及新能源产业，建成占到全区三分之一份额的煤化工基地，成为全区镁合金等新材料生产研发基地、大型风电场和太阳能研发利用基地，到', '青铜峡新型铝业城，大力发展铝、镁、镁合金及其精深加工产业，建成西部重要的铝、镁及其合金等新材料加工基地，到', '金积工业园建成中西部重要的乳品加工基地、造纸印刷工业基地；把青铜峡嘉宝工业园建成市域重要的机械加工和农产品加工基地；把盐池东顺工业园建成市域重要的石化产业基地；把同心羊绒工业园建成全国重要的羊绒集散和加工基地；把红寺堡工业园建成全区以葡萄深加工为主的农产品加工基地。通过产业培育和园区建设，巩固提高中小企业发展，引进建设一批新的项目，使地方工业的实力更加强大，对地方财政的贡献更加突出。到', '深入实施城镇化带动战略，统筹布局全市城镇基础设施建设，大步推进城乡一体化进程。加快建设覆盖全市、贯通内外的综合道路交通网络。规划建设河东机场至太阳山、古窑子至青铜峡、滚泉至桃山口、沿山高速四条穿境高速公路及吴忠黄河公路大桥、小坝至青铝集团沿河快速通道、S101线市区至金积拓宽改造等重大道路交通项目，在吴忠市区形成以主城区为轴心、周边5公里为半径的绕城高速圈。进一步加快城镇供排水、消防、供电、供热、供气、通讯、公交、环卫等公共设施建设，不断完善城市功能。依托区位条件、历史文化、民俗风情和产业定位，培育城市特色。力争5年内在城市交通、公用设施、生态景观建设和城市品牌塑造等方面迈出扎实步伐。市区着力打造商贸发达、特色浓郁的滨河生态城市。到2010年，实现市区与青铜峡小坝跨河相连、与金积及青铜峡工业区结成一体，城市建成区面积达到50平方公里，人口达到35万，绿化覆盖率达到40%。到2012年初步建成国家园林城市、全国卫生城市、环保模范城市，使吴忠成为更加适宜居住和创业、承接大银川、辐射陕甘蒙毗邻地区的宁夏次中心城市。青铜峡进入全国百强县；盐池建成宁夏山区工业第一县，争创自治区园林城市；同心成为干旱带扶贫开发示范县，建成具有浓郁塞上风情的生态商贸城市；红寺堡高标准完成移民扶贫开发任务，建成生态城市；太阳山成为宁夏经济社会发展的重要增长极，建成水保生态城市。建成一批布局合理、设施配套、功能健全、环境优美、富有特色的新型小城镇。', '深入实施城镇化带动战略，统筹布局全市城镇基础设施建设，大步推进城乡一体化进程。加快建设覆盖全市、贯通内外的综合道路交通网络。规划建设河东机场至太阳山、古窑子至青铜峡、滚泉至桃山口、沿山高速四条穿境高速公路及吴忠黄河公路大桥、小坝至青铝集团沿河快速通道、', '紧紧围绕增加农民收入，加大农业投入，不断调整优化农业结构，落实支农惠农政策，全面发展农村经济，加快推进社会主义新农村建设。现代农业快速发展，特色产业规模持续扩大，建成100万亩优质粮食、50万亩高效节水设施农业、50万头奶牛、50万头肉牛、600万只滩羊、50万亩高酸苹果、50万亩葡萄、50万亩红枣、100万亩甘草、200万亩饲草等“十大农业产业基地”。保障粮食等农产品供给，巩固提高农民市场化组织程度与农业抗风险能力。培育壮大龙头企业与各类专业协会、营销组织，拉长产业链，提高农产品附加值。到2012年，川区率先建成全区现代农业示范区，山区率先建成全区节水旱作农业示范区。加快基础设施向农村延伸、公共服务向农村覆盖的进程。山区农村全部实现通路、通电、通邮、通电话、通班车、通广播电视，川区在此基础上，绝大多数通上自来水，使用沼气、太阳能等清洁能源，各乡建有垃圾集中填埋场、各行政村设立垃圾集中清收点、各自然村都有环境卫生保洁员。以“塞上农民新居”、“危窑危房改造”和村容村貌整治为抓手，大力实施中心村建设和农村小康环保行动计划，力争完成所有建制村的综合整治，使农村基础设施大幅度完善配套，农民人居环境和生活质量得到更大改善，基本形成富有现代气息的村庄体系。山区按规划完成生态移民工程，从根本上解决山区农民脱贫问题。通过新农村建设的加速推进，让更多的农民走上硬化路、喝上干净水、用上卫生厕、使上洁净能、住上砖瓦房。', '紧紧围绕增加农民收入，加大农业投入，不断调整优化农业结构，落实支农惠农政策，全面发展农村经济，加快推进社会主义新农村建设。现代农业快速发展，特色产业规模持续扩大，建成', '采取更加积极的扶持政策，着力加快服务业发展。把旅游业作为新的经济增长点，挖掘整合大漠黄河、草原生态、红色经典等特色旅游资源，加大旅游项目策划、包装、宣传力度，完善提升景区服务配套功能，打造精品旅游线路和特色旅游景区，培育发展旅游商品等配套产业，增强吸引力，努力建成继沙湖、沙坡头之后宁夏又一特色精品旅游区，使吴忠成为宁夏乃至西北旅游目的地，旅游业对第三产业发展拉动作用显著增强。力争到2012年，全市接待游客达到220万人次，旅游总收入突破11亿元。充分发挥传统商贸优势，突出发展现代商贸流通业，以牛羊肉及其皮毛、废旧金属等可再生资源、粮油食品、瓜果蔬菜等为重点，集中建设一批基础配套、信息便捷、辐射面广的专业化集散市场，全面发展休闲、会展、中介、金融、信息等新兴业态，构建与周边城市功能互补的物流体系，把吴忠打造成比较优势明显的区域性商贸物流中心。', '采取更加积极的扶持政策，着力加快服务业发展。把旅游业作为新的经济增长点，挖掘整合大漠黄河、草原生态、红色经典等特色旅游资源，加大旅游项目策划、包装、宣传力度，完善提升景区服务配套功能，打造精品旅游线路和特色旅游景区，培育发展旅游商品等配套产业，增强吸引力，努力建成继沙湖、沙坡头之后宁夏又一特色精品旅游区，使吴忠成为宁夏乃至西北旅游目的地，旅游业对第三产业发展拉动作用显著增强。力争到', '严格保护耕地，着力推进资源节约和高效、有序、有偿利用，在强化土地、矿产和水资源管理、加大节能减排、发展循环经济上取得新成效，重点行业、企业的能源、原材料、水资源和土地集约节约水平明显提高，重点流域、重点区域、重点行业环境质量明显改善，清洁生产模式广泛推行。基本实现工业污染物达标排放和循环利用，努力为子孙后代留一顶蓝天、一方清水和一片净土。继续实施退耕还林、退牧还草、封山禁牧和植树造林，加强小流域治理、防洪、防涝和防沙治沙，减少水土流失。充分开发利用市域内的湖泊、湿地、水系、公园等资源，加强河流沿线、主干道路两侧生态绿化和城镇景观绿化，构建城乡联动、山川共进的生态环境建设大格局。到2012年，新增造林面积320万亩，其中治沙130万亩，森林覆盖率达到15%，使全市草原、植被稳定恢复，山区林草相间，生态环境明显改善，再现山川秀美新景象；川区林网密布、沟渠纵横、湖泊湿地相连，凸现塞上江南好风光。', '严格保护耕地，着力推进资源节约和高效、有序、有偿利用，在强化土地、矿产和水资源管理、加大节能减排、发展循环经济上取得新成效，重点行业、企业的能源、原材料、水资源和土地集约节约水平明显提高，重点流域、重点区域、重点行业环境质量明显改善，清洁生产模式广泛推行。基本实现工业污染物达标排放和循环利用，努力为子孙后代留一顶蓝天、一方清水和一片净土。继续实施退耕还林、退牧还草、封山禁牧和植树造林，加强小流域治理、防洪、防涝和防沙治沙，减少水土流失。充分开发利用市域内的湖泊、湿地、水系、公园等资源，加强河流沿线、主干道路两侧生态绿化和城镇景观绿化，构建城乡联动、山川共进的生态环境建设大格局。到', '坚持社会主义市场经济的改革方向，正确处理改革、发展、稳定的关系，增强改革措施的协调性和针对性，形成有利于各类经济主体平等参与、公平竞争、有序发展的体制机制。继续深化企业产权制度改革，实现制度、管理、技术创新，使改制企业改彻底、有活力、快发展。积极创造条件，鼓励中小企业大发展，鼓励非公有制企业创新经营机制，推进民间资本与市外资本嫁接联合，大力发展家庭经营型企业，让非公有制经济成为市域经济主体，全民创业成为发展的主旋律，让更多群众拥有财产性收入。稳步推进行政体制改革，形成权责统一、分工合理、决策科学、执行顺畅、监督有力的行政管理体制。进一步加快科技、教育、文化、卫生、城市公用事业等领域的改革进程。注重信用建设，深化辖区银行业改革，不断健全金融服务体系。继续推进公共财政体制改革，不断加强财政、税收工作，培植壮大新的财源，提高地方财政实力，使财政公共服务职能明显增强，努力实现基本公共服务均等化。不断扩大对外开放，充分发挥土地、煤炭等资源优势，在引进战略投资、对接科研院所、扩大对外合作交流等方面取得实质性进展。进出口总量年均增长10%，招商引资实际到位资金年均增长20%以上。经济社会发展环境明显改善，对外知名度、地方吸引力、环境竞争力显著提升。', '坚持社会主义市场经济的改革方向，正确处理改革、发展、稳定的关系，增强改革措施的协调性和针对性，形成有利于各类经济主体平等参与、公平竞争、有序发展的体制机制。继续深化企业产权制度改革，实现制度、管理、技术创新，使改制企业改彻底、有活力、快发展。积极创造条件，鼓励中小企业大发展，鼓励非公有制企业创新经营机制，推进民间资本与市外资本嫁接联合，大力发展家庭经营型企业，让非公有制经济成为市域经济主体，全民创业成为发展的主旋律，让更多群众拥有财产性收入。稳步推进行政体制改革，形成权责统一、分工合理、决策科学、执行顺畅、监督有力的行政管理体制。进一步加快科技、教育、文化、卫生、城市公用事业等领域的改革进程。注重信用建设，深化辖区银行业改革，不断健全金融服务体系。继续推进公共财政体制改革，不断加强财政、税收工作，培植壮大新的财源，提高地方财政实力，使财政公共服务职能明显增强，努力实现基本公共服务均等化。不断扩大对外开放，充分发挥土地、煤炭等资源优势，在引进战略投资、对接科研院所、扩大对外合作交流等方面取得实质性进展。进出口总量年均增长', '继续坚持教育优先发展战略，不断加大教育投入，提高教育发展水平，实现教育公平，实现城乡、山川教育均衡发展，实现创建教育强市目标。让农村学生能够享受与城市学生同等的教育资源，让城乡贫困家庭子女都能接受高中阶段教育。规划建设教育园区，争取将宁夏民族职业技术学院建成全区示范性高职院校，让初、高中毕业不能升学的学生都能接受职业技术教育和培训。加大科技投入，推进科技创新，以企业为主体、市场为导向、产学研相结合的技术创新体系基本建立，农业科技支撑能力明显提高，科技进步对经济增长的贡献率提高到53%。坚持把社会主义核心价值体系融入国民教育全过程，着力加强社会公德、职业道德、家庭美德、个人品德建设，抓好青少年思想道德教育，全民素质不断提高。加快发展和谐文化，培育文化产业，促进公益性文化事业更加繁荣，基本实现各乡镇有文化站、各行政村有文化室、各自然村有文化大院、城市社区有文体活动中心。推动医疗卫生事业快速发展，巩固新型农村合作医疗制度，适当提高政府补助标准；建立城市居民基本医疗保险制度，初步实现全民医保；加快推进城市社区卫生服务体系建设，完善农村三级卫生服务网络，市区办好一所高水平的综合医院和几所各具特色的专科医院，每个县市区集中办好一所能够满足群众正常就医需求的综合医院；深入推进农民健康教育与健康促进行动工程，实现城乡居民人人享有基本医疗卫生服务。全面推行农村计划生育奖励扶助制度和“少生快富工程”，依法控制山区人口增长，稳定川区低生育水平。以创业带动就业，统筹做好城镇新增劳动力就业、农村劳动力转移就业、下岗失业人员再就业工作，五年新增就业5.5万人，城镇登记失业率控制在4.2%以内。农村劳动力转移就业每年稳定在15万人以上，让越来越多的农村劳动力通过技能培训、转移就业转化为市民、商人、产业工人和新型农民。山区老百姓安全吃水问题基本解决。加快健全覆盖城乡的社会保障体系，城镇养老、失业、医疗、工伤、生育保险制度更加完善，农村养老保险和失地农民社会保险问题得到逐步解决，城乡困难群众最低生活保障水平稳步提高。加大城市廉租住房和经济适用房建设力度，确保城市低收入家庭住房困难得到应保尽保。全面贯彻党的民族宗教政策，依法加强对宗教事务的管理。民主法制、“平安创建”进一步加强，社会更加稳定和谐，人民群众更加安逸、更加幸福。', '继续坚持教育优先发展战略，不断加大教育投入，提高教育发展水平，实现教育公平，实现城乡、山川教育均衡发展，实现创建教育强市目标。让农村学生能够享受与城市学生同等的教育资源，让城乡贫困家庭子女都能接受高中阶段教育。规划建设教育园区，争取将宁夏民族职业技术学院建成全区示范性高职院校，让初、高中毕业不能升学的学生都能接受职业技术教育和培训。加大科技投入，推进科技创新，以企业为主体、市场为导向、产学研相结合的技术创新体系基本建立，农业科技支撑能力明显提高，科技进步对经济增长的贡献率提高到', '各位代表，实现未来五年的跨越式发展，是时代的召唤、人民的愿望。我们坚信，只要始终坚持在解放思想中统一思想、在改革开放中开拓进取，一年一个新变化，三年上个新台阶，五年有个大发展，就一定能够实现我市跨越式发展的宏伟目标，就一定能够开创建设小康吴忠、实力吴忠、魅力吴忠、和谐吴忠的崭新局面。', '明年是全面贯彻十七大精神、加快推进吴忠跨越式发展的关键之年、起步之年。我们要以良好的精神状态和优异的发展成效，向自治区成立50周年和地级吴忠市成立10周年献礼。主要预期目标和约束性指标是：地区生产总值增长13%，地方财政收入可比增长16%，全社会固定资产投资增长25%、力争30%，社会消费品零售总额增长12%，城镇居民人均可支配收入增长10%，农民人均纯收入增长8%，人口自然增长率控制在10‰以内，城镇登记失业率控制在4.2%以内，二氧化硫削减6%，化学需氧量削减7%。', '明年是全面贯彻十七大精神、加快推进吴忠跨越式发展的关键之年、起步之年。我们要以良好的精神状态和优异的发展成效，向自治区成立', '以园区为平台，以项目为支撑，加快产业结构调整，做大工业经济总量。全市工业总产值、规模以上工业增加值均增长18%以上，地方工业增加值增长28%以上。要提升园区承载能力。按照“抓园区、盯项目、扩规模、提质量”的思路，加快建设“两城五园”，抓紧修编完善工业园区发展规划，加快园区体制和机制创新，加大基础配套和招商引资力度，完成园区基础设施投资7.8亿元，引进亿元以上的项目10个。要壮大优势特色产业。力争开工建设华能集团韦州综合利用电厂等项目，壮大能源产业；推进青铝集团15万吨铝板带等项目建设，做强新材料产业；力促庆华集团30万吨甲醇等项目建设，推动化工产业发展；实施银星能源多晶硅等项目，积极培育高新技术产业；加快万兴集团3000台载重汽车等项目建设，扩大制造业规模；完成新源纸业等5家造纸企业搬迁改造，抓好娃哈哈6万吨奶粉一期和夏进1.5万吨奶粉新生产线、祥福公司400吨羊绒纱等项目建设，推动轻工和农产品加工业发展提速。全市新增工业产值33亿元。要支持骨干企业做大做强。对全市利税前30名工业企业实行重点协调服务，支持骨干企业改造装备、开发产品、扩大销售。完成吴忠卷烟厂联合工房及配套设施技改项目，使卷烟生产能力达到15万箱。全市规模以上工业产值达到245亿元，增长17.8%。实施名牌战略，争创自治区名牌产品3个。要扶持发展中小企业。坚持抓大与促小相统一，从政策、资金、项目、技术等方面加大对中小企业的扶持力度。建立和完善政府主导、社会参与的中小企业贷款担保体系，为中小企业发展搭建信用平台，集中培育一批有发展潜力、成长能力的中小企业群体，进一步增强中小企业吸纳就业、增加税收、壮大县域经济的主力军作用。', '以园区为平台，以项目为支撑，加快产业结构调整，做大工业经济总量。全市工业总产值、规模以上工业增加值均增长', '要壮大优势特色产业。力争开工建设华能集团韦州综合利用电厂等项目，壮大能源产业；推进青铝集团', '要扶持发展中小企业。坚持抓大与促小相统一，从政策、资金、项目、技术等方面加大对中小企业的扶持力度。建立和完善政府主导、社会参与的中小企业贷款担保体系，为中小企业发展搭建信用平台，集中培育一批有发展潜力、成长能力的中小企业群体，进一步增强中小企业吸纳就业、增加税收、壮大县域经济的主力军作用。', '着力加快市区、青铜峡、盐池、同心、红寺堡、太阳山城市建设，努力构建以大带小、整体推进、充满活力的城镇发展体系。要高起点规划城市。编制覆盖市区和青铜峡小坝的城市近期建设规划、控制性详规和修建性详规，加快修编交通、供水、消防、供热、燃气、电力、环境保护、生态建设等专项规划，完成村庄布局、特色小城镇和村庄建设规划编制。大力推行“阳光规划”，提高规划设计水平。理顺城乡规划管理体制，加强规划监管，加大规划执法力度，杜绝违法违章建设行为。要高标准建设城市。按照“拉开框架，跨过黄河，西移东扩，连为一体”的思路，推进市区高速公路以西5.2平方公里、小坝东区7.3平方公里区域内道路、供排水、供电、通讯等基础设施建设。开工建设吴忠黄河公路大桥，新修、续建金滨路向北延伸段等一批城市道路，打通市区断头路、丁字路。实施市区城市防洪排涝水利工程，推进青铜峡罗家河景观水道建设，加快水系连通步伐。实施盐池西区建设、县城出入口道路拓宽，同心县城清水河过境段及北沟综合治理、新区建设，红寺堡生态绿化等一批项目，拉开城市框架，改善城市面貌。完善提升金积、峡口、惠安堡、韦州等小城镇聚集功能。要高水平管理城市。纵深推进城乡环境综合整治暨绿化美化工程，建立长效管理机制。探索建立数字化城管模式，综合运用经济、科技等多种手段，加强市政设施、道路交通、市容市貌、社区物业等管理。不断完善社区功能，推进和谐社区建设。要高效益经营城市。培育土地、资本等要素市场，建立健全土地资源市场化配置机制，完善经营性土地招拍挂制度，搞活土地经营，盘活存量资产，提高土地资产效益。加快吴忠市国资经营集团改革步伐，拓宽城市建设融资渠道。', '着力加快市区、青铜峡、盐池、同心、红寺堡、太阳山城市建设，努力构建以大带小、整体推进、充满活力的城镇发展体系。要高起点规划城市。编制覆盖市区和青铜峡小坝的城市近期建设规划、控制性详规和修建性详规，加快修编交通、供水、消防、供热、燃气、电力、环境保护、生态建设等专项规划，完成村庄布局、特色小城镇和村庄建设规划编制。大力推行', '要高水平管理城市。纵深推进城乡环境综合整治暨绿化美化工程，建立长效管理机制。探索建立数字化城管模式，综合运用经济、科技等多种手段，加强市政设施、道路交通、市容市貌、社区物业等管理。不断完善社区功能，推进和谐社区建设。要高效益经营城市。培育土地、资本等要素市场，建立健全土地资源市场化配置机制，完善经营性土地招拍挂制度，搞活土地经营，盘活存量资产，提高土地资产效益。加快吴忠市国资经营集团改革步伐，拓宽城市建设融资渠道。', '紧紧围绕增加农民收入，大力发展现代农业，改善农村基础设施，推进新农村建设迈出坚实步伐。要扩张优势特色产业规模。按照“一个基地一个规划、一套政策、一个班子”的要求，通过制定出台奶产业发展等政策的引导扶持作用，加快建设十大农业产业基地。全市新增优质粮食10万亩，达到70万亩；新增设施农业10万亩，达到20万亩；新增奶牛8万头，存栏达到26万头；肉牛出栏25万头；滩羊饲养量达到450万只；新增高酸苹果10万亩，达到22万亩；新增葡萄7万亩，达到18万亩；新增红枣10万亩，达到23万亩；新增人工种植甘草23万亩，达到47万亩；新增饲草30万亩，达到130万亩。要促进农产品转化增值。加大政策、项目、资金扶持力度，扶持引导各类企业和经济合作组织参与我市现代农业建设，促进产、加、销、运、储健康发展，拉长产业链。加强农村信息化建设，提高农民的网络信息应用水平。进一步创新科技特派员创业行动模式和机制，实现科技人员入户、良种良法到田。继续实施“百万农民培训”工程，培育有文化、懂技术、会经营的新型农民。积极推行农业标准化生产，加快无公害农业、绿色农业、有机农业发展。建立健全农产品质量安全监管和服务体系，逐步推行市场准入制度；加快重大动植物疫病防控体系建设和政策性农业保险扩面步伐，提高农业抗风险能力。要改善农村生产生活条件。推进村企互动共建新农村。建设农村社区。加快农村公路建设步伐，新建、改造农村公路300公里。加大农田水利建设、农业综合开发和水土治理力度，实施太阳山小河防洪、同心盐池节水补灌等项目。加快中心村与生态家园建设，加大川区沿石中高速公路两侧庄点和山区危房危窑改造力度，改造山区危房危窑3000户，新增“一池三改”农户11200户。实施农村安全饮水工程，解决20万人口安全饮水问题。要加快扶贫攻坚步伐。完成44个贫困村整村推进任务，实施生态移民工程，建设移民点5个，搬迁移民3万人，新建抗旱水窑3000眼、新型集雨场2500个，开发节水灌溉面积6万亩。大力发展劳务产业，全年输出劳务20万人以上。', '紧紧围绕增加农民收入，大力发展现代农业，改善农村基础设施，推进新农村建设迈出坚实步伐。要扩张优势特色产业规模。按照', '要促进农产品转化增值。加大政策、项目、资金扶持力度，扶持引导各类企业和经济合作组织参与我市现代农业建设，促进产、加、销、运、储健康发展，拉长产业链。加强农村信息化建设，提高农民的网络信息应用水平。进一步创新科技特派员创业行动模式和机制，实现科技人员入户、良种良法到田。继续实施', '要改善农村生产生活条件。推进村企互动共建新农村。建设农村社区。加快农村公路建设步伐，新建、改造农村公路', '依托自身资源特点和区位条件，按照差异化发展理念，大力发展第三产业，形成与大银川及周边城市功能互补的发展局面。要大力发展特色旅游业。加快完善旅游业发展规划，下大力气推进旅游景区基础设施配套建设，加大市场开拓和宣传促销力度，打造以青铜峡鸟岛库区为核心，辐射108塔、金沙湾、牛首山寺庙群的宁夏精品旅游区；大力发展民俗风情旅游、革命老区红色旅游、观光农业旅游、绿色生态旅游、农家乐休闲旅游等旅游项目，全年接待游客135万人次，实现旅游总收入4.6亿元。要突出发展现代商贸流通业。加速以市区国贸大厦开业为主要内容的商贸核心区建设和改造等一批市县商贸重点项目。依托市区涝河桥、同心阿伊河、盐池荣宝园等优势品牌，完善市场功能，提升牛羊肉及牛羊皮等系列附属产品集散能力。依托西市场、铁市场，全面整合废品收购市场，打造全区乃至西部可再生资源收购集散地。继续发展金融、保险、信息等现代服务业，不断拓宽服务领域。深入实施“万村千乡市场”工程，大力活跃农村消费市场。要壮大餐饮服务业。挖掘整合本地名小吃、名菜点，引导餐饮企业创新经营，提高效益，做大规模，培育知名品牌和优势企业。年内重点培育3—5家在全区叫得响的饮食名店和一批名小吃连锁店。', '依托自身资源特点和区位条件，按照差异化发展理念，大力发展第三产业，形成与大银川及周边城市功能互补的发展局面。要大力发展特色旅游业。加快完善旅游业发展规划，下大力气推进旅游景区基础设施配套建设，加大市场开拓和宣传促销力度，打造以青铜峡鸟岛库区为核心，辐射', '要突出发展现代商贸流通业。加速以市区国贸大厦开业为主要内容的商贸核心区建设和改造等一批市县商贸重点项目。依托市区涝河桥、同心阿伊河、盐池荣宝园等优势品牌，完善市场功能，提升牛羊肉及牛羊皮等系列附属产品集散能力。依托西市场、铁市场，全面整合废品收购市场，打造全区乃至西部可再生资源收购集散地。继续发展金融、保险、信息等现代服务业，不断拓宽服务领域。深入实施', '要壮大餐饮服务业。挖掘整合本地名小吃、名菜点，引导餐饮企业创新经营，提高效益，做大规模，培育知名品牌和优势企业。年内重点培育', '深入推进改革开放和自主创新，建立健全促进科学发展的体制机制，为跨越式发展提供更加强劲的动力。要继续推进改革。深化企业产权制度改革，使企业步入良性发展的轨道。推进行政管理体制改革，激活机关用人机制。加快教育教学改革，加强教师队伍建设。加快医疗卫生、科技等领域的改革。推进农村信用联社改革、农业发展银行职能转化，设立地级市邮政储蓄银行，抓好盐池农村村镇银行试点。进一步推进公共财政改革，加强财源建设，强化税收征管，规范部门预算管理，完善国库集中收付制度，扩大政府采购范围和规模，优化财政支出结构，提高财政保障能力。扎实推进农村综合改革，完成乡镇债务化解任务，启动农村义务教育债务化解工作。加快推进水权、林权改革。要提升开放水平。大力推进企业招商、园区招商、产业招商、资源招商，扩大对外经济合作，精心组织各类重大招商活动，力争在引进大型企业和重大项目上实现新突破。着力优化投资环境，加强行政、金融、商业等领域信用体系建设，严厉打击欺商、坑商等不法行为，吸引更多的企业、客商、项目、资本向吴忠聚集。年内招商引资到位资金32亿元以上。要提高创新能力。加大对科技创新的财政支持力度，探索建立科技创新基金，对技改及高新技术成果转化项目贴息。加强创新型行政管理人才和企业经营管理人才队伍建设，培养一批专业化技术人才和科技带头人。', '深入推进改革开放和自主创新，建立健全促进科学发展的体制机制，为跨越式发展提供更加强劲的动力。要继续推进改革。深化企业产权制度改革，使企业步入良性发展的轨道。推进行政管理体制改革，激活机关用人机制。加快教育教学改革，加强教师队伍建设。加快医疗卫生、科技等领域的改革。推进农村信用联社改革、农业发展银行职能转化，设立地级市邮政储蓄银行，抓好盐池农村村镇银行试点。进一步推进公共财政改革，加强财源建设，强化税收征管，规范部门预算管理，完善国库集中收付制度，扩大政府采购范围和规模，优化财政支出结构，提高财政保障能力。扎实推进农村综合改革，完成乡镇债务化解任务，启动农村义务教育债务化解工作。加快推进水权、林权改革。要提升开放水平。大力推进企业招商、园区招商、产业招商、资源招商，扩大对外经济合作，精心组织各类重大招商活动，力争在引进大型企业和重大项目上实现新突破。着力优化投资环境，加强行政、金融、商业等领域信用体系建设，严厉打击欺商、坑商等不法行为，吸引更多的企业、客商、项目、资本向吴忠聚集。年内招商引资到位资金', '要提高创新能力。加大对科技创新的财政支持力度，探索建立科技创新基金，对技改及高新技术成果转化项目贴息。加强创新型行政管理人才和企业经营管理人才队伍建设，培养一批专业化技术人才和科技带头人。', '坚持节约优先、环保优先，强化目标管理，严格落实责任，以铁的手段推动经济发展与资源、环境相协调，增强可持续发展能力。要强化节能降耗工作。实行节能减排硬性考核。加强', '要加强资源节约利用。认真落实节约资源的基本国策，坚持最严格的土地管理制度，加强土地调控，坚决制止违法违纪违规用地行为，提高土地利用率。整顿规范矿产资源开发秩序，加强饮用水源保护和风能、太阳能、空中水资源利用，完善矿产资源和水资源有偿使用机制，实现有效节约利用。要加强生态环境保护。实施天然林保护、退耕还林', '在全面提升经济发展水平的同时，更加重视改善民生。要优先发展教育事业。统筹城乡教育资源配置，促进义务教育均衡发展。巩固提高“两基”成果，确保“两基”工作顺利通过“国检”验收。全面推进素质教育，加快普及高中阶段教育；重视学前教育，关心特殊教育，发展职业教育和民族教育，引导规范民办教育，提高教育教学质量。创建7所区级示范性高中，完成市区19所城市公办学校操场标准化建设项目。要提高全民健康水平。完善新型农村合作医疗制度，健全农村三级卫生服务网络，加强城市社区卫生服务标准化、规范化建设和乡镇卫生院建设，实施吴忠市中医院迁建等一批医疗卫生基础设施项目。完善药品招标“三统一”。抓好农民健康教育与健康促进行动工程，为60周岁以上老人免费体检，儿童计划免疫实行全免费。启动创建国家卫生城市。加强人口与计划生育工作，努力实现“三无”、“一无”乡镇创建目标。要推进和谐文化建设。积极发展文化产业，健全公共文化服务体系，加快图书馆、艺术馆等文化基础设施建设。全面开展全民健身迎奥运及自治区成立50周年和地级吴忠市成立10周年系列庆祝活动。全力配合搞好50大庆献礼影片《同心》拍摄工作。要强化就业服务工作。突出抓好就业和再就业工作，全年新增城镇就业1.05万人，实现无“零就业”家庭目标。抓好职业技能培训，提高农民工劳动技能。全面推行劳动合同制度，建立工资支付保证金制度，依法维护劳动者合法权益。要完善社会保障体系。完善村干部养老保险，抓好城镇居民全民医保试点工作。积极探索失地农民、城镇失业和困难人员养老保险办法，在建筑领域和高风险行业中推行工伤保险，力争参保单位达到80%以上。加强社保基金监管，实现保值增值。稳步提高城乡居民最低生活保障标准，做好优抚安置、扶老、救孤、助残、济困等工作，规划建设流浪儿童救助保护中心。要营造稳定和谐的社会环境。全面推进依法治市进程，提高社会事务法治化管理水平。完善社会治安防控体系，加强社会治安综合治理，严厉打击违法犯罪活动，全力维护社会治安稳定。加强信访工作，畅通人民群众诉求渠道。加强法律援助工作，切实维护弱势群体合法权益。全面落实安全生产责任制，构建市县乡村四级监管网络，抓好安全领域和行业的隐患排查专项整治，坚决遏制重特大事故发生。全面规范市场经济秩序，加强价格监管，巩固产品质量和食品安全整治成果，建立长效机制，严厉打击危害人民群众健康与生命安全的非法生产经营活动和各类扰乱市场经营秩序的违法犯罪活动。认真贯彻落实党的民族宗教政策，依法妥善处理民族宗教事务，维护宗教领域和谐稳定，巩固发展平等、团结、互助、和谐的社会主义民族关系。切实做好外事侨务、防震减灾、保密等工作。加强国防教育和人防应急准备工作，深入开展双拥共建活动，加强军政军民团结。', '在全面提升经济发展水平的同时，更加重视改善民生。要优先发展教育事业。统筹城乡教育资源配置，促进义务教育均衡发展。巩固提高', '要提高全民健康水平。完善新型农村合作医疗制度，健全农村三级卫生服务网络，加强城市社区卫生服务标准化、规范化建设和乡镇卫生院建设，实施吴忠市中医院迁建等一批医疗卫生基础设施项目。完善药品招标', '要推进和谐文化建设。积极发展文化产业，健全公共文化服务体系，加快图书馆、艺术馆等文化基础设施建设。全面开展全民健身迎奥运及自治区成立', '要完善社会保障体系。完善村干部养老保险，抓好城镇居民全民医保试点工作。积极探索失地农民、城镇失业和困难人员养老保险办法，在建筑领域和高风险行业中推行工伤保险，力争参保单位达到', '要营造稳定和谐的社会环境。全面推进依法治市进程，提高社会事务法治化管理水平。完善社会治安防控体系，加强社会治安综合治理，严厉打击违法犯罪活动，全力维护社会治安稳定。加强信访工作，畅通人民群众诉求渠道。加强法律援助工作，切实维护弱势群体合法权益。全面落实安全生产责任制，构建市县乡村四级监管网络，抓好安全领域和行业的隐患排查专项整治，坚决遏制重特大事故发生。全面规范市场经济秩序，加强价格监管，巩固产品质量和食品安全整治成果，建立长效机制，严厉打击危害人民群众健康与生命安全的非法生产经营活动和各类扰乱市场经营秩序的违法犯罪活动。认真贯彻落实党的民族宗教政策，依法妥善处理民族宗教事务，维护宗教领域和谐稳定，巩固发展平等、团结、互助、和谐的社会主义民族关系。切实做好外事侨务、防震减灾、保密等工作。加强国防教育和人防应急准备工作，深入开展双拥共建活动，加强军政军民团结。', '按照“为民、务实、清廉”的要求，坚持科学执政、依法执政、民主执政，以政府效能建设为突破口，全面加强政府自身建设，不断提高政府执行力和公信力，增强推进经济社会跨越式发展的能力。', '把依法行政作为政府工作的基本准则，依法决策、依法办事。重大事项没有调查研究不决策、没有专家论证不决策、没有征求群众意见不决策、没有法制部门合法性审查不决策、没有集体讨论不决策。认真贯彻《行政许可法》和《公务员法》，全面落实行政执法责任制，完善行政执法程序，细化行政裁量权，按照法定权限和程序行使权力、履行职责。探索相对集中行政处罚权，推行综合执法，切实解决多头执法和执法不公等问题。坚决防止和查处各种形式的乱检查、乱罚款、乱摊派，加强对行政执法主体、过程与结果的监督、问责，让政府部门的执法更加亲民、更加人性化。进一步完善行政复议制度，充分发挥行政复议在化解社会矛盾、解决行政争议中的作用。真正把政府管理经济社会行为纳入依法运转的轨道，做到文明执法、规范执法、公正执法，不断提高行政执法水平。', '加强政府诚信建设，增强政府部门及公务员的诚信意识，诚信办事、诚信服务，为全社会树立诚信表率。全面落实服务承诺、首问负责、一次告知等制度，建立政府服务公开承诺、限时办结的服务方式，凡政府承诺为民办理的事，必须办结、办好；承诺支持企业、客商的优惠政策一定要全部兑现，落在实处。加强政府诚信建设的监督检查，及时纠正优惠政策兑现不到位、落实不力等现象。', '继续深化行政审批制度改革，清理、减少和规范行政审批事项，消除政策性、体制性门槛和障碍，推进行政审批向政务大厅和部门服务窗口集中，实行一门受理、优化流程、即时办理、限时办结。着力强化行政效能监督，设立行政效能投诉中心，建立政府领导督办、重大项目跟踪服务等机制，加大对重点工作、重点项目的协调和督查力度，对办事拖拉、执行不力、落实不实的责任单位和责任人，坚决问责；对失职渎职、滥用职权、吃拿卡要等行为严肃查处、决不手软。切实压缩公文，精简会议，减少政府领导事务性活动。加强公务员队伍建设，提高机关工作人员的政策水平、业务素质和办事能力。完善行政机关人才培养、使用、流动和激励机制，切实解决有事没人干、有人没事干等问题。加大机关效能与岗位责任考核力度，对不会干、不愿干、干不了事的工作人员实行责任倒查、严肃问责，在政府部门中营造更加浓厚的干事创业氛围。', '深入推进政府管理体制、服务方式的创新，强化社会管理和公共服务职能，把优化职能的着力点放到为企业、为基层、为群众搞好服务上来，完善公共服务体系，不断提高服务人民和管理社会的水平。始终带着深厚感情为民解忧、为民办事。从关系群众衣食冷暖、幸福安康的具体事抓起，从群众最期盼、最细小的事情做起，凡是群众、社会、企业需要的公共服务、公共产品都要努力去做。加强电子政务建设，坚持公开透明的办事准则，大力拓展和规范政务公开，严格公开程序，增强透明度，扩大人民群众的知情权和参与权，保障人民群众的表达权和监督权，让群众办事更方便、更快捷。', '不断强化政府部门服务经济发展、管理公共事务的责任，主动接受人大及其常委会的法律监督和工作监督，积极为政协民主监督创造条件，虚心听取对政府工作的意见和建议，不断提高办理人大代表议案、建议和政协委员提案质量。认真听取各民主党派、工商联、无党派人士和工会、共青团、妇联等人民团体的意见，强化新闻舆论和社会公众监督。建立政府信息公布制度，完善人民群众建议征集、重大事项社会公示、社会听证、专家咨询等制度，健全政府与公众沟通机制，引导和鼓励人民群众共同参与管理公共事务，切实提高行政管理透明度和公众参与度。', '全面落实党风廉政建设责任制，严格执行领导干部廉洁自律各项规定，加强以规范权力运行为核心的体制机制建设，着力构建教育、制度、监督并重的惩治和预防腐败体系。强化监察、审计职能，从敏感领域、敏感环节抓起，从对具体人、具体事、具体案件的调查处理入手，加大对重大项目、重点部门和土地出让、工程招投标、政府采购、产权交易等重点领域的监督力度，发现问题，坚决一追到底，依法查处。大力弘扬艰苦奋斗、勤俭节约的优良传统，节约行政资源，减少非公务性支出，努力降低行政成本。深入推进政风行风建设，坚决纠正损害群众利益的不正之风。促使每个部门、每个领导干部和公务员都正确行使权力，让人民放心，让人民满意。', '各位代表，实现吴忠未来五年的发展蓝图任重道远；抓好明年的工作时不我待。让我们紧密团结在以胡锦涛同志为总书记的党中央周围，高举中国特色社会主义伟大旗帜，坚持以科学发展观统领全局，在自治区党委、政府和市委的坚强领导下，紧紧团结和依靠全市广大干部群众，继往开来，振奋精神，扎实工作，为实现吴忠跨越式发展目标而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>291</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>吴忠市城市管理局年部门预算公开</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2020n_48259/202002/t20200206_1944311.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['贯彻国家和自治区关于城市管理工作的法律、法规。拟订城市管理中长期规划和年度工作计划并组织实施。', '负责城市管理监督职责。承担城市市容市貌、户外广告和门头牌匾设置、城市规划区内停车场设置的监督管理职责。', '负责市区主要商业街区、沿街空地、城市道路等公共用地临时占用管理，及各类夜市、临时摊位的监督管理。', '拟订市区园林绿化年度建设实施方案，编制重大绿地建设项目建议书及可行性报告。组织实施园林绿化建设项目。', '负责临时占用市区绿化用地、改变绿化规划、绿化用地使用性质、移植砍伐城市树木等审批工作。', '拟订综合执法有关政策措施，负责市辖区综合执法改革工作的指导、监督、考核，组织、协调重大案件查处和跨区域执法。', '%。主要用于市区城市园林绿化养护管理费、市区“七一”十、一”重大节日街道摆放鲜花等氛围营造项目', '1、办公楼安保经费10万元，绩效目标是保障2020年建设局大院及城市管理局办公楼安保服务；', '2、市区城市绿地养护管理2200万元，绩效目标是提高城市道路绿化率，为城市居民提供更多的游憩场所,有效改善吴忠市的生态环境，提高城市文化品位，改善投资环境，极大地推动区域经济社会的发展，从而为吴忠市建设“国家森林城市”、“国家生态园林城市”创造有利条件，2020年完成市区养护管理总面积1.27万亩,其中原有绿地养护1.19万亩，2019年新增绿地养护822亩；', '是根据宁夏回族自治区推进新型城镇化工作领导小组办公室印发《关于加快推进全区城市步行和自行车交通系统建设的实施意见》，到2019年底所有设市城市编制或完善城市步行和自行车交通系统专项规划，制定实施计划、建立项目库，统筹谋划和有序推进一批新建或改建项目。到2020年底步行和自行车交通系统网络更加丰富，部分区域“绿色出行”环境得到改善，已建成的城市步行和自行车交通系统初见成效；', '是根据宁夏回族自治区推进新型城镇化工作领导小组办公室印发《关于加快推进全区城市步行和自行车交通系统建设的实施意见》，到', '体绿化造型、鲜花盆栽造型摆放及公园广场氛围营造项目30万元，绩效目标是严格按照项目实施方案和设计方案要求高质量、高效率完成，验收合格并达到预期效果，营造浓厚喜庆的', '是完成市辖区综合执法改革工作业务指导、考察学习、培训、督查、考核验收及跨区域联合执法等工作。', '一、“机关运行经费”：是指各部门的公用经费，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '二、“三公经费”： 指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥', '费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出;', '四、“其他收入”：是指预算单位在“财政拨款、事业收入、经营收入”等之外取得的收入。', '五、“社会保障和就业（类）支出”：政府在社会保障与就业方面的支出。包括社会保障与就业管理事务、民政管理事务、财政对社会保险基金补助、行政事业单位离退休、企业改革补助、就业补助、抚恤、退役安置、社会福利、残疾人事业、城市居民最低生活保障、自然灾害生活救助、红十字会事务等。如行政机关开支的离退休人员经费和离退休干部管理机构为离退休人员提供管理和服务所发生的工作支出。', '六、“医疗卫生（类）支出”：政府医疗卫生方面的支出。包括医疗卫生管理事务支出、公立医院、基层医疗卫生机构支出、公共卫生、医疗保障、中医药、食品和药品监督管理事务等。如卫生局及所属单位保障机构正常运转、开展医疗卫生管理活动所发生的基本支出和项目支出。', '七、“农林水事务（类）支出”：指农林水事务支出。包括农业支出、林业支出、水利支出、扶贫支出、农业综合开发支出等。如水利局及所属单位保障机构正常运转、开展水利管理活动所发生的基本支出和项目支出。', '八、“住房保障（类）支出”：指政府用于住房方面的支出。包括保障性安居工程支出、住房改革支出、城乡社区住宅支出等。如行政事业单位按照国家政策规定向职工发放住房公积金、提租补贴等。', '九、“基本支出”：是指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '十、“项目支出”：是指在基本支出之外为完成特定的行政工作任务或事业发展目标所发生的支出。', '十一、“工资福利支出”：反映单位支付给在职职工和编制外长期聘用人员的各类劳动报酬，以及为上述人员缴纳的各项社会保险费等。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>291</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>吴忠市第一届人民代表大会第二次会议上的报告</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfgzbg/201908/t20190801_1639836.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['现在，我代表吴忠市人民政府向大会作政府工作报告，请予审议，并请市政协各位委员提出意见。', '1998年，是我市改革和发展史上具有重要意义的一年。在自治区党委、政府和市委的领导下，全市各族人民高举邓小平理论伟大旗帜，认真贯彻落实党的十五大、十五届三中全会和自治区第八次党代会、八届人大一次会议精神，团结拼搏，务实苦干，积极进取，克服困难，卓有成效地开展工作，改革开放、经济建设和社会各项事业全面推进，全市经济发展，政治稳定，民族团结，社会进步。', '经济发展保持良好势头。各级政府紧紧围绕“保8争9”增长目标，采取各种措施，挖掘生产潜力，推进经济发展。全年完成国内生产总值70亿元，比上年增长8.2％；地方财政收入达到4.3亿元，增长18.6％。农业生产全面发展，粮食总产量达到111万吨，增长11.2％，创历史最高水平；油料、肉禽蛋奶、水果、蔬菜、水产品产量大幅度增长。农村产业结构进一步调整优化，粮食、皮毛绒、肉奶等九大农产品加工体系初具规模，产业化经营稳步推进。养殖业产值已占农业总产值的40％，农业增加值达到22亿元，增长8.5％，对全年经济增长起到了重要的支撑作用。乡镇企业发展势头强劲，总产值达到54.6亿元，增长21.1％，有19个乡镇实现了产值超亿元。工业生产在困境中稳步回升，全年实现工业增加值23.5亿元，增长5％。新上投资百万元以上的新建、技改、扩建项目142项，年底建成投产82项，经济发展实力进一步增强。建筑业增加值达到5.75亿元，增长15％。商品流通规模日益扩大，运输、邮电、金融保险、旅游、房地产业和中介服务迅速兴起，全市社会消费品零售总额达到23亿元，增长10％，第三产业实现增加值18.75亿元，增长11.4％。基础设施建设力度加大，全社会固定资产投资完成35亿元，增长36.5％，是近年来投入最多的一年。城市基础设施、邮电通信、农田水利、乡村道路、城乡住宅建设等一批项目相继建成，自治区安排的主干公路等重点工程进展顺利。这些项目的建设，既带动了相关产业的发展，拉动了经济增长，又进一步改善了城乡面貌，增强了整体功能，为今后经济快速发展创造了条件。', '改革开放取得新成果。农村全面开展了延长土地承包期工作，以家庭承包经营为基础的双层经营体制进一步完善，农业社会化服务体系建设有了新的进展。企业改革稳步推进，市、县(区)属国有、集体企业改制面达到55.6％，其中涉及产权制度改革的占改制企业的80％。建立现代企业制度试点工作取得明显成效，中卫美利纸业集团公司成功地发行了股票，成为我市县属企业第一家上市公司。所有制结构调整在改革中加快，促进了资产重组，涌现出一批规模大、起点高、前景好的私营企业，非公有制经济已经成为重要的经济增长点。城镇住房体制改革、粮食流通体制改革等配套改革取得新进展，养老保险、失业保险、城镇居民最低生活保障等社会保障制度进一步建立和完善。抓住国家政策向西部倾斜的机遇，主动出击，外引内联，对外开放进一步扩大。全市出口商品供货额达到3.5亿元，创汇2260万美元。达成各类经济合作协议46项，签订经济合同6项，协议引进资金15.8亿元，合同引进资金1.06亿元。', '社会各项事业全面发展。“科技兴农”力度加大，立体复合种植、地膜覆盖、种子包衣、水稻旱育稀植、日光温室、暖棚养殖等一大批科技含量高、增产潜力大的先进适用技术得到大面积推广。既利通区之后，青铜峡市、中卫县进入全国科技工作先进县市行列。利通区、灵武市分别提前一年实现麦套玉米吨粮区、水稻旱育稀植示范市的目标。义务教育稳步推进，灌区五县(市、区)全部实现了“普九”目标，职业教育、成人教育和民族教育有了较快发展，办学条件和教师住房进一步改善。文化、体育、广播、电视事业繁荣发展，丰富了城乡人民文化生活。广泛开展儿童计划免疫工作和爱国卫生运动，城乡医疗保健水平不断提高。计划生育工作取得新成绩，全市人口自然增长率下降到12.17‰，计划生育率上升到88％，全面完成了自治区下达的指标任务。群众性精神文明创建活动蓬勃开展，文民单位、文民村镇、文明小区、文明家庭不断涌现。深入开展“双拥”和军民共建活动，军政军民团结进一步巩固。加强社会治安综合治理，严厉打击各种犯罪活动，促进了社会治安的好转。全面开展“三五”普法，严肃查纠不正之风，认真处理群众来信来访，尽力解决下岗职工和贫困群众生活困难，积极化解各类纠纷和矛盾，有效地维护了社会稳定。', '城乡人民生活进一步改善。全市居民人均可支配收入达到3870元，实际增长8％。人民人均纯收入达到2104元，实际增长12.3％。灌区小康建设进程加快，农民人均纯收入达到2550元，农户砖木砖混结构住房达到63.6％，比上年提高了11.4个百分点，乡村带路硬化805公里，行政村实现了村村通程控电话。经验收又有31个乡镇基本实现小康目标，达标的乡镇占乡镇总数的64.5％。利通区和青铜峡市进入小康行列。扶贫攻坚取得可喜成绩，盐池县的扶贫成果进一步巩固提高，同心县的贫困面由上年的21.8％下降到9.3％，如期实现了基本解决温饱的目标，同心镇在山区乡镇中率先基本实现小康。各县(市、区)兴建了一批城乡文化体育设施和公用设施，居民社区服务和医疗保健进一步发展，城乡面貌不断改观，人民群众的生活环境明显改善。', '顺利实现撤地设市的平稳过渡。撤地设市是管理体制的重大变革，也是全市人民关注的一件大事。在自治区党委、政府和市委的领导下，本着隆重、热烈、节俭、务实的原则，成功地举行了吴忠市成立庆祝活动，大力宣传了吴忠，凝聚了人心，激发了各族人民热爱吴忠、建设吴忠的热情。按照新的管理体制，认真进行事权划分，确定财税体制，理顺了关系，转变了职能。这些都为今后的经济社会发展创造了更为有利的条件。', '各位代表，在过去的一年里，我市改革开放、经济建设和社会发展取得了新的成绩。这是认真贯彻执行党和国家各项方针政策的结果，是全市各族人民开拓进取、团结奋斗的结果。在此，我代表市人民政府，向工作在各条战线上的广大工人、农民、知识分子和干部，向对政府工作给予关心和支持的人大代表、政协委员，向各民主党派、人民团结和社会各界人士，向驻吴部队、武警官兵和公安干警，致以崇高的敬意和衷心的感谢！', '在总结成绩的同时，我们也清醒地看到，我市经济社会发展中还存在不少矛盾和问题，面临着许多新的困难，主要是：由于经济结构调整滞后与市场竞争加剧的矛盾突出，对买方市场的适应能力不强，工业经济运行质量不高，企业经营管理水平低，停产半停产企业和下岗人员增多，就业和再就业压力加大；农业结构不够合理，优质农产品少，加工转化增值能力不强，农民货币投入增长趋缓；山区旱情严重，抗御自然灾害的能力弱，巩固扶贫成果的任务依然十分艰巨；财政收入矛盾突出，特别是市财政调控能力弱；少数地方社会治安还存在一些突出问题，人民群众对社会风气和社会治安仍不满意；政府职能转变滞后，工作中也还存在一些缺点和不足。这些问题和困难，我们将在今后的工作中下大力气加以克服和解决。', '今年是本届政府组织和带领全市人民建设经济强市的开局之年。做好今年的工作，对于全面完成“九五”计划，实现本届政府确定的跨世纪奋斗目标，具有十分重要的意义。按照市第一次党代会和一届一次人代会的整体部署，今年政府工作总的指导思想是：高举邓小平理论伟大旗帜，深入贯彻党的十五大、十五届三中全会和全国、自治区人代会议精神，围绕建设经济强市，实干兴市，创业富民，发挥优势，突出特色，以科技为动力，大力推进农业产业化，积极培植优势骨干企业群体，加快发展非公有制经济，加快发展第三产业，加快基础设施和城市建设，努力培育新的经济增长点，着力提高经济运行的质量和效益，推动社会事业全面进步，实现我市经济社会更快发展。', '高举邓小平理论伟大旗帜，深入贯彻党的十五大、十五届三中全会和全国、自治区人代会议精神，围绕建设经济强市，实干兴市，创业富民，发挥优势，突出特色，以科技为动力，大力推进农业产业化，积极培植优势骨干企业群体，加快发展非公有制经济，加快发展第三产业，加快基础设施和城市建设，努力培育新的经济增长点，着力提高经济运行的质量和效益，推动社会事业全面进步，实现我市经济社会更快发展。', '农业和农村经济工作要全面贯彻落实十五届三中全会和中央农村工作会议精神，以农民增收、农村稳定为目标，落实政策，强化农业的基础地位，大力调整优化结构，推进产业化经营，提高农业的综合经济效益，千方百计增加农民收入。力争全市粮食总产量达到111万吨，实现农业增加值23亿元，再创农业和农村工作的新局面。', '调整优化农业结构，大力发展养殖业。在稳定粮食总产的基础上，根据市场要求，以精细农业和设施农业为重点，扩大经济作物种植比重，加快发展和提高蔬菜、林果、枸杞等特色优势产业，开发培植桑蚕、葡萄、药材、食用菌等新兴产业。全市新增蔬菜种植面积5万亩，其中新建日光温室3000亩，高效蔬菜种植面积发展到25万亩，新植枸杞1万亩，药材1万亩，发展红枣2万亩，葡萄2万亩，食用菌2万平方米。调整结构，不仅要调品种，更要调品质，大力实施精品、名牌战略，无论是大米、水果、蔬菜等优势产业，还是枸杞、葡萄、食用菌等特色新兴产业，都必须采用高新技术，发展市场供销的优质品种，形成规模，提高效益。要把养殖业的快速发展作为推进农业产业化和农村经济增长的突破口，放在更加重要的位置，坚持小规模、大群体，培育发展大户与千家万户饲养并举，规模养殖与优化品种、技术服务、规模营销相结合，实行区域化布局、专业化生产、一体化经营、社会化服务。围绕养殖业生产、加工、销售五大基地建设，采取解决养殖业发展用地、协调发放小额专项贷款、组织营销等措施，加快发展养牛、养猪、养羊、养鸡专业村。全市黄牛饲养量达到35万头，猪饲养量达到150万头，羊饲养量达到320万只，鸡饲养量达到1600万只，大幅度提高商品率，实现量的扩张和质的提高，使养殖业在农业总产值中的比重提高到43％左右。', '扩大提高农副产品加工业，推进农业产业化。依托基地，以支柱产业和优势产品为重点，着力培植一批辐射带动能力强的农副产品深加工龙头企业。对现有的乳品、精米精粉、饲料、淀粉、板鸡、罐头、脱水蔬菜、绒毛加工等农副产品加工骨干企业，在政策、资金、技术、人才等方面给与重点扶持，促其上规模、上档次、增效益。加快浓缩果汁、浴冷肉、高档葡萄酒、法式酸奶等一批农副产品深加工项目的建设，形成农副产品加工龙头企业群。要把发展龙头企业与培育市场结合起来，积极推行企业加农户、协会加农户、专业市场加农户等经营方式，完善产加销、贸工农一体化服务体系，带动系列开发，延长产业链，增加附加值，提高农业产业化水平。', '实施重点攻坚，确保灌区实现小康。在大力发展生产、多渠道增加农民收入的同时，重点抓好乡村道路、农民住房、农村信息、农电改造等工程建设，整治村容村貌，加快小康建设进程。今年计划全市农村新修水泥、柏油路850公里，新建翻建农房3万户，使灌区农户砖木砖混结构住房达到70％以上，确保灵武市、中宁县、中卫县年内进入小康达标县市行列。盐同两县要牢固树立长期抗旱的思想，认真实施“兴水治旱”的抗灾措施，组织群众大力发展集水微灌、地膜种植、养殖业、林果业、加工业、经济作物、商品流通和劳务输出，培育主导产业，拓宽增收渠道，推进经济开发。继续落实包扶到村、项目到户的扶贫措施，巩固扶贫成果，提高解决温饱的稳定程度。大力实施行政村通电、通公路、通电话三大扶贫基础工程，改善山区发展环境和生产生活条件。同时，积极扩大小康建设试点。', '加强农业基础建设，改善农业生产条件。加快实施引黄灌区水利设施更新改造工程、第四期农业综合开发项目、扶贫扬黄灌溉工程、盐环定扬水配套工程、黄河整治等工程建设，年内增加灌溉面积13万亩，改造中低产田10万亩，砌护渠道688公里，发展节水灌溉5万亩，暗管排水6万亩，建成设施配套的高标准农田8万亩。抓好灌区二代农田林网、绿色通道工程、城镇绿化和山区种树种草、固沙治水生态农业建设，完成修建“三田”4.3万亩，小流域综合治理200平方公里，打井窖7000眼。通过大规模的农田水利基本建设和开发治理，改善生态环境，提高农业的防灾抗灾能力，增强发展后劲。', '我市经济的大发展有赖于工业的崛起和振兴。要按照“抓大放小、重点突破、整体搞活”的方针，加大企业产权改革力度，调整优化工业经济结构，推动企业技术进步，培育发展优势产业、优势企业和优势产品，充分挖掘增长潜力，提高工业经济的运行质量和效益，力争地方工业增长12％，为完成全年经济增长目标做出积极贡献。', '突出重点，培育发展优势产业和骨干企业。坚持以资源优势和工业基础为依托，以市场为导向，积极调整产业、产品结构，着力培育壮大农副产品加工、造纸印刷包装、建筑建材、盐煤化工、高耗能和机械加工六大产业，形成优势产业群，带动全市经济发展。围绕优势产业，采取联合、兼并、组建企业集团、发行上市股票等措施，促进存量资产和生产要素向优势企业流动。重点扶持金牛化工集团、万得铝厂、灵武有色金属股份公司、德海土畜产品公司、粤西溶剂油厂等19个产销过亿元的企业，扩大规模，提高水平，增强地方工业实力。积极推进企业技术进步，重点抓好美利纸业集团、华银科技实业公司、国雄饲料等16个技改重点项目的建设，争取尽早建成投产达效。加大培育开发名牌产品的力度，在巩固提高现有的“宁燕牌”地膜、“鸣钟牌”胶印纸、“西夏牌”水泥等8个名牌产品的基础上，力争年内法福来面粉、西夏贡米、纸面石膏板、羊绒衫、羊剪绒、香山春酒等15个产品进入名牌产品行列。通过技术改造和增加名牌产品，带动产业和产品升级，促进工业经济由数量增长型向质量效益型转变。', '加强企业管理，提高增长质量和效益。积极推进企业管理由生产管理主导型向市场营销主导型转变，从封闭型、经验型向开放型、科学规范化管理转变，搞活资本经营，增强市场竞争力。严格质量责任制度，全面推行“模拟市场核算、实行成本否决”的邯钢经验，努力降成本、上质量、增效益。强化市场营销，加强资金管理，减少资金占用，加速资金周转。认真落实国有大中型企业改革脱困措施，提高扭亏增盈工作的成效，力争今年有70％的大中型企业经营状况有所好转。切实加强企业领导班子建设，特别是配备好一把手。积极探索建立对企业经营者的制约监督机制和竞争上岗机制，通过组织委任、民主选举、公开招聘等多种形式，选拔一批政治素质好、懂经营、善管理、清正廉洁的优秀人才担任企业领导。加强企业年度考核、定期审计和离任审计，强化企业监督。对经营实绩好的要给予奖励；达不到考核标准的限期整顿；对因经营管理不善造成亏损的，要区别情况严重处理，该撤换的撤换，该追究责任的要追究责任。完善企业内部约束和激励机民用天然气输配、商贸展场等13项重点工程的前期准备工作。加快城市房产开发进程，建设一批经济适用住房，全市新建住宅62万平方米(其中吴忠市区20万平方米)，改善居民的居住条件。加快县城基础设施建制，充分调动经营者和广大职工的积极性，增强企业发展的凝聚力。', '深化企业改革，增强发展活力。坚持以产权制度改革为突破口，以股份制和股份合作制为重点，采取兼并、联合、改组、合资、租赁、承包经营、出售、破产等多种形式，放开搞活中小企业，力争基本完成企业改制工作。企业改革既要加快进度，更要注重质量，改制方案必须经过职代会讨论，坚持因企制宜，一厂一策，力求改好改活、改出成效。切实加强对企业改革的领导，各级政府都要抽调专门力量，深入企业，帮助指导改革。积极探索投资主体多元化的途径，着力抓好美利纸业公司增资配股的前期准备工作，争取金牛化工集团和一家私营企业进入上市企业预选行列。积极利用国家资产重组政策，下大力气盘活企业存量资产，实现增资减债。稳步推进社会保障制度改革，进一步完善国有企业下岗职工基本生活保障、失业保险和城镇居民最低生活保障“三条保障线”制度；认真贯彻“三三制”的筹资原则，加大资金筹措力度，确保国有企业下岗职工基本生活费和企业离退休职工养老金的足额按时发放；抓紧建立健全养老、失业、医疗、工伤、生育等保险制度，努力扩大覆盖面。把再就业工作作为“一把手工程”、“民心工程”、“稳定工程”来抓，逐级落实目标责任制，建好再就业服务中心，扩大再就业培训，广开就业渠道，确保当年下岗职工再就业率达到50％以上。', '集团和一家私营企业进入上市企业预选行列。积极利用国家资产重组政策，下大力气盘活企业存量资产，实现增资减债。稳步推进社会保障制度改革，进一步完善国有企业下岗职工基本生活保障、失业保险和城镇居民最低生活保障“三条保障线”制度；认真贯彻“三三制”的筹资原则，加大资金筹措力度，确保国有企业下岗职工基本生活费和企业离退休职工养老金的足额按时发放；抓紧建立健全养老、失业、医疗、工伤、生育等保险制度，努力扩大覆盖面。把再就业工作作为“一把手工程”、“民心工程”、“稳定工程”来抓，逐级落实目标责任制，建好再就业服务中心，扩大再就业培训，广开就业渠道，确保当年下岗职工再就业率达到50％以上。', '大力发展非公有制经济是建设经济强市的必由之路和战略选择。坚持政策扶持、拓展领域、调整结构、提高层次的方针，实行大中小并举，总量扩张与质量提高并重，采取更为宽松的政策措施，推动非公有制经济加快发展。今年力争新增产销过百万元的私营企业100家，产销过千万元的10家，全市私营企业发展到2100户以上，其中产销过百万元的私营企业发展到390家，过千万元的26家。非公有制经济从业人员达到26万人，实现产值54亿元。', '政策驱动，强化服务。认真落实区、市扶持非公有制经济发展的各项优惠政策，采取简化办证手续、减免税费、贷款贴息、领导包项目、设立非公有制经济开发区等措施，加大政策扶持、规划引导、舆论宣传、协调服务的力度；积极帮助解决项目审批、土地批租、股票上市，进出口经营、人才、技术等方面的具体问题，特别是认真解决中小企业贷款担保难的问题，引导和支持非公有制经济参与国有经济的结构调整，放手让其参股、控股、兼并国有集体企业，发展混合所有制经济；鼓励农村能人、机关干部、下岗职工创办个体私营企业。要依法保护非公有制经济的合法权益，坚决制止乱检查、乱收费、乱摊派、乱罚款和“吃拿卡要”，为非公有制经济健康快速发展营造更加宽松的环境。', '调整结构，加快发展。立足本地资源，加快非公有制经济结构调整，促其向一、二、三产业的广度和深度拓展。要把发展非公有制经济与农业产业化、资源开发、工业小区和城镇建设结合起来，大力发展规模种植、规模养殖、农副产品运销加工、建筑建材、房地产等产业，拓宽发展领域和层次。支持非公有制企业围绕支柱产业，以资本为纽带，以骨干企业为龙头，以名牌产品为依托，组建跨地区、跨行业、跨所有制的企业集团，实现低成本扩张，发展规模经营。进一部发挥非公有制经济在第三产业中的主力军作用，鼓励其发展科技型企业、信息咨询业和外向型企业。乡村集体企业要以推行股份制、股份合作制为重点，加快改革步伐。力争年内改制面达到80％以上。加强技术改造和科学管理，推进技术进步，优化经营机制，提高经营水平和经济效益。', '加快新扩改项目建设，增强发展后劲。继续采取东西合作、外引内联、吸纳社会资金等办法，多渠道筹措资金，加快53项续建项目建设，新上投资百万元以上的新建、扩建、技改项目80个，力争当年建成100项，形成年新增产值10亿元、利税1亿元的能力，为加快非公有制经济发展，提高其在国民经济中的比重增添新的活力。', '建设经济强市，必须全面实施开放带动战略，发展外向型经济，把吴忠经济融入国际国内经济发展的大潮中。我们要切实增强紧迫感，以更大的气魄，更扎实的工作，坚定不移地大力推进对外开放，尽快形成全方位、多层次、宽领域的对外开放新格局。', '多渠道争取利用外资。抓住国家鼓励外商投资向中西部转移和扩大东西合作的机遇，筛选、确定一批有吸引力的引资项目，主动出击，积极组团参加区内外各种招商引资活动，把外商请进来观光考察，开展专项、定项招商，争取促成一批合作项目，实现招商引资的新突破。积极争取国外政府、国际金融组织及其他组织的优惠贷款和无偿援助，开辟招商引资和经贸合作的新领域。及早着手做好参加10月份中东投资贸易洽谈会的各项准备工作，力争取得新的成果。认真抓好’98宁夏经贸洽谈会已签8个合同项目和7个协议项目的落实。在3月下旬99香港投资贸易冾谈会上，我市又与外商签订了同心德海土畜产品公司羊绒轻薄型服装面料生产线、青铜峡树脂厂万吨离子膜烧碱、树新林场万吨葡萄酒厂、利通区精细化工、中宁万得铝厂1.5万吨电解铝等11个引资合同项目，引进外资6473万美元；签订贸易合同3个，贸易额2780万美元；签订协议项目5个，协议引进资金2.84亿美元。对已启动和正式签订合同的项目，实行项目负责制，落实资金，加快建设。对已达成协议的项目，加大工作力度，进一步联系洽谈，争取尽快启动实施，努力提高项目成功率。', '进一步推进东西合作。坚持把实施东西合作工程作为一项长期战略措施，政府搭台，企业唱戏，多方参与，推动东西合作向深度和广度发展。利用资源和优惠政策，吸引区内外实业家以其有形、无形资产来我市投资办厂，参与资产重组；吸引区内外大专院校、科研机构、民营科技企业来我市兴办科技经济实体，开展技术转让、技术咨询、技术服务、技术培训活动；鼓励支持区内外人才竞争我市的企业经营管理岗位；让名、让利、让权，加快资本流动和资源开发，促进我市产业结构的调整优化。继续加强闽宁对口帮扶工作，积极探索新的合作方式，推动对口帮扶从扶贫型向开发型转变，从山区向川区拓展，采取工业吊庄、联合办厂等办法，走灌区建厂子、山区出劳务、项目带动、提高层次的路子，增强对口帮扶活力。', '大力改善投资环境。要把投资环境建设摆在重要位置，在加强硬件建设的同时，着力在改善“软环境”上下功夫。研究制定更加宽松、更加优惠的政策措施，创办外商投资和东西合作园区，搞好水、电、路、通信等基础设施建设，增强对外开放的吸引力。强化服务意识，简化对外招商引资办事环节，为投资者提供高效、优质、便捷的服务，为中外客商投资置业和工作生活提供较为理想的环境。依法加强对外商投资企业的监督管理，保护其合法权益，积极协调解决具体问题，提高利用外资的水平和效益，发挥联动效应，带动招商引资，塑造吴忠对外开放的良好形象。', '中央今年继续加大基础设施建设投资力度。我们要抓住机遇，选好项目，通过争取国家更多的资金支持，带动吸引社会民间资金，加快城市基础设施和重点工程建设，扩大有效需求，拉动全市经济快速增长。', '加快以吴忠市区为主的城市基础设施建设，增强辐射带动功能。加快城市建设是建设经济强市的必然要求，也是政府工作的重要任务。按照已经审定的吴忠市城市建设总体规划纲要，集中力量，加快建设步伐。今年重点抓好市区供水扩建、集中供热一期工程、集污及污水处理等6项重点续建工程建设，概算投资5.35亿元；加快建设邮政大楼、电信大楼、工商银行营业大楼、吴仪综合大楼、吴忠宾馆和园林绿化、城市美化亮化等形象工程；开工建设集中供热二期工程、市区民生步行街、朝阳街东街、裕民西街贯通、吴灵公路改建、殡仪馆等14项工程，概算投资5.91亿元；抓紧做好市区电网改造、民用天然气输配、商贸展场等13项重点工程的前期准备工作。加快城市房产开发进程，建设一批经济适用住房，全市新建住宅62万平方米(其中吴忠市区20万平方米)，改善居民的居住条件。加快县城基础设施建设，抓好青铜峡市商城改建、灵武市区道路改造、中卫县自来水厂扩建、中宁县集中供热工程、盐池县城供排水二期工程、同心县城道路整修、绿化等40多项工程建设，多方筹措资金，抓紧开工建设，力求使县城面貌有一个大的改观。', '加快小城镇建设，推进城乡一体化进程。要把小城镇建设作为推进农村城市化的突破口，坚持城镇建设与发展乡镇企业、建设工业小区相结合，按照供排水、道路、通信、绿化等基础设施先行的原则，制定和完善政策措施，科学规划，合理布局，精心组织建设，严禁乱占乱建。今年在继续完善22个建制镇基础设施的同时，重点发展高闸、大坝、黎家新庄等一批新集镇，抓紧抓好14个“千户农宅示范试点工程”建设，发挥样板示范作用，带动村镇规划建设。认真组织实施金积镇小城镇户籍改革试点，鼓励富裕起来的农民进入小城镇，扩大城镇规模，提高生活质量，推进农村城市化进程。', '加快主干公路建设，构建四通八达的交通网络。灵吴青一级公路、叶盛至中宁高速公路、古窑子至王圈梁一级公路、盐池至兴仁二级公路、青铜峡北环二级公路、灵武环城一级公路、吴忠至惠安堡二级公路、中卫胜金关至迎水桥一级公路，同心至韦州和惠安堡至彭阳三级公路等11条主干公路，是自治区安排和我市筹划的重大项目。这些项目有的已开工建设，有的正在积极做各项准备工作。我们要动员各方面的力量，全力配合做好工作，加快建设进度，促其早日建成使用，形成以吴忠为轴心，以干线公路为骨架，四通八达、快捷畅通的交通网络，进一步改善交通条件。工程建设是百年大计，必须坚持质量第一。各级政府、有关部门和建设、施工、设计、监理单位，都必须认真贯彻《建筑法》，规范和整顿建筑市场，严格基本建设程序，积极推行项目法人责任制、招标投标制、工程监理制和合同管理制，强化全过程监理，确保工程质量。', '大力开拓市场，搞活流通，扩大消费需求，是促进我市产业结构调整、加快经济发展的重要措施。要把研究市场、开拓市场作为各级政府的一项重要工作，认真分析、预测市场变化趋势，按照市场需求组织经济运行，安排生产力布局、产业结构和产品结构的调整，提高生产经营和经济发展对市场变化的适应性，拓展发展空间，促进经济快速健康发展。', '培育完善本地市场。依托现有市场和支柱产业，扩建培育一批在西北乃至全国有较大影响、专业化程度较高、辐射面广、带动力强的农副产品批发市场，促进农副产品大进大出。今年重点抓好灵武涝河桥牛羊肉批发市场，利通区蔬菜批发市场，青铜峡仔猪、粮油批发市场，中卫宣和禽蛋批发市场，中宁生猪运销市场，同心发菜、皮毛绒市场等中心市场的仓储、保鲜、运输等配套设施建设，扩大吞吐量，增强辐射功能。力争成交额过亿元的市场发展到5个，全市集市贸易成交额达到20亿元以上。大力开拓城乡市场，充分利用信贷消费政策，鼓励城乡居民买房、建房、购买农机具及耐用消费品，发展电话、有线电视等新的服务消费，拓展消费领域。通过加快小城镇建设，改变农民生产方式和生活方式，开拓农村市场，增加农村商品消费需求，发挥投资与消费对经济增长的拉动作用。', '大力开拓外销市场。我市外向型经济特征突出，必须重视开拓外地市场。要组织专门人员考察、分析、研究、预测南部山区市场、周边市场、中西部市场、东南沿海市场乃至国际市场，为我市产品外销寻求出路。加强协调服务，把政府部门、中介组织、农民运销队伍、企业等各方面的力量汇聚起来，相互配合，形成合力，联手开拓市场。集中组织大宗农副产品向区内外市场扩展，在稳定提高兰州、西宁、拉萨等西部市场占有率的同时，下大力气组织批量生猪、牛羊肉、苹果、红枣、枸杞、羊绒等特色农副产品进上海、入京津、下江南、出口东南亚和欧美，提高我市农副产品在国内外市场的占有份额，实现农副产品外销的新突破。同时，组织企业积极参加各种形式的商品交易会、展销会、洽谈会，加强产品的广告宣传，扩大销售渠道，拓展市场。', '积极发展第三产业。第三产业的兴旺发达，是经济强市的重要标志。在发展提高商品流通业、餐饮娱乐业的同时，大力发展保险、律师、公证、咨询、中介、信息等新兴服务业，提高第三产业在国民经济中的比重。加快发展住宅业、搞活居民住宅建设、物业管理和房地产综合开发，推进住房商品化，使房地产业成为新的消费增长点和经济增长点。把旅游业作为加快吴忠经济发展的新兴产业，统一规划布局，制定有力的政策措施，实行国家、集体、个人一起上，多元开发，加快发展。重点抓好沙坡头、青铜峡黄河旅游区、金水旅游区和吴忠观光农业等沿黄旅游景区的开发，完善配套设施，增加景点。逐步建设食、住、行、旅、购、娱为一体的综合服务设施，培育旅游市场，把旅游资源转化为现实的经济优势。', '财政是政府实现宏观经济调控的主要工具和直接手段。保持经济和社会事业的协调发展，必须强化财政职能。我市财力困难，尤其是市级财政刚刚建立，资金紧张，调控能力弱，必须按照生财、聚财、用材并重的方针，切实抓好财源建设，加强税收征管，完善财税体制，强化财政管理，优化支出结构，充分发挥资金的使用效益。', '精心培植财源。抓好财源建设，建立专项基金，重点支持土地开发、科技开发和农业产业化等能带动相关产业发展的财源项目。通过税收优惠、财政贴息、拨补资本金等方式，为优势骨干企业提供帮助和支持，加大对有市场、有效益的企业重点技改和短平快项目的扶持力度，培植一批利税大户，稳固重点税源，壮大税收增长点。管好用好土地资产，强化国有资产管理，确保国有资产保值增值。', '加大税收征管力度。认真贯彻落实“加强征管、堵塞漏洞、惩治腐败、清缴欠税”的方针，坚持依法治税，严禁越权减免税，依法惩处偷税、骗税、抗税等违法犯罪行为。大力压缩欠税，严格入库级次。各级财税部门要建立税收征管工作责任制，加强税收征管，在抓好增值税等主要税种征收的同时，采取积极措施，强化个人所得税和零散税的征收，把该收的税及时足额地收上来。', '严格控制财政支出。优化财政支出结构，严格支出管理，保证重点需要。积极创造条件，逐步构筑“公共财政”框架。大力发扬艰苦奋斗、勤俭办一切事业的优良传统，厉行节约，反对浪费。严格财政预算约束机制，逐步实施政府采购制度，压缩一般性、非生产性开支，压缩人、车、会、话支出，大力精简会议、文件，狠刹公款吃喝等不正之风，把支出严格控制在年度预算内。严格行政事业性收费和罚没收入管理，坚决执行收支两条线，促进预算外资金的良性循环。认真整顿财经纪律，强化审计监督，逐步推行会计委派制，提高财政资金使用效益。', '在新一轮区域经济发展中，面对知识经济的挑战和日趋激烈的竞争，我们必须牢记树立“科学技术是第一生产力的思想”，深入实施科教兴市战略，把加速科技进步放到经济社会发展的关键地位，加快改变粗放型的经济增长方式，使经济建设真正转到依靠科技进步和提高劳动者素质的轨道上来。', '加大科技推广力度，提高科技在经济发展中的贡献份额。立足我市资源特点、技术基础和经济发展需求，积极开发、引进、推广和消化吸收先进适用技术，促进产业、产品结构升级。围绕支柱产业和商品基地建设，大力推广15项重大农业科技成果和实用技术。全市推广小麦穴播3.7万亩，水稻抛秧6.5万亩，水稻旱育稀植44万亩，优质大米基地20万亩，力争把青铜峡市、中卫县、中宁县建成麦套玉米吨粮县。继续开展创建科技工作先进县活动，抓好利通区国家级两高一优农业示范区、星火技术密集区、灵武国家级秸秆养牛示范市等示范园区建设，促其充分发挥技术辐射和示范带动作用。科学论证、合理规划，实施建设吴忠市经济核心区农业现代化示范园区项目，加速科技成果的转化。采取组织科技人员下乡实地指导、科技承包、集中办班等多种行之有效的办法，加强对农民的技术培训，切实提高农民的科技素质，加快用先进技术全面改造传统农业的进程。积极推进企业技术进步，重点推广节能降耗技术、计算机辅助设计和制造、自动控制、污染治理、工艺设备改造等技术，加快引进技术的消化吸收和新产品开发，促使企业的技术创新能力和生产经营水平有一个大的提高。', '加快科技创新体系建设，激励科技人员施展才能。加快科技体制改革，建立科研、普及、开发、生产、市场紧密结合的新机制。本着提高县一级、强化乡一级、健全村一级的原则，加强农业技术推广体系的建设，形成完善的农业技术推广网络，为农民提供全方位、多层次、系列化的科技服务。切实发挥企业在促进科技产业化方面的主力军作用，使其逐步成为技术创新主体。加强技术、信息市场建设，积极发展民营科技企业和科技经济人队伍，促进技术成果尽快转化为生产力。逐步建立科技成果转化基金，以政府为导向，以企业为主体，增加对科技的投入，支持引进推广一批成熟适用的技术，改造一批传统产业，开发一批高附加值产品，新上一批技术含量高的项目，培养引进一批实用人才和跨世纪学术、技术带头人，建设一支专业结构合理、年轻化、高水平、相对稳定的科技队伍。制定政策措施，对创造出显著经济效益和社会效益的科技人员给予重奖；改善科技人员的工作生活条件，吸引和激励科技人才施展才能，为全市经济发展和社会进步多做贡献。', '优先发展教育，为经济社会发展培养大批跨世纪人才。实现建设经济强市的目标，关键在科技，基础在教育。要面向经济建设主战场，全面贯彻党的教育方针，提高教育质量，提高劳动者素质，为建设经济强市提供智力支持和人才保证。认真实施“义务教育工程”，川区五县(市、区)进一步巩固提高“普九”成果，打好同心县普及初等义务教育攻坚战，力争盐池县实现“普九”。广泛开展教育强县、强乡活动，全面推进素质教育、职业教育、现代科技教育和民族教育，为各行各业培养大批急需的技术人才和实用人才，构筑适应吴忠经济社会发展的跨世纪教育框架。鼓励支持社会力量办学，加强教育事业费附加的征收、管理和使用工作，多渠道筹措教育经费，不断增加教育投入。认真贯彻教育法律法规，进一步加强师资队伍建设，不断提高教职工素质和待遇，在全社会形成尊重知识、尊重人才的良好社会风尚。', '在改革开放和现代化建设的进程中，社会事业的发展与经济发展密切相关，必须正确处理两者的关系，始终坚持两手抓、两手都要硬，实现经济与社会协调发展，物质文明和精神文明共同进步。', '加强思想道德建设，大力弘扬正气。实现我市跨世纪的宏伟目标，必须用邓小平理论武装广大干部和群众，在全社会形成共同理想和精神支柱。结合庆祝建国50周年、澳门回归等活动，深入开展爱国主义、集体主义和社会主义教育，引导人们树立正确的世界观、人生观和价值观，把爱国之心、报国之志落实到爱岗敬业、振兴吴忠的实际行动上来。推进以社会公德、职业道德、家庭美德为重点的社会道德建设，广泛开展创建文明城市、文明村镇、文明小区、文明单位、文明家庭等活动，讲文明、树新风，着力解决服务质量、环境卫生和交通秩序等突出问题。坚持不懈地进行全民国防教育，增强国防观念，加强民兵预备役建设，做好优抚安置工作。更加广泛地开展军民警民共建和创建双拥模范市县活动，巩固和发展军政军民团结的大好局面。', '加强文化、为生、体育事业，全面推进社会进步。文化事业要坚持“二为”方向和“双百”方针，积极推进社区文化、村镇文化、企业文化、校园文化和家庭文化建设，开展创建文化先进县活动，不断丰富城乡群众的文化生活。文学艺术、广播影视、新闻工作要坚持正确的舆论导向，努力提高作品、节目制作水平和播出质量，为全市经济建设、改革开放和社会稳定创造良好的舆论氛围。坚持不懈地开展“扫黄打非”斗争，净化文化市场。集中资金，加大投入，实施村村通广播、通电视工程。加强档案管理，开发利用档案信息资源。卫生工作要坚持预防为主，以初级卫生保健为龙头，实施区域卫生规划，积极扩大农村合作医疗，开展社会医疗卫生服务，提高医疗水平和服务质量。深入开展爱国卫生运动，进一步改善城乡卫生面貌。整顿药品流通秩序，加强对药品、食品和公共卫生的监督管理。关心残疾人事业，在全社会实施“爱心助残工程”。重视做好老龄工作，积极开展健康有益的活动。体育工作要认真落实《全民健身计划》，增加社区健身设施，推动基层群众体育活动的广泛开展。竞技体育要加强优势项目训练，力争在全区十运会上取得好成绩。', '村村通广播、通电视工程。加强档案管理，开发利用档案信息资源。卫生工作要坚持预防为主，以初级卫生保健为龙头，实施区域卫生规划，积极扩大农村合作医疗，开展社会医疗卫生服务，提高医疗水平和服务质量。深入开展爱国卫生运动，进一步改善城乡卫生面貌。整顿药品流通秩序，加强对药品、食品和公共卫生的监督管理。关心残疾人事业，在全社会实施“爱心助残工程”。重视做好老龄工作，积极开展健康有益的活动。体育工作要认真落实《全民健身计划》，增加社区健身设施，推动基层群众体育活动的广泛开展。竞技体育要加强优势项目训练，力争在全区十运会上取得好成绩。', '加强计划生育工作，严格控制人口增长。坚持现行计划生育政策不变，既定的人口控制目标不变，各级政府一把手亲自抓、负总责不变的原则，继续实行目标管理责任制，坚决执行“一票否决制”，严格兑现奖罚。坚持“三为主”，实行“三结合”，积极开展创建计划生育合格乡镇活动。建立健全计划生育服务网络，改进服务方式，提高管理和服务水平，强化基层基础工作。加强农村特别是山区和流动人口的计划生育综合管理，继续开展计划生育技术扶贫活动，大幅度提高山区计划生育率，严格控制人口增长，提高人口素质，全面完成人口与计划生育各项指标，促进人口与经济社会协调发展。', '加强环境和资源保护，推进可持续发展。认真贯彻执行新的《土地管理法》，抓紧编制和实施土地利用总体规划，全面实行土地用途管制制度，切实落实耕地保护措施，严格控制非农业建设占用耕地。依法实行国有土地有偿使用制度，促进土地使用权的合理流动，提高土地资源配置效益。加强对水资源和森林、矿产等资源的管理，严格执行有关法律法规，严禁违法占用和违法开采。加强气象和地震测报，做好防震减灾工作。抓好水土流失、沙化等综合治理，大力植树种草、退耕还林还草，坚决制止乱采滥挖甘草等破坏草原的违法行为，保护和改善生态环境。加强工业污染治理，确保按期达标排放；严格执行新建项目环境影响评价制度和“三同时”制度，严肃环保行政执法，切实做到经济建设、城市建设、环境建设同步规划、同步实施、同步发展，实现经济效益、社会效益、环境效益同步提高。', '加强民主法制建设，增强全民法治意识。认真落实中央依法治国的战略部署，积极实施依法治市，逐步把经济和社会事业的发展纳入法制化、规范化轨道。各级政府都要严格依法行政，依法管理经济和社会事务，建立执法责任制，提高行政执法水平。自觉接受同级人民代表大会及其常委会的监督，认真贯彻人大通过的各项决议。积极支持人民政协发挥政治协商、民主监督和参政议政的作用，密切与各民主党派、人民团体和社会各界的联系，虚心听取意见和建议。认真办理人民代表议案、建议、意见和政协委员提案，积极配合市人大常委会开展执法执纪检查，及时纠正存在的问题。大力推进民主建设，全面实行政务公开、厂务公开、村务公开，加强民主管理和社会监督，充分发挥人民群众对政府工作的监督作用。深入开展“三五”普法宣传教育，推广“148”等法律服务，提高全民的法治意识。', '加强社会治安综合治理，维护社会稳定。深入开展严打整治斗争，严厉打击暴力犯罪、团伙犯罪、毒品犯罪以及抢劫、盗窃等各类刑事犯罪和经济犯罪，提高大要案的破案率。进一步完善110社会联动服务系统，提高公安机关的快速反应能力和防范控制能力。全面实行社会治安综合治理目标管理责任制，大力开展安全文明小区和安全文明村镇创建活动，加强治安防范网络建设，加强流动人口管理，切实把综合治理各项任务落实到基层。要从严治警，巩固教育整顿成果，努力提高公安、司法和国家安全队伍的整体素质。切实做好人民群众来信来访工作，及时解决社会热点、难点问题，妥善处理各种人民内部矛盾，把问题解决在基层。认真做好民族宗教工作，全面贯彻《民族区域自治法》和党的民族政策，深入进行马克思主义民族观教育，大力推进民族团结进步事业。依法加强对宗教事务的管理，坚决查禁邪教组织和非法宗教活动，引导宗教与社会主义社会相适应。', '把吴忠建设成为经济强市，是全市各族人民寄予我们的厚望。实干兴市，创业富民，完成今年的工作任务，各级政府肩负着重大而光荣的历史使命。我们必须以对党、对人民高度负责任的精神，切实加强自身建设，改进工作作风，转变工作方式，提高工作效率，努力建设一个团结务实、开拓进取、勤政廉洁、有序高效的政府。', '强化政府的服务职能。加强自身建设，是本届政府的一项重要任务。我们要进一步理顺管理体制，理顺工作关系，明确市政府各部门的职责，切实转变职能。各级政府及其部门都要牢固树立为经济建设服务，为企业、为基层服务的思想，增强加快发展的意识，大胆探索，放手实践，勇于创新，不失时机地寻求发展的途径，奋力开创吴忠经济社会发展的新局面。加强调查研究，搞好协调指导，积极为基层和企业提供政策、技术、信息服务，协调解决社会经济生活中出现的困难和问题，促进经济和各项社会事业健康发展。建立科学的决策程序，对涉及经济和社会发展重大问题的决定，都必须走群众路线，广泛听取各方面的意见，科学论证，促进决策的民主化、科学化。各级政府都要加强政府机构的管理，从现在起，禁止事业、企业人员进入政府机构，积极做好超编人员的分流消化工作，为明年政府机构改革做好准备。', '加强公务员队伍建设。深入开展讲学习、讲政治、讲正气的“三讲”教育活动，组织广大干部认真学习马列主义、毛泽东思想特别是邓小平理论，学习党的方针、政策和国家的法律、法规，学习和掌握市场经济、现代科技、现代管理等方面的知识，不断提高思想水平、理论水平、政策水平，提高分析问题、研究问题、解决问题的能力，增强政治上的坚定性和敏锐性，增强工作的预见性、科学性和创造性。进一步完善公务员制度，加强培训，严格管理。每个政府工作人员都要牢记全心全意为人民服务的宗旨，树立群众观念，坚持群众路线，一切从人民利益出发，关心群众疾苦，体察民情民意，及时解决涉及群众切身利益的具体问题，多为群众办实事、办好事，密切政府与人民群众的联系。增强政府工作人员的公仆意识，勤奋工作，自觉维护党和政府在人民群众中的良好形象，做人民满意的公务员。', '牢固树立求真务实的工作作风。各级政府机关要坚持实事求是的思想路线，大力倡导和发扬求真务实的作风，狠抓落实。各级领导要带头摆脱文山会海，减少应酬，集中精力抓大事，突破主要矛盾，加强薄弱环节。坚持深入实际，真抓实干，鼓实劲，出实招，求实效，用实际行动影响和激励广大干部奋发向上，把全部精力用到干实事上来，用到解决两个文明建设的实际问题上来。以实实在在的政绩让人民高兴，以勤政为民的政风使人民放心。健全领导干部联系基层工作制度，培养典型，树立样板，以点带面，推动整体工作的开展。加大督查督办力度，各项重要工作都要做到有布置、有检查、有反馈，坚决纠正有令不行、有禁不止、各行其是、弄虚作假等不良作风，确保政令畅通。全面推行工作目标管理责任制，严格考核，奖优罚劣，形成激励机制，促进各级政府机关提高工作效率和工作水平。', '坚持不懈地抓好廉政建设。认真落实廉政建设责任制，进一步加大反腐败斗争的力度，从严治政，反腐倡廉，标本兼治，综合治理。继续抓好大案要案的查处，坚决纠正行业不正之风，下大力气治理“三乱”，切实减轻农民和企业负担。各级干部特别是领导干部都要以身作则，廉洁自律，模范地遵纪守法，自觉接受监督，做艰苦奋斗、廉洁奉公的表率。要建立健全廉政建设制度，完善监督制约机制，从源头上、机制上、制度上预防和治理腐败，把廉政建设提高到一个新水平。', '各位代表！人民赋予我们的任务光荣而艰巨，新的机遇和挑战催人奋进。让我们高举邓小平理论伟大旗帜，发扬宁夏精神，凝聚全市各族人民的智慧和力量，抓住机遇，开拓创新，负重拼搏，奋力创业，全面完成今年经济和社会发展的各项任务，以更加出色的成绩迎接共和国50周年庆典和澳门回归祖国，以全新的姿态迈入21世纪。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>291</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>吴忠市农牧局汇总年度部门决算公开情况说明</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2019-09-27</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmjs/2018n_48262/201909/t20190927_1759308.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['吴忠市农牧局属于市人民政府组成部门，主要职责是： 贯彻执行国家、自治区有关法律、法规、规章和方针政策；拟定吴忠市农业发展政策、规划、并组织实施；指导农业社会化服务体系建设、乡村集体经济组织建设和合作经济组织建设，建立完善农村土地流转服务体系，指导全市农业新品种、新技术的试验示范及农业技术推广工作；负责食用农产品质量安全监督管理；负责农业生产资料的质量监督管理工作；指导、监督全市畜禽疫病、植物病虫害的防疫检疫等。农牧局所辖', '5个科室（办公室(含财务室)、产业信息科、农业农机科、畜牧渔业科、市场政策与法规科）7个事业站所，其中：行政编制29人（其中后勤事业编制1人），现有行政人员18人，离休1人，工勤1人；事业编制67个，现有在职事业人员63人。市农牧局属全', '额拨款一级行政单位，财务独立核算，在吴忠农业银行开设1个基本账户和1个零余额用款账户。执行《行政单位会计制度》，法人： 马长贵(局长)。按照“五不直接分管”规定，财务由副局长汪洋同志分管，所属7个事业单位财务独立核算，由局机关财务室代理记账、核算。（二）机构设置对本部', '属预算单位构成进行详细说明。如：从预算单位构成看，吴忠市农牧局预算包括：农牧局本级预算、下属事业单位预算。纳入农牧局2018年度部门预算编制的二级预算单位包括：', '般公共预算财政拨款基本支出决算情况说明（按经济分类填列到款级科目）2018年度一般公共', '经费一般公共预算财政拨款支出年初预算为223000.00元，支出决算为113546.20元，完成年初预算的5092%。与上年相比，减少177972.61元，下降61.05%，决算数小于年初预算数的主要原因是吴忠市农牧局及各事业站所公车改革后保留了5辆执法车辆，其他车辆9辆，特种专业技术用车1辆，执法任务主要由吴忠市畜牧水产技术服务中心承担。', '经费一般公共预算财政拨款支出决算中，因公出国（境）费支出占0%；公务用车购置及运行费支出占78.91%；公务接待费支出占21.09%。', '费。年初预算为0元，支出决算为0元，完成年初预算的0%；比上年减少（增加）0元，下降（增长）0%。决算数小于（大于）年初预算数的主要原因是无因公出国（境）。全年因公出国（境）团组数0个，因公出国（境）人次数0人。（2）公务用车购置及', '支出为0元，公务用车运行维护费支出89597.20元，主要用于吴忠市农牧局公车改革后只保留了5辆执法车辆，执法任务主要由吴忠市畜牧水产技术服务中心承担等。一般公共预算财政拨款开支的公务用车购置数0辆，公务用车保有量为10辆。（3）公务接待费。年', '绩效管理要求，本部门组织对2018年度一般公共预算项目支出全面开展绩效自评。其中，一级项目16个，二级项目1个，共涉及资金9490600元，占一般公共预算项目支出总额的27%， 组织对2018年度盐同红连片区农业新型', '年度贷款贴息资金等1个政府性基金预算项目支出开展绩效自评。共涉及资金2045090元，占政府性基金预算项目支出总额的99.5%。 组织对2018年度种业提升工程、水稻绿色轻简化栽培技术示范、小麦病虫害防控项目等7个政府性基金预算项目支出开展绩效自评。吴忠市农牧局本级共组织对宁夏法福来食品股份有限公司和吴忠市嘉', '禾粮油食品有限公司共同承担2018年宁夏马铃薯主食产品及产业开发试点项目、宁夏宁优汇特色产品运营有限公司特色农产品品牌建设项目、夏进综合牧业开发有限公司2018年奶牛养殖企业粪污资源化利用项目补贴资金、吴忠市立祥奶牛养殖专业合作社2018年奶牛养殖企业粪污资源化利用项目补贴资金、吴忠市少武粮油有限公司等39家企业2018年度吴忠市富硒农产品开发项目等6个项目开展了重点绩效评价，涉及一般公共预算支出739.9万元，政府性基金预算支出204.51万元。其中，对0等项目分别委托0等第三方机构开展绩效评价。从评价情况来看，该项目已完成所有建设内容，应补贴宁夏法福来食品股份有限公司164.59万元，吴忠市嘉禾粮油食品有限公司56.58万元，项目资金共221.17万元已全部到位（其中由吴忠市农牧局拨付200万元，剩余资金21.17万元由青铜峡市农科局从2016年马铃薯主食开发项目结余资金拨付），正在办理资金兑付手续。项目严格按照有关财政专项资金管理办法的规定和资金计划安排使用项目资金，无挤占、挪用、套取专项资金等现象，确保项目资金专款专用。吴忠市农业广播电视学校组织对农民田间学校建设、农民培训实训基', '地及工作经费1个项目开展了重点绩效评价，涉及一般公共预算支出10.00万元，项目没有委托第三方机构开展绩效评价。共组织对2018年度种业提升工程、水稻绿色轻简化栽培技术示范', '、小麦病虫害防控项目等7个项目开展了重点绩效评价，涉及一般公共预算支出76.8万元，政府性基金预算支出76.8万元。吴忠市农业综合开发办公室严格按照预算执行各项收支。对于自治区', '农发办拨来的中央、自治区资金及市本级配套资金严格管理使用，发挥财政资金最大效用，使农发项目得到顺利实施，通过农发项目的实施，极大改善了项目区的农业生产条件，促进了高产、高效、节水、优质农业的发展，促进了农业现代化，增加了农民收入，产生了明显的经济效益、生态效益和社会效益。（2）以部门为主体开展的重点项目绩效评价结果（各部门至少将1个以上以部门为主体开展的重点项目绩效评价报告或绩效评价综述向社会公开）。2018年农作物种业提升工程项目{（农）指标[201〔2018〕90号}绩效自评综述：根据年初设定的绩效目标，农作物种业提升工程项目绩效自评得分为100分。项目全年预算数为398000元，执行数为398000元，完成预算的100%。主要产出和效果：一是完成了宁夏春小麦、水稻、玉米的区域试验和生产试验；二是展示了农作物新品种示范。整个项目实施良好，达到了目标要求。主要产出和效果：一是在全市遴选五家农民合作社，补助项目资金1', '0.00万元，用于完成基地或田间学校自主建设；二是辐射带动周边农户进行农业技术学习、生产实践问题解答。发现的问题及原因：无发现其他问题；吴忠市2018年马铃薯主食产品及产业开发试点项目绩效自评得分', '为98.5分。项目全年预算数为200.00万元，执行数为200.00万元，完成预算的100%。马铃薯主食产品销售收入较上年增长5%，主食产品上架销售点较去年增加5个以上。项目实施的社会效益分析。马铃薯产品具有绿色安全、低脂肪、易消', '化、营养全的饮食功能，利于糖尿病患者低糖饮食和体弱积食患者改善消化功能，提高马铃薯在主食中的消费占比，增进了人体健康。在主推市场调查中，消费者对马铃薯主食产品的认知度在80%以上，马铃薯主食产品的开发和马铃薯主食产业的发展，为广大消费者所认可。项目实施的可持续影响分析。该项目通过马铃薯主食产品开发试点补贴，使马铃薯主食产品被广大消费者认识，进一步推动马铃薯产、研、供、销一体化产业体系建设，促进农业增效和农民增收，增强一二三产业融合发展。在项目的实施和企业开展的满意度抽样调查中，马铃薯加工企业对项目组织实施的满意度和消费群众对马铃薯主食产品的认可度都达到了90%以上，马铃薯主食开发项目受到了企业和消费者的一致认可和好评。农产品质量安全检验检测及监管项目绩效自评综述：根据年初设定的', '绩效目标，农产品质量安全检验检测及监管项目绩效自评得分为100分。项目全年预算数为200000元，执行数为200000元，完成预算的100%。主要产出和效果：一是加强农产品农药残留监测工作，将农产品生产基地、批发市场等纳入了检测范围，进行产品质量检验检测，保证让群众吃上放心菜。截至目前，全市共抽检各类农产品10789批次，其中定性速测抽检9797批次，合格率为99.8%。市级定量检测365批次，合格率99.4%。开展农药定性清除，深入到利通区北方农资城进行农药抽检，共计抽检28个样品批次，合格率100%；二是新增“三品一标”认证28个，其中，绿色食品10个，有机食品16个产品，地标产', '产基地、批发市场等纳入了检测范围，进行产品质量检验检测，保证让群众吃上放心菜。截至目前，全市共抽检各类农产品10789批次，其中定性速测抽检9797批次，合格率为99.', '品2个，新增数量居全区第一，“三品一标”认证累计总数在全区5市中名列第二；三是开展“三品', '一标”农产品质量安全专项检查，深入到辖区5个县（市、区）的超市、农贸市场、批发市场、地理标志产品经营门店，重点检查了粮油、果蔬、禽蛋、小杂粮、蜂蜜等产品，着力发现和解决“三品一标”农产品质量安全存在问题和安全隐患；四是先后深入到利通区、同心县、吴忠国家农业科技园区开展以农产品质量安全监管暨“三品一标”认证为主题的培训班，围绕农业标准化生产、“三品一标”认证进行指导，邀请专家授课为生产经营主体和农民群众提供技术咨询服务，使其了解掌握农产品质量安全相关知识，提高农产品生产质量安全意识。发现的问题及原因：一是农产品质量安全监管工作经费不足，农产品质量安全监管、抽样的工作任务繁重，监管范围广，抽样工作量大。下一步改进措施：积极申请市级财政、自治区农业农村厅项目资金。', '中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、差旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>291</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>吴忠市水务局汇总年部门预算</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2020n_48259/202002/t20200206_1943913.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['（一）负责保障水资源的合理开发利用。拟订全市水利 发展政策和规划，起草政府规章草案。组织编制全市水资源规划、黄河及重要湖泊、流域（区域', '（二）负责生活、生产经营和生态环境用水的统筹和保障。组织实施最严格水资源管理制度，统一监督管理全市水资源，拟订全市和跨区域水中长期供求规划、水量分配方案并监督实施。协调全市及跨区域重大调水工程的水资源调度。组织实施取水许可、水资源论证和防洪论证制度，指导开展水资源有偿使用工作。指导和管理工业、农业、生态及城乡供水工作。', '（三）负责提出全市水利固定资产投资规模、方向和具体安排建议并组织指导实施。提出吴忠市财政性水利专项资金安排建议并负责项目实施的监督管理。', '（四）指导水资源保护工作。组织编制并实施水资源保 护规划。指导全市饮用水水源保护有关工作。指导地下水开发利用和地下水资源管理保护。组织指导地下水超釆区综合治理。参与编制水功能区划和指导入河排污口设置管理工作。', '（五）负责全市节约用水工作。拟订节约用水政策措施， 组织编制节约用水规划并监督实施，组织制定有关标准并监督实施。组织实施用水总量控制等管理制度，指导和推进节水型社会建设工作。', '（六）指导全市水利设施、水域及其岸线的管理、保护与综合利用。组织指导水利基础设施网络建设。指导重要河湖水库的治理、开发和保护。指导河湖水生态保护与修复、河湖生态流量水量管理以及河湖水系连通工作。负责全市河湖釆砂的管理和监督检查，指导河湖釆砂规划和计划的编制，组织实施河道管理范围内工程建设方案审查制度。', '（七）指导监督全市水利工程建设与运行管理。组织实 施重大水利工程建设与运行管理。督促指导县（市、区）配套工程建设。指导全市水利工程建设质量监督，组织实施重要水利工程建设的质量监督。', '（八）负责水土保持工作。拟订全市水土保持规划并组 织实施。指导和组织实施全市水土保持和水土流失综合治理、预防监督监测并定期公告。负责建设项目水土保持方案的审查审批、监督实施和水土保持设施的验收工作，指导重点水土保持建设项目的实施。', '（九）指导全市农村水利工作。指导农村水利改革创新 和社会化服务体系建设。组织开展大中型灌排工程建设与改造，指导现代化灌区建设。指导农村饮水安全工程建设管理工作，指导节水灌溉有关工作。指导农村水能资源开发、小水电改造工作。', '（十）负责水利工程移民管理工作。贯彻落实水利工程移民有关政策并监督实施。指导监督水库移民后期扶持政策的实施。协调推动水利扶贫工作。', '（十一）负责重大涉水违法事件的查处，协调和仲裁跨区域水事纠纷，承担水政监察和水行政执法。督促检查水利重大政策、决策部署和重点工作的贯彻落实情况。依法负责水利行业安全生产工作，组织指导水利突发公共事件的应急管理工作。指导水利建设市场的监督管理，组织指导水利投资项目稽察、节水及水资源管理督查。', '（十二）组织开展水利科技工作。组织指导水利科技创新、新技术推广应用、信息化工作、对外合作与交流。组织水利技术引进和科技推广。负责水利科技项目和科技成果的管理工作。监督实施水利地方技术标准、规程规范。', '（十三）负责落实综合防灾减灾规划相关要求，组织编制洪水干旱灾害防治规划和防护标准并指导实施。承担水情旱情监测预警工作。组织编制重要河湖和重要水工程的防御洪水抗御旱灾调度及应急水量调度方案，按程序报批并组织实施。承担防御洪水应急抢险的技术支撑工作，保障防洪安全、河势稳定和堤防安全。', '(十四）贯彻落实国家、自治区及市委、市政府关于河长制、湖长制的决策部署。对各县（市、区〕、市直各部门履行河长制、湖长制相关工作进行指导、协调、监督、考核。', '(十六）职能转变。切实加强水资源合理利用优化配置和节约保护。坚持节水优先，从增加供给转向更加重视需求管理，严格控制用水总量和提高用水效率。坚持保护优先，加强水资源、水域和水利工程的管理保护，维护河湖健康美丽。坚持统筹兼顾，保障合理用水需求和水资源的可持续利用，为经济社会发展提供水安全保障。', '从预算单位构成看，吴忠市水务局（汇总）部门预算包括：本级4个行政单位和4个事业单位；二级所属单位3个。', '纳入吴忠市水务局（汇总）2020年部门预算编制的本级4个行政单位为办公室、规划建设管理科、法规与水资源管理科、农村水利与水保科；4个事业单位为河湖管理中心、苦水河管理所、黄河管理所、水利质量监督站', '纳入吴忠市水务局（汇总）2020年部门预算编制的3个所属事业单位为：吴忠市水土保持工作站、吴忠市水政监察支队、清宁河管理所。', '吴忠市水务局（汇总）2020年一般公共预算财政拨款项目支出832.30万元，其中：本年收入安排支出832.30万元，上年结转结余资金安排支出0万元。包括：农林水支出', '主要用于水利工程质量监督工作经费5万元、河湖长制办公室日常工作经费20万元、河湖保洁费用20万元、农村水利管理工作经费10万元、苦水河管理所工作经费5万元、黄河河道日常巡查及县区水旱灾害检查10万元、重点清理整治市区河湖乱占乱建、乱垦乱种、乱排乱倒、乱挖乱采突出问题经费6', '主要用于黄河城市段河道维修养护经费10万元用及郝家台水库运行管理经费5万元；农林水支出', '三、关于吴忠市水务局（汇总）2020年一般公共预算财政拨款“三公”经费预算情况说明', '2020年“三公”经费财政拨款预算比2019年减少4.02万元，其中：因公出国（境）费增加（减少）4.77万元，主要原因未计划安排人员因公出国（境）；公务用车购置费增加（减少）0万元，主要原因水务局没有公车；公务用车运行费增加（减少）0万元，主要原因水务局没有公车；公务接待费增加0.75万元，主要原因2019年预算未安排公务接待费用，2020年根据实际情况计划增加预算数。', '吴忠市水务局本级4个行政单位为办公室、规划建设管理科、法规与水资源管理科、农村水利与水保科；4个事业单位为河湖管理中心、苦水河管理所、黄河管理所、水利质量监督站', '2020年吴忠市水务局（汇总）预算批复九个项目，并对每个项目制定了绩效目标，主要涉及以下项目：', '主要用于：（1）水利工程质量监督工作经费5万元，用于工程质量检测1次及日常质量安全监督检查，加强人员培训，使全市水利工程质量整体水平稳中有升，大中型水利工程项目一次验收合格率、其他水利工程项目一次验收合格率达90%以上；（2）河湖长制办公室日常工作经费20万元，用于举办培训班1次，河湖长制学习、宣传、督察暗访等；（3）河湖保洁费用20万元，用于保洁工资及垃圾处理清运费用，做到长期保持河湖清洁；（4）农村水利管理工作经费10万元，用于农水项目督促检查工作，促进项目建设质量和项目发挥效益；（5）苦水河管理所工作经费5万元，完成河道日常巡查12次，确保苦水河防洪治理工程运行，对苦水河水文、洪水巡查，保证河道行洪正常；（6）黄河河道日常巡查及县区水旱灾害检查10万元，用于河道日常巡查180天及县区水旱灾害检查3次，对人员进行业务培训，签订气象服务协议，提高预警能力和水旱灾害抢险应急能力；（7）重点清理整治市区河湖乱占乱建、乱垦乱种、乱排乱倒、乱挖乱采突出问题经费6', '农林水支出（类）水利（款）水利工程运行与维护（项）2020年预算15万元，主要用于（1）黄河城市段河道维修养护经费10万元，完成市区黄河城市段4km栏杆维修养护。每周对城市景观段4km河道护坡保洁，保障城市重点段落环境干净整洁；（2）郝家台水库运行管理经费5万元，用于郝家台水库值班确保水库安全运行。', '（类）水利（款）水利前期工作（项）2020年预算50万元，主要用于编制黄河生态保护和高质量发展水利项目规划，完成前期规划，明确前期规划重点项目，通过项目实施大大改善吴忠河湖水系及其周边的环境质量，顺应吴忠水利事业发展及转型升级。', '于法律咨询（聘请法律顾问、涉水案件应诉）水利执法，为重大决策、合同提供法律意见，依法依规开展工作，不发生违法行政行为。', '农林水支出（类）水利（款）其他水利支出（项）2020年预算30万元，保障支付吴忠市水务局在职非在编复退军人工资及各类津补贴和社会缴费。', '农林水支出（类）水利（款）水资源节约管理与保护（项）2020年预算205万元，主要包括以下2个项目：1、水政监察支队人员经费，项目资金200万，项目目标旨在保障部门工作正常开展，人员工资按时发放。2、水资源管理、评价、规划、水保护宣传工作等，项目资金5万元，项目目标为取水工程（设施）核查登记工作2次、吴忠市城市自备井取水口设施更换安装5套和涉水法律法规宣传工作开展3次，培训1次。', '农林水支出（类）水利（款）水土保持（项）2020年预算50万元，项目为黄河滩防沙治理、水土保持管理及芨芨沟治理项目。项目目标为沿黄河滩种植冬麦80公顷，红柳40公顷且确保成活率在80%以上，旨在增加绿化面积，防止土地沙化，以及防止黄河滩扬尘，保护环境。', '5.“三公”经费：纳入省级财政预决算管理的“三公”经费，是指部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '6.机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>291</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>吴忠市第二届人民代表大会第二次会议上的报告</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfgzbg/201908/t20190801_1640058.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府，向大会作政府工作报告，请予审议，并请市政协各位委员和其他列席人员提出意见。', '2004年是本届政府任期的第一年，也是我市发展史上较为重要的一年。面对经济社会发展格局因行政区划第二次大调整而发生重大变化的考验，各级政府和全市人民在自治区党委、政府和市委的正确领导下，以邓小平理论和“三个代表”重要思想为指导，全面贯彻落实党的十六大和十六届三中、四中全会精神，牢固树立和落实科学发展观、正确政绩观，解放思想，锐意进取，开拓创新，加快发展，改革开放和现代化建设取得了新的成就，圆满完成了市二届人大一次会议确定的各项目标任务，实现了本届政府工作的良好开局。主要表现在：', '(二)城乡建设稳步推进。全市共安排城市建设项目213个，完成投资24.8亿元。其中市区重点建设项目56个，完成投资13.2亿元。各县(市、区)对城市主要街区进行大规模的改造，开工建设了157个重点项目，完成投资11.6亿元。青铜峡城市道路与公园建设，同心住宅小区及商贸市场建设，盐池中小学改扩建及住宅开发，红寺堡城区供排水及罗山商城建设等，集中体现了各地城市建设的魄力和亮点。市区按照建设滨河生态城市的总体目标，一手抓规划，一手抓建设。吴忠市城市总体规划(2003—2020年)方案已经自治区人民政府批准，“一城三区”的城市框架正式确定。滨河开发与旧城区改造同步推进，开工建设城市道路10条，总长7.2公里。文卫路北段、吴灵路西段、明珠西路、古城路、新村南路等已完工，完成投资6400万元。实施了供水、供热管网改造、秦渠南集中供热、热计量户表改造等工程，完成投资5360万元。开工建设了劳动力市场和信息网络中心等25个公建项目，市行政中心、财政公积金大楼等20项工程建成使用。新建续建了东方花园二期、世纪嘉园、古城庄点改造等12个住宅开发项目，完成投资9.6亿元，建成面积98万平方米。完成了滨河大道一期4公里标准堤防工程、路面硬化工程及“吴忠情韵”等14个景点建设和1795亩绿化任务，古城湾怡养园等城市绿化、美化项目进展顺利，新增城市公共绿地38.2万平方米，人均增加2.4平方米；城市化率达到32.4%，提高了2个百分点，滨河生态城市的框架初步显现。完成了辖区内同心至沿川子高速公路过境段、国道307线等322公里国道、省道改扩建工程，完成投资5.7亿元。开工建设了大泉至新庄集等26条348.8公里的县、乡、村道路，完成投资1.57亿元，进一步改善了交通基础设施。', '(三)“平台”建设初见成效。根据新的市情，充分利用太阳山、牛首山、贺兰山东麓“三山”荒地及资源优势，统筹山川发展，实施园区上山、工业上山，打造发展平台。集中精力实施了太阳山移民开发区“一号工程”，开发区的规划编制和申报基本完成，绿化用地的渠系配套及镇区道路、矿山公路、人畜饮水工程已建成使用，镇政府办公楼附属用房等7个项目全部开工，完成投资1470万元。吸引了区内外许多大型企业前来洽谈投资，第一宗煤炭资源探矿权的招拍挂正依法进行。青铜峡新材料产业基地有32家企业申请进驻，7家开工建设，完成投资1.2亿元。牛首山镁合金产业园区引进8家企业，完成投资8500万元。各县(市、区)工业园区也呈现出良好发展势头。全市7个园区完成基础设施投资7320万元，入驻企业111家，开工项目63个，完成投资6亿元，实现产值1.9亿元。', '(四)招商引资取得突破。全面推进对外开放和招商引资，深入开展“项目建设年”和“招商引资年”活动，出台了《关于进一步加强招商引资工作的意见》及其配套文件，实行了目标责任管理，激发了全市上下抓项目、促招商的活力。组团参加了第八届中国东西部合作暨投资贸易洽谈会、宁夏洽谈会等大型节会，赴东部沿海发达地区开展招商引资，邀请佛山市党政代表团来吴开展经贸活动，接待了大量的投资商前来考察。全市签定招商引资项目203个，协议总投资47.6亿元，实际到位资金16.6亿元，分别是上年的4.9倍和5.8倍。荣盛公司冶炼、宁鲁石化一期等64个项目建成投产；宁夏金顺集团10万吨硅铁、盐池富源公司煤炭开发等117个项目正在建设。', '(五)社会事业协调发展。实施积极的就业再就业政策，多渠道、多形式安置下岗失业人员3232人，“4050”人员再就业1437人。城镇登记失业率控制在4.3%以内。实施以农民科技培训和农村劳动力转移培训为重点的“百万农民培训工程”，培训农民20万人次。加大劳务输出力度，输出劳务14.4万人次，创收4.5亿元。社会保障体系进一步完善，“两个确保”和“三条保障线”得到落实，全市基本养老保险、医疗保险、失业保险新增参保人数分别达到2900人、6000人和6095人，工伤保险4000余人。切实维护农民工合法权益，清欠农民工工资2480万元，为4100名农民工追讨工资431.8万元。积极解决失地农民生产生活及补偿安置问题，兑付拆迁补偿安置资金4550万元。加强救灾能力体系建设，千方百计保障城乡困难群众特别是灾区群众的基本生活，发放救灾款、粮794万元，社会救助金453.8万元。扶贫开发有了实质性进展，争取扶贫资金2743万元，集中帮扶了75个重点贫困村，贫困人口下降11.5个百分点。扎实开展城市低保扩面提标工作，实现了应保尽保。制定实施《吴忠市创建双拥模范城三年规划》，军政、军民关系进一步密切。', '深入实施“人才兴市”战略，继续推行科技特派员创业行动，加快以生产力促进中心、技术创新中心、信息中心为主的科技服务体系建设，提升了地方科技创新与成果转化能力。宁夏吴忠国家农业科技园区建设取得较大突破，辐射带动作用增强，全市新建各类农业科技园区148个。积极推进教育改革，巩固川区“两基”成果，全力打好山区“普九”攻坚战，盐池县“两基”工作率先在宁南山区8县通过自治区评估验收。创建了23所市级示范中小学，新建了盐池五中、同心四中、红寺堡二中等一批危改、百标工程，吴忠中学新校区已投入使用。启动建设了青铜峡体育场、利通区游泳馆、市宣传文化体育中心等基础设施。推广了利通区“宣传文化体育中心户”建设经验，创建了518户农村宣传文化体育中心户。', '认真贯彻落实《公民道德建设实施纲要》，积极开展了“全国双拥模范城”和“文明城镇”创建活动，组织开展市直机关首届运动会、“吴忠好地方”巡回展演等群众性文化体育活动，丰富和活跃了城乡文化生活。挖掘吴忠历史文化积淀和弘扬现代文化，成功举办了吴忠历史文脉学术研讨会、宁夏吴忠(青铜峡)高峡长河旅游节、中国西部乳都文化节和青铜峡御马葡萄酒文化节。树立了“人民优秀调解员”康有喜先进典型，深入开展向牛玉儒、任长霞等先进模范人物学习活动，广大干部群众的精神面貌有了新的变化。加强了公共卫生应急体系建设，提高了应对重大突发公共卫生事件的能力。建成了市疾控中心、市医院传染病区、紧急救援中心和一批县级卫生防疫站，城乡群众就医条件得到改善。地震、广播电视、人防、残联等社会事业得到进一步发展。', '重视和推进经济与人口、资源、环境协调发展。大力实施“少生快富”工程，控制人口增长，人口自然增长率控制在13‰以内。贯彻落实国家环保法律法规和政策，认真开展清理整顿不法排污企业，保障群众健康环保严查行动等专项治理，环境质量逐步改善。依法保护与合理利用土地、矿产、水资源，深入开展土地市场治理整顿，加大对耕地的保护力度，实现了耕地总量的占补平衡。', '(六)社会秩序稳定和谐。全面落实社会治安综合治理各项措施，深入开展“四五”普法，承办了全区基层派出所和司法所建设现场会，推进了基层公安和司法工作。筹集资金120万元，设立了见义勇为奖励基金。重视群众的来信来访，落实责任，把矛盾化解在基层和萌芽状态。深入开展“严打”整治斗争，有力地打击了各种违法犯罪活动。积极构建全方位、多层次的社会治安防控网络体系，组建了治安联防队伍，整合基层派出所警力资源，增强了社会面的控制能力，人民群众的安全感进一步增强。认真贯彻落实党的民族宗教政策，召开了全市首届民族团结进步表彰大会，依法管理民族宗教事务，保持了民族宗教领域的稳定。扎实开展市场经济秩序整顿和规范工作，严厉打击各种扰乱市场经济秩序的违法活动，市场经济秩序进一步净化。强化安全生产监督管理，依法加大对道路交通、非煤矿山等重点行业和领域的监督检查力度，遏制重特大事故发生，全市安全生产形势基本稳定。', '(七)政府工作全面提速。加强政治文明建设，以建设责任政府、有限政府、法治政府、亲民政府为目标，深入开展公务员素质提高年活动，加快推进政府职能转变。加强制度建设，促进政府工作的程序化、规范化。一年来，市政府及其工作部门制定细化工作制度270个，特别是制定出台了《吴忠市人民政府工作规则》等相关制度，依法规范了行政程序。全面深化行政审批改革，清理行政许可实施主体35个，保留行政许可事项203项。深入推行政务公开，进一步完善了政务大厅、服务窗口和政务公开栏工作制度和程序，建立完善了公开办事制、首问责任制、限时办结制、服务承诺制、岗位责任制、督查反馈制等制度，对涉及行政审批、登记、备案、核准等事项限时办理。认真贯彻《全面推进依法行政实施纲要》，成立了政府法律顾问团，明确了政府各部门在依法行政进程中的主要任务和措施，严格按照法定权限和程序行使权力、履行职责。自觉接受人民代表大会及其常委会的依法监督和人民政协的民主监督，认真办理人大代表议案、建议和政协委员提案。建立了政府与工会的联系制度，广泛听取各方面的意见。依法行政的意识增强，行政权力的运行趋向规范，监督约束机制初步形成，办事效率明显提高。', '各位代表！实践充分证明，只要始终坚持以邓小平理论和“三个代表”重要思想为指导，善于解放思想，更新观念，抢抓机遇；始终坚持树立和落实科学发展观，善于立足市情，科学决策，统筹兼顾；始终坚持立党为公、执政为民，善于以人为本，凝聚民心，形成合力；始终坚持发展第一要务，善于开拓创新，锐意进取，干事创业，我们就一定会排除万难，无往不胜，我们的事业也一定会蒸蒸日上、兴旺发达、硕果盈枝！总结过去一年的工作，我们也深深体会到，一切成绩的取得是自治区党委、政府的亲切关怀和市委正确领导的结果，是市人大、市政协及社会各界有效监督和大力支持的结果，是全市人民团结拼搏、无私奉献的结果。在此，我代表市人民政府，向为吴忠改革开放和现代化建设做出积极贡献的全市广大工人、农民、知识分子和干部、驻吴部队、武警官兵、公安干警、中央及区属驻吴单位，表示崇高的敬意！向人大代表、政协委员，各民主党派、工商联、人民团体、离退休老同志和关心、支持吴忠发展的社会各界人士，表示衷心的感谢！', '回顾过去一年，我们也清醒地看到，我市经济社会发展中依然存在着一些困难和问题，比较突出的是：影响经济发展的结构性矛盾和市场对资源有效配置的体制性障碍依然存在，整体竞争力不强；工业高增速低效益、产业链条短及企业筹资难的问题仍然比较突出；农业受自然灾害影响较大，疫病防治的形势严峻，农业生产成本上升，农业直接收入相对减少，山区脱贫任务仍很艰巨；固定资产投资增幅回落，城市建设融资难度增加，一些基本建设项目开工不足，拆迁安置补偿资金缺口大，失地农民生产生活困难；招商引资的规模较小、层次偏低，经济外向度还不高；财政基础薄弱，历史负担重，收入增长缓慢、刚性支出快速增加，硬性缺口大，对经济的支付调控能力比较弱；个别部门职能转变滞后，服务意识不强，投资环境、发展环境亟待进一步改善，等等。对于上述问题，我们将采取更加积极有效的措施，努力加以解决。', '2005年是实现“十五”计划目标、衔接“十一五”规划的重要一年。按照市委的总体部署，政府工作的总体要求是：坚持以邓小平理论和“三个代表”重要思想为指导，深入学习贯彻党的十六大和十六届三中、四中全会精神，以加强党的执政能力建设为根本，以“再造新优势、建设新吴忠”为目标，以科学发展观统揽经济社会发展全局，加快推进新型工业化、城市化、农业产业化进程，努力实现全市经济社会全面协调可持续发展。主要预期目标是：地区生产总值达到125亿元以上，增长12%，力争达到13%；全社会固定资产投资75亿元，增长15%；地方财政收入达到4.3亿元，可比增长10%；社会消费品零售总额25亿元，增长11%；人口自然增长率控制在13‰以内；城镇登记失业率控制在4%以内，新增城镇就业10000人；城镇居民人均可支配收入达到6900元，增长6%；农民人均纯收入2600元，增长4‰。全面完成“十五”计划。为此，要突出抓好以下七个方面的工作：', '坚持以邓小平理论和“三个代表”重要思想为指导，深入学习贯彻党的十六大和十六届三中、四中全会精神，以加强党的执政能力建设为根本，以“再造新优势、建设新吴忠”为目标，以科学发展观统揽经济社会发展全局，加快推进新型工业化、城市化、农业产业化进程，努力实现全市经济社会全面协调可持续发展。', '工业是建设经济强市的主要支撑，也是深化市域经济结构调整、提高产业集中度、培育新的增长点的主要突破口。坚持走新型工业化道路，着力在支柱产业培育、园区建设、项目建设上增补措施，加大力度，务求取得实效。做强优势产业。加快产业结构的跨地区、跨行业调整，集中生产要素和资源配置，提升能源电力、新材料、乳品、葡萄酒、羊绒、建材等对全市经济有重大支撑作用的产业。加快开发与电解铝、金属镁、铁合金、电石、煤炭等产品相关联、相配套的产业，合理利用资源，提高产业集中度，发展循环经济。充分利用现有生产能力及能源、矿产资源丰富的优势，把铝镁产业做为支撑工业发展的拳头产业来抓，在大力支持青铜峡铝业、全世达镁业等铝镁企业发展的同时，依托园区建设，积极新上铝合金、金属镁及镁合金等铝镁精深加工项目，扩大铝镁产业规模。做大园区平台。从战略上调整优化工业布局，引导工业向园区集中，创新园区管理体制和运行机制，集中布局一批重点工业项目。继续把太阳山移民开发区建设作为经济工作的重点，加快矿产资源勘探、采矿权的招拍挂步伐，加大对园区规划及基础设施建设的投入力度。尽快设立太阳山移民开发区政务大厅，实行一站式服务，打造全市招商引资的窗口，以资源优势大招商、招大商，力促区内外大型企业投资置业。加快青铜峡新材料产业基地、牛首山镁合金园区，同心羊绒工业园、金积工业园等园区建设步伐，进一步完善园区功能，提高承载大项目的能力和园区聚集效能，力争有更多的大项目、新项目入园建设，早日投产达标，使园区成为工业发展的最大亮点。突出项目建设。力促天辰公司、宁夏荣盛、同盛冶炼公司等已建成项目达产达效，重点抓好金昱元公司年产20万吨PVC扩建、万胜生物公司30万吨玉米深加工等投资在5000万元以上、对今后全市产业调整具有重大带动力的项目，以及宁鲁石化二期、三期2万吨石化产品扩建、万兴公司3000台扬天挂车及汽车改装等61个投资在500万元以上的技改、续扩建项目建设，完成投资20亿元。通过产业培育和项目建设，带动整个工业升级转型。力争全年完成地方工业产值75亿元、增加值22.5亿元，实现利润3.24亿元，分别增长25%、25%和22%，确保工业经济总量两年增加50%。', '深入贯彻中央1号文件精神和中央农村工作会议精神，落实粮食直补、化肥、种子补贴和减免农业税等各项扶持政策，抢抓农业、农村发展的新机遇，更加积极地支持“三农”发展，促进农民收入的有效增长。用抓工业的理念发展农业，用现代农业经营方式和科技成果改造提升传统农业，用持续有效的农业基础设施建设支撑保障农业，提高农业的产出和效益。提升发展基地。坚持以市场为导向，以科技为支撑，以园区为载体，以结构调整为主线，稳定粮食生产，大力发展特色农业、生态农业、绿色农业、效益农业，抓好农业产业化基地建设。集中引导发展乳业、玉米淀粉、羊绒、设施农业、酿酒葡萄、马铃薯、优质米等产业基地，适度扩大生产规模，提高附加值，拉长产业链，最大程度地增加农民收入。力争奶牛饲养量达到10万头、羊饲养量350万只、新增设施农业5000亩、高效经济作物10万亩、优质马铃薯20万亩、酿酒葡萄5000亩。全面实施优质农产品无公害和标准化生产，推进科技特派员创业行动，加快利通区现代农业示范县和宁夏吴忠国家农业科技园区建设，带动农业上水平、增效益。培育壮大龙头。重点支持宁夏新华百货夏进乳品公司10万吨液态奶生产线、宇华公司牛羊肉加工、御马酒业10万吨葡萄酒、米来生物公司20万吨玉米淀粉、绿海公司苜蓿加工、天启薯业马铃薯深加工、涝河桥牛羊肉市场等一批农业产业化龙头项目，提高辐射带动能力。完善增收机制。积极推行农村水费改革，发展节水农业。全面推行农村小额贷款、信用工程建设和农村合作化经营，建立健全动物疫病防疫体系，积极推行农业生产保险，创新农业经营体制，切实解决农民一家一户办不了和办不好的事情。加强农民负担监督管理和农用物资市场监督检查，加强粮食市场监管，保护和调动好农民生产积极性。夯实农业基础。坚持基本农田保护制度，切实保护耕地。认真实施唐徕渠和西干渠合并工程、西夏渠开挖工程，完成黄河标准堤防4.6公里，启动建设黄河护岸林场。实施同心东部30万亩马铃薯种植基地水源工程，加快山区生态环境治理和人畜饮水工程建设，治理山区水土流失。巩固和扩大封山禁牧、退耕还林还草成果，加强农田水利基本建设，实行山、水、田、林、路、村庄综合治理，增强农业发展后劲。加大扶贫力度。实施“整村推进”扶贫规划，着力改善山区生产、生活条件。加强山区劳动力技能培训和劳务输出，突出发展草畜产业，因地制宜发展马铃薯、中药材等退耕还林还草后续产业，切实增加贫困地区群众收入。继续落实扶贫部门、项目、资金和人员，落实帮扶措施，促进山区脱贫致富，力争农村贫困人口大幅下降。', '加快推进城镇化是实现以城带乡、城乡协调发展的重要动力。坚持把加快城乡建设、打造城市品牌作为促进经济社会与人全面发展的重要内容，综合运用市场机制和经济手段，不断加快城市化进程。科学合理规划城市。牢固树立规划管理的龙头地位，依据新批准的城市总体规划，统筹各区域基础设施规划，尽快组织编制市区近期发展详规、各项专业详规和分区规划，筹建吴忠发展规划展示厅。严格执行市域城镇体系规划，总体兼顾，协调发展，努力建设具有“塞上江南”风貌的新型滨河城市。项目建设带动城市。坚持按照吴忠市区西移和青铜峡市区东扩的城市发展战略，以黄河吴忠市区过境段综合治理为突破口，推进吴青一体化进程。加快滨河大道、吴青路及陈袁滩镇沿线的开发建设，充分保护和建设沿黄河生态自然景观带，注重以生态连接的方式和项目建设拉大滨河生态型城市框架。新建及改造胜利西街、明珠路西段延伸、吴灵路东段改造、西二环向北端直等10条城市道路。新建盛世花园、塞上江南小区、长城花园、颐嘉花园和续建古城庄点改造等13个住宅小区。开工建设秦汉渠办公大楼、烟草专卖局大楼、地税大楼、新生北街商城、新区医院等23个重点项目。启动滨河大道二期生态绿化带、明珠公园、明珠广场改造等12个城市基础设施建设项目。规范管理提升城市。建立健全市、区、乡镇(街道)、社区四级管理体制，加快转变城市管理的机制和方式，注重运用市场手段加快城市绿化、美化、亮化和净化，强化“讲秩序、讲卫生”意识。加快城市垃圾中转站、主要街道公厕建设，加强社区物业管理，开展“物业管理年”活动，不断提升人居环境。着力推进城市投融资体制改革和城市公用事业管理体制改革；积极推进市区收购储备土地的招拍挂，加快土地运作经营步伐，加强城市国有资产管理，发挥国有资产投资经营公司投融资作用，积极探索新的投融资机制，为激活市区建设融集资金，注入动力。城镇扩张聚集城市。充分运用市场机制，促进多元投资，推进县(市、区)城镇建设。加快小坝汽车站与银基花园、盐池安定西街与花马池西街延伸、同心银平街与西北环路、红寺堡市政道路与人民医院等项目建设步伐。继续改造提升主要街区，拉大城市框架，完善基础设施，增强服务功能，提升城市聚集效能。同时，大力发展太阳山、陈袁滩、金积、韦州、花马池、青铜峡镇等中心集镇，完善城镇功能，形成中心城市与中心集镇协调推进、共同发展的格局。交通网络连接城市。加快吴忠市区至青铜峡市区黄河大桥、宁东化工基地(古窑子)经吴忠市区至青铜峡新材料产业基地东西通道的勘测和工程立项，促使中太(银太)铁路、中盐高速公路以及中盐高速公路至太阳山连接线工程早日开工建设，着力实施沿山公路201道改线、吴忠滨河大道二期、三期工程及滨河大道连接线公路建设，构建城市交通框架。同时，加快农村道路基础设施建设，提高公路等级和通达能力，加速城乡一体化进程。', '坚持把招商引资作为提升对外开放水平，吸引和扩大投资的重点，引导全市各级组织、干部群众及社会各方面力量面向沿海发达地区、产业特色突出的中心城市，面向国内外知名大企业和大集团开展招商，努力实现引资额度、引进项目、利用外资和出口创汇的新突破。强化招商责任。继续实施招商引资目标责任制，创新招商引资工作思路，完善工作机制和措施，围绕服务客商和引进项目抓落实，努力在全市营造一种人人想招商、时时议招商、处处抓招商的氛围。优化招商环境。牢固树立环境就是生产力、创新环境就是发展生产力的思想，在继续改善硬环境的同时，着力强化软环境建设。注重提高全体市民的内在素质和信用意识，建设“诚信吴忠”，真正在全市形成“人人都是投资环境，事事都关吴忠形象”的思维理念。认真落实各项优惠政策，降低外商投资成本，提高外商投资回报。简化办事程序，提高办事效率，加强在谈项目、签约项目和已进驻客商的跟踪服务，以便捷高效优质的服务吸引客商、感动客商、留住客商，努力实现我市投资环境一年一个样，三年大变样的奋斗目标。创新招商方式。加强招商引资信息库和项目库建设，做好项目的包装对接。充分利用现代招商手段，开辟招商引资的多种有效载体，依托我市农副产品、矿产资源等优势，采取委托招商、中介招商等代理方式，搞好项目招商、以商招商、网上招商、“小分队”招商和定向、定位、定人、定点招商。继续实施“走出去，请进来”战略，对重点企业、重大项目、重要客商连年跟踪，把客商邀请、项目对接、签约合作等工作落实到每一次招商活动中，延伸招商引资触角，拓宽招商引资渠道，提高招商引资质量。扩大招商成果。着眼于提高招商引资项目签约率、资金到位率和投产开工率，着力抓好在谈项目与签约项目的跟踪推进工作。积极落实青铜峡市与上海勤昌实业公司投资2.1亿元汽车轮毂项目、与山东中信贸易公司投资1.3亿元的20万吨玉米淀粉加工项目，利通区与山东天辰有限公司投资1.2亿元的冶炼项目，盐池县原野蜂产品公司与深圳益康元蜂产品公司投资4435万元的蜂胶加工项目，同心石膏粉厂与四川广元金辉事业有限公司投资1亿元的水泥熟料生产基地项目，红寺堡开发区与浙江正日集团投资1亿元的桑蚕基地建设项目。力争年内在能源化工、新材料、农副产品加工等优势产业的招商引资上有新突破，实际到位资金20亿元以上。同时，继续争取国债项目和专项资金，加快城市排污、垃圾处理、乡村公路等基础设施建设；鼓励出口企业扩大生产规模，增加出口量。', '坚持把加快发展非公有制经济作为强市、强县的重中之重，落实加快发展非公有制经济的政策措施，深入开展“非公有制经济发展年”活动。按照“扩大总量、提高质量”的方针和扶优扶强的原则，着力催生一批，培育一批，引进一批，壮大一批非公有制经济群体。切实打破对非公有制企业的投资限制，鼓励非公有制经济以独资、参股、控股、合作、联营和特许经营等方式，积极参与城乡基础设施和公用事业建设，向教育、文化、卫生、医疗、体育等领域拓展。开展争创非公有制企业十强活动，重点选择100户有一定规模和实力的非公有制企业，从资金、技术、人才等方面给予倾斜，推动非公有制经济由家族式粗放经营向开放型集约经营转变，提高非公有制经济的规模和竞争力。非公有制企业申报的符合国家产业政策的项目，同等享受技改资金、科技三项费用资金、农业产业化资金及财政贴息、财政资助和低息贷款等优惠政策。各级财政每年安排一定的专项资金，用于支持非公有制企业创业发展，力争非公有制经济增幅达到40%以上。加快吴忠市区和银川市第三产业的互动互补、互利互惠，进一步密切联系，借船出海，培育优势。充分发挥吴忠人“有胆识、能吃苦、善经营”的传统，大力发展商贸流通等第三产业，积极推进连锁经营、物流配送和电子商务，以现代营销方式改造提升传统商贸服务业，利用现有优势，出台优惠政策，整合各类商贸市场，做大做强做活市场，建设高标准、大规模、西部一流的农牧产品批发市场，重振吴忠“旱码头”雄风。学习借鉴义乌人的创业精神、经商理念和经营管理市场的经验，加强合作与交流，努力把吴忠打造成宁夏乃至“西部的义乌”。继续巩固发展旅游、餐饮、房地产等产业，大力发展邮政、电信、信息咨询、金融、保险、社区便民服务等现代服务业，力争使非公有制经济成为推进第三产业发展的主力，使第三产业成为市域经济发展的重要动力。', '坚持以人为本，促进经济与社会协调发展。深入落实促进就业再就业的政策措施，积极推进下岗失业人员再就业。大力发展劳务经济，力争劳务输出稳定在15万人（次）以上。进一步完善社会保障体系建设，积极扩大基本养老保险、基本医疗保险、失业保险、工伤保险的覆盖面，启动生育保险。完善城乡社会救助体系，切实保障困难群众生产生活。积极筹措资金，妥善安置失地农民。大力加强财源建设，确保财政收入稳定增长。按照建立公共财政框架的要求，深化财政管理改革，完善部门预算制度、综合财政预算制度、专项资金专款使用制度、政府采购制度、国库集中收付制度；加强财政支出管理，提高财政资金使用效益。', '深入实施科教兴市和人才强市战略，加强科技创新体系建设，努力提高科技支撑的水平和科特派创业水平，示范推广10项科技重大项目、100项科技发展项目、60项先进适用技术。坚持教育优先发展战略，完善“以县为主”的农村义务教育管理体制，巩固提高川区“两基”水平，切实推进山区“普九”攻坚步伐，确保红寺堡开发区如期通过自治区评估验收。优化教育结构，实行办学模式多元化，推进联合办学，支持社会力量办学。推进素质教育，加快普及高中阶段教育，重视并加强民族教育、幼儿教育和特殊教育，积极发展职业教育、远程教育，提高教育质量。建成吴忠职业技术学院综合楼、实训楼，青铜峡高级中学、利通区第三中学迁建等25个国债、百标、危改等建设项目。', '坚持先进文化的前进方向，进一步加强公民道德建设，继续广泛开展创建“文明城镇”，“双拥模范城”等活动，全力做好全市农村宣传文化体育中心户建设工作，深入开展群众性文化活动，大力发展文化产业。深入挖掘吴忠历史文化，努力繁荣吴忠民族文化、大力弘扬吴忠现代文化，提升城市文化品位，扩大吴忠的知名度和影响力、着力塑造特色浓郁的“黄河金岸、水韵吴忠”新形象。加强文化市场管理，完善文化网络，重视农村文化和社区文化建设。积极筹建吴忠历史博物馆和青少年革命传统教育基地，建成吴忠体育馆、书画院。举办吴忠市首届运动会，广泛开展全民健身运动。继续加快公共卫生体系建设，建立健全市、县(市、区)、镇(办、社区)、村四级疾病防控网络，完善疾病控制、医疗急救、卫生监督体系。加强农村医疗卫生工作，认真做好青铜峡市农村新型合作医疗制度试点工作，探索提高农村疾病防控能力和人民健康水平的有效途径。', '正确处理经济发展与人口、资源、环境的关系。加强人口与计划生育工作，搞好优质服务和综合改革，建立完善计划生育利益导向机制和保障机制，提高人口素质，优化人口结构。稳定川区低生育水平，依法加强山区人口管理，严格控制人口增长。强化安全生产监督管理，落实安全生产行政责任追究制，确保全市安全生产形势平稳。依法保护、合理开发和节约使用土地、水、矿产等各种不可再生资源，严厉打击私开乱挖等非法采矿行为，提高资源的永续利用水平。继续贯彻落实环境保护基本国策，加大环境污染治理和保护力度，建设市区空气自动监测站；认真实施《环境影响评价法》，加强资源开发和建设项目环境保护管理；积极推进循环经济和环保产业发展，增强全民环保意识，确保环境安全。', '加强精神文明和民主法制建设，促进“三个文明”全面发展。继续贯彻实施《公民道德建设实施纲要》，加强社会公德、职业道德和家庭美德教育，提高广大市民的综合素质。广泛开展创建文明城市、文明行业、文明村镇、文明社区活动，巩固提高文明创建工作成果。加强国防教育和民兵预备役建设，扎实做好“双拥共建”工作，积极为部队办实事、解难题，巩固新型军政军民关系。认真执行人民代表大会及其常委会的决定决议，自觉接受监督。进一步加强与人民政协的联系，支持人民政协履行好政治协商、民主监督、参政议政的职能。认真办理人大代表议案、建议和政协委员提案。主动听取各民主党派、工商联和社会各界的意见建议。切实加强基层民主政治建设，推进政务、村务、厂务、校务公开，提高执政水平和透明度。认真贯彻落实民族宗教政策，大力发展民族团结进步事业，依法加强对宗教事务的管理，维护民族宗教领域稳定。扎实做好信访工作，强化信访责任制，积极排查化解各类社会矛盾，妥善处理信访突出问题及群体性事件。继续推进社会治安综合治理，深入开展 “平安吴忠” 创建活动，深化“严打”整治专项斗争。严厉打击各种刑事犯罪活动，坚决扫除“黄、毒、赌”等社会丑恶现象，维护社会稳定。继续加强市场经济秩序整治，严厉打击制售假冒伪劣产品的违法行为，维护消费者合法权益。关心支持老龄、残疾人事业，继续做好外事侨务、防震减灾、气象预报等事业。', '按照“为民、务实、高效、清廉”的要求，加快职能转变和管理创新，切实提高行政效能和服务质量，更好地履行经济调节、市场监管、社会管理、公共服务的职能。以建设法治政府为总抓手，切实提高行政能力。', '坚持与时俱进，解放思想。坚定不移地贯彻执行党的基本路线、方针和政策，不断提高工作水平和解决实际问题的能力。坚持用辩证的观点和发展的眼光看待和解决前进道路上的困难，站在更大范围、更高层次上谋划发展，在纷繁复杂的局面中突破主要矛盾，带动整体工作上水平。牢固树立创新意识，坚决冲破一切影响改革与发展的传统观念、保守意识和守成思想，大力弘扬勇于进取、乐于奉献、敢于超越的时代精神，在实践中不断创新思路、创新体制、创新机制，努力开拓思想解放的新境界。', '加快推进政府职能转变。充分发挥市场在资源配置中的基础性作用，将更多的财力、物力用于加强公共设施建设和提供优良的公共产品，把政府职能转到为市场主体服务和创造良好发展环境上来，让广大群众共享发展成果，共享文明生活，努力构建和谐社会。切实加快政府信息化建设，大力开发信息资源，推行电子政务，提高行政效率。建立健全各种预警和应急机制，提高政府应对突发事件和各种风险的能力。', '不断增强依法行政能力。深入贯彻实施《行政许可法》，深化行政审批改革，将保留的行政许可项目，全部纳入规范化、制度化管理轨道。大力推行“阳光工程”，规范政务大厅运行机制，行政许可清理后保留的项目以及与企业和群众关系密切的程序性项目、备案项目、公益性服务项目全部进驻政务大厅，努力实现“一门受理，全程代理”，实行集中限时办理，方便群众办事。强化行政执法监督检查，落实执法责任制和过错责任追究制，加强对规范性文件的备案审查，发挥行政复议、行政诉讼监督作用，坚决纠正行政违法行为，依法保护公民、法人或其他组织的合法权益，加快建立权责明确、行为规范、监督有效、保障有力的行政执法体制。', '着力提高政府决策水平。坚持和完善政府和领导干部联系群众制度、人民群众建议征集制度、社情民意反映制度、与群众利益密切相关的重大事项社会公示和听证制度。建立和完善公众参与、专家论证和政府决策相结合的行政决策机制，完善和坚持行政决策程序，切实做到依法决策、科学决策和民主决策。对涉及经济社会发展全局、涉及公共利益的重大问题和事项，要深入调查研究，广泛听取意见，充分进行论证，主动接受群众监督，真正体现群众意愿，维护人民群众的根本利益。', '进一步提高机关工作效率和服务水平。进一步改进政府工作流程，坚持办文办事限时制，简化办事程序，切实减少会议、文件和不必要的检查、评比活动。建立健全有利于提高工作效率和服务水平的各项工作制度，强化目标管理考核，加大行政督查力度，用制度规范行政行为、推进工作落实的长效机制。政府各部门要加强协作，密切配合，杜绝推诿扯皮、敷衍塞责现象，确保政令畅通。', '大力弘扬求真务实作风。牢固树立科学发展观和正确政绩观，坚持讲实话，出实招，办实事，求实效，把工作的着力点放到研究解决改革发展稳定中的重大问题上，放到研究解决群众生产生活中的实际困难和问题上。坚持立党为公、执政为民，大力倡导为民务实的执政风格，切实维护人民群众的根本利益。狠抓党风廉政建设，全面落实党风廉政建设责任制，坚决查处违纪违法案件，坚决纠正部门和行业不正之风，坚决纠正损害群众利益的不正之风。加强行政监察和审计监督，从源头上预防和治理腐败。', '今年还有一项重要任务，就是抓紧做好“十一五”规划和2020年远景目标的制定工作。做好这项工作，对于贯彻落实科学发展观，统一各方面认识，团结广大干部群众，加快经济社会发展，具有重要意义。要深入研究我市改革发展稳定出现的新情况、新特点、新问题，努力把握经济社会发展的新趋势，加强调查研究，充分发扬民主，切实提高规划的针对性、科学性、预见性和指导性。要加强统计工作，搞好经济普查，为制定“十一五”规划提供科学依据。', '肩负着强市富民的时代重任，我们又踏上了新的征程。形势催人奋进，发展重在践行。让我们紧密团结在以胡锦涛同志为总书记的党中央周围，在自治区党委、政府和市委的坚强领导下，紧紧依靠全市人民，以更足的干劲，更实的作风，努力夺取今年经济建设和社会各项事业的新胜利，共同创造更强的吴忠、更美的城市、更好的生活！']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>291</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>吴忠市第二届人民代表大会第三次会议上的报告</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfgzbg/201908/t20190801_1640074.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会作工作报告，请各位代表与《吴忠市国民经济和社会发展“十一五”规划及2020年远景目标纲要(草案)》一同审议，并请市政协委员和其他列席人员提出意见。', '第十个五年计划时期是我市经济社会发展进程中不平凡的五年。五年来，面对两次行政区划调整，区域经济结构、优势产业布局、资源分布状况发生重大变化的新市情，我们坚持奋斗目标再提升，发展速度再加快，工作激情再强化，众志成城，攻坚克难，开拓创新，锐意奋进，统筹山川协调发展，全力推进工业化、城市化和农业产业化进程，顺利实现了“十五”计划预期的各项主要目标，全市呈现出经济繁荣、社会进步、民族团结、政治稳定的良好局面。', '第十个五年计划时期是我市经济社会发展进程中不平凡的五年。五年来，面对两次行政区划调整，区域经济结构、优势产业布局、资源分布状况发生重大变化的新市情，我们坚持奋斗目标再提升，发展速度再加快，工作激情再强化，众志成城，攻坚克难，开拓创新，锐意奋进，统筹山川协调发展，全力推进工业化、城市化和农业产业化进程，顺利实现了', '全市地区生产总值和地方财政收入年均增长11%以上，人均GDP迈上1000美元新台阶。经济结构渐趋合理，三次产业结构从“九五”末的24：48：28调整为16：52：32。乳品、羊绒、草畜、马铃薯、酿酒葡萄、设施蔬菜等特色产业不断发展壮大。各类农副产品加工企业发展到近2000家。粮食产量稳定在60万吨以上。五年累计完成人工造林520万亩，新增灌溉面积15万亩。依托“三山”荒地及资源优势，实施“园区上山、工业进园”。举全市之力规划和建设太阳山移民开发区“一号工程”，加快推动青铜峡新材料、牛首山镁合金等工业园区提升水平，形成了以能源电力、高载能新材料、机械仪表、农产品加工为主的优势特色工业产业体系。全市工业持续保持了总产值、增加值、销售收入、利润“四个同步增长”，总产值年均增长18%，对经济增长的贡献率比2000年提高7个百分点。第三产业蓬勃发展，增加值占GDP的比重比2000年提高2.4个百分点。', '。乳品、羊绒、草畜、马铃薯、酿酒葡萄、设施蔬菜等特色产业不断发展壮大。各类农副产品加工企业发展到近', '万亩。依托“三山”荒地及资源优势，实施“园区上山、工业进园”。举全市之力规划和建设太阳山移民开发区“一号工程”，加快推动青铜峡新材料、牛首山镁合金等工业园区提升水平，形成了以能源电力、高载能新材料、机械仪表、农产品加工为主的优势特色工业产业体系。全市工业持续保持了总产值、增加值、销售收入、利润“四个同步增长”，总产值年均增长', '按照全市城市发展规划目标和建设滨河生态城市的要求，集中实施了一批重大项目工程。五年累计完成固定资产投资225亿元，年均增长30%。市区先后完成开元大道、“民居计划”、行政中心、盛元广场、滨河大道、迎宾大街等一批重点工程及集中供热、供水、排污等一批基础设施建设项目，使市区逐年变大、变新、变美。市区建成区面积由2000年的16平方公里扩大到23平方公里，城市人均新增公共绿地2.8平方米，城市化率提高11个百分点。各县(市、区)城镇面貌也发生了前所未有的变化，城镇集聚效应和辐射功能进一步增强。全市公路通车里程达4865公里，比2000年增加1114公里。', '按照全市城市发展规划目标和建设滨河生态城市的要求，集中实施了一批重大项目工程。五年累计完成固定资产投资', '。市区先后完成开元大道、“民居计划”、行政中心、盛元广场、滨河大道、迎宾大街等一批重点工程及集中供热、供水、排污等一批基础设施建设项目，使市区逐年变大、变新、变美。市区建成区面积由', '城镇面貌也发生了前所未有的变化，城镇集聚效应和辐射功能进一步增强。全市公路通车里程达', '改制国有企业45家，盘活国有资产8.9亿元，改制面达96%。农村税费、粮食流通、住房、水利产权等制度改革稳步推进，国库集中收付、收支两条线、会计集中核算、乡财县管和政府统一采购等财政管理改革取得成效。企业投资项目备案制、核准制正式实施。县乡机构改革基本完成，乡镇撤并率达40%。对外开放不断扩大，五年累计实际利用国外资金1.5亿美元，全市外贸进出口总额年均增长21%。', '。农村税费、粮食流通、住房、水利产权等制度改革稳步推进，国库集中收付、收支两条线、会计集中核算、乡财县管和政府统一采购等财政管理改革取得成效。企业投资项目备案制、核准制正式实施。县乡机构改革基本完成，乡镇撤并率达', '以养老、失业、医疗、工伤、生育为主的社会保障体系进一步健全，居民最低生活保障制度不断完善，基本养老金社会化发放率达100%，城镇登记失业率控制在4.5%以内。五年城镇累计新增就业7万余人，减少贫困人口10.6万人，输出劳务60万人，低保对象基本实现“应保尽保”。全市城镇居民可支配收入和农民人均纯收入年均分别增长8.5%和5%。', '以养老、失业、医疗、工伤、生育为主的社会保障体系进一步健全，居民最低生活保障制度不断完善，基本养老金社会化发放率达', '万人，低保对象基本实现“应保尽保”。全市城镇居民可支配收入和农民人均纯收入年均分别增长', '五年累计实施农业科技项目250多项，新技术改造项目26项，新产品开发项目17项，科技对经济增长的贡献率比2000年提高5个百分点。市区、青铜峡市通过“普九”复验，盐池、红寺堡通过“普九”验收，“两基”人口覆盖率比2000年提高15个百分点。高中阶段入学率、大专以上升学率、学前教育入园率和儿童入学率分别提高21.3、20.2、6.7和4.1个百分点。农村广播影视公共服务体系建设启动，8套免费电视节目农村覆盖率川区达80%以上、山区达40%以上。“非典”防治工作取得成效。文化体育活动蓬勃开展，医疗卫生事业健康发展。计划生育、土地管理、环境保护国策得到有效落实。精神文明和民主法制建设不断加强，依法行政、综合治理、反腐倡廉取得阶段性成效。统计、文史档案、外事侨务、残疾人、老龄、妇女儿童、民族宗教、人民武装、人民防空、防震减灾、气象预报等各项工作都迈上了新台阶。过去的五年，是我市经济社会持续快速发展、综合实力显著增强的五年，是城乡面貌发生显著变化、人民生活水平不断提高的五年，也是三个文明共同进步、各项社会事业全面发展的五年。“十五”时期取得的各项成就，谱写了我市发展史上的新篇章，为“十一五”发展奠定了坚实基础，增强了我们继续开拓前进的信心。', '个百分点。市区、青铜峡市通过“普九”复验，盐池、红寺堡通过“普九”验收，“两基”人口覆盖率比', '以上。“非典”防治工作取得成效。文化体育活动蓬勃开展，医疗卫生事业健康发展。计划生育、土地管理、环境保护国策得到有效落实。精神文明和民主法制建设不断加强，依法行政、综合治理、反腐倡廉取得阶段性成效。统计、文史档案、外事侨务、残疾人、老龄、妇女儿童、民族宗教、人民武装、人民防空、防震减灾、气象预报等各项工作都迈上了新台阶。过去的五年，是我市经济社会持续快速发展、综合实力显著增强的五年，是城乡面貌发生显著变化、人民生活水平不断提高的五年，也是三个文明共同进步、各项社会事业全面发展的五年。“十五”时期取得的各项成就，谱写了我市发展史上的新篇章，为“十一五”发展奠定了坚实基础，增强了我们继续开拓前进的信心。', '各位代表，刚刚过去的2005年，是“十五”时期的最后一年，也是确保“十五”计划顺利完成的关键一年。各级政府和全市人民在自治区党委、政府和市委的正确领导下，以邓小平理论和“三个代表”重要思想为指导，以开展保持共产党员先进性教育活动为动力，以建设宁夏经济次中心为目标，深入贯彻党的十六大和十六届四中、五中全会精神，全面落实科学发展观，团结奋进，开拓创新，圆满完成了市二届人大二次会议确定的各项目标任务，国民经济和社会事业呈现出良好的发展态势。预计全市完成地区生产总值108.3亿元，增长12.8%；全社会固定资产投资55亿元，增长9%；地方财政收入5.7亿元，增长11.2%；城镇居民人均可支配收入7412元，农民人均纯收入2825元，分别增长11.1%和4.7%。', '年，是“十五”时期的最后一年，也是确保“十五”计划顺利完成的关键一年。各级政府和全市人民在自治区党委、政府和市委的正确领导下，以邓小平理论和“三个代表”重要思想为指导，以开展保持共产党员先进性教育活动为动力，以建设宁夏经济次中心为目标，深入贯彻党的十六大和十六届四中、五中全会精神，全面落实科学发展观，团结奋进，开拓创新，圆满完成了市二届人大二次会议确定的各项目标任务，国民经济和社会事业呈现出良好的发展态势。预计全市完成地区生产总值', '亿元。成功对韦州小泉、红寺堡线驮石地区的五个区块煤炭资源探矿权进行了公开拍卖。深入开展“非公有制经济发展年”活动，非公有制工业企业完成产值', '全市农业实现总产值31.9亿元，增长1.2%。积极化解奶业市场风险，促进奶产业稳定增长。全市奶牛存栏11万头，新增2.6万头。盐池滩羊、滩鸡及同心、红寺堡栈羊、青铜峡生猪等特色产业规模不断扩大，全市肉牛、羊、生猪饲养量分别达到31万头、378万只和68万头。盐池县被命名为“中国滩羊之乡”。涝河桥牛羊肉批发市场被确定为“农业部定点市场”。粮食总产68.8万吨，增长3.6%。种植经济作物55万亩，优质饲草165万亩；设施瓜菜新增5000亩，酿酒葡萄新增1万亩。完成无公害农产品产地认定31宗，面积达20万亩。夏进乳业、御马酒业等企业龙头带动作用进一步增强。农村社会化服务及动物防疫体系不断健全，各类农村合作组织达107个，有效控制了高致病性禽流感等重大动物疫情发生。面对山区五十年不遇严重干旱，狠抓山区抗旱救灾、扶贫开发和劳务经济，39个整村推进项目稳步实施，75个重点扶贫村脱贫致富步伐加快。依托劳务品牌，输出劳务20.5万人，实现务工收入8.3亿元。', '万头。盐池滩羊、滩鸡及同心、红寺堡栈羊、青铜峡生猪等特色产业规模不断扩大，全市肉牛、羊、生猪饲养量分别达到', '万头。盐池县被命名为“中国滩羊之乡”。涝河桥牛羊肉批发市场被确定为“农业部定点市场”。粮食总产', '万亩。夏进乳业、御马酒业等企业龙头带动作用进一步增强。农村社会化服务及动物防疫体系不断健全，各类农村合作组织达', '个，有效控制了高致病性禽流感等重大动物疫情发生。面对山区五十年不遇严重干旱，狠抓山区抗旱救灾、扶贫开发和劳务经济，', '全年实现社会消费品零售总额27.5亿元，增长12.4%，第三产业增加值占GDP的比重达30%。深入开展“重振商埠雄风大讨论”活动。启动实施涝河桥牛羊肉批发市场区域改造项目。成功举办吴忠市首届义乌小商品展销会、首届家具展销会、首届家电产品博览会、第二届房屋展览展示交易会等活动。义乌商贸城投入运营，新百家电连锁超市等商贸企业落户吴忠。房地产业稳步发展，商品房销售面积40万平方米，增长28.6%。承办、举办了宁夏旅游产品展示会和牛首山旅游文化节，全年接待游客64.5万人次，实现收入4012万元，分别增长84.3%和108.3%。', '。深入开展“重振商埠雄风大讨论”活动。启动实施涝河桥牛羊肉批发市场区域改造项目。成功举办吴忠市首届义乌小商品展销会、首届家具展销会、首届家电产品博览会、第二届房屋展览展示交易会等活动。义乌商贸城投入运营，新百家电连锁超市等商贸企业落户吴忠。房地产业稳步发展，商品房销售面积', '全市安排城市建设项目219个，完成投资20.2亿元，其中市区开工建设项目96个，完成投资12.9亿元。编制完成市区西区、西花园片区控制性详细规划和滨河生态城市概念性规划。新建续建西一环等10条城市道路，总长8.7公里。开工建设市职业技术学院实训楼、中央大道商网等23个公建项目及盛世花园、塞上江南、明珠苑等13个住宅小区。吴忠宾馆成功平移，整合周边商业资源，启动实施商贸核心区改造建设工程。推进西泵站技改、城西集污等6个基础设施建设项目，完成投资1.4亿元。实施“一街四园七路”绿化工程，市区新增公共绿地22公顷。太阳山农民新居、孙家滩农民新村等8个“塞上农民新居”示范点新建农宅169栋。各县(市、区)开工建设城镇基础设施建设项目123项，完成投资7.3亿元。青铜峡市古峡东街与康乐小区、盐池县城市垃圾无害化处理与康泰花园、同心县利民街改造、红寺堡市政道路等重点项目建成投入使用。深入开展“物业管理年”活动，综合整治市区环境，城市形象和品位得到提升。', '亿元。编制完成市区西区、西花园片区控制性详细规划和滨河生态城市概念性规划。新建续建西一环等', '个住宅小区。吴忠宾馆成功平移，整合周边商业资源，启动实施商贸核心区改造建设工程。推进西泵站技改、城西集污等', '亿元。青铜峡市古峡东街与康乐小区、盐池县城市垃圾无害化处理与康泰花园、同心县利民街改造、红寺堡市政道路等重点项目建成投入使用。深入开展“物业管理年”活动，综合整治市区环境，城市形象和品位得到提升。', '全市签订各类招商引资项目334个，其中上海勤昌500万套汽车轮毂生产等145个项目开工建设，深圳安延2万吨甜玉米加工等83个项目建成投产，实际到位资金22.1亿元，增长33%。大力开展“招商引资年”活动，积极走出去与马来西亚、纳米比亚等国家建立友好合作关系。组团赴上海、义乌等地学习考察，参加上海投洽会、西安投洽会等经贸洽谈会，在义乌建立了政府办事处和劳务输出站。与上海联合产权交易所建立全面合作关系，由上交所帮助我市编制推进社会主义市场经济行动纲领项目并挂牌部分项目。成功承办陕甘川宁蒙毗邻地区经联会第二十届年会。完成政务大厅迁建整合。开通西部投资吴忠网。对外贸易扩大，全市外贸进出口总额达849万美元，增长23%。', '。大力开展“招商引资年”活动，积极走出去与马来西亚、纳米比亚等国家建立友好合作关系。组团赴上海、义乌等地学习考察，参加上海投洽会、西安投洽会等经贸洽谈会，在义乌建立了政府办事处和劳务输出站。与上海联合产权交易所建立全面合作关系，由上交所帮助我市编制推进社会主义市场经济行动纲领项目并挂牌部分项目。成功承办陕甘川宁蒙毗邻地区经联会第二十届年会。完成政务大厅迁建整合。开通西部投资吴忠网。对外贸易扩大，全市外贸进出口总额达', '全市城镇新增就业10419人，实现城镇下岗失业人员再就业1969人，其中“4050”人员700余人。城镇职工生育保险全面推行。城市居民最低生活保障提标扩面，农村特困户最低生活保障制度不断完善。人才劳动力市场和信息网络中心竣工投入使用。国有困难企业下岗职工基本生活保障向失业保险并轨试点工作成功实施，妥善解决土坡煤矿职工安置，全面盘活吴忠材机厂有效资产，基本完成市区9家企业改制任务，安置职工90%以上。积极推进科技特派员创业行动，各级各类科技园区达173个。率先在全区启动创建教育强区、强乡镇工作。全市15所回民中小学进入“百标”项目。顺利完成市区、青铜峡市部分学校布局调整，优质教育规模不断扩大。市紧急救援中心基本建成，传染病区投入使用。市区、盐池县新型农村合作医疗试点工作全面启动，农民参合率达90%以上。积极开展计划生育“三无”、“一无”乡镇创建活动，各县(市、区)均列入全区“少生快富”工程项目。环境污染防治与生态保护加强，土地、矿产、水资源得到有效保护和合理利用，促进了经济社会的可持续发展。', '余人。城镇职工生育保险全面推行。城市居民最低生活保障提标扩面，农村特困户最低生活保障制度不断完善。人才劳动力市场和信息网络中心竣工投入使用。国有困难企业下岗职工基本生活保障向失业保险并轨试点工作成功实施，妥善解决土坡煤矿职工安置，全面盘活吴忠材机厂有效资产，基本完成市区', '所回民中小学进入“百标”项目。顺利完成市区、青铜峡市部分学校布局调整，优质教育规模不断扩大。市紧急救援中心基本建成，传染病区投入使用。市区、盐池县新型农村合作医疗试点工作全面启动，农民参合率达', '均列入全区“少生快富”工程项目。环境污染防治与生态保护加强，土地、矿产、水资源得到有效保护和合理利用，促进了经济社会的可持续发展。', '认真贯彻《公民道德建设实施纲要》，文明社区、文明单位、文明家庭创建工作成效显著。成功举办市区元宵节花灯展、吴忠市首届合唱节、首届运动会，广泛开展“魅力吴忠”广场文化活动，凝聚了人心，振奋了精神。深入贯彻《行政许可法》和《全面推进依法行政实施纲要》，“四五”普法如期完成。市政府法律顾问团认真履行职责，为政府依法行政、依法决策提供了法律保障。在全市46个乡镇、街道设立法律援助工作站。基层民主政治建设不断加强，村民自治和社区居民自治有序推进。各级政府自觉依法接受人大及其常委会和人民政协的监督，市区两级人大代表议案12件、建议及意见104件和政协委员提案378件全部办复完毕。认真落实党风廉政建设责任制，深入开展纠风和执法检查专项治理，强化审计监督和行政监察，严肃查处违法违纪案件，促进了勤政廉政。国防动员教育和人民防空工作得到加强，“双拥”共建及“双拥”模范城创建工作成效明显，军政、军民关系进一步密切。党的民族宗教政策得到贯彻落实，平等、团结、互助的新型民族关系不断巩固和发展。坚持市级领导信访接待日制度，妥善解决群众来信来访。加强安全生产监督管理，深入开展专项整治，总体形势平稳。“平安吴忠”创建活动取得初步成效，青铜峡市、盐池县分别被自治区命名为首批“平安市”和首批“平安创建工作先进县”。强化社会治安综合治理，严厉打击各类违法犯罪活动，社会治安进一步好转，有力地维护了社会稳定和谐。', '认真贯彻《公民道德建设实施纲要》，文明社区、文明单位、文明家庭创建工作成效显著。成功举办市区元宵节花灯展、吴忠市首届合唱节、首届运动会，广泛开展', '个乡镇、街道设立法律援助工作站。基层民主政治建设不断加强，村民自治和社区居民自治有序推进。各级政府自觉依法接受人大及其常委会和人民政协的监督，市区两级人大代表议案', '件全部办复完毕。认真落实党风廉政建设责任制，深入开展纠风和执法检查专项治理，强化审计监督和行政监察，严肃查处违法违纪案件，促进了勤政廉政。国防动员教育和人民防空工作得到加强，“双拥”共建及“双拥”模范城创建工作成效明显，军政、军民关系进一步密切。党的民族宗教政策得到贯彻落实，平等、团结、互助的新型民族关系不断巩固和发展。坚持市级领导信访接待日制度，妥善解决群众来信来访。加强安全生产监督管理，深入开展专项整治，总体形势平稳。“平安吴忠”创建活动取得初步成效，青铜峡市、盐池县分别被自治区命名为首批“平安市”和首批“平安创建工作先进县”。强化社会治安综合治理，严厉打击各类违法犯罪活动，社会治安进一步好转，有力地维护了社会稳定和谐。', '市区统一办公顺利实施，新的体制平稳运行。全市各级政府面对财政困难等诸多不利因素的影响，克服种种困难，积极创造条件，千方百计筹措资金，认真办理为民承诺的实事，有效解决了关系群众生产生活的一些困难和问题，收到了良好的社会效果。市区两级政府为民承诺的23件实事全面完成或落实，其中新建续建城市道路、建设垃圾中转站、解决城市中低收入家庭住房困难、综合整治黄河市区过境段、市区空气质量检测站、110、119、122“三台合一”报警系统、农村千户户用沼气工程、', '市区统一办公顺利实施，新的体制平稳运行。全市各级政府面对财政困难等诸多不利因素的影响，克服种种困难，积极创造条件，千方百计筹措资金，认真办理为民承诺的实事，有效解决了关系群众生产生活的一些困难和问题，收到了良好的社会效果。市区两级政府为民承诺的', '件实事全面完成或落实，其中新建续建城市道路、建设垃圾中转站、解决城市中低收入家庭住房困难、综合整治黄河市区过境段、市区空气质量检测站、', '回顾过去的工作，我们深切体会到，要实现跨越式发展，必须始终坚持加快发展不放松，牢固树立科学发展观，凝聚全市各方面力量，不断增强创新能力和争先进位意识，努力开创经济和社会发展的新局面；必须始终坚持解放思想，与时俱进，革除一切束缚发展的思想观念、体制弊端，营造良好的发展氛围，为加快发展提供强有力的环境支撑和制度保障；必须始终坚持以人为本、执政为民，时刻关注民生，把提高人民生活水平作为执政之本、为政之要，切实维护和发展广大人民群众的根本利益；必须始终坚持把稳定作为压倒一切的任务，正确处理改革、发展、稳定的关系，保护好、发挥好、引导好各方面发展的积极性，确保改革开放和现代化建设的顺利进行。这些基本做法和经验，在今后的工作中要继续坚持和发展。', '各位代表，过去工作取得的成绩确实来之不易。这些成绩，靠得是党中央、自治区方针、政策的指引，凝结着全市人民的心血、智慧和力量，是方方面面关心支持、共同奋斗的结果。在此，我代表市人民政府，向全市广大工人、农民、知识分子、干部和驻吴部队、武警官兵、公安干警、中央及区属驻吴单位，向各位人大代表、政协委员，向各民主党派、各人民团体以及关心、支持吴忠发展的离退休老同志和社会各界人士，表示崇高的敬意和衷心的感谢！', '我们也清醒地认识到,在前进的道路上还存在不少困难和问题。主要是：经济增长的质量和效益相对较低，固定资产投资增幅不高；工业结构性矛盾突出，产业链条短，企业自主创新能力弱，部分企业效益欠佳；农业特色产业规模不大，龙头企业与基地、农户联系不够紧密，抗旱和扶贫攻坚任务艰巨；城市建设历史欠帐较多，融资渠道不畅；招商引资的大项目不多，实际到位资金比例不够高，投资环境亟待改善；城乡居民收入持续增长的后劲乏力，就业再就业的压力仍未有效缓解；政府职能转变和依法行政工作仍需加强，政府工作效率、工作水平和创新服务的模式需要进一步提高和改善。我们将高度重视这些问题，在改革与发展的实践中认真加以解决。', '在前进的道路上还存在不少困难和问题。主要是：经济增长的质量和效益相对较低，固定资产投资增幅不高；工业结构性矛盾突出，产业链条短，企业自主创新能力弱，部分企业效益欠佳；农业特色产业规模不大，龙头企业与基地、农户联系不够紧密，抗旱和扶贫攻坚任务艰巨；城市建设历史欠帐较多，融资渠道不畅；招商引资的大项目不多，实际到位资金比例不够高，投资环境亟待改善；城乡居民收入持续增长的后劲乏力，就业再就业的压力仍未有效缓解；政府职能转变和依法行政工作仍需加强，政府工作效率、工作水平和创新服务的模式需要进一步提高和改善。我们将高度重视这些问题，在改革与发展的实践中认真加以解决。', '从现在起到2010年，是我市加快建设宁夏经济次中心，为推进社会主义新农村、实现全面小康目标奠定基础的关键时期。根据《中共吴忠市委关于制定国民经济和社会发展第十一个五年规划的建议》精神，“十一五”时期我市经济社会发展的', '年，是我市加快建设宁夏经济次中心，为推进社会主义新农村、实现全面小康目标奠定基础的关键时期。根据《中共吴忠市委关于制定国民经济和社会发展第十一个五年规划的建议》精神，“十一五”时期我市经济社会发展的', '以邓小平理论和“三个代表”重要思想为指导,以全面建设小康社会为目标，以科学发展观统领经济社会发展全局，大力实施工业强市、商贸活市、新农村建设和科教兴市战略，全面推动社会主义物质文明、精神文明和政治文明共同进步，促进全市经济社会全面、协调、可持续发展。', '以全面建设小康社会为目标，以科学发展观统领经济社会发展全局，大力实施工业强市、商贸活市、新农村建设和科教兴市战略，全面推动社会主义物质文明、精神文明和政治文明共同进步，促进全市经济社会全面、协调、可持续发展。', '地区生产总值达到210亿元，年均增长12%；财政收入达到9亿元，年均增长12.5%；固定资产投资累计达到500亿元，年均增长21%；城镇居民人均可支配收入突破1万元，年均增长7%，农民人均纯收入突破4000元，年均增长5%。人口自然增长率控制在12‰以内；城镇登记失业率控制在4%以内；城市化率达到47%左右。到2010年，市区打造成具有西部百强县实力的经济强区；青铜峡夯实争创全国百强县基础；盐池建成宁夏山区工业第一县；同心成为干旱带扶贫开发示范县；红寺堡三项主要经济指标(GDP、财政收入、农民人均纯收入)一年赶超一个山区县；全市上下共同努力建设宁夏经济次中心。', '年，市区打造成具有西部百强县实力的经济强区；青铜峡夯实争创全国百强县基础；盐池建成宁夏山区工业第一县；同心成为干旱带扶贫开发示范县；红寺堡三项主要经济指标', '各位代表，今后五年规划是在认真分析国际国内形势和紧密联系市情的基础上拟定的，目标宏伟，催人奋进；任务艰巨，时不我待。我们一定要振奋精神，排除万难，开拓进取，为把我市建设成为民族团结、社会稳定、人民富裕、山川共同发展、区域特色鲜明、综合实力较强、充满现代文明气息的宁夏经济次中心打下坚实基础。', '2006年是实施“十一五”规划的开局之年，扎扎实实地做好今年的工作,对于巩固“十五”发展成果，顺利实现“十一五”任务目标、加快推进全面建设小康社会意义十分重大。按照市委二届十一次全委(扩大)会议确定的“强工、重农、兴城、活商、聚势”，建设“经济发展又快又好、水韵吴忠和谐文明”的新吴忠的思路，今年我市国民经济和社会发展的主要预期目标是：地区生产总值达到120亿元，增长12%，其中市区45.8亿元，增长11%；全社会固定资产投资63亿元，增长15%，其中市区18亿元，增长8%；地方财政收入5.1亿元，可比增长12.5%，其中市区2.1亿元，可比增长11%；城镇居民人均可支配收入7900元，增长7%，其中市区8005元，增长8%；农民人均纯收入2950元，增长5%，其中市区4100元，增长5%；人口自然增长率控制在13‰以内；城镇登记失业率控制在4.5%以内。实现上述目标，着重抓好以下七个方面的工作：', '对于巩固“十五”发展成果，顺利实现“十一五”任务目标、加快推进全面建设小康社会意义十分重大。按照市委二届十一次全委', '会议确定的“强工、重农、兴城、活商、聚势”，建设“经济发展又快又好、水韵吴忠和谐文明”的新吴忠的思路，今年我市国民经济和社会发展的主要预期目标是：地区生产总值达到', '强化工业在全市经济发展中的主导地位，按照“园区主导，项目跟进，扶优扶强”的要求，加快“工业强市”进程，切实转变增长方式，提高增长质量和效益，力争工业总产值、规模以上企业增加值和利税都保持20%以上的增速。', '围绕区属重点企业和能源电力项目，配合抓好青铝集团自备电厂、红寺堡风力发电等项目建设；围绕高载能新材料和机械制造项目，抓好金昱元技改、万兴车辆改装等项目建设；围绕生物发酵产业，抓好御马酒业、金樽酒业等企业扩建项目；围绕农副产品加工业，抓好夏进、中桦雪等10个产值过亿元的企业。力争年内培育销售收入过50亿元的企业1家、过10亿元的4家、过亿元的20家，全市工业总产值完成170亿元。', '围绕区属重点企业和能源电力项目，配合抓好青铝集团自备电厂、红寺堡风力发电等项目建设；围绕高载能新材料和机械制造项目，抓好金昱元技改、万兴车辆改装等项目建设；围绕生物发酵产业，抓好御马酒业、金樽酒业等企业扩建项目；围绕农副产品加工业，抓好夏进、中桦雪等', '在加快太阳山移民开发区基础设施建设的同时，以永安、韦一井田煤炭为重点，抓好矿产资源勘探开发，促进资源招商，力争年内引进投资亿元以上的企业2家，1000万元以上的企业6家。扩大市区金积、牛首山镁合金工业园区规模，提升青铜峡新材料、盐池东顺、同心羊绒、红寺堡工业园区招商引资的聚合力。力争年内全市工业园区开工建设亿元以上的项目5个，实现产值120亿元以上。', '在加快太阳山移民开发区基础设施建设的同时，以永安、韦一井田煤炭为重点，抓好矿产资源勘探开发，促进资源招商，力争年内引进投资亿元以上的企业', '家。扩大市区金积、牛首山镁合金工业园区规模，提升青铜峡新材料、盐池东顺、同心羊绒、红寺堡工业园区招商引资的聚合力。力争年内全市工业园区开工建设亿元以上的项目', '全面落实加快非公有制经济发展的各项政策措施，建立健全诚信评价、信用担保、人才培训、法律服务体系及各类行业协会组织，解决企业融资难、维权难和人才缺乏等问题。引导非公有制企业完善法人治理结构，通过参股、兼并、联合等方式，扶持一批成长性好的科技型非公有制企业，促使非公有制经济整体提升和群体拓展。力争全市中小工业企业达到1700家，实现地方工业产值90亿元。', '全面落实加快非公有制经济发展的各项政策措施，建立健全诚信评价、信用担保、人才培训、法律服务体系及各类行业协会组织，解决企业融资难、维权难和人才缺乏等问题。引导非公有制企业完善法人治理结构，通过参股、兼并、联合等方式，扶持一批成长性好的科技型非公有制企业，促使非公有制经济整体提升和群体拓展。力争全市中小工业企业达到', '以企业为依托，通过有偿服务、技术转让、引进及采用新技术、新设备、新工艺，加快技术创新、新产品开发及技术改造，提高企业的技术装备水平和产品科技含量，增强市场竞争力。加大对优势产业、龙头企业和拳头产品的扶持。重点抓好米来生物等65个投资500万元以上的技改扩建、新建和续建项目。实施品牌战略，鼓励企业培育自主品牌，并采取措施帮助企业保护品牌，提升工业发展水平。', '以企业为依托，通过有偿服务、技术转让、引进及采用新技术、新设备、新工艺，加快技术创新、新产品开发及技术改造，提高企业的技术装备水平和产品科技含量，增强市场竞争力。加大对优势产业、龙头企业和拳头产品的扶持。重点抓好米来生物等', '万元以上的技改扩建、新建和续建项目。实施品牌战略，鼓励企业培育自主品牌，并采取措施帮助企业保护品牌，提升工业发展水平。', '以建设资源节约型、环境友好型社会为目标，围绕冶金、化工等高耗能行业，突出抓好节煤、节电、节油、节水和降耗，做好重点行业、领域、产业园区循环经济试点工作，形成资源开发、加工与废弃物回收利用的良性循环，力争工业万元增加值能耗低于3.37吨标准煤、水耗低于1380吨，工业水重复利用率达43%，固体废物利用率达37%。', '以建设资源节约型、环境友好型社会为目标，围绕冶金、化工等高耗能行业，突出抓好节煤、节电、节油、节水和降耗，做好重点行业、领域、产业园区循环经济试点工作，形成资源开发、加工与废弃物回收利用的良性循环，力争工业万元增加值能耗低于', '积极做好印刷厂、造纸厂等企业改革后续工作，全力抓好益木公司等10家企业改革，继续争取国有困难企业职工基本生活保障向失业保险并轨试点的政策支持，妥善处理遗留问题，帮助企业重新焕发生机。', '家企业改革，继续争取国有困难企业职工基本生活保障向失业保险并轨试点的政策支持，妥善处理遗留问题，帮助企业重新焕发生机。', '紧紧围绕“生产发展，生活宽裕，乡风文明，村容整洁，管理民主”的社会主义新农村建设目标要求，坚持因地制宜，分类指导，统筹山川，全面发展，稳定、完善和强化各项支农惠农政策，加快现代农业建设，壮大农村经济实力，切实增加农民收入。', '积极引导龙头企业与农户建立诚信为本、互惠互利的利益联结机制，走基地化、标准化、产业化的发展路子，提高农业生产的组织化程度。奶产业紧紧依托夏进公司等乳品加工企业，加快以“西部乳都”优质奶牛核心区为主的奶牛园区建设，强力推进“奶牛出户入园上挤奶台”工程，力争奶牛存栏达到13万头以上，入园率达到60%以上；牛羊肉产业依托宇华肉联和涝河桥牛羊肉市场，扩大品牌优势，力争肉牛饲养量达到35万头、羊400万只。稳步扩大生猪、家禽等特色养殖规模，力争生猪饲养量达到90万头、家禽700万只。全市畜牧业产值实现16亿元；优质粮食产业依托万胜生物、米来生物、嘉禾粮油等龙头企业，优化品种，扩大规模，力争优质水稻种植面积达到18万亩，优质小麦、优质专用玉米和优质马铃薯各40万亩；依托深圳东部集团、御马酒业和科冕公司，加快以孙家滩地区为核心的高酸苹果、青铜峡和红寺堡为主的葡萄基地建设，力争高酸苹果达到3万亩', '积极引导龙头企业与农户建立诚信为本、互惠互利的利益联结机制，走基地化、标准化、产业化的发展路子，提高农业生产的组织化程度。奶产业紧紧依托夏进公司等乳品加工企业，加快以', '亿元；优质粮食产业依托万胜生物、米来生物、嘉禾粮油等龙头企业，优化品种，扩大规模，力争优质水稻种植面积达到', '万亩；依托深圳东部集团、御马酒业和科冕公司，加快以孙家滩地区为核心的高酸苹果、青铜峡和红寺堡为主的葡萄基地建设，力争高酸苹果达到', '酿酒葡萄5万亩。大力发展特色农业，重点加快吴忠国家农业科技园区种植业核心区和市区现代农业示范县建设，辐射带动全市无公害果蔬发展到15万亩，优质中药材5万亩。推进林草工程建设，巩固退耕还林、封山禁牧成果，种植优质牧草200万亩。', '万亩。大力发展特色农业，重点加快吴忠国家农业科技园区种植业核心区和市区现代农业示范县建设，辐射带动全市无公害果蔬发展到', '坚持不懈地抓好农田水利基本建设，实行沟、渠、田、林、路综合治理。重点实施盐、同、红境内小流域综合治理、草原保护和围栏建设等项目，提高中部干旱带抗旱能力。加快实施汉延渠与惠农渠合并、唐徕渠与西干渠合并、西夏渠开挖工程。', '按照培养一代新农民的要求，全面实施“阳光工程”、“百万农民培训工程”，建立健全劳务培训、信息中介和输出工作的长效机制。大力培养技术人才，扩大品牌优势，力争年内培训农民25万人，输出劳务18万人，实现劳务收入8亿元以上。', '科学制定新农村建设总体规划，积极开展试点示范。继续推进“塞上农民新居”工程建设，重点抓好太阳山农民新居二期、东塔寺乡柴园农民新村等6个示范点。加快农村道路、能源、通讯、安全饮水、庄点整治等公用事业建设，切实改善农村生产条件和人居环境。年内全市新建、改建农村等级公路260公里。', '个示范点。加快农村道路、能源、通讯、安全饮水、庄点整治等公用事业建设，切实改善农村生产条件和人居环境。年内全市新建、改建农村等级公路', '实施扬黄扶贫扩灌项目，加快下马关、孙家滩引水工程建设，新开发耕地10万亩。积极推广秋春覆膜种植技术，大力发展抗旱避灾和节水农业，积极向节水型社会目标迈进。抓住中盐高速、中太银铁路开工建设的机遇，加快推进开发式扶贫。认真实施中部干旱带人畜饮水项目，加快推进“千村扶贫”、“整村推进”、山区危房危窑改造工程，继续开展市直机关定点帮扶工作。', '万亩。积极推广秋春覆膜种植技术，大力发展抗旱避灾和节水农业，积极向节水型社会目标迈进。抓住中盐高速、中太银铁路开工建设的机遇，加快推进开发式扶贫。认真实施中部干旱带人畜饮水项目，加快推进“千村扶贫”、“整村推进”、山区危房危窑改造工程，继续开展市直机关定点帮扶工作。', '按照“依托黄河，相向发展，道路连城，生态扩城”的要求，加快滨河生态城市建设，提升县城和中心集镇的发展水平。全市安排重点建设项目92项，总投资20亿元，建筑面积134万平方米，力争城市化率达到38%，其中市区安排40项，总投资10亿元，建筑面积82万平方米，城市化率达到50%。', '重点抓好吴忠公路黄河大桥项目的立项和宁东基地古窑子经市区至青铜峡“东西大通道”工程的前期论证、立项工作，争取早日开工建设。积极做好滨河大道主干线线型调整、滨河大道三期、黄河两岸连接线等工程项目。新建续建西一环南段、明珠路西段打通等6条城市道路，启动建设金积东大桥至滨河大道道路，为拉大城市框架、建设滨河生态城市奠定基础。抓好迎宾大街向南打通、明珠广场改造、城市集污续建、胜利西街集中供热、供水供暖分户改造等基础设施建设项目。新建续建吴忠汽车站、地税大厦等16个公建项目和华港小区、星河锦城二期等10个住宅小区。实施明珠公园、秦渠公园二期、开元大道A段南侧、西一环等园林绿化工程建设项目。', '条城市道路，启动建设金积东大桥至滨河大道道路，为拉大城市框架、建设滨河生态城市奠定基础。抓好迎宾大街向南打通、明珠广场改造、城市集污续建、胜利西街集中供热、供水供暖分户改造等基础设施建设项目。新建续建吴忠汽车站、地税大厦等', '继续改造提升主要街区，完善基础设施，增强服务功能，提升城市聚集效能，切实抓好青铜峡市中庄至大坝公路、汉坝街与古峡街两条连接道路，同心县西北环路西段改造，盐池县革命历史纪念馆、盐州园，红寺堡开发区综合市场改造、政府街东段等项目建设。加快金积、峡口、惠安堡、韦州、太阳山等一批中心集镇建设，培育一批独具风格、集聚产业的新型小城镇。', '发挥市场配置资源的基础性作用，激活土地、资本等要素，加快推进城市公用事业改革。建立多元化的投融资机制，鼓励引导企业、个人采取自建、公办民营等方式建设和经营供排水、集中供热等公用基础设施，切实增强城镇综合服务功能。挖掘城市潜能，完善城市经济带动、产业集聚、科教传播、文化服务功能，进一步提升城市品位和发展水平。', '坚定不移地把发展现代商贸流通业作为促进经济增长的主要突破口，大力开展“现代商贸流通经济发展年”活动，完善市场功能，整合商贸资源，发挥商贸优势，打造商贸名城，力争全社会消费品零售总额达到30亿元，增长11%以上。', '整合提升专业批发市场功能，精心培育盐池商业广场、红寺堡罗山商城、同心羊绒和牛羊肉交易市场等特色专业市场。改造完善市区以涝河桥市场为依托的牛羊肉片区、以东郊市场为依托的蔬菜批发片区等“五大物流片区”，争取启动建设西部物流中心项目，打造新的商贸流通业发展平台。加快推进商贸核心区改造，规划建设吴忠国际商贸大厦。借鉴义乌经营理念，扩大双方交流合作，鼓励发展小商品批发业，力争尽快形成规模。坚持划行归市，发展各类商贸专业街和品牌名店专营街。', '整合提升专业批发市场功能，精心培育盐池商业广场、红寺堡罗山商城、同心羊绒和牛羊肉交易市场等特色专业市场。改造完善市区以涝河桥市场为依托的牛羊肉片区、以东郊市场为依托的蔬菜批发片区等', '坚持“东中西三线”推进，东线开发陕甘宁边区盐池县和红军西征途经地同心县的红色经典游，中线开发古城湾、市区街心食府、古灵州遗址等民俗风情和历史文化游，西线开发提升青铜峡金沙湾、鸟岛、一百零八塔、罗山自然生态保护区、牛首山寺庙群等黄河沿线自然风光游，着力培育打造精品旅游线路。全年旅游收入增长25%以上。', '坚持走出去与请进来相结合，内资外资一起引，通过“上争、内聚、外引”，力促招商引资工作再上新水平。全年招商引资实际到位资金22亿元以上，引进亿元以上项目10个，5000万元以上项目15个。', '抓住国家对欠发达地区、革命老区和少数民族地区实施政策倾斜的机遇，千方百计向上争取国家、自治区国债项目及专项资金支持，加快城市排污、垃圾处理、乡村公路等基础设施建设。积极主动承接东部地区产业梯度转移，争取沿海地区企业、资金来我市创办农副产品加工业和绿色环保型企业，建立零部件或初级产品生产基地。密切与东南沿海地区、友好城市、经济协作组织的横向联系，充分利用当地企业的资金、市场和信息等优势，合作构建我市农副产品、特色食品等产品营销网络。加强与上海联合产权交易所交流合作，认真对接落实合作项目，不断扩大合作领域，提高合作水平。引导和鼓励本市企业以商招商、以企引企，内引外联，优势互补。', '建立健全严格的考核机制和奖惩措施，进一步明确招商引资责任，着力提高项目的签约率、开工率和资金到位率，确保项目引得进、留得住。按照“瞄准项目抓洽谈，洽谈项目抓签约，签约项目抓开工，开工项目抓进度，建成项目抓效益”的要求，充分利用我市企业存量资产多、劳动力充裕、资源丰富等优势，打好资源牌、商贸牌、绿色牌、滨河城市牌、产权交易牌，吸引外资参与我市企业改造、农副产品加工、城镇基础设施建设及社会公用事业改革等领域。重点抓好天净公司投资4.3亿元的5万千瓦风力发电、宇华公司投资1.5亿元的“沙漠王子”肉食品配送中心等15个项目的落实工作。', '建立健全严格的考核机制和奖惩措施，进一步明确招商引资责任，着力提高项目的签约率、开工率和资金到位率，确保项目引得进、留得住。按照', '加快行政审批改革，清理行政许可事项，强化政务大厅集中审批，实行行政审批一门受理，全程代理，阳光操作。认真落实招商引资的各项政策，积极搞好协调服务，坚决兑现对客商的承诺，严肃查处欺坑外地客商的不法行为，切实维护外来投资者的合法权益，树立我市对外开放的新形象。', '在加快经济发展的同时，时刻关注民生，高度重视发展社会事业，加强精神文明和民主法制建设，推进经济、社会和人的全面发展，加快向和谐社会的目标迈进。', '实施积极的就业再就业政策，把发展服务业、中小企业、劳动密集型企业、非公有制经济、劳务输出等作为扩大就业的主要方向，增加就业岗位，开发公益性岗位，强化政府对就业的指导和服务。加强职业培训特别是失地农民培训，提高劳动者就业技能和创新能力，年内实现城镇新增就业1万人，其中下岗失业人员再就业1000人。积极做好“两个确保”和“三条保障线”的衔接。全年养老、医疗、失业、工伤、生育保险人数达到20万人。加强劳动保障监察执法工作，切实保护劳动者合法权益。完善自然灾害救助、农村社会救助、城市社会救助制度，建立健全扶贫解困的长效工作机制。', '实施积极的就业再就业政策，把发展服务业、中小企业、劳动密集型企业、非公有制经济、劳务输出等作为扩大就业的主要方向，增加就业岗位，开发公益性岗位，强化政府对就业的指导和服务。加强职业培训特别是失地农民培训，提高劳动者就业技能和创新能力，年内实现城镇新增就业', '人。积极做好“两个确保”和“三条保障线”的衔接。全年养老、医疗、失业、工伤、生育保险人数达到', '万人。加强劳动保障监察执法工作，切实保护劳动者合法权益。完善自然灾害救助、农村社会救助、城市社会救助制度，建立健全扶贫解困的长效工作机制。', '完善鼓励科技创新的财税、金融、用地和人才等政策，大力开展技术合作与交流，建立以企业为主导、产学研相结合的创新机制，提高区域自主创新能力和成果转化能力。围绕主导产业和优势特色产业，实施一批科技项目，组织开展科技攻关、技术开发。深入实施科技特派员创业行动，推进科技体制创新。认真做好科技部对国家农业科技园区的达标验收工作。按照“巩固基础，优化结构，城乡协调，优质均衡”的思路，加快推进川区教育强县、强乡（镇）和基本普及高中阶段教育进程，完成同心县“两基”攻坚任务，巩固提高“普九”成果。积极整合教育资源，继续实施学校布局结构调整，促进学前教育、基础教育、特殊教育和成人教育事业的均衡、协调发展。发挥吴忠职业技术学院、青铜峡职教中心作用，大力发展职业技术教育。认真落实“两免一补”政策，高度关注弱势群体教育，切实解决好进城务工家庭、农村流动人口和低保家庭子女入学问题。', '完善鼓励科技创新的财税、金融、用地和人才等政策，大力开展技术合作与交流，建立以企业为主导、产学研相结合的创新机制，提高区域自主创新能力和成果转化能力。围绕主导产业和优势特色产业，实施一批科技项目，组织开展科技攻关、技术开发。深入实施科技特派员创业行动，推进科技体制创新。认真做好科技部对国家农业科技园区的达标验收工作。按照', '大力开展社区文化、广场文化、乡村文化、校园文化等群众性文化活动，巩固提升宣传文化体育中心户创建工作。实施文艺精品工程，挖掘和弘扬吴忠优秀历史文化，扶持具有地方特色、民族特色和时代精神的文化产品。广泛开展全民健身运动，努力提高竞技体育水平。积极做好市区、青铜峡市、盐池县农村新型合作医疗制度试点工作，争取同心县和红寺堡开发区列入试点县(区)，高度重视并逐步解决群众看病难、看病贵的问题。加强医疗市场监管，调整医疗机构布局，规范县、乡、村三级医疗预防保健网络，完善疾病控制、医疗救治、卫生监督体系，年内完成20个乡镇卫生院和一批村卫生室改扩建任务。维护妇女、儿童合法权益，关心支持老龄、残疾人事业。继续重视做好统计、文史档案、外事侨务、广播电视、防震减灾、气象预报等工作。', '大力开展社区文化、广场文化、乡村文化、校园文化等群众性文化活动，巩固提升宣传文化体育中心户创建工作。实施文艺精品工程，挖掘和弘扬吴忠优秀历史文化，扶持具有地方特色、民族特色和时代精神的文化产品。广泛开展全民健身运动，努力提高竞技体育水平。积极做好市区、青铜峡市、盐池县农村新型合作医疗制度试点工作，争取同心县和红寺堡开发区列入试点县', '，高度重视并逐步解决群众看病难、看病贵的问题。加强医疗市场监管，调整医疗机构布局，规范县、乡、村三级医疗预防保健网络，完善疾病控制、医疗救治、卫生监督体系，年内完成', '个乡镇卫生院和一批村卫生室改扩建任务。维护妇女、儿童合法权益，关心支持老龄、残疾人事业。继续重视做好统计、文史档案、外事侨务、广播电视、防震减灾、气象预报等工作。', '加强人口与计划生育工作，推进“少生快富”工程和奖励扶助制度，深入开展“三无”和“一无”乡镇创建活动，年内实现三分之一乡镇达标。深化环保专项治理，加大污染防治力度，加强生态环境保护，严肃查处各种违法行为，切实改善城乡环境质量。依法保护和合理开发水、土地、矿产、森林、草原等自然资源，建立健全资源有偿使用制度，严厉打击滥采乱挖等非法行为，提高资源永续利用水平，推进经济社会可持续发展。', '加快行政管理体制改革，全面完成县乡机构改革和人员分流，稳步推进事业单位改革。积极推行市政水务改革试点，加快供销合作社改革。深化农村税费配套改革，推进灌区水费改革进程。加快财税管理体制改革，完善地方财税收入征管办法，优化财税环境，强化稽查监督，加强收入征管，深化和推进部门预算、收支两条线、国库集中支付、政府采购、乡财县管等各项财政配套改革。', '深入实施公民道德建设工程，推进文明城镇、文明社区、文明乡村和文明户创建活动，开展文化扶贫和“三下乡”、“四进社区”、“志愿者行动”等活动，提高全社会文明程度。拓展社区服务，改善社区环境，推进社区自治，建设和谐社区。加快依法治市进程，启动“五五”普法工作。推进基层司法所规范化建设，加强律师、公证和法律援助等工作。认真执行人民代表大会及其常委会的决定决议，积极支持人民政协发挥政治协商、民主监督和参政议政作用，认真办理人民代表议案、建议、意见和政协委员提案。密切与各民主党派、人民群众团体和社会各界的联系，不断拓宽社情民意的反映渠道。扩大基层民主，推进政务、村务、厂务、校务公开。认真落实党的民族宗教政策，依法加强民族宗教事务管理，切实做好新时期民族宗教工作。加强国防动员教育、人民防空和民兵预备役建设，巩固“双拥”成果，增进军政、军民团结。健全矛盾纠纷排查调处机制，强化人民调解和信访工作，积极预防并妥善处理人民内部矛盾和群体性事件。高度重视安全生产，加强食品药品安全，严格落实安全生产责任制，防止大的事故发生，保障人民生命财产安全。深化“平安吴忠”创建活动，认真落实社会治安综合治理的各项措施与维护稳定责任制，依法严厉打击各类违法犯罪，深入开展“人民禁毒战争”和“无毒社区、无毒学校、无毒单位、无毒村庄”创建活动，坚决扫除社会丑恶现象，创造更加稳定和谐的社会环境。', '深入实施公民道德建设工程，推进文明城镇、文明社区、文明乡村和文明户创建活动，开展文化扶贫和', '完成今年的各项任务，实现“十一五”发展宏伟目标，必须按照“行为规范，运转协调，公正透明，廉洁高效”的要求，切实加强政府自身建设，努力把政府工作提高到一个新的水平。', '确立“管理就是服务”、“服务就是竞争力”的理念，强化政府公共事务管理职能，发挥市场配置资源的基础性作用，切实解决越位、缺位和错位的问题。建立健全各种突发事件应急机制，提高政府应对公共危机的能力。健全决策方式、规范决策程序、强化决策责任，提高决策的透明度和公众参与度，做到科学决策、民主决策。简化办事程序，提高机关效能，分工负责，团结协作，推动政府工作的高效便捷和协调运转。', '深入贯彻《行政许可法》，全面清理行政许可规定和实施主体，严格执行规范性文件前置审查和备案制度。加快建立权责明确、行为规范、监督有效、保障有力的执法体制，完善行政执法责任制、评议考核制和过错责任追究制，增强政府工作人员依法行政的观念，做到规范执法、文明执法。加强行政执法监督检查和行政复议工作，认真落实行政赔偿制度，切实维护行政相对人的合法权益。', '牢固树立科学的发展观和正确的政绩观，坚持一切从实际出发，按客观规律办事，既要积极进取，又要量力而行，不盲目攀比。坚持重实际、说实话、办实事、求实效，不图虚名，不务虚功，确保好事办实，实事办好。大力推进政府信用建设，有诺必践，有错必纠，确保政府承诺落到实处。进一步改进工作作风，密切与群众的联系，精简会议，压缩文件，减少应酬，用更多的时间和精力，深入基层，深入群众，调查研究。继续做好为民承诺办理的实事，切实解决群众关注的热点、难点问题。加强责任落实，强化政务督查，严格兑现奖惩，进一步健全抓落实的工作机制。', '认真学习贯彻《公务员法》，忠于职守，勤奋工作，清正廉洁，公道正派，努力造就一支政治坚定、业务精通、作风优良、廉洁奉公的高素质公务员队伍。大力倡导艰苦奋斗、勤俭节约的光荣传统，坚持勤俭办一切事业。认真落实中纪委六次全会精神和廉洁从政的各项规定，建立健全教育、制度、监督并重的预防和惩治腐败体系，加强行政监察、审计监督，推行“阳光行政”，坚决纠正部门和行业不正之风，努力促进政风行风进一步好转。', '认真学习贯彻《公务员法》，忠于职守，勤奋工作，清正廉洁，公道正派，努力造就一支政治坚定、业务精通、作风优良、廉洁奉公的高素质公务员队伍。大力倡导艰苦奋斗、勤俭节约的光荣传统，坚持勤俭办一切事业。认真落实中纪委六次全会精神和廉洁从政的各项规定，建立健全教育、制度、监督并重的预防和惩治腐败体系，加强行政监察、审计监督，推行', '各位代表，全市改革开放和现代化建设正处于关键时期，我们深知任务艰巨，责任重大。让我们高举邓小平理论和“三个代表”重要思想伟大旗帜，紧密团结在以胡锦涛同志为总书记的党中央周围，在自治区党委、政府和市委的坚强领导下，坚定信心，振奋精神，迎难而上，扎实工作，为建设宁夏经济次中心，开创“十一五”时期经济社会发展的新局面而努力奋斗！', '各位代表，全市改革开放和现代化建设正处于关键时期，我们深知任务艰巨，责任重大。让我们高举邓小平理论和']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>291</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>吴忠市农牧局汇总年部门预算</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.wuzhong.gov.cn/xxgk/zfxxgkml/yjsgkqk/bmys/2019n_48258/201902/t20190215_1280960.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['1、贯彻执行国家、自治区有关法律、法规、规章和方针政策；拟订农业发展政策、规划，并组织实施。', '2、指导农村土地承包经营管理、纠纷仲裁、土地流转、确权登记等工作，建立完善农村土地流转服务体系；指导农业社会化服务体系建设、乡村集体经济组织建设和合作经济组织建设；监督农民减负政策落实、农村筹资筹劳标准执行和农村“三资”管理；负责开展农村经济运行态势监测。', '3、拟订农业产业化经营的有关政策和项目建议并指导实施；负责组织农产品生产基地建设、市场体系建设、农业生产资料市场体系建设，指导各类农产品加工龙头企业发展；参与实施有关农业综合开发项目。', '4、负责食用农产品从种植养殖环节到进入批发、零售市场或生产加工企业前的质量安全监督管理；负责全市种子、农药、饲料、化肥、兽药等农业生产资料的质量监督管理工作；负责农产品质量检验检测和农产品质量体系认证管理工作。', '5、指导、监督全市畜禽疾病、植物病虫害的防疫检疫和畜禽定点屠宰工作；组织全市动物疫情防控工作。', '6、指导全市农业新品种、新技术的试验示范及农业技术推广工作；负责组织实施农业示范带建设工作，承担指导农业环境保护和面源污染治理有关工作；指导生态农业、休闲农业、循环农业的发展；开展农机安全监理执法工作，负责农机维修市场和农机合作组织的监管工作。', '7、组织实施科教兴农战略，拟订全市农业科研、教育、技术推广及各类农业人才队伍建设的发展规划；组织重大科研和技术推广项目的遴选及实施，指导农业教育及农业职业技能开发工作。', '9、负责组织农业重大项目的申报、实施及监管工作；组织协调菜篮子工程的实施；指导全市农业信息化建设工作。', '农牧局所辖5个科室（办公室(含财务室)、产业信息科、农业农机科、畜牧渔业科、市场政策与法规科），其中：', '编制人数25人，其中：行政编制22人，参照公务员法管理人员3人；2018年年未在职人员18人（包括工勤人员1人），离休人员1人；7个事业站所，事业编制67个，现有在职事业人员62人。吴忠市农牧局属财政拨款一级行政单位，财务独立核算，在吴忠农业银行开设1个基本账户和1个零余额用款账户。执行《行政单位会计制度》，法人：马长贵。按照“五不直接分管”规定，财务由汪洋副局长分管，6月下旬汪洋副局长调出由副调研员何建民分管财务，所属7个事业单位财务独立核算，由局机关财务室代理记账、核算。', '从预算单位构成看，吴忠市农牧局部门预算包括：吴忠市农牧局本级预算、所属事业单位预算。纳入吴忠市农牧局2019年部门预算编制的二级预算单位包括：', '从预算单位构成看，吴忠市农牧局部门预算包括：吴忠市农牧局本级预算、所属事业单位预算。纳入吴忠市农牧局', '2019年“三公”经费财政拨款预算比2018年增加13.30万元，其中：因公出国（境）费增加0.00万元，主要原因本单位无因公出国人员；公务用车购置费增加0.00万元，主要原因本单位未购置公务用车；公务用车运行费增加7.2万元，主要原因工作任务增加，导致车辆运行费增加；公务接待费增加6.1万元，主要原因是农牧局招商引资任务大，外省市到我局调研学习考察次数较多，农业农村部到各事业站所抽检接待每季度一次。', '下属单位吴忠市农业技术推广服务中心 、吴忠市农村合作经济经营管理站、吴忠市农业机械安全监理所、吴忠市农业广播电视学校、吴忠市畜牧水产技术推广服务中心、吴忠市动物疾病预防控制中心、吴忠市农产品质量安全检测中心为事业单位，以上单位机关运行费均为0万元。', '吴忠市农牧局及下属各事业站所2019年度支农政策专项资金276.3万元。主要用于：', '吴忠市农牧局预算资金安排资金40.00万元，主要用于各种参加各类展会、富硒产品的展示、展销、推介，农业科技示范项目的调研等支出。', '吴忠市农产品质量安全检测中心预算安排资金10.00万元，用于农产品质量安全检验检测及监管项目，该项目资金主要用于全市农产品质量安全检测、监管工作和全市“三品一标”认证工作。', '，用于农产品质量安全检验检测及监管项目，该项目资金主要用于全市农产品质量安全检测、监管工作和全市', '吴忠市农业广播学校预算安排资金10.00万元，用于农民农民培训实训基地建设补助项目，该项目资金主要用于农民实训基地基础设施建设及采购基础设备。', '，用于农民农民培训实训基地建设补助项目，该项目资金主要用于农民实训基地基础设施建设及采购基础设备。', '吴忠市农经站预算安排资金5.00万元，计划在吴忠市五县（市、区）全面深化农村土地制度改革，落实好第二轮土地承包到期后再延长30年的政策，保持土地承包关系稳定关系长久不变。继续扩大农村“四荒地”。农业生产设施设备等确权登记颁证范围。积极引导新型经营主体开展适度规模经营，巩固农村集体资产清产核资成果基础上，推进集体资产股份合作制改革。有效整合开发集体所有的各类资源、资产、不断壮大集体经济，增加农民财产性收入。大力培育新型经营主体，推进各县（市、区）的产权交易中心建设。农村综合改革项目主要是用于弥补办公经费不足的问题。推进各类改革工作的顺利进行。', '计划在吴忠市五县（市、区）全面深化农村土地制度改革，落实好第二轮土地承包到期后再延长', '吴忠市畜牧水产服务中心预算安排资金49.2万元，主要用于畜牧新技术推广、牛奶DHI检测中心工作人员工资、退伍军人工资、工作人员畜牧兽医卫生津贴补贴等支出。', '吴忠市动物疾病预防控制中心预算安排资金140.94万元，主要用于工作人员畜牧兽医医疗卫生津贴5.94万元、动物防疫经费135万元。', '吴忠市农业机械安全监理所财政预算安排退伍军人经费10万元，主要用于1名退伍军人孙斌2019年工资每月发放标准为3695元，依据2019年1月吴忠市人力资源和社会保障局核定表，从2019年1月执行，全年共计发放工资及其他工资福利支出8.94万元，其中包括：工资4.43万元，“五险一金”1.8万元，公用经费0.6万元，未休公休假0.33万元，取暖费0.37万元，民族团结补贴0.6万元，政府效能奖0.8万元，维护单位干部队伍稳定，推进农机监理工作有序开展。', '吴忠市农业技术推广服务中心预算安排资金4.56万元。主要用于工作人员有毒有害津贴补贴。', '3.事业单位经营收入：指事业单位在专业业务活动及辅助琥珀那个之外开展非独立核算经营活动取得的收入。', '4.其他收入：指除上述“一般公共预算拨款收入”、“事业收入”、“事业单位经营收入”等以外的各项收入。主要包括非本级财政拨款、事业单位的投资受益等收入。', '5.林水支出（类）农业（款）：反映财政用于种植业、畜牧业、渔业、兽医、农技、农垦、农场、农业产业化经营组织、农村和垦区公益事业、农产品加工等方面的支出。', '6.事业运行（项）：反映用于农业事业单位基本支出，事业单位设施、系统运行与资产维护等方面的支出。', '7.科技转化与推广服务(项）：反映用于农业科技成果转化、农业新产品、新机具、新技术引进、试验、示范、推广及服务等方面支出。', '8.农业组织化与产业化经营（项）：反映对农民专业合作组织、农业产业化龙头企业等开展基地建设、质量标准等方面的补助支出。', '10.住房保障支出（类）住房改革支出（款）：反映行政事业单位用财政拨款资金和其他资金等安排的住房改革支出，包括住房公积金、提租补贴和购房补贴（指无房和未达标住房补贴）。', '11.住房公积金（项）：指按照《住房公积金管理条例》的规定，由单位及其在职职工缴存的长期住房储金。', '12.购房补贴（项）：指根据《国务院关于进一步深化城镇住房制度改革加快住房建设的通知》（国发〔1998〕23 号）的规定，从 1998 年下半年停止实物分房后，房价收入比超过 4 倍以上地区对无房和住房未达标职工发放的住房货币化改革补贴资金。中央行政事业单位从 2000 年开始发放购房补贴资金，地方行政事业单位从 1999 年陆续开始发放购房补贴资金，企业根据本单位情况自行确定。在京中央单位按照《中共中央办公厅 国务院办公厅转发建设部等单位&lt;关于完善在京中央和国家机关住房制度的若干意见&gt;的通知》（厅字〔2005〕8 号）规定的标准执行，京外中央单位按照所在地人民政府住房分配货币化改革的政策规定和标准执行。', '13.“三公”经费：纳入中央财政预决算管理的“三公”经费，是指中央部门用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的国际旅费、国外城市间交通费、住宿费、伙食费、培训费、公杂费等支出；公务用车购置及运行费反映单位公务用车车辆购置支出（含车辆购置税）及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
